--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C07AD3-35DF-A048-8B75-AEBA945C982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19323482-8339-1C49-A506-DEF79867FFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="3200" windowWidth="28040" windowHeight="17440" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC9807F-D449-F64D-B609-C46CE22F50A2}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2445,12 +2445,12 @@
         <v>93</v>
       </c>
       <c r="B101">
-        <f>SUM(B3:B100)</f>
-        <v>319</v>
+        <f>SUM(B2:B99)</f>
+        <v>222</v>
       </c>
       <c r="C101">
-        <f>SUM(C3:C100)</f>
-        <v>297</v>
+        <f>SUM(C2:C99)</f>
+        <v>166</v>
       </c>
       <c r="D101">
         <f>SUM(D3:D100)</f>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19323482-8339-1C49-A506-DEF79867FFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E6A528-A0D0-4749-861A-330477B46F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="3200" windowWidth="28040" windowHeight="17440" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
+    <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="latex" sheetId="2" r:id="rId2"/>
+    <sheet name="Binding_sites_identified" sheetId="2" r:id="rId2"/>
+    <sheet name="dpiBA" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="196">
   <si>
     <t>Operon</t>
   </si>
@@ -349,13 +350,289 @@
   </si>
   <si>
     <t>adiY</t>
+  </si>
+  <si>
+    <t>Operon name</t>
+  </si>
+  <si>
+    <t>Strand</t>
+  </si>
+  <si>
+    <t>TSS (RegulonDB)</t>
+  </si>
+  <si>
+    <t>TSS (Req-seq)</t>
+  </si>
+  <si>
+    <t>fwd</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>DARSI site left</t>
+  </si>
+  <si>
+    <t>RegulonDB site right</t>
+  </si>
+  <si>
+    <t>RegulonDB site left</t>
+  </si>
+  <si>
+    <t>RegulonDB site identity</t>
+  </si>
+  <si>
+    <t>DARSI site right</t>
+  </si>
+  <si>
+    <t>DARSI site sequence</t>
+  </si>
+  <si>
+    <t>DARSI site identity</t>
+  </si>
+  <si>
+    <t>Genome coordinate of the gene</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>yagH</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>dnaE_start1</t>
+  </si>
+  <si>
+    <t>dnaE_start2</t>
+  </si>
+  <si>
+    <t>ydhO</t>
+  </si>
+  <si>
+    <t>ymgG</t>
+  </si>
+  <si>
+    <t>WaaA-coaD</t>
+  </si>
+  <si>
+    <t>pyrLBI</t>
+  </si>
+  <si>
+    <t>rplKAJL-rpoBC</t>
+  </si>
+  <si>
+    <t>yodB</t>
+  </si>
+  <si>
+    <t>atpIBEFHAGDC</t>
+  </si>
+  <si>
+    <t>msyB</t>
+  </si>
+  <si>
+    <t>ndk</t>
+  </si>
+  <si>
+    <t>tff-rpsB-tsf</t>
+  </si>
+  <si>
+    <t>dicA</t>
+  </si>
+  <si>
+    <t>dicB</t>
+  </si>
+  <si>
+    <t>rel</t>
+  </si>
+  <si>
+    <t>marR</t>
+  </si>
+  <si>
+    <t>phnA</t>
+  </si>
+  <si>
+    <t>dcm</t>
+  </si>
+  <si>
+    <t>amiC</t>
+  </si>
+  <si>
+    <t>mutM</t>
+  </si>
+  <si>
+    <t>ybjX</t>
+  </si>
+  <si>
+    <t>rhle</t>
+  </si>
+  <si>
+    <t>TSS coordinate</t>
+  </si>
+  <si>
+    <t>Strand condition</t>
+  </si>
+  <si>
+    <t>Coordinate offset</t>
+  </si>
+  <si>
+    <t>Reg-seq left coordinate</t>
+  </si>
+  <si>
+    <t>Reg-seq right coordinate</t>
+  </si>
+  <si>
+    <t>GTGTGCAGATTAAAGTTGTTCATTACTTGCTCCCTTTGCTGGGCCAATATGAGGGCAGAGAACGATCTGCCTGATGTTTTTCATTGTGATCGCCAGCGCCCTGGCTCTCAATGCTCATTTCTGCCAATGTCTTGCCTATTTCTCCAGAGTGCTGGAGAAA</t>
+  </si>
+  <si>
+    <t>3,154,262 &lt;- 3,155,218</t>
+  </si>
+  <si>
+    <t>Sigma Factor (RegulonDB)</t>
+  </si>
+  <si>
+    <t>Promotor Seq (RegulonDB)</t>
+  </si>
+  <si>
+    <t>sigma24</t>
+  </si>
+  <si>
+    <t>agcatcgtgaggaatttgttcgcgtaaaccagcgattgcgcctttaccaaacagaatgcgGgttggggtgtgcagattaaa</t>
+  </si>
+  <si>
+    <t>ATTTCTCCAGCACTCTGGAGAAAT</t>
+  </si>
+  <si>
+    <t>activator</t>
+  </si>
+  <si>
+    <t>Promoter</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>yqhc</t>
+  </si>
+  <si>
+    <t>DARSI site right (relative)</t>
+  </si>
+  <si>
+    <t>DARSI site left (relative)</t>
+  </si>
+  <si>
+    <t>% overlap</t>
+  </si>
+  <si>
+    <t>New site?</t>
+  </si>
+  <si>
+    <t>AATAGGCAAGACATTGGCAGAAAT</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>promoter</t>
+  </si>
+  <si>
+    <t>TGTCTTGCCTATTTCTCCAGAGTGCTGGAGA</t>
+  </si>
+  <si>
+    <t>GGTTGGGGTGTGCAGATTAAAGTTGTTCAT</t>
+  </si>
+  <si>
+    <t>AAGTTGTTCATTACTTGCTCCCTTTGCTGG</t>
+  </si>
+  <si>
+    <t>RegulonDB site sequence (reported 5'-&gt;3')</t>
+  </si>
+  <si>
+    <t>Req-seq sequence (reported 5'-&gt;3')</t>
+  </si>
+  <si>
+    <t>ttaagtgatttaattgatttaatgaataaaatttgccacgatcataattaatatctatgtAttttgattcaacattttaat</t>
+  </si>
+  <si>
+    <t>652,235 -&gt; 653,893</t>
+  </si>
+  <si>
+    <t>repressor</t>
+  </si>
+  <si>
+    <t>TATTTAATGATTTTAAGTTTTTTAATTAATGTAATTACGAAATGACTCGCAGGTTTAAGTGATTTAATTGATTTAATGAATAAAATTTGCCACGATCATAATTAATATCTATGTATTTTGATTCAACATTTTAATTACATCCGTCAAAGAGGCTCGGGAC</t>
+  </si>
+  <si>
+    <t>TAATTACATCCGTCAAAGAGGCTCGGGAC</t>
+  </si>
+  <si>
+    <t>TACATCC</t>
+  </si>
+  <si>
+    <t>GATTTAATTGATTTAATGAATAA</t>
+  </si>
+  <si>
+    <t>GATTTAATTGATTTAATGAATAAAAT</t>
+  </si>
+  <si>
+    <t>TAAACCATAATTCTTTTTATCAGATGGAATATCTGTCACATTGCTTTTCAACGATAGCTTCCTGGCAGAGATTTTTTCTTATTATTCCTCCCCATCTGGTGTTACCCTCCTGCCCATTAACCCATTCAACAGAACTGTGACGCGCCATGGCAAATATCGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) TSS reported by req-seq is not correct and does not align with the sequence in their data 2) we identify one promoter and two activator binding sites </t>
+  </si>
+  <si>
+    <t>1) This is called dpiB-2 in RegulonDB meta data 2) we identify an activator site and a repressor site 3) for exact coordinate of reg-seq construct refer to the table</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>4,174,076 &lt;- 4,175,026</t>
+  </si>
+  <si>
+    <t>agcttcctggcagagattttttcttattattcctccccatctggtgttaccctcctgcccAttaacccattcaacagaact</t>
+  </si>
+  <si>
+    <t>ATTAACCCATTCAACAGAACT</t>
+  </si>
+  <si>
+    <t>promoter (experimental)</t>
+  </si>
+  <si>
+    <t>TGTCACATTGCTTTTCAACGATAGCTTCCTGGCAGAGATTTTTTCTTATTATTCCTCCCCATCTGGTGTTACCCTCCTGCCCATT</t>
+  </si>
+  <si>
+    <t>TCAACGATAGCTTCCTGGCAGAGATTTTTTCTT</t>
+  </si>
+  <si>
+    <t>CATTATGGTATTCTGTTACAAACCCTTCCTGGATGGAGGGAAATTGAGCCAATTCTGGACCTTTGCGGCCCCTTCCGCAAAGAAAAATAACTCCCACTCCCTGCACACGCAGCAAGCGAATGTAAATGGGACGTGACAATGTCGAAACAAGGAGCAATCC</t>
+  </si>
+  <si>
+    <t>4,081,225 &lt;- 4,081,860</t>
+  </si>
+  <si>
+    <t>GACAATGTCGAAAC</t>
+  </si>
+  <si>
+    <t>Not fully characterized</t>
+  </si>
+  <si>
+    <t>TGTAAATGGGACGTGACAATGTCGAAACAAGGAGCAAA</t>
+  </si>
+  <si>
+    <t>AAATTGAGCCAATTCTGGACCTTTGCGGCCCCTTCCGCAAAGAAAAATAACTCCCACTCC</t>
+  </si>
+  <si>
+    <t>CCCTTCCTGGATGGAGGG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,13 +647,30 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -391,9 +685,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,11 +1029,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC9807F-D449-F64D-B609-C46CE22F50A2}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -743,7 +1042,7 @@
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -777,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -794,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -811,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -828,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -845,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -862,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -879,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -896,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -913,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -930,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -947,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -964,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -981,7 +1280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -998,7 +1297,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -1015,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -1032,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -1049,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -1066,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -1083,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1151,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1168,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1185,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1202,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1236,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1253,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1270,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1287,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1304,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1321,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1338,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1355,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1372,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1389,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1406,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1423,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1440,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1457,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1474,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1491,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1508,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -1525,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -1542,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -1559,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -1576,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -1593,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -1610,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -1627,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -1644,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -1661,7 +1960,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -1678,7 +1977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -1695,7 +1994,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -1712,7 +2011,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -1729,7 +2028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -1746,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -1763,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -1780,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -1797,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -1814,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1865,7 +2164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -1882,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -1899,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -1916,7 +2215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -1933,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -1950,7 +2249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -1967,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>46</v>
       </c>
@@ -1984,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -2001,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>50</v>
       </c>
@@ -2018,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -2035,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>55</v>
       </c>
@@ -2052,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -2069,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>63</v>
       </c>
@@ -2086,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>68</v>
       </c>
@@ -2103,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -2120,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -2137,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -2154,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -2171,7 +2470,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -2188,7 +2487,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2205,7 +2504,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2222,7 +2521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2239,7 +2538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -2256,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>38</v>
       </c>
@@ -2290,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>52</v>
       </c>
@@ -2307,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>56</v>
       </c>
@@ -2324,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>74</v>
       </c>
@@ -2341,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>77</v>
       </c>
@@ -2358,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -2375,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>82</v>
       </c>
@@ -2392,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>83</v>
       </c>
@@ -2409,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>84</v>
       </c>
@@ -2426,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="B100">
         <f>COUNT(B1:B98)</f>
         <v>97</v>
@@ -2440,7 +2739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>93</v>
       </c>
@@ -2471,1623 +2770,4976 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:Y123"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="187" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="71.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" customWidth="1"/>
+    <col min="22" max="22" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4085867</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="3">
+        <f>IF(C2="fwd",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f>B2+D2*E2</f>
+        <v>4085867</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4085823</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4085982</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R2" s="3">
+        <v>4085883</v>
+      </c>
+      <c r="S2" s="3">
+        <v>4085943</v>
+      </c>
+      <c r="T2" s="3">
+        <f t="shared" ref="T2:T9" si="0">R2-G2</f>
+        <v>60</v>
+      </c>
+      <c r="U2" s="3">
+        <f t="shared" ref="U2:U9" si="1">S2-G2</f>
+        <v>120</v>
+      </c>
+      <c r="V2" t="s">
+        <v>194</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4085867</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3">
+        <f>IF(C3="fwd",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>B3+D3*E3</f>
+        <v>4085867</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4085823</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4085982</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4085943</v>
+      </c>
+      <c r="S3" s="3">
+        <v>4085960</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3" si="2">R3-G3</f>
+        <v>120</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3" si="3">S3-G3</f>
+        <v>137</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4085867</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="3">
+        <f>IF(C4="fwd",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>B4+D4*E4</f>
+        <v>4085867</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4085823</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4085982</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="3">
+        <v>4085835</v>
+      </c>
+      <c r="O4" s="3">
+        <v>4085848</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="R4" s="3">
+        <v>4085826</v>
+      </c>
+      <c r="S4" s="3">
+        <v>4085863</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="U4" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2928035</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D71" si="4">IF(C5="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F71" si="5">B5+D5*E5</f>
+        <v>2928035</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G71" si="6">F5</f>
+        <v>2928035</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H71" si="7">G5+D5*160</f>
+        <v>2928195</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="T5" s="3">
+        <f t="shared" si="0"/>
+        <v>-2928035</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="1"/>
+        <v>-2928035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>2185451</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>2185451</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>2185451</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>2185291</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="T6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2185451</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="1"/>
+        <v>-2185451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>2033449</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>2033449</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2033449</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>2033289</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="T7" s="3">
+        <f t="shared" si="0"/>
+        <v>-2033449</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="1"/>
+        <v>-2033449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
+        <v>321511</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>60</v>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>321511</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>321511</v>
       </c>
       <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>321671</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="T8" s="3">
+        <f t="shared" si="0"/>
+        <v>-321511</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="1"/>
+        <v>-321511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>1996867</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>1996877</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1996877</v>
       </c>
       <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1996717</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="T9" s="3">
+        <f t="shared" si="0"/>
+        <v>-1996877</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="1"/>
+        <v>-1996877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="3" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3155262</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="5"/>
+        <v>3155261</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3155218</v>
+      </c>
+      <c r="H10" s="3">
+        <f>G10+160-1</f>
+        <v>3155377</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3155384</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3155355</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3155384</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R10" s="3">
+        <v>3155336</v>
+      </c>
+      <c r="S10" s="3">
+        <v>3155365</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" ref="T10:T11" si="8">R10-G10</f>
+        <v>118</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" ref="U10:U11" si="9">S10-G10</f>
+        <v>147</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="3" customFormat="1">
+      <c r="A11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3155262</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11" si="10">B11+D11*E11</f>
+        <v>3155261</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3155218</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11:H12" si="11">G11+160-1</f>
+        <v>3155377</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3155384</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3155238</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3155261</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11" s="3">
+        <v>3155220</v>
+      </c>
+      <c r="S11" s="3">
+        <v>3155250</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="3" customFormat="1" ht="19" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3155262</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="5"/>
+        <v>3155261</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3155218</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="11"/>
+        <v>3155377</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3155384</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3155217</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3155240</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3155220</v>
+      </c>
+      <c r="S12" s="3">
+        <v>3155250</v>
+      </c>
+      <c r="T12" s="3">
+        <f>R12-G12</f>
+        <v>2</v>
+      </c>
+      <c r="U12" s="3">
+        <f>S12-G12</f>
+        <v>32</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>3836664</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>64</v>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>3836664</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>3836664</v>
       </c>
       <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>3836504</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="T13" s="3">
+        <f t="shared" ref="T13:T77" si="12">R13-G13</f>
+        <v>-3836664</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" ref="U13:U77" si="13">S13-G13</f>
+        <v>-3836664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+        <v>909320</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>65</v>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>909320</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>909320</v>
       </c>
       <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>909160</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="T14" s="3">
+        <f t="shared" si="12"/>
+        <v>-909320</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="13"/>
+        <v>-909320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+        <v>3350504</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>-7</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>3350511</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>3350511</v>
       </c>
       <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>3350351</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="T15" s="3">
+        <f t="shared" si="12"/>
+        <v>-3350511</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="13"/>
+        <v>-3350511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>4269355</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
       </c>
       <c r="D16">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>4269355</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>4269355</v>
       </c>
       <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>4269515</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="T16" s="3">
+        <f t="shared" si="12"/>
+        <v>-4269355</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="13"/>
+        <v>-4269355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>4474096</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
       </c>
       <c r="D17">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>4474096</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4474096</v>
       </c>
       <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>4474256</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="T17" s="3">
+        <f t="shared" si="12"/>
+        <v>-4474096</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="13"/>
+        <v>-4474096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+        <v>1523276</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>1523276</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1523276</v>
       </c>
       <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1523116</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="T18" s="3">
+        <f t="shared" si="12"/>
+        <v>-1523276</v>
+      </c>
+      <c r="U18" s="3">
+        <f t="shared" si="13"/>
+        <v>-1523276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+        <v>897947</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
       </c>
       <c r="D19">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>897947</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>897947</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>898107</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="T19" s="3">
+        <f t="shared" si="12"/>
+        <v>-897947</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" si="13"/>
+        <v>-897947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>285350</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>285350</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>285350</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>285510</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="T20" s="3">
+        <f t="shared" si="12"/>
+        <v>-285350</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="13"/>
+        <v>-285350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>2303797</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>2303797</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>2303797</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>2303957</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="T21" s="3">
+        <f t="shared" si="12"/>
+        <v>-2303797</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="13"/>
+        <v>-2303797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>2690181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>2690181</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>2690181</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>2690021</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="T22" s="3">
+        <f t="shared" si="12"/>
+        <v>-2690181</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" si="13"/>
+        <v>-2690181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>1116709</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>1116709</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>1116709</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>1116549</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="T23" s="3">
+        <f t="shared" si="12"/>
+        <v>-1116709</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="13"/>
+        <v>-1116709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24">
+        <v>2876547</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>2876550</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>2876550</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>2876710</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="T24" s="3">
+        <f t="shared" si="12"/>
+        <v>-2876550</v>
+      </c>
+      <c r="U24" s="3">
+        <f t="shared" si="13"/>
+        <v>-2876550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>3235915</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>3235915</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>3235915</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>3236075</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="T25" s="3">
+        <f t="shared" si="12"/>
+        <v>-3235915</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="13"/>
+        <v>-3235915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>2009776</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>2009776</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>2009776</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>2009936</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="T26" s="3">
+        <f t="shared" si="12"/>
+        <v>-2009776</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" si="13"/>
+        <v>-2009776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>4484273</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>4484273</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>4484273</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>4484113</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="T27" s="3">
+        <f t="shared" si="12"/>
+        <v>-4484273</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="13"/>
+        <v>-4484273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2585570</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>2585570</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>2585570</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>2585410</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="T28" s="3">
+        <f t="shared" si="12"/>
+        <v>-2585570</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="13"/>
+        <v>-2585570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>63358</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>63358</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>63358</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>63198</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="T29" s="3">
+        <f t="shared" si="12"/>
+        <v>-63358</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="13"/>
+        <v>-63358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>2230395</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>2230395</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>2230395</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>2230235</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="T30" s="3">
+        <f t="shared" si="12"/>
+        <v>-2230395</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" si="13"/>
+        <v>-2230395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31">
+        <v>4081359</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>4081357</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>4081357</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>4081197</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="T31" s="3">
+        <f t="shared" si="12"/>
+        <v>-4081357</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" si="13"/>
+        <v>-4081357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32">
+        <v>197026</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>197026</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>197026</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>197186</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="T32" s="3">
+        <f t="shared" si="12"/>
+        <v>-197026</v>
+      </c>
+      <c r="U32" s="3">
+        <f t="shared" si="13"/>
+        <v>-197026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33">
+        <v>197821</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>197821</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>197821</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>197981</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="T33" s="3">
+        <f t="shared" si="12"/>
+        <v>-197821</v>
+      </c>
+      <c r="U33" s="3">
+        <f t="shared" si="13"/>
+        <v>-197821</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>1237285</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>1237285</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>1237285</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>1237125</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="T34" s="3">
+        <f t="shared" si="12"/>
+        <v>-1237285</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" si="13"/>
+        <v>-1237285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>2212241</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>-15</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>2212256</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>2212256</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>2212096</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="T35" s="3">
+        <f t="shared" si="12"/>
+        <v>-2212256</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" si="13"/>
+        <v>-2212256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>2266214</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>2266214</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>2266214</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>2266374</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="T36" s="3">
+        <f t="shared" si="12"/>
+        <v>-2266214</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="13"/>
+        <v>-2266214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37">
+        <v>1734357</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>1734357</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>1734357</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>1734517</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="T37" s="3">
+        <f t="shared" si="12"/>
+        <v>-1734357</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="13"/>
+        <v>-1734357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>4122354</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>4122354</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>4122354</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>4122194</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="T38" s="3">
+        <f t="shared" si="12"/>
+        <v>-4122354</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" si="13"/>
+        <v>-4122354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39">
+        <v>1223097</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>1223097</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>1223097</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>1222937</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="T39" s="3">
+        <f t="shared" si="12"/>
+        <v>-1223097</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="13"/>
+        <v>-1223097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>1907086</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>1907086</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>1907086</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>1906926</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="T40" s="3">
+        <f t="shared" si="12"/>
+        <v>-1907086</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="13"/>
+        <v>-1907086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>794644</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>794644</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>794644</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>794484</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="T41" s="3">
+        <f t="shared" si="12"/>
+        <v>-794644</v>
+      </c>
+      <c r="U41" s="3">
+        <f t="shared" si="13"/>
+        <v>-794644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42">
+        <v>1018330</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>1018330</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>1018330</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>1018170</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="T42" s="3">
+        <f t="shared" si="12"/>
+        <v>-1018330</v>
+      </c>
+      <c r="U42" s="3">
+        <f t="shared" si="13"/>
+        <v>-1018330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>443748</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>443748</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>443748</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="7"/>
+        <v>443588</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="T43" s="3">
+        <f t="shared" si="12"/>
+        <v>-443748</v>
+      </c>
+      <c r="U43" s="3">
+        <f t="shared" si="13"/>
+        <v>-443748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>1950760</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>1950760</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>1950760</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="7"/>
+        <v>1950920</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="T44" s="3">
+        <f t="shared" si="12"/>
+        <v>-1950760</v>
+      </c>
+      <c r="U44" s="3">
+        <f t="shared" si="13"/>
+        <v>-1950760</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>852626</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>852626</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>852626</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="7"/>
+        <v>852466</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="T45" s="3">
+        <f t="shared" si="12"/>
+        <v>-852626</v>
+      </c>
+      <c r="U45" s="3">
+        <f t="shared" si="13"/>
+        <v>-852626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46">
+        <v>889945</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>-7</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>889952</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>889952</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="7"/>
+        <v>889792</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="T46" s="3">
+        <f t="shared" si="12"/>
+        <v>-889952</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" si="13"/>
+        <v>-889952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47">
+        <v>2926272</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>-158</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>2926114</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>2926114</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="7"/>
+        <v>2926274</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="T47" s="3">
+        <f t="shared" si="12"/>
+        <v>-2926114</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="13"/>
+        <v>-2926114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B48">
+        <v>2870686</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>2870686</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>2870686</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="7"/>
+        <v>2870526</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="T48" s="3">
+        <f t="shared" si="12"/>
+        <v>-2870686</v>
+      </c>
+      <c r="U48" s="3">
+        <f t="shared" si="13"/>
+        <v>-2870686</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49">
+        <v>220022</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="5"/>
+        <v>220022</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>220022</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="7"/>
+        <v>219862</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="T49" s="3">
+        <f t="shared" si="12"/>
+        <v>-220022</v>
+      </c>
+      <c r="U49" s="3">
+        <f t="shared" si="13"/>
+        <v>-220022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="B50">
+        <v>2082728</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>2082728</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>2082728</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="7"/>
+        <v>2082888</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="T50" s="3">
+        <f t="shared" si="12"/>
+        <v>-2082728</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="13"/>
+        <v>-2082728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>2999918</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>2999918</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>2999918</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="7"/>
+        <v>2999758</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="T51" s="3">
+        <f t="shared" si="12"/>
+        <v>-2999918</v>
+      </c>
+      <c r="U51" s="3">
+        <f t="shared" si="13"/>
+        <v>-2999918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52">
+        <v>486492</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="5"/>
+        <v>486492</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>486492</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="7"/>
+        <v>486652</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="T52" s="3">
+        <f t="shared" si="12"/>
+        <v>-486492</v>
+      </c>
+      <c r="U52" s="3">
+        <f t="shared" si="13"/>
+        <v>-486492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <v>3069871</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>3069871</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>3069871</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="7"/>
+        <v>3069711</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="T53" s="3">
+        <f t="shared" si="12"/>
+        <v>-3069871</v>
+      </c>
+      <c r="U53" s="3">
+        <f t="shared" si="13"/>
+        <v>-3069871</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54">
+        <v>1395973</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>1395973</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="6"/>
+        <v>1395973</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="7"/>
+        <v>1395813</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="T54" s="3">
+        <f t="shared" si="12"/>
+        <v>-1395973</v>
+      </c>
+      <c r="U54" s="3">
+        <f t="shared" si="13"/>
+        <v>-1395973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <v>604684</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>604684</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="6"/>
+        <v>604684</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="7"/>
+        <v>604524</v>
+      </c>
+      <c r="T55" s="3">
+        <f t="shared" si="12"/>
+        <v>-604684</v>
+      </c>
+      <c r="U55" s="3">
+        <f t="shared" si="13"/>
+        <v>-604684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56">
+        <v>1509221</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>1509221</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="6"/>
+        <v>1509221</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="7"/>
+        <v>1509381</v>
+      </c>
+      <c r="T56" s="3">
+        <f t="shared" si="12"/>
+        <v>-1509221</v>
+      </c>
+      <c r="U56" s="3">
+        <f t="shared" si="13"/>
+        <v>-1509221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>3353049</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>3353049</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="6"/>
+        <v>3353049</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="7"/>
+        <v>3352889</v>
+      </c>
+      <c r="T57" s="3">
+        <f t="shared" si="12"/>
+        <v>-3353049</v>
+      </c>
+      <c r="U57" s="3">
+        <f t="shared" si="13"/>
+        <v>-3353049</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>1226139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>1226139</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="6"/>
+        <v>1226139</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="7"/>
+        <v>1225979</v>
+      </c>
+      <c r="T58" s="3">
+        <f t="shared" si="12"/>
+        <v>-1226139</v>
+      </c>
+      <c r="U58" s="3">
+        <f t="shared" si="13"/>
+        <v>-1226139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <v>693469</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>693469</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>693469</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="7"/>
+        <v>693309</v>
+      </c>
+      <c r="T59" s="3">
+        <f t="shared" si="12"/>
+        <v>-693469</v>
+      </c>
+      <c r="U59" s="3">
+        <f t="shared" si="13"/>
+        <v>-693469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <v>1848700</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="5"/>
+        <v>1848700</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>1848700</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="7"/>
+        <v>1848540</v>
+      </c>
+      <c r="T60" s="3">
+        <f t="shared" si="12"/>
+        <v>-1848700</v>
+      </c>
+      <c r="U60" s="3">
+        <f t="shared" si="13"/>
+        <v>-1848700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61">
+        <v>3096620</v>
+      </c>
+      <c r="C61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="5"/>
+        <v>3096620</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="6"/>
+        <v>3096620</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="7"/>
+        <v>3096780</v>
+      </c>
+      <c r="T61" s="3">
+        <f t="shared" si="12"/>
+        <v>-3096620</v>
+      </c>
+      <c r="U61" s="3">
+        <f t="shared" si="13"/>
+        <v>-3096620</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>3403446</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="5"/>
+        <v>3403446</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="6"/>
+        <v>3403446</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="7"/>
+        <v>3403606</v>
+      </c>
+      <c r="T62" s="3">
+        <f t="shared" si="12"/>
+        <v>-3403446</v>
+      </c>
+      <c r="U62" s="3">
+        <f t="shared" si="13"/>
+        <v>-3403446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>2214673</v>
+      </c>
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="5"/>
+        <v>2214673</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="6"/>
+        <v>2214673</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="7"/>
+        <v>2214513</v>
+      </c>
+      <c r="T63" s="3">
+        <f t="shared" si="12"/>
+        <v>-2214673</v>
+      </c>
+      <c r="U63" s="3">
+        <f t="shared" si="13"/>
+        <v>-2214673</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>2212969</v>
+      </c>
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="5"/>
+        <v>2212969</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="6"/>
+        <v>2212969</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="7"/>
+        <v>2212809</v>
+      </c>
+      <c r="T64" s="3">
+        <f t="shared" si="12"/>
+        <v>-2212969</v>
+      </c>
+      <c r="U64" s="3">
+        <f t="shared" si="13"/>
+        <v>-2212969</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65">
+        <v>845736</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="5"/>
+        <v>845736</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>845736</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="7"/>
+        <v>845576</v>
+      </c>
+      <c r="T65" s="3">
+        <f t="shared" si="12"/>
+        <v>-845736</v>
+      </c>
+      <c r="U65" s="3">
+        <f t="shared" si="13"/>
+        <v>-845736</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66">
+        <v>3438001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="5"/>
+        <v>3438001</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="6"/>
+        <v>3438001</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="7"/>
+        <v>3438161</v>
+      </c>
+      <c r="T66" s="3">
+        <f t="shared" si="12"/>
+        <v>-3438001</v>
+      </c>
+      <c r="U66" s="3">
+        <f t="shared" si="13"/>
+        <v>-3438001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67">
+        <v>4118427</v>
+      </c>
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="5"/>
+        <v>4118427</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="6"/>
+        <v>4118427</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="7"/>
+        <v>4118587</v>
+      </c>
+      <c r="T67" s="3">
+        <f t="shared" si="12"/>
+        <v>-4118427</v>
+      </c>
+      <c r="U67" s="3">
+        <f t="shared" si="13"/>
+        <v>-4118427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68">
+        <v>3808516</v>
+      </c>
+      <c r="C68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>3808516</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>3808516</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="7"/>
+        <v>3808676</v>
+      </c>
+      <c r="T68" s="3">
+        <f t="shared" si="12"/>
+        <v>-3808516</v>
+      </c>
+      <c r="U68" s="3">
+        <f t="shared" si="13"/>
+        <v>-3808516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" s="3" customFormat="1">
+      <c r="A69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="3">
+        <v>4175107</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" ref="F69" si="14">B69+D69*E69</f>
+        <v>4175107</v>
+      </c>
+      <c r="G69" s="3">
+        <v>4175063</v>
+      </c>
+      <c r="H69" s="3">
+        <f>G69+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K69" s="3">
+        <v>4175107</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R69" s="3">
+        <v>4175143</v>
+      </c>
+      <c r="S69" s="3">
+        <f>4175175</f>
+        <v>4175175</v>
+      </c>
+      <c r="T69" s="3">
+        <f t="shared" ref="T69" si="15">R69-G69</f>
+        <v>80</v>
+      </c>
+      <c r="U69" s="3">
+        <f t="shared" ref="U69" si="16">S69-G69</f>
+        <v>112</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="W69" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" s="3" customFormat="1">
+      <c r="A70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="3">
+        <v>4175107</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="5"/>
+        <v>4175107</v>
+      </c>
+      <c r="G70" s="3">
+        <v>4175063</v>
+      </c>
+      <c r="H70" s="3">
+        <f>G70+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K70" s="3">
+        <v>4175107</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N70" s="3">
+        <f>O70-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="O70" s="3">
+        <v>4175107</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R70" s="3">
+        <v>4175105</v>
+      </c>
+      <c r="S70" s="3">
+        <f>R70+84</f>
+        <v>4175189</v>
+      </c>
+      <c r="T70" s="3">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="U70" s="3">
+        <f t="shared" si="13"/>
+        <v>126</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B71">
+        <v>4621716</v>
+      </c>
+      <c r="C71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>4621716</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>4621716</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>4621876</v>
+      </c>
+      <c r="T71" s="3">
+        <f t="shared" si="12"/>
+        <v>-4621716</v>
+      </c>
+      <c r="U71" s="3">
+        <f t="shared" si="13"/>
+        <v>-4621716</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72">
+        <v>4370616</v>
+      </c>
+      <c r="C72" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D123" si="17">IF(C72="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F123" si="18">B72+D72*E72</f>
+        <v>4370616</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72:G123" si="19">F72</f>
+        <v>4370616</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ref="H72:H123" si="20">G72+D72*160</f>
+        <v>4370776</v>
+      </c>
+      <c r="T72" s="3">
+        <f t="shared" si="12"/>
+        <v>-4370616</v>
+      </c>
+      <c r="U72" s="3">
+        <f t="shared" si="13"/>
+        <v>-4370616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73">
+        <v>4472553</v>
+      </c>
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="18"/>
+        <v>4472553</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="19"/>
+        <v>4472553</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="20"/>
+        <v>4472393</v>
+      </c>
+      <c r="T73" s="3">
+        <f t="shared" si="12"/>
+        <v>-4472553</v>
+      </c>
+      <c r="U73" s="3">
+        <f t="shared" si="13"/>
+        <v>-4472553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74">
+        <v>4178354</v>
+      </c>
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="18"/>
+        <v>4178354</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="19"/>
+        <v>4178354</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="20"/>
+        <v>4178514</v>
+      </c>
+      <c r="T74" s="3">
+        <f t="shared" si="12"/>
+        <v>-4178354</v>
+      </c>
+      <c r="U74" s="3">
+        <f t="shared" si="13"/>
+        <v>-4178354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75">
+        <v>2042294</v>
+      </c>
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>-14</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="18"/>
+        <v>2042280</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="19"/>
+        <v>2042280</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="20"/>
+        <v>2042440</v>
+      </c>
+      <c r="T75" s="3">
+        <f t="shared" si="12"/>
+        <v>-2042280</v>
+      </c>
+      <c r="U75" s="3">
+        <f t="shared" si="13"/>
+        <v>-2042280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76">
+        <v>3922525</v>
+      </c>
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="18"/>
+        <v>3922525</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="19"/>
+        <v>3922525</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="20"/>
+        <v>3922365</v>
+      </c>
+      <c r="T76" s="3">
+        <f t="shared" si="12"/>
+        <v>-3922525</v>
+      </c>
+      <c r="U76" s="3">
+        <f t="shared" si="13"/>
+        <v>-3922525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77">
+        <v>1114213</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="18"/>
+        <v>1114213</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="19"/>
+        <v>1114213</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="20"/>
+        <v>1114053</v>
+      </c>
+      <c r="T77" s="3">
+        <f t="shared" si="12"/>
+        <v>-1114213</v>
+      </c>
+      <c r="U77" s="3">
+        <f t="shared" si="13"/>
+        <v>-1114213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78">
+        <v>2644913</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="18"/>
+        <v>2644913</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="19"/>
+        <v>2644913</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="20"/>
+        <v>2644753</v>
+      </c>
+      <c r="T78" s="3">
+        <f t="shared" ref="T78:T87" si="21">R78-G78</f>
+        <v>-2644913</v>
+      </c>
+      <c r="U78" s="3">
+        <f t="shared" ref="U78:U87" si="22">S78-G78</f>
+        <v>-2644913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79">
+        <v>148</v>
+      </c>
+      <c r="C79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="18"/>
+        <v>148</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="19"/>
+        <v>148</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="20"/>
+        <v>308</v>
+      </c>
+      <c r="T79" s="3">
+        <f t="shared" si="21"/>
+        <v>-148</v>
+      </c>
+      <c r="U79" s="3">
+        <f t="shared" si="22"/>
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80">
+        <v>454993</v>
+      </c>
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>-129</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="18"/>
+        <v>454864</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="19"/>
+        <v>454864</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="20"/>
+        <v>455024</v>
+      </c>
+      <c r="T80" s="3">
+        <f t="shared" si="21"/>
+        <v>-454864</v>
+      </c>
+      <c r="U80" s="3">
+        <f t="shared" si="22"/>
+        <v>-454864</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81">
+        <v>189712</v>
+      </c>
+      <c r="C81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="18"/>
+        <v>189712</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="19"/>
+        <v>189712</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="20"/>
+        <v>189872</v>
+      </c>
+      <c r="T81" s="3">
+        <f t="shared" si="21"/>
+        <v>-189712</v>
+      </c>
+      <c r="U81" s="3">
+        <f t="shared" si="22"/>
+        <v>-189712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>3948058</v>
+      </c>
+      <c r="C82" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>-28</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="18"/>
+        <v>3948030</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="19"/>
+        <v>3948030</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="20"/>
+        <v>3948190</v>
+      </c>
+      <c r="T82" s="3">
+        <f t="shared" si="21"/>
+        <v>-3948030</v>
+      </c>
+      <c r="U82" s="3">
+        <f t="shared" si="22"/>
+        <v>-3948030</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>911076</v>
+      </c>
+      <c r="C83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="18"/>
+        <v>911076</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="19"/>
+        <v>911076</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="20"/>
+        <v>910916</v>
+      </c>
+      <c r="T83" s="3">
+        <f t="shared" si="21"/>
+        <v>-911076</v>
+      </c>
+      <c r="U83" s="3">
+        <f t="shared" si="22"/>
+        <v>-911076</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1655186</v>
+      </c>
+      <c r="C84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E84">
+        <v>-45</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="18"/>
+        <v>1655231</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="19"/>
+        <v>1655231</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="20"/>
+        <v>1655071</v>
+      </c>
+      <c r="T84" s="3">
+        <f t="shared" si="21"/>
+        <v>-1655231</v>
+      </c>
+      <c r="U84" s="3">
+        <f t="shared" si="22"/>
+        <v>-1655231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85">
+        <v>4390638</v>
+      </c>
+      <c r="C85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="18"/>
+        <v>4390638</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="19"/>
+        <v>4390638</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="20"/>
+        <v>4390478</v>
+      </c>
+      <c r="T85" s="3">
+        <f t="shared" si="21"/>
+        <v>-4390638</v>
+      </c>
+      <c r="U85" s="3">
+        <f t="shared" si="22"/>
+        <v>-4390638</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86">
+        <v>4640508</v>
+      </c>
+      <c r="C86" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="18"/>
+        <v>4640508</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="19"/>
+        <v>4640508</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="20"/>
+        <v>4640348</v>
+      </c>
+      <c r="T86" s="3">
+        <f t="shared" si="21"/>
+        <v>-4640508</v>
+      </c>
+      <c r="U86" s="3">
+        <f t="shared" si="22"/>
+        <v>-4640508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="B87">
+        <v>1972716</v>
+      </c>
+      <c r="C87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="18"/>
+        <v>1972716</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="19"/>
+        <v>1972716</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="20"/>
+        <v>1972556</v>
+      </c>
+      <c r="T87" s="3">
+        <f t="shared" si="21"/>
+        <v>-1972716</v>
+      </c>
+      <c r="U87" s="3">
+        <f t="shared" si="22"/>
+        <v>-1972716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="3">
+        <v>652172</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" ref="F88" si="23">B88+D88*E88</f>
+        <v>652172</v>
+      </c>
+      <c r="G88" s="5">
+        <v>652058</v>
+      </c>
+      <c r="H88" s="3">
+        <f>G88+D88*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K88" s="3">
+        <v>652172</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N88" s="3">
+        <v>652193</v>
+      </c>
+      <c r="O88" s="3">
+        <v>652199</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R88" s="5">
+        <f>130+G88</f>
+        <v>652188</v>
+      </c>
+      <c r="S88" s="5">
+        <f>R88+30</f>
+        <v>652218</v>
+      </c>
+      <c r="T88" s="3">
+        <v>130</v>
+      </c>
+      <c r="U88" s="3">
+        <v>160</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W88" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="3">
+        <v>652172</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="18"/>
+        <v>652172</v>
+      </c>
+      <c r="G89" s="5">
+        <v>652058</v>
+      </c>
+      <c r="H89" s="3">
+        <f>G89+D89*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K89" s="3">
+        <v>652172</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N89" s="3">
+        <v>652118</v>
+      </c>
+      <c r="O89" s="3">
+        <v>652140</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R89" s="5">
+        <f>60+G89</f>
+        <v>652118</v>
+      </c>
+      <c r="S89" s="5">
+        <f>R89+25</f>
+        <v>652143</v>
+      </c>
+      <c r="T89" s="3">
+        <v>60</v>
+      </c>
+      <c r="U89" s="3">
+        <v>85</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90">
+        <v>70075</v>
+      </c>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="18"/>
+        <v>70075</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="19"/>
+        <v>70075</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="20"/>
+        <v>69915</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91">
+        <v>70241</v>
+      </c>
+      <c r="C91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="18"/>
+        <v>70241</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="19"/>
+        <v>70241</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="20"/>
+        <v>70401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92">
+        <v>3731069</v>
+      </c>
+      <c r="C92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="18"/>
+        <v>3731069</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="19"/>
+        <v>3731069</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="20"/>
+        <v>3731229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93">
+        <v>3730807</v>
+      </c>
+      <c r="C93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="18"/>
+        <v>3730807</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="19"/>
+        <v>3730807</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="20"/>
+        <v>3730647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94">
+        <v>1647934</v>
+      </c>
+      <c r="C94" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="18"/>
+        <v>1647934</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="19"/>
+        <v>1647934</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="20"/>
+        <v>1648094</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95">
+        <v>1647876</v>
+      </c>
+      <c r="C95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="18"/>
+        <v>1647876</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="19"/>
+        <v>1647876</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="20"/>
+        <v>1647716</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96">
+        <v>1649597</v>
+      </c>
+      <c r="C96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="18"/>
+        <v>1649597</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="19"/>
+        <v>1649597</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="20"/>
+        <v>1649757</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97">
+        <v>3536707</v>
+      </c>
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="18"/>
+        <v>3536707</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="19"/>
+        <v>3536707</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="20"/>
+        <v>3536547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>2524910</v>
+      </c>
+      <c r="C98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="18"/>
+        <v>2524910</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="19"/>
+        <v>2524910</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="20"/>
+        <v>2524750</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99">
+        <v>3957912</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="18"/>
+        <v>3957912</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="19"/>
+        <v>3957912</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="20"/>
+        <v>3958072</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B100">
+        <v>3927129</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="18"/>
+        <v>3927129</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="19"/>
+        <v>3927129</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="20"/>
+        <v>3927289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101">
+        <v>4494597</v>
+      </c>
+      <c r="C101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="18"/>
+        <v>4494597</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="19"/>
+        <v>4494597</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="20"/>
+        <v>4494757</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102">
+        <v>246533</v>
+      </c>
+      <c r="C102" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="18"/>
+        <v>246533</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="19"/>
+        <v>246533</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="20"/>
+        <v>246373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>4591367</v>
+      </c>
+      <c r="C103" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="18"/>
+        <v>4591367</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="19"/>
+        <v>4591367</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="20"/>
+        <v>4591207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104">
+        <v>1977302</v>
+      </c>
+      <c r="C104" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="18"/>
+        <v>1977302</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="19"/>
+        <v>1977302</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="20"/>
+        <v>1977142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B105">
+        <v>933138</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="18"/>
+        <v>933138</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="19"/>
+        <v>933138</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="20"/>
+        <v>933298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>87969</v>
+      </c>
+      <c r="C106" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>22</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="18"/>
+        <v>87991</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="19"/>
+        <v>87991</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="20"/>
+        <v>88151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107">
+        <v>3997907</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="18"/>
+        <v>3997907</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="19"/>
+        <v>3997907</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="20"/>
+        <v>3998067</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108">
+        <v>4338042</v>
+      </c>
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="18"/>
+        <v>4338042</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="19"/>
+        <v>4338042</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="20"/>
+        <v>4337882</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109">
+        <v>1942634</v>
+      </c>
+      <c r="C109" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="18"/>
+        <v>1942634</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="19"/>
+        <v>1942634</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="20"/>
+        <v>1942794</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110">
+        <v>1942661</v>
+      </c>
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="18"/>
+        <v>1942661</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="19"/>
+        <v>1942661</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="20"/>
+        <v>1942501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="I35">
-        <v>4</v>
-      </c>
-      <c r="J35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B111">
+        <v>3182433</v>
+      </c>
+      <c r="C111" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="18"/>
+        <v>3182433</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="19"/>
+        <v>3182433</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="20"/>
+        <v>3182593</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112">
+        <v>3637612</v>
+      </c>
+      <c r="C112" t="s">
+        <v>108</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="18"/>
+        <v>3637612</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="19"/>
+        <v>3637612</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="20"/>
+        <v>3637772</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>4376509</v>
+      </c>
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="18"/>
+        <v>4376509</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="19"/>
+        <v>4376509</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="20"/>
+        <v>4376669</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114">
+        <v>83735</v>
+      </c>
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="18"/>
+        <v>83735</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="19"/>
+        <v>83735</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="20"/>
+        <v>83575</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115">
+        <v>1645903</v>
+      </c>
+      <c r="C115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="18"/>
+        <v>1645903</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="19"/>
+        <v>1645903</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="20"/>
+        <v>1645743</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116">
+        <v>1619093</v>
+      </c>
+      <c r="C116" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>-10</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="18"/>
+        <v>1619083</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="19"/>
+        <v>1619083</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="20"/>
+        <v>1619243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117">
+        <v>4326836</v>
+      </c>
+      <c r="C117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="18"/>
+        <v>4326836</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="19"/>
+        <v>4326836</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="20"/>
+        <v>4326676</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118">
+        <v>2032352</v>
+      </c>
+      <c r="C118" t="s">
+        <v>118</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="18"/>
+        <v>2032352</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="19"/>
+        <v>2032352</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="20"/>
+        <v>2032192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119">
+        <v>2949066</v>
+      </c>
+      <c r="C119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="18"/>
+        <v>2949066</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="19"/>
+        <v>2949066</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="20"/>
+        <v>2948906</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120">
+        <v>3811175</v>
+      </c>
+      <c r="C120" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="18"/>
+        <v>3811175</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="19"/>
+        <v>3811175</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="20"/>
+        <v>3811015</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121">
+        <v>919103</v>
+      </c>
+      <c r="C121" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="18"/>
+        <v>919103</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="19"/>
+        <v>919103</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="20"/>
+        <v>918943</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122">
+        <v>830783</v>
+      </c>
+      <c r="C122" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="18"/>
+        <v>830783</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="19"/>
+        <v>830783</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="20"/>
+        <v>830943</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="D123">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="20"/>
+        <v>-160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="H70" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8F8D8D-879A-1E46-BF36-D5D0C23EF33B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="123.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E6A528-A0D0-4749-861A-330477B46F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9B3EA-6AD4-4849-9EA2-85A6249E7258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Binding_sites_identified" sheetId="2" r:id="rId2"/>
-    <sheet name="dpiBA" sheetId="4" r:id="rId3"/>
+    <sheet name="Notes" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="234">
   <si>
     <t>Operon</t>
   </si>
@@ -626,6 +626,120 @@
   </si>
   <si>
     <t>CCCTTCCTGGATGGAGGG</t>
+  </si>
+  <si>
+    <t>sigma70</t>
+  </si>
+  <si>
+    <t>TACATATATTGCGCGCCCCGGAAGAAGTCAGATGTCGTTTAATGGGCAAATATTGCCCTTAAATTCTCTTTTACTTTTGATTTACAGAGTAAAGCGTTGGGATAATCTATCTTCCAAGTAGATTATTGTATTTGAGATCAAGATCACTGATAGATACATA</t>
+  </si>
+  <si>
+    <t>2,928,229 -&gt; 2,929,518</t>
+  </si>
+  <si>
+    <t>gcccttaaattctcttttacttttgatttacagagtaaagcgttgggataatctatcttcCaagtagattattgtatttga</t>
+  </si>
+  <si>
+    <t>ACAGAGTAAAGCGTT</t>
+  </si>
+  <si>
+    <t>ACAGAGTAAAGCGTTGGGATAATCTAT</t>
+  </si>
+  <si>
+    <t>attgtaaaactgccgtttttcctcgtttacaacgcgtgcgctggacattaccatcctcctCtgcgatttatcatcgcaacc</t>
+  </si>
+  <si>
+    <t>TCTGGATGTCGTTCTGAAGGTGCTGGATTCATATATCAAATAATTTATTAACGCGATTGTAAAACTGCCGTTTTTCCTCGTTTACAACGCGTGCGCTGGACATTACCATCCTCCTCTGCGATTTATCATCGCAACCAAACGACTCGGGGTGCCCTTCTGC</t>
+  </si>
+  <si>
+    <t>2,184,513 &lt;- 2,185,301</t>
+  </si>
+  <si>
+    <t>CTGCGATTTATCATCGCAACCAAACGACTCGGGGTGCCCTTCTGCG</t>
+  </si>
+  <si>
+    <t>GTTTACAACGCGTGCGCTGGACATTACCATCCTCCTCTGCGATTTATCATCGCAACCA</t>
+  </si>
+  <si>
+    <t>AACTGCCGTTTTTCCTCG</t>
+  </si>
+  <si>
+    <t>2033203 / 2033223</t>
+  </si>
+  <si>
+    <t>sigma24 / sigma70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atttgaaagcgatttaggctctaccgcgggaaagtggttaggggcactggtcggatttttAtttatggctctggtcggggc / cccgatgcccccgtgtcgggatttgaaagcgatttaggctctaccgcgggaaagtggttaGgggcactggtcggattttta </t>
+  </si>
+  <si>
+    <t>TTTTTCCTGTATTCACTGCCGTTGCGCAAAATTTATCTATTTGTTCAAAAAATGATTGAGTCTTGACTGGCTCATCCAATGTGGAAAAATGTGACTTTTATCACATAATAGTACTAAGTCTGAATTTTCCGGGTTATCTCAAAATGGAATACGGTTCGAC</t>
+  </si>
+  <si>
+    <t>2,032,384 &lt;- 2,033,079</t>
+  </si>
+  <si>
+    <t>TAAGTCTGAATTTTCCGGGTT</t>
+  </si>
+  <si>
+    <t>CTCATCCAATGTGGAAAAA</t>
+  </si>
+  <si>
+    <t>AGTCTTGACTGGC</t>
+  </si>
+  <si>
+    <t>TCGATTTCCCCATAAAATGTGAGCGATGCCGAAAGAAATAAAATTAGTTATTGCATTTGACGTTTGGATGAAAGATTATCATTTGTCATACAAATGAGGGGTGGTATGTTGCTAGCCAATTAAAAAAGAACGCCATATTTATTGATGATTGATCCCCCGG</t>
+  </si>
+  <si>
+    <t>321,608 -&gt; 322,327</t>
+  </si>
+  <si>
+    <t>atttgacgtttggatgaaagattatcatttgtcatacaaatgaggggtggtatgttgctaGccaattaaaaaagaacgcca</t>
+  </si>
+  <si>
+    <t>ATTGATGATTGATCCCCCGGT</t>
+  </si>
+  <si>
+    <t>CATATTTATTGATGATTGATCCCCC</t>
+  </si>
+  <si>
+    <t>GCCAATTAAAAAAGAACGCCA</t>
+  </si>
+  <si>
+    <t>TACAAATGAGGGGTGGTAT</t>
+  </si>
+  <si>
+    <t>ATACAAATGAGGGGTGGTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) There are 4 different TSS on RegulonDB 2) We use the one with TSS 321511 3)we identify 2 promoter region and miss one </t>
+  </si>
+  <si>
+    <t>aatgcgatggcttgcaaaagtaattcattgcctgaataatataaattatatataaatcttAtttatgtgatagtttgaatt</t>
+  </si>
+  <si>
+    <t>GCATAACTCATTAATAACATAAGAGAATGCGATGGCTTGCAAAAGTAATTCATTGCCTGAATAATATAAATTATATATAAATCTTATTTATGTGATAGTTTGAATTATCATTATAAATGATACTCACTCTCAGGGGCGTTGCGGTTTACTATGCAGGATA</t>
+  </si>
+  <si>
+    <t>1,996,110 &lt;- 1,996,832</t>
+  </si>
+  <si>
+    <t>1) There are 3 TSS on RegulonDB 2) We use the one with TSS 1996897 3) There are many experimentally-validated promoter in a cluster</t>
+  </si>
+  <si>
+    <t>AAATGATACTCACTCTCAGGGGCGTTGCGGTTTACTA</t>
+  </si>
+  <si>
+    <t>3 promoters</t>
+  </si>
+  <si>
+    <t>CTCACTCTCAGGGGCGTTGCGGTTTACTATG</t>
+  </si>
+  <si>
+    <t>TATATATAAATCTTATT</t>
+  </si>
+  <si>
+    <t>TGAATAATATAAATTATATATAA</t>
   </si>
 </sst>
 </file>
@@ -2770,11 +2884,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:Y123"/>
+  <dimension ref="A1:Y129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
+      <selection pane="bottomLeft" activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2789,12 +2903,12 @@
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="187" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="71.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="145" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="55.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -2942,11 +3056,11 @@
         <v>4085943</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" ref="T2:T9" si="0">R2-G2</f>
+        <f t="shared" ref="T2:T15" si="0">R2-G2</f>
         <v>60</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" ref="U2:U9" si="1">S2-G2</f>
+        <f t="shared" ref="U2:U15" si="1">S2-G2</f>
         <v>120</v>
       </c>
       <c r="V2" t="s">
@@ -3115,4576 +3229,5246 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:25" s="3" customFormat="1">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2928035</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D71" si="4">IF(C5="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F71" si="5">B5+D5*E5</f>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D77" si="4">IF(C5="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F77" si="5">B5+D5*E5</f>
         <v>2928035</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G71" si="6">F5</f>
+      <c r="G5" s="3">
+        <v>2927921</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2928080</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="3">
         <v>2928035</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H71" si="7">G5+D5*160</f>
-        <v>2928195</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="L5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2928004</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2928080</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2928004</v>
+      </c>
+      <c r="S5" s="3">
+        <f>R5+26</f>
+        <v>2928030</v>
+      </c>
       <c r="T5" s="3">
         <f t="shared" si="0"/>
-        <v>-2928035</v>
+        <v>83</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="1"/>
-        <v>-2928035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2185451</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <f t="shared" si="5"/>
         <v>2185451</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="6"/>
+      <c r="G6" s="3">
+        <v>2185407</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2185566</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="3">
         <v>2185451</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="7"/>
-        <v>2185291</v>
-      </c>
-      <c r="M6" s="1"/>
+      <c r="L6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N6" s="3">
+        <f>O6-45</f>
+        <v>2185406</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2185451</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2185430</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2185487</v>
+      </c>
       <c r="T6" s="3">
         <f t="shared" si="0"/>
-        <v>-2185451</v>
+        <v>23</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="1"/>
-        <v>-2185451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2185451</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7" si="6">B7+D7*E7</f>
+        <v>2185451</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2185407</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2185566</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2185451</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2185487</v>
+      </c>
+      <c r="S7" s="3">
+        <f>R7+17</f>
+        <v>2185504</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" ref="T7:T10" si="7">R7-G7</f>
+        <v>80</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" ref="U7:U10" si="8">S7-G7</f>
+        <v>97</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="3">
         <v>2033449</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="3">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="5"/>
         <v>2033449</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="6"/>
+      <c r="G8" s="3">
+        <v>2033405</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2033564</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2033430</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2033445</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3">
         <v>2033449</v>
       </c>
-      <c r="H7">
+      <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ref="F9" si="9">B9+D9*E9</f>
+        <v>2033449</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2033405</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2033564</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2033476</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2033494</v>
+      </c>
+      <c r="T9" s="3">
         <f t="shared" si="7"/>
-        <v>2033289</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="T7" s="3">
-        <f t="shared" si="0"/>
-        <v>-2033449</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" si="1"/>
-        <v>-2033449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2033449</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10" si="10">B10+D10*E10</f>
+        <v>2033449</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2033405</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2033564</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2033494</v>
+      </c>
+      <c r="S10" s="3">
+        <f>R10+12</f>
+        <v>2033506</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B8">
+      <c r="B11" s="3">
         <v>321511</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D8">
+      <c r="D11" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="5"/>
         <v>321511</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="6"/>
+      <c r="G11" s="3">
+        <v>321397</v>
+      </c>
+      <c r="H11" s="3">
+        <v>321556</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="3">
         <v>321511</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="7"/>
-        <v>321671</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="T8" s="3">
+      <c r="L11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N11" s="3">
+        <v>321537</v>
+      </c>
+      <c r="O11" s="3">
+        <f>N11+20</f>
+        <v>321557</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="3">
+        <f>S11-24</f>
+        <v>321530</v>
+      </c>
+      <c r="S11" s="3">
+        <v>321554</v>
+      </c>
+      <c r="T11" s="3">
         <f t="shared" si="0"/>
-        <v>-321511</v>
-      </c>
-      <c r="U8" s="3">
+        <v>133</v>
+      </c>
+      <c r="U11" s="3">
         <f t="shared" si="1"/>
-        <v>-321511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3">
+        <v>321511</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12" si="11">B12+D12*E12</f>
+        <v>321511</v>
+      </c>
+      <c r="G12" s="3">
+        <v>321397</v>
+      </c>
+      <c r="H12" s="3">
+        <v>321556</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" s="3">
+        <v>321511</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N12" s="3">
+        <v>321511</v>
+      </c>
+      <c r="O12" s="3">
+        <f>N12+20</f>
+        <v>321531</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3">
+        <v>321511</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13:F14" si="12">B13+D13*E13</f>
+        <v>321511</v>
+      </c>
+      <c r="G13" s="3">
+        <v>321397</v>
+      </c>
+      <c r="H13" s="3">
+        <v>321556</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="3">
+        <v>321511</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N13" s="3">
+        <v>321484</v>
+      </c>
+      <c r="O13" s="3">
+        <f>N13+20</f>
+        <v>321504</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R13" s="3">
+        <v>321485</v>
+      </c>
+      <c r="S13" s="3">
+        <f>R13+18</f>
+        <v>321503</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" ref="T13:T14" si="13">R13-G13</f>
+        <v>88</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" ref="U13:U14" si="14">S13-G13</f>
+        <v>106</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9">
+      <c r="B14" s="3">
         <v>1996867</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D9">
+      <c r="D14" s="3">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E9">
+      <c r="E14" s="3">
         <v>-10</v>
       </c>
-      <c r="F9">
+      <c r="F14" s="3">
+        <f t="shared" si="12"/>
+        <v>1996877</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1996823</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1996982</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1996897</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1996832</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1996868</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1996830</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1996860</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1996867</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-10</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="5"/>
         <v>1996877</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="6"/>
-        <v>1996877</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="7"/>
-        <v>1996717</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="T9" s="3">
+      <c r="G15" s="3">
+        <v>1996823</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1996982</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1996897</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1996895</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1996911</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1996903</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1996925</v>
+      </c>
+      <c r="T15" s="3">
         <f t="shared" si="0"/>
-        <v>-1996877</v>
-      </c>
-      <c r="U9" s="3">
+        <v>80</v>
+      </c>
+      <c r="U15" s="3">
         <f t="shared" si="1"/>
-        <v>-1996877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="3" customFormat="1">
-      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="3" customFormat="1">
+      <c r="A16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B16" s="3">
         <v>3155262</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D16" s="3">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="5"/>
         <v>3155261</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G16" s="3">
         <v>3155218</v>
       </c>
-      <c r="H10" s="3">
-        <f>G10+160-1</f>
+      <c r="H16" s="3">
+        <f>G16+160-1</f>
         <v>3155377</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K16" s="3">
         <v>3155384</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N16" s="3">
         <v>3155355</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O16" s="3">
         <v>3155384</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R16" s="3">
         <v>3155336</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S16" s="3">
         <v>3155365</v>
       </c>
-      <c r="T10" s="3">
-        <f t="shared" ref="T10:T11" si="8">R10-G10</f>
+      <c r="T16" s="3">
+        <f t="shared" ref="T16:T17" si="15">R16-G16</f>
         <v>118</v>
       </c>
-      <c r="U10" s="3">
-        <f t="shared" ref="U10:U11" si="9">S10-G10</f>
+      <c r="U16" s="3">
+        <f t="shared" ref="U16:U17" si="16">S16-G16</f>
         <v>147</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="3" customFormat="1">
-      <c r="A11" s="2" t="s">
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="3" customFormat="1">
+      <c r="A17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B17" s="3">
         <v>3155262</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D17" s="3">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" ref="F11" si="10">B11+D11*E11</f>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ref="F17" si="17">B17+D17*E17</f>
         <v>3155261</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G17" s="3">
         <v>3155218</v>
       </c>
-      <c r="H11" s="3">
-        <f t="shared" ref="H11:H12" si="11">G11+160-1</f>
+      <c r="H17" s="3">
+        <f t="shared" ref="H17:H18" si="18">G17+160-1</f>
         <v>3155377</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K17" s="3">
         <v>3155384</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N17" s="3">
         <v>3155238</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O17" s="3">
         <v>3155261</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R17" s="3">
         <v>3155220</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S17" s="3">
         <v>3155250</v>
       </c>
-      <c r="T11" s="3">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="U11" s="3">
-        <f t="shared" si="9"/>
+      <c r="T17" s="3">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" ht="19" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="3" customFormat="1" ht="19" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B18" s="3">
         <v>3155262</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D18" s="3">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
         <f t="shared" si="5"/>
         <v>3155261</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G18" s="3">
         <v>3155218</v>
       </c>
-      <c r="H12" s="3">
-        <f t="shared" si="11"/>
+      <c r="H18" s="3">
+        <f t="shared" si="18"/>
         <v>3155377</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K18" s="3">
         <v>3155384</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N18" s="3">
         <v>3155217</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O18" s="3">
         <v>3155240</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R18" s="3">
         <v>3155220</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S18" s="3">
         <v>3155250</v>
       </c>
-      <c r="T12" s="3">
-        <f>R12-G12</f>
-        <v>2</v>
-      </c>
-      <c r="U12" s="3">
-        <f>S12-G12</f>
+      <c r="T18" s="3">
+        <f>R18-G18</f>
+        <v>2</v>
+      </c>
+      <c r="U18" s="3">
+        <f>S18-G18</f>
         <v>32</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1" t="s">
+      <c r="X18" s="4"/>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B13">
+      <c r="B19">
         <v>3836664</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C19" t="s">
         <v>118</v>
       </c>
-      <c r="D13">
+      <c r="D19">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="5"/>
         <v>3836664</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="6"/>
+      <c r="G19">
+        <f t="shared" ref="G19:G77" si="19">F19</f>
         <v>3836664</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="7"/>
+      <c r="H19">
+        <f t="shared" ref="H19:H77" si="20">G19+D19*160</f>
         <v>3836504</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="T13" s="3">
-        <f t="shared" ref="T13:T77" si="12">R13-G13</f>
+      <c r="M19" s="1"/>
+      <c r="T19" s="3">
+        <f t="shared" ref="T19:T83" si="21">R19-G19</f>
         <v>-3836664</v>
       </c>
-      <c r="U13" s="3">
-        <f t="shared" ref="U13:U77" si="13">S13-G13</f>
+      <c r="U19" s="3">
+        <f t="shared" ref="U19:U83" si="22">S19-G19</f>
         <v>-3836664</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="1" t="s">
+    <row r="20" spans="1:25">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B20">
         <v>909320</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C20" t="s">
         <v>118</v>
       </c>
-      <c r="D14">
+      <c r="D20">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="5"/>
         <v>909320</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="6"/>
+      <c r="G20">
+        <f t="shared" si="19"/>
         <v>909320</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="7"/>
+      <c r="H20">
+        <f t="shared" si="20"/>
         <v>909160</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="T14" s="3">
-        <f t="shared" si="12"/>
+      <c r="M20" s="1"/>
+      <c r="T20" s="3">
+        <f t="shared" si="21"/>
         <v>-909320</v>
       </c>
-      <c r="U14" s="3">
-        <f t="shared" si="13"/>
+      <c r="U20" s="3">
+        <f t="shared" si="22"/>
         <v>-909320</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="1" t="s">
+    <row r="21" spans="1:25">
+      <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B15">
+      <c r="B21">
         <v>3350504</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C21" t="s">
         <v>118</v>
       </c>
-      <c r="D15">
+      <c r="D21">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E15">
+      <c r="E21">
         <v>-7</v>
       </c>
-      <c r="F15">
+      <c r="F21">
         <f t="shared" si="5"/>
         <v>3350511</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="6"/>
+      <c r="G21">
+        <f t="shared" si="19"/>
         <v>3350511</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="7"/>
+      <c r="H21">
+        <f t="shared" si="20"/>
         <v>3350351</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="T15" s="3">
-        <f t="shared" si="12"/>
+      <c r="M21" s="1"/>
+      <c r="T21" s="3">
+        <f t="shared" si="21"/>
         <v>-3350511</v>
       </c>
-      <c r="U15" s="3">
-        <f t="shared" si="13"/>
+      <c r="U21" s="3">
+        <f t="shared" si="22"/>
         <v>-3350511</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="1" t="s">
+    <row r="22" spans="1:25">
+      <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B16">
+      <c r="B22">
         <v>4269355</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C22" t="s">
         <v>108</v>
       </c>
-      <c r="D16">
+      <c r="D22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="5"/>
         <v>4269355</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="6"/>
+      <c r="G22">
+        <f t="shared" si="19"/>
         <v>4269355</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="7"/>
+      <c r="H22">
+        <f t="shared" si="20"/>
         <v>4269515</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="T16" s="3">
-        <f t="shared" si="12"/>
+      <c r="M22" s="1"/>
+      <c r="T22" s="3">
+        <f t="shared" si="21"/>
         <v>-4269355</v>
       </c>
-      <c r="U16" s="3">
-        <f t="shared" si="13"/>
+      <c r="U22" s="3">
+        <f t="shared" si="22"/>
         <v>-4269355</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="1" t="s">
+    <row r="23" spans="1:25">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
+      <c r="B23">
         <v>4474096</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C23" t="s">
         <v>108</v>
       </c>
-      <c r="D17">
+      <c r="D23">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="5"/>
         <v>4474096</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="6"/>
+      <c r="G23">
+        <f t="shared" si="19"/>
         <v>4474096</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="7"/>
+      <c r="H23">
+        <f t="shared" si="20"/>
         <v>4474256</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="T17" s="3">
-        <f t="shared" si="12"/>
+      <c r="M23" s="1"/>
+      <c r="T23" s="3">
+        <f t="shared" si="21"/>
         <v>-4474096</v>
       </c>
-      <c r="U17" s="3">
-        <f t="shared" si="13"/>
+      <c r="U23" s="3">
+        <f t="shared" si="22"/>
         <v>-4474096</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="1" t="s">
+    <row r="24" spans="1:25">
+      <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B18">
+      <c r="B24">
         <v>1523276</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C24" t="s">
         <v>118</v>
       </c>
-      <c r="D18">
+      <c r="D24">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="5"/>
         <v>1523276</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="6"/>
+      <c r="G24">
+        <f t="shared" si="19"/>
         <v>1523276</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="7"/>
+      <c r="H24">
+        <f t="shared" si="20"/>
         <v>1523116</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="T18" s="3">
-        <f t="shared" si="12"/>
+      <c r="M24" s="1"/>
+      <c r="T24" s="3">
+        <f t="shared" si="21"/>
         <v>-1523276</v>
       </c>
-      <c r="U18" s="3">
-        <f t="shared" si="13"/>
+      <c r="U24" s="3">
+        <f t="shared" si="22"/>
         <v>-1523276</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="1" t="s">
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B25">
         <v>897947</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" t="s">
         <v>108</v>
       </c>
-      <c r="D19">
+      <c r="D25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="5"/>
         <v>897947</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="6"/>
+      <c r="G25">
+        <f t="shared" si="19"/>
         <v>897947</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="7"/>
+      <c r="H25">
+        <f t="shared" si="20"/>
         <v>898107</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="T19" s="3">
-        <f t="shared" si="12"/>
+      <c r="M25" s="1"/>
+      <c r="T25" s="3">
+        <f t="shared" si="21"/>
         <v>-897947</v>
       </c>
-      <c r="U19" s="3">
-        <f t="shared" si="13"/>
+      <c r="U25" s="3">
+        <f t="shared" si="22"/>
         <v>-897947</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="1" t="s">
+    <row r="26" spans="1:25">
+      <c r="A26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B20">
+      <c r="B26">
         <v>285350</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C26" t="s">
         <v>108</v>
       </c>
-      <c r="D20">
+      <c r="D26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="5"/>
         <v>285350</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="6"/>
+      <c r="G26">
+        <f t="shared" si="19"/>
         <v>285350</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="7"/>
+      <c r="H26">
+        <f t="shared" si="20"/>
         <v>285510</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="T20" s="3">
-        <f t="shared" si="12"/>
+      <c r="M26" s="1"/>
+      <c r="T26" s="3">
+        <f t="shared" si="21"/>
         <v>-285350</v>
       </c>
-      <c r="U20" s="3">
-        <f t="shared" si="13"/>
+      <c r="U26" s="3">
+        <f t="shared" si="22"/>
         <v>-285350</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="1" t="s">
+    <row r="27" spans="1:25">
+      <c r="A27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B21">
+      <c r="B27">
         <v>2303797</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C27" t="s">
         <v>108</v>
       </c>
-      <c r="D21">
+      <c r="D27">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="5"/>
         <v>2303797</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
+      <c r="G27">
+        <f t="shared" si="19"/>
         <v>2303797</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="7"/>
+      <c r="H27">
+        <f t="shared" si="20"/>
         <v>2303957</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="T21" s="3">
-        <f t="shared" si="12"/>
+      <c r="M27" s="1"/>
+      <c r="T27" s="3">
+        <f t="shared" si="21"/>
         <v>-2303797</v>
       </c>
-      <c r="U21" s="3">
-        <f t="shared" si="13"/>
+      <c r="U27" s="3">
+        <f t="shared" si="22"/>
         <v>-2303797</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="1" t="s">
+    <row r="28" spans="1:25">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
+      <c r="B28">
         <v>2690181</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C28" t="s">
         <v>118</v>
       </c>
-      <c r="D22">
+      <c r="D28">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="5"/>
         <v>2690181</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
+      <c r="G28">
+        <f t="shared" si="19"/>
         <v>2690181</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="7"/>
+      <c r="H28">
+        <f t="shared" si="20"/>
         <v>2690021</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="T22" s="3">
-        <f t="shared" si="12"/>
+      <c r="M28" s="1"/>
+      <c r="T28" s="3">
+        <f t="shared" si="21"/>
         <v>-2690181</v>
       </c>
-      <c r="U22" s="3">
-        <f t="shared" si="13"/>
+      <c r="U28" s="3">
+        <f t="shared" si="22"/>
         <v>-2690181</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="1" t="s">
+    <row r="29" spans="1:25">
+      <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
+      <c r="B29">
         <v>1116709</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="D23">
+      <c r="D29">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="5"/>
         <v>1116709</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
+      <c r="G29">
+        <f t="shared" si="19"/>
         <v>1116709</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="7"/>
+      <c r="H29">
+        <f t="shared" si="20"/>
         <v>1116549</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="T23" s="3">
-        <f t="shared" si="12"/>
+      <c r="M29" s="1"/>
+      <c r="T29" s="3">
+        <f t="shared" si="21"/>
         <v>-1116709</v>
       </c>
-      <c r="U23" s="3">
-        <f t="shared" si="13"/>
+      <c r="U29" s="3">
+        <f t="shared" si="22"/>
         <v>-1116709</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="1" t="s">
+    <row r="30" spans="1:25">
+      <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B24">
+      <c r="B30">
         <v>2876547</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C30" t="s">
         <v>108</v>
       </c>
-      <c r="D24">
+      <c r="D30">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="E30">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="F30">
         <f t="shared" si="5"/>
         <v>2876550</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
+      <c r="G30">
+        <f t="shared" si="19"/>
         <v>2876550</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="7"/>
+      <c r="H30">
+        <f t="shared" si="20"/>
         <v>2876710</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="T24" s="3">
-        <f t="shared" si="12"/>
+      <c r="M30" s="1"/>
+      <c r="T30" s="3">
+        <f t="shared" si="21"/>
         <v>-2876550</v>
       </c>
-      <c r="U24" s="3">
-        <f t="shared" si="13"/>
+      <c r="U30" s="3">
+        <f t="shared" si="22"/>
         <v>-2876550</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="1" t="s">
+    <row r="31" spans="1:25">
+      <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25">
+      <c r="B31">
         <v>3235915</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C31" t="s">
         <v>108</v>
       </c>
-      <c r="D25">
+      <c r="D31">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="5"/>
         <v>3235915</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="6"/>
+      <c r="G31">
+        <f t="shared" si="19"/>
         <v>3235915</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="7"/>
+      <c r="H31">
+        <f t="shared" si="20"/>
         <v>3236075</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="T25" s="3">
-        <f t="shared" si="12"/>
+      <c r="M31" s="1"/>
+      <c r="T31" s="3">
+        <f t="shared" si="21"/>
         <v>-3235915</v>
       </c>
-      <c r="U25" s="3">
-        <f t="shared" si="13"/>
+      <c r="U31" s="3">
+        <f t="shared" si="22"/>
         <v>-3235915</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="1" t="s">
+    <row r="32" spans="1:25">
+      <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26">
+      <c r="B32">
         <v>2009776</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C32" t="s">
         <v>108</v>
       </c>
-      <c r="D26">
+      <c r="D32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="5"/>
         <v>2009776</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="6"/>
+      <c r="G32">
+        <f t="shared" si="19"/>
         <v>2009776</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="7"/>
+      <c r="H32">
+        <f t="shared" si="20"/>
         <v>2009936</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="T26" s="3">
-        <f t="shared" si="12"/>
+      <c r="M32" s="1"/>
+      <c r="T32" s="3">
+        <f t="shared" si="21"/>
         <v>-2009776</v>
       </c>
-      <c r="U26" s="3">
-        <f t="shared" si="13"/>
+      <c r="U32" s="3">
+        <f t="shared" si="22"/>
         <v>-2009776</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="1" t="s">
+    <row r="33" spans="1:21">
+      <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B27">
+      <c r="B33">
         <v>4484273</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C33" t="s">
         <v>118</v>
       </c>
-      <c r="D27">
+      <c r="D33">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="5"/>
         <v>4484273</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="6"/>
+      <c r="G33">
+        <f t="shared" si="19"/>
         <v>4484273</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="7"/>
+      <c r="H33">
+        <f t="shared" si="20"/>
         <v>4484113</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="T27" s="3">
-        <f t="shared" si="12"/>
+      <c r="M33" s="1"/>
+      <c r="T33" s="3">
+        <f t="shared" si="21"/>
         <v>-4484273</v>
       </c>
-      <c r="U27" s="3">
-        <f t="shared" si="13"/>
+      <c r="U33" s="3">
+        <f t="shared" si="22"/>
         <v>-4484273</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="1" t="s">
+    <row r="34" spans="1:21">
+      <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="B34">
         <v>2585570</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C34" t="s">
         <v>118</v>
       </c>
-      <c r="D28">
+      <c r="D34">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="5"/>
         <v>2585570</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="6"/>
+      <c r="G34">
+        <f t="shared" si="19"/>
         <v>2585570</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="7"/>
+      <c r="H34">
+        <f t="shared" si="20"/>
         <v>2585410</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="T28" s="3">
-        <f t="shared" si="12"/>
+      <c r="M34" s="1"/>
+      <c r="T34" s="3">
+        <f t="shared" si="21"/>
         <v>-2585570</v>
       </c>
-      <c r="U28" s="3">
-        <f t="shared" si="13"/>
+      <c r="U34" s="3">
+        <f t="shared" si="22"/>
         <v>-2585570</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="1" t="s">
+    <row r="35" spans="1:21">
+      <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B29">
+      <c r="B35">
         <v>63358</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C35" t="s">
         <v>118</v>
       </c>
-      <c r="D29">
+      <c r="D35">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="5"/>
         <v>63358</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="6"/>
+      <c r="G35">
+        <f t="shared" si="19"/>
         <v>63358</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="7"/>
+      <c r="H35">
+        <f t="shared" si="20"/>
         <v>63198</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="T29" s="3">
-        <f t="shared" si="12"/>
+      <c r="M35" s="1"/>
+      <c r="T35" s="3">
+        <f t="shared" si="21"/>
         <v>-63358</v>
       </c>
-      <c r="U29" s="3">
-        <f t="shared" si="13"/>
+      <c r="U35" s="3">
+        <f t="shared" si="22"/>
         <v>-63358</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="1" t="s">
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B30">
+      <c r="B36">
         <v>2230395</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C36" t="s">
         <v>118</v>
       </c>
-      <c r="D30">
+      <c r="D36">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="5"/>
         <v>2230395</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="6"/>
+      <c r="G36">
+        <f t="shared" si="19"/>
         <v>2230395</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="7"/>
+      <c r="H36">
+        <f t="shared" si="20"/>
         <v>2230235</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="T30" s="3">
-        <f t="shared" si="12"/>
+      <c r="M36" s="1"/>
+      <c r="T36" s="3">
+        <f t="shared" si="21"/>
         <v>-2230395</v>
       </c>
-      <c r="U30" s="3">
-        <f t="shared" si="13"/>
+      <c r="U36" s="3">
+        <f t="shared" si="22"/>
         <v>-2230395</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="1" t="s">
+    <row r="37" spans="1:21">
+      <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B31">
+      <c r="B37">
         <v>4081359</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C37" t="s">
         <v>118</v>
       </c>
-      <c r="D31">
+      <c r="D37">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="5"/>
         <v>4081357</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="6"/>
+      <c r="G37">
+        <f t="shared" si="19"/>
         <v>4081357</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="7"/>
+      <c r="H37">
+        <f t="shared" si="20"/>
         <v>4081197</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="T31" s="3">
-        <f t="shared" si="12"/>
+      <c r="M37" s="1"/>
+      <c r="T37" s="3">
+        <f t="shared" si="21"/>
         <v>-4081357</v>
       </c>
-      <c r="U31" s="3">
-        <f t="shared" si="13"/>
+      <c r="U37" s="3">
+        <f t="shared" si="22"/>
         <v>-4081357</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="1" t="s">
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B32">
+      <c r="B38">
         <v>197026</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C38" t="s">
         <v>108</v>
       </c>
-      <c r="D32">
+      <c r="D38">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="5"/>
         <v>197026</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="6"/>
+      <c r="G38">
+        <f t="shared" si="19"/>
         <v>197026</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="7"/>
+      <c r="H38">
+        <f t="shared" si="20"/>
         <v>197186</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="T32" s="3">
-        <f t="shared" si="12"/>
+      <c r="M38" s="1"/>
+      <c r="T38" s="3">
+        <f t="shared" si="21"/>
         <v>-197026</v>
       </c>
-      <c r="U32" s="3">
-        <f t="shared" si="13"/>
+      <c r="U38" s="3">
+        <f t="shared" si="22"/>
         <v>-197026</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="1" t="s">
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B33">
+      <c r="B39">
         <v>197821</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C39" t="s">
         <v>108</v>
       </c>
-      <c r="D33">
+      <c r="D39">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F33">
+      <c r="F39">
         <f t="shared" si="5"/>
         <v>197821</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="6"/>
+      <c r="G39">
+        <f t="shared" si="19"/>
         <v>197821</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="7"/>
+      <c r="H39">
+        <f t="shared" si="20"/>
         <v>197981</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="T33" s="3">
-        <f t="shared" si="12"/>
+      <c r="M39" s="1"/>
+      <c r="T39" s="3">
+        <f t="shared" si="21"/>
         <v>-197821</v>
       </c>
-      <c r="U33" s="3">
-        <f t="shared" si="13"/>
+      <c r="U39" s="3">
+        <f t="shared" si="22"/>
         <v>-197821</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="1" t="s">
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B34">
+      <c r="B40">
         <v>1237285</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="D34">
+      <c r="D40">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="5"/>
         <v>1237285</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="6"/>
+      <c r="G40">
+        <f t="shared" si="19"/>
         <v>1237285</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="7"/>
+      <c r="H40">
+        <f t="shared" si="20"/>
         <v>1237125</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="T34" s="3">
-        <f t="shared" si="12"/>
+      <c r="M40" s="1"/>
+      <c r="T40" s="3">
+        <f t="shared" si="21"/>
         <v>-1237285</v>
       </c>
-      <c r="U34" s="3">
-        <f t="shared" si="13"/>
+      <c r="U40" s="3">
+        <f t="shared" si="22"/>
         <v>-1237285</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="1" t="s">
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35">
+      <c r="B41">
         <v>2212241</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C41" t="s">
         <v>118</v>
       </c>
-      <c r="D35">
+      <c r="D41">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E35">
+      <c r="E41">
         <v>-15</v>
       </c>
-      <c r="F35">
+      <c r="F41">
         <f t="shared" si="5"/>
         <v>2212256</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="6"/>
+      <c r="G41">
+        <f t="shared" si="19"/>
         <v>2212256</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="7"/>
+      <c r="H41">
+        <f t="shared" si="20"/>
         <v>2212096</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="T35" s="3">
-        <f t="shared" si="12"/>
+      <c r="M41" s="1"/>
+      <c r="T41" s="3">
+        <f t="shared" si="21"/>
         <v>-2212256</v>
       </c>
-      <c r="U35" s="3">
-        <f t="shared" si="13"/>
+      <c r="U41" s="3">
+        <f t="shared" si="22"/>
         <v>-2212256</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="1" t="s">
+    <row r="42" spans="1:21">
+      <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36">
+      <c r="B42">
         <v>2266214</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C42" t="s">
         <v>108</v>
       </c>
-      <c r="D36">
+      <c r="D42">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="5"/>
         <v>2266214</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="6"/>
+      <c r="G42">
+        <f t="shared" si="19"/>
         <v>2266214</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="7"/>
+      <c r="H42">
+        <f t="shared" si="20"/>
         <v>2266374</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="T36" s="3">
-        <f t="shared" si="12"/>
+      <c r="M42" s="1"/>
+      <c r="T42" s="3">
+        <f t="shared" si="21"/>
         <v>-2266214</v>
       </c>
-      <c r="U36" s="3">
-        <f t="shared" si="13"/>
+      <c r="U42" s="3">
+        <f t="shared" si="22"/>
         <v>-2266214</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="1" t="s">
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B37">
+      <c r="B43">
         <v>1734357</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C43" t="s">
         <v>108</v>
       </c>
-      <c r="D37">
+      <c r="D43">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="5"/>
         <v>1734357</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="6"/>
+      <c r="G43">
+        <f t="shared" si="19"/>
         <v>1734357</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="7"/>
+      <c r="H43">
+        <f t="shared" si="20"/>
         <v>1734517</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="T37" s="3">
-        <f t="shared" si="12"/>
+      <c r="M43" s="1"/>
+      <c r="T43" s="3">
+        <f t="shared" si="21"/>
         <v>-1734357</v>
       </c>
-      <c r="U37" s="3">
-        <f t="shared" si="13"/>
+      <c r="U43" s="3">
+        <f t="shared" si="22"/>
         <v>-1734357</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="1" t="s">
+    <row r="44" spans="1:21">
+      <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B38">
+      <c r="B44">
         <v>4122354</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C44" t="s">
         <v>118</v>
       </c>
-      <c r="D38">
+      <c r="D44">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="5"/>
         <v>4122354</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="6"/>
+      <c r="G44">
+        <f t="shared" si="19"/>
         <v>4122354</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="7"/>
+      <c r="H44">
+        <f t="shared" si="20"/>
         <v>4122194</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="T38" s="3">
-        <f t="shared" si="12"/>
+      <c r="M44" s="1"/>
+      <c r="T44" s="3">
+        <f t="shared" si="21"/>
         <v>-4122354</v>
       </c>
-      <c r="U38" s="3">
-        <f t="shared" si="13"/>
+      <c r="U44" s="3">
+        <f t="shared" si="22"/>
         <v>-4122354</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="1" t="s">
+    <row r="45" spans="1:21">
+      <c r="A45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B39">
+      <c r="B45">
         <v>1223097</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C45" t="s">
         <v>118</v>
       </c>
-      <c r="D39">
+      <c r="D45">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="5"/>
         <v>1223097</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="6"/>
+      <c r="G45">
+        <f t="shared" si="19"/>
         <v>1223097</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="7"/>
+      <c r="H45">
+        <f t="shared" si="20"/>
         <v>1222937</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="T39" s="3">
-        <f t="shared" si="12"/>
+      <c r="M45" s="1"/>
+      <c r="T45" s="3">
+        <f t="shared" si="21"/>
         <v>-1223097</v>
       </c>
-      <c r="U39" s="3">
-        <f t="shared" si="13"/>
+      <c r="U45" s="3">
+        <f t="shared" si="22"/>
         <v>-1223097</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="1" t="s">
+    <row r="46" spans="1:21">
+      <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B40">
+      <c r="B46">
         <v>1907086</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C46" t="s">
         <v>118</v>
       </c>
-      <c r="D40">
+      <c r="D46">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="5"/>
         <v>1907086</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
+      <c r="G46">
+        <f t="shared" si="19"/>
         <v>1907086</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="7"/>
+      <c r="H46">
+        <f t="shared" si="20"/>
         <v>1906926</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="T40" s="3">
-        <f t="shared" si="12"/>
+      <c r="M46" s="1"/>
+      <c r="T46" s="3">
+        <f t="shared" si="21"/>
         <v>-1907086</v>
       </c>
-      <c r="U40" s="3">
-        <f t="shared" si="13"/>
+      <c r="U46" s="3">
+        <f t="shared" si="22"/>
         <v>-1907086</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="1" t="s">
+    <row r="47" spans="1:21">
+      <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B41">
+      <c r="B47">
         <v>794644</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C47" t="s">
         <v>118</v>
       </c>
-      <c r="D41">
+      <c r="D47">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="5"/>
         <v>794644</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="6"/>
+      <c r="G47">
+        <f t="shared" si="19"/>
         <v>794644</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="7"/>
+      <c r="H47">
+        <f t="shared" si="20"/>
         <v>794484</v>
       </c>
-      <c r="M41" s="1"/>
-      <c r="T41" s="3">
-        <f t="shared" si="12"/>
+      <c r="M47" s="1"/>
+      <c r="T47" s="3">
+        <f t="shared" si="21"/>
         <v>-794644</v>
       </c>
-      <c r="U41" s="3">
-        <f t="shared" si="13"/>
+      <c r="U47" s="3">
+        <f t="shared" si="22"/>
         <v>-794644</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="1" t="s">
+    <row r="48" spans="1:21">
+      <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B42">
+      <c r="B48">
         <v>1018330</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C48" t="s">
         <v>118</v>
       </c>
-      <c r="D42">
+      <c r="D48">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="5"/>
         <v>1018330</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="6"/>
+      <c r="G48">
+        <f t="shared" si="19"/>
         <v>1018330</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="7"/>
+      <c r="H48">
+        <f t="shared" si="20"/>
         <v>1018170</v>
       </c>
-      <c r="M42" s="1"/>
-      <c r="T42" s="3">
-        <f t="shared" si="12"/>
+      <c r="M48" s="1"/>
+      <c r="T48" s="3">
+        <f t="shared" si="21"/>
         <v>-1018330</v>
       </c>
-      <c r="U42" s="3">
-        <f t="shared" si="13"/>
+      <c r="U48" s="3">
+        <f t="shared" si="22"/>
         <v>-1018330</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="1" t="s">
+    <row r="49" spans="1:21">
+      <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B43">
+      <c r="B49">
         <v>443748</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C49" t="s">
         <v>118</v>
       </c>
-      <c r="D43">
+      <c r="D49">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="5"/>
         <v>443748</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="6"/>
+      <c r="G49">
+        <f t="shared" si="19"/>
         <v>443748</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="7"/>
+      <c r="H49">
+        <f t="shared" si="20"/>
         <v>443588</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="T43" s="3">
-        <f t="shared" si="12"/>
+      <c r="M49" s="1"/>
+      <c r="T49" s="3">
+        <f t="shared" si="21"/>
         <v>-443748</v>
       </c>
-      <c r="U43" s="3">
-        <f t="shared" si="13"/>
+      <c r="U49" s="3">
+        <f t="shared" si="22"/>
         <v>-443748</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="1" t="s">
+    <row r="50" spans="1:21">
+      <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B44">
+      <c r="B50">
         <v>1950760</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C50" t="s">
         <v>108</v>
       </c>
-      <c r="D44">
+      <c r="D50">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="5"/>
         <v>1950760</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="6"/>
+      <c r="G50">
+        <f t="shared" si="19"/>
         <v>1950760</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="7"/>
+      <c r="H50">
+        <f t="shared" si="20"/>
         <v>1950920</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="T44" s="3">
-        <f t="shared" si="12"/>
+      <c r="M50" s="1"/>
+      <c r="T50" s="3">
+        <f t="shared" si="21"/>
         <v>-1950760</v>
       </c>
-      <c r="U44" s="3">
-        <f t="shared" si="13"/>
+      <c r="U50" s="3">
+        <f t="shared" si="22"/>
         <v>-1950760</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="1" t="s">
+    <row r="51" spans="1:21">
+      <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B45">
+      <c r="B51">
         <v>852626</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C51" t="s">
         <v>118</v>
       </c>
-      <c r="D45">
+      <c r="D51">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="5"/>
         <v>852626</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="6"/>
+      <c r="G51">
+        <f t="shared" si="19"/>
         <v>852626</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="7"/>
+      <c r="H51">
+        <f t="shared" si="20"/>
         <v>852466</v>
       </c>
-      <c r="M45" s="1"/>
-      <c r="T45" s="3">
-        <f t="shared" si="12"/>
+      <c r="M51" s="1"/>
+      <c r="T51" s="3">
+        <f t="shared" si="21"/>
         <v>-852626</v>
       </c>
-      <c r="U45" s="3">
-        <f t="shared" si="13"/>
+      <c r="U51" s="3">
+        <f t="shared" si="22"/>
         <v>-852626</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="1" t="s">
+    <row r="52" spans="1:21">
+      <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B46">
+      <c r="B52">
         <v>889945</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C52" t="s">
         <v>118</v>
       </c>
-      <c r="D46">
+      <c r="D52">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E46">
+      <c r="E52">
         <v>-7</v>
       </c>
-      <c r="F46">
+      <c r="F52">
         <f t="shared" si="5"/>
         <v>889952</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="6"/>
+      <c r="G52">
+        <f t="shared" si="19"/>
         <v>889952</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="7"/>
+      <c r="H52">
+        <f t="shared" si="20"/>
         <v>889792</v>
       </c>
-      <c r="M46" s="1"/>
-      <c r="T46" s="3">
-        <f t="shared" si="12"/>
+      <c r="M52" s="1"/>
+      <c r="T52" s="3">
+        <f t="shared" si="21"/>
         <v>-889952</v>
       </c>
-      <c r="U46" s="3">
-        <f t="shared" si="13"/>
+      <c r="U52" s="3">
+        <f t="shared" si="22"/>
         <v>-889952</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
-      <c r="A47" s="1" t="s">
+    <row r="53" spans="1:21">
+      <c r="A53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B47">
+      <c r="B53">
         <v>2926272</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C53" t="s">
         <v>108</v>
       </c>
-      <c r="D47">
+      <c r="D53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="E53">
         <v>-158</v>
       </c>
-      <c r="F47">
+      <c r="F53">
         <f t="shared" si="5"/>
         <v>2926114</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="6"/>
+      <c r="G53">
+        <f t="shared" si="19"/>
         <v>2926114</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="7"/>
+      <c r="H53">
+        <f t="shared" si="20"/>
         <v>2926274</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="T47" s="3">
-        <f t="shared" si="12"/>
+      <c r="M53" s="1"/>
+      <c r="T53" s="3">
+        <f t="shared" si="21"/>
         <v>-2926114</v>
       </c>
-      <c r="U47" s="3">
-        <f t="shared" si="13"/>
+      <c r="U53" s="3">
+        <f t="shared" si="22"/>
         <v>-2926114</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="1" t="s">
+    <row r="54" spans="1:21">
+      <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B48">
+      <c r="B54">
         <v>2870686</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
         <v>118</v>
       </c>
-      <c r="D48">
+      <c r="D54">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="5"/>
         <v>2870686</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="6"/>
+      <c r="G54">
+        <f t="shared" si="19"/>
         <v>2870686</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="7"/>
+      <c r="H54">
+        <f t="shared" si="20"/>
         <v>2870526</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="T48" s="3">
-        <f t="shared" si="12"/>
+      <c r="M54" s="1"/>
+      <c r="T54" s="3">
+        <f t="shared" si="21"/>
         <v>-2870686</v>
       </c>
-      <c r="U48" s="3">
-        <f t="shared" si="13"/>
+      <c r="U54" s="3">
+        <f t="shared" si="22"/>
         <v>-2870686</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="1" t="s">
+    <row r="55" spans="1:21">
+      <c r="A55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B49">
+      <c r="B55">
         <v>220022</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C55" t="s">
         <v>118</v>
       </c>
-      <c r="D49">
+      <c r="D55">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="5"/>
         <v>220022</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="6"/>
+      <c r="G55">
+        <f t="shared" si="19"/>
         <v>220022</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="7"/>
+      <c r="H55">
+        <f t="shared" si="20"/>
         <v>219862</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="T49" s="3">
-        <f t="shared" si="12"/>
+      <c r="M55" s="1"/>
+      <c r="T55" s="3">
+        <f t="shared" si="21"/>
         <v>-220022</v>
       </c>
-      <c r="U49" s="3">
-        <f t="shared" si="13"/>
+      <c r="U55" s="3">
+        <f t="shared" si="22"/>
         <v>-220022</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="1" t="s">
+    <row r="56" spans="1:21">
+      <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B50">
+      <c r="B56">
         <v>2082728</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C56" t="s">
         <v>108</v>
       </c>
-      <c r="D50">
+      <c r="D56">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="5"/>
         <v>2082728</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="6"/>
+      <c r="G56">
+        <f t="shared" si="19"/>
         <v>2082728</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="7"/>
+      <c r="H56">
+        <f t="shared" si="20"/>
         <v>2082888</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="T50" s="3">
-        <f t="shared" si="12"/>
+      <c r="M56" s="1"/>
+      <c r="T56" s="3">
+        <f t="shared" si="21"/>
         <v>-2082728</v>
       </c>
-      <c r="U50" s="3">
-        <f t="shared" si="13"/>
+      <c r="U56" s="3">
+        <f t="shared" si="22"/>
         <v>-2082728</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="1" t="s">
+    <row r="57" spans="1:21">
+      <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B51">
+      <c r="B57">
         <v>2999918</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C57" t="s">
         <v>118</v>
       </c>
-      <c r="D51">
+      <c r="D57">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="5"/>
         <v>2999918</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="6"/>
+      <c r="G57">
+        <f t="shared" si="19"/>
         <v>2999918</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="7"/>
+      <c r="H57">
+        <f t="shared" si="20"/>
         <v>2999758</v>
       </c>
-      <c r="M51" s="1"/>
-      <c r="T51" s="3">
-        <f t="shared" si="12"/>
+      <c r="M57" s="1"/>
+      <c r="T57" s="3">
+        <f t="shared" si="21"/>
         <v>-2999918</v>
       </c>
-      <c r="U51" s="3">
-        <f t="shared" si="13"/>
+      <c r="U57" s="3">
+        <f t="shared" si="22"/>
         <v>-2999918</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="1" t="s">
+    <row r="58" spans="1:21">
+      <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B52">
+      <c r="B58">
         <v>486492</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C58" t="s">
         <v>108</v>
       </c>
-      <c r="D52">
+      <c r="D58">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="5"/>
         <v>486492</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="6"/>
+      <c r="G58">
+        <f t="shared" si="19"/>
         <v>486492</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="7"/>
+      <c r="H58">
+        <f t="shared" si="20"/>
         <v>486652</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="T52" s="3">
-        <f t="shared" si="12"/>
+      <c r="M58" s="1"/>
+      <c r="T58" s="3">
+        <f t="shared" si="21"/>
         <v>-486492</v>
       </c>
-      <c r="U52" s="3">
-        <f t="shared" si="13"/>
+      <c r="U58" s="3">
+        <f t="shared" si="22"/>
         <v>-486492</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="1" t="s">
+    <row r="59" spans="1:21">
+      <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B53">
+      <c r="B59">
         <v>3069871</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C59" t="s">
         <v>118</v>
       </c>
-      <c r="D53">
+      <c r="D59">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="5"/>
         <v>3069871</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="6"/>
+      <c r="G59">
+        <f t="shared" si="19"/>
         <v>3069871</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="7"/>
+      <c r="H59">
+        <f t="shared" si="20"/>
         <v>3069711</v>
       </c>
-      <c r="M53" s="1"/>
-      <c r="T53" s="3">
-        <f t="shared" si="12"/>
+      <c r="M59" s="1"/>
+      <c r="T59" s="3">
+        <f t="shared" si="21"/>
         <v>-3069871</v>
       </c>
-      <c r="U53" s="3">
-        <f t="shared" si="13"/>
+      <c r="U59" s="3">
+        <f t="shared" si="22"/>
         <v>-3069871</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="1" t="s">
+    <row r="60" spans="1:21">
+      <c r="A60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B54">
+      <c r="B60">
         <v>1395973</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C60" t="s">
         <v>118</v>
       </c>
-      <c r="D54">
+      <c r="D60">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="5"/>
         <v>1395973</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="6"/>
+      <c r="G60">
+        <f t="shared" si="19"/>
         <v>1395973</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="7"/>
+      <c r="H60">
+        <f t="shared" si="20"/>
         <v>1395813</v>
       </c>
-      <c r="M54" s="1"/>
-      <c r="T54" s="3">
-        <f t="shared" si="12"/>
+      <c r="M60" s="1"/>
+      <c r="T60" s="3">
+        <f t="shared" si="21"/>
         <v>-1395973</v>
       </c>
-      <c r="U54" s="3">
-        <f t="shared" si="13"/>
+      <c r="U60" s="3">
+        <f t="shared" si="22"/>
         <v>-1395973</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="1" t="s">
+    <row r="61" spans="1:21">
+      <c r="A61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B55">
+      <c r="B61">
         <v>604684</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C61" t="s">
         <v>118</v>
       </c>
-      <c r="D55">
+      <c r="D61">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="5"/>
         <v>604684</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="6"/>
+      <c r="G61">
+        <f t="shared" si="19"/>
         <v>604684</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="7"/>
+      <c r="H61">
+        <f t="shared" si="20"/>
         <v>604524</v>
       </c>
-      <c r="T55" s="3">
-        <f t="shared" si="12"/>
+      <c r="T61" s="3">
+        <f t="shared" si="21"/>
         <v>-604684</v>
       </c>
-      <c r="U55" s="3">
-        <f t="shared" si="13"/>
+      <c r="U61" s="3">
+        <f t="shared" si="22"/>
         <v>-604684</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
-      <c r="A56" s="1" t="s">
+    <row r="62" spans="1:21">
+      <c r="A62" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B56">
+      <c r="B62">
         <v>1509221</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C62" t="s">
         <v>108</v>
       </c>
-      <c r="D56">
+      <c r="D62">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="5"/>
         <v>1509221</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="6"/>
+      <c r="G62">
+        <f t="shared" si="19"/>
         <v>1509221</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="7"/>
+      <c r="H62">
+        <f t="shared" si="20"/>
         <v>1509381</v>
       </c>
-      <c r="T56" s="3">
-        <f t="shared" si="12"/>
+      <c r="T62" s="3">
+        <f t="shared" si="21"/>
         <v>-1509221</v>
       </c>
-      <c r="U56" s="3">
-        <f t="shared" si="13"/>
+      <c r="U62" s="3">
+        <f t="shared" si="22"/>
         <v>-1509221</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="1" t="s">
+    <row r="63" spans="1:21">
+      <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B57">
+      <c r="B63">
         <v>3353049</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C63" t="s">
         <v>118</v>
       </c>
-      <c r="D57">
+      <c r="D63">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="5"/>
         <v>3353049</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="6"/>
+      <c r="G63">
+        <f t="shared" si="19"/>
         <v>3353049</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="7"/>
+      <c r="H63">
+        <f t="shared" si="20"/>
         <v>3352889</v>
       </c>
-      <c r="T57" s="3">
-        <f t="shared" si="12"/>
+      <c r="T63" s="3">
+        <f t="shared" si="21"/>
         <v>-3353049</v>
       </c>
-      <c r="U57" s="3">
-        <f t="shared" si="13"/>
+      <c r="U63" s="3">
+        <f t="shared" si="22"/>
         <v>-3353049</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
-      <c r="A58" s="1" t="s">
+    <row r="64" spans="1:21">
+      <c r="A64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B58">
+      <c r="B64">
         <v>1226139</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C64" t="s">
         <v>118</v>
       </c>
-      <c r="D58">
+      <c r="D64">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="5"/>
         <v>1226139</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="6"/>
+      <c r="G64">
+        <f t="shared" si="19"/>
         <v>1226139</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="7"/>
+      <c r="H64">
+        <f t="shared" si="20"/>
         <v>1225979</v>
       </c>
-      <c r="T58" s="3">
-        <f t="shared" si="12"/>
+      <c r="T64" s="3">
+        <f t="shared" si="21"/>
         <v>-1226139</v>
       </c>
-      <c r="U58" s="3">
-        <f t="shared" si="13"/>
+      <c r="U64" s="3">
+        <f t="shared" si="22"/>
         <v>-1226139</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
-      <c r="A59" s="1" t="s">
+    <row r="65" spans="1:25">
+      <c r="A65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B59">
+      <c r="B65">
         <v>693469</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C65" t="s">
         <v>118</v>
       </c>
-      <c r="D59">
+      <c r="D65">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="5"/>
         <v>693469</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="6"/>
+      <c r="G65">
+        <f t="shared" si="19"/>
         <v>693469</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="7"/>
+      <c r="H65">
+        <f t="shared" si="20"/>
         <v>693309</v>
       </c>
-      <c r="T59" s="3">
-        <f t="shared" si="12"/>
+      <c r="T65" s="3">
+        <f t="shared" si="21"/>
         <v>-693469</v>
       </c>
-      <c r="U59" s="3">
-        <f t="shared" si="13"/>
+      <c r="U65" s="3">
+        <f t="shared" si="22"/>
         <v>-693469</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
-      <c r="A60" s="1" t="s">
+    <row r="66" spans="1:25">
+      <c r="A66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B60">
+      <c r="B66">
         <v>1848700</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C66" t="s">
         <v>118</v>
       </c>
-      <c r="D60">
+      <c r="D66">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="5"/>
         <v>1848700</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="6"/>
+      <c r="G66">
+        <f t="shared" si="19"/>
         <v>1848700</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="7"/>
+      <c r="H66">
+        <f t="shared" si="20"/>
         <v>1848540</v>
       </c>
-      <c r="T60" s="3">
-        <f t="shared" si="12"/>
+      <c r="T66" s="3">
+        <f t="shared" si="21"/>
         <v>-1848700</v>
       </c>
-      <c r="U60" s="3">
-        <f t="shared" si="13"/>
+      <c r="U66" s="3">
+        <f t="shared" si="22"/>
         <v>-1848700</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="1" t="s">
+    <row r="67" spans="1:25">
+      <c r="A67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B61">
+      <c r="B67">
         <v>3096620</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C67" t="s">
         <v>108</v>
       </c>
-      <c r="D61">
+      <c r="D67">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <f t="shared" si="5"/>
         <v>3096620</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="6"/>
+      <c r="G67">
+        <f t="shared" si="19"/>
         <v>3096620</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="7"/>
+      <c r="H67">
+        <f t="shared" si="20"/>
         <v>3096780</v>
       </c>
-      <c r="T61" s="3">
-        <f t="shared" si="12"/>
+      <c r="T67" s="3">
+        <f t="shared" si="21"/>
         <v>-3096620</v>
       </c>
-      <c r="U61" s="3">
-        <f t="shared" si="13"/>
+      <c r="U67" s="3">
+        <f t="shared" si="22"/>
         <v>-3096620</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="1" t="s">
+    <row r="68" spans="1:25">
+      <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B62">
+      <c r="B68">
         <v>3403446</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C68" t="s">
         <v>108</v>
       </c>
-      <c r="D62">
+      <c r="D68">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="5"/>
         <v>3403446</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="6"/>
+      <c r="G68">
+        <f t="shared" si="19"/>
         <v>3403446</v>
       </c>
-      <c r="H62">
-        <f t="shared" si="7"/>
+      <c r="H68">
+        <f t="shared" si="20"/>
         <v>3403606</v>
       </c>
-      <c r="T62" s="3">
-        <f t="shared" si="12"/>
+      <c r="T68" s="3">
+        <f t="shared" si="21"/>
         <v>-3403446</v>
       </c>
-      <c r="U62" s="3">
-        <f t="shared" si="13"/>
+      <c r="U68" s="3">
+        <f t="shared" si="22"/>
         <v>-3403446</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
-      <c r="A63" s="1" t="s">
+    <row r="69" spans="1:25">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B63">
+      <c r="B69">
         <v>2214673</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C69" t="s">
         <v>118</v>
       </c>
-      <c r="D63">
+      <c r="D69">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="5"/>
         <v>2214673</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="6"/>
+      <c r="G69">
+        <f t="shared" si="19"/>
         <v>2214673</v>
       </c>
-      <c r="H63">
-        <f t="shared" si="7"/>
+      <c r="H69">
+        <f t="shared" si="20"/>
         <v>2214513</v>
       </c>
-      <c r="T63" s="3">
-        <f t="shared" si="12"/>
+      <c r="T69" s="3">
+        <f t="shared" si="21"/>
         <v>-2214673</v>
       </c>
-      <c r="U63" s="3">
-        <f t="shared" si="13"/>
+      <c r="U69" s="3">
+        <f t="shared" si="22"/>
         <v>-2214673</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
-      <c r="A64" s="1" t="s">
+    <row r="70" spans="1:25">
+      <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B64">
+      <c r="B70">
         <v>2212969</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C70" t="s">
         <v>118</v>
       </c>
-      <c r="D64">
+      <c r="D70">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="5"/>
         <v>2212969</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="6"/>
+      <c r="G70">
+        <f t="shared" si="19"/>
         <v>2212969</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="7"/>
+      <c r="H70">
+        <f t="shared" si="20"/>
         <v>2212809</v>
       </c>
-      <c r="T64" s="3">
-        <f t="shared" si="12"/>
+      <c r="T70" s="3">
+        <f t="shared" si="21"/>
         <v>-2212969</v>
       </c>
-      <c r="U64" s="3">
-        <f t="shared" si="13"/>
+      <c r="U70" s="3">
+        <f t="shared" si="22"/>
         <v>-2212969</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
-      <c r="A65" s="1" t="s">
+    <row r="71" spans="1:25">
+      <c r="A71" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B65">
+      <c r="B71">
         <v>845736</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C71" t="s">
         <v>118</v>
       </c>
-      <c r="D65">
+      <c r="D71">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="5"/>
         <v>845736</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="6"/>
+      <c r="G71">
+        <f t="shared" si="19"/>
         <v>845736</v>
       </c>
-      <c r="H65">
-        <f t="shared" si="7"/>
+      <c r="H71">
+        <f t="shared" si="20"/>
         <v>845576</v>
       </c>
-      <c r="T65" s="3">
-        <f t="shared" si="12"/>
+      <c r="T71" s="3">
+        <f t="shared" si="21"/>
         <v>-845736</v>
       </c>
-      <c r="U65" s="3">
-        <f t="shared" si="13"/>
+      <c r="U71" s="3">
+        <f t="shared" si="22"/>
         <v>-845736</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
-      <c r="A66" s="1" t="s">
+    <row r="72" spans="1:25">
+      <c r="A72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B66">
+      <c r="B72">
         <v>3438001</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C72" t="s">
         <v>108</v>
       </c>
-      <c r="D66">
+      <c r="D72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="5"/>
         <v>3438001</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="6"/>
+      <c r="G72">
+        <f t="shared" si="19"/>
         <v>3438001</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="7"/>
+      <c r="H72">
+        <f t="shared" si="20"/>
         <v>3438161</v>
       </c>
-      <c r="T66" s="3">
-        <f t="shared" si="12"/>
+      <c r="T72" s="3">
+        <f t="shared" si="21"/>
         <v>-3438001</v>
       </c>
-      <c r="U66" s="3">
-        <f t="shared" si="13"/>
+      <c r="U72" s="3">
+        <f t="shared" si="22"/>
         <v>-3438001</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
-      <c r="A67" s="1" t="s">
+    <row r="73" spans="1:25">
+      <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B67">
+      <c r="B73">
         <v>4118427</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C73" t="s">
         <v>108</v>
       </c>
-      <c r="D67">
+      <c r="D73">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="5"/>
         <v>4118427</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="6"/>
+      <c r="G73">
+        <f t="shared" si="19"/>
         <v>4118427</v>
       </c>
-      <c r="H67">
-        <f t="shared" si="7"/>
+      <c r="H73">
+        <f t="shared" si="20"/>
         <v>4118587</v>
       </c>
-      <c r="T67" s="3">
-        <f t="shared" si="12"/>
+      <c r="T73" s="3">
+        <f t="shared" si="21"/>
         <v>-4118427</v>
       </c>
-      <c r="U67" s="3">
-        <f t="shared" si="13"/>
+      <c r="U73" s="3">
+        <f t="shared" si="22"/>
         <v>-4118427</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
-      <c r="A68" s="1" t="s">
+    <row r="74" spans="1:25">
+      <c r="A74" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B68">
+      <c r="B74">
         <v>3808516</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C74" t="s">
         <v>108</v>
       </c>
-      <c r="D68">
+      <c r="D74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="5"/>
         <v>3808516</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="6"/>
+      <c r="G74">
+        <f t="shared" si="19"/>
         <v>3808516</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="7"/>
+      <c r="H74">
+        <f t="shared" si="20"/>
         <v>3808676</v>
       </c>
-      <c r="T68" s="3">
-        <f t="shared" si="12"/>
+      <c r="T74" s="3">
+        <f t="shared" si="21"/>
         <v>-3808516</v>
       </c>
-      <c r="U68" s="3">
-        <f t="shared" si="13"/>
+      <c r="U74" s="3">
+        <f t="shared" si="22"/>
         <v>-3808516</v>
       </c>
     </row>
-    <row r="69" spans="1:25" s="3" customFormat="1">
-      <c r="A69" s="2" t="s">
+    <row r="75" spans="1:25" s="3" customFormat="1">
+      <c r="A75" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B75" s="3">
         <v>4175107</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D75" s="3">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <f t="shared" ref="F69" si="14">B69+D69*E69</f>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" ref="F75" si="23">B75+D75*E75</f>
         <v>4175107</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G75" s="3">
         <v>4175063</v>
       </c>
-      <c r="H69" s="3">
-        <f>G69+160-1</f>
+      <c r="H75" s="3">
+        <f>G75+160-1</f>
         <v>4175222</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K75" s="3">
         <v>4175107</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="M75" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N69" s="3" t="s">
+      <c r="N75" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O69" s="3" t="s">
+      <c r="O75" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="3" t="s">
+      <c r="P75" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q69" s="3" t="s">
+      <c r="Q75" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="R69" s="3">
+      <c r="R75" s="3">
         <v>4175143</v>
       </c>
-      <c r="S69" s="3">
+      <c r="S75" s="3">
         <f>4175175</f>
         <v>4175175</v>
       </c>
-      <c r="T69" s="3">
-        <f t="shared" ref="T69" si="15">R69-G69</f>
+      <c r="T75" s="3">
+        <f t="shared" ref="T75" si="24">R75-G75</f>
         <v>80</v>
       </c>
-      <c r="U69" s="3">
-        <f t="shared" ref="U69" si="16">S69-G69</f>
+      <c r="U75" s="3">
+        <f t="shared" ref="U75" si="25">S75-G75</f>
         <v>112</v>
       </c>
-      <c r="V69" s="3" t="s">
+      <c r="V75" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="W69" s="3" t="s">
+      <c r="W75" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Y69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" s="3" customFormat="1">
-      <c r="A70" s="2" t="s">
+      <c r="Y75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" s="3" customFormat="1">
+      <c r="A76" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B76" s="3">
         <v>4175107</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D76" s="3">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <f t="shared" si="5"/>
         <v>4175107</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G76" s="3">
         <v>4175063</v>
       </c>
-      <c r="H70" s="3">
-        <f>G70+160-1</f>
+      <c r="H76" s="3">
+        <f>G76+160-1</f>
         <v>4175222</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K76" s="3">
         <v>4175107</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="L76" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="M76" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N70" s="3">
-        <f>O70-20</f>
+      <c r="N76" s="3">
+        <f>O76-20</f>
         <v>4175087</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O76" s="3">
         <v>4175107</v>
       </c>
-      <c r="P70" s="3" t="s">
+      <c r="P76" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="Q70" s="3" t="s">
+      <c r="Q76" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="R70" s="3">
+      <c r="R76" s="3">
         <v>4175105</v>
       </c>
-      <c r="S70" s="3">
-        <f>R70+84</f>
+      <c r="S76" s="3">
+        <f>R76+84</f>
         <v>4175189</v>
       </c>
-      <c r="T70" s="3">
-        <f t="shared" si="12"/>
+      <c r="T76" s="3">
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
-      <c r="U70" s="3">
-        <f t="shared" si="13"/>
+      <c r="U76" s="3">
+        <f t="shared" si="22"/>
         <v>126</v>
       </c>
-      <c r="V70" s="3" t="s">
+      <c r="V76" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="W70" s="3" t="s">
+      <c r="W76" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
-      <c r="A71" s="1" t="s">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B71">
+      <c r="B77">
         <v>4621716</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C77" t="s">
         <v>108</v>
       </c>
-      <c r="D71">
+      <c r="D77">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <f t="shared" si="5"/>
         <v>4621716</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="6"/>
-        <v>4621716</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="7"/>
-        <v>4621876</v>
-      </c>
-      <c r="T71" s="3">
-        <f t="shared" si="12"/>
-        <v>-4621716</v>
-      </c>
-      <c r="U71" s="3">
-        <f t="shared" si="13"/>
-        <v>-4621716</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
-      <c r="A72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72">
-        <v>4370616</v>
-      </c>
-      <c r="C72" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ref="D72:D123" si="17">IF(C72="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <f t="shared" ref="F72:F123" si="18">B72+D72*E72</f>
-        <v>4370616</v>
-      </c>
-      <c r="G72">
-        <f t="shared" ref="G72:G123" si="19">F72</f>
-        <v>4370616</v>
-      </c>
-      <c r="H72">
-        <f t="shared" ref="H72:H123" si="20">G72+D72*160</f>
-        <v>4370776</v>
-      </c>
-      <c r="T72" s="3">
-        <f t="shared" si="12"/>
-        <v>-4370616</v>
-      </c>
-      <c r="U72" s="3">
-        <f t="shared" si="13"/>
-        <v>-4370616</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25">
-      <c r="A73" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73">
-        <v>4472553</v>
-      </c>
-      <c r="C73" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="18"/>
-        <v>4472553</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="19"/>
-        <v>4472553</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="20"/>
-        <v>4472393</v>
-      </c>
-      <c r="T73" s="3">
-        <f t="shared" si="12"/>
-        <v>-4472553</v>
-      </c>
-      <c r="U73" s="3">
-        <f t="shared" si="13"/>
-        <v>-4472553</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
-      <c r="A74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74">
-        <v>4178354</v>
-      </c>
-      <c r="C74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="18"/>
-        <v>4178354</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="19"/>
-        <v>4178354</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="20"/>
-        <v>4178514</v>
-      </c>
-      <c r="T74" s="3">
-        <f t="shared" si="12"/>
-        <v>-4178354</v>
-      </c>
-      <c r="U74" s="3">
-        <f t="shared" si="13"/>
-        <v>-4178354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
-      <c r="A75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75">
-        <v>2042294</v>
-      </c>
-      <c r="C75" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>-14</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="18"/>
-        <v>2042280</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="19"/>
-        <v>2042280</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="20"/>
-        <v>2042440</v>
-      </c>
-      <c r="T75" s="3">
-        <f t="shared" si="12"/>
-        <v>-2042280</v>
-      </c>
-      <c r="U75" s="3">
-        <f t="shared" si="13"/>
-        <v>-2042280</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
-      <c r="A76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76">
-        <v>3922525</v>
-      </c>
-      <c r="C76" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="18"/>
-        <v>3922525</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="19"/>
-        <v>3922525</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="20"/>
-        <v>3922365</v>
-      </c>
-      <c r="T76" s="3">
-        <f t="shared" si="12"/>
-        <v>-3922525</v>
-      </c>
-      <c r="U76" s="3">
-        <f t="shared" si="13"/>
-        <v>-3922525</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
-      <c r="A77" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77">
-        <v>1114213</v>
-      </c>
-      <c r="C77" t="s">
-        <v>118</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="18"/>
-        <v>1114213</v>
-      </c>
       <c r="G77">
         <f t="shared" si="19"/>
-        <v>1114213</v>
+        <v>4621716</v>
       </c>
       <c r="H77">
         <f t="shared" si="20"/>
-        <v>1114053</v>
+        <v>4621876</v>
       </c>
       <c r="T77" s="3">
-        <f t="shared" si="12"/>
-        <v>-1114213</v>
+        <f t="shared" si="21"/>
+        <v>-4621716</v>
       </c>
       <c r="U77" s="3">
-        <f t="shared" si="13"/>
-        <v>-1114213</v>
+        <f t="shared" si="22"/>
+        <v>-4621716</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="B78">
-        <v>2644913</v>
+        <v>4370616</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D78">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <f t="shared" ref="D78:D129" si="26">IF(C78="fwd",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <f t="shared" si="18"/>
-        <v>2644913</v>
+        <f t="shared" ref="F78:F129" si="27">B78+D78*E78</f>
+        <v>4370616</v>
       </c>
       <c r="G78">
-        <f t="shared" si="19"/>
-        <v>2644913</v>
+        <f t="shared" ref="G78:G129" si="28">F78</f>
+        <v>4370616</v>
       </c>
       <c r="H78">
-        <f t="shared" si="20"/>
-        <v>2644753</v>
+        <f t="shared" ref="H78:H129" si="29">G78+D78*160</f>
+        <v>4370776</v>
       </c>
       <c r="T78" s="3">
-        <f t="shared" ref="T78:T87" si="21">R78-G78</f>
-        <v>-2644913</v>
+        <f t="shared" si="21"/>
+        <v>-4370616</v>
       </c>
       <c r="U78" s="3">
-        <f t="shared" ref="U78:U87" si="22">S78-G78</f>
-        <v>-2644913</v>
+        <f t="shared" si="22"/>
+        <v>-4370616</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B79">
-        <v>148</v>
+        <v>4472553</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D79">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>-1</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="18"/>
-        <v>148</v>
+        <f t="shared" si="27"/>
+        <v>4472553</v>
       </c>
       <c r="G79">
-        <f t="shared" si="19"/>
-        <v>148</v>
+        <f t="shared" si="28"/>
+        <v>4472553</v>
       </c>
       <c r="H79">
-        <f t="shared" si="20"/>
-        <v>308</v>
+        <f t="shared" si="29"/>
+        <v>4472393</v>
       </c>
       <c r="T79" s="3">
         <f t="shared" si="21"/>
-        <v>-148</v>
+        <v>-4472553</v>
       </c>
       <c r="U79" s="3">
         <f t="shared" si="22"/>
-        <v>-148</v>
+        <v>-4472553</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="B80">
-        <v>454993</v>
+        <v>4178354</v>
       </c>
       <c r="C80" t="s">
         <v>108</v>
       </c>
       <c r="D80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E80">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="18"/>
-        <v>454864</v>
+        <f t="shared" si="27"/>
+        <v>4178354</v>
       </c>
       <c r="G80">
-        <f t="shared" si="19"/>
-        <v>454864</v>
+        <f t="shared" si="28"/>
+        <v>4178354</v>
       </c>
       <c r="H80">
-        <f t="shared" si="20"/>
-        <v>455024</v>
+        <f t="shared" si="29"/>
+        <v>4178514</v>
       </c>
       <c r="T80" s="3">
         <f t="shared" si="21"/>
-        <v>-454864</v>
+        <v>-4178354</v>
       </c>
       <c r="U80" s="3">
         <f t="shared" si="22"/>
-        <v>-454864</v>
+        <v>-4178354</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B81">
-        <v>189712</v>
+        <v>2042294</v>
       </c>
       <c r="C81" t="s">
         <v>108</v>
       </c>
       <c r="D81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F81">
-        <f t="shared" si="18"/>
-        <v>189712</v>
+        <f t="shared" si="27"/>
+        <v>2042280</v>
       </c>
       <c r="G81">
-        <f t="shared" si="19"/>
-        <v>189712</v>
+        <f t="shared" si="28"/>
+        <v>2042280</v>
       </c>
       <c r="H81">
-        <f t="shared" si="20"/>
-        <v>189872</v>
+        <f t="shared" si="29"/>
+        <v>2042440</v>
       </c>
       <c r="T81" s="3">
         <f t="shared" si="21"/>
-        <v>-189712</v>
+        <v>-2042280</v>
       </c>
       <c r="U81" s="3">
         <f t="shared" si="22"/>
-        <v>-189712</v>
+        <v>-2042280</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="B82">
-        <v>3948058</v>
+        <v>3922525</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D82">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>-1</v>
       </c>
       <c r="E82">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" si="18"/>
-        <v>3948030</v>
+        <f t="shared" si="27"/>
+        <v>3922525</v>
       </c>
       <c r="G82">
-        <f t="shared" si="19"/>
-        <v>3948030</v>
+        <f t="shared" si="28"/>
+        <v>3922525</v>
       </c>
       <c r="H82">
-        <f t="shared" si="20"/>
-        <v>3948190</v>
+        <f t="shared" si="29"/>
+        <v>3922365</v>
       </c>
       <c r="T82" s="3">
         <f t="shared" si="21"/>
-        <v>-3948030</v>
+        <v>-3922525</v>
       </c>
       <c r="U82" s="3">
         <f t="shared" si="22"/>
-        <v>-3948030</v>
+        <v>-3922525</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B83">
-        <v>911076</v>
+        <v>1114213</v>
       </c>
       <c r="C83" t="s">
         <v>118</v>
       </c>
       <c r="D83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="18"/>
-        <v>911076</v>
+        <f t="shared" si="27"/>
+        <v>1114213</v>
       </c>
       <c r="G83">
-        <f t="shared" si="19"/>
-        <v>911076</v>
+        <f t="shared" si="28"/>
+        <v>1114213</v>
       </c>
       <c r="H83">
-        <f t="shared" si="20"/>
-        <v>910916</v>
+        <f t="shared" si="29"/>
+        <v>1114053</v>
       </c>
       <c r="T83" s="3">
         <f t="shared" si="21"/>
-        <v>-911076</v>
+        <v>-1114213</v>
       </c>
       <c r="U83" s="3">
         <f t="shared" si="22"/>
-        <v>-911076</v>
+        <v>-1114213</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="B84">
-        <v>1655186</v>
+        <v>2644913</v>
       </c>
       <c r="C84" t="s">
         <v>118</v>
       </c>
       <c r="D84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="E84">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" si="18"/>
-        <v>1655231</v>
+        <f t="shared" si="27"/>
+        <v>2644913</v>
       </c>
       <c r="G84">
-        <f t="shared" si="19"/>
-        <v>1655231</v>
+        <f t="shared" si="28"/>
+        <v>2644913</v>
       </c>
       <c r="H84">
-        <f t="shared" si="20"/>
-        <v>1655071</v>
+        <f t="shared" si="29"/>
+        <v>2644753</v>
       </c>
       <c r="T84" s="3">
-        <f t="shared" si="21"/>
-        <v>-1655231</v>
+        <f t="shared" ref="T84:T93" si="30">R84-G84</f>
+        <v>-2644913</v>
       </c>
       <c r="U84" s="3">
-        <f t="shared" si="22"/>
-        <v>-1655231</v>
+        <f t="shared" ref="U84:U93" si="31">S84-G84</f>
+        <v>-2644913</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B85">
-        <v>4390638</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D85">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" si="18"/>
-        <v>4390638</v>
+        <f t="shared" si="27"/>
+        <v>148</v>
       </c>
       <c r="G85">
-        <f t="shared" si="19"/>
-        <v>4390638</v>
+        <f t="shared" si="28"/>
+        <v>148</v>
       </c>
       <c r="H85">
-        <f t="shared" si="20"/>
-        <v>4390478</v>
+        <f t="shared" si="29"/>
+        <v>308</v>
       </c>
       <c r="T85" s="3">
-        <f t="shared" si="21"/>
-        <v>-4390638</v>
+        <f t="shared" si="30"/>
+        <v>-148</v>
       </c>
       <c r="U85" s="3">
-        <f t="shared" si="22"/>
-        <v>-4390638</v>
+        <f t="shared" si="31"/>
+        <v>-148</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B86">
-        <v>4640508</v>
+        <v>454993</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D86">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="F86">
-        <f t="shared" si="18"/>
-        <v>4640508</v>
+        <f t="shared" si="27"/>
+        <v>454864</v>
       </c>
       <c r="G86">
-        <f t="shared" si="19"/>
-        <v>4640508</v>
+        <f t="shared" si="28"/>
+        <v>454864</v>
       </c>
       <c r="H86">
-        <f t="shared" si="20"/>
-        <v>4640348</v>
+        <f t="shared" si="29"/>
+        <v>455024</v>
       </c>
       <c r="T86" s="3">
-        <f t="shared" si="21"/>
-        <v>-4640508</v>
+        <f t="shared" si="30"/>
+        <v>-454864</v>
       </c>
       <c r="U86" s="3">
-        <f t="shared" si="22"/>
-        <v>-4640508</v>
+        <f t="shared" si="31"/>
+        <v>-454864</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B87">
-        <v>1972716</v>
+        <v>189712</v>
       </c>
       <c r="C87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="27"/>
+        <v>189712</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="28"/>
+        <v>189712</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="29"/>
+        <v>189872</v>
+      </c>
+      <c r="T87" s="3">
+        <f t="shared" si="30"/>
+        <v>-189712</v>
+      </c>
+      <c r="U87" s="3">
+        <f t="shared" si="31"/>
+        <v>-189712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88">
+        <v>3948058</v>
+      </c>
+      <c r="C88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>-28</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="27"/>
+        <v>3948030</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="28"/>
+        <v>3948030</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="29"/>
+        <v>3948190</v>
+      </c>
+      <c r="T88" s="3">
+        <f t="shared" si="30"/>
+        <v>-3948030</v>
+      </c>
+      <c r="U88" s="3">
+        <f t="shared" si="31"/>
+        <v>-3948030</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89">
+        <v>911076</v>
+      </c>
+      <c r="C89" t="s">
         <v>118</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="18"/>
-        <v>1972716</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="19"/>
-        <v>1972716</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="20"/>
-        <v>1972556</v>
-      </c>
-      <c r="T87" s="3">
-        <f t="shared" si="21"/>
-        <v>-1972716</v>
-      </c>
-      <c r="U87" s="3">
-        <f t="shared" si="22"/>
-        <v>-1972716</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" s="3" customFormat="1" ht="17">
-      <c r="A88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="3">
-        <v>652172</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
-        <f t="shared" ref="F88" si="23">B88+D88*E88</f>
-        <v>652172</v>
-      </c>
-      <c r="G88" s="5">
-        <v>652058</v>
-      </c>
-      <c r="H88" s="3">
-        <f>G88+D88*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K88" s="3">
-        <v>652172</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N88" s="3">
-        <v>652193</v>
-      </c>
-      <c r="O88" s="3">
-        <v>652199</v>
-      </c>
-      <c r="P88" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="R88" s="5">
-        <f>130+G88</f>
-        <v>652188</v>
-      </c>
-      <c r="S88" s="5">
-        <f>R88+30</f>
-        <v>652218</v>
-      </c>
-      <c r="T88" s="3">
-        <v>130</v>
-      </c>
-      <c r="U88" s="3">
-        <v>160</v>
-      </c>
-      <c r="V88" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="W88" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" s="3" customFormat="1" ht="17">
-      <c r="A89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="3">
-        <v>652172</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <f t="shared" si="18"/>
-        <v>652172</v>
-      </c>
-      <c r="G89" s="5">
-        <v>652058</v>
-      </c>
-      <c r="H89" s="3">
-        <f>G89+D89*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K89" s="3">
-        <v>652172</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N89" s="3">
-        <v>652118</v>
-      </c>
-      <c r="O89" s="3">
-        <v>652140</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R89" s="5">
-        <f>60+G89</f>
-        <v>652118</v>
-      </c>
-      <c r="S89" s="5">
-        <f>R89+25</f>
-        <v>652143</v>
+      <c r="D89">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="27"/>
+        <v>911076</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="28"/>
+        <v>911076</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="29"/>
+        <v>910916</v>
       </c>
       <c r="T89" s="3">
-        <v>60</v>
+        <f t="shared" si="30"/>
+        <v>-911076</v>
       </c>
       <c r="U89" s="3">
-        <v>85</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>-911076</v>
       </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90">
-        <v>70075</v>
+        <v>1655186</v>
       </c>
       <c r="C90" t="s">
         <v>118</v>
       </c>
       <c r="D90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F90">
-        <f t="shared" si="18"/>
-        <v>70075</v>
+        <f t="shared" si="27"/>
+        <v>1655231</v>
       </c>
       <c r="G90">
-        <f t="shared" si="19"/>
-        <v>70075</v>
+        <f t="shared" si="28"/>
+        <v>1655231</v>
       </c>
       <c r="H90">
-        <f t="shared" si="20"/>
-        <v>69915</v>
+        <f t="shared" si="29"/>
+        <v>1655071</v>
+      </c>
+      <c r="T90" s="3">
+        <f t="shared" si="30"/>
+        <v>-1655231</v>
+      </c>
+      <c r="U90" s="3">
+        <f t="shared" si="31"/>
+        <v>-1655231</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B91">
-        <v>70241</v>
+        <v>4390638</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D91">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>-1</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <f t="shared" si="18"/>
-        <v>70241</v>
+        <f t="shared" si="27"/>
+        <v>4390638</v>
       </c>
       <c r="G91">
-        <f t="shared" si="19"/>
-        <v>70241</v>
+        <f t="shared" si="28"/>
+        <v>4390638</v>
       </c>
       <c r="H91">
-        <f t="shared" si="20"/>
-        <v>70401</v>
+        <f t="shared" si="29"/>
+        <v>4390478</v>
+      </c>
+      <c r="T91" s="3">
+        <f t="shared" si="30"/>
+        <v>-4390638</v>
+      </c>
+      <c r="U91" s="3">
+        <f t="shared" si="31"/>
+        <v>-4390638</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B92">
-        <v>3731069</v>
+        <v>4640508</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D92">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>-1</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" si="18"/>
-        <v>3731069</v>
+        <f t="shared" si="27"/>
+        <v>4640508</v>
       </c>
       <c r="G92">
-        <f t="shared" si="19"/>
-        <v>3731069</v>
+        <f t="shared" si="28"/>
+        <v>4640508</v>
       </c>
       <c r="H92">
-        <f t="shared" si="20"/>
-        <v>3731229</v>
+        <f t="shared" si="29"/>
+        <v>4640348</v>
+      </c>
+      <c r="T92" s="3">
+        <f t="shared" si="30"/>
+        <v>-4640508</v>
+      </c>
+      <c r="U92" s="3">
+        <f t="shared" si="31"/>
+        <v>-4640508</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B93">
-        <v>3730807</v>
+        <v>1972716</v>
       </c>
       <c r="C93" t="s">
         <v>118</v>
       </c>
       <c r="D93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="18"/>
-        <v>3730807</v>
+        <f t="shared" si="27"/>
+        <v>1972716</v>
       </c>
       <c r="G93">
-        <f t="shared" si="19"/>
-        <v>3730807</v>
+        <f t="shared" si="28"/>
+        <v>1972716</v>
       </c>
       <c r="H93">
-        <f t="shared" si="20"/>
-        <v>3730647</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25">
-      <c r="A94" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94">
-        <v>1647934</v>
-      </c>
-      <c r="C94" t="s">
+        <f t="shared" si="29"/>
+        <v>1972556</v>
+      </c>
+      <c r="T93" s="3">
+        <f t="shared" si="30"/>
+        <v>-1972716</v>
+      </c>
+      <c r="U93" s="3">
+        <f t="shared" si="31"/>
+        <v>-1972716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="3">
+        <v>652172</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D94">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="18"/>
-        <v>1647934</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="19"/>
-        <v>1647934</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="20"/>
-        <v>1648094</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25">
-      <c r="A95" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95">
-        <v>1647876</v>
-      </c>
-      <c r="C95" t="s">
-        <v>118</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="18"/>
-        <v>1647876</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="19"/>
-        <v>1647876</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="20"/>
-        <v>1647716</v>
+      <c r="D94" s="3">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" ref="F94" si="32">B94+D94*E94</f>
+        <v>652172</v>
+      </c>
+      <c r="G94" s="5">
+        <v>652058</v>
+      </c>
+      <c r="H94" s="3">
+        <f>G94+D94*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K94" s="3">
+        <v>652172</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N94" s="3">
+        <v>652193</v>
+      </c>
+      <c r="O94" s="3">
+        <v>652199</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R94" s="5">
+        <f>130+G94</f>
+        <v>652188</v>
+      </c>
+      <c r="S94" s="5">
+        <f>R94+30</f>
+        <v>652218</v>
+      </c>
+      <c r="T94" s="3">
+        <v>130</v>
+      </c>
+      <c r="U94" s="3">
+        <v>160</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" s="3" customFormat="1" ht="17">
+      <c r="A95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="3">
+        <v>652172</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="27"/>
+        <v>652172</v>
+      </c>
+      <c r="G95" s="5">
+        <v>652058</v>
+      </c>
+      <c r="H95" s="3">
+        <f>G95+D95*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K95" s="3">
+        <v>652172</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N95" s="3">
+        <v>652118</v>
+      </c>
+      <c r="O95" s="3">
+        <v>652140</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R95" s="5">
+        <f>60+G95</f>
+        <v>652118</v>
+      </c>
+      <c r="S95" s="5">
+        <f>R95+25</f>
+        <v>652143</v>
+      </c>
+      <c r="T95" s="3">
+        <v>60</v>
+      </c>
+      <c r="U95" s="3">
+        <v>85</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="W95" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y95" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="1" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B96">
-        <v>1649597</v>
+        <v>70075</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D96">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>-1</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" si="18"/>
-        <v>1649597</v>
+        <f t="shared" si="27"/>
+        <v>70075</v>
       </c>
       <c r="G96">
-        <f t="shared" si="19"/>
-        <v>1649597</v>
+        <f t="shared" si="28"/>
+        <v>70075</v>
       </c>
       <c r="H96">
-        <f t="shared" si="20"/>
-        <v>1649757</v>
+        <f t="shared" si="29"/>
+        <v>69915</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B97">
-        <v>3536707</v>
+        <v>70241</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D97">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="18"/>
-        <v>3536707</v>
+        <f t="shared" si="27"/>
+        <v>70241</v>
       </c>
       <c r="G97">
-        <f t="shared" si="19"/>
-        <v>3536707</v>
+        <f t="shared" si="28"/>
+        <v>70241</v>
       </c>
       <c r="H97">
-        <f t="shared" si="20"/>
-        <v>3536547</v>
+        <f t="shared" si="29"/>
+        <v>70401</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B98">
-        <v>2524910</v>
+        <v>3731069</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D98">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="18"/>
-        <v>2524910</v>
+        <f t="shared" si="27"/>
+        <v>3731069</v>
       </c>
       <c r="G98">
-        <f t="shared" si="19"/>
-        <v>2524910</v>
+        <f t="shared" si="28"/>
+        <v>3731069</v>
       </c>
       <c r="H98">
-        <f t="shared" si="20"/>
-        <v>2524750</v>
+        <f t="shared" si="29"/>
+        <v>3731229</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B99">
-        <v>3957912</v>
+        <v>3730807</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D99">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>-1</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="18"/>
-        <v>3957912</v>
+        <f t="shared" si="27"/>
+        <v>3730807</v>
       </c>
       <c r="G99">
-        <f t="shared" si="19"/>
-        <v>3957912</v>
+        <f t="shared" si="28"/>
+        <v>3730807</v>
       </c>
       <c r="H99">
-        <f t="shared" si="20"/>
-        <v>3958072</v>
+        <f t="shared" si="29"/>
+        <v>3730647</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B100">
-        <v>3927129</v>
+        <v>1647934</v>
       </c>
       <c r="C100" t="s">
         <v>108</v>
       </c>
       <c r="D100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="18"/>
-        <v>3927129</v>
+        <f t="shared" si="27"/>
+        <v>1647934</v>
       </c>
       <c r="G100">
-        <f t="shared" si="19"/>
-        <v>3927129</v>
+        <f t="shared" si="28"/>
+        <v>1647934</v>
       </c>
       <c r="H100">
-        <f t="shared" si="20"/>
-        <v>3927289</v>
+        <f t="shared" si="29"/>
+        <v>1648094</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B101">
-        <v>4494597</v>
+        <v>1647876</v>
       </c>
       <c r="C101" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D101">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>-1</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" si="18"/>
-        <v>4494597</v>
+        <f t="shared" si="27"/>
+        <v>1647876</v>
       </c>
       <c r="G101">
-        <f t="shared" si="19"/>
-        <v>4494597</v>
+        <f t="shared" si="28"/>
+        <v>1647876</v>
       </c>
       <c r="H101">
-        <f t="shared" si="20"/>
-        <v>4494757</v>
+        <f t="shared" si="29"/>
+        <v>1647716</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="B102">
-        <v>246533</v>
+        <v>1649597</v>
       </c>
       <c r="C102" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D102">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="18"/>
-        <v>246533</v>
+        <f t="shared" si="27"/>
+        <v>1649597</v>
       </c>
       <c r="G102">
-        <f t="shared" si="19"/>
-        <v>246533</v>
+        <f t="shared" si="28"/>
+        <v>1649597</v>
       </c>
       <c r="H102">
-        <f t="shared" si="20"/>
-        <v>246373</v>
+        <f t="shared" si="29"/>
+        <v>1649757</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B103">
-        <v>4591367</v>
+        <v>3536707</v>
       </c>
       <c r="C103" t="s">
         <v>118</v>
       </c>
       <c r="D103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" si="18"/>
-        <v>4591367</v>
+        <f t="shared" si="27"/>
+        <v>3536707</v>
       </c>
       <c r="G103">
-        <f t="shared" si="19"/>
-        <v>4591367</v>
+        <f t="shared" si="28"/>
+        <v>3536707</v>
       </c>
       <c r="H103">
-        <f t="shared" si="20"/>
-        <v>4591207</v>
+        <f t="shared" si="29"/>
+        <v>3536547</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B104">
-        <v>1977302</v>
+        <v>2524910</v>
       </c>
       <c r="C104" t="s">
         <v>118</v>
       </c>
       <c r="D104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" si="18"/>
-        <v>1977302</v>
+        <f t="shared" si="27"/>
+        <v>2524910</v>
       </c>
       <c r="G104">
-        <f t="shared" si="19"/>
-        <v>1977302</v>
+        <f t="shared" si="28"/>
+        <v>2524910</v>
       </c>
       <c r="H104">
-        <f t="shared" si="20"/>
-        <v>1977142</v>
+        <f t="shared" si="29"/>
+        <v>2524750</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B105">
-        <v>933138</v>
+        <v>3957912</v>
       </c>
       <c r="C105" t="s">
         <v>108</v>
       </c>
       <c r="D105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <f t="shared" si="18"/>
-        <v>933138</v>
+        <f t="shared" si="27"/>
+        <v>3957912</v>
       </c>
       <c r="G105">
-        <f t="shared" si="19"/>
-        <v>933138</v>
+        <f t="shared" si="28"/>
+        <v>3957912</v>
       </c>
       <c r="H105">
-        <f t="shared" si="20"/>
-        <v>933298</v>
+        <f t="shared" si="29"/>
+        <v>3958072</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B106">
-        <v>87969</v>
+        <v>3927129</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
       </c>
       <c r="D106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E106">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <f t="shared" si="18"/>
-        <v>87991</v>
+        <f t="shared" si="27"/>
+        <v>3927129</v>
       </c>
       <c r="G106">
-        <f t="shared" si="19"/>
-        <v>87991</v>
+        <f t="shared" si="28"/>
+        <v>3927129</v>
       </c>
       <c r="H106">
-        <f t="shared" si="20"/>
-        <v>88151</v>
+        <f t="shared" si="29"/>
+        <v>3927289</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B107">
-        <v>3997907</v>
+        <v>4494597</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <f t="shared" si="18"/>
-        <v>3997907</v>
+        <f t="shared" si="27"/>
+        <v>4494597</v>
       </c>
       <c r="G107">
-        <f t="shared" si="19"/>
-        <v>3997907</v>
+        <f t="shared" si="28"/>
+        <v>4494597</v>
       </c>
       <c r="H107">
-        <f t="shared" si="20"/>
-        <v>3998067</v>
+        <f t="shared" si="29"/>
+        <v>4494757</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="B108">
-        <v>4338042</v>
+        <v>246533</v>
       </c>
       <c r="C108" t="s">
         <v>118</v>
       </c>
       <c r="D108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <f t="shared" si="18"/>
-        <v>4338042</v>
+        <f t="shared" si="27"/>
+        <v>246533</v>
       </c>
       <c r="G108">
-        <f t="shared" si="19"/>
-        <v>4338042</v>
+        <f t="shared" si="28"/>
+        <v>246533</v>
       </c>
       <c r="H108">
-        <f t="shared" si="20"/>
-        <v>4337882</v>
+        <f t="shared" si="29"/>
+        <v>246373</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B109">
-        <v>1942634</v>
+        <v>4591367</v>
       </c>
       <c r="C109" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D109">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>-1</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <f t="shared" si="18"/>
-        <v>1942634</v>
+        <f t="shared" si="27"/>
+        <v>4591367</v>
       </c>
       <c r="G109">
-        <f t="shared" si="19"/>
-        <v>1942634</v>
+        <f t="shared" si="28"/>
+        <v>4591367</v>
       </c>
       <c r="H109">
-        <f t="shared" si="20"/>
-        <v>1942794</v>
+        <f t="shared" si="29"/>
+        <v>4591207</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B110">
-        <v>1942661</v>
+        <v>1977302</v>
       </c>
       <c r="C110" t="s">
         <v>118</v>
       </c>
       <c r="D110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <f t="shared" si="18"/>
-        <v>1942661</v>
+        <f t="shared" si="27"/>
+        <v>1977302</v>
       </c>
       <c r="G110">
-        <f t="shared" si="19"/>
-        <v>1942661</v>
+        <f t="shared" si="28"/>
+        <v>1977302</v>
       </c>
       <c r="H110">
-        <f t="shared" si="20"/>
-        <v>1942501</v>
+        <f t="shared" si="29"/>
+        <v>1977142</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B111">
-        <v>3182433</v>
+        <v>933138</v>
       </c>
       <c r="C111" t="s">
         <v>108</v>
       </c>
       <c r="D111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <f t="shared" si="18"/>
-        <v>3182433</v>
+        <f t="shared" si="27"/>
+        <v>933138</v>
       </c>
       <c r="G111">
-        <f t="shared" si="19"/>
-        <v>3182433</v>
+        <f t="shared" si="28"/>
+        <v>933138</v>
       </c>
       <c r="H111">
-        <f t="shared" si="20"/>
-        <v>3182593</v>
+        <f t="shared" si="29"/>
+        <v>933298</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B112">
-        <v>3637612</v>
+        <v>87969</v>
       </c>
       <c r="C112" t="s">
         <v>108</v>
       </c>
       <c r="D112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F112">
-        <f t="shared" si="18"/>
-        <v>3637612</v>
+        <f t="shared" si="27"/>
+        <v>87991</v>
       </c>
       <c r="G112">
-        <f t="shared" si="19"/>
-        <v>3637612</v>
+        <f t="shared" si="28"/>
+        <v>87991</v>
       </c>
       <c r="H112">
-        <f t="shared" si="20"/>
-        <v>3637772</v>
+        <f t="shared" si="29"/>
+        <v>88151</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B113">
-        <v>4376509</v>
+        <v>3997907</v>
       </c>
       <c r="C113" t="s">
         <v>108</v>
       </c>
       <c r="D113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <f t="shared" si="18"/>
-        <v>4376509</v>
+        <f t="shared" si="27"/>
+        <v>3997907</v>
       </c>
       <c r="G113">
-        <f t="shared" si="19"/>
-        <v>4376509</v>
+        <f t="shared" si="28"/>
+        <v>3997907</v>
       </c>
       <c r="H113">
-        <f t="shared" si="20"/>
-        <v>4376669</v>
+        <f t="shared" si="29"/>
+        <v>3998067</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B114">
-        <v>83735</v>
+        <v>4338042</v>
       </c>
       <c r="C114" t="s">
         <v>118</v>
       </c>
       <c r="D114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <f t="shared" si="18"/>
-        <v>83735</v>
+        <f t="shared" si="27"/>
+        <v>4338042</v>
       </c>
       <c r="G114">
-        <f t="shared" si="19"/>
-        <v>83735</v>
+        <f t="shared" si="28"/>
+        <v>4338042</v>
       </c>
       <c r="H114">
-        <f t="shared" si="20"/>
-        <v>83575</v>
+        <f t="shared" si="29"/>
+        <v>4337882</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="B115">
-        <v>1645903</v>
+        <v>1942634</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D115">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="18"/>
-        <v>1645903</v>
+        <f t="shared" si="27"/>
+        <v>1942634</v>
       </c>
       <c r="G115">
-        <f t="shared" si="19"/>
-        <v>1645903</v>
+        <f t="shared" si="28"/>
+        <v>1942634</v>
       </c>
       <c r="H115">
-        <f t="shared" si="20"/>
-        <v>1645743</v>
+        <f t="shared" si="29"/>
+        <v>1942794</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="B116">
-        <v>1619093</v>
+        <v>1942661</v>
       </c>
       <c r="C116" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D116">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>-1</v>
       </c>
       <c r="E116">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <f t="shared" si="18"/>
-        <v>1619083</v>
+        <f t="shared" si="27"/>
+        <v>1942661</v>
       </c>
       <c r="G116">
-        <f t="shared" si="19"/>
-        <v>1619083</v>
+        <f t="shared" si="28"/>
+        <v>1942661</v>
       </c>
       <c r="H116">
-        <f t="shared" si="20"/>
-        <v>1619243</v>
+        <f t="shared" si="29"/>
+        <v>1942501</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="B117">
-        <v>4326836</v>
+        <v>3182433</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D117">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <f t="shared" si="18"/>
-        <v>4326836</v>
+        <f t="shared" si="27"/>
+        <v>3182433</v>
       </c>
       <c r="G117">
-        <f t="shared" si="19"/>
-        <v>4326836</v>
+        <f t="shared" si="28"/>
+        <v>3182433</v>
       </c>
       <c r="H117">
-        <f t="shared" si="20"/>
-        <v>4326676</v>
+        <f t="shared" si="29"/>
+        <v>3182593</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="B118">
-        <v>2032352</v>
+        <v>3637612</v>
       </c>
       <c r="C118" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D118">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <f t="shared" si="18"/>
-        <v>2032352</v>
+        <f t="shared" si="27"/>
+        <v>3637612</v>
       </c>
       <c r="G118">
-        <f t="shared" si="19"/>
-        <v>2032352</v>
+        <f t="shared" si="28"/>
+        <v>3637612</v>
       </c>
       <c r="H118">
-        <f t="shared" si="20"/>
-        <v>2032192</v>
+        <f t="shared" si="29"/>
+        <v>3637772</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="B119">
-        <v>2949066</v>
+        <v>4376509</v>
       </c>
       <c r="C119" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D119">
-        <f t="shared" si="17"/>
-        <v>-1</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <f t="shared" si="18"/>
-        <v>2949066</v>
+        <f t="shared" si="27"/>
+        <v>4376509</v>
       </c>
       <c r="G119">
-        <f t="shared" si="19"/>
-        <v>2949066</v>
+        <f t="shared" si="28"/>
+        <v>4376509</v>
       </c>
       <c r="H119">
-        <f t="shared" si="20"/>
-        <v>2948906</v>
+        <f t="shared" si="29"/>
+        <v>4376669</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B120">
-        <v>3811175</v>
+        <v>83735</v>
       </c>
       <c r="C120" t="s">
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <f t="shared" si="18"/>
-        <v>3811175</v>
+        <f t="shared" si="27"/>
+        <v>83735</v>
       </c>
       <c r="G120">
-        <f t="shared" si="19"/>
-        <v>3811175</v>
+        <f t="shared" si="28"/>
+        <v>83735</v>
       </c>
       <c r="H120">
-        <f t="shared" si="20"/>
-        <v>3811015</v>
+        <f t="shared" si="29"/>
+        <v>83575</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B121">
-        <v>919103</v>
+        <v>1645903</v>
       </c>
       <c r="C121" t="s">
         <v>118</v>
       </c>
       <c r="D121">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-1</v>
       </c>
       <c r="F121">
-        <f t="shared" si="18"/>
-        <v>919103</v>
+        <f t="shared" si="27"/>
+        <v>1645903</v>
       </c>
       <c r="G121">
-        <f t="shared" si="19"/>
-        <v>919103</v>
+        <f t="shared" si="28"/>
+        <v>1645903</v>
       </c>
       <c r="H121">
-        <f t="shared" si="20"/>
-        <v>918943</v>
+        <f t="shared" si="29"/>
+        <v>1645743</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B122">
-        <v>830783</v>
+        <v>1619093</v>
       </c>
       <c r="C122" t="s">
         <v>108</v>
       </c>
       <c r="D122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
+        <v>1619083</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="28"/>
+        <v>1619083</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="29"/>
+        <v>1619243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123">
+        <v>4326836</v>
+      </c>
+      <c r="C123" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="27"/>
+        <v>4326836</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="28"/>
+        <v>4326836</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="29"/>
+        <v>4326676</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124">
+        <v>2032352</v>
+      </c>
+      <c r="C124" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="27"/>
+        <v>2032352</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="28"/>
+        <v>2032352</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="29"/>
+        <v>2032192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125">
+        <v>2949066</v>
+      </c>
+      <c r="C125" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="27"/>
+        <v>2949066</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="28"/>
+        <v>2949066</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="29"/>
+        <v>2948906</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126">
+        <v>3811175</v>
+      </c>
+      <c r="C126" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="27"/>
+        <v>3811175</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="28"/>
+        <v>3811175</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="29"/>
+        <v>3811015</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127">
+        <v>919103</v>
+      </c>
+      <c r="C127" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="27"/>
+        <v>919103</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="28"/>
+        <v>919103</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="29"/>
+        <v>918943</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128">
         <v>830783</v>
       </c>
-      <c r="G122">
-        <f t="shared" si="19"/>
+      <c r="C128" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="27"/>
         <v>830783</v>
       </c>
-      <c r="H122">
-        <f t="shared" si="20"/>
+      <c r="G128">
+        <f t="shared" si="28"/>
+        <v>830783</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="29"/>
         <v>830943</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
-      <c r="D123">
-        <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="20"/>
+    <row r="129" spans="4:8">
+      <c r="D129">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="29"/>
         <v>-160</v>
       </c>
     </row>
@@ -7692,17 +8476,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H70" formula="1"/>
+    <ignoredError sqref="H76" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8F8D8D-879A-1E46-BF36-D5D0C23EF33B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7742,6 +8526,22 @@
         <v>182</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C68A35-9E5A-DC4C-8AD5-B3B13AE84F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F538E3B-80D6-444D-A720-5911707C93A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="325">
   <si>
     <t>Operon</t>
   </si>
@@ -974,6 +974,45 @@
   </si>
   <si>
     <t>GTCGGGTAATAACAACACTCAT</t>
+  </si>
+  <si>
+    <t>GGATTATTTGATCTGCCACAGTTTAT</t>
+  </si>
+  <si>
+    <t>60,358 &lt;- 63,264</t>
+  </si>
+  <si>
+    <t>agaaaaccaaaagcgtggtcgccccttgcaatatcagaatcgcggcaccattaagtacgtAtggaccaccaacggcccgga</t>
+  </si>
+  <si>
+    <t>GATAATTTTGCTACACTTATGACCGGGCAACTTGGGCTATTTTGAGCAAAAAAAAGAGTTCGCCAGATACCATTTTGATGCGTGACGAATGCTTTGCCATCCAGTACCATAGCGCCCTTTCCATTCCTGGACCTGAATAACACCACTACCTCATAAGCAC</t>
+  </si>
+  <si>
+    <t>CCTTTCCATTCCTGGACCTGA</t>
+  </si>
+  <si>
+    <t>CTCCCTTTTATTGAGGATAATTTTGCTACACTTATGACCGGGCAACTTGGGCTA</t>
+  </si>
+  <si>
+    <t>GGCAACTTGGGCTATTTTG</t>
+  </si>
+  <si>
+    <t>2,229,438 &lt;- 2,230,385</t>
+  </si>
+  <si>
+    <t>ctctttgcagacctttaatccgctgaccataggcgctaacatagcgcctcatttttttgcGggtgatgatatgcgtgtgtt</t>
+  </si>
+  <si>
+    <t>CAGCGAACTCAGGCATACATCAAGCATAGAGAGGGATTGCAGTTTGCAGCAATCCCTCTTTGCAGACCTTTAATCCGCTGACCATAGGCGCTAACATAGCGCCTCATTTTTTTGCGGGTGATGATATGCGTGTGTTACTGGCACCGATGGAGGGAGTGCT</t>
+  </si>
+  <si>
+    <t>GGGTGATGATA</t>
+  </si>
+  <si>
+    <t>CTAACATAGCGCCTCATTTTTTTGCGGGTGATGA</t>
+  </si>
+  <si>
+    <t>CAGCGAACTCAGGCATACATCAAGCATAGA</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1209,6 +1248,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3286,11 +3326,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:AA139"/>
+  <dimension ref="A1:AA141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T44" sqref="T44"/>
+    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3312,7 +3352,7 @@
     <col min="15" max="15" width="145" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -3522,7 +3562,7 @@
         <v>4085982</v>
       </c>
       <c r="J3" s="11" t="str">
-        <f t="shared" ref="J3:J71" si="3">IF(C3="rev", "fwd", IF(C3="fwd", "rev", ""))</f>
+        <f t="shared" ref="J3:J73" si="3">IF(C3="rev", "fwd", IF(C3="fwd", "rev", ""))</f>
         <v>fwd</v>
       </c>
       <c r="K3" s="11" t="s">
@@ -3675,14 +3715,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D87" si="6">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D89" si="6">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" ref="F5:F87" si="7">B5+D5*E5</f>
+        <f t="shared" ref="F5:F89" si="7">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="11">
@@ -5445,7 +5485,7 @@
         <v>4269241</v>
       </c>
       <c r="I25" s="23">
-        <f>H25+D25*159</f>
+        <f t="shared" ref="I25:I30" si="29">H25+D25*159</f>
         <v>4269400</v>
       </c>
       <c r="J25" s="23" t="str">
@@ -5487,11 +5527,11 @@
         <v>4269293</v>
       </c>
       <c r="V25" s="23">
-        <f t="shared" ref="V25:V26" si="29">T25-H25</f>
+        <f t="shared" ref="V25:V26" si="30">T25-H25</f>
         <v>38</v>
       </c>
       <c r="W25" s="23">
-        <f t="shared" ref="W25:W26" si="30">U25-H25</f>
+        <f t="shared" ref="W25:W26" si="31">U25-H25</f>
         <v>52</v>
       </c>
       <c r="X25" s="23" t="s">
@@ -5534,7 +5574,7 @@
         <v>4269241</v>
       </c>
       <c r="I26" s="23">
-        <f>H26+D26*159</f>
+        <f t="shared" si="29"/>
         <v>4269400</v>
       </c>
       <c r="J26" s="23" t="str">
@@ -5576,11 +5616,11 @@
         <v>4269310</v>
       </c>
       <c r="V26" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>52</v>
       </c>
       <c r="W26" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>69</v>
       </c>
       <c r="X26" s="23" t="s">
@@ -5623,7 +5663,7 @@
         <v>4269241</v>
       </c>
       <c r="I27" s="23">
-        <f>H27+D27*159</f>
+        <f t="shared" si="29"/>
         <v>4269400</v>
       </c>
       <c r="J27" s="23" t="str">
@@ -5701,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="25">
-        <f t="shared" ref="F28:F29" si="31">B28+D28*E28</f>
+        <f t="shared" ref="F28:F29" si="32">B28+D28*E28</f>
         <v>4474096</v>
       </c>
       <c r="G28" s="11">
@@ -5712,7 +5752,7 @@
         <v>4473982</v>
       </c>
       <c r="I28" s="25">
-        <f>H28+D28*159</f>
+        <f t="shared" si="29"/>
         <v>4474141</v>
       </c>
       <c r="J28" s="25" t="str">
@@ -5755,11 +5795,11 @@
         <v>4474078</v>
       </c>
       <c r="V28" s="25">
-        <f t="shared" ref="V28:V29" si="32">T28-H28</f>
+        <f t="shared" ref="V28:V29" si="33">T28-H28</f>
         <v>78</v>
       </c>
       <c r="W28" s="25">
-        <f t="shared" ref="W28:W29" si="33">U28-H28</f>
+        <f t="shared" ref="W28:W29" si="34">U28-H28</f>
         <v>96</v>
       </c>
       <c r="X28" s="25" t="s">
@@ -5791,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4474096</v>
       </c>
       <c r="G29" s="11">
@@ -5802,7 +5842,7 @@
         <v>4473982</v>
       </c>
       <c r="I29" s="25">
-        <f>H29+D29*159</f>
+        <f t="shared" si="29"/>
         <v>4474141</v>
       </c>
       <c r="J29" s="25" t="str">
@@ -5845,11 +5885,11 @@
         <v>4474088</v>
       </c>
       <c r="V29" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>93</v>
       </c>
       <c r="W29" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>106</v>
       </c>
       <c r="X29" s="25" t="s">
@@ -5892,7 +5932,7 @@
         <v>4473982</v>
       </c>
       <c r="I30" s="25">
-        <f>H30+D30*159</f>
+        <f t="shared" si="29"/>
         <v>4474141</v>
       </c>
       <c r="J30" s="25" t="str">
@@ -5934,11 +5974,11 @@
         <v>4474110</v>
       </c>
       <c r="V30" s="25">
-        <f>T30-H30</f>
+        <f t="shared" ref="V30:V63" si="35">T30-H30</f>
         <v>112</v>
       </c>
       <c r="W30" s="25">
-        <f>U30-H30</f>
+        <f t="shared" ref="W30:W63" si="36">U30-H30</f>
         <v>128</v>
       </c>
       <c r="X30" s="25" t="s">
@@ -6022,11 +6062,11 @@
         <v>1523280</v>
       </c>
       <c r="V31" s="29">
-        <f>T31-H31</f>
+        <f t="shared" si="35"/>
         <v>26</v>
       </c>
       <c r="W31" s="29">
-        <f>U31-H31</f>
+        <f t="shared" si="36"/>
         <v>48</v>
       </c>
       <c r="X31" s="29" t="s">
@@ -6111,11 +6151,11 @@
         <v>897950</v>
       </c>
       <c r="V32" s="33">
-        <f>T32-H32</f>
+        <f t="shared" si="35"/>
         <v>82</v>
       </c>
       <c r="W32" s="33">
-        <f>U32-H32</f>
+        <f t="shared" si="36"/>
         <v>117</v>
       </c>
       <c r="X32" s="33" t="s">
@@ -6199,11 +6239,11 @@
         <v>2690257</v>
       </c>
       <c r="V33" s="36">
-        <f>T33-H33</f>
+        <f t="shared" si="35"/>
         <v>97</v>
       </c>
       <c r="W33" s="36">
-        <f>U33-H33</f>
+        <f t="shared" si="36"/>
         <v>120</v>
       </c>
       <c r="X33" s="36" t="s">
@@ -6288,11 +6328,11 @@
         <v>1116695</v>
       </c>
       <c r="V34" s="11">
-        <f>T34-H34</f>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="W34" s="11">
-        <f>U34-H34</f>
+        <f t="shared" si="36"/>
         <v>30</v>
       </c>
       <c r="X34" s="11" t="s">
@@ -6378,11 +6418,11 @@
         <v>2876548</v>
       </c>
       <c r="V35" s="39">
-        <f>T35-H35</f>
+        <f t="shared" si="35"/>
         <v>105</v>
       </c>
       <c r="W35" s="39">
-        <f>U35-H35</f>
+        <f t="shared" si="36"/>
         <v>115</v>
       </c>
       <c r="X35" s="39" t="s">
@@ -6414,7 +6454,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="39">
-        <f t="shared" ref="F36" si="34">B36+D36*E36</f>
+        <f t="shared" ref="F36" si="37">B36+D36*E36</f>
         <v>2876550</v>
       </c>
       <c r="G36" s="11">
@@ -6429,7 +6469,7 @@
         <v>2876592</v>
       </c>
       <c r="J36" s="39" t="str">
-        <f t="shared" ref="J36" si="35">IF(C36="rev", "fwd", IF(C36="fwd", "rev", ""))</f>
+        <f t="shared" ref="J36" si="38">IF(C36="rev", "fwd", IF(C36="fwd", "rev", ""))</f>
         <v>rev</v>
       </c>
       <c r="K36" s="39" t="s">
@@ -6467,11 +6507,11 @@
         <v>2876473</v>
       </c>
       <c r="V36" s="39">
-        <f>T36-H36</f>
+        <f t="shared" si="35"/>
         <v>26</v>
       </c>
       <c r="W36" s="39">
-        <f>U36-H36</f>
+        <f t="shared" si="36"/>
         <v>40</v>
       </c>
       <c r="X36" s="39" t="s">
@@ -6556,11 +6596,11 @@
         <v>3235899</v>
       </c>
       <c r="V37" s="42">
-        <f>T37-H37</f>
+        <f t="shared" si="35"/>
         <v>78</v>
       </c>
       <c r="W37" s="42">
-        <f>U37-H37</f>
+        <f t="shared" si="36"/>
         <v>98</v>
       </c>
       <c r="X37" s="42" t="s">
@@ -6592,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="42">
-        <f t="shared" ref="F38" si="36">B38+D38*E38</f>
+        <f t="shared" ref="F38" si="39">B38+D38*E38</f>
         <v>3235915</v>
       </c>
       <c r="G38" s="42">
@@ -6607,7 +6647,7 @@
         <v>3235960</v>
       </c>
       <c r="J38" s="42" t="str">
-        <f t="shared" ref="J38" si="37">IF(C38="rev", "fwd", IF(C38="fwd", "rev", ""))</f>
+        <f t="shared" ref="J38" si="40">IF(C38="rev", "fwd", IF(C38="fwd", "rev", ""))</f>
         <v>rev</v>
       </c>
       <c r="K38" s="42" t="s">
@@ -6645,11 +6685,11 @@
         <v>3235852</v>
       </c>
       <c r="V38" s="42">
-        <f>T38-H38</f>
+        <f t="shared" si="35"/>
         <v>40</v>
       </c>
       <c r="W38" s="42">
-        <f>U38-H38</f>
+        <f t="shared" si="36"/>
         <v>51</v>
       </c>
       <c r="X38" s="42" t="s">
@@ -6730,11 +6770,11 @@
         <v>2009760</v>
       </c>
       <c r="V39" s="39">
-        <f>T39-H39</f>
+        <f t="shared" si="35"/>
         <v>88</v>
       </c>
       <c r="W39" s="39">
-        <f>U39-H39</f>
+        <f t="shared" si="36"/>
         <v>98</v>
       </c>
       <c r="X39" s="39" t="s">
@@ -6766,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="39">
-        <f t="shared" ref="F40" si="38">B40+D40*E40</f>
+        <f t="shared" ref="F40" si="41">B40+D40*E40</f>
         <v>2009776</v>
       </c>
       <c r="G40" s="39"/>
@@ -6777,7 +6817,7 @@
         <v>2009821</v>
       </c>
       <c r="J40" s="39" t="str">
-        <f t="shared" ref="J40" si="39">IF(C40="rev", "fwd", IF(C40="fwd", "rev", ""))</f>
+        <f t="shared" ref="J40" si="42">IF(C40="rev", "fwd", IF(C40="fwd", "rev", ""))</f>
         <v>rev</v>
       </c>
       <c r="K40" s="39" t="s">
@@ -6815,11 +6855,11 @@
         <v>2009776</v>
       </c>
       <c r="V40" s="39">
-        <f>T40-H40</f>
+        <f t="shared" si="35"/>
         <v>98</v>
       </c>
       <c r="W40" s="39">
-        <f>U40-H40</f>
+        <f t="shared" si="36"/>
         <v>114</v>
       </c>
       <c r="X40" s="39" t="s">
@@ -6856,7 +6896,7 @@
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11">
-        <f t="shared" ref="H41:H84" si="40">F41-44</f>
+        <f t="shared" ref="H41:H86" si="43">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="11">
@@ -6902,11 +6942,11 @@
         <v>4484303</v>
       </c>
       <c r="V41" s="11">
-        <f>T41-H41</f>
+        <f t="shared" si="35"/>
         <v>49</v>
       </c>
       <c r="W41" s="11">
-        <f>U41-H41</f>
+        <f t="shared" si="36"/>
         <v>74</v>
       </c>
       <c r="X41" s="11" t="s">
@@ -6938,12 +6978,12 @@
         <v>0</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" ref="F42" si="41">B42+D42*E42</f>
+        <f t="shared" ref="F42" si="44">B42+D42*E42</f>
         <v>4484273</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11">
-        <f t="shared" ref="H42" si="42">F42-44</f>
+        <f t="shared" ref="H42" si="45">F42-44</f>
         <v>4484229</v>
       </c>
       <c r="I42" s="11">
@@ -6951,7 +6991,7 @@
         <v>4484388</v>
       </c>
       <c r="J42" s="11" t="str">
-        <f t="shared" ref="J42" si="43">IF(C42="rev", "fwd", IF(C42="fwd", "rev", ""))</f>
+        <f t="shared" ref="J42" si="46">IF(C42="rev", "fwd", IF(C42="fwd", "rev", ""))</f>
         <v>fwd</v>
       </c>
       <c r="K42" s="11" t="s">
@@ -6988,11 +7028,11 @@
         <v>4484385</v>
       </c>
       <c r="V42" s="11">
-        <f>T42-H42</f>
+        <f t="shared" si="35"/>
         <v>120</v>
       </c>
       <c r="W42" s="11">
-        <f>U42-H42</f>
+        <f t="shared" si="36"/>
         <v>156</v>
       </c>
       <c r="X42" s="9" t="s">
@@ -7073,11 +7113,11 @@
         <v>2585592</v>
       </c>
       <c r="V43" s="45">
-        <f>T43-H43</f>
+        <f t="shared" si="35"/>
         <v>54</v>
       </c>
       <c r="W43" s="45">
-        <f>U43-H43</f>
+        <f t="shared" si="36"/>
         <v>66</v>
       </c>
       <c r="X43" s="45" t="s">
@@ -7109,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="45">
-        <f t="shared" ref="F44" si="44">B44+D44*E44</f>
+        <f t="shared" ref="F44" si="47">B44+D44*E44</f>
         <v>2585570</v>
       </c>
       <c r="G44" s="45"/>
@@ -7120,7 +7160,7 @@
         <v>2585685</v>
       </c>
       <c r="J44" s="45" t="str">
-        <f t="shared" ref="J44" si="45">IF(C44="rev", "fwd", IF(C44="fwd", "rev", ""))</f>
+        <f t="shared" ref="J44" si="48">IF(C44="rev", "fwd", IF(C44="fwd", "rev", ""))</f>
         <v>fwd</v>
       </c>
       <c r="K44" s="45" t="s">
@@ -7151,22 +7191,22 @@
         <v>162</v>
       </c>
       <c r="T44" s="45">
-        <v>2585580</v>
+        <v>2585640</v>
       </c>
       <c r="U44" s="45">
-        <f>T44+12</f>
-        <v>2585592</v>
+        <f>T44+25</f>
+        <v>2585665</v>
       </c>
       <c r="V44" s="45">
-        <f>T44-H44</f>
-        <v>54</v>
+        <f t="shared" si="35"/>
+        <v>114</v>
       </c>
       <c r="W44" s="45">
-        <f>U44-H44</f>
-        <v>66</v>
+        <f t="shared" si="36"/>
+        <v>139</v>
       </c>
       <c r="X44" s="45" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Y44" s="45" t="s">
         <v>171</v>
@@ -7176,269 +7216,384 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
-      <c r="A45" s="26" t="s">
+    <row r="45" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="11">
         <v>63358</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="11">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
         <f t="shared" si="7"/>
         <v>63358</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9">
-        <f t="shared" si="40"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11">
+        <f t="shared" si="43"/>
         <v>63314</v>
       </c>
-      <c r="I45" s="9">
-        <f t="shared" ref="I45:I84" si="46">H45+159</f>
+      <c r="I45" s="11">
+        <f t="shared" ref="I45:I86" si="49">H45+159</f>
         <v>63473</v>
       </c>
-      <c r="J45" s="9" t="str">
+      <c r="J45" s="11" t="str">
         <f t="shared" si="3"/>
         <v>fwd</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="11">
-        <f>T45-H45</f>
-        <v>-63314</v>
-      </c>
-      <c r="W45" s="11">
-        <f>U45-H45</f>
-        <v>-63314</v>
-      </c>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-    </row>
-    <row r="46" spans="1:27">
-      <c r="A46" s="26" t="s">
+      <c r="K45" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="L45" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="M45">
+        <v>63588</v>
+      </c>
+      <c r="N45" t="s">
+        <v>194</v>
+      </c>
+      <c r="O45" t="s">
+        <v>314</v>
+      </c>
+      <c r="P45" s="11">
+        <v>63338</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>63358</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y45" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="11">
+        <v>63358</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="11">
+        <f t="shared" ref="D46" si="50">IF(C46="fwd",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" ref="F46" si="51">B46+D46*E46</f>
+        <v>63358</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11">
+        <f t="shared" ref="H46" si="52">F46-44</f>
+        <v>63314</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" ref="I46" si="53">H46+159</f>
+        <v>63473</v>
+      </c>
+      <c r="J46" s="11" t="str">
+        <f t="shared" ref="J46" si="54">IF(C46="rev", "fwd", IF(C46="fwd", "rev", ""))</f>
+        <v>fwd</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="L46" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="M46">
+        <v>63588</v>
+      </c>
+      <c r="N46" t="s">
+        <v>194</v>
+      </c>
+      <c r="O46" t="s">
+        <v>314</v>
+      </c>
+      <c r="P46" s="11">
+        <v>63435</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>63488</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="T46" s="11">
+        <v>63430</v>
+      </c>
+      <c r="U46" s="11">
+        <f>T46+18</f>
+        <v>63448</v>
+      </c>
+      <c r="V46" s="11">
+        <f t="shared" si="35"/>
+        <v>116</v>
+      </c>
+      <c r="W46" s="11">
+        <f t="shared" si="36"/>
+        <v>134</v>
+      </c>
+      <c r="X46" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y46" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="6" customFormat="1" ht="17">
+      <c r="A47" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B47" s="21">
         <v>2230395</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="21">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="9">
+      <c r="E47" s="21">
+        <v>0</v>
+      </c>
+      <c r="F47" s="21">
         <f t="shared" si="7"/>
         <v>2230395</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9">
-        <f t="shared" si="40"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21">
+        <f t="shared" si="43"/>
         <v>2230351</v>
       </c>
-      <c r="I46" s="9">
-        <f t="shared" si="46"/>
+      <c r="I47" s="21">
+        <f t="shared" si="49"/>
         <v>2230510</v>
       </c>
-      <c r="J46" s="9" t="str">
+      <c r="J47" s="21" t="str">
         <f t="shared" si="3"/>
         <v>fwd</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="11">
-        <f>T46-H46</f>
-        <v>-2230351</v>
-      </c>
-      <c r="W46" s="11">
-        <f>U46-H46</f>
-        <v>-2230351</v>
-      </c>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-    </row>
-    <row r="47" spans="1:27">
-      <c r="A47" s="26" t="s">
+      <c r="K47" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M47">
+        <v>2230395</v>
+      </c>
+      <c r="N47" t="s">
+        <v>162</v>
+      </c>
+      <c r="O47" t="s">
+        <v>320</v>
+      </c>
+      <c r="P47" s="21">
+        <v>2230385</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>2230395</v>
+      </c>
+      <c r="R47" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="S47" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="T47" s="21">
+        <v>2230387</v>
+      </c>
+      <c r="U47" s="21">
+        <f>T47+33</f>
+        <v>2230420</v>
+      </c>
+      <c r="V47" s="21">
+        <f t="shared" si="35"/>
+        <v>36</v>
+      </c>
+      <c r="W47" s="21">
+        <f t="shared" si="36"/>
+        <v>69</v>
+      </c>
+      <c r="X47" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y47" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="6" customFormat="1" ht="17">
+      <c r="A48" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="21">
+        <v>2230395</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="21">
+        <f t="shared" ref="D48" si="55">IF(C48="fwd",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E48" s="21">
+        <v>0</v>
+      </c>
+      <c r="F48" s="21">
+        <f t="shared" ref="F48" si="56">B48+D48*E48</f>
+        <v>2230395</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21">
+        <f t="shared" ref="H48" si="57">F48-44</f>
+        <v>2230351</v>
+      </c>
+      <c r="I48" s="21">
+        <f t="shared" ref="I48" si="58">H48+159</f>
+        <v>2230510</v>
+      </c>
+      <c r="J48" s="21" t="str">
+        <f t="shared" ref="J48" si="59">IF(C48="rev", "fwd", IF(C48="fwd", "rev", ""))</f>
+        <v>fwd</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M48">
+        <v>2230395</v>
+      </c>
+      <c r="N48" t="s">
+        <v>162</v>
+      </c>
+      <c r="O48" t="s">
+        <v>320</v>
+      </c>
+      <c r="P48" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q48" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="R48" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="S48" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="T48" s="21">
+        <f>U48-29</f>
+        <v>2230481</v>
+      </c>
+      <c r="U48" s="21">
+        <v>2230510</v>
+      </c>
+      <c r="V48" s="21">
+        <f t="shared" ref="V48" si="60">T48-H48</f>
+        <v>130</v>
+      </c>
+      <c r="W48" s="21">
+        <f t="shared" ref="W48" si="61">U48-H48</f>
+        <v>159</v>
+      </c>
+      <c r="X48" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y48" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B49" s="9">
         <v>4081359</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D49" s="9">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E49" s="9">
         <v>2</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F49" s="9">
         <f t="shared" si="7"/>
         <v>4081357</v>
       </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9">
-        <f t="shared" si="40"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9">
+        <f t="shared" si="43"/>
         <v>4081313</v>
       </c>
-      <c r="I47" s="9">
-        <f t="shared" si="46"/>
+      <c r="I49" s="9">
+        <f t="shared" si="49"/>
         <v>4081472</v>
       </c>
-      <c r="J47" s="9" t="str">
+      <c r="J49" s="9" t="str">
         <f t="shared" si="3"/>
         <v>fwd</v>
-      </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="11">
-        <f>T47-H47</f>
-        <v>-4081313</v>
-      </c>
-      <c r="W47" s="11">
-        <f>U47-H47</f>
-        <v>-4081313</v>
-      </c>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-    </row>
-    <row r="48" spans="1:27">
-      <c r="A48" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="9">
-        <v>197026</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9">
-        <f t="shared" si="7"/>
-        <v>197026</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9">
-        <f t="shared" si="40"/>
-        <v>196982</v>
-      </c>
-      <c r="I48" s="9">
-        <f t="shared" si="46"/>
-        <v>197141</v>
-      </c>
-      <c r="J48" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>rev</v>
-      </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="11">
-        <f>T48-H48</f>
-        <v>-196982</v>
-      </c>
-      <c r="W48" s="11">
-        <f>U48-H48</f>
-        <v>-196982</v>
-      </c>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-    </row>
-    <row r="49" spans="1:27">
-      <c r="A49" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="9">
-        <v>197821</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9">
-        <f t="shared" si="7"/>
-        <v>197821</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9">
-        <f t="shared" si="40"/>
-        <v>197777</v>
-      </c>
-      <c r="I49" s="9">
-        <f t="shared" si="46"/>
-        <v>197936</v>
-      </c>
-      <c r="J49" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>rev</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -7452,12 +7607,12 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="11">
-        <f>T49-H49</f>
-        <v>-197777</v>
+        <f t="shared" si="35"/>
+        <v>-4081313</v>
       </c>
       <c r="W49" s="11">
-        <f>U49-H49</f>
-        <v>-197777</v>
+        <f t="shared" si="36"/>
+        <v>-4081313</v>
       </c>
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
@@ -7466,37 +7621,37 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="26" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="B50" s="9">
-        <v>1237285</v>
+        <v>197026</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D50" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" si="7"/>
-        <v>1237285</v>
+        <v>197026</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9">
-        <f t="shared" si="40"/>
-        <v>1237241</v>
+        <f t="shared" si="43"/>
+        <v>196982</v>
       </c>
       <c r="I50" s="9">
-        <f t="shared" si="46"/>
-        <v>1237400</v>
+        <f t="shared" si="49"/>
+        <v>197141</v>
       </c>
       <c r="J50" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -7510,12 +7665,12 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="11">
-        <f>T50-H50</f>
-        <v>-1237241</v>
+        <f t="shared" si="35"/>
+        <v>-196982</v>
       </c>
       <c r="W50" s="11">
-        <f>U50-H50</f>
-        <v>-1237241</v>
+        <f t="shared" si="36"/>
+        <v>-196982</v>
       </c>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
@@ -7524,37 +7679,35 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="26" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="B51" s="9">
-        <v>2212241</v>
+        <v>197821</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="E51" s="9">
-        <v>-15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="9">
         <f t="shared" si="7"/>
-        <v>2212256</v>
+        <v>197821</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9">
-        <f t="shared" si="40"/>
-        <v>2212212</v>
+        <f t="shared" si="43"/>
+        <v>197777</v>
       </c>
       <c r="I51" s="9">
-        <f t="shared" si="46"/>
-        <v>2212371</v>
+        <f t="shared" si="49"/>
+        <v>197936</v>
       </c>
       <c r="J51" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -7568,12 +7721,12 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="11">
-        <f>T51-H51</f>
-        <v>-2212212</v>
+        <f t="shared" si="35"/>
+        <v>-197777</v>
       </c>
       <c r="W51" s="11">
-        <f>U51-H51</f>
-        <v>-2212212</v>
+        <f t="shared" si="36"/>
+        <v>-197777</v>
       </c>
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
@@ -7582,37 +7735,37 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="26" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B52" s="9">
-        <v>2266214</v>
+        <v>1237285</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="9">
         <f t="shared" si="7"/>
-        <v>2266214</v>
+        <v>1237285</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9">
-        <f t="shared" si="40"/>
-        <v>2266170</v>
+        <f t="shared" si="43"/>
+        <v>1237241</v>
       </c>
       <c r="I52" s="9">
-        <f t="shared" si="46"/>
-        <v>2266329</v>
+        <f t="shared" si="49"/>
+        <v>1237400</v>
       </c>
       <c r="J52" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -7626,12 +7779,12 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
       <c r="V52" s="11">
-        <f>T52-H52</f>
-        <v>-2266170</v>
+        <f t="shared" si="35"/>
+        <v>-1237241</v>
       </c>
       <c r="W52" s="11">
-        <f>U52-H52</f>
-        <v>-2266170</v>
+        <f t="shared" si="36"/>
+        <v>-1237241</v>
       </c>
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
@@ -7640,37 +7793,37 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="26" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B53" s="9">
-        <v>1734357</v>
+        <v>2212241</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E53" s="9">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="7"/>
-        <v>1734357</v>
+        <v>2212256</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9">
-        <f t="shared" si="40"/>
-        <v>1734313</v>
+        <f t="shared" si="43"/>
+        <v>2212212</v>
       </c>
       <c r="I53" s="9">
-        <f t="shared" si="46"/>
-        <v>1734472</v>
+        <f t="shared" si="49"/>
+        <v>2212371</v>
       </c>
       <c r="J53" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -7684,12 +7837,12 @@
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="11">
-        <f>T53-H53</f>
-        <v>-1734313</v>
+        <f t="shared" si="35"/>
+        <v>-2212212</v>
       </c>
       <c r="W53" s="11">
-        <f>U53-H53</f>
-        <v>-1734313</v>
+        <f t="shared" si="36"/>
+        <v>-2212212</v>
       </c>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
@@ -7698,37 +7851,37 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="26" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B54" s="9">
-        <v>4122354</v>
+        <v>2266214</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="7"/>
-        <v>4122354</v>
+        <v>2266214</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9">
-        <f t="shared" si="40"/>
-        <v>4122310</v>
+        <f t="shared" si="43"/>
+        <v>2266170</v>
       </c>
       <c r="I54" s="9">
-        <f t="shared" si="46"/>
-        <v>4122469</v>
+        <f t="shared" si="49"/>
+        <v>2266329</v>
       </c>
       <c r="J54" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -7742,12 +7895,12 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="11">
-        <f>T54-H54</f>
-        <v>-4122310</v>
+        <f t="shared" si="35"/>
+        <v>-2266170</v>
       </c>
       <c r="W54" s="11">
-        <f>U54-H54</f>
-        <v>-4122310</v>
+        <f t="shared" si="36"/>
+        <v>-2266170</v>
       </c>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
@@ -7756,37 +7909,37 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="9">
-        <v>1223097</v>
+        <v>1734357</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="7"/>
-        <v>1223097</v>
+        <v>1734357</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9">
-        <f t="shared" si="40"/>
-        <v>1223053</v>
+        <f t="shared" si="43"/>
+        <v>1734313</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="46"/>
-        <v>1223212</v>
+        <f t="shared" si="49"/>
+        <v>1734472</v>
       </c>
       <c r="J55" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -7800,12 +7953,12 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="11">
-        <f>T55-H55</f>
-        <v>-1223053</v>
+        <f t="shared" si="35"/>
+        <v>-1734313</v>
       </c>
       <c r="W55" s="11">
-        <f>U55-H55</f>
-        <v>-1223053</v>
+        <f t="shared" si="36"/>
+        <v>-1734313</v>
       </c>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
@@ -7814,10 +7967,10 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="26" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B56" s="9">
-        <v>1907086</v>
+        <v>4122354</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>118</v>
@@ -7831,16 +7984,16 @@
       </c>
       <c r="F56" s="9">
         <f t="shared" si="7"/>
-        <v>1907086</v>
+        <v>4122354</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9">
-        <f t="shared" si="40"/>
-        <v>1907042</v>
+        <f t="shared" si="43"/>
+        <v>4122310</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="46"/>
-        <v>1907201</v>
+        <f t="shared" si="49"/>
+        <v>4122469</v>
       </c>
       <c r="J56" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7858,12 +8011,12 @@
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
       <c r="V56" s="11">
-        <f>T56-H56</f>
-        <v>-1907042</v>
+        <f t="shared" si="35"/>
+        <v>-4122310</v>
       </c>
       <c r="W56" s="11">
-        <f>U56-H56</f>
-        <v>-1907042</v>
+        <f t="shared" si="36"/>
+        <v>-4122310</v>
       </c>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
@@ -7872,10 +8025,10 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="26" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="B57" s="9">
-        <v>794644</v>
+        <v>1223097</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>118</v>
@@ -7889,16 +8042,16 @@
       </c>
       <c r="F57" s="9">
         <f t="shared" si="7"/>
-        <v>794644</v>
+        <v>1223097</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9">
-        <f t="shared" si="40"/>
-        <v>794600</v>
+        <f t="shared" si="43"/>
+        <v>1223053</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="46"/>
-        <v>794759</v>
+        <f t="shared" si="49"/>
+        <v>1223212</v>
       </c>
       <c r="J57" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7916,12 +8069,12 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="11">
-        <f>T57-H57</f>
-        <v>-794600</v>
+        <f t="shared" si="35"/>
+        <v>-1223053</v>
       </c>
       <c r="W57" s="11">
-        <f>U57-H57</f>
-        <v>-794600</v>
+        <f t="shared" si="36"/>
+        <v>-1223053</v>
       </c>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
@@ -7930,10 +8083,10 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="26" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B58" s="9">
-        <v>1018330</v>
+        <v>1907086</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>118</v>
@@ -7947,16 +8100,16 @@
       </c>
       <c r="F58" s="9">
         <f t="shared" si="7"/>
-        <v>1018330</v>
+        <v>1907086</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9">
-        <f t="shared" si="40"/>
-        <v>1018286</v>
+        <f t="shared" si="43"/>
+        <v>1907042</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="46"/>
-        <v>1018445</v>
+        <f t="shared" si="49"/>
+        <v>1907201</v>
       </c>
       <c r="J58" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7974,12 +8127,12 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="11">
-        <f>T58-H58</f>
-        <v>-1018286</v>
+        <f t="shared" si="35"/>
+        <v>-1907042</v>
       </c>
       <c r="W58" s="11">
-        <f>U58-H58</f>
-        <v>-1018286</v>
+        <f t="shared" si="36"/>
+        <v>-1907042</v>
       </c>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
@@ -7988,10 +8141,10 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="26" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B59" s="9">
-        <v>443748</v>
+        <v>794644</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>118</v>
@@ -8005,16 +8158,16 @@
       </c>
       <c r="F59" s="9">
         <f t="shared" si="7"/>
-        <v>443748</v>
+        <v>794644</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9">
-        <f t="shared" si="40"/>
-        <v>443704</v>
+        <f t="shared" si="43"/>
+        <v>794600</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="46"/>
-        <v>443863</v>
+        <f t="shared" si="49"/>
+        <v>794759</v>
       </c>
       <c r="J59" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8032,12 +8185,12 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="11">
-        <f>T59-H59</f>
-        <v>-443704</v>
+        <f t="shared" si="35"/>
+        <v>-794600</v>
       </c>
       <c r="W59" s="11">
-        <f>U59-H59</f>
-        <v>-443704</v>
+        <f t="shared" si="36"/>
+        <v>-794600</v>
       </c>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
@@ -8046,37 +8199,37 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B60" s="9">
-        <v>1950760</v>
+        <v>1018330</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" si="7"/>
-        <v>1950760</v>
+        <v>1018330</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9">
-        <f t="shared" si="40"/>
-        <v>1950716</v>
+        <f t="shared" si="43"/>
+        <v>1018286</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="46"/>
-        <v>1950875</v>
+        <f t="shared" si="49"/>
+        <v>1018445</v>
       </c>
       <c r="J60" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -8090,12 +8243,12 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="11">
-        <f>T60-H60</f>
-        <v>-1950716</v>
+        <f t="shared" si="35"/>
+        <v>-1018286</v>
       </c>
       <c r="W60" s="11">
-        <f>U60-H60</f>
-        <v>-1950716</v>
+        <f t="shared" si="36"/>
+        <v>-1018286</v>
       </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
@@ -8104,10 +8257,10 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="26" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B61" s="9">
-        <v>852626</v>
+        <v>443748</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>118</v>
@@ -8121,16 +8274,16 @@
       </c>
       <c r="F61" s="9">
         <f t="shared" si="7"/>
-        <v>852626</v>
+        <v>443748</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9">
-        <f t="shared" si="40"/>
-        <v>852582</v>
+        <f t="shared" si="43"/>
+        <v>443704</v>
       </c>
       <c r="I61" s="9">
-        <f t="shared" si="46"/>
-        <v>852741</v>
+        <f t="shared" si="49"/>
+        <v>443863</v>
       </c>
       <c r="J61" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8148,12 +8301,12 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="11">
-        <f>T61-H61</f>
-        <v>-852582</v>
+        <f t="shared" si="35"/>
+        <v>-443704</v>
       </c>
       <c r="W61" s="11">
-        <f>U61-H61</f>
-        <v>-852582</v>
+        <f t="shared" si="36"/>
+        <v>-443704</v>
       </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
@@ -8162,37 +8315,37 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="26" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B62" s="9">
-        <v>889945</v>
+        <v>1950760</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E62" s="9">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" si="7"/>
-        <v>889952</v>
+        <v>1950760</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9">
-        <f t="shared" si="40"/>
-        <v>889908</v>
+        <f t="shared" si="43"/>
+        <v>1950716</v>
       </c>
       <c r="I62" s="9">
-        <f t="shared" si="46"/>
-        <v>890067</v>
+        <f t="shared" si="49"/>
+        <v>1950875</v>
       </c>
       <c r="J62" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -8206,12 +8359,12 @@
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
       <c r="V62" s="11">
-        <f>T62-H62</f>
-        <v>-889908</v>
+        <f t="shared" si="35"/>
+        <v>-1950716</v>
       </c>
       <c r="W62" s="11">
-        <f>U62-H62</f>
-        <v>-889908</v>
+        <f t="shared" si="36"/>
+        <v>-1950716</v>
       </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
@@ -8220,37 +8373,37 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B63" s="9">
-        <v>2926272</v>
+        <v>852626</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D63" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E63" s="9">
-        <v>-158</v>
+        <v>0</v>
       </c>
       <c r="F63" s="9">
         <f t="shared" si="7"/>
-        <v>2926114</v>
+        <v>852626</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9">
-        <f t="shared" si="40"/>
-        <v>2926070</v>
+        <f t="shared" si="43"/>
+        <v>852582</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" si="46"/>
-        <v>2926229</v>
+        <f t="shared" si="49"/>
+        <v>852741</v>
       </c>
       <c r="J63" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -8264,12 +8417,12 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
       <c r="V63" s="11">
-        <f>T63-H63</f>
-        <v>-2926070</v>
+        <f t="shared" si="35"/>
+        <v>-852582</v>
       </c>
       <c r="W63" s="11">
-        <f>U63-H63</f>
-        <v>-2926070</v>
+        <f t="shared" si="36"/>
+        <v>-852582</v>
       </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
@@ -8278,10 +8431,10 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="26" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B64" s="9">
-        <v>2870686</v>
+        <v>889945</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>118</v>
@@ -8291,20 +8444,20 @@
         <v>-1</v>
       </c>
       <c r="E64" s="9">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" si="7"/>
-        <v>2870686</v>
+        <v>889952</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9">
-        <f t="shared" si="40"/>
-        <v>2870642</v>
+        <f t="shared" si="43"/>
+        <v>889908</v>
       </c>
       <c r="I64" s="9">
-        <f t="shared" si="46"/>
-        <v>2870801</v>
+        <f t="shared" si="49"/>
+        <v>890067</v>
       </c>
       <c r="J64" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8322,12 +8475,12 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="11">
-        <f>T64-H64</f>
-        <v>-2870642</v>
+        <f t="shared" ref="V64:V86" si="62">T64-H64</f>
+        <v>-889908</v>
       </c>
       <c r="W64" s="11">
-        <f>U64-H64</f>
-        <v>-2870642</v>
+        <f t="shared" ref="W64:W86" si="63">U64-H64</f>
+        <v>-889908</v>
       </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -8336,37 +8489,37 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="26" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B65" s="9">
-        <v>220022</v>
+        <v>2926272</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E65" s="9">
-        <v>0</v>
+        <v>-158</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" si="7"/>
-        <v>220022</v>
+        <v>2926114</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9">
-        <f t="shared" si="40"/>
-        <v>219978</v>
+        <f t="shared" si="43"/>
+        <v>2926070</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="46"/>
-        <v>220137</v>
+        <f t="shared" si="49"/>
+        <v>2926229</v>
       </c>
       <c r="J65" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -8380,12 +8533,12 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
       <c r="V65" s="11">
-        <f>T65-H65</f>
-        <v>-219978</v>
+        <f t="shared" si="62"/>
+        <v>-2926070</v>
       </c>
       <c r="W65" s="11">
-        <f>U65-H65</f>
-        <v>-219978</v>
+        <f t="shared" si="63"/>
+        <v>-2926070</v>
       </c>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
@@ -8394,37 +8547,37 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="26" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B66" s="9">
-        <v>2082728</v>
+        <v>2870686</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" si="7"/>
-        <v>2082728</v>
+        <v>2870686</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9">
-        <f t="shared" si="40"/>
-        <v>2082684</v>
+        <f t="shared" si="43"/>
+        <v>2870642</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="46"/>
-        <v>2082843</v>
+        <f t="shared" si="49"/>
+        <v>2870801</v>
       </c>
       <c r="J66" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
@@ -8438,12 +8591,12 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="11">
-        <f>T66-H66</f>
-        <v>-2082684</v>
+        <f t="shared" si="62"/>
+        <v>-2870642</v>
       </c>
       <c r="W66" s="11">
-        <f>U66-H66</f>
-        <v>-2082684</v>
+        <f t="shared" si="63"/>
+        <v>-2870642</v>
       </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
@@ -8452,10 +8605,10 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="26" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B67" s="9">
-        <v>2999918</v>
+        <v>220022</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>118</v>
@@ -8469,16 +8622,16 @@
       </c>
       <c r="F67" s="9">
         <f t="shared" si="7"/>
-        <v>2999918</v>
+        <v>220022</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9">
-        <f t="shared" si="40"/>
-        <v>2999874</v>
+        <f t="shared" si="43"/>
+        <v>219978</v>
       </c>
       <c r="I67" s="9">
-        <f t="shared" si="46"/>
-        <v>3000033</v>
+        <f t="shared" si="49"/>
+        <v>220137</v>
       </c>
       <c r="J67" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8496,12 +8649,12 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="11">
-        <f>T67-H67</f>
-        <v>-2999874</v>
+        <f t="shared" si="62"/>
+        <v>-219978</v>
       </c>
       <c r="W67" s="11">
-        <f>U67-H67</f>
-        <v>-2999874</v>
+        <f t="shared" si="63"/>
+        <v>-219978</v>
       </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
@@ -8510,10 +8663,10 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="26" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B68" s="9">
-        <v>486492</v>
+        <v>2082728</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>108</v>
@@ -8527,16 +8680,16 @@
       </c>
       <c r="F68" s="9">
         <f t="shared" si="7"/>
-        <v>486492</v>
+        <v>2082728</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9">
-        <f t="shared" si="40"/>
-        <v>486448</v>
+        <f t="shared" si="43"/>
+        <v>2082684</v>
       </c>
       <c r="I68" s="9">
-        <f t="shared" si="46"/>
-        <v>486607</v>
+        <f t="shared" si="49"/>
+        <v>2082843</v>
       </c>
       <c r="J68" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8554,12 +8707,12 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="11">
-        <f>T68-H68</f>
-        <v>-486448</v>
+        <f t="shared" si="62"/>
+        <v>-2082684</v>
       </c>
       <c r="W68" s="11">
-        <f>U68-H68</f>
-        <v>-486448</v>
+        <f t="shared" si="63"/>
+        <v>-2082684</v>
       </c>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
@@ -8568,10 +8721,10 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="26" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B69" s="9">
-        <v>3069871</v>
+        <v>2999918</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>118</v>
@@ -8585,16 +8738,16 @@
       </c>
       <c r="F69" s="9">
         <f t="shared" si="7"/>
-        <v>3069871</v>
+        <v>2999918</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9">
-        <f t="shared" si="40"/>
-        <v>3069827</v>
+        <f t="shared" si="43"/>
+        <v>2999874</v>
       </c>
       <c r="I69" s="9">
-        <f t="shared" si="46"/>
-        <v>3069986</v>
+        <f t="shared" si="49"/>
+        <v>3000033</v>
       </c>
       <c r="J69" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8612,12 +8765,12 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="11">
-        <f>T69-H69</f>
-        <v>-3069827</v>
+        <f t="shared" si="62"/>
+        <v>-2999874</v>
       </c>
       <c r="W69" s="11">
-        <f>U69-H69</f>
-        <v>-3069827</v>
+        <f t="shared" si="63"/>
+        <v>-2999874</v>
       </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -8626,37 +8779,37 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="26" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="B70" s="9">
-        <v>1395973</v>
+        <v>486492</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" si="7"/>
-        <v>1395973</v>
+        <v>486492</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9">
-        <f t="shared" si="40"/>
-        <v>1395929</v>
+        <f t="shared" si="43"/>
+        <v>486448</v>
       </c>
       <c r="I70" s="9">
-        <f t="shared" si="46"/>
-        <v>1396088</v>
+        <f t="shared" si="49"/>
+        <v>486607</v>
       </c>
       <c r="J70" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -8670,12 +8823,12 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="11">
-        <f>T70-H70</f>
-        <v>-1395929</v>
+        <f t="shared" si="62"/>
+        <v>-486448</v>
       </c>
       <c r="W70" s="11">
-        <f>U70-H70</f>
-        <v>-1395929</v>
+        <f t="shared" si="63"/>
+        <v>-486448</v>
       </c>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -8684,10 +8837,10 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="26" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B71" s="9">
-        <v>604684</v>
+        <v>3069871</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>118</v>
@@ -8701,16 +8854,16 @@
       </c>
       <c r="F71" s="9">
         <f t="shared" si="7"/>
-        <v>604684</v>
+        <v>3069871</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9">
-        <f t="shared" si="40"/>
-        <v>604640</v>
+        <f t="shared" si="43"/>
+        <v>3069827</v>
       </c>
       <c r="I71" s="9">
-        <f t="shared" si="46"/>
-        <v>604799</v>
+        <f t="shared" si="49"/>
+        <v>3069986</v>
       </c>
       <c r="J71" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8720,7 +8873,7 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
+      <c r="O71" s="26"/>
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
@@ -8728,12 +8881,12 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="11">
-        <f>T71-H71</f>
-        <v>-604640</v>
+        <f t="shared" si="62"/>
+        <v>-3069827</v>
       </c>
       <c r="W71" s="11">
-        <f>U71-H71</f>
-        <v>-604640</v>
+        <f t="shared" si="63"/>
+        <v>-3069827</v>
       </c>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -8742,43 +8895,43 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="26" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B72" s="9">
-        <v>1509221</v>
+        <v>1395973</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" si="7"/>
-        <v>1509221</v>
+        <v>1395973</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9">
-        <f t="shared" si="40"/>
-        <v>1509177</v>
+        <f t="shared" si="43"/>
+        <v>1395929</v>
       </c>
       <c r="I72" s="9">
-        <f t="shared" si="46"/>
-        <v>1509336</v>
+        <f t="shared" si="49"/>
+        <v>1396088</v>
       </c>
       <c r="J72" s="9" t="str">
-        <f t="shared" ref="J72:J135" si="47">IF(C72="rev", "fwd", IF(C72="fwd", "rev", ""))</f>
-        <v>rev</v>
+        <f t="shared" si="3"/>
+        <v>fwd</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
+      <c r="O72" s="26"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
@@ -8786,12 +8939,12 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
       <c r="V72" s="11">
-        <f>T72-H72</f>
-        <v>-1509177</v>
+        <f t="shared" si="62"/>
+        <v>-1395929</v>
       </c>
       <c r="W72" s="11">
-        <f>U72-H72</f>
-        <v>-1509177</v>
+        <f t="shared" si="63"/>
+        <v>-1395929</v>
       </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
@@ -8800,10 +8953,10 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="26" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B73" s="9">
-        <v>3353049</v>
+        <v>604684</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>118</v>
@@ -8817,19 +8970,19 @@
       </c>
       <c r="F73" s="9">
         <f t="shared" si="7"/>
-        <v>3353049</v>
+        <v>604684</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9">
-        <f t="shared" si="40"/>
-        <v>3353005</v>
+        <f t="shared" si="43"/>
+        <v>604640</v>
       </c>
       <c r="I73" s="9">
-        <f t="shared" si="46"/>
-        <v>3353164</v>
+        <f t="shared" si="49"/>
+        <v>604799</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="3"/>
         <v>fwd</v>
       </c>
       <c r="K73" s="9"/>
@@ -8844,12 +8997,12 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="11">
-        <f>T73-H73</f>
-        <v>-3353005</v>
+        <f t="shared" si="62"/>
+        <v>-604640</v>
       </c>
       <c r="W73" s="11">
-        <f>U73-H73</f>
-        <v>-3353005</v>
+        <f t="shared" si="63"/>
+        <v>-604640</v>
       </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
@@ -8858,37 +9011,37 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="26" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B74" s="9">
-        <v>1226139</v>
+        <v>1509221</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" si="7"/>
-        <v>1226139</v>
+        <v>1509221</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9">
-        <f t="shared" si="40"/>
-        <v>1226095</v>
+        <f t="shared" si="43"/>
+        <v>1509177</v>
       </c>
       <c r="I74" s="9">
-        <f t="shared" si="46"/>
-        <v>1226254</v>
+        <f t="shared" si="49"/>
+        <v>1509336</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" ref="J74:J137" si="64">IF(C74="rev", "fwd", IF(C74="fwd", "rev", ""))</f>
+        <v>rev</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -8902,12 +9055,12 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
       <c r="V74" s="11">
-        <f>T74-H74</f>
-        <v>-1226095</v>
+        <f t="shared" si="62"/>
+        <v>-1509177</v>
       </c>
       <c r="W74" s="11">
-        <f>U74-H74</f>
-        <v>-1226095</v>
+        <f t="shared" si="63"/>
+        <v>-1509177</v>
       </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
@@ -8916,10 +9069,10 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="26" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B75" s="9">
-        <v>693469</v>
+        <v>3353049</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>118</v>
@@ -8933,19 +9086,19 @@
       </c>
       <c r="F75" s="9">
         <f t="shared" si="7"/>
-        <v>693469</v>
+        <v>3353049</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9">
-        <f t="shared" si="40"/>
-        <v>693425</v>
+        <f t="shared" si="43"/>
+        <v>3353005</v>
       </c>
       <c r="I75" s="9">
-        <f t="shared" si="46"/>
-        <v>693584</v>
+        <f t="shared" si="49"/>
+        <v>3353164</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K75" s="9"/>
@@ -8960,12 +9113,12 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
       <c r="V75" s="11">
-        <f>T75-H75</f>
-        <v>-693425</v>
+        <f t="shared" si="62"/>
+        <v>-3353005</v>
       </c>
       <c r="W75" s="11">
-        <f>U75-H75</f>
-        <v>-693425</v>
+        <f t="shared" si="63"/>
+        <v>-3353005</v>
       </c>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -8974,10 +9127,10 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="26" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B76" s="9">
-        <v>1848700</v>
+        <v>1226139</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>118</v>
@@ -8991,19 +9144,19 @@
       </c>
       <c r="F76" s="9">
         <f t="shared" si="7"/>
-        <v>1848700</v>
+        <v>1226139</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9">
-        <f t="shared" si="40"/>
-        <v>1848656</v>
+        <f t="shared" si="43"/>
+        <v>1226095</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" si="46"/>
-        <v>1848815</v>
+        <f t="shared" si="49"/>
+        <v>1226254</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K76" s="9"/>
@@ -9018,12 +9171,12 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="11">
-        <f>T76-H76</f>
-        <v>-1848656</v>
+        <f t="shared" si="62"/>
+        <v>-1226095</v>
       </c>
       <c r="W76" s="11">
-        <f>U76-H76</f>
-        <v>-1848656</v>
+        <f t="shared" si="63"/>
+        <v>-1226095</v>
       </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
@@ -9032,37 +9185,37 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="26" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B77" s="9">
-        <v>3096620</v>
+        <v>693469</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" si="7"/>
-        <v>3096620</v>
+        <v>693469</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9">
-        <f t="shared" si="40"/>
-        <v>3096576</v>
+        <f t="shared" si="43"/>
+        <v>693425</v>
       </c>
       <c r="I77" s="9">
-        <f t="shared" si="46"/>
-        <v>3096735</v>
+        <f t="shared" si="49"/>
+        <v>693584</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -9076,12 +9229,12 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="11">
-        <f>T77-H77</f>
-        <v>-3096576</v>
+        <f t="shared" si="62"/>
+        <v>-693425</v>
       </c>
       <c r="W77" s="11">
-        <f>U77-H77</f>
-        <v>-3096576</v>
+        <f t="shared" si="63"/>
+        <v>-693425</v>
       </c>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
@@ -9090,37 +9243,37 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="26" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B78" s="9">
-        <v>3403446</v>
+        <v>1848700</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" si="7"/>
-        <v>3403446</v>
+        <v>1848700</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9">
-        <f t="shared" si="40"/>
-        <v>3403402</v>
+        <f t="shared" si="43"/>
+        <v>1848656</v>
       </c>
       <c r="I78" s="9">
-        <f t="shared" si="46"/>
-        <v>3403561</v>
+        <f t="shared" si="49"/>
+        <v>1848815</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -9134,12 +9287,12 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
       <c r="V78" s="11">
-        <f>T78-H78</f>
-        <v>-3403402</v>
+        <f t="shared" si="62"/>
+        <v>-1848656</v>
       </c>
       <c r="W78" s="11">
-        <f>U78-H78</f>
-        <v>-3403402</v>
+        <f t="shared" si="63"/>
+        <v>-1848656</v>
       </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
@@ -9148,37 +9301,37 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="26" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B79" s="9">
-        <v>2214673</v>
+        <v>3096620</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D79" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E79" s="9">
         <v>0</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" si="7"/>
-        <v>2214673</v>
+        <v>3096620</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9">
-        <f t="shared" si="40"/>
-        <v>2214629</v>
+        <f t="shared" si="43"/>
+        <v>3096576</v>
       </c>
       <c r="I79" s="9">
-        <f t="shared" si="46"/>
-        <v>2214788</v>
+        <f t="shared" si="49"/>
+        <v>3096735</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -9192,12 +9345,12 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
       <c r="V79" s="11">
-        <f>T79-H79</f>
-        <v>-2214629</v>
+        <f t="shared" si="62"/>
+        <v>-3096576</v>
       </c>
       <c r="W79" s="11">
-        <f>U79-H79</f>
-        <v>-2214629</v>
+        <f t="shared" si="63"/>
+        <v>-3096576</v>
       </c>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
@@ -9206,37 +9359,37 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="26" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B80" s="9">
-        <v>2212969</v>
+        <v>3403446</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" si="7"/>
-        <v>2212969</v>
+        <v>3403446</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9">
-        <f t="shared" si="40"/>
-        <v>2212925</v>
+        <f t="shared" si="43"/>
+        <v>3403402</v>
       </c>
       <c r="I80" s="9">
-        <f t="shared" si="46"/>
-        <v>2213084</v>
+        <f t="shared" si="49"/>
+        <v>3403561</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -9250,12 +9403,12 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="11">
-        <f>T80-H80</f>
-        <v>-2212925</v>
+        <f t="shared" si="62"/>
+        <v>-3403402</v>
       </c>
       <c r="W80" s="11">
-        <f>U80-H80</f>
-        <v>-2212925</v>
+        <f t="shared" si="63"/>
+        <v>-3403402</v>
       </c>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
@@ -9264,10 +9417,10 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="26" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B81" s="9">
-        <v>845736</v>
+        <v>2214673</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>118</v>
@@ -9281,19 +9434,19 @@
       </c>
       <c r="F81" s="9">
         <f t="shared" si="7"/>
-        <v>845736</v>
+        <v>2214673</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9">
-        <f t="shared" si="40"/>
-        <v>845692</v>
+        <f t="shared" si="43"/>
+        <v>2214629</v>
       </c>
       <c r="I81" s="9">
-        <f t="shared" si="46"/>
-        <v>845851</v>
+        <f t="shared" si="49"/>
+        <v>2214788</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K81" s="9"/>
@@ -9308,12 +9461,12 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="11">
-        <f>T81-H81</f>
-        <v>-845692</v>
+        <f t="shared" si="62"/>
+        <v>-2214629</v>
       </c>
       <c r="W81" s="11">
-        <f>U81-H81</f>
-        <v>-845692</v>
+        <f t="shared" si="63"/>
+        <v>-2214629</v>
       </c>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
@@ -9322,37 +9475,37 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="26" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B82" s="9">
-        <v>3438001</v>
+        <v>2212969</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="7"/>
-        <v>3438001</v>
+        <v>2212969</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9">
-        <f t="shared" si="40"/>
-        <v>3437957</v>
+        <f t="shared" si="43"/>
+        <v>2212925</v>
       </c>
       <c r="I82" s="9">
-        <f t="shared" si="46"/>
-        <v>3438116</v>
+        <f t="shared" si="49"/>
+        <v>2213084</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -9366,12 +9519,12 @@
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
       <c r="V82" s="11">
-        <f>T82-H82</f>
-        <v>-3437957</v>
+        <f t="shared" si="62"/>
+        <v>-2212925</v>
       </c>
       <c r="W82" s="11">
-        <f>U82-H82</f>
-        <v>-3437957</v>
+        <f t="shared" si="63"/>
+        <v>-2212925</v>
       </c>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
@@ -9380,37 +9533,37 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="26" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B83" s="9">
-        <v>4118427</v>
+        <v>845736</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D83" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E83" s="9">
         <v>0</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" si="7"/>
-        <v>4118427</v>
+        <v>845736</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9">
-        <f t="shared" si="40"/>
-        <v>4118383</v>
+        <f t="shared" si="43"/>
+        <v>845692</v>
       </c>
       <c r="I83" s="9">
-        <f t="shared" si="46"/>
-        <v>4118542</v>
+        <f t="shared" si="49"/>
+        <v>845851</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
@@ -9424,12 +9577,12 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="11">
-        <f>T83-H83</f>
-        <v>-4118383</v>
+        <f t="shared" si="62"/>
+        <v>-845692</v>
       </c>
       <c r="W83" s="11">
-        <f>U83-H83</f>
-        <v>-4118383</v>
+        <f t="shared" si="63"/>
+        <v>-845692</v>
       </c>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
@@ -9438,10 +9591,10 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="26" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="B84" s="9">
-        <v>3808516</v>
+        <v>3438001</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>108</v>
@@ -9455,19 +9608,19 @@
       </c>
       <c r="F84" s="9">
         <f t="shared" si="7"/>
-        <v>3808516</v>
+        <v>3438001</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9">
-        <f t="shared" si="40"/>
-        <v>3808472</v>
+        <f t="shared" si="43"/>
+        <v>3437957</v>
       </c>
       <c r="I84" s="9">
-        <f t="shared" si="46"/>
-        <v>3808631</v>
+        <f t="shared" si="49"/>
+        <v>3438116</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K84" s="9"/>
@@ -9482,340 +9635,340 @@
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
       <c r="V84" s="11">
-        <f>T84-H84</f>
-        <v>-3808472</v>
+        <f t="shared" si="62"/>
+        <v>-3437957</v>
       </c>
       <c r="W84" s="11">
-        <f>U84-H84</f>
-        <v>-3808472</v>
+        <f t="shared" si="63"/>
+        <v>-3437957</v>
       </c>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
     </row>
-    <row r="85" spans="1:27" s="3" customFormat="1">
-      <c r="A85" s="10" t="s">
+    <row r="85" spans="1:27">
+      <c r="A85" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="9">
+        <v>4118427</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9">
+        <f t="shared" si="7"/>
+        <v>4118427</v>
+      </c>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9">
+        <f t="shared" si="43"/>
+        <v>4118383</v>
+      </c>
+      <c r="I85" s="9">
+        <f t="shared" si="49"/>
+        <v>4118542</v>
+      </c>
+      <c r="J85" s="9" t="str">
+        <f t="shared" si="64"/>
+        <v>rev</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="11">
+        <f t="shared" si="62"/>
+        <v>-4118383</v>
+      </c>
+      <c r="W85" s="11">
+        <f t="shared" si="63"/>
+        <v>-4118383</v>
+      </c>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="9">
+        <v>3808516</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
+        <f t="shared" si="7"/>
+        <v>3808516</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9">
+        <f t="shared" si="43"/>
+        <v>3808472</v>
+      </c>
+      <c r="I86" s="9">
+        <f t="shared" si="49"/>
+        <v>3808631</v>
+      </c>
+      <c r="J86" s="9" t="str">
+        <f t="shared" si="64"/>
+        <v>rev</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="11">
+        <f t="shared" si="62"/>
+        <v>-3808472</v>
+      </c>
+      <c r="W86" s="11">
+        <f t="shared" si="63"/>
+        <v>-3808472</v>
+      </c>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+    </row>
+    <row r="87" spans="1:27" s="3" customFormat="1">
+      <c r="A87" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B87" s="11">
         <v>4175107</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D87" s="11">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E85" s="11">
-        <v>0</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" ref="F85" si="48">B85+D85*E85</f>
+      <c r="E87" s="11">
+        <v>0</v>
+      </c>
+      <c r="F87" s="11">
+        <f t="shared" ref="F87" si="65">B87+D87*E87</f>
         <v>4175107</v>
       </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11">
+      <c r="G87" s="11"/>
+      <c r="H87" s="11">
         <v>4175063</v>
       </c>
-      <c r="I85" s="11">
-        <f>H85+160-1</f>
+      <c r="I87" s="11">
+        <f>H87+160-1</f>
         <v>4175222</v>
       </c>
-      <c r="J85" s="11" t="str">
-        <f t="shared" si="47"/>
+      <c r="J87" s="11" t="str">
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
-      <c r="K85" s="11" t="s">
+      <c r="K87" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="L85" s="11" t="s">
+      <c r="L87" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="M85" s="11">
+      <c r="M87" s="11">
         <v>4175107</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N87" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O87" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="P85" s="11" t="s">
+      <c r="P87" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="Q85" s="11" t="s">
+      <c r="Q87" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="R85" s="11" t="s">
+      <c r="R87" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="S85" s="11" t="s">
+      <c r="S87" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="T85" s="11">
+      <c r="T87" s="11">
         <v>4175143</v>
       </c>
-      <c r="U85" s="11">
+      <c r="U87" s="11">
         <f>4175175</f>
         <v>4175175</v>
       </c>
-      <c r="V85" s="11">
-        <f t="shared" ref="V85" si="49">T85-H85</f>
+      <c r="V87" s="11">
+        <f t="shared" ref="V87" si="66">T87-H87</f>
         <v>80</v>
       </c>
-      <c r="W85" s="11">
-        <f t="shared" ref="W85" si="50">U85-H85</f>
+      <c r="W87" s="11">
+        <f t="shared" ref="W87" si="67">U87-H87</f>
         <v>112</v>
       </c>
-      <c r="X85" s="11" t="s">
+      <c r="X87" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="Y85" s="11" t="s">
+      <c r="Y87" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Z85" s="11"/>
-      <c r="AA85" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" s="3" customFormat="1">
-      <c r="A86" s="10" t="s">
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" s="3" customFormat="1">
+      <c r="A88" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B88" s="11">
         <v>4175107</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D88" s="11">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E86" s="11">
-        <v>0</v>
-      </c>
-      <c r="F86" s="11">
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="7"/>
         <v>4175107</v>
       </c>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11">
+      <c r="G88" s="11"/>
+      <c r="H88" s="11">
         <v>4175063</v>
       </c>
-      <c r="I86" s="11">
-        <f>H86+160-1</f>
+      <c r="I88" s="11">
+        <f>H88+160-1</f>
         <v>4175222</v>
       </c>
-      <c r="J86" s="11" t="str">
-        <f t="shared" si="47"/>
+      <c r="J88" s="11" t="str">
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
-      <c r="K86" s="11" t="s">
+      <c r="K88" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="L86" s="11" t="s">
+      <c r="L88" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="M86" s="11">
+      <c r="M88" s="11">
         <v>4175107</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N88" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="O86" s="11" t="s">
+      <c r="O88" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="P86" s="11">
-        <f>Q86-20</f>
+      <c r="P88" s="11">
+        <f>Q88-20</f>
         <v>4175087</v>
       </c>
-      <c r="Q86" s="11">
+      <c r="Q88" s="11">
         <v>4175107</v>
       </c>
-      <c r="R86" s="11" t="s">
+      <c r="R88" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="S86" s="11" t="s">
+      <c r="S88" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="T86" s="11">
+      <c r="T88" s="11">
         <v>4175105</v>
       </c>
-      <c r="U86" s="11">
-        <f>T86+84</f>
+      <c r="U88" s="11">
+        <f>T88+84</f>
         <v>4175189</v>
       </c>
-      <c r="V86" s="11">
-        <f>T86-H86</f>
+      <c r="V88" s="11">
+        <f t="shared" ref="V88:V95" si="68">T88-H88</f>
         <v>42</v>
       </c>
-      <c r="W86" s="11">
-        <f>U86-H86</f>
+      <c r="W88" s="11">
+        <f t="shared" ref="W88:W95" si="69">U88-H88</f>
         <v>126</v>
       </c>
-      <c r="X86" s="11" t="s">
+      <c r="X88" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Y86" s="11" t="s">
+      <c r="Y88" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="Z86" s="11"/>
-      <c r="AA86" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27">
-      <c r="A87" s="26" t="s">
+      <c r="Z88" s="11"/>
+      <c r="AA88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="A89" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B89" s="9">
         <v>4621716</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D89" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87" s="9">
+      <c r="E89" s="9">
+        <v>0</v>
+      </c>
+      <c r="F89" s="9">
         <f t="shared" si="7"/>
         <v>4621716</v>
       </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9">
-        <f>F87</f>
-        <v>4621716</v>
-      </c>
-      <c r="I87" s="9">
-        <f>H87+D87*160</f>
-        <v>4621876</v>
-      </c>
-      <c r="J87" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
-      </c>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="9"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-      <c r="U87" s="9"/>
-      <c r="V87" s="11">
-        <f>T87-H87</f>
-        <v>-4621716</v>
-      </c>
-      <c r="W87" s="11">
-        <f>U87-H87</f>
-        <v>-4621716</v>
-      </c>
-      <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
-      <c r="Z87" s="9"/>
-      <c r="AA87" s="9"/>
-    </row>
-    <row r="88" spans="1:27">
-      <c r="A88" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" s="9">
-        <v>4370616</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="9">
-        <f t="shared" ref="D88:D139" si="51">IF(C88="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
-        <f t="shared" ref="F88:F139" si="52">B88+D88*E88</f>
-        <v>4370616</v>
-      </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9">
-        <f t="shared" ref="H88:H139" si="53">F88</f>
-        <v>4370616</v>
-      </c>
-      <c r="I88" s="9">
-        <f t="shared" ref="I88:I139" si="54">H88+D88*160</f>
-        <v>4370776</v>
-      </c>
-      <c r="J88" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
-      </c>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="9"/>
-      <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
-      <c r="U88" s="9"/>
-      <c r="V88" s="11">
-        <f>T88-H88</f>
-        <v>-4370616</v>
-      </c>
-      <c r="W88" s="11">
-        <f>U88-H88</f>
-        <v>-4370616</v>
-      </c>
-      <c r="X88" s="9"/>
-      <c r="Y88" s="9"/>
-      <c r="Z88" s="9"/>
-      <c r="AA88" s="9"/>
-    </row>
-    <row r="89" spans="1:27">
-      <c r="A89" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" s="9">
-        <v>4472553</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="E89" s="9">
-        <v>0</v>
-      </c>
-      <c r="F89" s="9">
-        <f t="shared" si="52"/>
-        <v>4472553</v>
-      </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9">
-        <f t="shared" si="53"/>
-        <v>4472553</v>
+        <f>F89</f>
+        <v>4621716</v>
       </c>
       <c r="I89" s="9">
-        <f t="shared" si="54"/>
-        <v>4472393</v>
+        <f>H89+D89*160</f>
+        <v>4621876</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -9829,12 +9982,12 @@
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
       <c r="V89" s="11">
-        <f>T89-H89</f>
-        <v>-4472553</v>
+        <f t="shared" si="68"/>
+        <v>-4621716</v>
       </c>
       <c r="W89" s="11">
-        <f>U89-H89</f>
-        <v>-4472553</v>
+        <f t="shared" si="69"/>
+        <v>-4621716</v>
       </c>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
@@ -9843,36 +9996,36 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" s="26" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="B90" s="9">
-        <v>4178354</v>
+        <v>4370616</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D90" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="D90:D141" si="70">IF(C90="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E90" s="9">
         <v>0</v>
       </c>
       <c r="F90" s="9">
-        <f t="shared" si="52"/>
-        <v>4178354</v>
+        <f t="shared" ref="F90:F141" si="71">B90+D90*E90</f>
+        <v>4370616</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9">
-        <f t="shared" si="53"/>
-        <v>4178354</v>
+        <f t="shared" ref="H90:H141" si="72">F90</f>
+        <v>4370616</v>
       </c>
       <c r="I90" s="9">
-        <f t="shared" si="54"/>
-        <v>4178514</v>
+        <f t="shared" ref="I90:I141" si="73">H90+D90*160</f>
+        <v>4370776</v>
       </c>
       <c r="J90" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K90" s="9"/>
@@ -9887,12 +10040,12 @@
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
       <c r="V90" s="11">
-        <f>T90-H90</f>
-        <v>-4178354</v>
+        <f t="shared" si="68"/>
+        <v>-4370616</v>
       </c>
       <c r="W90" s="11">
-        <f>U90-H90</f>
-        <v>-4178354</v>
+        <f t="shared" si="69"/>
+        <v>-4370616</v>
       </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
@@ -9901,37 +10054,37 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B91" s="9">
-        <v>2042294</v>
+        <v>4472553</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D91" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E91" s="9">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F91" s="9">
-        <f t="shared" si="52"/>
-        <v>2042280</v>
+        <f t="shared" si="71"/>
+        <v>4472553</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9">
-        <f t="shared" si="53"/>
-        <v>2042280</v>
+        <f t="shared" si="72"/>
+        <v>4472553</v>
       </c>
       <c r="I91" s="9">
-        <f t="shared" si="54"/>
-        <v>2042440</v>
+        <f t="shared" si="73"/>
+        <v>4472393</v>
       </c>
       <c r="J91" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
@@ -9945,12 +10098,12 @@
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
       <c r="V91" s="11">
-        <f>T91-H91</f>
-        <v>-2042280</v>
+        <f t="shared" si="68"/>
+        <v>-4472553</v>
       </c>
       <c r="W91" s="11">
-        <f>U91-H91</f>
-        <v>-2042280</v>
+        <f t="shared" si="69"/>
+        <v>-4472553</v>
       </c>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
@@ -9959,37 +10112,37 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B92" s="9">
-        <v>3922525</v>
+        <v>4178354</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D92" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E92" s="9">
         <v>0</v>
       </c>
       <c r="F92" s="9">
-        <f t="shared" si="52"/>
-        <v>3922525</v>
+        <f t="shared" si="71"/>
+        <v>4178354</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9">
-        <f t="shared" si="53"/>
-        <v>3922525</v>
+        <f t="shared" si="72"/>
+        <v>4178354</v>
       </c>
       <c r="I92" s="9">
-        <f t="shared" si="54"/>
-        <v>3922365</v>
+        <f t="shared" si="73"/>
+        <v>4178514</v>
       </c>
       <c r="J92" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -10003,12 +10156,12 @@
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
       <c r="V92" s="11">
-        <f>T92-H92</f>
-        <v>-3922525</v>
+        <f t="shared" si="68"/>
+        <v>-4178354</v>
       </c>
       <c r="W92" s="11">
-        <f>U92-H92</f>
-        <v>-3922525</v>
+        <f t="shared" si="69"/>
+        <v>-4178354</v>
       </c>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
@@ -10017,37 +10170,37 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B93" s="9">
-        <v>1114213</v>
+        <v>2042294</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D93" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E93" s="9">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F93" s="9">
-        <f t="shared" si="52"/>
-        <v>1114213</v>
+        <f t="shared" si="71"/>
+        <v>2042280</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9">
-        <f t="shared" si="53"/>
-        <v>1114213</v>
+        <f t="shared" si="72"/>
+        <v>2042280</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" si="54"/>
-        <v>1114053</v>
+        <f t="shared" si="73"/>
+        <v>2042440</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
@@ -10061,12 +10214,12 @@
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
       <c r="V93" s="11">
-        <f>T93-H93</f>
-        <v>-1114213</v>
+        <f t="shared" si="68"/>
+        <v>-2042280</v>
       </c>
       <c r="W93" s="11">
-        <f>U93-H93</f>
-        <v>-1114213</v>
+        <f t="shared" si="69"/>
+        <v>-2042280</v>
       </c>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
@@ -10075,36 +10228,36 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B94" s="9">
-        <v>2644913</v>
+        <v>3922525</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D94" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="9">
-        <f t="shared" si="52"/>
-        <v>2644913</v>
+        <f t="shared" si="71"/>
+        <v>3922525</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9">
-        <f t="shared" si="53"/>
-        <v>2644913</v>
+        <f t="shared" si="72"/>
+        <v>3922525</v>
       </c>
       <c r="I94" s="9">
-        <f t="shared" si="54"/>
-        <v>2644753</v>
+        <f t="shared" si="73"/>
+        <v>3922365</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K94" s="9"/>
@@ -10119,12 +10272,12 @@
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
       <c r="V94" s="11">
-        <f t="shared" ref="V94:V103" si="55">T94-H94</f>
-        <v>-2644913</v>
+        <f t="shared" si="68"/>
+        <v>-3922525</v>
       </c>
       <c r="W94" s="11">
-        <f t="shared" ref="W94:W103" si="56">U94-H94</f>
-        <v>-2644913</v>
+        <f t="shared" si="69"/>
+        <v>-3922525</v>
       </c>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
@@ -10133,37 +10286,37 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" s="26" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B95" s="9">
-        <v>148</v>
+        <v>1114213</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D95" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E95" s="9">
         <v>0</v>
       </c>
       <c r="F95" s="9">
-        <f t="shared" si="52"/>
-        <v>148</v>
+        <f t="shared" si="71"/>
+        <v>1114213</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9">
-        <f t="shared" si="53"/>
-        <v>148</v>
+        <f t="shared" si="72"/>
+        <v>1114213</v>
       </c>
       <c r="I95" s="9">
-        <f t="shared" si="54"/>
-        <v>308</v>
+        <f t="shared" si="73"/>
+        <v>1114053</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -10177,12 +10330,12 @@
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
       <c r="V95" s="11">
-        <f t="shared" si="55"/>
-        <v>-148</v>
+        <f t="shared" si="68"/>
+        <v>-1114213</v>
       </c>
       <c r="W95" s="11">
-        <f t="shared" si="56"/>
-        <v>-148</v>
+        <f t="shared" si="69"/>
+        <v>-1114213</v>
       </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
@@ -10191,37 +10344,37 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" s="26" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B96" s="9">
-        <v>454993</v>
+        <v>2644913</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D96" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E96" s="9">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F96" s="9">
-        <f t="shared" si="52"/>
-        <v>454864</v>
+        <f t="shared" si="71"/>
+        <v>2644913</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9">
-        <f t="shared" si="53"/>
-        <v>454864</v>
+        <f t="shared" si="72"/>
+        <v>2644913</v>
       </c>
       <c r="I96" s="9">
-        <f t="shared" si="54"/>
-        <v>455024</v>
+        <f t="shared" si="73"/>
+        <v>2644753</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -10235,12 +10388,12 @@
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
       <c r="V96" s="11">
-        <f t="shared" si="55"/>
-        <v>-454864</v>
+        <f t="shared" ref="V96:V105" si="74">T96-H96</f>
+        <v>-2644913</v>
       </c>
       <c r="W96" s="11">
-        <f t="shared" si="56"/>
-        <v>-454864</v>
+        <f t="shared" ref="W96:W105" si="75">U96-H96</f>
+        <v>-2644913</v>
       </c>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
@@ -10249,36 +10402,36 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" s="26" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="B97" s="9">
-        <v>189712</v>
+        <v>148</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D97" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="E97" s="9">
         <v>0</v>
       </c>
       <c r="F97" s="9">
-        <f t="shared" si="52"/>
-        <v>189712</v>
+        <f t="shared" si="71"/>
+        <v>148</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9">
-        <f t="shared" si="53"/>
-        <v>189712</v>
+        <f t="shared" si="72"/>
+        <v>148</v>
       </c>
       <c r="I97" s="9">
-        <f t="shared" si="54"/>
-        <v>189872</v>
+        <f t="shared" si="73"/>
+        <v>308</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K97" s="9"/>
@@ -10293,12 +10446,12 @@
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
       <c r="V97" s="11">
-        <f t="shared" si="55"/>
-        <v>-189712</v>
+        <f t="shared" si="74"/>
+        <v>-148</v>
       </c>
       <c r="W97" s="11">
-        <f t="shared" si="56"/>
-        <v>-189712</v>
+        <f t="shared" si="75"/>
+        <v>-148</v>
       </c>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
@@ -10307,36 +10460,36 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" s="26" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B98" s="9">
-        <v>3948058</v>
+        <v>454993</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D98" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="E98" s="9">
-        <v>-28</v>
+        <v>-129</v>
       </c>
       <c r="F98" s="9">
-        <f t="shared" si="52"/>
-        <v>3948030</v>
+        <f t="shared" si="71"/>
+        <v>454864</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9">
-        <f t="shared" si="53"/>
-        <v>3948030</v>
+        <f t="shared" si="72"/>
+        <v>454864</v>
       </c>
       <c r="I98" s="9">
-        <f t="shared" si="54"/>
-        <v>3948190</v>
+        <f t="shared" si="73"/>
+        <v>455024</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K98" s="9"/>
@@ -10351,12 +10504,12 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
       <c r="V98" s="11">
-        <f t="shared" si="55"/>
-        <v>-3948030</v>
+        <f t="shared" si="74"/>
+        <v>-454864</v>
       </c>
       <c r="W98" s="11">
-        <f t="shared" si="56"/>
-        <v>-3948030</v>
+        <f t="shared" si="75"/>
+        <v>-454864</v>
       </c>
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
@@ -10365,37 +10518,37 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" s="26" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B99" s="9">
-        <v>911076</v>
+        <v>189712</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D99" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E99" s="9">
         <v>0</v>
       </c>
       <c r="F99" s="9">
-        <f t="shared" si="52"/>
-        <v>911076</v>
+        <f t="shared" si="71"/>
+        <v>189712</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9">
-        <f t="shared" si="53"/>
-        <v>911076</v>
+        <f t="shared" si="72"/>
+        <v>189712</v>
       </c>
       <c r="I99" s="9">
-        <f t="shared" si="54"/>
-        <v>910916</v>
+        <f t="shared" si="73"/>
+        <v>189872</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -10409,12 +10562,12 @@
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
       <c r="V99" s="11">
-        <f t="shared" si="55"/>
-        <v>-911076</v>
+        <f t="shared" si="74"/>
+        <v>-189712</v>
       </c>
       <c r="W99" s="11">
-        <f t="shared" si="56"/>
-        <v>-911076</v>
+        <f t="shared" si="75"/>
+        <v>-189712</v>
       </c>
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
@@ -10423,37 +10576,37 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100" s="9">
-        <v>1655186</v>
+        <v>3948058</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D100" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E100" s="9">
-        <v>-45</v>
+        <v>-28</v>
       </c>
       <c r="F100" s="9">
-        <f t="shared" si="52"/>
-        <v>1655231</v>
+        <f t="shared" si="71"/>
+        <v>3948030</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9">
-        <f t="shared" si="53"/>
-        <v>1655231</v>
+        <f t="shared" si="72"/>
+        <v>3948030</v>
       </c>
       <c r="I100" s="9">
-        <f t="shared" si="54"/>
-        <v>1655071</v>
+        <f t="shared" si="73"/>
+        <v>3948190</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -10467,12 +10620,12 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
       <c r="V100" s="11">
-        <f t="shared" si="55"/>
-        <v>-1655231</v>
+        <f t="shared" si="74"/>
+        <v>-3948030</v>
       </c>
       <c r="W100" s="11">
-        <f t="shared" si="56"/>
-        <v>-1655231</v>
+        <f t="shared" si="75"/>
+        <v>-3948030</v>
       </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
@@ -10481,36 +10634,36 @@
     </row>
     <row r="101" spans="1:27">
       <c r="A101" s="26" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B101" s="9">
-        <v>4390638</v>
+        <v>911076</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D101" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E101" s="9">
         <v>0</v>
       </c>
       <c r="F101" s="9">
-        <f t="shared" si="52"/>
-        <v>4390638</v>
+        <f t="shared" si="71"/>
+        <v>911076</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9">
-        <f t="shared" si="53"/>
-        <v>4390638</v>
+        <f t="shared" si="72"/>
+        <v>911076</v>
       </c>
       <c r="I101" s="9">
-        <f t="shared" si="54"/>
-        <v>4390478</v>
+        <f t="shared" si="73"/>
+        <v>910916</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K101" s="9"/>
@@ -10525,12 +10678,12 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
       <c r="V101" s="11">
-        <f t="shared" si="55"/>
-        <v>-4390638</v>
+        <f t="shared" si="74"/>
+        <v>-911076</v>
       </c>
       <c r="W101" s="11">
-        <f t="shared" si="56"/>
-        <v>-4390638</v>
+        <f t="shared" si="75"/>
+        <v>-911076</v>
       </c>
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
@@ -10539,36 +10692,36 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" s="26" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B102" s="9">
-        <v>4640508</v>
+        <v>1655186</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D102" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E102" s="9">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F102" s="9">
-        <f t="shared" si="52"/>
-        <v>4640508</v>
+        <f t="shared" si="71"/>
+        <v>1655231</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9">
-        <f t="shared" si="53"/>
-        <v>4640508</v>
+        <f t="shared" si="72"/>
+        <v>1655231</v>
       </c>
       <c r="I102" s="9">
-        <f t="shared" si="54"/>
-        <v>4640348</v>
+        <f t="shared" si="73"/>
+        <v>1655071</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K102" s="9"/>
@@ -10583,12 +10736,12 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
       <c r="V102" s="11">
-        <f t="shared" si="55"/>
-        <v>-4640508</v>
+        <f t="shared" si="74"/>
+        <v>-1655231</v>
       </c>
       <c r="W102" s="11">
-        <f t="shared" si="56"/>
-        <v>-4640508</v>
+        <f t="shared" si="75"/>
+        <v>-1655231</v>
       </c>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
@@ -10597,36 +10750,36 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" s="26" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B103" s="9">
-        <v>1972716</v>
+        <v>4390638</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D103" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E103" s="9">
         <v>0</v>
       </c>
       <c r="F103" s="9">
-        <f t="shared" si="52"/>
-        <v>1972716</v>
+        <f t="shared" si="71"/>
+        <v>4390638</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9">
-        <f t="shared" si="53"/>
-        <v>1972716</v>
+        <f t="shared" si="72"/>
+        <v>4390638</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" si="54"/>
-        <v>1972556</v>
+        <f t="shared" si="73"/>
+        <v>4390478</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K103" s="9"/>
@@ -10641,325 +10794,337 @@
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
       <c r="V103" s="11">
-        <f t="shared" si="55"/>
-        <v>-1972716</v>
+        <f t="shared" si="74"/>
+        <v>-4390638</v>
       </c>
       <c r="W103" s="11">
-        <f t="shared" si="56"/>
-        <v>-1972716</v>
+        <f t="shared" si="75"/>
+        <v>-4390638</v>
       </c>
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
     </row>
-    <row r="104" spans="1:27" s="3" customFormat="1" ht="17">
-      <c r="A104" s="10" t="s">
+    <row r="104" spans="1:27">
+      <c r="A104" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="9">
+        <v>4640508</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="9">
+        <f t="shared" si="70"/>
+        <v>-1</v>
+      </c>
+      <c r="E104" s="9">
+        <v>0</v>
+      </c>
+      <c r="F104" s="9">
+        <f t="shared" si="71"/>
+        <v>4640508</v>
+      </c>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9">
+        <f t="shared" si="72"/>
+        <v>4640508</v>
+      </c>
+      <c r="I104" s="9">
+        <f t="shared" si="73"/>
+        <v>4640348</v>
+      </c>
+      <c r="J104" s="9" t="str">
+        <f t="shared" si="64"/>
+        <v>fwd</v>
+      </c>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="11">
+        <f t="shared" si="74"/>
+        <v>-4640508</v>
+      </c>
+      <c r="W104" s="11">
+        <f t="shared" si="75"/>
+        <v>-4640508</v>
+      </c>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="9"/>
+      <c r="AA104" s="9"/>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="A105" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="9">
+        <v>1972716</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" s="9">
+        <f t="shared" si="70"/>
+        <v>-1</v>
+      </c>
+      <c r="E105" s="9">
+        <v>0</v>
+      </c>
+      <c r="F105" s="9">
+        <f t="shared" si="71"/>
+        <v>1972716</v>
+      </c>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9">
+        <f t="shared" si="72"/>
+        <v>1972716</v>
+      </c>
+      <c r="I105" s="9">
+        <f t="shared" si="73"/>
+        <v>1972556</v>
+      </c>
+      <c r="J105" s="9" t="str">
+        <f t="shared" si="64"/>
+        <v>fwd</v>
+      </c>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="11">
+        <f t="shared" si="74"/>
+        <v>-1972716</v>
+      </c>
+      <c r="W105" s="11">
+        <f t="shared" si="75"/>
+        <v>-1972716</v>
+      </c>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AA105" s="9"/>
+    </row>
+    <row r="106" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A106" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B104" s="11">
+      <c r="B106" s="11">
         <v>652172</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C106" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="11">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="E104" s="11">
-        <v>0</v>
-      </c>
-      <c r="F104" s="11">
-        <f t="shared" ref="F104" si="57">B104+D104*E104</f>
+      <c r="D106" s="11">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="11">
+        <v>0</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" ref="F106" si="76">B106+D106*E106</f>
         <v>652172</v>
       </c>
-      <c r="G104" s="11"/>
-      <c r="H104" s="27">
+      <c r="G106" s="11"/>
+      <c r="H106" s="27">
         <v>652058</v>
       </c>
-      <c r="I104" s="11">
-        <f>H104+D104*160-1</f>
+      <c r="I106" s="11">
+        <f>H106+D106*160-1</f>
         <v>652217</v>
       </c>
-      <c r="J104" s="11" t="str">
-        <f t="shared" si="47"/>
+      <c r="J106" s="11" t="str">
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
-      <c r="K104" s="11" t="s">
+      <c r="K106" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="L104" s="12" t="s">
+      <c r="L106" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="M104" s="11">
+      <c r="M106" s="11">
         <v>652172</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="N106" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O106" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="P104" s="11">
+      <c r="P106" s="11">
         <v>652193</v>
       </c>
-      <c r="Q104" s="11">
+      <c r="Q106" s="11">
         <v>652199</v>
       </c>
-      <c r="R104" s="11" t="s">
+      <c r="R106" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="S104" s="11" t="s">
+      <c r="S106" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="T104" s="27">
-        <f>130+H104</f>
+      <c r="T106" s="27">
+        <f>130+H106</f>
         <v>652188</v>
       </c>
-      <c r="U104" s="27">
-        <f>T104+30</f>
+      <c r="U106" s="27">
+        <f>T106+30</f>
         <v>652218</v>
       </c>
-      <c r="V104" s="11">
+      <c r="V106" s="11">
         <v>130</v>
       </c>
-      <c r="W104" s="11">
+      <c r="W106" s="11">
         <v>160</v>
       </c>
-      <c r="X104" s="11" t="s">
+      <c r="X106" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="Y104" s="11" t="s">
+      <c r="Y106" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Z104" s="11"/>
-      <c r="AA104" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" s="3" customFormat="1" ht="17">
-      <c r="A105" s="10" t="s">
+      <c r="Z106" s="11"/>
+      <c r="AA106" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A107" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B105" s="11">
+      <c r="B107" s="11">
         <v>652172</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C107" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="11">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="E105" s="11">
-        <v>0</v>
-      </c>
-      <c r="F105" s="11">
-        <f t="shared" si="52"/>
+      <c r="D107" s="11">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="11">
+        <v>0</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="71"/>
         <v>652172</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="27">
+      <c r="G107" s="11"/>
+      <c r="H107" s="27">
         <v>652058</v>
       </c>
-      <c r="I105" s="11">
-        <f>H105+D105*160-1</f>
+      <c r="I107" s="11">
+        <f>H107+D107*160-1</f>
         <v>652217</v>
       </c>
-      <c r="J105" s="11" t="str">
-        <f t="shared" si="47"/>
+      <c r="J107" s="11" t="str">
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
-      <c r="K105" s="11" t="s">
+      <c r="K107" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="L105" s="12" t="s">
+      <c r="L107" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="M105" s="11">
+      <c r="M107" s="11">
         <v>652172</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="N107" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O107" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="P105" s="11">
+      <c r="P107" s="11">
         <v>652118</v>
       </c>
-      <c r="Q105" s="11">
+      <c r="Q107" s="11">
         <v>652140</v>
       </c>
-      <c r="R105" s="11" t="s">
+      <c r="R107" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="S105" s="11" t="s">
+      <c r="S107" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T105" s="27">
-        <f>60+H105</f>
+      <c r="T107" s="27">
+        <f>60+H107</f>
         <v>652118</v>
       </c>
-      <c r="U105" s="27">
-        <f>T105+25</f>
+      <c r="U107" s="27">
+        <f>T107+25</f>
         <v>652143</v>
       </c>
-      <c r="V105" s="11">
+      <c r="V107" s="11">
         <v>60</v>
       </c>
-      <c r="W105" s="11">
+      <c r="W107" s="11">
         <v>85</v>
       </c>
-      <c r="X105" s="11" t="s">
+      <c r="X107" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="Y105" s="11" t="s">
+      <c r="Y107" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Z105" s="11"/>
-      <c r="AA105" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27">
-      <c r="A106" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" s="9">
-        <v>70075</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D106" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="E106" s="9">
-        <v>0</v>
-      </c>
-      <c r="F106" s="9">
-        <f t="shared" si="52"/>
-        <v>70075</v>
-      </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9">
-        <f t="shared" si="53"/>
-        <v>70075</v>
-      </c>
-      <c r="I106" s="9">
-        <f t="shared" si="54"/>
-        <v>69915</v>
-      </c>
-      <c r="J106" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
-      </c>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="9"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
-      <c r="U106" s="9"/>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
-      <c r="X106" s="9"/>
-      <c r="Y106" s="9"/>
-      <c r="Z106" s="9"/>
-      <c r="AA106" s="9"/>
-    </row>
-    <row r="107" spans="1:27">
-      <c r="A107" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B107" s="9">
-        <v>70241</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="E107" s="9">
-        <v>0</v>
-      </c>
-      <c r="F107" s="9">
-        <f t="shared" si="52"/>
-        <v>70241</v>
-      </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9">
-        <f t="shared" si="53"/>
-        <v>70241</v>
-      </c>
-      <c r="I107" s="9">
-        <f t="shared" si="54"/>
-        <v>70401</v>
-      </c>
-      <c r="J107" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
-      </c>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="9"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="9"/>
-      <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
-      <c r="X107" s="9"/>
-      <c r="Y107" s="9"/>
-      <c r="Z107" s="9"/>
-      <c r="AA107" s="9"/>
+      <c r="Z107" s="11"/>
+      <c r="AA107" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:27">
       <c r="A108" s="26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B108" s="9">
-        <v>3731069</v>
+        <v>70075</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E108" s="9">
         <v>0</v>
       </c>
       <c r="F108" s="9">
-        <f t="shared" si="52"/>
-        <v>3731069</v>
+        <f t="shared" si="71"/>
+        <v>70075</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9">
-        <f t="shared" si="53"/>
-        <v>3731069</v>
+        <f t="shared" si="72"/>
+        <v>70075</v>
       </c>
       <c r="I108" s="9">
-        <f t="shared" si="54"/>
-        <v>3731229</v>
+        <f t="shared" si="73"/>
+        <v>69915</v>
       </c>
       <c r="J108" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -10981,37 +11146,37 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" s="26" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B109" s="9">
-        <v>3730807</v>
+        <v>70241</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D109" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E109" s="9">
         <v>0</v>
       </c>
       <c r="F109" s="9">
-        <f t="shared" si="52"/>
-        <v>3730807</v>
+        <f t="shared" si="71"/>
+        <v>70241</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9">
-        <f t="shared" si="53"/>
-        <v>3730807</v>
+        <f t="shared" si="72"/>
+        <v>70241</v>
       </c>
       <c r="I109" s="9">
-        <f t="shared" si="54"/>
-        <v>3730647</v>
+        <f t="shared" si="73"/>
+        <v>70401</v>
       </c>
       <c r="J109" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -11033,36 +11198,36 @@
     </row>
     <row r="110" spans="1:27">
       <c r="A110" s="26" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="B110" s="9">
-        <v>1647934</v>
+        <v>3731069</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D110" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="E110" s="9">
         <v>0</v>
       </c>
       <c r="F110" s="9">
-        <f t="shared" si="52"/>
-        <v>1647934</v>
+        <f t="shared" si="71"/>
+        <v>3731069</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9">
-        <f t="shared" si="53"/>
-        <v>1647934</v>
+        <f t="shared" si="72"/>
+        <v>3731069</v>
       </c>
       <c r="I110" s="9">
-        <f t="shared" si="54"/>
-        <v>1648094</v>
+        <f t="shared" si="73"/>
+        <v>3731229</v>
       </c>
       <c r="J110" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K110" s="9"/>
@@ -11085,36 +11250,36 @@
     </row>
     <row r="111" spans="1:27">
       <c r="A111" s="26" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B111" s="9">
-        <v>1647876</v>
+        <v>3730807</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D111" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E111" s="9">
         <v>0</v>
       </c>
       <c r="F111" s="9">
-        <f t="shared" si="52"/>
-        <v>1647876</v>
+        <f t="shared" si="71"/>
+        <v>3730807</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9">
-        <f t="shared" si="53"/>
-        <v>1647876</v>
+        <f t="shared" si="72"/>
+        <v>3730807</v>
       </c>
       <c r="I111" s="9">
-        <f t="shared" si="54"/>
-        <v>1647716</v>
+        <f t="shared" si="73"/>
+        <v>3730647</v>
       </c>
       <c r="J111" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K111" s="9"/>
@@ -11137,36 +11302,36 @@
     </row>
     <row r="112" spans="1:27">
       <c r="A112" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B112" s="9">
-        <v>1649597</v>
+        <v>1647934</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D112" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="E112" s="9">
         <v>0</v>
       </c>
       <c r="F112" s="9">
-        <f t="shared" si="52"/>
-        <v>1649597</v>
+        <f t="shared" si="71"/>
+        <v>1647934</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9">
-        <f t="shared" si="53"/>
-        <v>1649597</v>
+        <f t="shared" si="72"/>
+        <v>1647934</v>
       </c>
       <c r="I112" s="9">
-        <f t="shared" si="54"/>
-        <v>1649757</v>
+        <f t="shared" si="73"/>
+        <v>1648094</v>
       </c>
       <c r="J112" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K112" s="9"/>
@@ -11189,36 +11354,36 @@
     </row>
     <row r="113" spans="1:27">
       <c r="A113" s="26" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B113" s="9">
-        <v>3536707</v>
+        <v>1647876</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D113" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E113" s="9">
         <v>0</v>
       </c>
       <c r="F113" s="9">
-        <f t="shared" si="52"/>
-        <v>3536707</v>
+        <f t="shared" si="71"/>
+        <v>1647876</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9">
-        <f t="shared" si="53"/>
-        <v>3536707</v>
+        <f t="shared" si="72"/>
+        <v>1647876</v>
       </c>
       <c r="I113" s="9">
-        <f t="shared" si="54"/>
-        <v>3536547</v>
+        <f t="shared" si="73"/>
+        <v>1647716</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K113" s="9"/>
@@ -11241,37 +11406,37 @@
     </row>
     <row r="114" spans="1:27">
       <c r="A114" s="26" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B114" s="9">
-        <v>2524910</v>
+        <v>1649597</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D114" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E114" s="9">
         <v>0</v>
       </c>
       <c r="F114" s="9">
-        <f t="shared" si="52"/>
-        <v>2524910</v>
+        <f t="shared" si="71"/>
+        <v>1649597</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9">
-        <f t="shared" si="53"/>
-        <v>2524910</v>
+        <f t="shared" si="72"/>
+        <v>1649597</v>
       </c>
       <c r="I114" s="9">
-        <f t="shared" si="54"/>
-        <v>2524750</v>
+        <f t="shared" si="73"/>
+        <v>1649757</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -11293,37 +11458,37 @@
     </row>
     <row r="115" spans="1:27">
       <c r="A115" s="26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B115" s="9">
-        <v>3957912</v>
+        <v>3536707</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D115" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E115" s="9">
         <v>0</v>
       </c>
       <c r="F115" s="9">
-        <f t="shared" si="52"/>
-        <v>3957912</v>
+        <f t="shared" si="71"/>
+        <v>3536707</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9">
-        <f t="shared" si="53"/>
-        <v>3957912</v>
+        <f t="shared" si="72"/>
+        <v>3536707</v>
       </c>
       <c r="I115" s="9">
-        <f t="shared" si="54"/>
-        <v>3958072</v>
+        <f t="shared" si="73"/>
+        <v>3536547</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -11345,37 +11510,37 @@
     </row>
     <row r="116" spans="1:27">
       <c r="A116" s="26" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B116" s="9">
-        <v>3927129</v>
+        <v>2524910</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D116" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E116" s="9">
         <v>0</v>
       </c>
       <c r="F116" s="9">
-        <f t="shared" si="52"/>
-        <v>3927129</v>
+        <f t="shared" si="71"/>
+        <v>2524910</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9">
-        <f t="shared" si="53"/>
-        <v>3927129</v>
+        <f t="shared" si="72"/>
+        <v>2524910</v>
       </c>
       <c r="I116" s="9">
-        <f t="shared" si="54"/>
-        <v>3927289</v>
+        <f t="shared" si="73"/>
+        <v>2524750</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
@@ -11397,36 +11562,36 @@
     </row>
     <row r="117" spans="1:27">
       <c r="A117" s="26" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B117" s="9">
-        <v>4494597</v>
+        <v>3957912</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D117" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="E117" s="9">
         <v>0</v>
       </c>
       <c r="F117" s="9">
-        <f t="shared" si="52"/>
-        <v>4494597</v>
+        <f t="shared" si="71"/>
+        <v>3957912</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9">
-        <f t="shared" si="53"/>
-        <v>4494597</v>
+        <f t="shared" si="72"/>
+        <v>3957912</v>
       </c>
       <c r="I117" s="9">
-        <f t="shared" si="54"/>
-        <v>4494757</v>
+        <f t="shared" si="73"/>
+        <v>3958072</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K117" s="9"/>
@@ -11449,37 +11614,37 @@
     </row>
     <row r="118" spans="1:27">
       <c r="A118" s="26" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B118" s="9">
-        <v>246533</v>
+        <v>3927129</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D118" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E118" s="9">
         <v>0</v>
       </c>
       <c r="F118" s="9">
-        <f t="shared" si="52"/>
-        <v>246533</v>
+        <f t="shared" si="71"/>
+        <v>3927129</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9">
-        <f t="shared" si="53"/>
-        <v>246533</v>
+        <f t="shared" si="72"/>
+        <v>3927129</v>
       </c>
       <c r="I118" s="9">
-        <f t="shared" si="54"/>
-        <v>246373</v>
+        <f t="shared" si="73"/>
+        <v>3927289</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
@@ -11501,37 +11666,37 @@
     </row>
     <row r="119" spans="1:27">
       <c r="A119" s="26" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="B119" s="9">
-        <v>4591367</v>
+        <v>4494597</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D119" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E119" s="9">
         <v>0</v>
       </c>
       <c r="F119" s="9">
-        <f t="shared" si="52"/>
-        <v>4591367</v>
+        <f t="shared" si="71"/>
+        <v>4494597</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9">
-        <f t="shared" si="53"/>
-        <v>4591367</v>
+        <f t="shared" si="72"/>
+        <v>4494597</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" si="54"/>
-        <v>4591207</v>
+        <f t="shared" si="73"/>
+        <v>4494757</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
@@ -11553,36 +11718,36 @@
     </row>
     <row r="120" spans="1:27">
       <c r="A120" s="26" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B120" s="9">
-        <v>1977302</v>
+        <v>246533</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D120" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E120" s="9">
         <v>0</v>
       </c>
       <c r="F120" s="9">
-        <f t="shared" si="52"/>
-        <v>1977302</v>
+        <f t="shared" si="71"/>
+        <v>246533</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9">
-        <f t="shared" si="53"/>
-        <v>1977302</v>
+        <f t="shared" si="72"/>
+        <v>246533</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="54"/>
-        <v>1977142</v>
+        <f t="shared" si="73"/>
+        <v>246373</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K120" s="9"/>
@@ -11605,37 +11770,37 @@
     </row>
     <row r="121" spans="1:27">
       <c r="A121" s="26" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B121" s="9">
-        <v>933138</v>
+        <v>4591367</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D121" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E121" s="9">
         <v>0</v>
       </c>
       <c r="F121" s="9">
-        <f t="shared" si="52"/>
-        <v>933138</v>
+        <f t="shared" si="71"/>
+        <v>4591367</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9">
-        <f t="shared" si="53"/>
-        <v>933138</v>
+        <f t="shared" si="72"/>
+        <v>4591367</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="54"/>
-        <v>933298</v>
+        <f t="shared" si="73"/>
+        <v>4591207</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
@@ -11657,37 +11822,37 @@
     </row>
     <row r="122" spans="1:27">
       <c r="A122" s="26" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B122" s="9">
-        <v>87969</v>
+        <v>1977302</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D122" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E122" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F122" s="9">
-        <f t="shared" si="52"/>
-        <v>87991</v>
+        <f t="shared" si="71"/>
+        <v>1977302</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9">
-        <f t="shared" si="53"/>
-        <v>87991</v>
+        <f t="shared" si="72"/>
+        <v>1977302</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" si="54"/>
-        <v>88151</v>
+        <f t="shared" si="73"/>
+        <v>1977142</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -11709,36 +11874,36 @@
     </row>
     <row r="123" spans="1:27">
       <c r="A123" s="26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B123" s="9">
-        <v>3997907</v>
+        <v>933138</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D123" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="E123" s="9">
         <v>0</v>
       </c>
       <c r="F123" s="9">
-        <f t="shared" si="52"/>
-        <v>3997907</v>
+        <f t="shared" si="71"/>
+        <v>933138</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9">
-        <f t="shared" si="53"/>
-        <v>3997907</v>
+        <f t="shared" si="72"/>
+        <v>933138</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="54"/>
-        <v>3998067</v>
+        <f t="shared" si="73"/>
+        <v>933298</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K123" s="9"/>
@@ -11761,37 +11926,37 @@
     </row>
     <row r="124" spans="1:27">
       <c r="A124" s="26" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B124" s="9">
-        <v>4338042</v>
+        <v>87969</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D124" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E124" s="9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F124" s="9">
-        <f t="shared" si="52"/>
-        <v>4338042</v>
+        <f t="shared" si="71"/>
+        <v>87991</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9">
-        <f t="shared" si="53"/>
-        <v>4338042</v>
+        <f t="shared" si="72"/>
+        <v>87991</v>
       </c>
       <c r="I124" s="9">
-        <f t="shared" si="54"/>
-        <v>4337882</v>
+        <f t="shared" si="73"/>
+        <v>88151</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -11813,36 +11978,36 @@
     </row>
     <row r="125" spans="1:27">
       <c r="A125" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B125" s="9">
-        <v>1942634</v>
+        <v>3997907</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D125" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="E125" s="9">
         <v>0</v>
       </c>
       <c r="F125" s="9">
-        <f t="shared" si="52"/>
-        <v>1942634</v>
+        <f t="shared" si="71"/>
+        <v>3997907</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9">
-        <f t="shared" si="53"/>
-        <v>1942634</v>
+        <f t="shared" si="72"/>
+        <v>3997907</v>
       </c>
       <c r="I125" s="9">
-        <f t="shared" si="54"/>
-        <v>1942794</v>
+        <f t="shared" si="73"/>
+        <v>3998067</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K125" s="9"/>
@@ -11865,36 +12030,36 @@
     </row>
     <row r="126" spans="1:27">
       <c r="A126" s="26" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B126" s="9">
-        <v>1942661</v>
+        <v>4338042</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D126" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E126" s="9">
         <v>0</v>
       </c>
       <c r="F126" s="9">
-        <f t="shared" si="52"/>
-        <v>1942661</v>
+        <f t="shared" si="71"/>
+        <v>4338042</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9">
-        <f t="shared" si="53"/>
-        <v>1942661</v>
+        <f t="shared" si="72"/>
+        <v>4338042</v>
       </c>
       <c r="I126" s="9">
-        <f t="shared" si="54"/>
-        <v>1942501</v>
+        <f t="shared" si="73"/>
+        <v>4337882</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K126" s="9"/>
@@ -11917,36 +12082,36 @@
     </row>
     <row r="127" spans="1:27">
       <c r="A127" s="26" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B127" s="9">
-        <v>3182433</v>
+        <v>1942634</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D127" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="E127" s="9">
         <v>0</v>
       </c>
       <c r="F127" s="9">
-        <f t="shared" si="52"/>
-        <v>3182433</v>
+        <f t="shared" si="71"/>
+        <v>1942634</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9">
-        <f t="shared" si="53"/>
-        <v>3182433</v>
+        <f t="shared" si="72"/>
+        <v>1942634</v>
       </c>
       <c r="I127" s="9">
-        <f t="shared" si="54"/>
-        <v>3182593</v>
+        <f t="shared" si="73"/>
+        <v>1942794</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K127" s="9"/>
@@ -11969,37 +12134,37 @@
     </row>
     <row r="128" spans="1:27">
       <c r="A128" s="26" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B128" s="9">
-        <v>3637612</v>
+        <v>1942661</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D128" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E128" s="9">
         <v>0</v>
       </c>
       <c r="F128" s="9">
-        <f t="shared" si="52"/>
-        <v>3637612</v>
+        <f t="shared" si="71"/>
+        <v>1942661</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9">
-        <f t="shared" si="53"/>
-        <v>3637612</v>
+        <f t="shared" si="72"/>
+        <v>1942661</v>
       </c>
       <c r="I128" s="9">
-        <f t="shared" si="54"/>
-        <v>3637772</v>
+        <f t="shared" si="73"/>
+        <v>1942501</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -12021,36 +12186,36 @@
     </row>
     <row r="129" spans="1:27">
       <c r="A129" s="26" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B129" s="9">
-        <v>4376509</v>
+        <v>3182433</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D129" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="E129" s="9">
         <v>0</v>
       </c>
       <c r="F129" s="9">
-        <f t="shared" si="52"/>
-        <v>4376509</v>
+        <f t="shared" si="71"/>
+        <v>3182433</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9">
-        <f t="shared" si="53"/>
-        <v>4376509</v>
+        <f t="shared" si="72"/>
+        <v>3182433</v>
       </c>
       <c r="I129" s="9">
-        <f t="shared" si="54"/>
-        <v>4376669</v>
+        <f t="shared" si="73"/>
+        <v>3182593</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>rev</v>
       </c>
       <c r="K129" s="9"/>
@@ -12073,37 +12238,37 @@
     </row>
     <row r="130" spans="1:27">
       <c r="A130" s="26" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="B130" s="9">
-        <v>83735</v>
+        <v>3637612</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D130" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E130" s="9">
         <v>0</v>
       </c>
       <c r="F130" s="9">
-        <f t="shared" si="52"/>
-        <v>83735</v>
+        <f t="shared" si="71"/>
+        <v>3637612</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9">
-        <f t="shared" si="53"/>
-        <v>83735</v>
+        <f t="shared" si="72"/>
+        <v>3637612</v>
       </c>
       <c r="I130" s="9">
-        <f t="shared" si="54"/>
-        <v>83575</v>
+        <f t="shared" si="73"/>
+        <v>3637772</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
@@ -12125,35 +12290,37 @@
     </row>
     <row r="131" spans="1:27">
       <c r="A131" s="26" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="B131" s="9">
-        <v>1645903</v>
+        <v>4376509</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="E131" s="9"/>
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="9">
+        <v>0</v>
+      </c>
       <c r="F131" s="9">
-        <f t="shared" si="52"/>
-        <v>1645903</v>
+        <f t="shared" si="71"/>
+        <v>4376509</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9">
-        <f t="shared" si="53"/>
-        <v>1645903</v>
+        <f t="shared" si="72"/>
+        <v>4376509</v>
       </c>
       <c r="I131" s="9">
-        <f t="shared" si="54"/>
-        <v>1645743</v>
+        <f t="shared" si="73"/>
+        <v>4376669</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
@@ -12175,37 +12342,37 @@
     </row>
     <row r="132" spans="1:27">
       <c r="A132" s="26" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B132" s="9">
-        <v>1619093</v>
+        <v>83735</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D132" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E132" s="9">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F132" s="9">
-        <f t="shared" si="52"/>
-        <v>1619083</v>
+        <f t="shared" si="71"/>
+        <v>83735</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9">
-        <f t="shared" si="53"/>
-        <v>1619083</v>
+        <f t="shared" si="72"/>
+        <v>83735</v>
       </c>
       <c r="I132" s="9">
-        <f t="shared" si="54"/>
-        <v>1619243</v>
+        <f t="shared" si="73"/>
+        <v>83575</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>rev</v>
+        <f t="shared" si="64"/>
+        <v>fwd</v>
       </c>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -12227,36 +12394,34 @@
     </row>
     <row r="133" spans="1:27">
       <c r="A133" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B133" s="9">
-        <v>4326836</v>
+        <v>1645903</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D133" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
-      <c r="E133" s="9">
-        <v>0</v>
-      </c>
+      <c r="E133" s="9"/>
       <c r="F133" s="9">
-        <f t="shared" si="52"/>
-        <v>4326836</v>
+        <f t="shared" si="71"/>
+        <v>1645903</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9">
-        <f t="shared" si="53"/>
-        <v>4326836</v>
+        <f t="shared" si="72"/>
+        <v>1645903</v>
       </c>
       <c r="I133" s="9">
-        <f t="shared" si="54"/>
-        <v>4326676</v>
+        <f t="shared" si="73"/>
+        <v>1645743</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K133" s="9"/>
@@ -12279,37 +12444,37 @@
     </row>
     <row r="134" spans="1:27">
       <c r="A134" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B134" s="9">
-        <v>2032352</v>
+        <v>1619093</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D134" s="9">
-        <f t="shared" si="51"/>
-        <v>-1</v>
+        <f t="shared" si="70"/>
+        <v>1</v>
       </c>
       <c r="E134" s="9">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F134" s="9">
-        <f t="shared" si="52"/>
-        <v>2032352</v>
+        <f t="shared" si="71"/>
+        <v>1619083</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9">
-        <f t="shared" si="53"/>
-        <v>2032352</v>
+        <f t="shared" si="72"/>
+        <v>1619083</v>
       </c>
       <c r="I134" s="9">
-        <f t="shared" si="54"/>
-        <v>2032192</v>
+        <f t="shared" si="73"/>
+        <v>1619243</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="47"/>
-        <v>fwd</v>
+        <f t="shared" si="64"/>
+        <v>rev</v>
       </c>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -12331,36 +12496,36 @@
     </row>
     <row r="135" spans="1:27">
       <c r="A135" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B135" s="9">
-        <v>2949066</v>
+        <v>4326836</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D135" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E135" s="9">
         <v>0</v>
       </c>
       <c r="F135" s="9">
-        <f t="shared" si="52"/>
-        <v>2949066</v>
+        <f t="shared" si="71"/>
+        <v>4326836</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9">
-        <f t="shared" si="53"/>
-        <v>2949066</v>
+        <f t="shared" si="72"/>
+        <v>4326836</v>
       </c>
       <c r="I135" s="9">
-        <f t="shared" si="54"/>
-        <v>2948906</v>
+        <f t="shared" si="73"/>
+        <v>4326676</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K135" s="9"/>
@@ -12383,36 +12548,36 @@
     </row>
     <row r="136" spans="1:27">
       <c r="A136" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B136" s="9">
-        <v>3811175</v>
+        <v>2032352</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D136" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E136" s="9">
         <v>0</v>
       </c>
       <c r="F136" s="9">
-        <f t="shared" si="52"/>
-        <v>3811175</v>
+        <f t="shared" si="71"/>
+        <v>2032352</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9">
-        <f t="shared" si="53"/>
-        <v>3811175</v>
+        <f t="shared" si="72"/>
+        <v>2032352</v>
       </c>
       <c r="I136" s="9">
-        <f t="shared" si="54"/>
-        <v>3811015</v>
+        <f t="shared" si="73"/>
+        <v>2032192</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" ref="J136:J139" si="58">IF(C136="rev", "fwd", IF(C136="fwd", "rev", ""))</f>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K136" s="9"/>
@@ -12435,36 +12600,36 @@
     </row>
     <row r="137" spans="1:27">
       <c r="A137" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B137" s="9">
-        <v>919103</v>
+        <v>2949066</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D137" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E137" s="9">
         <v>0</v>
       </c>
       <c r="F137" s="9">
-        <f t="shared" si="52"/>
-        <v>919103</v>
+        <f t="shared" si="71"/>
+        <v>2949066</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9">
-        <f t="shared" si="53"/>
-        <v>919103</v>
+        <f t="shared" si="72"/>
+        <v>2949066</v>
       </c>
       <c r="I137" s="9">
-        <f t="shared" si="54"/>
-        <v>918943</v>
+        <f t="shared" si="73"/>
+        <v>2948906</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>fwd</v>
       </c>
       <c r="K137" s="9"/>
@@ -12487,37 +12652,37 @@
     </row>
     <row r="138" spans="1:27">
       <c r="A138" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B138" s="9">
-        <v>830783</v>
+        <v>3811175</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>-1</v>
       </c>
       <c r="E138" s="9">
         <v>0</v>
       </c>
       <c r="F138" s="9">
-        <f t="shared" si="52"/>
-        <v>830783</v>
+        <f t="shared" si="71"/>
+        <v>3811175</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9">
-        <f t="shared" si="53"/>
-        <v>830783</v>
+        <f t="shared" si="72"/>
+        <v>3811175</v>
       </c>
       <c r="I138" s="9">
-        <f t="shared" si="54"/>
-        <v>830943</v>
+        <f t="shared" si="73"/>
+        <v>3811015</v>
       </c>
       <c r="J138" s="9" t="str">
-        <f t="shared" si="58"/>
-        <v>rev</v>
+        <f t="shared" ref="J138:J141" si="77">IF(C138="rev", "fwd", IF(C138="fwd", "rev", ""))</f>
+        <v>fwd</v>
       </c>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
@@ -12538,32 +12703,38 @@
       <c r="AA138" s="9"/>
     </row>
     <row r="139" spans="1:27">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
+      <c r="A139" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="9">
+        <v>919103</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="D139" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="E139" s="9">
         <v>0</v>
       </c>
       <c r="F139" s="9">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="71"/>
+        <v>919103</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f t="shared" si="72"/>
+        <v>919103</v>
       </c>
       <c r="I139" s="9">
-        <f t="shared" si="54"/>
-        <v>-160</v>
+        <f t="shared" si="73"/>
+        <v>918943</v>
       </c>
       <c r="J139" s="9" t="str">
-        <f t="shared" si="58"/>
-        <v/>
+        <f t="shared" si="77"/>
+        <v>fwd</v>
       </c>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
@@ -12583,11 +12754,109 @@
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
     </row>
+    <row r="140" spans="1:27">
+      <c r="A140" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="9">
+        <v>830783</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D140" s="9">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="E140" s="9">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9">
+        <f t="shared" si="71"/>
+        <v>830783</v>
+      </c>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9">
+        <f t="shared" si="72"/>
+        <v>830783</v>
+      </c>
+      <c r="I140" s="9">
+        <f t="shared" si="73"/>
+        <v>830943</v>
+      </c>
+      <c r="J140" s="9" t="str">
+        <f t="shared" si="77"/>
+        <v>rev</v>
+      </c>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+      <c r="R140" s="9"/>
+      <c r="S140" s="9"/>
+      <c r="T140" s="9"/>
+      <c r="U140" s="9"/>
+      <c r="V140" s="9"/>
+      <c r="W140" s="9"/>
+      <c r="X140" s="9"/>
+      <c r="Y140" s="9"/>
+      <c r="Z140" s="9"/>
+      <c r="AA140" s="9"/>
+    </row>
+    <row r="141" spans="1:27">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9">
+        <f t="shared" si="70"/>
+        <v>-1</v>
+      </c>
+      <c r="E141" s="9">
+        <v>0</v>
+      </c>
+      <c r="F141" s="9">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="I141" s="9">
+        <f t="shared" si="73"/>
+        <v>-160</v>
+      </c>
+      <c r="J141" s="9" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="9"/>
+      <c r="S141" s="9"/>
+      <c r="T141" s="9"/>
+      <c r="U141" s="9"/>
+      <c r="V141" s="9"/>
+      <c r="W141" s="9"/>
+      <c r="X141" s="9"/>
+      <c r="Y141" s="9"/>
+      <c r="Z141" s="9"/>
+      <c r="AA141" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I86 Q29" formula="1"/>
+    <ignoredError sqref="I88 Q29" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F538E3B-80D6-444D-A720-5911707C93A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3445FE4B-9FBA-8349-BB56-737ADAF78323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="333">
   <si>
     <t>Operon</t>
   </si>
@@ -397,9 +397,6 @@
     <t>rev</t>
   </si>
   <si>
-    <t>dnaE_start1</t>
-  </si>
-  <si>
     <t>dnaE_start2</t>
   </si>
   <si>
@@ -1013,6 +1010,33 @@
   </si>
   <si>
     <t>CAGCGAACTCAGGCATACATCAAGCATAGA</t>
+  </si>
+  <si>
+    <t>4,080,299 &lt;- 4,081,228</t>
+  </si>
+  <si>
+    <t>gattcgcgttaatgctgcattcatttgccgcagtggcgttaattgtggttatcatggtgcAtatctacgccgccctttggg</t>
+  </si>
+  <si>
+    <t>CGTGATTATCTGGCGTCCTTATTTTGCGCCTGCTTTCTCAATCCCGGTGATCCGATTCGCGTTAATGCTGCATTCATTTGCCGCAGTGGCGTTAATTGTGGTTATCATGGTGCATATCTACGCCGCCCTTTGGGTGAAAGGCACGATTACCGCCATGGTG</t>
+  </si>
+  <si>
+    <t>ATATCTACGCCGCCCTTTGGGT</t>
+  </si>
+  <si>
+    <t>TTGGGTGAAAGGCACGATTACCGCCA</t>
+  </si>
+  <si>
+    <t>ATTCGCGTTAATGCTGCATTC</t>
+  </si>
+  <si>
+    <t>ATTATCTGGCGTCCTTATTTTGCGCCTGCTTTCTCAATCCC</t>
+  </si>
+  <si>
+    <t>205,126 -&gt; 208,608</t>
+  </si>
+  <si>
+    <t>GGTGTGCCTGGCGTACGTCCGGTGGTTGGCGAAATAGCAGCCAATTCGATAGCTGCGGAAGCACAAATTGCACCAGGTACGGAACTAAAAGCCGTAGATGGTATCGAAACGCCTGATTGGGATGCCGTGCGTTTGCAGTTGGTCGATAAAATTGGCGATG</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1070,7 @@
       <name val="-webkit-standard"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,6 +1149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1138,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1249,6 +1279,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3326,11 +3363,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:AA141"/>
+  <dimension ref="A1:AA144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="157" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3367,32 +3404,32 @@
         <v>104</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>107</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>117</v>
@@ -3401,10 +3438,10 @@
         <v>106</v>
       </c>
       <c r="N1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>112</v>
@@ -3413,7 +3450,7 @@
         <v>111</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>113</v>
@@ -3425,10 +3462,10 @@
         <v>114</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X1" s="9" t="s">
         <v>115</v>
@@ -3437,10 +3474,10 @@
         <v>116</v>
       </c>
       <c r="Z1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA1" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" ht="17">
@@ -3479,10 +3516,10 @@
         <v>fwd</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>109</v>
@@ -3494,16 +3531,16 @@
         <v>109</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T2" s="11">
         <v>4085883</v>
@@ -3520,10 +3557,10 @@
         <v>120</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11">
@@ -3562,14 +3599,14 @@
         <v>4085982</v>
       </c>
       <c r="J3" s="11" t="str">
-        <f t="shared" ref="J3:J73" si="3">IF(C3="rev", "fwd", IF(C3="fwd", "rev", ""))</f>
+        <f t="shared" ref="J3:J76" si="3">IF(C3="rev", "fwd", IF(C3="fwd", "rev", ""))</f>
         <v>fwd</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>109</v>
@@ -3581,16 +3618,16 @@
         <v>109</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T3" s="11">
         <v>4085943</v>
@@ -3607,10 +3644,10 @@
         <v>137</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11">
@@ -3653,10 +3690,10 @@
         <v>fwd</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>109</v>
@@ -3674,10 +3711,10 @@
         <v>4085848</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="T4" s="11">
         <v>4085826</v>
@@ -3694,10 +3731,10 @@
         <v>40</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11">
@@ -3715,14 +3752,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D89" si="6">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D92" si="6">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" ref="F5:F89" si="7">B5+D5*E5</f>
+        <f t="shared" ref="F5:F92" si="7">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="11">
@@ -3740,19 +3777,19 @@
         <v>rev</v>
       </c>
       <c r="K5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="11">
         <v>2928035</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P5" s="11">
         <v>2928004</v>
@@ -3761,10 +3798,10 @@
         <v>2928080</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T5" s="11">
         <v>2928004</v>
@@ -3782,10 +3819,10 @@
         <v>109</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11">
@@ -3828,10 +3865,10 @@
         <v>fwd</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="M6" s="11">
         <v>2185451</v>
@@ -3840,7 +3877,7 @@
         <v>109</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P6" s="11">
         <f>Q6-45</f>
@@ -3850,10 +3887,10 @@
         <v>2185451</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T6" s="11">
         <v>2185430</v>
@@ -3870,10 +3907,10 @@
         <v>80</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11">
@@ -3916,10 +3953,10 @@
         <v>fwd</v>
       </c>
       <c r="K7" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="M7" s="11">
         <v>2185451</v>
@@ -3928,19 +3965,19 @@
         <v>109</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T7" s="11">
         <v>2185487</v>
@@ -3958,10 +3995,10 @@
         <v>97</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11">
@@ -4004,31 +4041,31 @@
         <v>fwd</v>
       </c>
       <c r="K8" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="M8" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="P8" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T8" s="11">
         <v>2033430</v>
@@ -4045,10 +4082,10 @@
         <v>40</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11">
@@ -4091,31 +4128,31 @@
         <v>fwd</v>
       </c>
       <c r="K9" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="M9" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="P9" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T9" s="11">
         <v>2033476</v>
@@ -4132,10 +4169,10 @@
         <v>89</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11">
@@ -4178,31 +4215,31 @@
         <v>fwd</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="M10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="P10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T10" s="11">
         <v>2033494</v>
@@ -4220,10 +4257,10 @@
         <v>101</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11">
@@ -4266,19 +4303,19 @@
         <v>rev</v>
       </c>
       <c r="K11" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="11">
         <v>321511</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P11" s="11">
         <v>321537</v>
@@ -4288,10 +4325,10 @@
         <v>321557</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T11" s="11">
         <f>U11-24</f>
@@ -4309,10 +4346,10 @@
         <v>157</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z11" s="11"/>
       <c r="AA11" s="11">
@@ -4355,19 +4392,19 @@
         <v>rev</v>
       </c>
       <c r="K12" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="M12" s="11">
         <v>321511</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P12" s="11">
         <v>321511</v>
@@ -4377,28 +4414,28 @@
         <v>321531</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11">
@@ -4441,19 +4478,19 @@
         <v>rev</v>
       </c>
       <c r="K13" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="M13" s="11">
         <v>321511</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P13" s="11">
         <v>321484</v>
@@ -4463,10 +4500,10 @@
         <v>321504</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T13" s="11">
         <v>321485</v>
@@ -4484,10 +4521,10 @@
         <v>106</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11">
@@ -4530,19 +4567,19 @@
         <v>fwd</v>
       </c>
       <c r="K14" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="M14" s="11">
         <v>1996897</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="11">
         <v>1996832</v>
@@ -4551,10 +4588,10 @@
         <v>1996868</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="T14" s="11">
         <v>1996830</v>
@@ -4571,10 +4608,10 @@
         <v>37</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11">
@@ -4617,19 +4654,19 @@
         <v>fwd</v>
       </c>
       <c r="K15" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="M15" s="11">
         <v>1996897</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="11">
         <v>1996895</v>
@@ -4638,10 +4675,10 @@
         <v>1996911</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T15" s="11">
         <v>1996903</v>
@@ -4658,10 +4695,10 @@
         <v>102</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11">
@@ -4670,7 +4707,7 @@
     </row>
     <row r="16" spans="1:27" s="3" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="11">
         <v>3155262</v>
@@ -4705,19 +4742,19 @@
         <v>fwd</v>
       </c>
       <c r="K16" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="M16" s="11">
         <v>3155384</v>
       </c>
       <c r="N16" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="P16" s="11">
         <v>3155355</v>
@@ -4726,10 +4763,10 @@
         <v>3155384</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T16" s="11">
         <v>3155336</v>
@@ -4746,10 +4783,10 @@
         <v>147</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11">
@@ -4758,7 +4795,7 @@
     </row>
     <row r="17" spans="1:27" s="3" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="11">
         <v>3155262</v>
@@ -4793,19 +4830,19 @@
         <v>fwd</v>
       </c>
       <c r="K17" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="M17" s="11">
         <v>3155384</v>
       </c>
       <c r="N17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="P17" s="11">
         <v>3155238</v>
@@ -4814,10 +4851,10 @@
         <v>3155261</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T17" s="11">
         <v>3155220</v>
@@ -4834,10 +4871,10 @@
         <v>32</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11">
@@ -4881,19 +4918,19 @@
         <v>fwd</v>
       </c>
       <c r="K18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="M18" s="11">
         <v>3155384</v>
       </c>
       <c r="N18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="P18" s="11">
         <v>3155217</v>
@@ -4902,10 +4939,10 @@
         <v>3155240</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="T18" s="11">
         <v>3155220</v>
@@ -4922,10 +4959,10 @@
         <v>32</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z18" s="13"/>
       <c r="AA18" s="11">
@@ -4934,7 +4971,7 @@
     </row>
     <row r="19" spans="1:27" s="4" customFormat="1" ht="17">
       <c r="A19" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="15">
         <v>3836664</v>
@@ -4968,31 +5005,31 @@
         <v>fwd</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M19" s="15">
         <v>3836664</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T19" s="15">
         <f>U19-10</f>
@@ -5010,10 +5047,10 @@
         <v>120</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y19" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15">
@@ -5022,7 +5059,7 @@
     </row>
     <row r="20" spans="1:27" s="4" customFormat="1" ht="17">
       <c r="A20" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" s="15">
         <v>3836664</v>
@@ -5056,19 +5093,19 @@
         <v>fwd</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M20" s="15">
         <v>3836664</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P20" s="15">
         <f>Q20-20</f>
@@ -5078,28 +5115,28 @@
         <v>3836664</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W20" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y20" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15">
@@ -5142,10 +5179,10 @@
         <v>fwd</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M21" s="18">
         <v>909320</v>
@@ -5154,7 +5191,7 @@
         <v>109</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P21" s="18">
         <v>909300</v>
@@ -5163,10 +5200,10 @@
         <v>909320</v>
       </c>
       <c r="R21" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="S21" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>244</v>
       </c>
       <c r="T21" s="18">
         <v>909290</v>
@@ -5183,10 +5220,10 @@
         <v>34</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y21" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z21" s="18"/>
       <c r="AA21" s="18">
@@ -5229,10 +5266,10 @@
         <v>fwd</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M22" s="18">
         <v>909320</v>
@@ -5241,19 +5278,19 @@
         <v>109</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T22" s="18">
         <v>909400</v>
@@ -5270,10 +5307,10 @@
         <v>150</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y22" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z22" s="18"/>
       <c r="AA22" s="18">
@@ -5316,19 +5353,19 @@
         <v>fwd</v>
       </c>
       <c r="K23" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>250</v>
       </c>
       <c r="M23" s="21">
         <v>3349831</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P23" s="21">
         <v>3350541</v>
@@ -5337,10 +5374,10 @@
         <v>3350555</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T23" s="21">
         <v>3350582</v>
@@ -5358,10 +5395,10 @@
         <v>141</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y23" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21">
@@ -5404,31 +5441,31 @@
         <v>fwd</v>
       </c>
       <c r="K24" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="L24" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>250</v>
       </c>
       <c r="M24" s="21">
         <v>3349831</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R24" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T24" s="21">
         <f>U24-13</f>
@@ -5446,10 +5483,10 @@
         <v>40</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y24" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21">
@@ -5493,31 +5530,31 @@
         <v>rev</v>
       </c>
       <c r="K25" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="L25" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="L25" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="M25" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N25" s="23" t="s">
         <v>109</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R25" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S25" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T25" s="23">
         <v>4269279</v>
@@ -5535,10 +5572,10 @@
         <v>52</v>
       </c>
       <c r="X25" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y25" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z25" s="23"/>
       <c r="AA25" s="23">
@@ -5582,31 +5619,31 @@
         <v>rev</v>
       </c>
       <c r="K26" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="L26" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="L26" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="M26" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>109</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R26" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S26" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T26" s="23">
         <v>4269293</v>
@@ -5624,10 +5661,10 @@
         <v>69</v>
       </c>
       <c r="X26" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y26" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z26" s="23"/>
       <c r="AA26" s="23">
@@ -5671,31 +5708,31 @@
         <v>rev</v>
       </c>
       <c r="K27" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="L27" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="M27" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>109</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q27" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R27" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S27" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T27" s="23">
         <f>U27-10</f>
@@ -5713,10 +5750,10 @@
         <v>119</v>
       </c>
       <c r="X27" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y27" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z27" s="23"/>
       <c r="AA27" s="23">
@@ -5760,19 +5797,19 @@
         <v>rev</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M28" s="25">
         <v>4474096</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O28" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P28" s="25">
         <v>4474064</v>
@@ -5782,10 +5819,10 @@
         <v>4474076</v>
       </c>
       <c r="R28" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S28" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T28" s="25">
         <v>4474060</v>
@@ -5803,10 +5840,10 @@
         <v>96</v>
       </c>
       <c r="X28" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y28" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z28" s="25"/>
       <c r="AA28" s="25">
@@ -5850,19 +5887,19 @@
         <v>rev</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M29" s="25">
         <v>4474096</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O29" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P29" s="9">
         <v>4474077</v>
@@ -5872,10 +5909,10 @@
         <v>4474087</v>
       </c>
       <c r="R29" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S29" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T29" s="25">
         <v>4474075</v>
@@ -5893,10 +5930,10 @@
         <v>106</v>
       </c>
       <c r="X29" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y29" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z29" s="25"/>
       <c r="AA29" s="25">
@@ -5940,19 +5977,19 @@
         <v>rev</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M30" s="25">
         <v>4474096</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O30" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P30" s="25">
         <v>4474096</v>
@@ -5962,10 +5999,10 @@
         <v>4474116</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S30" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T30" s="25">
         <v>4474094</v>
@@ -5974,18 +6011,18 @@
         <v>4474110</v>
       </c>
       <c r="V30" s="25">
-        <f t="shared" ref="V30:V63" si="35">T30-H30</f>
+        <f t="shared" ref="V30:V66" si="35">T30-H30</f>
         <v>112</v>
       </c>
       <c r="W30" s="25">
-        <f t="shared" ref="W30:W63" si="36">U30-H30</f>
+        <f t="shared" ref="W30:W66" si="36">U30-H30</f>
         <v>128</v>
       </c>
       <c r="X30" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y30" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z30" s="25"/>
       <c r="AA30" s="25">
@@ -6028,19 +6065,19 @@
         <v>fwd</v>
       </c>
       <c r="K31" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" s="30" t="s">
         <v>270</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>271</v>
       </c>
       <c r="M31" s="31">
         <v>1523276</v>
       </c>
       <c r="N31" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" s="31" t="s">
         <v>267</v>
-      </c>
-      <c r="O31" s="31" t="s">
-        <v>268</v>
       </c>
       <c r="P31" s="29">
         <f>Q31-20</f>
@@ -6050,10 +6087,10 @@
         <v>1523276</v>
       </c>
       <c r="R31" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S31" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T31" s="29">
         <v>1523258</v>
@@ -6070,10 +6107,10 @@
         <v>48</v>
       </c>
       <c r="X31" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y31" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z31" s="29"/>
       <c r="AA31" s="29">
@@ -6117,19 +6154,19 @@
         <v>rev</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M32" s="33" t="s">
         <v>109</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P32" s="33">
         <v>897947</v>
@@ -6139,10 +6176,10 @@
         <v>897967</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S32" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T32" s="33">
         <v>897915</v>
@@ -6159,10 +6196,10 @@
         <v>117</v>
       </c>
       <c r="X32" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y32" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z32" s="33"/>
       <c r="AA32" s="33">
@@ -6205,31 +6242,31 @@
         <v>fwd</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M33" s="36" t="s">
         <v>109</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T33" s="36">
         <f>U33-23</f>
@@ -6247,10 +6284,10 @@
         <v>120</v>
       </c>
       <c r="X33" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y33" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z33" s="36"/>
       <c r="AA33" s="36">
@@ -6293,19 +6330,19 @@
         <v>fwd</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>109</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P34" s="11">
         <f>Q34-20</f>
@@ -6315,10 +6352,10 @@
         <v>1116709</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T34" s="11">
         <v>1116680</v>
@@ -6336,10 +6373,10 @@
         <v>30</v>
       </c>
       <c r="X34" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y34" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11">
@@ -6383,19 +6420,19 @@
         <v>rev</v>
       </c>
       <c r="K35" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="M35">
         <v>2876544</v>
       </c>
       <c r="N35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P35">
         <v>2876544</v>
@@ -6405,10 +6442,10 @@
         <v>2876565</v>
       </c>
       <c r="R35" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S35" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T35" s="39">
         <v>2876538</v>
@@ -6426,10 +6463,10 @@
         <v>115</v>
       </c>
       <c r="X35" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y35" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z35" s="39"/>
       <c r="AA35" s="39">
@@ -6473,31 +6510,31 @@
         <v>rev</v>
       </c>
       <c r="K36" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="M36">
         <v>2876544</v>
       </c>
       <c r="N36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q36" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R36" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S36" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T36" s="39">
         <f>U36-14</f>
@@ -6515,10 +6552,10 @@
         <v>40</v>
       </c>
       <c r="X36" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y36" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z36" s="39"/>
       <c r="AA36" s="39">
@@ -6562,31 +6599,31 @@
         <v>rev</v>
       </c>
       <c r="K37" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M37" s="42" t="s">
         <v>109</v>
       </c>
       <c r="N37" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O37" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P37" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R37" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S37" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T37" s="42">
         <v>3235879</v>
@@ -6604,10 +6641,10 @@
         <v>98</v>
       </c>
       <c r="X37" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y37" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z37" s="42"/>
       <c r="AA37" s="42">
@@ -6651,31 +6688,31 @@
         <v>rev</v>
       </c>
       <c r="K38" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M38" s="42" t="s">
         <v>109</v>
       </c>
       <c r="N38" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O38" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P38" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q38" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S38" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T38" s="42">
         <v>3235841</v>
@@ -6693,10 +6730,10 @@
         <v>51</v>
       </c>
       <c r="X38" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y38" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z38" s="42"/>
       <c r="AA38" s="42">
@@ -6736,31 +6773,31 @@
         <v>rev</v>
       </c>
       <c r="K39" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M39" s="39" t="s">
         <v>109</v>
       </c>
       <c r="N39" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O39" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P39" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q39" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R39" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S39" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T39" s="39">
         <v>2009750</v>
@@ -6778,10 +6815,10 @@
         <v>98</v>
       </c>
       <c r="X39" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y39" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z39" s="39"/>
       <c r="AA39" s="39">
@@ -6821,31 +6858,31 @@
         <v>rev</v>
       </c>
       <c r="K40" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M40" s="39" t="s">
         <v>109</v>
       </c>
       <c r="N40" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O40" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P40" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q40" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R40" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S40" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T40" s="39">
         <v>2009760</v>
@@ -6863,10 +6900,10 @@
         <v>114</v>
       </c>
       <c r="X40" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y40" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39">
@@ -6896,7 +6933,7 @@
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11">
-        <f t="shared" ref="H41:H86" si="43">F41-44</f>
+        <f t="shared" ref="H41:H89" si="43">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="11">
@@ -6908,19 +6945,19 @@
         <v>fwd</v>
       </c>
       <c r="K41" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="M41" s="3">
         <v>4484273</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="P41" s="3">
         <v>4484251</v>
@@ -6929,10 +6966,10 @@
         <v>4484273</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T41" s="11">
         <v>4484278</v>
@@ -6950,10 +6987,10 @@
         <v>74</v>
       </c>
       <c r="X41" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y41" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z41" s="11"/>
       <c r="AA41" s="11">
@@ -6995,31 +7032,31 @@
         <v>fwd</v>
       </c>
       <c r="K42" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="M42" s="3">
         <v>4484273</v>
       </c>
       <c r="N42" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="P42" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T42" s="11">
         <v>4484349</v>
@@ -7036,10 +7073,10 @@
         <v>156</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y42" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z42" s="11"/>
       <c r="AA42" s="11">
@@ -7079,19 +7116,19 @@
         <v>fwd</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M43" s="45" t="s">
         <v>109</v>
       </c>
       <c r="N43" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O43" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P43" s="45">
         <v>2585566</v>
@@ -7100,10 +7137,10 @@
         <v>2585576</v>
       </c>
       <c r="R43" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S43" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T43" s="45">
         <v>2585580</v>
@@ -7121,10 +7158,10 @@
         <v>66</v>
       </c>
       <c r="X43" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y43" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z43" s="45"/>
       <c r="AA43" s="45">
@@ -7164,31 +7201,31 @@
         <v>fwd</v>
       </c>
       <c r="K44" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M44" s="45" t="s">
         <v>109</v>
       </c>
       <c r="N44" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O44" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P44" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q44" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R44" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S44" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T44" s="45">
         <v>2585640</v>
@@ -7206,10 +7243,10 @@
         <v>139</v>
       </c>
       <c r="X44" s="45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y44" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z44" s="45"/>
       <c r="AA44" s="45">
@@ -7243,7 +7280,7 @@
         <v>63314</v>
       </c>
       <c r="I45" s="11">
-        <f t="shared" ref="I45:I86" si="49">H45+159</f>
+        <f t="shared" ref="I45:I89" si="49">H45+159</f>
         <v>63473</v>
       </c>
       <c r="J45" s="11" t="str">
@@ -7251,19 +7288,19 @@
         <v>fwd</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M45">
         <v>63588</v>
       </c>
       <c r="N45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P45" s="11">
         <v>63338</v>
@@ -7272,28 +7309,28 @@
         <v>63358</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W45" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X45" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y45" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z45" s="11"/>
       <c r="AA45" s="11">
@@ -7335,19 +7372,19 @@
         <v>fwd</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L46" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M46">
         <v>63588</v>
       </c>
       <c r="N46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P46" s="11">
         <v>63435</v>
@@ -7356,10 +7393,10 @@
         <v>63488</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T46" s="11">
         <v>63430</v>
@@ -7377,10 +7414,10 @@
         <v>134</v>
       </c>
       <c r="X46" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y46" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z46" s="11"/>
       <c r="AA46" s="11">
@@ -7422,19 +7459,19 @@
         <v>fwd</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M47">
         <v>2230395</v>
       </c>
       <c r="N47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P47" s="21">
         <v>2230385</v>
@@ -7443,10 +7480,10 @@
         <v>2230395</v>
       </c>
       <c r="R47" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T47" s="21">
         <v>2230387</v>
@@ -7464,10 +7501,10 @@
         <v>69</v>
       </c>
       <c r="X47" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y47" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z47" s="21"/>
       <c r="AA47" s="21">
@@ -7509,31 +7546,31 @@
         <v>fwd</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M48">
         <v>2230395</v>
       </c>
       <c r="N48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P48" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q48" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R48" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S48" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T48" s="21">
         <f>U48-29</f>
@@ -7551,333 +7588,464 @@
         <v>159</v>
       </c>
       <c r="X48" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y48" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z48" s="21"/>
       <c r="AA48" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
-      <c r="A49" s="26" t="s">
+    <row r="49" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A49" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="11">
         <v>4081359</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="11">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="11">
         <v>2</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="11">
         <f t="shared" si="7"/>
         <v>4081357</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9">
-        <f t="shared" si="43"/>
-        <v>4081313</v>
-      </c>
-      <c r="I49" s="9">
+      <c r="G49" s="11"/>
+      <c r="H49" s="11">
+        <f>F49-42</f>
+        <v>4081315</v>
+      </c>
+      <c r="I49" s="11">
         <f t="shared" si="49"/>
-        <v>4081472</v>
-      </c>
-      <c r="J49" s="9" t="str">
+        <v>4081474</v>
+      </c>
+      <c r="J49" s="11" t="str">
         <f t="shared" si="3"/>
         <v>fwd</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
+      <c r="K49" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M49">
+        <v>4081361</v>
+      </c>
+      <c r="N49" t="s">
+        <v>193</v>
+      </c>
+      <c r="O49" t="s">
+        <v>325</v>
+      </c>
+      <c r="P49" s="11">
+        <v>4081340</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>4081361</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T49" s="11">
+        <v>4081320</v>
+      </c>
+      <c r="U49" s="11">
+        <f>T49+25</f>
+        <v>4081345</v>
+      </c>
       <c r="V49" s="11">
         <f t="shared" si="35"/>
-        <v>-4081313</v>
+        <v>5</v>
       </c>
       <c r="W49" s="11">
         <f t="shared" si="36"/>
-        <v>-4081313</v>
-      </c>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-    </row>
-    <row r="50" spans="1:27">
-      <c r="A50" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" s="9">
+        <v>30</v>
+      </c>
+      <c r="X49" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A50" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="11">
+        <v>4081359</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="11">
+        <f t="shared" ref="D50:D51" si="62">IF(C50="fwd",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E50" s="11">
+        <v>2</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" ref="F50:F51" si="63">B50+D50*E50</f>
+        <v>4081357</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11">
+        <f>F50-42</f>
+        <v>4081315</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" ref="I50:I51" si="64">H50+159</f>
+        <v>4081474</v>
+      </c>
+      <c r="J50" s="11" t="str">
+        <f t="shared" ref="J50:J51" si="65">IF(C50="rev", "fwd", IF(C50="fwd", "rev", ""))</f>
+        <v>fwd</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M50">
+        <v>4081361</v>
+      </c>
+      <c r="N50" t="s">
+        <v>193</v>
+      </c>
+      <c r="O50" t="s">
+        <v>325</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="T50" s="11">
+        <v>4081400</v>
+      </c>
+      <c r="U50" s="11">
+        <f>4081420</f>
+        <v>4081420</v>
+      </c>
+      <c r="V50" s="11">
+        <f t="shared" ref="V50:V51" si="66">T50-H50</f>
+        <v>85</v>
+      </c>
+      <c r="W50" s="11">
+        <f t="shared" ref="W50:W51" si="67">U50-H50</f>
+        <v>105</v>
+      </c>
+      <c r="X50" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y50" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A51" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="11">
+        <v>4081359</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="11">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="E51" s="11">
+        <v>2</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="63"/>
+        <v>4081357</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11">
+        <f>F51-42</f>
+        <v>4081315</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="64"/>
+        <v>4081474</v>
+      </c>
+      <c r="J51" s="11" t="str">
+        <f t="shared" si="65"/>
+        <v>fwd</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M51">
+        <v>4081361</v>
+      </c>
+      <c r="N51" t="s">
+        <v>193</v>
+      </c>
+      <c r="O51" t="s">
+        <v>325</v>
+      </c>
+      <c r="P51" s="11">
+        <v>4081340</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>4081361</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="S51" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T51" s="11">
+        <v>4081430</v>
+      </c>
+      <c r="U51" s="11">
+        <f>T51+40</f>
+        <v>4081470</v>
+      </c>
+      <c r="V51" s="11">
+        <f t="shared" si="66"/>
+        <v>115</v>
+      </c>
+      <c r="W51" s="11">
+        <f t="shared" si="67"/>
+        <v>155</v>
+      </c>
+      <c r="X51" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y51" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="50" customFormat="1" ht="17">
+      <c r="A52" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="49">
         <v>197026</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C52" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D52" s="49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9">
+      <c r="E52" s="49">
+        <v>0</v>
+      </c>
+      <c r="F52" s="49">
         <f t="shared" si="7"/>
         <v>197026</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9">
-        <f t="shared" si="43"/>
-        <v>196982</v>
-      </c>
-      <c r="I50" s="9">
+      <c r="G52" s="49"/>
+      <c r="H52" s="49">
+        <v>196912</v>
+      </c>
+      <c r="I52" s="49">
         <f t="shared" si="49"/>
-        <v>197141</v>
-      </c>
-      <c r="J50" s="9" t="str">
+        <v>197071</v>
+      </c>
+      <c r="J52" s="49" t="str">
         <f t="shared" si="3"/>
         <v>rev</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="11">
+      <c r="K52" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M52" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="N52" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="O52" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="P52" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q52" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="R52" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="S52" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="T52" s="49">
+        <v>196917</v>
+      </c>
+      <c r="U52" s="49">
+        <f>T52+31</f>
+        <v>196948</v>
+      </c>
+      <c r="V52" s="49">
         <f t="shared" si="35"/>
-        <v>-196982</v>
-      </c>
-      <c r="W50" s="11">
+        <v>5</v>
+      </c>
+      <c r="W52" s="49">
         <f t="shared" si="36"/>
-        <v>-196982</v>
-      </c>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-    </row>
-    <row r="51" spans="1:27">
-      <c r="A51" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="9">
+        <v>36</v>
+      </c>
+      <c r="X52" s="49"/>
+      <c r="Y52" s="49"/>
+      <c r="Z52" s="49"/>
+      <c r="AA52" s="49"/>
+    </row>
+    <row r="53" spans="1:27" s="50" customFormat="1" ht="17">
+      <c r="A53" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="49">
+        <v>197026</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="49">
+        <f t="shared" ref="D53" si="68">IF(C53="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E53" s="49">
+        <v>0</v>
+      </c>
+      <c r="F53" s="49">
+        <f t="shared" ref="F53" si="69">B53+D53*E53</f>
+        <v>197026</v>
+      </c>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49">
+        <v>196912</v>
+      </c>
+      <c r="I53" s="49">
+        <f t="shared" ref="I53" si="70">H53+159</f>
+        <v>197071</v>
+      </c>
+      <c r="J53" s="49" t="str">
+        <f t="shared" ref="J53" si="71">IF(C53="rev", "fwd", IF(C53="fwd", "rev", ""))</f>
+        <v>rev</v>
+      </c>
+      <c r="K53" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M53" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="N53" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="O53" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="P53" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q53" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="R53" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="S53" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="T53" s="49">
+        <v>196948</v>
+      </c>
+      <c r="U53" s="49">
+        <f>T53+21</f>
+        <v>196969</v>
+      </c>
+      <c r="V53" s="49">
+        <f>T53-H53</f>
+        <v>36</v>
+      </c>
+      <c r="W53" s="49">
+        <f>U53-H53</f>
+        <v>57</v>
+      </c>
+      <c r="X53" s="49"/>
+      <c r="Y53" s="49"/>
+      <c r="Z53" s="49"/>
+      <c r="AA53" s="49"/>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="9">
         <v>197821</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D54" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9">
+      <c r="E54" s="9"/>
+      <c r="F54" s="9">
         <f t="shared" si="7"/>
         <v>197821</v>
-      </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9">
-        <f t="shared" si="43"/>
-        <v>197777</v>
-      </c>
-      <c r="I51" s="9">
-        <f t="shared" si="49"/>
-        <v>197936</v>
-      </c>
-      <c r="J51" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>rev</v>
-      </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="11">
-        <f t="shared" si="35"/>
-        <v>-197777</v>
-      </c>
-      <c r="W51" s="11">
-        <f t="shared" si="36"/>
-        <v>-197777</v>
-      </c>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-    </row>
-    <row r="52" spans="1:27">
-      <c r="A52" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="9">
-        <v>1237285</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="9">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52" s="9">
-        <f t="shared" si="7"/>
-        <v>1237285</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9">
-        <f t="shared" si="43"/>
-        <v>1237241</v>
-      </c>
-      <c r="I52" s="9">
-        <f t="shared" si="49"/>
-        <v>1237400</v>
-      </c>
-      <c r="J52" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>fwd</v>
-      </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="11">
-        <f t="shared" si="35"/>
-        <v>-1237241</v>
-      </c>
-      <c r="W52" s="11">
-        <f t="shared" si="36"/>
-        <v>-1237241</v>
-      </c>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-    </row>
-    <row r="53" spans="1:27">
-      <c r="A53" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="9">
-        <v>2212241</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="9">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="E53" s="9">
-        <v>-15</v>
-      </c>
-      <c r="F53" s="9">
-        <f t="shared" si="7"/>
-        <v>2212256</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9">
-        <f t="shared" si="43"/>
-        <v>2212212</v>
-      </c>
-      <c r="I53" s="9">
-        <f t="shared" si="49"/>
-        <v>2212371</v>
-      </c>
-      <c r="J53" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>fwd</v>
-      </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="11">
-        <f t="shared" si="35"/>
-        <v>-2212212</v>
-      </c>
-      <c r="W53" s="11">
-        <f t="shared" si="36"/>
-        <v>-2212212</v>
-      </c>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-    </row>
-    <row r="54" spans="1:27">
-      <c r="A54" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="9">
-        <v>2266214</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9">
-        <f t="shared" si="7"/>
-        <v>2266214</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9">
         <f t="shared" si="43"/>
-        <v>2266170</v>
+        <v>197777</v>
       </c>
       <c r="I54" s="9">
         <f t="shared" si="49"/>
-        <v>2266329</v>
+        <v>197936</v>
       </c>
       <c r="J54" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7895,12 +8063,12 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="11">
-        <f t="shared" si="35"/>
-        <v>-2266170</v>
+        <f>T54-H54</f>
+        <v>-197777</v>
       </c>
       <c r="W54" s="11">
-        <f t="shared" si="36"/>
-        <v>-2266170</v>
+        <f>U54-H54</f>
+        <v>-197777</v>
       </c>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
@@ -7909,37 +8077,37 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="26" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="B55" s="9">
-        <v>1734357</v>
+        <v>1237285</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D55" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="7"/>
-        <v>1734357</v>
+        <v>1237285</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9">
         <f t="shared" si="43"/>
-        <v>1734313</v>
+        <v>1237241</v>
       </c>
       <c r="I55" s="9">
         <f t="shared" si="49"/>
-        <v>1734472</v>
+        <v>1237400</v>
       </c>
       <c r="J55" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -7954,11 +8122,11 @@
       <c r="U55" s="9"/>
       <c r="V55" s="11">
         <f t="shared" si="35"/>
-        <v>-1734313</v>
+        <v>-1237241</v>
       </c>
       <c r="W55" s="11">
         <f t="shared" si="36"/>
-        <v>-1734313</v>
+        <v>-1237241</v>
       </c>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
@@ -7967,10 +8135,10 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="26" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B56" s="9">
-        <v>4122354</v>
+        <v>2212241</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>118</v>
@@ -7980,20 +8148,20 @@
         <v>-1</v>
       </c>
       <c r="E56" s="9">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" si="7"/>
-        <v>4122354</v>
+        <v>2212256</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9">
         <f t="shared" si="43"/>
-        <v>4122310</v>
+        <v>2212212</v>
       </c>
       <c r="I56" s="9">
         <f t="shared" si="49"/>
-        <v>4122469</v>
+        <v>2212371</v>
       </c>
       <c r="J56" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8012,11 +8180,11 @@
       <c r="U56" s="9"/>
       <c r="V56" s="11">
         <f t="shared" si="35"/>
-        <v>-4122310</v>
+        <v>-2212212</v>
       </c>
       <c r="W56" s="11">
         <f t="shared" si="36"/>
-        <v>-4122310</v>
+        <v>-2212212</v>
       </c>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
@@ -8025,37 +8193,37 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="26" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B57" s="9">
-        <v>1223097</v>
+        <v>2266214</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="7"/>
-        <v>1223097</v>
+        <v>2266214</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9">
         <f t="shared" si="43"/>
-        <v>1223053</v>
+        <v>2266170</v>
       </c>
       <c r="I57" s="9">
         <f t="shared" si="49"/>
-        <v>1223212</v>
+        <v>2266329</v>
       </c>
       <c r="J57" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -8070,11 +8238,11 @@
       <c r="U57" s="9"/>
       <c r="V57" s="11">
         <f t="shared" si="35"/>
-        <v>-1223053</v>
+        <v>-2266170</v>
       </c>
       <c r="W57" s="11">
         <f t="shared" si="36"/>
-        <v>-1223053</v>
+        <v>-2266170</v>
       </c>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
@@ -8083,37 +8251,37 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="26" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="B58" s="9">
-        <v>1907086</v>
+        <v>1734357</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" si="7"/>
-        <v>1907086</v>
+        <v>1734357</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9">
         <f t="shared" si="43"/>
-        <v>1907042</v>
+        <v>1734313</v>
       </c>
       <c r="I58" s="9">
         <f t="shared" si="49"/>
-        <v>1907201</v>
+        <v>1734472</v>
       </c>
       <c r="J58" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -8128,11 +8296,11 @@
       <c r="U58" s="9"/>
       <c r="V58" s="11">
         <f t="shared" si="35"/>
-        <v>-1907042</v>
+        <v>-1734313</v>
       </c>
       <c r="W58" s="11">
         <f t="shared" si="36"/>
-        <v>-1907042</v>
+        <v>-1734313</v>
       </c>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
@@ -8141,10 +8309,10 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B59" s="9">
-        <v>794644</v>
+        <v>4122354</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>118</v>
@@ -8158,16 +8326,16 @@
       </c>
       <c r="F59" s="9">
         <f t="shared" si="7"/>
-        <v>794644</v>
+        <v>4122354</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9">
         <f t="shared" si="43"/>
-        <v>794600</v>
+        <v>4122310</v>
       </c>
       <c r="I59" s="9">
         <f t="shared" si="49"/>
-        <v>794759</v>
+        <v>4122469</v>
       </c>
       <c r="J59" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8186,11 +8354,11 @@
       <c r="U59" s="9"/>
       <c r="V59" s="11">
         <f t="shared" si="35"/>
-        <v>-794600</v>
+        <v>-4122310</v>
       </c>
       <c r="W59" s="11">
         <f t="shared" si="36"/>
-        <v>-794600</v>
+        <v>-4122310</v>
       </c>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
@@ -8199,10 +8367,10 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="26" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B60" s="9">
-        <v>1018330</v>
+        <v>1223097</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>118</v>
@@ -8216,16 +8384,16 @@
       </c>
       <c r="F60" s="9">
         <f t="shared" si="7"/>
-        <v>1018330</v>
+        <v>1223097</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9">
         <f t="shared" si="43"/>
-        <v>1018286</v>
+        <v>1223053</v>
       </c>
       <c r="I60" s="9">
         <f t="shared" si="49"/>
-        <v>1018445</v>
+        <v>1223212</v>
       </c>
       <c r="J60" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8244,11 +8412,11 @@
       <c r="U60" s="9"/>
       <c r="V60" s="11">
         <f t="shared" si="35"/>
-        <v>-1018286</v>
+        <v>-1223053</v>
       </c>
       <c r="W60" s="11">
         <f t="shared" si="36"/>
-        <v>-1018286</v>
+        <v>-1223053</v>
       </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
@@ -8257,10 +8425,10 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="26" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B61" s="9">
-        <v>443748</v>
+        <v>1907086</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>118</v>
@@ -8274,16 +8442,16 @@
       </c>
       <c r="F61" s="9">
         <f t="shared" si="7"/>
-        <v>443748</v>
+        <v>1907086</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9">
         <f t="shared" si="43"/>
-        <v>443704</v>
+        <v>1907042</v>
       </c>
       <c r="I61" s="9">
         <f t="shared" si="49"/>
-        <v>443863</v>
+        <v>1907201</v>
       </c>
       <c r="J61" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8302,11 +8470,11 @@
       <c r="U61" s="9"/>
       <c r="V61" s="11">
         <f t="shared" si="35"/>
-        <v>-443704</v>
+        <v>-1907042</v>
       </c>
       <c r="W61" s="11">
         <f t="shared" si="36"/>
-        <v>-443704</v>
+        <v>-1907042</v>
       </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
@@ -8315,37 +8483,37 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="26" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B62" s="9">
-        <v>1950760</v>
+        <v>794644</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D62" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
         <f t="shared" si="7"/>
-        <v>1950760</v>
+        <v>794644</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9">
         <f t="shared" si="43"/>
-        <v>1950716</v>
+        <v>794600</v>
       </c>
       <c r="I62" s="9">
         <f t="shared" si="49"/>
-        <v>1950875</v>
+        <v>794759</v>
       </c>
       <c r="J62" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -8360,11 +8528,11 @@
       <c r="U62" s="9"/>
       <c r="V62" s="11">
         <f t="shared" si="35"/>
-        <v>-1950716</v>
+        <v>-794600</v>
       </c>
       <c r="W62" s="11">
         <f t="shared" si="36"/>
-        <v>-1950716</v>
+        <v>-794600</v>
       </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
@@ -8373,10 +8541,10 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="26" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B63" s="9">
-        <v>852626</v>
+        <v>1018330</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>118</v>
@@ -8390,16 +8558,16 @@
       </c>
       <c r="F63" s="9">
         <f t="shared" si="7"/>
-        <v>852626</v>
+        <v>1018330</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9">
         <f t="shared" si="43"/>
-        <v>852582</v>
+        <v>1018286</v>
       </c>
       <c r="I63" s="9">
         <f t="shared" si="49"/>
-        <v>852741</v>
+        <v>1018445</v>
       </c>
       <c r="J63" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8418,11 +8586,11 @@
       <c r="U63" s="9"/>
       <c r="V63" s="11">
         <f t="shared" si="35"/>
-        <v>-852582</v>
+        <v>-1018286</v>
       </c>
       <c r="W63" s="11">
         <f t="shared" si="36"/>
-        <v>-852582</v>
+        <v>-1018286</v>
       </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
@@ -8431,10 +8599,10 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="26" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B64" s="9">
-        <v>889945</v>
+        <v>443748</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>118</v>
@@ -8444,20 +8612,20 @@
         <v>-1</v>
       </c>
       <c r="E64" s="9">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" si="7"/>
-        <v>889952</v>
+        <v>443748</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9">
         <f t="shared" si="43"/>
-        <v>889908</v>
+        <v>443704</v>
       </c>
       <c r="I64" s="9">
         <f t="shared" si="49"/>
-        <v>890067</v>
+        <v>443863</v>
       </c>
       <c r="J64" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8475,12 +8643,12 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="11">
-        <f t="shared" ref="V64:V86" si="62">T64-H64</f>
-        <v>-889908</v>
+        <f t="shared" si="35"/>
+        <v>-443704</v>
       </c>
       <c r="W64" s="11">
-        <f t="shared" ref="W64:W86" si="63">U64-H64</f>
-        <v>-889908</v>
+        <f t="shared" si="36"/>
+        <v>-443704</v>
       </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -8489,10 +8657,10 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="26" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B65" s="9">
-        <v>2926272</v>
+        <v>1950760</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>108</v>
@@ -8502,20 +8670,20 @@
         <v>1</v>
       </c>
       <c r="E65" s="9">
-        <v>-158</v>
+        <v>0</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" si="7"/>
-        <v>2926114</v>
+        <v>1950760</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9">
         <f t="shared" si="43"/>
-        <v>2926070</v>
+        <v>1950716</v>
       </c>
       <c r="I65" s="9">
         <f t="shared" si="49"/>
-        <v>2926229</v>
+        <v>1950875</v>
       </c>
       <c r="J65" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8533,12 +8701,12 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
       <c r="V65" s="11">
-        <f t="shared" si="62"/>
-        <v>-2926070</v>
+        <f t="shared" si="35"/>
+        <v>-1950716</v>
       </c>
       <c r="W65" s="11">
-        <f t="shared" si="63"/>
-        <v>-2926070</v>
+        <f t="shared" si="36"/>
+        <v>-1950716</v>
       </c>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
@@ -8547,10 +8715,10 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="26" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B66" s="9">
-        <v>2870686</v>
+        <v>852626</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>118</v>
@@ -8564,16 +8732,16 @@
       </c>
       <c r="F66" s="9">
         <f t="shared" si="7"/>
-        <v>2870686</v>
+        <v>852626</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9">
         <f t="shared" si="43"/>
-        <v>2870642</v>
+        <v>852582</v>
       </c>
       <c r="I66" s="9">
         <f t="shared" si="49"/>
-        <v>2870801</v>
+        <v>852741</v>
       </c>
       <c r="J66" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8591,12 +8759,12 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="11">
-        <f t="shared" si="62"/>
-        <v>-2870642</v>
+        <f t="shared" si="35"/>
+        <v>-852582</v>
       </c>
       <c r="W66" s="11">
-        <f t="shared" si="63"/>
-        <v>-2870642</v>
+        <f t="shared" si="36"/>
+        <v>-852582</v>
       </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
@@ -8605,10 +8773,10 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="9">
-        <v>220022</v>
+        <v>889945</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>118</v>
@@ -8618,20 +8786,20 @@
         <v>-1</v>
       </c>
       <c r="E67" s="9">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" si="7"/>
-        <v>220022</v>
+        <v>889952</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9">
         <f t="shared" si="43"/>
-        <v>219978</v>
+        <v>889908</v>
       </c>
       <c r="I67" s="9">
         <f t="shared" si="49"/>
-        <v>220137</v>
+        <v>890067</v>
       </c>
       <c r="J67" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8649,12 +8817,12 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="11">
-        <f t="shared" si="62"/>
-        <v>-219978</v>
+        <f t="shared" ref="V67:V89" si="72">T67-H67</f>
+        <v>-889908</v>
       </c>
       <c r="W67" s="11">
-        <f t="shared" si="63"/>
-        <v>-219978</v>
+        <f t="shared" ref="W67:W89" si="73">U67-H67</f>
+        <v>-889908</v>
       </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
@@ -8663,10 +8831,10 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B68" s="9">
-        <v>2082728</v>
+        <v>2926272</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>108</v>
@@ -8676,20 +8844,20 @@
         <v>1</v>
       </c>
       <c r="E68" s="9">
-        <v>0</v>
+        <v>-158</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" si="7"/>
-        <v>2082728</v>
+        <v>2926114</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9">
         <f t="shared" si="43"/>
-        <v>2082684</v>
+        <v>2926070</v>
       </c>
       <c r="I68" s="9">
         <f t="shared" si="49"/>
-        <v>2082843</v>
+        <v>2926229</v>
       </c>
       <c r="J68" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8707,12 +8875,12 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="11">
-        <f t="shared" si="62"/>
-        <v>-2082684</v>
+        <f t="shared" si="72"/>
+        <v>-2926070</v>
       </c>
       <c r="W68" s="11">
-        <f t="shared" si="63"/>
-        <v>-2082684</v>
+        <f t="shared" si="73"/>
+        <v>-2926070</v>
       </c>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
@@ -8721,10 +8889,10 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="26" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B69" s="9">
-        <v>2999918</v>
+        <v>2870686</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>118</v>
@@ -8738,16 +8906,16 @@
       </c>
       <c r="F69" s="9">
         <f t="shared" si="7"/>
-        <v>2999918</v>
+        <v>2870686</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9">
         <f t="shared" si="43"/>
-        <v>2999874</v>
+        <v>2870642</v>
       </c>
       <c r="I69" s="9">
         <f t="shared" si="49"/>
-        <v>3000033</v>
+        <v>2870801</v>
       </c>
       <c r="J69" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8765,12 +8933,12 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="11">
-        <f t="shared" si="62"/>
-        <v>-2999874</v>
+        <f t="shared" si="72"/>
+        <v>-2870642</v>
       </c>
       <c r="W69" s="11">
-        <f t="shared" si="63"/>
-        <v>-2999874</v>
+        <f t="shared" si="73"/>
+        <v>-2870642</v>
       </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -8779,37 +8947,37 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B70" s="9">
-        <v>486492</v>
+        <v>220022</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" si="7"/>
-        <v>486492</v>
+        <v>220022</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9">
         <f t="shared" si="43"/>
-        <v>486448</v>
+        <v>219978</v>
       </c>
       <c r="I70" s="9">
         <f t="shared" si="49"/>
-        <v>486607</v>
+        <v>220137</v>
       </c>
       <c r="J70" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -8823,12 +8991,12 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="11">
-        <f t="shared" si="62"/>
-        <v>-486448</v>
+        <f t="shared" si="72"/>
+        <v>-219978</v>
       </c>
       <c r="W70" s="11">
-        <f t="shared" si="63"/>
-        <v>-486448</v>
+        <f t="shared" si="73"/>
+        <v>-219978</v>
       </c>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -8837,37 +9005,37 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="26" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B71" s="9">
-        <v>3069871</v>
+        <v>2082728</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D71" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E71" s="9">
         <v>0</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" si="7"/>
-        <v>3069871</v>
+        <v>2082728</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9">
         <f t="shared" si="43"/>
-        <v>3069827</v>
+        <v>2082684</v>
       </c>
       <c r="I71" s="9">
         <f t="shared" si="49"/>
-        <v>3069986</v>
+        <v>2082843</v>
       </c>
       <c r="J71" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -8881,12 +9049,12 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="11">
-        <f t="shared" si="62"/>
-        <v>-3069827</v>
+        <f t="shared" si="72"/>
+        <v>-2082684</v>
       </c>
       <c r="W71" s="11">
-        <f t="shared" si="63"/>
-        <v>-3069827</v>
+        <f t="shared" si="73"/>
+        <v>-2082684</v>
       </c>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -8895,10 +9063,10 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B72" s="9">
-        <v>1395973</v>
+        <v>2999918</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>118</v>
@@ -8912,16 +9080,16 @@
       </c>
       <c r="F72" s="9">
         <f t="shared" si="7"/>
-        <v>1395973</v>
+        <v>2999918</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9">
         <f t="shared" si="43"/>
-        <v>1395929</v>
+        <v>2999874</v>
       </c>
       <c r="I72" s="9">
         <f t="shared" si="49"/>
-        <v>1396088</v>
+        <v>3000033</v>
       </c>
       <c r="J72" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8939,12 +9107,12 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
       <c r="V72" s="11">
-        <f t="shared" si="62"/>
-        <v>-1395929</v>
+        <f t="shared" si="72"/>
+        <v>-2999874</v>
       </c>
       <c r="W72" s="11">
-        <f t="shared" si="63"/>
-        <v>-1395929</v>
+        <f t="shared" si="73"/>
+        <v>-2999874</v>
       </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
@@ -8953,43 +9121,43 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="26" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B73" s="9">
-        <v>604684</v>
+        <v>486492</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E73" s="9">
         <v>0</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" si="7"/>
-        <v>604684</v>
+        <v>486492</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9">
         <f t="shared" si="43"/>
-        <v>604640</v>
+        <v>486448</v>
       </c>
       <c r="I73" s="9">
         <f t="shared" si="49"/>
-        <v>604799</v>
+        <v>486607</v>
       </c>
       <c r="J73" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
+      <c r="O73" s="26"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
@@ -8997,12 +9165,12 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="11">
-        <f t="shared" si="62"/>
-        <v>-604640</v>
+        <f t="shared" si="72"/>
+        <v>-486448</v>
       </c>
       <c r="W73" s="11">
-        <f t="shared" si="63"/>
-        <v>-604640</v>
+        <f t="shared" si="73"/>
+        <v>-486448</v>
       </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
@@ -9011,43 +9179,43 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="26" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B74" s="9">
-        <v>1509221</v>
+        <v>3069871</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" si="7"/>
-        <v>1509221</v>
+        <v>3069871</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9">
         <f t="shared" si="43"/>
-        <v>1509177</v>
+        <v>3069827</v>
       </c>
       <c r="I74" s="9">
         <f t="shared" si="49"/>
-        <v>1509336</v>
+        <v>3069986</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f t="shared" ref="J74:J137" si="64">IF(C74="rev", "fwd", IF(C74="fwd", "rev", ""))</f>
-        <v>rev</v>
+        <f t="shared" si="3"/>
+        <v>fwd</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
+      <c r="O74" s="26"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
@@ -9055,12 +9223,12 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
       <c r="V74" s="11">
-        <f t="shared" si="62"/>
-        <v>-1509177</v>
+        <f t="shared" si="72"/>
+        <v>-3069827</v>
       </c>
       <c r="W74" s="11">
-        <f t="shared" si="63"/>
-        <v>-1509177</v>
+        <f t="shared" si="73"/>
+        <v>-3069827</v>
       </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
@@ -9069,10 +9237,10 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="26" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B75" s="9">
-        <v>3353049</v>
+        <v>1395973</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>118</v>
@@ -9086,26 +9254,26 @@
       </c>
       <c r="F75" s="9">
         <f t="shared" si="7"/>
-        <v>3353049</v>
+        <v>1395973</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9">
         <f t="shared" si="43"/>
-        <v>3353005</v>
+        <v>1395929</v>
       </c>
       <c r="I75" s="9">
         <f t="shared" si="49"/>
-        <v>3353164</v>
+        <v>1396088</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="3"/>
         <v>fwd</v>
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
+      <c r="O75" s="26"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
@@ -9113,12 +9281,12 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
       <c r="V75" s="11">
-        <f t="shared" si="62"/>
-        <v>-3353005</v>
+        <f t="shared" si="72"/>
+        <v>-1395929</v>
       </c>
       <c r="W75" s="11">
-        <f t="shared" si="63"/>
-        <v>-3353005</v>
+        <f t="shared" si="73"/>
+        <v>-1395929</v>
       </c>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -9127,10 +9295,10 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="26" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B76" s="9">
-        <v>1226139</v>
+        <v>604684</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>118</v>
@@ -9144,19 +9312,19 @@
       </c>
       <c r="F76" s="9">
         <f t="shared" si="7"/>
-        <v>1226139</v>
+        <v>604684</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9">
         <f t="shared" si="43"/>
-        <v>1226095</v>
+        <v>604640</v>
       </c>
       <c r="I76" s="9">
         <f t="shared" si="49"/>
-        <v>1226254</v>
+        <v>604799</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="3"/>
         <v>fwd</v>
       </c>
       <c r="K76" s="9"/>
@@ -9171,12 +9339,12 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="11">
-        <f t="shared" si="62"/>
-        <v>-1226095</v>
+        <f t="shared" si="72"/>
+        <v>-604640</v>
       </c>
       <c r="W76" s="11">
-        <f t="shared" si="63"/>
-        <v>-1226095</v>
+        <f t="shared" si="73"/>
+        <v>-604640</v>
       </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
@@ -9185,37 +9353,37 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="26" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B77" s="9">
-        <v>693469</v>
+        <v>1509221</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" si="7"/>
-        <v>693469</v>
+        <v>1509221</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9">
         <f t="shared" si="43"/>
-        <v>693425</v>
+        <v>1509177</v>
       </c>
       <c r="I77" s="9">
         <f t="shared" si="49"/>
-        <v>693584</v>
+        <v>1509336</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" ref="J77:J140" si="74">IF(C77="rev", "fwd", IF(C77="fwd", "rev", ""))</f>
+        <v>rev</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -9229,12 +9397,12 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="11">
-        <f t="shared" si="62"/>
-        <v>-693425</v>
+        <f t="shared" si="72"/>
+        <v>-1509177</v>
       </c>
       <c r="W77" s="11">
-        <f t="shared" si="63"/>
-        <v>-693425</v>
+        <f t="shared" si="73"/>
+        <v>-1509177</v>
       </c>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
@@ -9243,10 +9411,10 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="26" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B78" s="9">
-        <v>1848700</v>
+        <v>3353049</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>118</v>
@@ -9260,19 +9428,19 @@
       </c>
       <c r="F78" s="9">
         <f t="shared" si="7"/>
-        <v>1848700</v>
+        <v>3353049</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9">
         <f t="shared" si="43"/>
-        <v>1848656</v>
+        <v>3353005</v>
       </c>
       <c r="I78" s="9">
         <f t="shared" si="49"/>
-        <v>1848815</v>
+        <v>3353164</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K78" s="9"/>
@@ -9287,12 +9455,12 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
       <c r="V78" s="11">
-        <f t="shared" si="62"/>
-        <v>-1848656</v>
+        <f t="shared" si="72"/>
+        <v>-3353005</v>
       </c>
       <c r="W78" s="11">
-        <f t="shared" si="63"/>
-        <v>-1848656</v>
+        <f t="shared" si="73"/>
+        <v>-3353005</v>
       </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
@@ -9301,37 +9469,37 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="26" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B79" s="9">
-        <v>3096620</v>
+        <v>1226139</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D79" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E79" s="9">
         <v>0</v>
       </c>
       <c r="F79" s="9">
         <f t="shared" si="7"/>
-        <v>3096620</v>
+        <v>1226139</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9">
         <f t="shared" si="43"/>
-        <v>3096576</v>
+        <v>1226095</v>
       </c>
       <c r="I79" s="9">
         <f t="shared" si="49"/>
-        <v>3096735</v>
+        <v>1226254</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -9345,12 +9513,12 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
       <c r="V79" s="11">
-        <f t="shared" si="62"/>
-        <v>-3096576</v>
+        <f t="shared" si="72"/>
+        <v>-1226095</v>
       </c>
       <c r="W79" s="11">
-        <f t="shared" si="63"/>
-        <v>-3096576</v>
+        <f t="shared" si="73"/>
+        <v>-1226095</v>
       </c>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
@@ -9359,37 +9527,37 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="26" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B80" s="9">
-        <v>3403446</v>
+        <v>693469</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" si="7"/>
-        <v>3403446</v>
+        <v>693469</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9">
         <f t="shared" si="43"/>
-        <v>3403402</v>
+        <v>693425</v>
       </c>
       <c r="I80" s="9">
         <f t="shared" si="49"/>
-        <v>3403561</v>
+        <v>693584</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -9403,12 +9571,12 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="11">
-        <f t="shared" si="62"/>
-        <v>-3403402</v>
+        <f t="shared" si="72"/>
+        <v>-693425</v>
       </c>
       <c r="W80" s="11">
-        <f t="shared" si="63"/>
-        <v>-3403402</v>
+        <f t="shared" si="73"/>
+        <v>-693425</v>
       </c>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
@@ -9417,10 +9585,10 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="26" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B81" s="9">
-        <v>2214673</v>
+        <v>1848700</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>118</v>
@@ -9434,19 +9602,19 @@
       </c>
       <c r="F81" s="9">
         <f t="shared" si="7"/>
-        <v>2214673</v>
+        <v>1848700</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9">
         <f t="shared" si="43"/>
-        <v>2214629</v>
+        <v>1848656</v>
       </c>
       <c r="I81" s="9">
         <f t="shared" si="49"/>
-        <v>2214788</v>
+        <v>1848815</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K81" s="9"/>
@@ -9461,12 +9629,12 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="11">
-        <f t="shared" si="62"/>
-        <v>-2214629</v>
+        <f t="shared" si="72"/>
+        <v>-1848656</v>
       </c>
       <c r="W81" s="11">
-        <f t="shared" si="63"/>
-        <v>-2214629</v>
+        <f t="shared" si="73"/>
+        <v>-1848656</v>
       </c>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
@@ -9475,37 +9643,37 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B82" s="9">
-        <v>2212969</v>
+        <v>3096620</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="7"/>
-        <v>2212969</v>
+        <v>3096620</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9">
         <f t="shared" si="43"/>
-        <v>2212925</v>
+        <v>3096576</v>
       </c>
       <c r="I82" s="9">
         <f t="shared" si="49"/>
-        <v>2213084</v>
+        <v>3096735</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -9519,12 +9687,12 @@
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
       <c r="V82" s="11">
-        <f t="shared" si="62"/>
-        <v>-2212925</v>
+        <f t="shared" si="72"/>
+        <v>-3096576</v>
       </c>
       <c r="W82" s="11">
-        <f t="shared" si="63"/>
-        <v>-2212925</v>
+        <f t="shared" si="73"/>
+        <v>-3096576</v>
       </c>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
@@ -9533,37 +9701,37 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="26" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B83" s="9">
-        <v>845736</v>
+        <v>3403446</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D83" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E83" s="9">
         <v>0</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" si="7"/>
-        <v>845736</v>
+        <v>3403446</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9">
         <f t="shared" si="43"/>
-        <v>845692</v>
+        <v>3403402</v>
       </c>
       <c r="I83" s="9">
         <f t="shared" si="49"/>
-        <v>845851</v>
+        <v>3403561</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
@@ -9577,12 +9745,12 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="11">
-        <f t="shared" si="62"/>
-        <v>-845692</v>
+        <f t="shared" si="72"/>
+        <v>-3403402</v>
       </c>
       <c r="W83" s="11">
-        <f t="shared" si="63"/>
-        <v>-845692</v>
+        <f t="shared" si="73"/>
+        <v>-3403402</v>
       </c>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
@@ -9591,37 +9759,37 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="26" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B84" s="9">
-        <v>3438001</v>
+        <v>2214673</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="9">
         <f t="shared" si="7"/>
-        <v>3438001</v>
+        <v>2214673</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9">
         <f t="shared" si="43"/>
-        <v>3437957</v>
+        <v>2214629</v>
       </c>
       <c r="I84" s="9">
         <f t="shared" si="49"/>
-        <v>3438116</v>
+        <v>2214788</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -9635,12 +9803,12 @@
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
       <c r="V84" s="11">
-        <f t="shared" si="62"/>
-        <v>-3437957</v>
+        <f t="shared" si="72"/>
+        <v>-2214629</v>
       </c>
       <c r="W84" s="11">
-        <f t="shared" si="63"/>
-        <v>-3437957</v>
+        <f t="shared" si="73"/>
+        <v>-2214629</v>
       </c>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
@@ -9649,37 +9817,37 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B85" s="9">
-        <v>4118427</v>
+        <v>2212969</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D85" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E85" s="9">
         <v>0</v>
       </c>
       <c r="F85" s="9">
         <f t="shared" si="7"/>
-        <v>4118427</v>
+        <v>2212969</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9">
         <f t="shared" si="43"/>
-        <v>4118383</v>
+        <v>2212925</v>
       </c>
       <c r="I85" s="9">
         <f t="shared" si="49"/>
-        <v>4118542</v>
+        <v>2213084</v>
       </c>
       <c r="J85" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -9693,12 +9861,12 @@
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
       <c r="V85" s="11">
-        <f t="shared" si="62"/>
-        <v>-4118383</v>
+        <f t="shared" si="72"/>
+        <v>-2212925</v>
       </c>
       <c r="W85" s="11">
-        <f t="shared" si="63"/>
-        <v>-4118383</v>
+        <f t="shared" si="73"/>
+        <v>-2212925</v>
       </c>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
@@ -9707,37 +9875,37 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" s="26" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="B86" s="9">
-        <v>3808516</v>
+        <v>845736</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="9">
         <f t="shared" si="7"/>
-        <v>3808516</v>
+        <v>845736</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9">
         <f t="shared" si="43"/>
-        <v>3808472</v>
+        <v>845692</v>
       </c>
       <c r="I86" s="9">
         <f t="shared" si="49"/>
-        <v>3808631</v>
+        <v>845851</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
@@ -9751,197 +9919,140 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="11">
-        <f t="shared" si="62"/>
-        <v>-3808472</v>
+        <f t="shared" si="72"/>
+        <v>-845692</v>
       </c>
       <c r="W86" s="11">
-        <f t="shared" si="63"/>
-        <v>-3808472</v>
+        <f t="shared" si="73"/>
+        <v>-845692</v>
       </c>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
     </row>
-    <row r="87" spans="1:27" s="3" customFormat="1">
-      <c r="A87" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" s="11">
+    <row r="87" spans="1:27">
+      <c r="A87" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="9">
+        <v>3438001</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="E87" s="11">
-        <v>0</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" ref="F87" si="65">B87+D87*E87</f>
-        <v>4175107</v>
-      </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11">
-        <v>4175063</v>
-      </c>
-      <c r="I87" s="11">
-        <f>H87+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J87" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L87" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="M87" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="N87" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="O87" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P87" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q87" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="R87" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="S87" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="T87" s="11">
-        <v>4175143</v>
-      </c>
-      <c r="U87" s="11">
-        <f>4175175</f>
-        <v>4175175</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0</v>
+      </c>
+      <c r="F87" s="9">
+        <f t="shared" si="7"/>
+        <v>3438001</v>
+      </c>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9">
+        <f t="shared" si="43"/>
+        <v>3437957</v>
+      </c>
+      <c r="I87" s="9">
+        <f t="shared" si="49"/>
+        <v>3438116</v>
+      </c>
+      <c r="J87" s="9" t="str">
+        <f t="shared" si="74"/>
+        <v>rev</v>
+      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
       <c r="V87" s="11">
-        <f t="shared" ref="V87" si="66">T87-H87</f>
-        <v>80</v>
+        <f t="shared" si="72"/>
+        <v>-3437957</v>
       </c>
       <c r="W87" s="11">
-        <f t="shared" ref="W87" si="67">U87-H87</f>
-        <v>112</v>
-      </c>
-      <c r="X87" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y87" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z87" s="11"/>
-      <c r="AA87" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" s="3" customFormat="1">
-      <c r="A88" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D88" s="11">
+        <f t="shared" si="73"/>
+        <v>-3437957</v>
+      </c>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="9">
+        <v>4118427</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="E88" s="11">
-        <v>0</v>
-      </c>
-      <c r="F88" s="11">
+        <v>1</v>
+      </c>
+      <c r="E88" s="9">
+        <v>0</v>
+      </c>
+      <c r="F88" s="9">
         <f t="shared" si="7"/>
-        <v>4175107</v>
-      </c>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11">
-        <v>4175063</v>
-      </c>
-      <c r="I88" s="11">
-        <f>H88+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J88" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L88" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="M88" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="N88" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="O88" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P88" s="11">
-        <f>Q88-20</f>
-        <v>4175087</v>
-      </c>
-      <c r="Q88" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="R88" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="S88" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="T88" s="11">
-        <v>4175105</v>
-      </c>
-      <c r="U88" s="11">
-        <f>T88+84</f>
-        <v>4175189</v>
-      </c>
+        <v>4118427</v>
+      </c>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9">
+        <f t="shared" si="43"/>
+        <v>4118383</v>
+      </c>
+      <c r="I88" s="9">
+        <f t="shared" si="49"/>
+        <v>4118542</v>
+      </c>
+      <c r="J88" s="9" t="str">
+        <f t="shared" si="74"/>
+        <v>rev</v>
+      </c>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
       <c r="V88" s="11">
-        <f t="shared" ref="V88:V95" si="68">T88-H88</f>
-        <v>42</v>
+        <f t="shared" si="72"/>
+        <v>-4118383</v>
       </c>
       <c r="W88" s="11">
-        <f t="shared" ref="W88:W95" si="69">U88-H88</f>
-        <v>126</v>
-      </c>
-      <c r="X88" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y88" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z88" s="11"/>
-      <c r="AA88" s="11">
-        <v>0</v>
-      </c>
+        <f t="shared" si="73"/>
+        <v>-4118383</v>
+      </c>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="26" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B89" s="9">
-        <v>4621716</v>
+        <v>3808516</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>108</v>
@@ -9955,19 +10066,19 @@
       </c>
       <c r="F89" s="9">
         <f t="shared" si="7"/>
-        <v>4621716</v>
+        <v>3808516</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9">
-        <f>F89</f>
-        <v>4621716</v>
+        <f t="shared" si="43"/>
+        <v>3808472</v>
       </c>
       <c r="I89" s="9">
-        <f>H89+D89*160</f>
-        <v>4621876</v>
+        <f t="shared" si="49"/>
+        <v>3808631</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
       <c r="K89" s="9"/>
@@ -9982,166 +10093,223 @@
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
       <c r="V89" s="11">
-        <f t="shared" si="68"/>
-        <v>-4621716</v>
+        <f t="shared" si="72"/>
+        <v>-3808472</v>
       </c>
       <c r="W89" s="11">
-        <f t="shared" si="69"/>
-        <v>-4621716</v>
+        <f t="shared" si="73"/>
+        <v>-3808472</v>
       </c>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
     </row>
-    <row r="90" spans="1:27">
-      <c r="A90" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="9">
-        <v>4370616</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90" s="9">
-        <f t="shared" ref="D90:D141" si="70">IF(C90="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9">
-        <f t="shared" ref="F90:F141" si="71">B90+D90*E90</f>
-        <v>4370616</v>
-      </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9">
-        <f t="shared" ref="H90:H141" si="72">F90</f>
-        <v>4370616</v>
-      </c>
-      <c r="I90" s="9">
-        <f t="shared" ref="I90:I141" si="73">H90+D90*160</f>
-        <v>4370776</v>
-      </c>
-      <c r="J90" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
-      </c>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
-      <c r="U90" s="9"/>
+    <row r="90" spans="1:27" s="3" customFormat="1">
+      <c r="A90" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="11">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <f t="shared" ref="F90" si="75">B90+D90*E90</f>
+        <v>4175107</v>
+      </c>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11">
+        <v>4175063</v>
+      </c>
+      <c r="I90" s="11">
+        <f>H90+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J90" s="11" t="str">
+        <f t="shared" si="74"/>
+        <v>fwd</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="M90" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P90" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q90" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="R90" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S90" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="T90" s="11">
+        <v>4175143</v>
+      </c>
+      <c r="U90" s="11">
+        <f>4175175</f>
+        <v>4175175</v>
+      </c>
       <c r="V90" s="11">
-        <f t="shared" si="68"/>
-        <v>-4370616</v>
+        <f t="shared" ref="V90" si="76">T90-H90</f>
+        <v>80</v>
       </c>
       <c r="W90" s="11">
-        <f t="shared" si="69"/>
-        <v>-4370616</v>
-      </c>
-      <c r="X90" s="9"/>
-      <c r="Y90" s="9"/>
-      <c r="Z90" s="9"/>
-      <c r="AA90" s="9"/>
-    </row>
-    <row r="91" spans="1:27">
-      <c r="A91" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" s="9">
-        <v>4472553</v>
-      </c>
-      <c r="C91" s="9" t="s">
+        <f t="shared" ref="W90" si="77">U90-H90</f>
+        <v>112</v>
+      </c>
+      <c r="X90" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y90" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z90" s="11"/>
+      <c r="AA90" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" s="3" customFormat="1">
+      <c r="A91" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="9">
-        <f t="shared" si="70"/>
+      <c r="D91" s="11">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E91" s="9">
-        <v>0</v>
-      </c>
-      <c r="F91" s="9">
-        <f t="shared" si="71"/>
-        <v>4472553</v>
-      </c>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9">
-        <f t="shared" si="72"/>
-        <v>4472553</v>
-      </c>
-      <c r="I91" s="9">
-        <f t="shared" si="73"/>
-        <v>4472393</v>
-      </c>
-      <c r="J91" s="9" t="str">
-        <f t="shared" si="64"/>
+      <c r="E91" s="11">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" si="7"/>
+        <v>4175107</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11">
+        <v>4175063</v>
+      </c>
+      <c r="I91" s="11">
+        <f>H91+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J91" s="11" t="str">
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
+      <c r="K91" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="M91" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O91" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P91" s="11">
+        <f>Q91-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="Q91" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="R91" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S91" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="T91" s="11">
+        <v>4175105</v>
+      </c>
+      <c r="U91" s="11">
+        <f>T91+84</f>
+        <v>4175189</v>
+      </c>
       <c r="V91" s="11">
-        <f t="shared" si="68"/>
-        <v>-4472553</v>
+        <f t="shared" ref="V91:V98" si="78">T91-H91</f>
+        <v>42</v>
       </c>
       <c r="W91" s="11">
-        <f t="shared" si="69"/>
-        <v>-4472553</v>
-      </c>
-      <c r="X91" s="9"/>
-      <c r="Y91" s="9"/>
-      <c r="Z91" s="9"/>
-      <c r="AA91" s="9"/>
+        <f t="shared" ref="W91:W98" si="79">U91-H91</f>
+        <v>126</v>
+      </c>
+      <c r="X91" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y91" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z91" s="11"/>
+      <c r="AA91" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:27">
       <c r="A92" s="26" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B92" s="9">
-        <v>4178354</v>
+        <v>4621716</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D92" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E92" s="9">
         <v>0</v>
       </c>
       <c r="F92" s="9">
-        <f t="shared" si="71"/>
-        <v>4178354</v>
+        <f t="shared" si="7"/>
+        <v>4621716</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9">
-        <f t="shared" si="72"/>
-        <v>4178354</v>
+        <f>F92</f>
+        <v>4621716</v>
       </c>
       <c r="I92" s="9">
-        <f t="shared" si="73"/>
-        <v>4178514</v>
+        <f>H92+D92*160</f>
+        <v>4621876</v>
       </c>
       <c r="J92" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
       <c r="K92" s="9"/>
@@ -10156,12 +10324,12 @@
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
       <c r="V92" s="11">
-        <f t="shared" si="68"/>
-        <v>-4178354</v>
+        <f t="shared" si="78"/>
+        <v>-4621716</v>
       </c>
       <c r="W92" s="11">
-        <f t="shared" si="69"/>
-        <v>-4178354</v>
+        <f t="shared" si="79"/>
+        <v>-4621716</v>
       </c>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
@@ -10170,36 +10338,36 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" s="26" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="B93" s="9">
-        <v>2042294</v>
+        <v>4370616</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D93" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="D93:D144" si="80">IF(C93="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E93" s="9">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F93" s="9">
-        <f t="shared" si="71"/>
-        <v>2042280</v>
+        <f t="shared" ref="F93:F144" si="81">B93+D93*E93</f>
+        <v>4370616</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9">
-        <f t="shared" si="72"/>
-        <v>2042280</v>
+        <f t="shared" ref="H93:H144" si="82">F93</f>
+        <v>4370616</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" si="73"/>
-        <v>2042440</v>
+        <f t="shared" ref="I93:I144" si="83">H93+D93*160</f>
+        <v>4370776</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
       <c r="K93" s="9"/>
@@ -10214,12 +10382,12 @@
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
       <c r="V93" s="11">
-        <f t="shared" si="68"/>
-        <v>-2042280</v>
+        <f t="shared" si="78"/>
+        <v>-4370616</v>
       </c>
       <c r="W93" s="11">
-        <f t="shared" si="69"/>
-        <v>-2042280</v>
+        <f t="shared" si="79"/>
+        <v>-4370616</v>
       </c>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
@@ -10228,36 +10396,36 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" s="26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B94" s="9">
-        <v>3922525</v>
+        <v>4472553</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D94" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="9">
-        <f t="shared" si="71"/>
-        <v>3922525</v>
+        <f t="shared" si="81"/>
+        <v>4472553</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9">
-        <f t="shared" si="72"/>
-        <v>3922525</v>
+        <f t="shared" si="82"/>
+        <v>4472553</v>
       </c>
       <c r="I94" s="9">
-        <f t="shared" si="73"/>
-        <v>3922365</v>
+        <f t="shared" si="83"/>
+        <v>4472393</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K94" s="9"/>
@@ -10272,12 +10440,12 @@
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
       <c r="V94" s="11">
-        <f t="shared" si="68"/>
-        <v>-3922525</v>
+        <f t="shared" si="78"/>
+        <v>-4472553</v>
       </c>
       <c r="W94" s="11">
-        <f t="shared" si="69"/>
-        <v>-3922525</v>
+        <f t="shared" si="79"/>
+        <v>-4472553</v>
       </c>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
@@ -10286,37 +10454,37 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B95" s="9">
-        <v>1114213</v>
+        <v>4178354</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D95" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E95" s="9">
         <v>0</v>
       </c>
       <c r="F95" s="9">
-        <f t="shared" si="71"/>
-        <v>1114213</v>
+        <f t="shared" si="81"/>
+        <v>4178354</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9">
-        <f t="shared" si="72"/>
-        <v>1114213</v>
+        <f t="shared" si="82"/>
+        <v>4178354</v>
       </c>
       <c r="I95" s="9">
-        <f t="shared" si="73"/>
-        <v>1114053</v>
+        <f t="shared" si="83"/>
+        <v>4178514</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -10330,12 +10498,12 @@
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
       <c r="V95" s="11">
-        <f t="shared" si="68"/>
-        <v>-1114213</v>
+        <f t="shared" si="78"/>
+        <v>-4178354</v>
       </c>
       <c r="W95" s="11">
-        <f t="shared" si="69"/>
-        <v>-1114213</v>
+        <f t="shared" si="79"/>
+        <v>-4178354</v>
       </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
@@ -10344,37 +10512,37 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" s="26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B96" s="9">
-        <v>2644913</v>
+        <v>2042294</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D96" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E96" s="9">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F96" s="9">
-        <f t="shared" si="71"/>
-        <v>2644913</v>
+        <f t="shared" si="81"/>
+        <v>2042280</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9">
-        <f t="shared" si="72"/>
-        <v>2644913</v>
+        <f t="shared" si="82"/>
+        <v>2042280</v>
       </c>
       <c r="I96" s="9">
-        <f t="shared" si="73"/>
-        <v>2644753</v>
+        <f t="shared" si="83"/>
+        <v>2042440</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -10388,12 +10556,12 @@
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
       <c r="V96" s="11">
-        <f t="shared" ref="V96:V105" si="74">T96-H96</f>
-        <v>-2644913</v>
+        <f t="shared" si="78"/>
+        <v>-2042280</v>
       </c>
       <c r="W96" s="11">
-        <f t="shared" ref="W96:W105" si="75">U96-H96</f>
-        <v>-2644913</v>
+        <f t="shared" si="79"/>
+        <v>-2042280</v>
       </c>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
@@ -10402,37 +10570,37 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" s="26" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B97" s="9">
-        <v>148</v>
+        <v>3922525</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D97" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E97" s="9">
         <v>0</v>
       </c>
       <c r="F97" s="9">
-        <f t="shared" si="71"/>
-        <v>148</v>
+        <f t="shared" si="81"/>
+        <v>3922525</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9">
-        <f t="shared" si="72"/>
-        <v>148</v>
+        <f t="shared" si="82"/>
+        <v>3922525</v>
       </c>
       <c r="I97" s="9">
-        <f t="shared" si="73"/>
-        <v>308</v>
+        <f t="shared" si="83"/>
+        <v>3922365</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -10446,12 +10614,12 @@
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
       <c r="V97" s="11">
-        <f t="shared" si="74"/>
-        <v>-148</v>
+        <f t="shared" si="78"/>
+        <v>-3922525</v>
       </c>
       <c r="W97" s="11">
-        <f t="shared" si="75"/>
-        <v>-148</v>
+        <f t="shared" si="79"/>
+        <v>-3922525</v>
       </c>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
@@ -10460,37 +10628,37 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" s="26" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="B98" s="9">
-        <v>454993</v>
+        <v>1114213</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D98" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E98" s="9">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F98" s="9">
-        <f t="shared" si="71"/>
-        <v>454864</v>
+        <f t="shared" si="81"/>
+        <v>1114213</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9">
-        <f t="shared" si="72"/>
-        <v>454864</v>
+        <f t="shared" si="82"/>
+        <v>1114213</v>
       </c>
       <c r="I98" s="9">
-        <f t="shared" si="73"/>
-        <v>455024</v>
+        <f t="shared" si="83"/>
+        <v>1114053</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -10504,12 +10672,12 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
       <c r="V98" s="11">
-        <f t="shared" si="74"/>
-        <v>-454864</v>
+        <f t="shared" si="78"/>
+        <v>-1114213</v>
       </c>
       <c r="W98" s="11">
-        <f t="shared" si="75"/>
-        <v>-454864</v>
+        <f t="shared" si="79"/>
+        <v>-1114213</v>
       </c>
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
@@ -10518,37 +10686,37 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B99" s="9">
-        <v>189712</v>
+        <v>2644913</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D99" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E99" s="9">
         <v>0</v>
       </c>
       <c r="F99" s="9">
-        <f t="shared" si="71"/>
-        <v>189712</v>
+        <f t="shared" si="81"/>
+        <v>2644913</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9">
-        <f t="shared" si="72"/>
-        <v>189712</v>
+        <f t="shared" si="82"/>
+        <v>2644913</v>
       </c>
       <c r="I99" s="9">
-        <f t="shared" si="73"/>
-        <v>189872</v>
+        <f t="shared" si="83"/>
+        <v>2644753</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -10562,12 +10730,12 @@
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
       <c r="V99" s="11">
-        <f t="shared" si="74"/>
-        <v>-189712</v>
+        <f t="shared" ref="V99:V108" si="84">T99-H99</f>
+        <v>-2644913</v>
       </c>
       <c r="W99" s="11">
-        <f t="shared" si="75"/>
-        <v>-189712</v>
+        <f t="shared" ref="W99:W108" si="85">U99-H99</f>
+        <v>-2644913</v>
       </c>
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
@@ -10576,36 +10744,36 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" s="26" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B100" s="9">
-        <v>3948058</v>
+        <v>148</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D100" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="E100" s="9">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F100" s="9">
-        <f t="shared" si="71"/>
-        <v>3948030</v>
+        <f t="shared" si="81"/>
+        <v>148</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9">
-        <f t="shared" si="72"/>
-        <v>3948030</v>
+        <f t="shared" si="82"/>
+        <v>148</v>
       </c>
       <c r="I100" s="9">
-        <f t="shared" si="73"/>
-        <v>3948190</v>
+        <f t="shared" si="83"/>
+        <v>308</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
       <c r="K100" s="9"/>
@@ -10620,12 +10788,12 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
       <c r="V100" s="11">
-        <f t="shared" si="74"/>
-        <v>-3948030</v>
+        <f t="shared" si="84"/>
+        <v>-148</v>
       </c>
       <c r="W100" s="11">
-        <f t="shared" si="75"/>
-        <v>-3948030</v>
+        <f t="shared" si="85"/>
+        <v>-148</v>
       </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
@@ -10634,37 +10802,37 @@
     </row>
     <row r="101" spans="1:27">
       <c r="A101" s="26" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B101" s="9">
-        <v>911076</v>
+        <v>454993</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D101" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E101" s="9">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="F101" s="9">
-        <f t="shared" si="71"/>
-        <v>911076</v>
+        <f t="shared" si="81"/>
+        <v>454864</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9">
-        <f t="shared" si="72"/>
-        <v>911076</v>
+        <f t="shared" si="82"/>
+        <v>454864</v>
       </c>
       <c r="I101" s="9">
-        <f t="shared" si="73"/>
-        <v>910916</v>
+        <f t="shared" si="83"/>
+        <v>455024</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
@@ -10678,12 +10846,12 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
       <c r="V101" s="11">
-        <f t="shared" si="74"/>
-        <v>-911076</v>
+        <f t="shared" si="84"/>
+        <v>-454864</v>
       </c>
       <c r="W101" s="11">
-        <f t="shared" si="75"/>
-        <v>-911076</v>
+        <f t="shared" si="85"/>
+        <v>-454864</v>
       </c>
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
@@ -10692,37 +10860,37 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" s="26" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="B102" s="9">
-        <v>1655186</v>
+        <v>189712</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D102" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E102" s="9">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F102" s="9">
-        <f t="shared" si="71"/>
-        <v>1655231</v>
+        <f t="shared" si="81"/>
+        <v>189712</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9">
-        <f t="shared" si="72"/>
-        <v>1655231</v>
+        <f t="shared" si="82"/>
+        <v>189712</v>
       </c>
       <c r="I102" s="9">
-        <f t="shared" si="73"/>
-        <v>1655071</v>
+        <f t="shared" si="83"/>
+        <v>189872</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -10736,12 +10904,12 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
       <c r="V102" s="11">
-        <f t="shared" si="74"/>
-        <v>-1655231</v>
+        <f t="shared" si="84"/>
+        <v>-189712</v>
       </c>
       <c r="W102" s="11">
-        <f t="shared" si="75"/>
-        <v>-1655231</v>
+        <f t="shared" si="85"/>
+        <v>-189712</v>
       </c>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
@@ -10750,37 +10918,37 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" s="26" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B103" s="9">
-        <v>4390638</v>
+        <v>3948058</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D103" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E103" s="9">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F103" s="9">
-        <f t="shared" si="71"/>
-        <v>4390638</v>
+        <f t="shared" si="81"/>
+        <v>3948030</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9">
-        <f t="shared" si="72"/>
-        <v>4390638</v>
+        <f t="shared" si="82"/>
+        <v>3948030</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" si="73"/>
-        <v>4390478</v>
+        <f t="shared" si="83"/>
+        <v>3948190</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
@@ -10794,12 +10962,12 @@
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
       <c r="V103" s="11">
-        <f t="shared" si="74"/>
-        <v>-4390638</v>
+        <f t="shared" si="84"/>
+        <v>-3948030</v>
       </c>
       <c r="W103" s="11">
-        <f t="shared" si="75"/>
-        <v>-4390638</v>
+        <f t="shared" si="85"/>
+        <v>-3948030</v>
       </c>
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
@@ -10808,36 +10976,36 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" s="26" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B104" s="9">
-        <v>4640508</v>
+        <v>911076</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D104" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="E104" s="9">
         <v>0</v>
       </c>
       <c r="F104" s="9">
-        <f t="shared" si="71"/>
-        <v>4640508</v>
+        <f t="shared" si="81"/>
+        <v>911076</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9">
-        <f t="shared" si="72"/>
-        <v>4640508</v>
+        <f t="shared" si="82"/>
+        <v>911076</v>
       </c>
       <c r="I104" s="9">
-        <f t="shared" si="73"/>
-        <v>4640348</v>
+        <f t="shared" si="83"/>
+        <v>910916</v>
       </c>
       <c r="J104" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K104" s="9"/>
@@ -10852,12 +11020,12 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
       <c r="V104" s="11">
-        <f t="shared" si="74"/>
-        <v>-4640508</v>
+        <f t="shared" si="84"/>
+        <v>-911076</v>
       </c>
       <c r="W104" s="11">
-        <f t="shared" si="75"/>
-        <v>-4640508</v>
+        <f t="shared" si="85"/>
+        <v>-911076</v>
       </c>
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
@@ -10866,36 +11034,36 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" s="26" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B105" s="9">
-        <v>1972716</v>
+        <v>1655186</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D105" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="E105" s="9">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F105" s="9">
-        <f t="shared" si="71"/>
-        <v>1972716</v>
+        <f t="shared" si="81"/>
+        <v>1655231</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9">
-        <f t="shared" si="72"/>
-        <v>1972716</v>
+        <f t="shared" si="82"/>
+        <v>1655231</v>
       </c>
       <c r="I105" s="9">
-        <f t="shared" si="73"/>
-        <v>1972556</v>
+        <f t="shared" si="83"/>
+        <v>1655071</v>
       </c>
       <c r="J105" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K105" s="9"/>
@@ -10910,220 +11078,166 @@
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
       <c r="V105" s="11">
-        <f t="shared" si="74"/>
-        <v>-1972716</v>
+        <f t="shared" si="84"/>
+        <v>-1655231</v>
       </c>
       <c r="W105" s="11">
-        <f t="shared" si="75"/>
-        <v>-1972716</v>
+        <f t="shared" si="85"/>
+        <v>-1655231</v>
       </c>
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
     </row>
-    <row r="106" spans="1:27" s="3" customFormat="1" ht="17">
-      <c r="A106" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B106" s="11">
-        <v>652172</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106" s="11">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="E106" s="11">
-        <v>0</v>
-      </c>
-      <c r="F106" s="11">
-        <f t="shared" ref="F106" si="76">B106+D106*E106</f>
-        <v>652172</v>
-      </c>
-      <c r="G106" s="11"/>
-      <c r="H106" s="27">
-        <v>652058</v>
-      </c>
-      <c r="I106" s="11">
-        <f>H106+D106*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J106" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
-      </c>
-      <c r="K106" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="L106" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="M106" s="11">
-        <v>652172</v>
-      </c>
-      <c r="N106" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="O106" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="P106" s="11">
-        <v>652193</v>
-      </c>
-      <c r="Q106" s="11">
-        <v>652199</v>
-      </c>
-      <c r="R106" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="S106" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="T106" s="27">
-        <f>130+H106</f>
-        <v>652188</v>
-      </c>
-      <c r="U106" s="27">
-        <f>T106+30</f>
-        <v>652218</v>
-      </c>
+    <row r="106" spans="1:27">
+      <c r="A106" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="9">
+        <v>4390638</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" s="9">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="E106" s="9">
+        <v>0</v>
+      </c>
+      <c r="F106" s="9">
+        <f t="shared" si="81"/>
+        <v>4390638</v>
+      </c>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9">
+        <f t="shared" si="82"/>
+        <v>4390638</v>
+      </c>
+      <c r="I106" s="9">
+        <f t="shared" si="83"/>
+        <v>4390478</v>
+      </c>
+      <c r="J106" s="9" t="str">
+        <f t="shared" si="74"/>
+        <v>fwd</v>
+      </c>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
       <c r="V106" s="11">
-        <v>130</v>
+        <f t="shared" si="84"/>
+        <v>-4390638</v>
       </c>
       <c r="W106" s="11">
-        <v>160</v>
-      </c>
-      <c r="X106" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y106" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z106" s="11"/>
-      <c r="AA106" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" s="3" customFormat="1" ht="17">
-      <c r="A107" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B107" s="11">
-        <v>652172</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="11">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="E107" s="11">
-        <v>0</v>
-      </c>
-      <c r="F107" s="11">
-        <f t="shared" si="71"/>
-        <v>652172</v>
-      </c>
-      <c r="G107" s="11"/>
-      <c r="H107" s="27">
-        <v>652058</v>
-      </c>
-      <c r="I107" s="11">
-        <f>H107+D107*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J107" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
-      </c>
-      <c r="K107" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="L107" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="M107" s="11">
-        <v>652172</v>
-      </c>
-      <c r="N107" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="O107" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="P107" s="11">
-        <v>652118</v>
-      </c>
-      <c r="Q107" s="11">
-        <v>652140</v>
-      </c>
-      <c r="R107" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="S107" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T107" s="27">
-        <f>60+H107</f>
-        <v>652118</v>
-      </c>
-      <c r="U107" s="27">
-        <f>T107+25</f>
-        <v>652143</v>
-      </c>
+        <f t="shared" si="85"/>
+        <v>-4390638</v>
+      </c>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
+      <c r="Z106" s="9"/>
+      <c r="AA106" s="9"/>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="A107" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B107" s="9">
+        <v>4640508</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="9">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0</v>
+      </c>
+      <c r="F107" s="9">
+        <f t="shared" si="81"/>
+        <v>4640508</v>
+      </c>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9">
+        <f t="shared" si="82"/>
+        <v>4640508</v>
+      </c>
+      <c r="I107" s="9">
+        <f t="shared" si="83"/>
+        <v>4640348</v>
+      </c>
+      <c r="J107" s="9" t="str">
+        <f t="shared" si="74"/>
+        <v>fwd</v>
+      </c>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
       <c r="V107" s="11">
-        <v>60</v>
+        <f t="shared" si="84"/>
+        <v>-4640508</v>
       </c>
       <c r="W107" s="11">
-        <v>85</v>
-      </c>
-      <c r="X107" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y107" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z107" s="11"/>
-      <c r="AA107" s="11">
-        <v>0</v>
-      </c>
+        <f t="shared" si="85"/>
+        <v>-4640508</v>
+      </c>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
+      <c r="AA107" s="9"/>
     </row>
     <row r="108" spans="1:27">
       <c r="A108" s="26" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B108" s="9">
-        <v>70075</v>
+        <v>1972716</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="E108" s="9">
         <v>0</v>
       </c>
       <c r="F108" s="9">
-        <f t="shared" si="71"/>
-        <v>70075</v>
+        <f t="shared" si="81"/>
+        <v>1972716</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9">
-        <f t="shared" si="72"/>
-        <v>70075</v>
+        <f t="shared" si="82"/>
+        <v>1972716</v>
       </c>
       <c r="I108" s="9">
-        <f t="shared" si="73"/>
-        <v>69915</v>
+        <f t="shared" si="83"/>
+        <v>1972556</v>
       </c>
       <c r="J108" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K108" s="9"/>
@@ -11137,149 +11251,221 @@
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
-      <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
+      <c r="V108" s="11">
+        <f t="shared" si="84"/>
+        <v>-1972716</v>
+      </c>
+      <c r="W108" s="11">
+        <f t="shared" si="85"/>
+        <v>-1972716</v>
+      </c>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
     </row>
-    <row r="109" spans="1:27">
-      <c r="A109" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B109" s="9">
-        <v>70241</v>
-      </c>
-      <c r="C109" s="9" t="s">
+    <row r="109" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A109" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B109" s="11">
+        <v>652172</v>
+      </c>
+      <c r="C109" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="E109" s="9">
-        <v>0</v>
-      </c>
-      <c r="F109" s="9">
-        <f t="shared" si="71"/>
-        <v>70241</v>
-      </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9">
-        <f t="shared" si="72"/>
-        <v>70241</v>
-      </c>
-      <c r="I109" s="9">
-        <f t="shared" si="73"/>
-        <v>70401</v>
-      </c>
-      <c r="J109" s="9" t="str">
-        <f t="shared" si="64"/>
+      <c r="D109" s="11">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="E109" s="11">
+        <v>0</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" ref="F109" si="86">B109+D109*E109</f>
+        <v>652172</v>
+      </c>
+      <c r="G109" s="11"/>
+      <c r="H109" s="27">
+        <v>652058</v>
+      </c>
+      <c r="I109" s="11">
+        <f>H109+D109*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J109" s="11" t="str">
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="9"/>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="9"/>
-      <c r="Y109" s="9"/>
-      <c r="Z109" s="9"/>
-      <c r="AA109" s="9"/>
-    </row>
-    <row r="110" spans="1:27">
-      <c r="A110" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B110" s="9">
-        <v>3731069</v>
-      </c>
-      <c r="C110" s="9" t="s">
+      <c r="K109" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L109" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="M109" s="11">
+        <v>652172</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O109" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="P109" s="11">
+        <v>652193</v>
+      </c>
+      <c r="Q109" s="11">
+        <v>652199</v>
+      </c>
+      <c r="R109" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="S109" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="T109" s="27">
+        <f>130+H109</f>
+        <v>652188</v>
+      </c>
+      <c r="U109" s="27">
+        <f>T109+30</f>
+        <v>652218</v>
+      </c>
+      <c r="V109" s="11">
+        <v>130</v>
+      </c>
+      <c r="W109" s="11">
+        <v>160</v>
+      </c>
+      <c r="X109" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y109" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z109" s="11"/>
+      <c r="AA109" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A110" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B110" s="11">
+        <v>652172</v>
+      </c>
+      <c r="C110" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="E110" s="9">
-        <v>0</v>
-      </c>
-      <c r="F110" s="9">
-        <f t="shared" si="71"/>
-        <v>3731069</v>
-      </c>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9">
-        <f t="shared" si="72"/>
-        <v>3731069</v>
-      </c>
-      <c r="I110" s="9">
-        <f t="shared" si="73"/>
-        <v>3731229</v>
-      </c>
-      <c r="J110" s="9" t="str">
-        <f t="shared" si="64"/>
+      <c r="D110" s="11">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="11">
+        <v>0</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" si="81"/>
+        <v>652172</v>
+      </c>
+      <c r="G110" s="11"/>
+      <c r="H110" s="27">
+        <v>652058</v>
+      </c>
+      <c r="I110" s="11">
+        <f>H110+D110*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J110" s="11" t="str">
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
-      <c r="O110" s="9"/>
-      <c r="P110" s="9"/>
-      <c r="Q110" s="9"/>
-      <c r="R110" s="9"/>
-      <c r="S110" s="9"/>
-      <c r="T110" s="9"/>
-      <c r="U110" s="9"/>
-      <c r="V110" s="9"/>
-      <c r="W110" s="9"/>
-      <c r="X110" s="9"/>
-      <c r="Y110" s="9"/>
-      <c r="Z110" s="9"/>
-      <c r="AA110" s="9"/>
+      <c r="K110" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L110" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="M110" s="11">
+        <v>652172</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O110" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="P110" s="11">
+        <v>652118</v>
+      </c>
+      <c r="Q110" s="11">
+        <v>652140</v>
+      </c>
+      <c r="R110" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S110" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="T110" s="27">
+        <f>60+H110</f>
+        <v>652118</v>
+      </c>
+      <c r="U110" s="27">
+        <f>T110+25</f>
+        <v>652143</v>
+      </c>
+      <c r="V110" s="11">
+        <v>60</v>
+      </c>
+      <c r="W110" s="11">
+        <v>85</v>
+      </c>
+      <c r="X110" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y110" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z110" s="11"/>
+      <c r="AA110" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:27">
       <c r="A111" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B111" s="9">
-        <v>3730807</v>
+        <v>70075</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D111" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="E111" s="9">
         <v>0</v>
       </c>
       <c r="F111" s="9">
-        <f t="shared" si="71"/>
-        <v>3730807</v>
+        <f t="shared" si="81"/>
+        <v>70075</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9">
-        <f t="shared" si="72"/>
-        <v>3730807</v>
+        <f t="shared" si="82"/>
+        <v>70075</v>
       </c>
       <c r="I111" s="9">
-        <f t="shared" si="73"/>
-        <v>3730647</v>
+        <f t="shared" si="83"/>
+        <v>69915</v>
       </c>
       <c r="J111" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K111" s="9"/>
@@ -11302,36 +11488,36 @@
     </row>
     <row r="112" spans="1:27">
       <c r="A112" s="26" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="B112" s="9">
-        <v>1647934</v>
+        <v>70241</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D112" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="E112" s="9">
         <v>0</v>
       </c>
       <c r="F112" s="9">
-        <f t="shared" si="71"/>
-        <v>1647934</v>
+        <f t="shared" si="81"/>
+        <v>70241</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9">
-        <f t="shared" si="72"/>
-        <v>1647934</v>
+        <f t="shared" si="82"/>
+        <v>70241</v>
       </c>
       <c r="I112" s="9">
-        <f t="shared" si="73"/>
-        <v>1648094</v>
+        <f t="shared" si="83"/>
+        <v>70401</v>
       </c>
       <c r="J112" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
       <c r="K112" s="9"/>
@@ -11354,37 +11540,37 @@
     </row>
     <row r="113" spans="1:27">
       <c r="A113" s="26" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B113" s="9">
-        <v>1647876</v>
+        <v>3731069</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D113" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E113" s="9">
         <v>0</v>
       </c>
       <c r="F113" s="9">
-        <f t="shared" si="71"/>
-        <v>1647876</v>
+        <f t="shared" si="81"/>
+        <v>3731069</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9">
-        <f t="shared" si="72"/>
-        <v>1647876</v>
+        <f t="shared" si="82"/>
+        <v>3731069</v>
       </c>
       <c r="I113" s="9">
-        <f t="shared" si="73"/>
-        <v>1647716</v>
+        <f t="shared" si="83"/>
+        <v>3731229</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -11406,37 +11592,37 @@
     </row>
     <row r="114" spans="1:27">
       <c r="A114" s="26" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="B114" s="9">
-        <v>1649597</v>
+        <v>3730807</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D114" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E114" s="9">
         <v>0</v>
       </c>
       <c r="F114" s="9">
-        <f t="shared" si="71"/>
-        <v>1649597</v>
+        <f t="shared" si="81"/>
+        <v>3730807</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9">
-        <f t="shared" si="72"/>
-        <v>1649597</v>
+        <f t="shared" si="82"/>
+        <v>3730807</v>
       </c>
       <c r="I114" s="9">
-        <f t="shared" si="73"/>
-        <v>1649757</v>
+        <f t="shared" si="83"/>
+        <v>3730647</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -11458,37 +11644,37 @@
     </row>
     <row r="115" spans="1:27">
       <c r="A115" s="26" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B115" s="9">
-        <v>3536707</v>
+        <v>1647934</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D115" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E115" s="9">
         <v>0</v>
       </c>
       <c r="F115" s="9">
-        <f t="shared" si="71"/>
-        <v>3536707</v>
+        <f t="shared" si="81"/>
+        <v>1647934</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9">
-        <f t="shared" si="72"/>
-        <v>3536707</v>
+        <f t="shared" si="82"/>
+        <v>1647934</v>
       </c>
       <c r="I115" s="9">
-        <f t="shared" si="73"/>
-        <v>3536547</v>
+        <f t="shared" si="83"/>
+        <v>1648094</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -11510,36 +11696,36 @@
     </row>
     <row r="116" spans="1:27">
       <c r="A116" s="26" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B116" s="9">
-        <v>2524910</v>
+        <v>1647876</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D116" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="E116" s="9">
         <v>0</v>
       </c>
       <c r="F116" s="9">
-        <f t="shared" si="71"/>
-        <v>2524910</v>
+        <f t="shared" si="81"/>
+        <v>1647876</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9">
-        <f t="shared" si="72"/>
-        <v>2524910</v>
+        <f t="shared" si="82"/>
+        <v>1647876</v>
       </c>
       <c r="I116" s="9">
-        <f t="shared" si="73"/>
-        <v>2524750</v>
+        <f t="shared" si="83"/>
+        <v>1647716</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K116" s="9"/>
@@ -11562,36 +11748,36 @@
     </row>
     <row r="117" spans="1:27">
       <c r="A117" s="26" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="B117" s="9">
-        <v>3957912</v>
+        <v>1649597</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D117" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="E117" s="9">
         <v>0</v>
       </c>
       <c r="F117" s="9">
-        <f t="shared" si="71"/>
-        <v>3957912</v>
+        <f t="shared" si="81"/>
+        <v>1649597</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9">
-        <f t="shared" si="72"/>
-        <v>3957912</v>
+        <f t="shared" si="82"/>
+        <v>1649597</v>
       </c>
       <c r="I117" s="9">
-        <f t="shared" si="73"/>
-        <v>3958072</v>
+        <f t="shared" si="83"/>
+        <v>1649757</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
       <c r="K117" s="9"/>
@@ -11614,37 +11800,37 @@
     </row>
     <row r="118" spans="1:27">
       <c r="A118" s="26" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B118" s="9">
-        <v>3927129</v>
+        <v>3536707</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D118" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E118" s="9">
         <v>0</v>
       </c>
       <c r="F118" s="9">
-        <f t="shared" si="71"/>
-        <v>3927129</v>
+        <f t="shared" si="81"/>
+        <v>3536707</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9">
-        <f t="shared" si="72"/>
-        <v>3927129</v>
+        <f t="shared" si="82"/>
+        <v>3536707</v>
       </c>
       <c r="I118" s="9">
-        <f t="shared" si="73"/>
-        <v>3927289</v>
+        <f t="shared" si="83"/>
+        <v>3536547</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
@@ -11666,37 +11852,37 @@
     </row>
     <row r="119" spans="1:27">
       <c r="A119" s="26" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B119" s="9">
-        <v>4494597</v>
+        <v>2524910</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D119" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E119" s="9">
         <v>0</v>
       </c>
       <c r="F119" s="9">
-        <f t="shared" si="71"/>
-        <v>4494597</v>
+        <f t="shared" si="81"/>
+        <v>2524910</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9">
-        <f t="shared" si="72"/>
-        <v>4494597</v>
+        <f t="shared" si="82"/>
+        <v>2524910</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" si="73"/>
-        <v>4494757</v>
+        <f t="shared" si="83"/>
+        <v>2524750</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
@@ -11718,37 +11904,37 @@
     </row>
     <row r="120" spans="1:27">
       <c r="A120" s="26" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B120" s="9">
-        <v>246533</v>
+        <v>3957912</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D120" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E120" s="9">
         <v>0</v>
       </c>
       <c r="F120" s="9">
-        <f t="shared" si="71"/>
-        <v>246533</v>
+        <f t="shared" si="81"/>
+        <v>3957912</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9">
-        <f t="shared" si="72"/>
-        <v>246533</v>
+        <f t="shared" si="82"/>
+        <v>3957912</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="73"/>
-        <v>246373</v>
+        <f t="shared" si="83"/>
+        <v>3958072</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
@@ -11770,37 +11956,37 @@
     </row>
     <row r="121" spans="1:27">
       <c r="A121" s="26" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B121" s="9">
-        <v>4591367</v>
+        <v>3927129</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D121" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E121" s="9">
         <v>0</v>
       </c>
       <c r="F121" s="9">
-        <f t="shared" si="71"/>
-        <v>4591367</v>
+        <f t="shared" si="81"/>
+        <v>3927129</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9">
-        <f t="shared" si="72"/>
-        <v>4591367</v>
+        <f t="shared" si="82"/>
+        <v>3927129</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="73"/>
-        <v>4591207</v>
+        <f t="shared" si="83"/>
+        <v>3927289</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
@@ -11822,37 +12008,37 @@
     </row>
     <row r="122" spans="1:27">
       <c r="A122" s="26" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B122" s="9">
-        <v>1977302</v>
+        <v>4494597</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D122" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E122" s="9">
         <v>0</v>
       </c>
       <c r="F122" s="9">
-        <f t="shared" si="71"/>
-        <v>1977302</v>
+        <f t="shared" si="81"/>
+        <v>4494597</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9">
-        <f t="shared" si="72"/>
-        <v>1977302</v>
+        <f t="shared" si="82"/>
+        <v>4494597</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" si="73"/>
-        <v>1977142</v>
+        <f t="shared" si="83"/>
+        <v>4494757</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -11874,37 +12060,37 @@
     </row>
     <row r="123" spans="1:27">
       <c r="A123" s="26" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B123" s="9">
-        <v>933138</v>
+        <v>246533</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D123" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E123" s="9">
         <v>0</v>
       </c>
       <c r="F123" s="9">
-        <f t="shared" si="71"/>
-        <v>933138</v>
+        <f t="shared" si="81"/>
+        <v>246533</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9">
-        <f t="shared" si="72"/>
-        <v>933138</v>
+        <f t="shared" si="82"/>
+        <v>246533</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="73"/>
-        <v>933298</v>
+        <f t="shared" si="83"/>
+        <v>246373</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
@@ -11926,37 +12112,37 @@
     </row>
     <row r="124" spans="1:27">
       <c r="A124" s="26" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B124" s="9">
-        <v>87969</v>
+        <v>4591367</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D124" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E124" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F124" s="9">
-        <f t="shared" si="71"/>
-        <v>87991</v>
+        <f t="shared" si="81"/>
+        <v>4591367</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9">
-        <f t="shared" si="72"/>
-        <v>87991</v>
+        <f t="shared" si="82"/>
+        <v>4591367</v>
       </c>
       <c r="I124" s="9">
-        <f t="shared" si="73"/>
-        <v>88151</v>
+        <f t="shared" si="83"/>
+        <v>4591207</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -11978,37 +12164,37 @@
     </row>
     <row r="125" spans="1:27">
       <c r="A125" s="26" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B125" s="9">
-        <v>3997907</v>
+        <v>1977302</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D125" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E125" s="9">
         <v>0</v>
       </c>
       <c r="F125" s="9">
-        <f t="shared" si="71"/>
-        <v>3997907</v>
+        <f t="shared" si="81"/>
+        <v>1977302</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9">
-        <f t="shared" si="72"/>
-        <v>3997907</v>
+        <f t="shared" si="82"/>
+        <v>1977302</v>
       </c>
       <c r="I125" s="9">
-        <f t="shared" si="73"/>
-        <v>3998067</v>
+        <f t="shared" si="83"/>
+        <v>1977142</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
@@ -12030,37 +12216,37 @@
     </row>
     <row r="126" spans="1:27">
       <c r="A126" s="26" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B126" s="9">
-        <v>4338042</v>
+        <v>933138</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D126" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E126" s="9">
         <v>0</v>
       </c>
       <c r="F126" s="9">
-        <f t="shared" si="71"/>
-        <v>4338042</v>
+        <f t="shared" si="81"/>
+        <v>933138</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9">
-        <f t="shared" si="72"/>
-        <v>4338042</v>
+        <f t="shared" si="82"/>
+        <v>933138</v>
       </c>
       <c r="I126" s="9">
-        <f t="shared" si="73"/>
-        <v>4337882</v>
+        <f t="shared" si="83"/>
+        <v>933298</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
@@ -12082,36 +12268,36 @@
     </row>
     <row r="127" spans="1:27">
       <c r="A127" s="26" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B127" s="9">
-        <v>1942634</v>
+        <v>87969</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D127" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="E127" s="9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F127" s="9">
-        <f t="shared" si="71"/>
-        <v>1942634</v>
+        <f t="shared" si="81"/>
+        <v>87991</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9">
-        <f t="shared" si="72"/>
-        <v>1942634</v>
+        <f t="shared" si="82"/>
+        <v>87991</v>
       </c>
       <c r="I127" s="9">
-        <f t="shared" si="73"/>
-        <v>1942794</v>
+        <f t="shared" si="83"/>
+        <v>88151</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
       <c r="K127" s="9"/>
@@ -12134,37 +12320,37 @@
     </row>
     <row r="128" spans="1:27">
       <c r="A128" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B128" s="9">
-        <v>1942661</v>
+        <v>3997907</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D128" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E128" s="9">
         <v>0</v>
       </c>
       <c r="F128" s="9">
-        <f t="shared" si="71"/>
-        <v>1942661</v>
+        <f t="shared" si="81"/>
+        <v>3997907</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9">
-        <f t="shared" si="72"/>
-        <v>1942661</v>
+        <f t="shared" si="82"/>
+        <v>3997907</v>
       </c>
       <c r="I128" s="9">
-        <f t="shared" si="73"/>
-        <v>1942501</v>
+        <f t="shared" si="83"/>
+        <v>3998067</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -12186,37 +12372,37 @@
     </row>
     <row r="129" spans="1:27">
       <c r="A129" s="26" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B129" s="9">
-        <v>3182433</v>
+        <v>4338042</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D129" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E129" s="9">
         <v>0</v>
       </c>
       <c r="F129" s="9">
-        <f t="shared" si="71"/>
-        <v>3182433</v>
+        <f t="shared" si="81"/>
+        <v>4338042</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9">
-        <f t="shared" si="72"/>
-        <v>3182433</v>
+        <f t="shared" si="82"/>
+        <v>4338042</v>
       </c>
       <c r="I129" s="9">
-        <f t="shared" si="73"/>
-        <v>3182593</v>
+        <f t="shared" si="83"/>
+        <v>4337882</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
@@ -12238,36 +12424,36 @@
     </row>
     <row r="130" spans="1:27">
       <c r="A130" s="26" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B130" s="9">
-        <v>3637612</v>
+        <v>1942634</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D130" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="E130" s="9">
         <v>0</v>
       </c>
       <c r="F130" s="9">
-        <f t="shared" si="71"/>
-        <v>3637612</v>
+        <f t="shared" si="81"/>
+        <v>1942634</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9">
-        <f t="shared" si="72"/>
-        <v>3637612</v>
+        <f t="shared" si="82"/>
+        <v>1942634</v>
       </c>
       <c r="I130" s="9">
-        <f t="shared" si="73"/>
-        <v>3637772</v>
+        <f t="shared" si="83"/>
+        <v>1942794</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
       <c r="K130" s="9"/>
@@ -12290,37 +12476,37 @@
     </row>
     <row r="131" spans="1:27">
       <c r="A131" s="26" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B131" s="9">
-        <v>4376509</v>
+        <v>1942661</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E131" s="9">
         <v>0</v>
       </c>
       <c r="F131" s="9">
-        <f t="shared" si="71"/>
-        <v>4376509</v>
+        <f t="shared" si="81"/>
+        <v>1942661</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9">
-        <f t="shared" si="72"/>
-        <v>4376509</v>
+        <f t="shared" si="82"/>
+        <v>1942661</v>
       </c>
       <c r="I131" s="9">
-        <f t="shared" si="73"/>
-        <v>4376669</v>
+        <f t="shared" si="83"/>
+        <v>1942501</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
@@ -12342,37 +12528,37 @@
     </row>
     <row r="132" spans="1:27">
       <c r="A132" s="26" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B132" s="9">
-        <v>83735</v>
+        <v>3182433</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D132" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E132" s="9">
         <v>0</v>
       </c>
       <c r="F132" s="9">
-        <f t="shared" si="71"/>
-        <v>83735</v>
+        <f t="shared" si="81"/>
+        <v>3182433</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9">
-        <f t="shared" si="72"/>
-        <v>83735</v>
+        <f t="shared" si="82"/>
+        <v>3182433</v>
       </c>
       <c r="I132" s="9">
-        <f t="shared" si="73"/>
-        <v>83575</v>
+        <f t="shared" si="83"/>
+        <v>3182593</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -12394,35 +12580,37 @@
     </row>
     <row r="133" spans="1:27">
       <c r="A133" s="26" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="B133" s="9">
-        <v>1645903</v>
+        <v>3637612</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D133" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
-      </c>
-      <c r="E133" s="9"/>
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="9">
+        <v>0</v>
+      </c>
       <c r="F133" s="9">
-        <f t="shared" si="71"/>
-        <v>1645903</v>
+        <f t="shared" si="81"/>
+        <v>3637612</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9">
-        <f t="shared" si="72"/>
-        <v>1645903</v>
+        <f t="shared" si="82"/>
+        <v>3637612</v>
       </c>
       <c r="I133" s="9">
-        <f t="shared" si="73"/>
-        <v>1645743</v>
+        <f t="shared" si="83"/>
+        <v>3637772</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -12444,36 +12632,36 @@
     </row>
     <row r="134" spans="1:27">
       <c r="A134" s="26" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="B134" s="9">
-        <v>1619093</v>
+        <v>4376509</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D134" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="E134" s="9">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F134" s="9">
-        <f t="shared" si="71"/>
-        <v>1619083</v>
+        <f t="shared" si="81"/>
+        <v>4376509</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9">
-        <f t="shared" si="72"/>
-        <v>1619083</v>
+        <f t="shared" si="82"/>
+        <v>4376509</v>
       </c>
       <c r="I134" s="9">
-        <f t="shared" si="73"/>
-        <v>1619243</v>
+        <f t="shared" si="83"/>
+        <v>4376669</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>rev</v>
       </c>
       <c r="K134" s="9"/>
@@ -12496,36 +12684,36 @@
     </row>
     <row r="135" spans="1:27">
       <c r="A135" s="26" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B135" s="9">
-        <v>4326836</v>
+        <v>83735</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D135" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="E135" s="9">
         <v>0</v>
       </c>
       <c r="F135" s="9">
-        <f t="shared" si="71"/>
-        <v>4326836</v>
+        <f t="shared" si="81"/>
+        <v>83735</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9">
-        <f t="shared" si="72"/>
-        <v>4326836</v>
+        <f t="shared" si="82"/>
+        <v>83735</v>
       </c>
       <c r="I135" s="9">
-        <f t="shared" si="73"/>
-        <v>4326676</v>
+        <f t="shared" si="83"/>
+        <v>83575</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K135" s="9"/>
@@ -12548,36 +12736,34 @@
     </row>
     <row r="136" spans="1:27">
       <c r="A136" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B136" s="9">
-        <v>2032352</v>
+        <v>1645903</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D136" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
-      <c r="E136" s="9">
-        <v>0</v>
-      </c>
+      <c r="E136" s="9"/>
       <c r="F136" s="9">
-        <f t="shared" si="71"/>
-        <v>2032352</v>
+        <f t="shared" si="81"/>
+        <v>1645903</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9">
-        <f t="shared" si="72"/>
-        <v>2032352</v>
+        <f t="shared" si="82"/>
+        <v>1645903</v>
       </c>
       <c r="I136" s="9">
-        <f t="shared" si="73"/>
-        <v>2032192</v>
+        <f t="shared" si="83"/>
+        <v>1645743</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K136" s="9"/>
@@ -12600,37 +12786,37 @@
     </row>
     <row r="137" spans="1:27">
       <c r="A137" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B137" s="9">
-        <v>2949066</v>
+        <v>1619093</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D137" s="9">
-        <f t="shared" si="70"/>
-        <v>-1</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
       <c r="E137" s="9">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F137" s="9">
-        <f t="shared" si="71"/>
-        <v>2949066</v>
+        <f t="shared" si="81"/>
+        <v>1619083</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9">
-        <f t="shared" si="72"/>
-        <v>2949066</v>
+        <f t="shared" si="82"/>
+        <v>1619083</v>
       </c>
       <c r="I137" s="9">
-        <f t="shared" si="73"/>
-        <v>2948906</v>
+        <f t="shared" si="83"/>
+        <v>1619243</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" si="64"/>
-        <v>fwd</v>
+        <f t="shared" si="74"/>
+        <v>rev</v>
       </c>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
@@ -12652,36 +12838,36 @@
     </row>
     <row r="138" spans="1:27">
       <c r="A138" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B138" s="9">
-        <v>3811175</v>
+        <v>4326836</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="E138" s="9">
         <v>0</v>
       </c>
       <c r="F138" s="9">
-        <f t="shared" si="71"/>
-        <v>3811175</v>
+        <f t="shared" si="81"/>
+        <v>4326836</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9">
-        <f t="shared" si="72"/>
-        <v>3811175</v>
+        <f t="shared" si="82"/>
+        <v>4326836</v>
       </c>
       <c r="I138" s="9">
-        <f t="shared" si="73"/>
-        <v>3811015</v>
+        <f t="shared" si="83"/>
+        <v>4326676</v>
       </c>
       <c r="J138" s="9" t="str">
-        <f t="shared" ref="J138:J141" si="77">IF(C138="rev", "fwd", IF(C138="fwd", "rev", ""))</f>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K138" s="9"/>
@@ -12704,36 +12890,36 @@
     </row>
     <row r="139" spans="1:27">
       <c r="A139" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B139" s="9">
-        <v>919103</v>
+        <v>2032352</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D139" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="E139" s="9">
         <v>0</v>
       </c>
       <c r="F139" s="9">
-        <f t="shared" si="71"/>
-        <v>919103</v>
+        <f t="shared" si="81"/>
+        <v>2032352</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9">
-        <f t="shared" si="72"/>
-        <v>919103</v>
+        <f t="shared" si="82"/>
+        <v>2032352</v>
       </c>
       <c r="I139" s="9">
-        <f t="shared" si="73"/>
-        <v>918943</v>
+        <f t="shared" si="83"/>
+        <v>2032192</v>
       </c>
       <c r="J139" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>fwd</v>
       </c>
       <c r="K139" s="9"/>
@@ -12756,37 +12942,37 @@
     </row>
     <row r="140" spans="1:27">
       <c r="A140" s="26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B140" s="9">
-        <v>830783</v>
+        <v>2949066</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D140" s="9">
-        <f t="shared" si="70"/>
-        <v>1</v>
+        <f t="shared" si="80"/>
+        <v>-1</v>
       </c>
       <c r="E140" s="9">
         <v>0</v>
       </c>
       <c r="F140" s="9">
-        <f t="shared" si="71"/>
-        <v>830783</v>
+        <f t="shared" si="81"/>
+        <v>2949066</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9">
-        <f t="shared" si="72"/>
-        <v>830783</v>
+        <f t="shared" si="82"/>
+        <v>2949066</v>
       </c>
       <c r="I140" s="9">
-        <f t="shared" si="73"/>
-        <v>830943</v>
+        <f t="shared" si="83"/>
+        <v>2948906</v>
       </c>
       <c r="J140" s="9" t="str">
-        <f t="shared" si="77"/>
-        <v>rev</v>
+        <f t="shared" si="74"/>
+        <v>fwd</v>
       </c>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
@@ -12807,32 +12993,38 @@
       <c r="AA140" s="9"/>
     </row>
     <row r="141" spans="1:27">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
+      <c r="A141" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" s="9">
+        <v>3811175</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="D141" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="E141" s="9">
         <v>0</v>
       </c>
       <c r="F141" s="9">
-        <f t="shared" si="71"/>
-        <v>0</v>
+        <f t="shared" si="81"/>
+        <v>3811175</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9">
-        <f t="shared" si="72"/>
-        <v>0</v>
+        <f t="shared" si="82"/>
+        <v>3811175</v>
       </c>
       <c r="I141" s="9">
-        <f t="shared" si="73"/>
-        <v>-160</v>
+        <f t="shared" si="83"/>
+        <v>3811015</v>
       </c>
       <c r="J141" s="9" t="str">
-        <f t="shared" si="77"/>
-        <v/>
+        <f t="shared" ref="J141:J144" si="87">IF(C141="rev", "fwd", IF(C141="fwd", "rev", ""))</f>
+        <v>fwd</v>
       </c>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
@@ -12852,11 +13044,161 @@
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
     </row>
+    <row r="142" spans="1:27">
+      <c r="A142" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="9">
+        <v>919103</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D142" s="9">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="E142" s="9">
+        <v>0</v>
+      </c>
+      <c r="F142" s="9">
+        <f t="shared" si="81"/>
+        <v>919103</v>
+      </c>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9">
+        <f t="shared" si="82"/>
+        <v>919103</v>
+      </c>
+      <c r="I142" s="9">
+        <f t="shared" si="83"/>
+        <v>918943</v>
+      </c>
+      <c r="J142" s="9" t="str">
+        <f t="shared" si="87"/>
+        <v>fwd</v>
+      </c>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="9"/>
+      <c r="T142" s="9"/>
+      <c r="U142" s="9"/>
+      <c r="V142" s="9"/>
+      <c r="W142" s="9"/>
+      <c r="X142" s="9"/>
+      <c r="Y142" s="9"/>
+      <c r="Z142" s="9"/>
+      <c r="AA142" s="9"/>
+    </row>
+    <row r="143" spans="1:27">
+      <c r="A143" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="9">
+        <v>830783</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D143" s="9">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="9">
+        <v>0</v>
+      </c>
+      <c r="F143" s="9">
+        <f t="shared" si="81"/>
+        <v>830783</v>
+      </c>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9">
+        <f t="shared" si="82"/>
+        <v>830783</v>
+      </c>
+      <c r="I143" s="9">
+        <f t="shared" si="83"/>
+        <v>830943</v>
+      </c>
+      <c r="J143" s="9" t="str">
+        <f t="shared" si="87"/>
+        <v>rev</v>
+      </c>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
+      <c r="T143" s="9"/>
+      <c r="U143" s="9"/>
+      <c r="V143" s="9"/>
+      <c r="W143" s="9"/>
+      <c r="X143" s="9"/>
+      <c r="Y143" s="9"/>
+      <c r="Z143" s="9"/>
+      <c r="AA143" s="9"/>
+    </row>
+    <row r="144" spans="1:27">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9">
+        <f t="shared" si="80"/>
+        <v>-1</v>
+      </c>
+      <c r="E144" s="9">
+        <v>0</v>
+      </c>
+      <c r="F144" s="9">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="I144" s="9">
+        <f t="shared" si="83"/>
+        <v>-160</v>
+      </c>
+      <c r="J144" s="9" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="9"/>
+      <c r="T144" s="9"/>
+      <c r="U144" s="9"/>
+      <c r="V144" s="9"/>
+      <c r="W144" s="9"/>
+      <c r="X144" s="9"/>
+      <c r="Y144" s="9"/>
+      <c r="Z144" s="9"/>
+      <c r="AA144" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I88 Q29" formula="1"/>
+    <ignoredError sqref="I91 Q29 H49" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12876,18 +13218,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -12895,7 +13237,7 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -12903,7 +13245,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -12923,7 +13265,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -12931,15 +13273,15 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -12947,7 +13289,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:2">

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3445FE4B-9FBA-8349-BB56-737ADAF78323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF9B2F4-1AC6-6B4B-BA2E-7581E24B8838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="343">
   <si>
     <t>Operon</t>
   </si>
@@ -397,9 +397,6 @@
     <t>rev</t>
   </si>
   <si>
-    <t>dnaE_start2</t>
-  </si>
-  <si>
     <t>ydhO</t>
   </si>
   <si>
@@ -1037,6 +1034,39 @@
   </si>
   <si>
     <t>GGTGTGCCTGGCGTACGTCCGGTGGTTGGCGAAATAGCAGCCAATTCGATAGCTGCGGAAGCACAAATTGCACCAGGTACGGAACTAAAAGCCGTAGATGGTATCGAAACGCCTGATTGGGATGCCGTGCGTTTGCAGTTGGTCGATAAAATTGGCGATG</t>
+  </si>
+  <si>
+    <t>CCTGGCGTACGTCCGGTGGTTGGCGAAATAG</t>
+  </si>
+  <si>
+    <t>CAGCCAATTCGATAGCTGCGG</t>
+  </si>
+  <si>
+    <t>GTGAACTTAGGGATAATTAACCTGTTTCCGTTGCCCGTACTTGACGGGGGGCATCTGCTGTTCCTTGCGATCGAAAAGATCAAGGGCGGACCGGTATCCGAGCGGGTTCAAGACTTTTGTTATCGCATTGGCTCGATTCTGCTGGTGCTGTTAATGGGGC</t>
+  </si>
+  <si>
+    <t>CTTTTGTTATCGCATT</t>
+  </si>
+  <si>
+    <t>atcgcaaagaaaaaaattctccggcgacgcggtttttaacaggtgttctatgcttgaaatGaggtgctccacacagagagc</t>
+  </si>
+  <si>
+    <t>1,235,709 &lt;- 1,237,241</t>
+  </si>
+  <si>
+    <t>TATCCAGCATAAAATTCCGTTCAGAAGCGGATTAGTGGCACTCTGATAATAAGAAATCGCAAAGAAAAAAATTCTCCGGCGACGCGGTTTTTAACAGGTGTTCTATGCTTGAAATGAGGTGCTCCACACAGAGAGCGCCGACAACAATGAGGTGCGCGTA</t>
+  </si>
+  <si>
+    <t>GAGGTGCTCCACACAGAGAGC</t>
+  </si>
+  <si>
+    <t>TCCGGCGACGCGGTTTTTAACAGGTGTTCTATGCTTGAAATG</t>
+  </si>
+  <si>
+    <t>2,211,726 &lt;- 2,212,196</t>
+  </si>
+  <si>
+    <t>CAGGAGATTCGTCTGGAAGATAACGGCCAGGCCGAGTTGATTTTGCGTAATGGCTTAACCGTGCCGGTCAGCCGCCGTTATCTGAAAAGCTTAAAAGAGGCGATTGGCCTGTAAAAGACTGCTAAAATGGCTTTTTGCCTCATCAACACCTGAAGGCCTC</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1100,7 @@
       <name val="-webkit-standard"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1155,6 +1185,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1168,7 +1204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1286,6 +1322,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3365,9 +3409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
   <dimension ref="A1:AA144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="157" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U59" sqref="U59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="157" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3404,32 +3448,32 @@
         <v>104</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>107</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>117</v>
@@ -3438,10 +3482,10 @@
         <v>106</v>
       </c>
       <c r="N1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>112</v>
@@ -3450,7 +3494,7 @@
         <v>111</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>113</v>
@@ -3462,10 +3506,10 @@
         <v>114</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X1" s="9" t="s">
         <v>115</v>
@@ -3474,10 +3518,10 @@
         <v>116</v>
       </c>
       <c r="Z1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA1" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" ht="17">
@@ -3516,10 +3560,10 @@
         <v>fwd</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>109</v>
@@ -3531,16 +3575,16 @@
         <v>109</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T2" s="11">
         <v>4085883</v>
@@ -3557,10 +3601,10 @@
         <v>120</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11">
@@ -3603,10 +3647,10 @@
         <v>fwd</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>109</v>
@@ -3618,16 +3662,16 @@
         <v>109</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T3" s="11">
         <v>4085943</v>
@@ -3644,10 +3688,10 @@
         <v>137</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11">
@@ -3690,10 +3734,10 @@
         <v>fwd</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>109</v>
@@ -3711,10 +3755,10 @@
         <v>4085848</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="T4" s="11">
         <v>4085826</v>
@@ -3731,10 +3775,10 @@
         <v>40</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11">
@@ -3777,19 +3821,19 @@
         <v>rev</v>
       </c>
       <c r="K5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="M5" s="11">
         <v>2928035</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P5" s="11">
         <v>2928004</v>
@@ -3798,10 +3842,10 @@
         <v>2928080</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T5" s="11">
         <v>2928004</v>
@@ -3819,10 +3863,10 @@
         <v>109</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11">
@@ -3865,10 +3909,10 @@
         <v>fwd</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="M6" s="11">
         <v>2185451</v>
@@ -3877,7 +3921,7 @@
         <v>109</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P6" s="11">
         <f>Q6-45</f>
@@ -3887,10 +3931,10 @@
         <v>2185451</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T6" s="11">
         <v>2185430</v>
@@ -3907,10 +3951,10 @@
         <v>80</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11">
@@ -3953,10 +3997,10 @@
         <v>fwd</v>
       </c>
       <c r="K7" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="M7" s="11">
         <v>2185451</v>
@@ -3965,19 +4009,19 @@
         <v>109</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T7" s="11">
         <v>2185487</v>
@@ -3995,10 +4039,10 @@
         <v>97</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11">
@@ -4041,31 +4085,31 @@
         <v>fwd</v>
       </c>
       <c r="K8" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>209</v>
-      </c>
       <c r="M8" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>207</v>
-      </c>
       <c r="P8" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T8" s="11">
         <v>2033430</v>
@@ -4082,10 +4126,10 @@
         <v>40</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11">
@@ -4128,31 +4172,31 @@
         <v>fwd</v>
       </c>
       <c r="K9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>209</v>
-      </c>
       <c r="M9" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>207</v>
-      </c>
       <c r="P9" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T9" s="11">
         <v>2033476</v>
@@ -4169,10 +4213,10 @@
         <v>89</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11">
@@ -4215,31 +4259,31 @@
         <v>fwd</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>209</v>
-      </c>
       <c r="M10" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>207</v>
-      </c>
       <c r="P10" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T10" s="11">
         <v>2033494</v>
@@ -4257,10 +4301,10 @@
         <v>101</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11">
@@ -4303,19 +4347,19 @@
         <v>rev</v>
       </c>
       <c r="K11" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="M11" s="11">
         <v>321511</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P11" s="11">
         <v>321537</v>
@@ -4325,10 +4369,10 @@
         <v>321557</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T11" s="11">
         <f>U11-24</f>
@@ -4346,10 +4390,10 @@
         <v>157</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z11" s="11"/>
       <c r="AA11" s="11">
@@ -4392,19 +4436,19 @@
         <v>rev</v>
       </c>
       <c r="K12" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="M12" s="11">
         <v>321511</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P12" s="11">
         <v>321511</v>
@@ -4414,28 +4458,28 @@
         <v>321531</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11">
@@ -4478,19 +4522,19 @@
         <v>rev</v>
       </c>
       <c r="K13" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="M13" s="11">
         <v>321511</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P13" s="11">
         <v>321484</v>
@@ -4500,10 +4544,10 @@
         <v>321504</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T13" s="11">
         <v>321485</v>
@@ -4521,10 +4565,10 @@
         <v>106</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11">
@@ -4567,19 +4611,19 @@
         <v>fwd</v>
       </c>
       <c r="K14" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="11">
         <v>1996897</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P14" s="11">
         <v>1996832</v>
@@ -4588,10 +4632,10 @@
         <v>1996868</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="T14" s="11">
         <v>1996830</v>
@@ -4608,10 +4652,10 @@
         <v>37</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11">
@@ -4654,19 +4698,19 @@
         <v>fwd</v>
       </c>
       <c r="K15" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="M15" s="11">
         <v>1996897</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P15" s="11">
         <v>1996895</v>
@@ -4675,10 +4719,10 @@
         <v>1996911</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T15" s="11">
         <v>1996903</v>
@@ -4695,10 +4739,10 @@
         <v>102</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11">
@@ -4707,7 +4751,7 @@
     </row>
     <row r="16" spans="1:27" s="3" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="11">
         <v>3155262</v>
@@ -4742,19 +4786,19 @@
         <v>fwd</v>
       </c>
       <c r="K16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="M16" s="11">
         <v>3155384</v>
       </c>
       <c r="N16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="P16" s="11">
         <v>3155355</v>
@@ -4763,10 +4807,10 @@
         <v>3155384</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T16" s="11">
         <v>3155336</v>
@@ -4783,10 +4827,10 @@
         <v>147</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11">
@@ -4795,7 +4839,7 @@
     </row>
     <row r="17" spans="1:27" s="3" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="11">
         <v>3155262</v>
@@ -4830,19 +4874,19 @@
         <v>fwd</v>
       </c>
       <c r="K17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="M17" s="11">
         <v>3155384</v>
       </c>
       <c r="N17" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="P17" s="11">
         <v>3155238</v>
@@ -4851,10 +4895,10 @@
         <v>3155261</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T17" s="11">
         <v>3155220</v>
@@ -4871,10 +4915,10 @@
         <v>32</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11">
@@ -4918,19 +4962,19 @@
         <v>fwd</v>
       </c>
       <c r="K18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="M18" s="11">
         <v>3155384</v>
       </c>
       <c r="N18" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="P18" s="11">
         <v>3155217</v>
@@ -4939,10 +4983,10 @@
         <v>3155240</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="T18" s="11">
         <v>3155220</v>
@@ -4959,10 +5003,10 @@
         <v>32</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z18" s="13"/>
       <c r="AA18" s="11">
@@ -4971,7 +5015,7 @@
     </row>
     <row r="19" spans="1:27" s="4" customFormat="1" ht="17">
       <c r="A19" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="15">
         <v>3836664</v>
@@ -5005,31 +5049,31 @@
         <v>fwd</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M19" s="15">
         <v>3836664</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T19" s="15">
         <f>U19-10</f>
@@ -5047,10 +5091,10 @@
         <v>120</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y19" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15">
@@ -5059,7 +5103,7 @@
     </row>
     <row r="20" spans="1:27" s="4" customFormat="1" ht="17">
       <c r="A20" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20" s="15">
         <v>3836664</v>
@@ -5093,19 +5137,19 @@
         <v>fwd</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M20" s="15">
         <v>3836664</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P20" s="15">
         <f>Q20-20</f>
@@ -5115,28 +5159,28 @@
         <v>3836664</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W20" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X20" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y20" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15">
@@ -5179,10 +5223,10 @@
         <v>fwd</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M21" s="18">
         <v>909320</v>
@@ -5191,7 +5235,7 @@
         <v>109</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P21" s="18">
         <v>909300</v>
@@ -5200,10 +5244,10 @@
         <v>909320</v>
       </c>
       <c r="R21" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="S21" s="18" t="s">
         <v>242</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>243</v>
       </c>
       <c r="T21" s="18">
         <v>909290</v>
@@ -5220,10 +5264,10 @@
         <v>34</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y21" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z21" s="18"/>
       <c r="AA21" s="18">
@@ -5266,10 +5310,10 @@
         <v>fwd</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M22" s="18">
         <v>909320</v>
@@ -5278,19 +5322,19 @@
         <v>109</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T22" s="18">
         <v>909400</v>
@@ -5307,10 +5351,10 @@
         <v>150</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y22" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z22" s="18"/>
       <c r="AA22" s="18">
@@ -5353,19 +5397,19 @@
         <v>fwd</v>
       </c>
       <c r="K23" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="L23" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>249</v>
       </c>
       <c r="M23" s="21">
         <v>3349831</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P23" s="21">
         <v>3350541</v>
@@ -5374,10 +5418,10 @@
         <v>3350555</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T23" s="21">
         <v>3350582</v>
@@ -5395,10 +5439,10 @@
         <v>141</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y23" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21">
@@ -5441,31 +5485,31 @@
         <v>fwd</v>
       </c>
       <c r="K24" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="L24" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>249</v>
       </c>
       <c r="M24" s="21">
         <v>3349831</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R24" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T24" s="21">
         <f>U24-13</f>
@@ -5483,10 +5527,10 @@
         <v>40</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y24" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21">
@@ -5530,31 +5574,31 @@
         <v>rev</v>
       </c>
       <c r="K25" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="L25" s="23" t="s">
-        <v>254</v>
-      </c>
       <c r="M25" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N25" s="23" t="s">
         <v>109</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R25" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S25" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T25" s="23">
         <v>4269279</v>
@@ -5572,10 +5616,10 @@
         <v>52</v>
       </c>
       <c r="X25" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y25" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z25" s="23"/>
       <c r="AA25" s="23">
@@ -5619,31 +5663,31 @@
         <v>rev</v>
       </c>
       <c r="K26" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="L26" s="23" t="s">
-        <v>254</v>
-      </c>
       <c r="M26" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>109</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R26" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S26" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T26" s="23">
         <v>4269293</v>
@@ -5661,10 +5705,10 @@
         <v>69</v>
       </c>
       <c r="X26" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y26" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z26" s="23"/>
       <c r="AA26" s="23">
@@ -5708,31 +5752,31 @@
         <v>rev</v>
       </c>
       <c r="K27" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="L27" s="23" t="s">
-        <v>254</v>
-      </c>
       <c r="M27" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>109</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q27" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R27" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S27" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T27" s="23">
         <f>U27-10</f>
@@ -5750,10 +5794,10 @@
         <v>119</v>
       </c>
       <c r="X27" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y27" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z27" s="23"/>
       <c r="AA27" s="23">
@@ -5797,19 +5841,19 @@
         <v>rev</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M28" s="25">
         <v>4474096</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O28" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P28" s="25">
         <v>4474064</v>
@@ -5819,10 +5863,10 @@
         <v>4474076</v>
       </c>
       <c r="R28" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S28" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T28" s="25">
         <v>4474060</v>
@@ -5840,10 +5884,10 @@
         <v>96</v>
       </c>
       <c r="X28" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y28" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z28" s="25"/>
       <c r="AA28" s="25">
@@ -5887,19 +5931,19 @@
         <v>rev</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M29" s="25">
         <v>4474096</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O29" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P29" s="9">
         <v>4474077</v>
@@ -5909,10 +5953,10 @@
         <v>4474087</v>
       </c>
       <c r="R29" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S29" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T29" s="25">
         <v>4474075</v>
@@ -5930,10 +5974,10 @@
         <v>106</v>
       </c>
       <c r="X29" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y29" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z29" s="25"/>
       <c r="AA29" s="25">
@@ -5977,19 +6021,19 @@
         <v>rev</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M30" s="25">
         <v>4474096</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O30" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P30" s="25">
         <v>4474096</v>
@@ -5999,10 +6043,10 @@
         <v>4474116</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S30" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T30" s="25">
         <v>4474094</v>
@@ -6019,10 +6063,10 @@
         <v>128</v>
       </c>
       <c r="X30" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y30" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z30" s="25"/>
       <c r="AA30" s="25">
@@ -6065,19 +6109,19 @@
         <v>fwd</v>
       </c>
       <c r="K31" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" s="30" t="s">
         <v>269</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>270</v>
       </c>
       <c r="M31" s="31">
         <v>1523276</v>
       </c>
       <c r="N31" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="O31" s="31" t="s">
         <v>266</v>
-      </c>
-      <c r="O31" s="31" t="s">
-        <v>267</v>
       </c>
       <c r="P31" s="29">
         <f>Q31-20</f>
@@ -6087,10 +6131,10 @@
         <v>1523276</v>
       </c>
       <c r="R31" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S31" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T31" s="29">
         <v>1523258</v>
@@ -6107,10 +6151,10 @@
         <v>48</v>
       </c>
       <c r="X31" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y31" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z31" s="29"/>
       <c r="AA31" s="29">
@@ -6154,19 +6198,19 @@
         <v>rev</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M32" s="33" t="s">
         <v>109</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P32" s="33">
         <v>897947</v>
@@ -6176,10 +6220,10 @@
         <v>897967</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S32" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T32" s="33">
         <v>897915</v>
@@ -6196,10 +6240,10 @@
         <v>117</v>
       </c>
       <c r="X32" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y32" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z32" s="33"/>
       <c r="AA32" s="33">
@@ -6242,31 +6286,31 @@
         <v>fwd</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M33" s="36" t="s">
         <v>109</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R33" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T33" s="36">
         <f>U33-23</f>
@@ -6284,10 +6328,10 @@
         <v>120</v>
       </c>
       <c r="X33" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y33" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z33" s="36"/>
       <c r="AA33" s="36">
@@ -6330,19 +6374,19 @@
         <v>fwd</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M34" s="11" t="s">
         <v>109</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P34" s="11">
         <f>Q34-20</f>
@@ -6352,10 +6396,10 @@
         <v>1116709</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T34" s="11">
         <v>1116680</v>
@@ -6373,10 +6417,10 @@
         <v>30</v>
       </c>
       <c r="X34" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y34" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11">
@@ -6420,19 +6464,19 @@
         <v>rev</v>
       </c>
       <c r="K35" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="M35">
         <v>2876544</v>
       </c>
       <c r="N35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P35">
         <v>2876544</v>
@@ -6442,10 +6486,10 @@
         <v>2876565</v>
       </c>
       <c r="R35" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S35" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T35" s="39">
         <v>2876538</v>
@@ -6463,10 +6507,10 @@
         <v>115</v>
       </c>
       <c r="X35" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y35" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z35" s="39"/>
       <c r="AA35" s="39">
@@ -6510,31 +6554,31 @@
         <v>rev</v>
       </c>
       <c r="K36" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="M36">
         <v>2876544</v>
       </c>
       <c r="N36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q36" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R36" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S36" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T36" s="39">
         <f>U36-14</f>
@@ -6552,10 +6596,10 @@
         <v>40</v>
       </c>
       <c r="X36" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y36" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z36" s="39"/>
       <c r="AA36" s="39">
@@ -6599,31 +6643,31 @@
         <v>rev</v>
       </c>
       <c r="K37" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M37" s="42" t="s">
         <v>109</v>
       </c>
       <c r="N37" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O37" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P37" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R37" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S37" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T37" s="42">
         <v>3235879</v>
@@ -6641,10 +6685,10 @@
         <v>98</v>
       </c>
       <c r="X37" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y37" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z37" s="42"/>
       <c r="AA37" s="42">
@@ -6688,31 +6732,31 @@
         <v>rev</v>
       </c>
       <c r="K38" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M38" s="42" t="s">
         <v>109</v>
       </c>
       <c r="N38" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O38" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P38" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q38" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S38" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T38" s="42">
         <v>3235841</v>
@@ -6730,10 +6774,10 @@
         <v>51</v>
       </c>
       <c r="X38" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y38" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z38" s="42"/>
       <c r="AA38" s="42">
@@ -6773,31 +6817,31 @@
         <v>rev</v>
       </c>
       <c r="K39" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M39" s="39" t="s">
         <v>109</v>
       </c>
       <c r="N39" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O39" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P39" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q39" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R39" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S39" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T39" s="39">
         <v>2009750</v>
@@ -6815,10 +6859,10 @@
         <v>98</v>
       </c>
       <c r="X39" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y39" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z39" s="39"/>
       <c r="AA39" s="39">
@@ -6858,31 +6902,31 @@
         <v>rev</v>
       </c>
       <c r="K40" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M40" s="39" t="s">
         <v>109</v>
       </c>
       <c r="N40" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O40" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P40" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q40" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R40" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S40" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T40" s="39">
         <v>2009760</v>
@@ -6900,10 +6944,10 @@
         <v>114</v>
       </c>
       <c r="X40" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y40" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39">
@@ -6945,19 +6989,19 @@
         <v>fwd</v>
       </c>
       <c r="K41" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="M41" s="3">
         <v>4484273</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>4484251</v>
@@ -6966,10 +7010,10 @@
         <v>4484273</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T41" s="11">
         <v>4484278</v>
@@ -6987,10 +7031,10 @@
         <v>74</v>
       </c>
       <c r="X41" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y41" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z41" s="11"/>
       <c r="AA41" s="11">
@@ -7032,31 +7076,31 @@
         <v>fwd</v>
       </c>
       <c r="K42" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="M42" s="3">
         <v>4484273</v>
       </c>
       <c r="N42" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="P42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T42" s="11">
         <v>4484349</v>
@@ -7073,10 +7117,10 @@
         <v>156</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y42" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z42" s="11"/>
       <c r="AA42" s="11">
@@ -7116,19 +7160,19 @@
         <v>fwd</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M43" s="45" t="s">
         <v>109</v>
       </c>
       <c r="N43" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O43" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P43" s="45">
         <v>2585566</v>
@@ -7137,10 +7181,10 @@
         <v>2585576</v>
       </c>
       <c r="R43" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S43" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T43" s="45">
         <v>2585580</v>
@@ -7158,10 +7202,10 @@
         <v>66</v>
       </c>
       <c r="X43" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y43" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z43" s="45"/>
       <c r="AA43" s="45">
@@ -7201,31 +7245,31 @@
         <v>fwd</v>
       </c>
       <c r="K44" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M44" s="45" t="s">
         <v>109</v>
       </c>
       <c r="N44" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O44" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P44" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q44" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R44" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S44" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T44" s="45">
         <v>2585640</v>
@@ -7243,10 +7287,10 @@
         <v>139</v>
       </c>
       <c r="X44" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y44" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z44" s="45"/>
       <c r="AA44" s="45">
@@ -7288,19 +7332,19 @@
         <v>fwd</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M45">
         <v>63588</v>
       </c>
       <c r="N45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P45" s="11">
         <v>63338</v>
@@ -7309,28 +7353,28 @@
         <v>63358</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W45" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X45" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y45" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z45" s="11"/>
       <c r="AA45" s="11">
@@ -7372,19 +7416,19 @@
         <v>fwd</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L46" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M46">
         <v>63588</v>
       </c>
       <c r="N46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P46" s="11">
         <v>63435</v>
@@ -7393,10 +7437,10 @@
         <v>63488</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T46" s="11">
         <v>63430</v>
@@ -7414,10 +7458,10 @@
         <v>134</v>
       </c>
       <c r="X46" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y46" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z46" s="11"/>
       <c r="AA46" s="11">
@@ -7459,19 +7503,19 @@
         <v>fwd</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M47">
         <v>2230395</v>
       </c>
       <c r="N47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P47" s="21">
         <v>2230385</v>
@@ -7480,10 +7524,10 @@
         <v>2230395</v>
       </c>
       <c r="R47" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T47" s="21">
         <v>2230387</v>
@@ -7501,10 +7545,10 @@
         <v>69</v>
       </c>
       <c r="X47" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y47" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z47" s="21"/>
       <c r="AA47" s="21">
@@ -7546,31 +7590,31 @@
         <v>fwd</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M48">
         <v>2230395</v>
       </c>
       <c r="N48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P48" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q48" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R48" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S48" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T48" s="21">
         <f>U48-29</f>
@@ -7588,10 +7632,10 @@
         <v>159</v>
       </c>
       <c r="X48" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y48" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z48" s="21"/>
       <c r="AA48" s="21">
@@ -7633,19 +7677,19 @@
         <v>fwd</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M49">
         <v>4081361</v>
       </c>
       <c r="N49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P49" s="11">
         <v>4081340</v>
@@ -7654,10 +7698,10 @@
         <v>4081361</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T49" s="11">
         <v>4081320</v>
@@ -7675,10 +7719,10 @@
         <v>30</v>
       </c>
       <c r="X49" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y49" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z49" s="11"/>
       <c r="AA49" s="11">
@@ -7720,31 +7764,31 @@
         <v>fwd</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M50">
         <v>4081361</v>
       </c>
       <c r="N50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T50" s="11">
         <v>4081400</v>
@@ -7762,10 +7806,10 @@
         <v>105</v>
       </c>
       <c r="X50" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y50" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z50" s="11"/>
       <c r="AA50" s="11">
@@ -7807,19 +7851,19 @@
         <v>fwd</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M51">
         <v>4081361</v>
       </c>
       <c r="N51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P51" s="11">
         <v>4081340</v>
@@ -7828,10 +7872,10 @@
         <v>4081361</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T51" s="11">
         <v>4081430</v>
@@ -7849,10 +7893,10 @@
         <v>155</v>
       </c>
       <c r="X51" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y51" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z51" s="11"/>
       <c r="AA51" s="11">
@@ -7893,31 +7937,31 @@
         <v>rev</v>
       </c>
       <c r="K52" s="49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M52" s="49" t="s">
         <v>109</v>
       </c>
       <c r="N52" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P52" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q52" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R52" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S52" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T52" s="49">
         <v>196917</v>
@@ -7934,10 +7978,16 @@
         <f t="shared" si="36"/>
         <v>36</v>
       </c>
-      <c r="X52" s="49"/>
-      <c r="Y52" s="49"/>
+      <c r="X52" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y52" s="49" t="s">
+        <v>151</v>
+      </c>
       <c r="Z52" s="49"/>
-      <c r="AA52" s="49"/>
+      <c r="AA52" s="49">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:27" s="50" customFormat="1" ht="17">
       <c r="A53" s="48" t="s">
@@ -7973,31 +8023,31 @@
         <v>rev</v>
       </c>
       <c r="K53" s="49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M53" s="49" t="s">
         <v>109</v>
       </c>
       <c r="N53" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P53" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q53" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R53" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S53" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T53" s="49">
         <v>196948</v>
@@ -8014,182 +8064,253 @@
         <f>U53-H53</f>
         <v>57</v>
       </c>
-      <c r="X53" s="49"/>
-      <c r="Y53" s="49"/>
+      <c r="X53" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y53" s="49" t="s">
+        <v>169</v>
+      </c>
       <c r="Z53" s="49"/>
-      <c r="AA53" s="49"/>
-    </row>
-    <row r="54" spans="1:27">
-      <c r="A54" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="9">
+      <c r="AA53" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A54" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="11">
         <v>197821</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="11">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9">
+      <c r="E54" s="11"/>
+      <c r="F54" s="11">
         <f t="shared" si="7"/>
         <v>197821</v>
       </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9">
-        <f t="shared" si="43"/>
-        <v>197777</v>
-      </c>
-      <c r="I54" s="9">
+      <c r="G54" s="11"/>
+      <c r="H54" s="11">
+        <v>197707</v>
+      </c>
+      <c r="I54" s="11">
         <f t="shared" si="49"/>
-        <v>197936</v>
-      </c>
-      <c r="J54" s="9" t="str">
+        <v>197866</v>
+      </c>
+      <c r="J54" s="11" t="str">
         <f t="shared" si="3"/>
         <v>rev</v>
       </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
+      <c r="K54" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="L54" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="T54" s="11">
+        <v>197820</v>
+      </c>
+      <c r="U54" s="11">
+        <v>197835</v>
+      </c>
       <c r="V54" s="11">
         <f>T54-H54</f>
-        <v>-197777</v>
+        <v>113</v>
       </c>
       <c r="W54" s="11">
         <f>U54-H54</f>
-        <v>-197777</v>
-      </c>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-    </row>
-    <row r="55" spans="1:27">
-      <c r="A55" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="X54" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y54" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" s="50" customFormat="1" ht="17">
+      <c r="A55" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="49">
         <v>1237285</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="49">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="9">
+      <c r="E55" s="49">
+        <v>0</v>
+      </c>
+      <c r="F55" s="49">
         <f t="shared" si="7"/>
         <v>1237285</v>
       </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9">
+      <c r="G55" s="49"/>
+      <c r="H55" s="49">
         <f t="shared" si="43"/>
         <v>1237241</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="49">
         <f t="shared" si="49"/>
         <v>1237400</v>
       </c>
-      <c r="J55" s="9" t="str">
+      <c r="J55" s="49" t="str">
         <f t="shared" si="3"/>
         <v>fwd</v>
       </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="11">
+      <c r="K55" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="L55" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="M55" s="50">
+        <v>1237285</v>
+      </c>
+      <c r="N55" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="O55" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="P55" s="49">
+        <v>123265</v>
+      </c>
+      <c r="Q55" s="49">
+        <v>123285</v>
+      </c>
+      <c r="R55" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="S55" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="T55" s="49">
+        <v>1237285</v>
+      </c>
+      <c r="U55" s="49">
+        <f>T55+40</f>
+        <v>1237325</v>
+      </c>
+      <c r="V55" s="49">
         <f t="shared" si="35"/>
-        <v>-1237241</v>
-      </c>
-      <c r="W55" s="11">
+        <v>44</v>
+      </c>
+      <c r="W55" s="49">
         <f t="shared" si="36"/>
-        <v>-1237241</v>
-      </c>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-    </row>
-    <row r="56" spans="1:27">
-      <c r="A56" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X55" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y55" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z55" s="49"/>
+      <c r="AA55" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" s="54" customFormat="1">
+      <c r="A56" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="53">
         <v>2212241</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="53">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="53">
         <v>-15</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="53">
         <f t="shared" si="7"/>
         <v>2212256</v>
       </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9">
-        <f t="shared" si="43"/>
-        <v>2212212</v>
-      </c>
-      <c r="I56" s="9">
+      <c r="G56" s="53"/>
+      <c r="H56" s="53">
+        <v>2212197</v>
+      </c>
+      <c r="I56" s="53">
         <f t="shared" si="49"/>
-        <v>2212371</v>
-      </c>
-      <c r="J56" s="9" t="str">
+        <v>2212356</v>
+      </c>
+      <c r="J56" s="53" t="str">
         <f t="shared" si="3"/>
         <v>fwd</v>
       </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="11">
+      <c r="K56" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="L56" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="M56" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="N56" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="O56" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="53">
         <f t="shared" si="35"/>
-        <v>-2212212</v>
-      </c>
-      <c r="W56" s="11">
+        <v>-2212197</v>
+      </c>
+      <c r="W56" s="53">
         <f t="shared" si="36"/>
-        <v>-2212212</v>
-      </c>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
+        <v>-2212197</v>
+      </c>
+      <c r="X56" s="53"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="53"/>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="26" t="s">
@@ -8251,7 +8372,7 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" s="9">
         <v>1734357</v>
@@ -8367,7 +8488,7 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="9">
         <v>1223097</v>
@@ -10049,7 +10170,7 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B89" s="9">
         <v>3808516</v>
@@ -10139,10 +10260,10 @@
         <v>fwd</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M90" s="11">
         <v>4175107</v>
@@ -10151,7 +10272,7 @@
         <v>109</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P90" s="11" t="s">
         <v>109</v>
@@ -10160,10 +10281,10 @@
         <v>109</v>
       </c>
       <c r="R90" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S90" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T90" s="11">
         <v>4175143</v>
@@ -10181,10 +10302,10 @@
         <v>112</v>
       </c>
       <c r="X90" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y90" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z90" s="11"/>
       <c r="AA90" s="11">
@@ -10225,10 +10346,10 @@
         <v>fwd</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M91" s="11">
         <v>4175107</v>
@@ -10237,7 +10358,7 @@
         <v>109</v>
       </c>
       <c r="O91" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P91" s="11">
         <f>Q91-20</f>
@@ -10247,10 +10368,10 @@
         <v>4175107</v>
       </c>
       <c r="R91" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="S91" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="S91" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="T91" s="11">
         <v>4175105</v>
@@ -10268,10 +10389,10 @@
         <v>126</v>
       </c>
       <c r="X91" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y91" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z91" s="11"/>
       <c r="AA91" s="11">
@@ -10396,7 +10517,7 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B94" s="9">
         <v>4472553</v>
@@ -10454,7 +10575,7 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B95" s="9">
         <v>4178354</v>
@@ -10512,7 +10633,7 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B96" s="9">
         <v>2042294</v>
@@ -10570,7 +10691,7 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B97" s="9">
         <v>3922525</v>
@@ -10628,7 +10749,7 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" s="9">
         <v>1114213</v>
@@ -10686,7 +10807,7 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B99" s="9">
         <v>2644913</v>
@@ -10860,7 +10981,7 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B102" s="9">
         <v>189712</v>
@@ -11298,10 +11419,10 @@
         <v>rev</v>
       </c>
       <c r="K109" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M109" s="11">
         <v>652172</v>
@@ -11310,7 +11431,7 @@
         <v>109</v>
       </c>
       <c r="O109" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P109" s="11">
         <v>652193</v>
@@ -11319,10 +11440,10 @@
         <v>652199</v>
       </c>
       <c r="R109" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S109" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T109" s="27">
         <f>130+H109</f>
@@ -11339,10 +11460,10 @@
         <v>160</v>
       </c>
       <c r="X109" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y109" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z109" s="11"/>
       <c r="AA109" s="11">
@@ -11383,10 +11504,10 @@
         <v>rev</v>
       </c>
       <c r="K110" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M110" s="11">
         <v>652172</v>
@@ -11395,7 +11516,7 @@
         <v>109</v>
       </c>
       <c r="O110" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P110" s="11">
         <v>652118</v>
@@ -11404,10 +11525,10 @@
         <v>652140</v>
       </c>
       <c r="R110" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S110" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T110" s="27">
         <f>60+H110</f>
@@ -11424,10 +11545,10 @@
         <v>85</v>
       </c>
       <c r="X110" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y110" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z110" s="11"/>
       <c r="AA110" s="11">
@@ -11644,7 +11765,7 @@
     </row>
     <row r="115" spans="1:27">
       <c r="A115" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B115" s="9">
         <v>1647934</v>
@@ -11748,7 +11869,7 @@
     </row>
     <row r="117" spans="1:27">
       <c r="A117" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="9">
         <v>1649597</v>
@@ -12736,7 +12857,7 @@
     </row>
     <row r="136" spans="1:27">
       <c r="A136" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B136" s="9">
         <v>1645903</v>
@@ -12786,7 +12907,7 @@
     </row>
     <row r="137" spans="1:27">
       <c r="A137" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B137" s="9">
         <v>1619093</v>
@@ -12838,7 +12959,7 @@
     </row>
     <row r="138" spans="1:27">
       <c r="A138" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B138" s="9">
         <v>4326836</v>
@@ -12890,7 +13011,7 @@
     </row>
     <row r="139" spans="1:27">
       <c r="A139" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B139" s="9">
         <v>2032352</v>
@@ -12942,7 +13063,7 @@
     </row>
     <row r="140" spans="1:27">
       <c r="A140" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B140" s="9">
         <v>2949066</v>
@@ -12994,7 +13115,7 @@
     </row>
     <row r="141" spans="1:27">
       <c r="A141" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B141" s="9">
         <v>3811175</v>
@@ -13046,7 +13167,7 @@
     </row>
     <row r="142" spans="1:27">
       <c r="A142" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B142" s="9">
         <v>919103</v>
@@ -13098,7 +13219,7 @@
     </row>
     <row r="143" spans="1:27">
       <c r="A143" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B143" s="9">
         <v>830783</v>
@@ -13218,18 +13339,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13237,7 +13358,7 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -13245,7 +13366,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -13265,7 +13386,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -13273,15 +13394,15 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -13289,7 +13410,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:2">

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF9B2F4-1AC6-6B4B-BA2E-7581E24B8838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DE973C-5CE7-5640-B796-94C7F85485CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="349">
   <si>
     <t>Operon</t>
   </si>
@@ -1067,6 +1067,24 @@
   </si>
   <si>
     <t>CAGGAGATTCGTCTGGAAGATAACGGCCAGGCCGAGTTGATTTTGCGTAATGGCTTAACCGTGCCGGTCAGCCGCCGTTATCTGAAAAGCTTAAAAGAGGCGATTGGCCTGTAAAAGACTGCTAAAATGGCTTTTTGCCTCATCAACACCTGAAGGCCTC</t>
+  </si>
+  <si>
+    <t>TGATTTTGCGTAATGGCTTA</t>
+  </si>
+  <si>
+    <t>gaacaccttacgccctcaattttcactcgttgattgatcgccctcacacttcatcgcattAacaatccagaccaatttcaa</t>
+  </si>
+  <si>
+    <t>2,266,245 -&gt; 2,267,711</t>
+  </si>
+  <si>
+    <t>TCCTGAACACCTTACGCCCTCAATTTTCACTCGTTGATTGATCGCCCTCACACTTCATCGCATTAACAATCCAGACCAATTTCAATTGCTGTCATATAACTTTACACTGTCGTTGTTAATTAATCGTTACTAAGACGTGACTCCTATGAATACAATCGCC</t>
+  </si>
+  <si>
+    <t>AACAATCCAGACCAATTTCAAT</t>
+  </si>
+  <si>
+    <t>ATCGCCCTCACACTTCATCGCATTAA</t>
   </si>
 </sst>
 </file>
@@ -3407,11 +3425,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:AA144"/>
+  <dimension ref="A1:AA145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="157" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="157" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3643,7 +3661,7 @@
         <v>4085982</v>
       </c>
       <c r="J3" s="11" t="str">
-        <f t="shared" ref="J3:J76" si="3">IF(C3="rev", "fwd", IF(C3="fwd", "rev", ""))</f>
+        <f t="shared" ref="J3:J77" si="3">IF(C3="rev", "fwd", IF(C3="fwd", "rev", ""))</f>
         <v>fwd</v>
       </c>
       <c r="K3" s="11" t="s">
@@ -3796,14 +3814,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D92" si="6">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D93" si="6">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" ref="F5:F92" si="7">B5+D5*E5</f>
+        <f t="shared" ref="F5:F93" si="7">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="11">
@@ -6055,11 +6073,11 @@
         <v>4474110</v>
       </c>
       <c r="V30" s="25">
-        <f t="shared" ref="V30:V66" si="35">T30-H30</f>
+        <f t="shared" ref="V30:V67" si="35">T30-H30</f>
         <v>112</v>
       </c>
       <c r="W30" s="25">
-        <f t="shared" ref="W30:W66" si="36">U30-H30</f>
+        <f t="shared" ref="W30:W67" si="36">U30-H30</f>
         <v>128</v>
       </c>
       <c r="X30" s="25" t="s">
@@ -6977,7 +6995,7 @@
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11">
-        <f t="shared" ref="H41:H89" si="43">F41-44</f>
+        <f t="shared" ref="H41:H90" si="43">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="11">
@@ -7324,7 +7342,7 @@
         <v>63314</v>
       </c>
       <c r="I45" s="11">
-        <f t="shared" ref="I45:I89" si="49">H45+159</f>
+        <f t="shared" ref="I45:I90" si="49">H45+159</f>
         <v>63473</v>
       </c>
       <c r="J45" s="11" t="str">
@@ -8293,174 +8311,244 @@
       <c r="O56" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="53"/>
+      <c r="P56" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q56" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="R56" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="S56" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="T56" s="53">
+        <v>2212300</v>
+      </c>
+      <c r="U56" s="53">
+        <v>2212319</v>
+      </c>
       <c r="V56" s="53">
         <f t="shared" si="35"/>
-        <v>-2212197</v>
+        <v>103</v>
       </c>
       <c r="W56" s="53">
         <f t="shared" si="36"/>
-        <v>-2212197</v>
-      </c>
-      <c r="X56" s="53"/>
-      <c r="Y56" s="53"/>
+        <v>122</v>
+      </c>
+      <c r="X56" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y56" s="53" t="s">
+        <v>151</v>
+      </c>
       <c r="Z56" s="53"/>
-      <c r="AA56" s="53"/>
-    </row>
-    <row r="57" spans="1:27">
-      <c r="A57" s="26" t="s">
+      <c r="AA56" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A57" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="11">
         <v>2266214</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="11">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="9">
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
         <f t="shared" si="7"/>
         <v>2266214</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9">
-        <f t="shared" si="43"/>
-        <v>2266170</v>
-      </c>
-      <c r="I57" s="9">
+      <c r="G57" s="11"/>
+      <c r="H57" s="11">
+        <v>2266100</v>
+      </c>
+      <c r="I57" s="11">
         <f t="shared" si="49"/>
-        <v>2266329</v>
-      </c>
-      <c r="J57" s="9" t="str">
+        <v>2266259</v>
+      </c>
+      <c r="J57" s="11" t="str">
         <f t="shared" si="3"/>
         <v>rev</v>
       </c>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
+      <c r="K57" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="L57" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2266164</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="P57" s="11">
+        <v>2266164</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>2266185</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="S57" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="T57" s="11">
+        <v>2266140</v>
+      </c>
+      <c r="U57" s="11">
+        <v>2266165</v>
+      </c>
       <c r="V57" s="11">
-        <f t="shared" si="35"/>
-        <v>-2266170</v>
+        <f>T57-H57</f>
+        <v>40</v>
       </c>
       <c r="W57" s="11">
         <f t="shared" si="36"/>
-        <v>-2266170</v>
-      </c>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-    </row>
-    <row r="58" spans="1:27">
-      <c r="A58" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="X57" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y57" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A58" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="11">
+        <v>2266214</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="11">
+        <f t="shared" ref="D58" si="72">IF(C58="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" ref="F58" si="73">B58+D58*E58</f>
+        <v>2266214</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11">
+        <v>2266100</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" ref="I58" si="74">H58+159</f>
+        <v>2266259</v>
+      </c>
+      <c r="J58" s="11" t="str">
+        <f t="shared" ref="J58" si="75">IF(C58="rev", "fwd", IF(C58="fwd", "rev", ""))</f>
+        <v>rev</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="L58" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="M58" s="3">
+        <v>2266164</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="P58" s="11">
+        <v>2266164</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>2266185</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="W58" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="X58" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y58" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B59" s="9">
         <v>1734357</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9">
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="9">
         <f t="shared" si="7"/>
         <v>1734357</v>
-      </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9">
-        <f t="shared" si="43"/>
-        <v>1734313</v>
-      </c>
-      <c r="I58" s="9">
-        <f t="shared" si="49"/>
-        <v>1734472</v>
-      </c>
-      <c r="J58" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>rev</v>
-      </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="11">
-        <f t="shared" si="35"/>
-        <v>-1734313</v>
-      </c>
-      <c r="W58" s="11">
-        <f t="shared" si="36"/>
-        <v>-1734313</v>
-      </c>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-    </row>
-    <row r="59" spans="1:27">
-      <c r="A59" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="9">
-        <v>4122354</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="9">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
-        <f t="shared" si="7"/>
-        <v>4122354</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9">
         <f t="shared" si="43"/>
-        <v>4122310</v>
+        <v>1734313</v>
       </c>
       <c r="I59" s="9">
         <f t="shared" si="49"/>
-        <v>4122469</v>
+        <v>1734472</v>
       </c>
       <c r="J59" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -8474,12 +8562,12 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="11">
-        <f t="shared" si="35"/>
-        <v>-4122310</v>
+        <f>T59-H59</f>
+        <v>-1734313</v>
       </c>
       <c r="W59" s="11">
         <f t="shared" si="36"/>
-        <v>-4122310</v>
+        <v>-1734313</v>
       </c>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
@@ -8488,10 +8576,10 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="26" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="B60" s="9">
-        <v>1223097</v>
+        <v>4122354</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>118</v>
@@ -8505,16 +8593,16 @@
       </c>
       <c r="F60" s="9">
         <f t="shared" si="7"/>
-        <v>1223097</v>
+        <v>4122354</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9">
         <f t="shared" si="43"/>
-        <v>1223053</v>
+        <v>4122310</v>
       </c>
       <c r="I60" s="9">
         <f t="shared" si="49"/>
-        <v>1223212</v>
+        <v>4122469</v>
       </c>
       <c r="J60" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8533,11 +8621,11 @@
       <c r="U60" s="9"/>
       <c r="V60" s="11">
         <f t="shared" si="35"/>
-        <v>-1223053</v>
+        <v>-4122310</v>
       </c>
       <c r="W60" s="11">
         <f t="shared" si="36"/>
-        <v>-1223053</v>
+        <v>-4122310</v>
       </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
@@ -8546,10 +8634,10 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="26" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="B61" s="9">
-        <v>1907086</v>
+        <v>1223097</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>118</v>
@@ -8563,16 +8651,16 @@
       </c>
       <c r="F61" s="9">
         <f t="shared" si="7"/>
-        <v>1907086</v>
+        <v>1223097</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9">
         <f t="shared" si="43"/>
-        <v>1907042</v>
+        <v>1223053</v>
       </c>
       <c r="I61" s="9">
         <f t="shared" si="49"/>
-        <v>1907201</v>
+        <v>1223212</v>
       </c>
       <c r="J61" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8591,11 +8679,11 @@
       <c r="U61" s="9"/>
       <c r="V61" s="11">
         <f t="shared" si="35"/>
-        <v>-1907042</v>
+        <v>-1223053</v>
       </c>
       <c r="W61" s="11">
         <f t="shared" si="36"/>
-        <v>-1907042</v>
+        <v>-1223053</v>
       </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
@@ -8604,10 +8692,10 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B62" s="9">
-        <v>794644</v>
+        <v>1907086</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>118</v>
@@ -8621,16 +8709,16 @@
       </c>
       <c r="F62" s="9">
         <f t="shared" si="7"/>
-        <v>794644</v>
+        <v>1907086</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9">
         <f t="shared" si="43"/>
-        <v>794600</v>
+        <v>1907042</v>
       </c>
       <c r="I62" s="9">
         <f t="shared" si="49"/>
-        <v>794759</v>
+        <v>1907201</v>
       </c>
       <c r="J62" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8649,11 +8737,11 @@
       <c r="U62" s="9"/>
       <c r="V62" s="11">
         <f t="shared" si="35"/>
-        <v>-794600</v>
+        <v>-1907042</v>
       </c>
       <c r="W62" s="11">
         <f t="shared" si="36"/>
-        <v>-794600</v>
+        <v>-1907042</v>
       </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
@@ -8662,10 +8750,10 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="26" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B63" s="9">
-        <v>1018330</v>
+        <v>794644</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>118</v>
@@ -8679,16 +8767,16 @@
       </c>
       <c r="F63" s="9">
         <f t="shared" si="7"/>
-        <v>1018330</v>
+        <v>794644</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9">
         <f t="shared" si="43"/>
-        <v>1018286</v>
+        <v>794600</v>
       </c>
       <c r="I63" s="9">
         <f t="shared" si="49"/>
-        <v>1018445</v>
+        <v>794759</v>
       </c>
       <c r="J63" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8707,11 +8795,11 @@
       <c r="U63" s="9"/>
       <c r="V63" s="11">
         <f t="shared" si="35"/>
-        <v>-1018286</v>
+        <v>-794600</v>
       </c>
       <c r="W63" s="11">
         <f t="shared" si="36"/>
-        <v>-1018286</v>
+        <v>-794600</v>
       </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
@@ -8720,10 +8808,10 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="26" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B64" s="9">
-        <v>443748</v>
+        <v>1018330</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>118</v>
@@ -8737,16 +8825,16 @@
       </c>
       <c r="F64" s="9">
         <f t="shared" si="7"/>
-        <v>443748</v>
+        <v>1018330</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9">
         <f t="shared" si="43"/>
-        <v>443704</v>
+        <v>1018286</v>
       </c>
       <c r="I64" s="9">
         <f t="shared" si="49"/>
-        <v>443863</v>
+        <v>1018445</v>
       </c>
       <c r="J64" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8765,11 +8853,11 @@
       <c r="U64" s="9"/>
       <c r="V64" s="11">
         <f t="shared" si="35"/>
-        <v>-443704</v>
+        <v>-1018286</v>
       </c>
       <c r="W64" s="11">
         <f t="shared" si="36"/>
-        <v>-443704</v>
+        <v>-1018286</v>
       </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -8778,37 +8866,37 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="26" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B65" s="9">
-        <v>1950760</v>
+        <v>443748</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E65" s="9">
         <v>0</v>
       </c>
       <c r="F65" s="9">
         <f t="shared" si="7"/>
-        <v>1950760</v>
+        <v>443748</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9">
         <f t="shared" si="43"/>
-        <v>1950716</v>
+        <v>443704</v>
       </c>
       <c r="I65" s="9">
         <f t="shared" si="49"/>
-        <v>1950875</v>
+        <v>443863</v>
       </c>
       <c r="J65" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -8823,11 +8911,11 @@
       <c r="U65" s="9"/>
       <c r="V65" s="11">
         <f t="shared" si="35"/>
-        <v>-1950716</v>
+        <v>-443704</v>
       </c>
       <c r="W65" s="11">
         <f t="shared" si="36"/>
-        <v>-1950716</v>
+        <v>-443704</v>
       </c>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
@@ -8836,37 +8924,37 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="26" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B66" s="9">
-        <v>852626</v>
+        <v>1950760</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
         <f t="shared" si="7"/>
-        <v>852626</v>
+        <v>1950760</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9">
         <f t="shared" si="43"/>
-        <v>852582</v>
+        <v>1950716</v>
       </c>
       <c r="I66" s="9">
         <f t="shared" si="49"/>
-        <v>852741</v>
+        <v>1950875</v>
       </c>
       <c r="J66" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
@@ -8881,11 +8969,11 @@
       <c r="U66" s="9"/>
       <c r="V66" s="11">
         <f t="shared" si="35"/>
-        <v>-852582</v>
+        <v>-1950716</v>
       </c>
       <c r="W66" s="11">
         <f t="shared" si="36"/>
-        <v>-852582</v>
+        <v>-1950716</v>
       </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
@@ -8894,10 +8982,10 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="26" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B67" s="9">
-        <v>889945</v>
+        <v>852626</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>118</v>
@@ -8907,20 +8995,20 @@
         <v>-1</v>
       </c>
       <c r="E67" s="9">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" si="7"/>
-        <v>889952</v>
+        <v>852626</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9">
         <f t="shared" si="43"/>
-        <v>889908</v>
+        <v>852582</v>
       </c>
       <c r="I67" s="9">
         <f t="shared" si="49"/>
-        <v>890067</v>
+        <v>852741</v>
       </c>
       <c r="J67" s="9" t="str">
         <f t="shared" si="3"/>
@@ -8938,12 +9026,12 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="11">
-        <f t="shared" ref="V67:V89" si="72">T67-H67</f>
-        <v>-889908</v>
+        <f t="shared" si="35"/>
+        <v>-852582</v>
       </c>
       <c r="W67" s="11">
-        <f t="shared" ref="W67:W89" si="73">U67-H67</f>
-        <v>-889908</v>
+        <f t="shared" si="36"/>
+        <v>-852582</v>
       </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
@@ -8952,37 +9040,37 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="26" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B68" s="9">
-        <v>2926272</v>
+        <v>889945</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E68" s="9">
-        <v>-158</v>
+        <v>-7</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" si="7"/>
-        <v>2926114</v>
+        <v>889952</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9">
         <f t="shared" si="43"/>
-        <v>2926070</v>
+        <v>889908</v>
       </c>
       <c r="I68" s="9">
         <f t="shared" si="49"/>
-        <v>2926229</v>
+        <v>890067</v>
       </c>
       <c r="J68" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -8996,12 +9084,12 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="11">
-        <f t="shared" si="72"/>
-        <v>-2926070</v>
+        <f t="shared" ref="V68:V90" si="76">T68-H68</f>
+        <v>-889908</v>
       </c>
       <c r="W68" s="11">
-        <f t="shared" si="73"/>
-        <v>-2926070</v>
+        <f t="shared" ref="W68:W90" si="77">U68-H68</f>
+        <v>-889908</v>
       </c>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
@@ -9010,37 +9098,37 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="26" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B69" s="9">
-        <v>2870686</v>
+        <v>2926272</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E69" s="9">
-        <v>0</v>
+        <v>-158</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" si="7"/>
-        <v>2870686</v>
+        <v>2926114</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9">
         <f t="shared" si="43"/>
-        <v>2870642</v>
+        <v>2926070</v>
       </c>
       <c r="I69" s="9">
         <f t="shared" si="49"/>
-        <v>2870801</v>
+        <v>2926229</v>
       </c>
       <c r="J69" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -9054,12 +9142,12 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="11">
-        <f t="shared" si="72"/>
-        <v>-2870642</v>
+        <f t="shared" si="76"/>
+        <v>-2926070</v>
       </c>
       <c r="W69" s="11">
-        <f t="shared" si="73"/>
-        <v>-2870642</v>
+        <f t="shared" si="77"/>
+        <v>-2926070</v>
       </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -9068,10 +9156,10 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="26" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B70" s="9">
-        <v>220022</v>
+        <v>2870686</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>118</v>
@@ -9085,16 +9173,16 @@
       </c>
       <c r="F70" s="9">
         <f t="shared" si="7"/>
-        <v>220022</v>
+        <v>2870686</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9">
         <f t="shared" si="43"/>
-        <v>219978</v>
+        <v>2870642</v>
       </c>
       <c r="I70" s="9">
         <f t="shared" si="49"/>
-        <v>220137</v>
+        <v>2870801</v>
       </c>
       <c r="J70" s="9" t="str">
         <f t="shared" si="3"/>
@@ -9112,12 +9200,12 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="11">
-        <f t="shared" si="72"/>
-        <v>-219978</v>
+        <f t="shared" si="76"/>
+        <v>-2870642</v>
       </c>
       <c r="W70" s="11">
-        <f t="shared" si="73"/>
-        <v>-219978</v>
+        <f t="shared" si="77"/>
+        <v>-2870642</v>
       </c>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -9126,37 +9214,37 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="26" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B71" s="9">
-        <v>2082728</v>
+        <v>220022</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D71" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E71" s="9">
         <v>0</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" si="7"/>
-        <v>2082728</v>
+        <v>220022</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9">
         <f t="shared" si="43"/>
-        <v>2082684</v>
+        <v>219978</v>
       </c>
       <c r="I71" s="9">
         <f t="shared" si="49"/>
-        <v>2082843</v>
+        <v>220137</v>
       </c>
       <c r="J71" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -9170,12 +9258,12 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="11">
-        <f t="shared" si="72"/>
-        <v>-2082684</v>
+        <f t="shared" si="76"/>
+        <v>-219978</v>
       </c>
       <c r="W71" s="11">
-        <f t="shared" si="73"/>
-        <v>-2082684</v>
+        <f t="shared" si="77"/>
+        <v>-219978</v>
       </c>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -9184,37 +9272,37 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B72" s="9">
-        <v>2999918</v>
+        <v>2082728</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" si="7"/>
-        <v>2999918</v>
+        <v>2082728</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9">
         <f t="shared" si="43"/>
-        <v>2999874</v>
+        <v>2082684</v>
       </c>
       <c r="I72" s="9">
         <f t="shared" si="49"/>
-        <v>3000033</v>
+        <v>2082843</v>
       </c>
       <c r="J72" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
@@ -9228,12 +9316,12 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
       <c r="V72" s="11">
-        <f t="shared" si="72"/>
-        <v>-2999874</v>
+        <f t="shared" si="76"/>
+        <v>-2082684</v>
       </c>
       <c r="W72" s="11">
-        <f t="shared" si="73"/>
-        <v>-2999874</v>
+        <f t="shared" si="77"/>
+        <v>-2082684</v>
       </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
@@ -9242,37 +9330,37 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="26" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B73" s="9">
-        <v>486492</v>
+        <v>2999918</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D73" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E73" s="9">
         <v>0</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" si="7"/>
-        <v>486492</v>
+        <v>2999918</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9">
         <f t="shared" si="43"/>
-        <v>486448</v>
+        <v>2999874</v>
       </c>
       <c r="I73" s="9">
         <f t="shared" si="49"/>
-        <v>486607</v>
+        <v>3000033</v>
       </c>
       <c r="J73" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>rev</v>
+        <v>fwd</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
@@ -9286,12 +9374,12 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="11">
-        <f t="shared" si="72"/>
-        <v>-486448</v>
+        <f t="shared" si="76"/>
+        <v>-2999874</v>
       </c>
       <c r="W73" s="11">
-        <f t="shared" si="73"/>
-        <v>-486448</v>
+        <f t="shared" si="77"/>
+        <v>-2999874</v>
       </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
@@ -9300,37 +9388,37 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="26" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B74" s="9">
-        <v>3069871</v>
+        <v>486492</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
         <f t="shared" si="7"/>
-        <v>3069871</v>
+        <v>486492</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9">
         <f t="shared" si="43"/>
-        <v>3069827</v>
+        <v>486448</v>
       </c>
       <c r="I74" s="9">
         <f t="shared" si="49"/>
-        <v>3069986</v>
+        <v>486607</v>
       </c>
       <c r="J74" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>fwd</v>
+        <v>rev</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -9344,12 +9432,12 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
       <c r="V74" s="11">
-        <f t="shared" si="72"/>
-        <v>-3069827</v>
+        <f t="shared" si="76"/>
+        <v>-486448</v>
       </c>
       <c r="W74" s="11">
-        <f t="shared" si="73"/>
-        <v>-3069827</v>
+        <f t="shared" si="77"/>
+        <v>-486448</v>
       </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
@@ -9358,10 +9446,10 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="26" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B75" s="9">
-        <v>1395973</v>
+        <v>3069871</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>118</v>
@@ -9375,16 +9463,16 @@
       </c>
       <c r="F75" s="9">
         <f t="shared" si="7"/>
-        <v>1395973</v>
+        <v>3069871</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9">
         <f t="shared" si="43"/>
-        <v>1395929</v>
+        <v>3069827</v>
       </c>
       <c r="I75" s="9">
         <f t="shared" si="49"/>
-        <v>1396088</v>
+        <v>3069986</v>
       </c>
       <c r="J75" s="9" t="str">
         <f t="shared" si="3"/>
@@ -9402,12 +9490,12 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
       <c r="V75" s="11">
-        <f t="shared" si="72"/>
-        <v>-1395929</v>
+        <f t="shared" si="76"/>
+        <v>-3069827</v>
       </c>
       <c r="W75" s="11">
-        <f t="shared" si="73"/>
-        <v>-1395929</v>
+        <f t="shared" si="77"/>
+        <v>-3069827</v>
       </c>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -9416,10 +9504,10 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B76" s="9">
-        <v>604684</v>
+        <v>1395973</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>118</v>
@@ -9433,16 +9521,16 @@
       </c>
       <c r="F76" s="9">
         <f t="shared" si="7"/>
-        <v>604684</v>
+        <v>1395973</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9">
         <f t="shared" si="43"/>
-        <v>604640</v>
+        <v>1395929</v>
       </c>
       <c r="I76" s="9">
         <f t="shared" si="49"/>
-        <v>604799</v>
+        <v>1396088</v>
       </c>
       <c r="J76" s="9" t="str">
         <f t="shared" si="3"/>
@@ -9452,7 +9540,7 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
+      <c r="O76" s="26"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
@@ -9460,12 +9548,12 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="11">
-        <f t="shared" si="72"/>
-        <v>-604640</v>
+        <f t="shared" si="76"/>
+        <v>-1395929</v>
       </c>
       <c r="W76" s="11">
-        <f t="shared" si="73"/>
-        <v>-604640</v>
+        <f t="shared" si="77"/>
+        <v>-1395929</v>
       </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
@@ -9474,37 +9562,37 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="26" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B77" s="9">
-        <v>1509221</v>
+        <v>604684</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" si="7"/>
-        <v>1509221</v>
+        <v>604684</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9">
         <f t="shared" si="43"/>
-        <v>1509177</v>
+        <v>604640</v>
       </c>
       <c r="I77" s="9">
         <f t="shared" si="49"/>
-        <v>1509336</v>
+        <v>604799</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f t="shared" ref="J77:J140" si="74">IF(C77="rev", "fwd", IF(C77="fwd", "rev", ""))</f>
-        <v>rev</v>
+        <f t="shared" si="3"/>
+        <v>fwd</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -9518,12 +9606,12 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="11">
-        <f t="shared" si="72"/>
-        <v>-1509177</v>
+        <f t="shared" si="76"/>
+        <v>-604640</v>
       </c>
       <c r="W77" s="11">
-        <f t="shared" si="73"/>
-        <v>-1509177</v>
+        <f t="shared" si="77"/>
+        <v>-604640</v>
       </c>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
@@ -9532,37 +9620,37 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="26" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B78" s="9">
-        <v>3353049</v>
+        <v>1509221</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" si="7"/>
-        <v>3353049</v>
+        <v>1509221</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9">
         <f t="shared" si="43"/>
-        <v>3353005</v>
+        <v>1509177</v>
       </c>
       <c r="I78" s="9">
         <f t="shared" si="49"/>
-        <v>3353164</v>
+        <v>1509336</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" ref="J78:J141" si="78">IF(C78="rev", "fwd", IF(C78="fwd", "rev", ""))</f>
+        <v>rev</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -9576,12 +9664,12 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
       <c r="V78" s="11">
-        <f t="shared" si="72"/>
-        <v>-3353005</v>
+        <f t="shared" si="76"/>
+        <v>-1509177</v>
       </c>
       <c r="W78" s="11">
-        <f t="shared" si="73"/>
-        <v>-3353005</v>
+        <f t="shared" si="77"/>
+        <v>-1509177</v>
       </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
@@ -9590,10 +9678,10 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B79" s="9">
-        <v>1226139</v>
+        <v>3353049</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>118</v>
@@ -9607,19 +9695,19 @@
       </c>
       <c r="F79" s="9">
         <f t="shared" si="7"/>
-        <v>1226139</v>
+        <v>3353049</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9">
         <f t="shared" si="43"/>
-        <v>1226095</v>
+        <v>3353005</v>
       </c>
       <c r="I79" s="9">
         <f t="shared" si="49"/>
-        <v>1226254</v>
+        <v>3353164</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K79" s="9"/>
@@ -9634,12 +9722,12 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
       <c r="V79" s="11">
-        <f t="shared" si="72"/>
-        <v>-1226095</v>
+        <f t="shared" si="76"/>
+        <v>-3353005</v>
       </c>
       <c r="W79" s="11">
-        <f t="shared" si="73"/>
-        <v>-1226095</v>
+        <f t="shared" si="77"/>
+        <v>-3353005</v>
       </c>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
@@ -9648,10 +9736,10 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B80" s="9">
-        <v>693469</v>
+        <v>1226139</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>118</v>
@@ -9665,19 +9753,19 @@
       </c>
       <c r="F80" s="9">
         <f t="shared" si="7"/>
-        <v>693469</v>
+        <v>1226139</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9">
         <f t="shared" si="43"/>
-        <v>693425</v>
+        <v>1226095</v>
       </c>
       <c r="I80" s="9">
         <f t="shared" si="49"/>
-        <v>693584</v>
+        <v>1226254</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K80" s="9"/>
@@ -9692,12 +9780,12 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="11">
-        <f t="shared" si="72"/>
-        <v>-693425</v>
+        <f t="shared" si="76"/>
+        <v>-1226095</v>
       </c>
       <c r="W80" s="11">
-        <f t="shared" si="73"/>
-        <v>-693425</v>
+        <f t="shared" si="77"/>
+        <v>-1226095</v>
       </c>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
@@ -9706,10 +9794,10 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B81" s="9">
-        <v>1848700</v>
+        <v>693469</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>118</v>
@@ -9723,19 +9811,19 @@
       </c>
       <c r="F81" s="9">
         <f t="shared" si="7"/>
-        <v>1848700</v>
+        <v>693469</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9">
         <f t="shared" si="43"/>
-        <v>1848656</v>
+        <v>693425</v>
       </c>
       <c r="I81" s="9">
         <f t="shared" si="49"/>
-        <v>1848815</v>
+        <v>693584</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K81" s="9"/>
@@ -9750,12 +9838,12 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="11">
-        <f t="shared" si="72"/>
-        <v>-1848656</v>
+        <f t="shared" si="76"/>
+        <v>-693425</v>
       </c>
       <c r="W81" s="11">
-        <f t="shared" si="73"/>
-        <v>-1848656</v>
+        <f t="shared" si="77"/>
+        <v>-693425</v>
       </c>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
@@ -9764,37 +9852,37 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="26" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B82" s="9">
-        <v>3096620</v>
+        <v>1848700</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="7"/>
-        <v>3096620</v>
+        <v>1848700</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9">
         <f t="shared" si="43"/>
-        <v>3096576</v>
+        <v>1848656</v>
       </c>
       <c r="I82" s="9">
         <f t="shared" si="49"/>
-        <v>3096735</v>
+        <v>1848815</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -9808,12 +9896,12 @@
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
       <c r="V82" s="11">
-        <f t="shared" si="72"/>
-        <v>-3096576</v>
+        <f t="shared" si="76"/>
+        <v>-1848656</v>
       </c>
       <c r="W82" s="11">
-        <f t="shared" si="73"/>
-        <v>-3096576</v>
+        <f t="shared" si="77"/>
+        <v>-1848656</v>
       </c>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
@@ -9822,10 +9910,10 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="26" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B83" s="9">
-        <v>3403446</v>
+        <v>3096620</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>108</v>
@@ -9839,19 +9927,19 @@
       </c>
       <c r="F83" s="9">
         <f t="shared" si="7"/>
-        <v>3403446</v>
+        <v>3096620</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9">
         <f t="shared" si="43"/>
-        <v>3403402</v>
+        <v>3096576</v>
       </c>
       <c r="I83" s="9">
         <f t="shared" si="49"/>
-        <v>3403561</v>
+        <v>3096735</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K83" s="9"/>
@@ -9866,12 +9954,12 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="11">
-        <f t="shared" si="72"/>
-        <v>-3403402</v>
+        <f t="shared" si="76"/>
+        <v>-3096576</v>
       </c>
       <c r="W83" s="11">
-        <f t="shared" si="73"/>
-        <v>-3403402</v>
+        <f t="shared" si="77"/>
+        <v>-3096576</v>
       </c>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
@@ -9880,37 +9968,37 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="26" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B84" s="9">
-        <v>2214673</v>
+        <v>3403446</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="9">
         <f t="shared" si="7"/>
-        <v>2214673</v>
+        <v>3403446</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9">
         <f t="shared" si="43"/>
-        <v>2214629</v>
+        <v>3403402</v>
       </c>
       <c r="I84" s="9">
         <f t="shared" si="49"/>
-        <v>2214788</v>
+        <v>3403561</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -9924,12 +10012,12 @@
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
       <c r="V84" s="11">
-        <f t="shared" si="72"/>
-        <v>-2214629</v>
+        <f t="shared" si="76"/>
+        <v>-3403402</v>
       </c>
       <c r="W84" s="11">
-        <f t="shared" si="73"/>
-        <v>-2214629</v>
+        <f t="shared" si="77"/>
+        <v>-3403402</v>
       </c>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
@@ -9938,10 +10026,10 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="26" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B85" s="9">
-        <v>2212969</v>
+        <v>2214673</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>118</v>
@@ -9955,19 +10043,19 @@
       </c>
       <c r="F85" s="9">
         <f t="shared" si="7"/>
-        <v>2212969</v>
+        <v>2214673</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9">
         <f t="shared" si="43"/>
-        <v>2212925</v>
+        <v>2214629</v>
       </c>
       <c r="I85" s="9">
         <f t="shared" si="49"/>
-        <v>2213084</v>
+        <v>2214788</v>
       </c>
       <c r="J85" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K85" s="9"/>
@@ -9982,12 +10070,12 @@
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
       <c r="V85" s="11">
-        <f t="shared" si="72"/>
-        <v>-2212925</v>
+        <f t="shared" si="76"/>
+        <v>-2214629</v>
       </c>
       <c r="W85" s="11">
-        <f t="shared" si="73"/>
-        <v>-2212925</v>
+        <f t="shared" si="77"/>
+        <v>-2214629</v>
       </c>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
@@ -9996,10 +10084,10 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" s="26" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B86" s="9">
-        <v>845736</v>
+        <v>2212969</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>118</v>
@@ -10013,19 +10101,19 @@
       </c>
       <c r="F86" s="9">
         <f t="shared" si="7"/>
-        <v>845736</v>
+        <v>2212969</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9">
         <f t="shared" si="43"/>
-        <v>845692</v>
+        <v>2212925</v>
       </c>
       <c r="I86" s="9">
         <f t="shared" si="49"/>
-        <v>845851</v>
+        <v>2213084</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K86" s="9"/>
@@ -10040,12 +10128,12 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="11">
-        <f t="shared" si="72"/>
-        <v>-845692</v>
+        <f t="shared" si="76"/>
+        <v>-2212925</v>
       </c>
       <c r="W86" s="11">
-        <f t="shared" si="73"/>
-        <v>-845692</v>
+        <f t="shared" si="77"/>
+        <v>-2212925</v>
       </c>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
@@ -10054,37 +10142,37 @@
     </row>
     <row r="87" spans="1:27">
       <c r="A87" s="26" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B87" s="9">
-        <v>3438001</v>
+        <v>845736</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E87" s="9">
         <v>0</v>
       </c>
       <c r="F87" s="9">
         <f t="shared" si="7"/>
-        <v>3438001</v>
+        <v>845736</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9">
         <f t="shared" si="43"/>
-        <v>3437957</v>
+        <v>845692</v>
       </c>
       <c r="I87" s="9">
         <f t="shared" si="49"/>
-        <v>3438116</v>
+        <v>845851</v>
       </c>
       <c r="J87" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
@@ -10098,12 +10186,12 @@
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
       <c r="V87" s="11">
-        <f t="shared" si="72"/>
-        <v>-3437957</v>
+        <f t="shared" si="76"/>
+        <v>-845692</v>
       </c>
       <c r="W87" s="11">
-        <f t="shared" si="73"/>
-        <v>-3437957</v>
+        <f t="shared" si="77"/>
+        <v>-845692</v>
       </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
@@ -10112,10 +10200,10 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="26" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B88" s="9">
-        <v>4118427</v>
+        <v>3438001</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>108</v>
@@ -10129,19 +10217,19 @@
       </c>
       <c r="F88" s="9">
         <f t="shared" si="7"/>
-        <v>4118427</v>
+        <v>3438001</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9">
         <f t="shared" si="43"/>
-        <v>4118383</v>
+        <v>3437957</v>
       </c>
       <c r="I88" s="9">
         <f t="shared" si="49"/>
-        <v>4118542</v>
+        <v>3438116</v>
       </c>
       <c r="J88" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K88" s="9"/>
@@ -10156,12 +10244,12 @@
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
       <c r="V88" s="11">
-        <f t="shared" si="72"/>
-        <v>-4118383</v>
+        <f t="shared" si="76"/>
+        <v>-3437957</v>
       </c>
       <c r="W88" s="11">
-        <f t="shared" si="73"/>
-        <v>-4118383</v>
+        <f t="shared" si="77"/>
+        <v>-3437957</v>
       </c>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
@@ -10170,10 +10258,10 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="26" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="B89" s="9">
-        <v>3808516</v>
+        <v>4118427</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>108</v>
@@ -10187,19 +10275,19 @@
       </c>
       <c r="F89" s="9">
         <f t="shared" si="7"/>
-        <v>3808516</v>
+        <v>4118427</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9">
         <f t="shared" si="43"/>
-        <v>3808472</v>
+        <v>4118383</v>
       </c>
       <c r="I89" s="9">
         <f t="shared" si="49"/>
-        <v>3808631</v>
+        <v>4118542</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K89" s="9"/>
@@ -10214,103 +10302,75 @@
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
       <c r="V89" s="11">
-        <f t="shared" si="72"/>
-        <v>-3808472</v>
+        <f t="shared" si="76"/>
+        <v>-4118383</v>
       </c>
       <c r="W89" s="11">
-        <f t="shared" si="73"/>
-        <v>-3808472</v>
+        <f t="shared" si="77"/>
+        <v>-4118383</v>
       </c>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
     </row>
-    <row r="90" spans="1:27" s="3" customFormat="1">
-      <c r="A90" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D90" s="11">
+    <row r="90" spans="1:27">
+      <c r="A90" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="9">
+        <v>3808516</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="9">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="E90" s="11">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" ref="F90" si="75">B90+D90*E90</f>
-        <v>4175107</v>
-      </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11">
-        <v>4175063</v>
-      </c>
-      <c r="I90" s="11">
-        <f>H90+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J90" s="11" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L90" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="M90" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="N90" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="O90" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="P90" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q90" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="R90" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="S90" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="T90" s="11">
-        <v>4175143</v>
-      </c>
-      <c r="U90" s="11">
-        <f>4175175</f>
-        <v>4175175</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
+        <f t="shared" si="7"/>
+        <v>3808516</v>
+      </c>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9">
+        <f t="shared" si="43"/>
+        <v>3808472</v>
+      </c>
+      <c r="I90" s="9">
+        <f t="shared" si="49"/>
+        <v>3808631</v>
+      </c>
+      <c r="J90" s="9" t="str">
+        <f t="shared" si="78"/>
+        <v>rev</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
       <c r="V90" s="11">
-        <f t="shared" ref="V90" si="76">T90-H90</f>
-        <v>80</v>
+        <f t="shared" si="76"/>
+        <v>-3808472</v>
       </c>
       <c r="W90" s="11">
-        <f t="shared" ref="W90" si="77">U90-H90</f>
-        <v>112</v>
-      </c>
-      <c r="X90" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y90" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z90" s="11"/>
-      <c r="AA90" s="11">
-        <v>1</v>
-      </c>
+        <f t="shared" si="77"/>
+        <v>-3808472</v>
+      </c>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="9"/>
     </row>
     <row r="91" spans="1:27" s="3" customFormat="1">
       <c r="A91" s="10" t="s">
@@ -10330,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F91" si="79">B91+D91*E91</f>
         <v>4175107</v>
       </c>
       <c r="G91" s="11"/>
@@ -10342,7 +10402,7 @@
         <v>4175222</v>
       </c>
       <c r="J91" s="11" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K91" s="11" t="s">
@@ -10360,135 +10420,163 @@
       <c r="O91" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="P91" s="11">
-        <f>Q91-20</f>
-        <v>4175087</v>
-      </c>
-      <c r="Q91" s="11">
-        <v>4175107</v>
+      <c r="P91" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q91" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="R91" s="11" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="S91" s="11" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="T91" s="11">
-        <v>4175105</v>
+        <v>4175143</v>
       </c>
       <c r="U91" s="11">
-        <f>T91+84</f>
-        <v>4175189</v>
+        <f>4175175</f>
+        <v>4175175</v>
       </c>
       <c r="V91" s="11">
-        <f t="shared" ref="V91:V98" si="78">T91-H91</f>
-        <v>42</v>
+        <f t="shared" ref="V91" si="80">T91-H91</f>
+        <v>80</v>
       </c>
       <c r="W91" s="11">
-        <f t="shared" ref="W91:W98" si="79">U91-H91</f>
-        <v>126</v>
+        <f t="shared" ref="W91" si="81">U91-H91</f>
+        <v>112</v>
       </c>
       <c r="X91" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y91" s="11" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Z91" s="11"/>
       <c r="AA91" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27">
-      <c r="A92" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" s="3" customFormat="1">
+      <c r="A92" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" s="11">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" si="7"/>
+        <v>4175107</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11">
+        <v>4175063</v>
+      </c>
+      <c r="I92" s="11">
+        <f>H92+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J92" s="11" t="str">
+        <f t="shared" si="78"/>
+        <v>fwd</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="M92" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="P92" s="11">
+        <f>Q92-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="Q92" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="R92" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="S92" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="T92" s="11">
+        <v>4175105</v>
+      </c>
+      <c r="U92" s="11">
+        <f>T92+84</f>
+        <v>4175189</v>
+      </c>
+      <c r="V92" s="11">
+        <f t="shared" ref="V92:V99" si="82">T92-H92</f>
+        <v>42</v>
+      </c>
+      <c r="W92" s="11">
+        <f t="shared" ref="W92:W99" si="83">U92-H92</f>
+        <v>126</v>
+      </c>
+      <c r="X92" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y92" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z92" s="11"/>
+      <c r="AA92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B93" s="9">
         <v>4621716</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D93" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
+      <c r="E93" s="9">
+        <v>0</v>
+      </c>
+      <c r="F93" s="9">
         <f t="shared" si="7"/>
         <v>4621716</v>
       </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9">
-        <f>F92</f>
-        <v>4621716</v>
-      </c>
-      <c r="I92" s="9">
-        <f>H92+D92*160</f>
-        <v>4621876</v>
-      </c>
-      <c r="J92" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
-      </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="11">
-        <f t="shared" si="78"/>
-        <v>-4621716</v>
-      </c>
-      <c r="W92" s="11">
-        <f t="shared" si="79"/>
-        <v>-4621716</v>
-      </c>
-      <c r="X92" s="9"/>
-      <c r="Y92" s="9"/>
-      <c r="Z92" s="9"/>
-      <c r="AA92" s="9"/>
-    </row>
-    <row r="93" spans="1:27">
-      <c r="A93" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="9">
-        <v>4370616</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93" s="9">
-        <f t="shared" ref="D93:D144" si="80">IF(C93="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E93" s="9">
-        <v>0</v>
-      </c>
-      <c r="F93" s="9">
-        <f t="shared" ref="F93:F144" si="81">B93+D93*E93</f>
-        <v>4370616</v>
-      </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9">
-        <f t="shared" ref="H93:H144" si="82">F93</f>
-        <v>4370616</v>
+        <f>F93</f>
+        <v>4621716</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" ref="I93:I144" si="83">H93+D93*160</f>
-        <v>4370776</v>
+        <f>H93+D93*160</f>
+        <v>4621876</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K93" s="9"/>
@@ -10503,12 +10591,12 @@
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
       <c r="V93" s="11">
-        <f t="shared" si="78"/>
-        <v>-4370616</v>
+        <f t="shared" si="82"/>
+        <v>-4621716</v>
       </c>
       <c r="W93" s="11">
-        <f t="shared" si="79"/>
-        <v>-4370616</v>
+        <f t="shared" si="83"/>
+        <v>-4621716</v>
       </c>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
@@ -10517,37 +10605,37 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" s="26" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B94" s="9">
-        <v>4472553</v>
+        <v>4370616</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D94" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" ref="D94:D145" si="84">IF(C94="fwd",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="9">
-        <f t="shared" si="81"/>
-        <v>4472553</v>
+        <f t="shared" ref="F94:F145" si="85">B94+D94*E94</f>
+        <v>4370616</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9">
-        <f t="shared" si="82"/>
-        <v>4472553</v>
+        <f t="shared" ref="H94:H145" si="86">F94</f>
+        <v>4370616</v>
       </c>
       <c r="I94" s="9">
-        <f t="shared" si="83"/>
-        <v>4472393</v>
+        <f t="shared" ref="I94:I145" si="87">H94+D94*160</f>
+        <v>4370776</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
@@ -10561,12 +10649,12 @@
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
       <c r="V94" s="11">
-        <f t="shared" si="78"/>
-        <v>-4472553</v>
+        <f t="shared" si="82"/>
+        <v>-4370616</v>
       </c>
       <c r="W94" s="11">
-        <f t="shared" si="79"/>
-        <v>-4472553</v>
+        <f t="shared" si="83"/>
+        <v>-4370616</v>
       </c>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
@@ -10575,37 +10663,37 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" s="9">
-        <v>4178354</v>
+        <v>4472553</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D95" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>-1</v>
       </c>
       <c r="E95" s="9">
         <v>0</v>
       </c>
       <c r="F95" s="9">
-        <f t="shared" si="81"/>
-        <v>4178354</v>
+        <f t="shared" si="85"/>
+        <v>4472553</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9">
-        <f t="shared" si="82"/>
-        <v>4178354</v>
+        <f t="shared" si="86"/>
+        <v>4472553</v>
       </c>
       <c r="I95" s="9">
-        <f t="shared" si="83"/>
-        <v>4178514</v>
+        <f t="shared" si="87"/>
+        <v>4472393</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -10619,12 +10707,12 @@
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
       <c r="V95" s="11">
-        <f t="shared" si="78"/>
-        <v>-4178354</v>
+        <f t="shared" si="82"/>
+        <v>-4472553</v>
       </c>
       <c r="W95" s="11">
-        <f t="shared" si="79"/>
-        <v>-4178354</v>
+        <f t="shared" si="83"/>
+        <v>-4472553</v>
       </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
@@ -10633,36 +10721,36 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" s="9">
-        <v>2042294</v>
+        <v>4178354</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D96" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E96" s="9">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F96" s="9">
-        <f t="shared" si="81"/>
-        <v>2042280</v>
+        <f t="shared" si="85"/>
+        <v>4178354</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9">
-        <f t="shared" si="82"/>
-        <v>2042280</v>
+        <f t="shared" si="86"/>
+        <v>4178354</v>
       </c>
       <c r="I96" s="9">
-        <f t="shared" si="83"/>
-        <v>2042440</v>
+        <f t="shared" si="87"/>
+        <v>4178514</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K96" s="9"/>
@@ -10677,12 +10765,12 @@
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
       <c r="V96" s="11">
-        <f t="shared" si="78"/>
-        <v>-2042280</v>
+        <f t="shared" si="82"/>
+        <v>-4178354</v>
       </c>
       <c r="W96" s="11">
-        <f t="shared" si="79"/>
-        <v>-2042280</v>
+        <f t="shared" si="83"/>
+        <v>-4178354</v>
       </c>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
@@ -10691,37 +10779,37 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97" s="9">
-        <v>3922525</v>
+        <v>2042294</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D97" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E97" s="9">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F97" s="9">
-        <f t="shared" si="81"/>
-        <v>3922525</v>
+        <f t="shared" si="85"/>
+        <v>2042280</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9">
-        <f t="shared" si="82"/>
-        <v>3922525</v>
+        <f t="shared" si="86"/>
+        <v>2042280</v>
       </c>
       <c r="I97" s="9">
-        <f t="shared" si="83"/>
-        <v>3922365</v>
+        <f t="shared" si="87"/>
+        <v>2042440</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -10735,12 +10823,12 @@
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
       <c r="V97" s="11">
-        <f t="shared" si="78"/>
-        <v>-3922525</v>
+        <f t="shared" si="82"/>
+        <v>-2042280</v>
       </c>
       <c r="W97" s="11">
-        <f t="shared" si="79"/>
-        <v>-3922525</v>
+        <f t="shared" si="83"/>
+        <v>-2042280</v>
       </c>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
@@ -10749,36 +10837,36 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="9">
-        <v>1114213</v>
+        <v>3922525</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D98" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E98" s="9">
         <v>0</v>
       </c>
       <c r="F98" s="9">
-        <f t="shared" si="81"/>
-        <v>1114213</v>
+        <f t="shared" si="85"/>
+        <v>3922525</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9">
-        <f t="shared" si="82"/>
-        <v>1114213</v>
+        <f t="shared" si="86"/>
+        <v>3922525</v>
       </c>
       <c r="I98" s="9">
-        <f t="shared" si="83"/>
-        <v>1114053</v>
+        <f t="shared" si="87"/>
+        <v>3922365</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K98" s="9"/>
@@ -10793,12 +10881,12 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
       <c r="V98" s="11">
-        <f t="shared" si="78"/>
-        <v>-1114213</v>
+        <f t="shared" si="82"/>
+        <v>-3922525</v>
       </c>
       <c r="W98" s="11">
-        <f t="shared" si="79"/>
-        <v>-1114213</v>
+        <f t="shared" si="83"/>
+        <v>-3922525</v>
       </c>
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
@@ -10807,36 +10895,36 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="9">
-        <v>2644913</v>
+        <v>1114213</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D99" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E99" s="9">
         <v>0</v>
       </c>
       <c r="F99" s="9">
-        <f t="shared" si="81"/>
-        <v>2644913</v>
+        <f t="shared" si="85"/>
+        <v>1114213</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9">
-        <f t="shared" si="82"/>
-        <v>2644913</v>
+        <f t="shared" si="86"/>
+        <v>1114213</v>
       </c>
       <c r="I99" s="9">
-        <f t="shared" si="83"/>
-        <v>2644753</v>
+        <f t="shared" si="87"/>
+        <v>1114053</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K99" s="9"/>
@@ -10851,12 +10939,12 @@
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
       <c r="V99" s="11">
-        <f t="shared" ref="V99:V108" si="84">T99-H99</f>
-        <v>-2644913</v>
+        <f t="shared" si="82"/>
+        <v>-1114213</v>
       </c>
       <c r="W99" s="11">
-        <f t="shared" ref="W99:W108" si="85">U99-H99</f>
-        <v>-2644913</v>
+        <f t="shared" si="83"/>
+        <v>-1114213</v>
       </c>
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
@@ -10865,37 +10953,37 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" s="26" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="B100" s="9">
-        <v>148</v>
+        <v>2644913</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D100" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>-1</v>
       </c>
       <c r="E100" s="9">
         <v>0</v>
       </c>
       <c r="F100" s="9">
-        <f t="shared" si="81"/>
-        <v>148</v>
+        <f t="shared" si="85"/>
+        <v>2644913</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9">
-        <f t="shared" si="82"/>
-        <v>148</v>
+        <f t="shared" si="86"/>
+        <v>2644913</v>
       </c>
       <c r="I100" s="9">
-        <f t="shared" si="83"/>
-        <v>308</v>
+        <f t="shared" si="87"/>
+        <v>2644753</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -10909,12 +10997,12 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
       <c r="V100" s="11">
-        <f t="shared" si="84"/>
-        <v>-148</v>
+        <f t="shared" ref="V100:V109" si="88">T100-H100</f>
+        <v>-2644913</v>
       </c>
       <c r="W100" s="11">
-        <f t="shared" si="85"/>
-        <v>-148</v>
+        <f t="shared" ref="W100:W109" si="89">U100-H100</f>
+        <v>-2644913</v>
       </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
@@ -10923,36 +11011,36 @@
     </row>
     <row r="101" spans="1:27">
       <c r="A101" s="26" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B101" s="9">
-        <v>454993</v>
+        <v>148</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D101" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E101" s="9">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F101" s="9">
-        <f t="shared" si="81"/>
-        <v>454864</v>
+        <f t="shared" si="85"/>
+        <v>148</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9">
-        <f t="shared" si="82"/>
-        <v>454864</v>
+        <f t="shared" si="86"/>
+        <v>148</v>
       </c>
       <c r="I101" s="9">
-        <f t="shared" si="83"/>
-        <v>455024</v>
+        <f t="shared" si="87"/>
+        <v>308</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K101" s="9"/>
@@ -10967,12 +11055,12 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
       <c r="V101" s="11">
-        <f t="shared" si="84"/>
-        <v>-454864</v>
+        <f t="shared" si="88"/>
+        <v>-148</v>
       </c>
       <c r="W101" s="11">
-        <f t="shared" si="85"/>
-        <v>-454864</v>
+        <f t="shared" si="89"/>
+        <v>-148</v>
       </c>
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
@@ -10981,36 +11069,36 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" s="26" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="B102" s="9">
-        <v>189712</v>
+        <v>454993</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D102" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E102" s="9">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="F102" s="9">
-        <f t="shared" si="81"/>
-        <v>189712</v>
+        <f t="shared" si="85"/>
+        <v>454864</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9">
-        <f t="shared" si="82"/>
-        <v>189712</v>
+        <f t="shared" si="86"/>
+        <v>454864</v>
       </c>
       <c r="I102" s="9">
-        <f t="shared" si="83"/>
-        <v>189872</v>
+        <f t="shared" si="87"/>
+        <v>455024</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K102" s="9"/>
@@ -11025,12 +11113,12 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
       <c r="V102" s="11">
-        <f t="shared" si="84"/>
-        <v>-189712</v>
+        <f t="shared" si="88"/>
+        <v>-454864</v>
       </c>
       <c r="W102" s="11">
-        <f t="shared" si="85"/>
-        <v>-189712</v>
+        <f t="shared" si="89"/>
+        <v>-454864</v>
       </c>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
@@ -11039,36 +11127,36 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" s="26" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="B103" s="9">
-        <v>3948058</v>
+        <v>189712</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D103" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E103" s="9">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F103" s="9">
-        <f t="shared" si="81"/>
-        <v>3948030</v>
+        <f t="shared" si="85"/>
+        <v>189712</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9">
-        <f t="shared" si="82"/>
-        <v>3948030</v>
+        <f t="shared" si="86"/>
+        <v>189712</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" si="83"/>
-        <v>3948190</v>
+        <f t="shared" si="87"/>
+        <v>189872</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K103" s="9"/>
@@ -11083,12 +11171,12 @@
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
       <c r="V103" s="11">
-        <f t="shared" si="84"/>
-        <v>-3948030</v>
+        <f t="shared" si="88"/>
+        <v>-189712</v>
       </c>
       <c r="W103" s="11">
-        <f t="shared" si="85"/>
-        <v>-3948030</v>
+        <f t="shared" si="89"/>
+        <v>-189712</v>
       </c>
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
@@ -11097,37 +11185,37 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" s="26" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B104" s="9">
-        <v>911076</v>
+        <v>3948058</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D104" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E104" s="9">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F104" s="9">
-        <f t="shared" si="81"/>
-        <v>911076</v>
+        <f t="shared" si="85"/>
+        <v>3948030</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9">
-        <f t="shared" si="82"/>
-        <v>911076</v>
+        <f t="shared" si="86"/>
+        <v>3948030</v>
       </c>
       <c r="I104" s="9">
-        <f t="shared" si="83"/>
-        <v>910916</v>
+        <f t="shared" si="87"/>
+        <v>3948190</v>
       </c>
       <c r="J104" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -11141,12 +11229,12 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
       <c r="V104" s="11">
-        <f t="shared" si="84"/>
-        <v>-911076</v>
+        <f t="shared" si="88"/>
+        <v>-3948030</v>
       </c>
       <c r="W104" s="11">
-        <f t="shared" si="85"/>
-        <v>-911076</v>
+        <f t="shared" si="89"/>
+        <v>-3948030</v>
       </c>
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
@@ -11155,36 +11243,36 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" s="26" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B105" s="9">
-        <v>1655186</v>
+        <v>911076</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D105" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E105" s="9">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F105" s="9">
-        <f t="shared" si="81"/>
-        <v>1655231</v>
+        <f t="shared" si="85"/>
+        <v>911076</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9">
-        <f t="shared" si="82"/>
-        <v>1655231</v>
+        <f t="shared" si="86"/>
+        <v>911076</v>
       </c>
       <c r="I105" s="9">
-        <f t="shared" si="83"/>
-        <v>1655071</v>
+        <f t="shared" si="87"/>
+        <v>910916</v>
       </c>
       <c r="J105" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K105" s="9"/>
@@ -11199,12 +11287,12 @@
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
       <c r="V105" s="11">
-        <f t="shared" si="84"/>
-        <v>-1655231</v>
+        <f t="shared" si="88"/>
+        <v>-911076</v>
       </c>
       <c r="W105" s="11">
-        <f t="shared" si="85"/>
-        <v>-1655231</v>
+        <f t="shared" si="89"/>
+        <v>-911076</v>
       </c>
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
@@ -11213,36 +11301,36 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" s="26" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B106" s="9">
-        <v>4390638</v>
+        <v>1655186</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D106" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E106" s="9">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F106" s="9">
-        <f t="shared" si="81"/>
-        <v>4390638</v>
+        <f t="shared" si="85"/>
+        <v>1655231</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9">
-        <f t="shared" si="82"/>
-        <v>4390638</v>
+        <f t="shared" si="86"/>
+        <v>1655231</v>
       </c>
       <c r="I106" s="9">
-        <f t="shared" si="83"/>
-        <v>4390478</v>
+        <f t="shared" si="87"/>
+        <v>1655071</v>
       </c>
       <c r="J106" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K106" s="9"/>
@@ -11257,12 +11345,12 @@
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
       <c r="V106" s="11">
-        <f t="shared" si="84"/>
-        <v>-4390638</v>
+        <f t="shared" si="88"/>
+        <v>-1655231</v>
       </c>
       <c r="W106" s="11">
-        <f t="shared" si="85"/>
-        <v>-4390638</v>
+        <f t="shared" si="89"/>
+        <v>-1655231</v>
       </c>
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
@@ -11271,36 +11359,36 @@
     </row>
     <row r="107" spans="1:27">
       <c r="A107" s="26" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B107" s="9">
-        <v>4640508</v>
+        <v>4390638</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D107" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E107" s="9">
         <v>0</v>
       </c>
       <c r="F107" s="9">
-        <f t="shared" si="81"/>
-        <v>4640508</v>
+        <f t="shared" si="85"/>
+        <v>4390638</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9">
-        <f t="shared" si="82"/>
-        <v>4640508</v>
+        <f t="shared" si="86"/>
+        <v>4390638</v>
       </c>
       <c r="I107" s="9">
-        <f t="shared" si="83"/>
-        <v>4640348</v>
+        <f t="shared" si="87"/>
+        <v>4390478</v>
       </c>
       <c r="J107" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K107" s="9"/>
@@ -11315,12 +11403,12 @@
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
       <c r="V107" s="11">
-        <f t="shared" si="84"/>
-        <v>-4640508</v>
+        <f t="shared" si="88"/>
+        <v>-4390638</v>
       </c>
       <c r="W107" s="11">
-        <f t="shared" si="85"/>
-        <v>-4640508</v>
+        <f t="shared" si="89"/>
+        <v>-4390638</v>
       </c>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
@@ -11329,36 +11417,36 @@
     </row>
     <row r="108" spans="1:27">
       <c r="A108" s="26" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B108" s="9">
-        <v>1972716</v>
+        <v>4640508</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E108" s="9">
         <v>0</v>
       </c>
       <c r="F108" s="9">
-        <f t="shared" si="81"/>
-        <v>1972716</v>
+        <f t="shared" si="85"/>
+        <v>4640508</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9">
-        <f t="shared" si="82"/>
-        <v>1972716</v>
+        <f t="shared" si="86"/>
+        <v>4640508</v>
       </c>
       <c r="I108" s="9">
-        <f t="shared" si="83"/>
-        <v>1972556</v>
+        <f t="shared" si="87"/>
+        <v>4640348</v>
       </c>
       <c r="J108" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K108" s="9"/>
@@ -11373,102 +11461,75 @@
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
       <c r="V108" s="11">
-        <f t="shared" si="84"/>
-        <v>-1972716</v>
+        <f t="shared" si="88"/>
+        <v>-4640508</v>
       </c>
       <c r="W108" s="11">
-        <f t="shared" si="85"/>
-        <v>-1972716</v>
+        <f t="shared" si="89"/>
+        <v>-4640508</v>
       </c>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
     </row>
-    <row r="109" spans="1:27" s="3" customFormat="1" ht="17">
-      <c r="A109" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="11">
-        <v>652172</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" s="11">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="E109" s="11">
-        <v>0</v>
-      </c>
-      <c r="F109" s="11">
-        <f t="shared" ref="F109" si="86">B109+D109*E109</f>
-        <v>652172</v>
-      </c>
-      <c r="G109" s="11"/>
-      <c r="H109" s="27">
-        <v>652058</v>
-      </c>
-      <c r="I109" s="11">
-        <f>H109+D109*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J109" s="11" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
-      </c>
-      <c r="K109" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="L109" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="M109" s="11">
-        <v>652172</v>
-      </c>
-      <c r="N109" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="O109" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="P109" s="11">
-        <v>652193</v>
-      </c>
-      <c r="Q109" s="11">
-        <v>652199</v>
-      </c>
-      <c r="R109" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="S109" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="T109" s="27">
-        <f>130+H109</f>
-        <v>652188</v>
-      </c>
-      <c r="U109" s="27">
-        <f>T109+30</f>
-        <v>652218</v>
-      </c>
+    <row r="109" spans="1:27">
+      <c r="A109" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="9">
+        <v>1972716</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="9">
+        <f t="shared" si="84"/>
+        <v>-1</v>
+      </c>
+      <c r="E109" s="9">
+        <v>0</v>
+      </c>
+      <c r="F109" s="9">
+        <f t="shared" si="85"/>
+        <v>1972716</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9">
+        <f t="shared" si="86"/>
+        <v>1972716</v>
+      </c>
+      <c r="I109" s="9">
+        <f t="shared" si="87"/>
+        <v>1972556</v>
+      </c>
+      <c r="J109" s="9" t="str">
+        <f t="shared" si="78"/>
+        <v>fwd</v>
+      </c>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
       <c r="V109" s="11">
-        <v>130</v>
+        <f t="shared" si="88"/>
+        <v>-1972716</v>
       </c>
       <c r="W109" s="11">
-        <v>160</v>
-      </c>
-      <c r="X109" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y109" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z109" s="11"/>
-      <c r="AA109" s="11">
-        <v>0</v>
-      </c>
+        <f t="shared" si="89"/>
+        <v>-1972716</v>
+      </c>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+      <c r="AA109" s="9"/>
     </row>
     <row r="110" spans="1:27" s="3" customFormat="1" ht="17">
       <c r="A110" s="10" t="s">
@@ -11481,14 +11542,14 @@
         <v>108</v>
       </c>
       <c r="D110" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E110" s="11">
         <v>0</v>
       </c>
       <c r="F110" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="F110" si="90">B110+D110*E110</f>
         <v>652172</v>
       </c>
       <c r="G110" s="11"/>
@@ -11500,7 +11561,7 @@
         <v>652217</v>
       </c>
       <c r="J110" s="11" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K110" s="11" t="s">
@@ -11519,127 +11580,160 @@
         <v>167</v>
       </c>
       <c r="P110" s="11">
-        <v>652118</v>
+        <v>652193</v>
       </c>
       <c r="Q110" s="11">
-        <v>652140</v>
+        <v>652199</v>
       </c>
       <c r="R110" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S110" s="11" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="T110" s="27">
-        <f>60+H110</f>
-        <v>652118</v>
+        <f>130+H110</f>
+        <v>652188</v>
       </c>
       <c r="U110" s="27">
-        <f>T110+25</f>
-        <v>652143</v>
+        <f>T110+30</f>
+        <v>652218</v>
       </c>
       <c r="V110" s="11">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="W110" s="11">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="X110" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Y110" s="11" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Z110" s="11"/>
       <c r="AA110" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
-      <c r="A111" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" s="9">
-        <v>70075</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D111" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
-      </c>
-      <c r="E111" s="9">
-        <v>0</v>
-      </c>
-      <c r="F111" s="9">
-        <f t="shared" si="81"/>
-        <v>70075</v>
-      </c>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9">
-        <f t="shared" si="82"/>
-        <v>70075</v>
-      </c>
-      <c r="I111" s="9">
-        <f t="shared" si="83"/>
-        <v>69915</v>
-      </c>
-      <c r="J111" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
-      </c>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="9"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
-      <c r="X111" s="9"/>
-      <c r="Y111" s="9"/>
-      <c r="Z111" s="9"/>
-      <c r="AA111" s="9"/>
+    <row r="111" spans="1:27" s="3" customFormat="1" ht="17">
+      <c r="A111" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="11">
+        <v>652172</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" s="11">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="E111" s="11">
+        <v>0</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="85"/>
+        <v>652172</v>
+      </c>
+      <c r="G111" s="11"/>
+      <c r="H111" s="27">
+        <v>652058</v>
+      </c>
+      <c r="I111" s="11">
+        <f>H111+D111*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J111" s="11" t="str">
+        <f t="shared" si="78"/>
+        <v>rev</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="L111" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="M111" s="11">
+        <v>652172</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O111" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="P111" s="11">
+        <v>652118</v>
+      </c>
+      <c r="Q111" s="11">
+        <v>652140</v>
+      </c>
+      <c r="R111" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="S111" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T111" s="27">
+        <f>60+H111</f>
+        <v>652118</v>
+      </c>
+      <c r="U111" s="27">
+        <f>T111+25</f>
+        <v>652143</v>
+      </c>
+      <c r="V111" s="11">
+        <v>60</v>
+      </c>
+      <c r="W111" s="11">
+        <v>85</v>
+      </c>
+      <c r="X111" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y111" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z111" s="11"/>
+      <c r="AA111" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:27">
       <c r="A112" s="26" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B112" s="9">
-        <v>70241</v>
+        <v>70075</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D112" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>-1</v>
       </c>
       <c r="E112" s="9">
         <v>0</v>
       </c>
       <c r="F112" s="9">
-        <f t="shared" si="81"/>
-        <v>70241</v>
+        <f t="shared" si="85"/>
+        <v>70075</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9">
-        <f t="shared" si="82"/>
-        <v>70241</v>
+        <f t="shared" si="86"/>
+        <v>70075</v>
       </c>
       <c r="I112" s="9">
-        <f t="shared" si="83"/>
-        <v>70401</v>
+        <f t="shared" si="87"/>
+        <v>69915</v>
       </c>
       <c r="J112" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -11661,36 +11755,36 @@
     </row>
     <row r="113" spans="1:27">
       <c r="A113" s="26" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B113" s="9">
-        <v>3731069</v>
+        <v>70241</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D113" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E113" s="9">
         <v>0</v>
       </c>
       <c r="F113" s="9">
-        <f t="shared" si="81"/>
-        <v>3731069</v>
+        <f t="shared" si="85"/>
+        <v>70241</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9">
-        <f t="shared" si="82"/>
-        <v>3731069</v>
+        <f t="shared" si="86"/>
+        <v>70241</v>
       </c>
       <c r="I113" s="9">
-        <f t="shared" si="83"/>
-        <v>3731229</v>
+        <f t="shared" si="87"/>
+        <v>70401</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K113" s="9"/>
@@ -11713,37 +11807,37 @@
     </row>
     <row r="114" spans="1:27">
       <c r="A114" s="26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B114" s="9">
-        <v>3730807</v>
+        <v>3731069</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D114" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E114" s="9">
         <v>0</v>
       </c>
       <c r="F114" s="9">
-        <f t="shared" si="81"/>
-        <v>3730807</v>
+        <f t="shared" si="85"/>
+        <v>3731069</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9">
-        <f t="shared" si="82"/>
-        <v>3730807</v>
+        <f t="shared" si="86"/>
+        <v>3731069</v>
       </c>
       <c r="I114" s="9">
-        <f t="shared" si="83"/>
-        <v>3730647</v>
+        <f t="shared" si="87"/>
+        <v>3731229</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -11765,37 +11859,37 @@
     </row>
     <row r="115" spans="1:27">
       <c r="A115" s="26" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="B115" s="9">
-        <v>1647934</v>
+        <v>3730807</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D115" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>-1</v>
       </c>
       <c r="E115" s="9">
         <v>0</v>
       </c>
       <c r="F115" s="9">
-        <f t="shared" si="81"/>
-        <v>1647934</v>
+        <f t="shared" si="85"/>
+        <v>3730807</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9">
-        <f t="shared" si="82"/>
-        <v>1647934</v>
+        <f t="shared" si="86"/>
+        <v>3730807</v>
       </c>
       <c r="I115" s="9">
-        <f t="shared" si="83"/>
-        <v>1648094</v>
+        <f t="shared" si="87"/>
+        <v>3730647</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -11817,37 +11911,37 @@
     </row>
     <row r="116" spans="1:27">
       <c r="A116" s="26" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="B116" s="9">
-        <v>1647876</v>
+        <v>1647934</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D116" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E116" s="9">
         <v>0</v>
       </c>
       <c r="F116" s="9">
-        <f t="shared" si="81"/>
-        <v>1647876</v>
+        <f t="shared" si="85"/>
+        <v>1647934</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9">
-        <f t="shared" si="82"/>
-        <v>1647876</v>
+        <f t="shared" si="86"/>
+        <v>1647934</v>
       </c>
       <c r="I116" s="9">
-        <f t="shared" si="83"/>
-        <v>1647716</v>
+        <f t="shared" si="87"/>
+        <v>1648094</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
@@ -11869,37 +11963,37 @@
     </row>
     <row r="117" spans="1:27">
       <c r="A117" s="26" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="B117" s="9">
-        <v>1649597</v>
+        <v>1647876</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D117" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>-1</v>
       </c>
       <c r="E117" s="9">
         <v>0</v>
       </c>
       <c r="F117" s="9">
-        <f t="shared" si="81"/>
-        <v>1649597</v>
+        <f t="shared" si="85"/>
+        <v>1647876</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9">
-        <f t="shared" si="82"/>
-        <v>1649597</v>
+        <f t="shared" si="86"/>
+        <v>1647876</v>
       </c>
       <c r="I117" s="9">
-        <f t="shared" si="83"/>
-        <v>1649757</v>
+        <f t="shared" si="87"/>
+        <v>1647716</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
@@ -11921,37 +12015,37 @@
     </row>
     <row r="118" spans="1:27">
       <c r="A118" s="26" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B118" s="9">
-        <v>3536707</v>
+        <v>1649597</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D118" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E118" s="9">
         <v>0</v>
       </c>
       <c r="F118" s="9">
-        <f t="shared" si="81"/>
-        <v>3536707</v>
+        <f t="shared" si="85"/>
+        <v>1649597</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9">
-        <f t="shared" si="82"/>
-        <v>3536707</v>
+        <f t="shared" si="86"/>
+        <v>1649597</v>
       </c>
       <c r="I118" s="9">
-        <f t="shared" si="83"/>
-        <v>3536547</v>
+        <f t="shared" si="87"/>
+        <v>1649757</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
@@ -11973,36 +12067,36 @@
     </row>
     <row r="119" spans="1:27">
       <c r="A119" s="26" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B119" s="9">
-        <v>2524910</v>
+        <v>3536707</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D119" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E119" s="9">
         <v>0</v>
       </c>
       <c r="F119" s="9">
-        <f t="shared" si="81"/>
-        <v>2524910</v>
+        <f t="shared" si="85"/>
+        <v>3536707</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9">
-        <f t="shared" si="82"/>
-        <v>2524910</v>
+        <f t="shared" si="86"/>
+        <v>3536707</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" si="83"/>
-        <v>2524750</v>
+        <f t="shared" si="87"/>
+        <v>3536547</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K119" s="9"/>
@@ -12025,37 +12119,37 @@
     </row>
     <row r="120" spans="1:27">
       <c r="A120" s="26" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B120" s="9">
-        <v>3957912</v>
+        <v>2524910</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D120" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>-1</v>
       </c>
       <c r="E120" s="9">
         <v>0</v>
       </c>
       <c r="F120" s="9">
-        <f t="shared" si="81"/>
-        <v>3957912</v>
+        <f t="shared" si="85"/>
+        <v>2524910</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9">
-        <f t="shared" si="82"/>
-        <v>3957912</v>
+        <f t="shared" si="86"/>
+        <v>2524910</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="83"/>
-        <v>3958072</v>
+        <f t="shared" si="87"/>
+        <v>2524750</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
@@ -12077,36 +12171,36 @@
     </row>
     <row r="121" spans="1:27">
       <c r="A121" s="26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B121" s="9">
-        <v>3927129</v>
+        <v>3957912</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D121" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E121" s="9">
         <v>0</v>
       </c>
       <c r="F121" s="9">
-        <f t="shared" si="81"/>
-        <v>3927129</v>
+        <f t="shared" si="85"/>
+        <v>3957912</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9">
-        <f t="shared" si="82"/>
-        <v>3927129</v>
+        <f t="shared" si="86"/>
+        <v>3957912</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="83"/>
-        <v>3927289</v>
+        <f t="shared" si="87"/>
+        <v>3958072</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K121" s="9"/>
@@ -12129,36 +12223,36 @@
     </row>
     <row r="122" spans="1:27">
       <c r="A122" s="26" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B122" s="9">
-        <v>4494597</v>
+        <v>3927129</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D122" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E122" s="9">
         <v>0</v>
       </c>
       <c r="F122" s="9">
-        <f t="shared" si="81"/>
-        <v>4494597</v>
+        <f t="shared" si="85"/>
+        <v>3927129</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9">
-        <f t="shared" si="82"/>
-        <v>4494597</v>
+        <f t="shared" si="86"/>
+        <v>3927129</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" si="83"/>
-        <v>4494757</v>
+        <f t="shared" si="87"/>
+        <v>3927289</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K122" s="9"/>
@@ -12181,37 +12275,37 @@
     </row>
     <row r="123" spans="1:27">
       <c r="A123" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B123" s="9">
-        <v>246533</v>
+        <v>4494597</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D123" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E123" s="9">
         <v>0</v>
       </c>
       <c r="F123" s="9">
-        <f t="shared" si="81"/>
-        <v>246533</v>
+        <f t="shared" si="85"/>
+        <v>4494597</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9">
-        <f t="shared" si="82"/>
-        <v>246533</v>
+        <f t="shared" si="86"/>
+        <v>4494597</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="83"/>
-        <v>246373</v>
+        <f t="shared" si="87"/>
+        <v>4494757</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
@@ -12233,36 +12327,36 @@
     </row>
     <row r="124" spans="1:27">
       <c r="A124" s="26" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B124" s="9">
-        <v>4591367</v>
+        <v>246533</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D124" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E124" s="9">
         <v>0</v>
       </c>
       <c r="F124" s="9">
-        <f t="shared" si="81"/>
-        <v>4591367</v>
+        <f t="shared" si="85"/>
+        <v>246533</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9">
-        <f t="shared" si="82"/>
-        <v>4591367</v>
+        <f t="shared" si="86"/>
+        <v>246533</v>
       </c>
       <c r="I124" s="9">
-        <f t="shared" si="83"/>
-        <v>4591207</v>
+        <f t="shared" si="87"/>
+        <v>246373</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K124" s="9"/>
@@ -12285,36 +12379,36 @@
     </row>
     <row r="125" spans="1:27">
       <c r="A125" s="26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B125" s="9">
-        <v>1977302</v>
+        <v>4591367</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D125" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E125" s="9">
         <v>0</v>
       </c>
       <c r="F125" s="9">
-        <f t="shared" si="81"/>
-        <v>1977302</v>
+        <f t="shared" si="85"/>
+        <v>4591367</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9">
-        <f t="shared" si="82"/>
-        <v>1977302</v>
+        <f t="shared" si="86"/>
+        <v>4591367</v>
       </c>
       <c r="I125" s="9">
-        <f t="shared" si="83"/>
-        <v>1977142</v>
+        <f t="shared" si="87"/>
+        <v>4591207</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K125" s="9"/>
@@ -12337,37 +12431,37 @@
     </row>
     <row r="126" spans="1:27">
       <c r="A126" s="26" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B126" s="9">
-        <v>933138</v>
+        <v>1977302</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D126" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>-1</v>
       </c>
       <c r="E126" s="9">
         <v>0</v>
       </c>
       <c r="F126" s="9">
-        <f t="shared" si="81"/>
-        <v>933138</v>
+        <f t="shared" si="85"/>
+        <v>1977302</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9">
-        <f t="shared" si="82"/>
-        <v>933138</v>
+        <f t="shared" si="86"/>
+        <v>1977302</v>
       </c>
       <c r="I126" s="9">
-        <f t="shared" si="83"/>
-        <v>933298</v>
+        <f t="shared" si="87"/>
+        <v>1977142</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
@@ -12389,36 +12483,36 @@
     </row>
     <row r="127" spans="1:27">
       <c r="A127" s="26" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B127" s="9">
-        <v>87969</v>
+        <v>933138</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D127" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E127" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F127" s="9">
-        <f t="shared" si="81"/>
-        <v>87991</v>
+        <f t="shared" si="85"/>
+        <v>933138</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9">
-        <f t="shared" si="82"/>
-        <v>87991</v>
+        <f t="shared" si="86"/>
+        <v>933138</v>
       </c>
       <c r="I127" s="9">
-        <f t="shared" si="83"/>
-        <v>88151</v>
+        <f t="shared" si="87"/>
+        <v>933298</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K127" s="9"/>
@@ -12441,36 +12535,36 @@
     </row>
     <row r="128" spans="1:27">
       <c r="A128" s="26" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B128" s="9">
-        <v>3997907</v>
+        <v>87969</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D128" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E128" s="9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F128" s="9">
-        <f t="shared" si="81"/>
-        <v>3997907</v>
+        <f t="shared" si="85"/>
+        <v>87991</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9">
-        <f t="shared" si="82"/>
-        <v>3997907</v>
+        <f t="shared" si="86"/>
+        <v>87991</v>
       </c>
       <c r="I128" s="9">
-        <f t="shared" si="83"/>
-        <v>3998067</v>
+        <f t="shared" si="87"/>
+        <v>88151</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K128" s="9"/>
@@ -12493,37 +12587,37 @@
     </row>
     <row r="129" spans="1:27">
       <c r="A129" s="26" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B129" s="9">
-        <v>4338042</v>
+        <v>3997907</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D129" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E129" s="9">
         <v>0</v>
       </c>
       <c r="F129" s="9">
-        <f t="shared" si="81"/>
-        <v>4338042</v>
+        <f t="shared" si="85"/>
+        <v>3997907</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9">
-        <f t="shared" si="82"/>
-        <v>4338042</v>
+        <f t="shared" si="86"/>
+        <v>3997907</v>
       </c>
       <c r="I129" s="9">
-        <f t="shared" si="83"/>
-        <v>4337882</v>
+        <f t="shared" si="87"/>
+        <v>3998067</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
@@ -12545,37 +12639,37 @@
     </row>
     <row r="130" spans="1:27">
       <c r="A130" s="26" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B130" s="9">
-        <v>1942634</v>
+        <v>4338042</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D130" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>-1</v>
       </c>
       <c r="E130" s="9">
         <v>0</v>
       </c>
       <c r="F130" s="9">
-        <f t="shared" si="81"/>
-        <v>1942634</v>
+        <f t="shared" si="85"/>
+        <v>4338042</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9">
-        <f t="shared" si="82"/>
-        <v>1942634</v>
+        <f t="shared" si="86"/>
+        <v>4338042</v>
       </c>
       <c r="I130" s="9">
-        <f t="shared" si="83"/>
-        <v>1942794</v>
+        <f t="shared" si="87"/>
+        <v>4337882</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
@@ -12597,37 +12691,37 @@
     </row>
     <row r="131" spans="1:27">
       <c r="A131" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B131" s="9">
-        <v>1942661</v>
+        <v>1942634</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E131" s="9">
         <v>0</v>
       </c>
       <c r="F131" s="9">
-        <f t="shared" si="81"/>
-        <v>1942661</v>
+        <f t="shared" si="85"/>
+        <v>1942634</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9">
-        <f t="shared" si="82"/>
-        <v>1942661</v>
+        <f t="shared" si="86"/>
+        <v>1942634</v>
       </c>
       <c r="I131" s="9">
-        <f t="shared" si="83"/>
-        <v>1942501</v>
+        <f t="shared" si="87"/>
+        <v>1942794</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
@@ -12649,37 +12743,37 @@
     </row>
     <row r="132" spans="1:27">
       <c r="A132" s="26" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B132" s="9">
-        <v>3182433</v>
+        <v>1942661</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D132" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>-1</v>
       </c>
       <c r="E132" s="9">
         <v>0</v>
       </c>
       <c r="F132" s="9">
-        <f t="shared" si="81"/>
-        <v>3182433</v>
+        <f t="shared" si="85"/>
+        <v>1942661</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9">
-        <f t="shared" si="82"/>
-        <v>3182433</v>
+        <f t="shared" si="86"/>
+        <v>1942661</v>
       </c>
       <c r="I132" s="9">
-        <f t="shared" si="83"/>
-        <v>3182593</v>
+        <f t="shared" si="87"/>
+        <v>1942501</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -12701,36 +12795,36 @@
     </row>
     <row r="133" spans="1:27">
       <c r="A133" s="26" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B133" s="9">
-        <v>3637612</v>
+        <v>3182433</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D133" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E133" s="9">
         <v>0</v>
       </c>
       <c r="F133" s="9">
-        <f t="shared" si="81"/>
-        <v>3637612</v>
+        <f t="shared" si="85"/>
+        <v>3182433</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9">
-        <f t="shared" si="82"/>
-        <v>3637612</v>
+        <f t="shared" si="86"/>
+        <v>3182433</v>
       </c>
       <c r="I133" s="9">
-        <f t="shared" si="83"/>
-        <v>3637772</v>
+        <f t="shared" si="87"/>
+        <v>3182593</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K133" s="9"/>
@@ -12753,36 +12847,36 @@
     </row>
     <row r="134" spans="1:27">
       <c r="A134" s="26" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B134" s="9">
-        <v>4376509</v>
+        <v>3637612</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D134" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="E134" s="9">
         <v>0</v>
       </c>
       <c r="F134" s="9">
-        <f t="shared" si="81"/>
-        <v>4376509</v>
+        <f t="shared" si="85"/>
+        <v>3637612</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9">
-        <f t="shared" si="82"/>
-        <v>4376509</v>
+        <f t="shared" si="86"/>
+        <v>3637612</v>
       </c>
       <c r="I134" s="9">
-        <f t="shared" si="83"/>
-        <v>4376669</v>
+        <f t="shared" si="87"/>
+        <v>3637772</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>rev</v>
       </c>
       <c r="K134" s="9"/>
@@ -12805,37 +12899,37 @@
     </row>
     <row r="135" spans="1:27">
       <c r="A135" s="26" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B135" s="9">
-        <v>83735</v>
+        <v>4376509</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D135" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E135" s="9">
         <v>0</v>
       </c>
       <c r="F135" s="9">
-        <f t="shared" si="81"/>
-        <v>83735</v>
+        <f t="shared" si="85"/>
+        <v>4376509</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9">
-        <f t="shared" si="82"/>
-        <v>83735</v>
+        <f t="shared" si="86"/>
+        <v>4376509</v>
       </c>
       <c r="I135" s="9">
-        <f t="shared" si="83"/>
-        <v>83575</v>
+        <f t="shared" si="87"/>
+        <v>4376669</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
@@ -12857,34 +12951,36 @@
     </row>
     <row r="136" spans="1:27">
       <c r="A136" s="26" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B136" s="9">
-        <v>1645903</v>
+        <v>83735</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D136" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
-      <c r="E136" s="9"/>
+      <c r="E136" s="9">
+        <v>0</v>
+      </c>
       <c r="F136" s="9">
-        <f t="shared" si="81"/>
-        <v>1645903</v>
+        <f t="shared" si="85"/>
+        <v>83735</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9">
-        <f t="shared" si="82"/>
-        <v>1645903</v>
+        <f t="shared" si="86"/>
+        <v>83735</v>
       </c>
       <c r="I136" s="9">
-        <f t="shared" si="83"/>
-        <v>1645743</v>
+        <f t="shared" si="87"/>
+        <v>83575</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K136" s="9"/>
@@ -12907,37 +13003,35 @@
     </row>
     <row r="137" spans="1:27">
       <c r="A137" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B137" s="9">
-        <v>1619093</v>
+        <v>1645903</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D137" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="E137" s="9">
-        <v>-10</v>
-      </c>
+        <f t="shared" si="84"/>
+        <v>-1</v>
+      </c>
+      <c r="E137" s="9"/>
       <c r="F137" s="9">
-        <f t="shared" si="81"/>
-        <v>1619083</v>
+        <f t="shared" si="85"/>
+        <v>1645903</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9">
-        <f t="shared" si="82"/>
-        <v>1619083</v>
+        <f t="shared" si="86"/>
+        <v>1645903</v>
       </c>
       <c r="I137" s="9">
-        <f t="shared" si="83"/>
-        <v>1619243</v>
+        <f t="shared" si="87"/>
+        <v>1645743</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>rev</v>
+        <f t="shared" si="78"/>
+        <v>fwd</v>
       </c>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
@@ -12959,37 +13053,37 @@
     </row>
     <row r="138" spans="1:27">
       <c r="A138" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="9">
-        <v>4326836</v>
+        <v>1619093</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E138" s="9">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F138" s="9">
-        <f t="shared" si="81"/>
-        <v>4326836</v>
+        <f t="shared" si="85"/>
+        <v>1619083</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9">
-        <f t="shared" si="82"/>
-        <v>4326836</v>
+        <f t="shared" si="86"/>
+        <v>1619083</v>
       </c>
       <c r="I138" s="9">
-        <f t="shared" si="83"/>
-        <v>4326676</v>
+        <f t="shared" si="87"/>
+        <v>1619243</v>
       </c>
       <c r="J138" s="9" t="str">
-        <f t="shared" si="74"/>
-        <v>fwd</v>
+        <f t="shared" si="78"/>
+        <v>rev</v>
       </c>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
@@ -13011,36 +13105,36 @@
     </row>
     <row r="139" spans="1:27">
       <c r="A139" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B139" s="9">
-        <v>2032352</v>
+        <v>4326836</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D139" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E139" s="9">
         <v>0</v>
       </c>
       <c r="F139" s="9">
-        <f t="shared" si="81"/>
-        <v>2032352</v>
+        <f t="shared" si="85"/>
+        <v>4326836</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9">
-        <f t="shared" si="82"/>
-        <v>2032352</v>
+        <f t="shared" si="86"/>
+        <v>4326836</v>
       </c>
       <c r="I139" s="9">
-        <f t="shared" si="83"/>
-        <v>2032192</v>
+        <f t="shared" si="87"/>
+        <v>4326676</v>
       </c>
       <c r="J139" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K139" s="9"/>
@@ -13063,36 +13157,36 @@
     </row>
     <row r="140" spans="1:27">
       <c r="A140" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B140" s="9">
-        <v>2949066</v>
+        <v>2032352</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D140" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E140" s="9">
         <v>0</v>
       </c>
       <c r="F140" s="9">
-        <f t="shared" si="81"/>
-        <v>2949066</v>
+        <f t="shared" si="85"/>
+        <v>2032352</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9">
-        <f t="shared" si="82"/>
-        <v>2949066</v>
+        <f t="shared" si="86"/>
+        <v>2032352</v>
       </c>
       <c r="I140" s="9">
-        <f t="shared" si="83"/>
-        <v>2948906</v>
+        <f t="shared" si="87"/>
+        <v>2032192</v>
       </c>
       <c r="J140" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K140" s="9"/>
@@ -13115,36 +13209,36 @@
     </row>
     <row r="141" spans="1:27">
       <c r="A141" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B141" s="9">
-        <v>3811175</v>
+        <v>2949066</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D141" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E141" s="9">
         <v>0</v>
       </c>
       <c r="F141" s="9">
-        <f t="shared" si="81"/>
-        <v>3811175</v>
+        <f t="shared" si="85"/>
+        <v>2949066</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9">
-        <f t="shared" si="82"/>
-        <v>3811175</v>
+        <f t="shared" si="86"/>
+        <v>2949066</v>
       </c>
       <c r="I141" s="9">
-        <f t="shared" si="83"/>
-        <v>3811015</v>
+        <f t="shared" si="87"/>
+        <v>2948906</v>
       </c>
       <c r="J141" s="9" t="str">
-        <f t="shared" ref="J141:J144" si="87">IF(C141="rev", "fwd", IF(C141="fwd", "rev", ""))</f>
+        <f t="shared" si="78"/>
         <v>fwd</v>
       </c>
       <c r="K141" s="9"/>
@@ -13167,36 +13261,36 @@
     </row>
     <row r="142" spans="1:27">
       <c r="A142" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142" s="9">
-        <v>919103</v>
+        <v>3811175</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D142" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="E142" s="9">
         <v>0</v>
       </c>
       <c r="F142" s="9">
-        <f t="shared" si="81"/>
-        <v>919103</v>
+        <f t="shared" si="85"/>
+        <v>3811175</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9">
-        <f t="shared" si="82"/>
-        <v>919103</v>
+        <f t="shared" si="86"/>
+        <v>3811175</v>
       </c>
       <c r="I142" s="9">
-        <f t="shared" si="83"/>
-        <v>918943</v>
+        <f t="shared" si="87"/>
+        <v>3811015</v>
       </c>
       <c r="J142" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="J142:J145" si="91">IF(C142="rev", "fwd", IF(C142="fwd", "rev", ""))</f>
         <v>fwd</v>
       </c>
       <c r="K142" s="9"/>
@@ -13219,37 +13313,37 @@
     </row>
     <row r="143" spans="1:27">
       <c r="A143" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B143" s="9">
-        <v>830783</v>
+        <v>919103</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D143" s="9">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>-1</v>
       </c>
       <c r="E143" s="9">
         <v>0</v>
       </c>
       <c r="F143" s="9">
-        <f t="shared" si="81"/>
-        <v>830783</v>
+        <f t="shared" si="85"/>
+        <v>919103</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9">
-        <f t="shared" si="82"/>
-        <v>830783</v>
+        <f t="shared" si="86"/>
+        <v>919103</v>
       </c>
       <c r="I143" s="9">
-        <f t="shared" si="83"/>
-        <v>830943</v>
+        <f t="shared" si="87"/>
+        <v>918943</v>
       </c>
       <c r="J143" s="9" t="str">
-        <f t="shared" si="87"/>
-        <v>rev</v>
+        <f t="shared" si="91"/>
+        <v>fwd</v>
       </c>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
@@ -13270,32 +13364,38 @@
       <c r="AA143" s="9"/>
     </row>
     <row r="144" spans="1:27">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
+      <c r="A144" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B144" s="9">
+        <v>830783</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D144" s="9">
-        <f t="shared" si="80"/>
-        <v>-1</v>
+        <f t="shared" si="84"/>
+        <v>1</v>
       </c>
       <c r="E144" s="9">
         <v>0</v>
       </c>
       <c r="F144" s="9">
-        <f t="shared" si="81"/>
-        <v>0</v>
+        <f t="shared" si="85"/>
+        <v>830783</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="9">
-        <f t="shared" si="82"/>
-        <v>0</v>
+        <f t="shared" si="86"/>
+        <v>830783</v>
       </c>
       <c r="I144" s="9">
-        <f t="shared" si="83"/>
-        <v>-160</v>
+        <f t="shared" si="87"/>
+        <v>830943</v>
       </c>
       <c r="J144" s="9" t="str">
-        <f t="shared" si="87"/>
-        <v/>
+        <f t="shared" si="91"/>
+        <v>rev</v>
       </c>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -13315,11 +13415,57 @@
       <c r="Z144" s="9"/>
       <c r="AA144" s="9"/>
     </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9">
+        <f t="shared" si="84"/>
+        <v>-1</v>
+      </c>
+      <c r="E145" s="9">
+        <v>0</v>
+      </c>
+      <c r="F145" s="9">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="I145" s="9">
+        <f t="shared" si="87"/>
+        <v>-160</v>
+      </c>
+      <c r="J145" s="9" t="str">
+        <f t="shared" si="91"/>
+        <v/>
+      </c>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="9"/>
+      <c r="T145" s="9"/>
+      <c r="U145" s="9"/>
+      <c r="V145" s="9"/>
+      <c r="W145" s="9"/>
+      <c r="X145" s="9"/>
+      <c r="Y145" s="9"/>
+      <c r="Z145" s="9"/>
+      <c r="AA145" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I91 Q29 H49" formula="1"/>
+    <ignoredError sqref="I92 Q29 H49" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EFF57B-177A-C340-96EB-3E7706B73204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A28FA-7425-9B4D-956E-7D06D966CC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="360">
   <si>
     <t>Operon</t>
   </si>
@@ -1109,6 +1109,15 @@
   </si>
   <si>
     <t>CTCCTGGCGTT</t>
+  </si>
+  <si>
+    <t>793,856 &lt;- 794,644</t>
+  </si>
+  <si>
+    <t>TATAGTCATGAGACTATTCTAACCGCTAAGCACAGAAAAGCACTCCCCTTTTGTGCGGTCAGCTTTGCGTGGCGTTCGTTTTCCGTCACAATAAGACTTTTGCCAGGACATTGTTATGCAGGCCGAAATCCTTCTCACCCTTAAGCTCCAACAAAAATTA</t>
+  </si>
+  <si>
+    <t>GAGACTATTCTAACCGCT</t>
   </si>
 </sst>
 </file>
@@ -3465,9 +3474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
   <dimension ref="A1:Z144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z61" sqref="Z61"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y63" sqref="Y63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8571,59 +8580,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="26" t="s">
+    <row r="62" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="11">
         <v>794644</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="11">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="9">
+      <c r="E62" s="11">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11">
         <f t="shared" si="2"/>
         <v>794644</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9">
+      <c r="G62" s="11"/>
+      <c r="H62" s="11">
         <f t="shared" si="19"/>
         <v>794600</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="11">
         <f t="shared" si="23"/>
         <v>794759</v>
       </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
+      <c r="J62" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q62" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="R62" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S62" s="11">
+        <f>T62-17</f>
+        <v>794733</v>
+      </c>
+      <c r="T62" s="11">
+        <v>794750</v>
+      </c>
       <c r="U62" s="11">
         <f>S62-H62</f>
-        <v>-794600</v>
+        <v>133</v>
       </c>
       <c r="V62" s="11">
         <f>T62-H62</f>
-        <v>-794600</v>
-      </c>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="W62" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="X62" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="26" t="s">

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A28FA-7425-9B4D-956E-7D06D966CC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4850C-53B3-F14D-8A15-145CD001E40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="387">
   <si>
     <t>Operon</t>
   </si>
@@ -1118,6 +1118,87 @@
   </si>
   <si>
     <t>GAGACTATTCTAACCGCT</t>
+  </si>
+  <si>
+    <t>accgctttcaagattttcaagttgttgatatttcatagcgatctcaatgttaccgtgtaaCtctttacagaatatcagctt</t>
+  </si>
+  <si>
+    <t>1,016,539 &lt;- 1,018,299</t>
+  </si>
+  <si>
+    <t>CAGCTTTTTAGGCCAGTGAAGAAAAGAATCTCCATCCTGTGAGCTTTAACGCCCATGCCAGGAGTATTGTCGGTGCTTTCTACGTGTGCTGTAGTGCCGGTTACGGTATAATCGCGGCTTTGACAACAGACTAAAAAACATCAACTTTGACCATTACGAA</t>
+  </si>
+  <si>
+    <t>CTCTTTACAGAATATCAGCTTTTTAGGCCAGTGAAG</t>
+  </si>
+  <si>
+    <t>AGTGAAGAAAAGAA</t>
+  </si>
+  <si>
+    <t>443,051 &lt;- 443,641</t>
+  </si>
+  <si>
+    <t>tgccacagcggaaaatatctcgtcgatgttgcaggatatccgcgcgctgcgccacactgaAatcgactatatcaatggttt</t>
+  </si>
+  <si>
+    <t>AAGGGCATCATACTTCAGCAGAAGATTTGCGTGATTACGTGATGCAGGTGATTGATGCCACAGCGGAAAATATCTCGTCGATGTTGCAGGATATCCGCGCGCTGCGCCACACTGAAATCGACTATATCAATGGTTTTCTCTTACGCCGCGCCCGCGCGCA</t>
+  </si>
+  <si>
+    <t>AATCGACTATATCAATGGTTTTCTCTTAC</t>
+  </si>
+  <si>
+    <t>TCTCTTACGCCGC</t>
+  </si>
+  <si>
+    <t>1,951,395 -&gt; 1,952,213</t>
+  </si>
+  <si>
+    <t>ACCGTAAGAGCCTGGCCCGCGCTGGAACGCCTCGTTACCACTTTATATCGGGCCTGAAATCAGACTCTACGCCAGTTTGCTATAAAGGTGTTGCCCGAACTCATAAAAATTAACAAAATTTGTCGTTCCGCCATCGGCTAATCGCATTAAGGTGTGAGGC</t>
+  </si>
+  <si>
+    <t>ATTCTGCCGCACCGTAAGAGCCTGG</t>
+  </si>
+  <si>
+    <t>TAAGAGCCTGGCC</t>
+  </si>
+  <si>
+    <t>TTACCACTTTAT</t>
+  </si>
+  <si>
+    <t>CAGACTCTACGCCAGTTTGCT</t>
+  </si>
+  <si>
+    <t>851,014 &lt;- 852,597</t>
+  </si>
+  <si>
+    <t>gcggacccctttccactcttcacgcactcttgcaggtattgacccttgacgccagggtaaGcacatggcgtttgttacgat</t>
+  </si>
+  <si>
+    <t>GAACGGCGGCTCGCTCTATCTTCTTGCAGCCCTGCGTATATTGCGGCTCGCGGATGCGGACCCCTTTCCACTCTTCACGCACTCTTGCAGGTATTGACCCTTGACGCCAGGGTAAGCACATGGCGTTTGTTACGATAGTGGCATATGAATTTAACCCTCA</t>
+  </si>
+  <si>
+    <t>tataggccaacgcaattcatatagccgttgatacctaatgtgattacactagtaaaatatAttgttactttactatcgttt</t>
+  </si>
+  <si>
+    <t>888,134 &lt;- 889,819</t>
+  </si>
+  <si>
+    <t>ACACATTTTTCGCCAGTGTGGCGTTCAGTAAGATAAAGCCGCTTCGCATTCCATGCTAATATAGGCCAACGCAATTCATATAGCCGTTGATACCTAATGTGATTACACTAGTAAAATATATTGTTACTTTACTATCGTTTAGGTGCGCTGAATGAATCTG</t>
+  </si>
+  <si>
+    <t>CAGCGCACCTAAACGATAGTAAAGTAACAAT</t>
+  </si>
+  <si>
+    <t>promoter x2</t>
+  </si>
+  <si>
+    <t>ATTGTTACTTTACTATCGTTTAGGTG</t>
+  </si>
+  <si>
+    <t>CTAATGTGATTACACTAG</t>
+  </si>
+  <si>
+    <t>TCGCCAGTGTGGCGTTCAGTAAGATAAAGCC</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1395,6 +1476,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3472,11 +3554,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:Z144"/>
+  <dimension ref="A1:Z148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y63" sqref="Y63"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W71" sqref="W71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3650,11 +3732,11 @@
         <v>4085943</v>
       </c>
       <c r="U2" s="11">
-        <f>S2-H2</f>
+        <f t="shared" ref="U2:U11" si="0">S2-H2</f>
         <v>60</v>
       </c>
       <c r="V2" s="11">
-        <f>T2-H2</f>
+        <f t="shared" ref="V2:V11" si="1">T2-H2</f>
         <v>120</v>
       </c>
       <c r="W2" s="9" t="s">
@@ -3690,7 +3772,7 @@
         <v>4085867</v>
       </c>
       <c r="G3" s="11">
-        <f t="shared" ref="G3:G38" si="0">F3-H3</f>
+        <f t="shared" ref="G3:G38" si="2">F3-H3</f>
         <v>44</v>
       </c>
       <c r="H3" s="11">
@@ -3733,11 +3815,11 @@
         <v>4085960</v>
       </c>
       <c r="U3" s="11">
-        <f>S3-H3</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="V3" s="11">
-        <f>T3-H3</f>
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="W3" s="11" t="s">
@@ -3773,7 +3855,7 @@
         <v>4085867</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="H4" s="11">
@@ -3816,11 +3898,11 @@
         <v>4085863</v>
       </c>
       <c r="U4" s="11">
-        <f>S4-H4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="V4" s="11">
-        <f>T4-H4</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="W4" s="11" t="s">
@@ -3845,18 +3927,18 @@
         <v>108</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D92" si="1">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D96" si="3">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" ref="F5:F92" si="2">B5+D5*E5</f>
+        <f t="shared" ref="F5:F96" si="4">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H5" s="11">
@@ -3900,11 +3982,11 @@
         <v>2928030</v>
       </c>
       <c r="U5" s="11">
-        <f>S5-H5</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="V5" s="11">
-        <f>T5-H5</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="W5" s="11" t="s">
@@ -3929,18 +4011,18 @@
         <v>118</v>
       </c>
       <c r="D6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
       </c>
       <c r="F6" s="11">
+        <f t="shared" si="4"/>
+        <v>2185451</v>
+      </c>
+      <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>2185451</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H6" s="11">
@@ -3984,11 +4066,11 @@
         <v>2185487</v>
       </c>
       <c r="U6" s="11">
-        <f>S6-H6</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="V6" s="11">
-        <f>T6-H6</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="W6" s="11" t="s">
@@ -4013,18 +4095,18 @@
         <v>118</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" ref="F7" si="3">B7+D7*E7</f>
+        <f t="shared" ref="F7" si="5">B7+D7*E7</f>
         <v>2185451</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="H7" s="11">
@@ -4068,11 +4150,11 @@
         <v>2185504</v>
       </c>
       <c r="U7" s="11">
-        <f>S7-H7</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="V7" s="11">
-        <f>T7-H7</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="W7" s="11" t="s">
@@ -4097,18 +4179,18 @@
         <v>118</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
       </c>
       <c r="F8" s="11">
+        <f t="shared" si="4"/>
+        <v>2033449</v>
+      </c>
+      <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>2033449</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H8" s="11">
@@ -4151,11 +4233,11 @@
         <v>2033445</v>
       </c>
       <c r="U8" s="11">
-        <f>S8-H8</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="V8" s="11">
-        <f>T8-H8</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="W8" s="11" t="s">
@@ -4180,18 +4262,18 @@
         <v>118</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" ref="F9" si="4">B9+D9*E9</f>
+        <f t="shared" ref="F9" si="6">B9+D9*E9</f>
         <v>2033449</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="H9" s="11">
@@ -4234,11 +4316,11 @@
         <v>2033494</v>
       </c>
       <c r="U9" s="11">
-        <f>S9-H9</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="V9" s="11">
-        <f>T9-H9</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="W9" s="11" t="s">
@@ -4263,18 +4345,18 @@
         <v>118</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" ref="F10" si="5">B10+D10*E10</f>
+        <f t="shared" ref="F10" si="7">B10+D10*E10</f>
         <v>2033449</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="H10" s="11">
@@ -4318,11 +4400,11 @@
         <v>2033506</v>
       </c>
       <c r="U10" s="11">
-        <f>S10-H10</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="V10" s="11">
-        <f>T10-H10</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="W10" s="11" t="s">
@@ -4347,18 +4429,18 @@
         <v>108</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E11" s="11">
         <v>0</v>
       </c>
       <c r="F11" s="11">
+        <f t="shared" si="4"/>
+        <v>321511</v>
+      </c>
+      <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>321511</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H11" s="11">
@@ -4403,11 +4485,11 @@
         <v>321554</v>
       </c>
       <c r="U11" s="11">
-        <f>S11-H11</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="V11" s="11">
-        <f>T11-H11</f>
+        <f t="shared" si="1"/>
         <v>157</v>
       </c>
       <c r="W11" s="11" t="s">
@@ -4432,18 +4514,18 @@
         <v>108</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E12" s="11">
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" ref="F12" si="6">B12+D12*E12</f>
+        <f t="shared" ref="F12" si="8">B12+D12*E12</f>
         <v>321511</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H12" s="11">
@@ -4514,18 +4596,18 @@
         <v>108</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E13" s="11">
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" ref="F13:F14" si="7">B13+D13*E13</f>
+        <f t="shared" ref="F13:F14" si="9">B13+D13*E13</f>
         <v>321511</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H13" s="11">
@@ -4570,11 +4652,11 @@
         <v>321503</v>
       </c>
       <c r="U13" s="11">
-        <f>S13-H13</f>
+        <f t="shared" ref="U13:U19" si="10">S13-H13</f>
         <v>88</v>
       </c>
       <c r="V13" s="11">
-        <f>T13-H13</f>
+        <f t="shared" ref="V13:V19" si="11">T13-H13</f>
         <v>106</v>
       </c>
       <c r="W13" s="11" t="s">
@@ -4599,18 +4681,18 @@
         <v>118</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E14" s="11">
         <v>-10</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1996877</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="H14" s="11">
@@ -4653,11 +4735,11 @@
         <v>1996860</v>
       </c>
       <c r="U14" s="11">
-        <f>S14-H14</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="V14" s="11">
-        <f>T14-H14</f>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="W14" s="11" t="s">
@@ -4682,18 +4764,18 @@
         <v>118</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E15" s="11">
         <v>-10</v>
       </c>
       <c r="F15" s="11">
+        <f t="shared" si="4"/>
+        <v>1996877</v>
+      </c>
+      <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>1996877</v>
-      </c>
-      <c r="G15" s="11">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="H15" s="11">
@@ -4736,11 +4818,11 @@
         <v>1996925</v>
       </c>
       <c r="U15" s="11">
-        <f>S15-H15</f>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="V15" s="11">
-        <f>T15-H15</f>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
       <c r="W15" s="11" t="s">
@@ -4765,18 +4847,18 @@
         <v>118</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
       </c>
       <c r="F16" s="11">
+        <f t="shared" si="4"/>
+        <v>3155261</v>
+      </c>
+      <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>3155261</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="H16" s="11">
@@ -4820,11 +4902,11 @@
         <v>3155365</v>
       </c>
       <c r="U16" s="11">
-        <f>S16-H16</f>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="V16" s="11">
-        <f>T16-H16</f>
+        <f t="shared" si="11"/>
         <v>147</v>
       </c>
       <c r="W16" s="11" t="s">
@@ -4849,25 +4931,25 @@
         <v>118</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" ref="F17" si="8">B17+D17*E17</f>
+        <f t="shared" ref="F17" si="12">B17+D17*E17</f>
         <v>3155261</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="H17" s="11">
         <v>3155218</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" ref="I17:I18" si="9">H17+160-1</f>
+        <f t="shared" ref="I17:I18" si="13">H17+160-1</f>
         <v>3155377</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -4904,11 +4986,11 @@
         <v>3155250</v>
       </c>
       <c r="U17" s="11">
-        <f>S17-H17</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V17" s="11">
-        <f>T17-H17</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="W17" s="11" t="s">
@@ -4933,25 +5015,25 @@
         <v>118</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
       </c>
       <c r="F18" s="11">
+        <f t="shared" si="4"/>
+        <v>3155261</v>
+      </c>
+      <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>3155261</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="H18" s="11">
         <v>3155218</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3155377</v>
       </c>
       <c r="J18" s="11" t="s">
@@ -4988,11 +5070,11 @@
         <v>3155250</v>
       </c>
       <c r="U18" s="11">
-        <f>S18-H18</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V18" s="11">
-        <f>T18-H18</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="W18" s="11" t="s">
@@ -5017,18 +5099,18 @@
         <v>118</v>
       </c>
       <c r="D19" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" ref="F19" si="10">B19+D19*E19</f>
+        <f t="shared" ref="F19" si="14">B19+D19*E19</f>
         <v>3836664</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="H19" s="15">
@@ -5072,11 +5154,11 @@
         <v>3836740</v>
       </c>
       <c r="U19" s="11">
-        <f>S19-H19</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="V19" s="11">
-        <f>T19-H19</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="W19" s="15" t="s">
@@ -5101,14 +5183,14 @@
         <v>118</v>
       </c>
       <c r="D20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3836664</v>
       </c>
       <c r="G20" s="11">
@@ -5183,18 +5265,18 @@
         <v>118</v>
       </c>
       <c r="D21" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E21" s="18">
         <v>0</v>
       </c>
       <c r="F21" s="18">
-        <f t="shared" ref="F21" si="11">B21+D21*E21</f>
+        <f t="shared" ref="F21" si="15">B21+D21*E21</f>
         <v>909320</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="H21" s="18">
@@ -5237,11 +5319,11 @@
         <v>909310</v>
       </c>
       <c r="U21" s="18">
-        <f>S21-H21</f>
+        <f t="shared" ref="U21:U44" si="16">S21-H21</f>
         <v>14</v>
       </c>
       <c r="V21" s="18">
-        <f>T21-H21</f>
+        <f t="shared" ref="V21:V44" si="17">T21-H21</f>
         <v>34</v>
       </c>
       <c r="W21" s="18" t="s">
@@ -5266,18 +5348,18 @@
         <v>118</v>
       </c>
       <c r="D22" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E22" s="18">
         <v>0</v>
       </c>
       <c r="F22" s="18">
+        <f t="shared" si="4"/>
+        <v>909320</v>
+      </c>
+      <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>909320</v>
-      </c>
-      <c r="G22" s="11">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H22" s="18">
@@ -5320,11 +5402,11 @@
         <v>909426</v>
       </c>
       <c r="U22" s="18">
-        <f>S22-H22</f>
+        <f t="shared" si="16"/>
         <v>124</v>
       </c>
       <c r="V22" s="18">
-        <f>T22-H22</f>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="W22" s="18" t="s">
@@ -5349,18 +5431,18 @@
         <v>118</v>
       </c>
       <c r="D23" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E23" s="21">
         <v>-7</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" ref="F23" si="12">B23+D23*E23</f>
+        <f t="shared" ref="F23" si="18">B23+D23*E23</f>
         <v>3350511</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="H23" s="21">
@@ -5404,11 +5486,11 @@
         <v>3350601</v>
       </c>
       <c r="U23" s="21">
-        <f>S23-H23</f>
+        <f t="shared" si="16"/>
         <v>122</v>
       </c>
       <c r="V23" s="21">
-        <f>T23-H23</f>
+        <f t="shared" si="17"/>
         <v>141</v>
       </c>
       <c r="W23" s="21" t="s">
@@ -5433,18 +5515,18 @@
         <v>118</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E24" s="21">
         <v>-7</v>
       </c>
       <c r="F24" s="21">
+        <f t="shared" si="4"/>
+        <v>3350511</v>
+      </c>
+      <c r="G24" s="11">
         <f t="shared" si="2"/>
-        <v>3350511</v>
-      </c>
-      <c r="G24" s="11">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="H24" s="21">
@@ -5488,11 +5570,11 @@
         <v>3350500</v>
       </c>
       <c r="U24" s="21">
-        <f>S24-H24</f>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="V24" s="21">
-        <f>T24-H24</f>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="W24" s="21" t="s">
@@ -5517,25 +5599,25 @@
         <v>108</v>
       </c>
       <c r="D25" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E25" s="23">
         <v>0</v>
       </c>
       <c r="F25" s="23">
-        <f t="shared" ref="F25:F26" si="13">B25+D25*E25</f>
+        <f t="shared" ref="F25:F26" si="19">B25+D25*E25</f>
         <v>4269355</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H25" s="23">
         <v>4269241</v>
       </c>
       <c r="I25" s="23">
-        <f t="shared" ref="I25:I30" si="14">H25+D25*159</f>
+        <f t="shared" ref="I25:I30" si="20">H25+D25*159</f>
         <v>4269400</v>
       </c>
       <c r="J25" s="23" t="s">
@@ -5573,11 +5655,11 @@
         <v>4269293</v>
       </c>
       <c r="U25" s="23">
-        <f>S25-H25</f>
+        <f t="shared" si="16"/>
         <v>38</v>
       </c>
       <c r="V25" s="23">
-        <f>T25-H25</f>
+        <f t="shared" si="17"/>
         <v>52</v>
       </c>
       <c r="W25" s="23" t="s">
@@ -5602,25 +5684,25 @@
         <v>108</v>
       </c>
       <c r="D26" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E26" s="23">
         <v>0</v>
       </c>
       <c r="F26" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4269355</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H26" s="23">
         <v>4269241</v>
       </c>
       <c r="I26" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4269400</v>
       </c>
       <c r="J26" s="23" t="s">
@@ -5658,11 +5740,11 @@
         <v>4269310</v>
       </c>
       <c r="U26" s="23">
-        <f>S26-H26</f>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="V26" s="23">
-        <f>T26-H26</f>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="W26" s="23" t="s">
@@ -5687,25 +5769,25 @@
         <v>108</v>
       </c>
       <c r="D27" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E27" s="23">
         <v>0</v>
       </c>
       <c r="F27" s="23">
+        <f t="shared" si="4"/>
+        <v>4269355</v>
+      </c>
+      <c r="G27" s="11">
         <f t="shared" si="2"/>
-        <v>4269355</v>
-      </c>
-      <c r="G27" s="11">
-        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H27" s="23">
         <v>4269241</v>
       </c>
       <c r="I27" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4269400</v>
       </c>
       <c r="J27" s="23" t="s">
@@ -5743,11 +5825,11 @@
         <v>4269360</v>
       </c>
       <c r="U27" s="23">
-        <f>S27-H27</f>
+        <f t="shared" si="16"/>
         <v>109</v>
       </c>
       <c r="V27" s="23">
-        <f>T27-H27</f>
+        <f t="shared" si="17"/>
         <v>119</v>
       </c>
       <c r="W27" s="23" t="s">
@@ -5772,25 +5854,25 @@
         <v>108</v>
       </c>
       <c r="D28" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E28" s="25">
         <v>0</v>
       </c>
       <c r="F28" s="25">
-        <f t="shared" ref="F28:F29" si="15">B28+D28*E28</f>
+        <f t="shared" ref="F28:F29" si="21">B28+D28*E28</f>
         <v>4474096</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H28" s="25">
         <v>4473982</v>
       </c>
       <c r="I28" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4474141</v>
       </c>
       <c r="J28" s="25" t="s">
@@ -5829,11 +5911,11 @@
         <v>4474078</v>
       </c>
       <c r="U28" s="25">
-        <f>S28-H28</f>
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
       <c r="V28" s="25">
-        <f>T28-H28</f>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
       <c r="W28" s="25" t="s">
@@ -5858,14 +5940,14 @@
         <v>108</v>
       </c>
       <c r="D29" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E29" s="25">
         <v>0</v>
       </c>
       <c r="F29" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4474096</v>
       </c>
       <c r="G29" s="11">
@@ -5876,7 +5958,7 @@
         <v>4473982</v>
       </c>
       <c r="I29" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4474141</v>
       </c>
       <c r="J29" s="25" t="s">
@@ -5915,11 +5997,11 @@
         <v>4474088</v>
       </c>
       <c r="U29" s="25">
-        <f>S29-H29</f>
+        <f t="shared" si="16"/>
         <v>93</v>
       </c>
       <c r="V29" s="25">
-        <f>T29-H29</f>
+        <f t="shared" si="17"/>
         <v>106</v>
       </c>
       <c r="W29" s="25" t="s">
@@ -5944,25 +6026,25 @@
         <v>108</v>
       </c>
       <c r="D30" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E30" s="25">
         <v>0</v>
       </c>
       <c r="F30" s="25">
+        <f t="shared" si="4"/>
+        <v>4474096</v>
+      </c>
+      <c r="G30" s="11">
         <f t="shared" si="2"/>
-        <v>4474096</v>
-      </c>
-      <c r="G30" s="11">
-        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H30" s="25">
         <v>4473982</v>
       </c>
       <c r="I30" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4474141</v>
       </c>
       <c r="J30" s="25" t="s">
@@ -6000,11 +6082,11 @@
         <v>4474110</v>
       </c>
       <c r="U30" s="25">
-        <f>S30-H30</f>
+        <f t="shared" si="16"/>
         <v>112</v>
       </c>
       <c r="V30" s="25">
-        <f>T30-H30</f>
+        <f t="shared" si="17"/>
         <v>128</v>
       </c>
       <c r="W30" s="25" t="s">
@@ -6029,18 +6111,18 @@
         <v>118</v>
       </c>
       <c r="D31" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E31" s="29">
         <v>0</v>
       </c>
       <c r="F31" s="29">
+        <f t="shared" si="4"/>
+        <v>1523276</v>
+      </c>
+      <c r="G31" s="11">
         <f t="shared" si="2"/>
-        <v>1523276</v>
-      </c>
-      <c r="G31" s="11">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H31" s="29">
@@ -6084,11 +6166,11 @@
         <v>1523280</v>
       </c>
       <c r="U31" s="29">
-        <f>S31-H31</f>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="V31" s="29">
-        <f>T31-H31</f>
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
       <c r="W31" s="29" t="s">
@@ -6113,18 +6195,18 @@
         <v>108</v>
       </c>
       <c r="D32" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E32" s="33">
         <v>0</v>
       </c>
       <c r="F32" s="33">
+        <f t="shared" si="4"/>
+        <v>897947</v>
+      </c>
+      <c r="G32" s="11">
         <f t="shared" si="2"/>
-        <v>897947</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H32" s="33">
@@ -6169,11 +6251,11 @@
         <v>897950</v>
       </c>
       <c r="U32" s="33">
-        <f>S32-H32</f>
+        <f t="shared" si="16"/>
         <v>82</v>
       </c>
       <c r="V32" s="33">
-        <f>T32-H32</f>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
       <c r="W32" s="33" t="s">
@@ -6198,18 +6280,18 @@
         <v>118</v>
       </c>
       <c r="D33" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E33" s="36">
         <v>0</v>
       </c>
       <c r="F33" s="36">
+        <f t="shared" si="4"/>
+        <v>2690181</v>
+      </c>
+      <c r="G33" s="11">
         <f t="shared" si="2"/>
-        <v>2690181</v>
-      </c>
-      <c r="G33" s="11">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H33" s="36">
@@ -6253,11 +6335,11 @@
         <v>2690257</v>
       </c>
       <c r="U33" s="36">
-        <f>S33-H33</f>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="V33" s="36">
-        <f>T33-H33</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="W33" s="36" t="s">
@@ -6282,14 +6364,14 @@
         <v>118</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E34" s="11">
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1116709</v>
       </c>
       <c r="G34" s="11">
@@ -6338,11 +6420,11 @@
         <v>1116695</v>
       </c>
       <c r="U34" s="11">
-        <f>S34-H34</f>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="V34" s="11">
-        <f>T34-H34</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="W34" s="11" t="s">
@@ -6367,18 +6449,18 @@
         <v>108</v>
       </c>
       <c r="D35" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E35" s="39">
         <v>3</v>
       </c>
       <c r="F35" s="39">
+        <f t="shared" si="4"/>
+        <v>2876550</v>
+      </c>
+      <c r="G35" s="11">
         <f t="shared" si="2"/>
-        <v>2876550</v>
-      </c>
-      <c r="G35" s="11">
-        <f t="shared" si="0"/>
         <v>117</v>
       </c>
       <c r="H35" s="39">
@@ -6424,11 +6506,11 @@
         <v>2876548</v>
       </c>
       <c r="U35" s="39">
-        <f>S35-H35</f>
+        <f t="shared" si="16"/>
         <v>105</v>
       </c>
       <c r="V35" s="39">
-        <f>T35-H35</f>
+        <f t="shared" si="17"/>
         <v>115</v>
       </c>
       <c r="W35" s="39" t="s">
@@ -6453,18 +6535,18 @@
         <v>108</v>
       </c>
       <c r="D36" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E36" s="39">
         <v>3</v>
       </c>
       <c r="F36" s="39">
-        <f t="shared" ref="F36" si="16">B36+D36*E36</f>
+        <f t="shared" ref="F36" si="22">B36+D36*E36</f>
         <v>2876550</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H36" s="39">
@@ -6509,11 +6591,11 @@
         <v>2876473</v>
       </c>
       <c r="U36" s="39">
-        <f>S36-H36</f>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="V36" s="39">
-        <f>T36-H36</f>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="W36" s="39" t="s">
@@ -6538,18 +6620,18 @@
         <v>108</v>
       </c>
       <c r="D37" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E37" s="42">
         <v>0</v>
       </c>
       <c r="F37" s="42">
+        <f t="shared" si="4"/>
+        <v>3235915</v>
+      </c>
+      <c r="G37" s="42">
         <f t="shared" si="2"/>
-        <v>3235915</v>
-      </c>
-      <c r="G37" s="42">
-        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H37" s="42">
@@ -6594,11 +6676,11 @@
         <v>3235899</v>
       </c>
       <c r="U37" s="42">
-        <f>S37-H37</f>
+        <f t="shared" si="16"/>
         <v>78</v>
       </c>
       <c r="V37" s="42">
-        <f>T37-H37</f>
+        <f t="shared" si="17"/>
         <v>98</v>
       </c>
       <c r="W37" s="42" t="s">
@@ -6623,18 +6705,18 @@
         <v>108</v>
       </c>
       <c r="D38" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E38" s="42">
         <v>0</v>
       </c>
       <c r="F38" s="42">
-        <f t="shared" ref="F38" si="17">B38+D38*E38</f>
+        <f t="shared" ref="F38" si="23">B38+D38*E38</f>
         <v>3235915</v>
       </c>
       <c r="G38" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H38" s="42">
@@ -6679,11 +6761,11 @@
         <v>3235852</v>
       </c>
       <c r="U38" s="42">
-        <f>S38-H38</f>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="V38" s="42">
-        <f>T38-H38</f>
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
       <c r="W38" s="42" t="s">
@@ -6708,14 +6790,14 @@
         <v>108</v>
       </c>
       <c r="D39" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E39" s="39">
         <v>0</v>
       </c>
       <c r="F39" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2009776</v>
       </c>
       <c r="G39" s="39"/>
@@ -6760,11 +6842,11 @@
         <v>2009760</v>
       </c>
       <c r="U39" s="39">
-        <f>S39-H39</f>
+        <f t="shared" si="16"/>
         <v>88</v>
       </c>
       <c r="V39" s="39">
-        <f>T39-H39</f>
+        <f t="shared" si="17"/>
         <v>98</v>
       </c>
       <c r="W39" s="39" t="s">
@@ -6789,14 +6871,14 @@
         <v>108</v>
       </c>
       <c r="D40" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E40" s="39">
         <v>0</v>
       </c>
       <c r="F40" s="39">
-        <f t="shared" ref="F40" si="18">B40+D40*E40</f>
+        <f t="shared" ref="F40" si="24">B40+D40*E40</f>
         <v>2009776</v>
       </c>
       <c r="G40" s="39"/>
@@ -6841,11 +6923,11 @@
         <v>2009776</v>
       </c>
       <c r="U40" s="39">
-        <f>S40-H40</f>
+        <f t="shared" si="16"/>
         <v>98</v>
       </c>
       <c r="V40" s="39">
-        <f>T40-H40</f>
+        <f t="shared" si="17"/>
         <v>114</v>
       </c>
       <c r="W40" s="39" t="s">
@@ -6870,19 +6952,19 @@
         <v>118</v>
       </c>
       <c r="D41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E41" s="11">
         <v>0</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4484273</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11">
-        <f t="shared" ref="H41:H89" si="19">F41-44</f>
+        <f t="shared" ref="H41:H93" si="25">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="11">
@@ -6924,11 +7006,11 @@
         <v>4484303</v>
       </c>
       <c r="U41" s="11">
-        <f>S41-H41</f>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="V41" s="11">
-        <f>T41-H41</f>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="W41" s="11" t="s">
@@ -6953,19 +7035,19 @@
         <v>118</v>
       </c>
       <c r="D42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E42" s="11">
         <v>0</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" ref="F42" si="20">B42+D42*E42</f>
+        <f t="shared" ref="F42" si="26">B42+D42*E42</f>
         <v>4484273</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11">
-        <f t="shared" ref="H42" si="21">F42-44</f>
+        <f t="shared" ref="H42" si="27">F42-44</f>
         <v>4484229</v>
       </c>
       <c r="I42" s="11">
@@ -7006,11 +7088,11 @@
         <v>4484385</v>
       </c>
       <c r="U42" s="11">
-        <f>S42-H42</f>
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="V42" s="11">
-        <f>T42-H42</f>
+        <f t="shared" si="17"/>
         <v>156</v>
       </c>
       <c r="W42" s="9" t="s">
@@ -7035,14 +7117,14 @@
         <v>118</v>
       </c>
       <c r="D43" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E43" s="45">
         <v>0</v>
       </c>
       <c r="F43" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2585570</v>
       </c>
       <c r="G43" s="45"/>
@@ -7087,11 +7169,11 @@
         <v>2585592</v>
       </c>
       <c r="U43" s="45">
-        <f>S43-H43</f>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="V43" s="45">
-        <f>T43-H43</f>
+        <f t="shared" si="17"/>
         <v>66</v>
       </c>
       <c r="W43" s="45" t="s">
@@ -7116,14 +7198,14 @@
         <v>118</v>
       </c>
       <c r="D44" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E44" s="45">
         <v>0</v>
       </c>
       <c r="F44" s="45">
-        <f t="shared" ref="F44" si="22">B44+D44*E44</f>
+        <f t="shared" ref="F44" si="28">B44+D44*E44</f>
         <v>2585570</v>
       </c>
       <c r="G44" s="45"/>
@@ -7168,11 +7250,11 @@
         <v>2585665</v>
       </c>
       <c r="U44" s="45">
-        <f>S44-H44</f>
+        <f t="shared" si="16"/>
         <v>114</v>
       </c>
       <c r="V44" s="45">
-        <f>T44-H44</f>
+        <f t="shared" si="17"/>
         <v>139</v>
       </c>
       <c r="W44" s="45" t="s">
@@ -7197,23 +7279,23 @@
         <v>118</v>
       </c>
       <c r="D45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E45" s="11">
         <v>0</v>
       </c>
       <c r="F45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63358</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>63314</v>
       </c>
       <c r="I45" s="11">
-        <f t="shared" ref="I45:I89" si="23">H45+159</f>
+        <f t="shared" ref="I45:I93" si="29">H45+159</f>
         <v>63473</v>
       </c>
       <c r="J45" s="11" t="s">
@@ -7277,23 +7359,23 @@
         <v>118</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" ref="D46" si="24">IF(C46="fwd",1,-1)</f>
+        <f t="shared" ref="D46" si="30">IF(C46="fwd",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" ref="F46" si="25">B46+D46*E46</f>
+        <f t="shared" ref="F46" si="31">B46+D46*E46</f>
         <v>63358</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11">
-        <f t="shared" ref="H46" si="26">F46-44</f>
+        <f t="shared" ref="H46" si="32">F46-44</f>
         <v>63314</v>
       </c>
       <c r="I46" s="11">
-        <f t="shared" ref="I46" si="27">H46+159</f>
+        <f t="shared" ref="I46" si="33">H46+159</f>
         <v>63473</v>
       </c>
       <c r="J46" s="11" t="s">
@@ -7331,11 +7413,11 @@
         <v>63448</v>
       </c>
       <c r="U46" s="11">
-        <f>S46-H46</f>
+        <f t="shared" ref="U46:U57" si="34">S46-H46</f>
         <v>116</v>
       </c>
       <c r="V46" s="11">
-        <f>T46-H46</f>
+        <f t="shared" ref="V46:V57" si="35">T46-H46</f>
         <v>134</v>
       </c>
       <c r="W46" s="11" t="s">
@@ -7360,23 +7442,23 @@
         <v>118</v>
       </c>
       <c r="D47" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E47" s="21">
         <v>0</v>
       </c>
       <c r="F47" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2230395</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2230351</v>
       </c>
       <c r="I47" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2230510</v>
       </c>
       <c r="J47" s="21" t="s">
@@ -7414,11 +7496,11 @@
         <v>2230420</v>
       </c>
       <c r="U47" s="21">
-        <f>S47-H47</f>
+        <f t="shared" si="34"/>
         <v>36</v>
       </c>
       <c r="V47" s="21">
-        <f>T47-H47</f>
+        <f t="shared" si="35"/>
         <v>69</v>
       </c>
       <c r="W47" s="21" t="s">
@@ -7443,23 +7525,23 @@
         <v>118</v>
       </c>
       <c r="D48" s="21">
-        <f t="shared" ref="D48" si="28">IF(C48="fwd",1,-1)</f>
+        <f t="shared" ref="D48" si="36">IF(C48="fwd",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="E48" s="21">
         <v>0</v>
       </c>
       <c r="F48" s="21">
-        <f t="shared" ref="F48" si="29">B48+D48*E48</f>
+        <f t="shared" ref="F48" si="37">B48+D48*E48</f>
         <v>2230395</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21">
-        <f t="shared" ref="H48" si="30">F48-44</f>
+        <f t="shared" ref="H48" si="38">F48-44</f>
         <v>2230351</v>
       </c>
       <c r="I48" s="21">
-        <f t="shared" ref="I48" si="31">H48+159</f>
+        <f t="shared" ref="I48" si="39">H48+159</f>
         <v>2230510</v>
       </c>
       <c r="J48" s="21" t="s">
@@ -7497,11 +7579,11 @@
         <v>2230510</v>
       </c>
       <c r="U48" s="21">
-        <f>S48-H48</f>
+        <f t="shared" si="34"/>
         <v>130</v>
       </c>
       <c r="V48" s="21">
-        <f>T48-H48</f>
+        <f t="shared" si="35"/>
         <v>159</v>
       </c>
       <c r="W48" s="21" t="s">
@@ -7526,14 +7608,14 @@
         <v>118</v>
       </c>
       <c r="D49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E49" s="11">
         <v>2</v>
       </c>
       <c r="F49" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4081357</v>
       </c>
       <c r="G49" s="11"/>
@@ -7542,7 +7624,7 @@
         <v>4081315</v>
       </c>
       <c r="I49" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>4081474</v>
       </c>
       <c r="J49" s="11" t="s">
@@ -7580,11 +7662,11 @@
         <v>4081345</v>
       </c>
       <c r="U49" s="11">
-        <f>S49-H49</f>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="V49" s="11">
-        <f>T49-H49</f>
+        <f t="shared" si="35"/>
         <v>30</v>
       </c>
       <c r="W49" s="11" t="s">
@@ -7609,14 +7691,14 @@
         <v>118</v>
       </c>
       <c r="D50" s="11">
-        <f t="shared" ref="D50:D51" si="32">IF(C50="fwd",1,-1)</f>
+        <f t="shared" ref="D50:D51" si="40">IF(C50="fwd",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="E50" s="11">
         <v>2</v>
       </c>
       <c r="F50" s="11">
-        <f t="shared" ref="F50:F51" si="33">B50+D50*E50</f>
+        <f t="shared" ref="F50:F51" si="41">B50+D50*E50</f>
         <v>4081357</v>
       </c>
       <c r="G50" s="11"/>
@@ -7625,7 +7707,7 @@
         <v>4081315</v>
       </c>
       <c r="I50" s="11">
-        <f t="shared" ref="I50:I51" si="34">H50+159</f>
+        <f t="shared" ref="I50:I51" si="42">H50+159</f>
         <v>4081474</v>
       </c>
       <c r="J50" s="11" t="s">
@@ -7663,11 +7745,11 @@
         <v>4081420</v>
       </c>
       <c r="U50" s="11">
-        <f>S50-H50</f>
+        <f t="shared" si="34"/>
         <v>85</v>
       </c>
       <c r="V50" s="11">
-        <f>T50-H50</f>
+        <f t="shared" si="35"/>
         <v>105</v>
       </c>
       <c r="W50" s="11" t="s">
@@ -7692,14 +7774,14 @@
         <v>118</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="E51" s="11">
         <v>2</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>4081357</v>
       </c>
       <c r="G51" s="11"/>
@@ -7708,7 +7790,7 @@
         <v>4081315</v>
       </c>
       <c r="I51" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>4081474</v>
       </c>
       <c r="J51" s="11" t="s">
@@ -7746,11 +7828,11 @@
         <v>4081470</v>
       </c>
       <c r="U51" s="11">
-        <f>S51-H51</f>
+        <f t="shared" si="34"/>
         <v>115</v>
       </c>
       <c r="V51" s="11">
-        <f>T51-H51</f>
+        <f t="shared" si="35"/>
         <v>155</v>
       </c>
       <c r="W51" s="11" t="s">
@@ -7775,14 +7857,14 @@
         <v>108</v>
       </c>
       <c r="D52" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E52" s="49">
         <v>0</v>
       </c>
       <c r="F52" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>197026</v>
       </c>
       <c r="G52" s="49"/>
@@ -7790,7 +7872,7 @@
         <v>196912</v>
       </c>
       <c r="I52" s="49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>197071</v>
       </c>
       <c r="J52" s="49" t="s">
@@ -7828,11 +7910,11 @@
         <v>196948</v>
       </c>
       <c r="U52" s="49">
-        <f>S52-H52</f>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="V52" s="49">
-        <f>T52-H52</f>
+        <f t="shared" si="35"/>
         <v>36</v>
       </c>
       <c r="W52" s="49" t="s">
@@ -7857,14 +7939,14 @@
         <v>108</v>
       </c>
       <c r="D53" s="49">
-        <f t="shared" ref="D53" si="35">IF(C53="fwd",1,-1)</f>
+        <f t="shared" ref="D53" si="43">IF(C53="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E53" s="49">
         <v>0</v>
       </c>
       <c r="F53" s="49">
-        <f t="shared" ref="F53" si="36">B53+D53*E53</f>
+        <f t="shared" ref="F53" si="44">B53+D53*E53</f>
         <v>197026</v>
       </c>
       <c r="G53" s="49"/>
@@ -7872,7 +7954,7 @@
         <v>196912</v>
       </c>
       <c r="I53" s="49">
-        <f t="shared" ref="I53" si="37">H53+159</f>
+        <f t="shared" ref="I53" si="45">H53+159</f>
         <v>197071</v>
       </c>
       <c r="J53" s="49" t="s">
@@ -7910,11 +7992,11 @@
         <v>196969</v>
       </c>
       <c r="U53" s="49">
-        <f>S53-H53</f>
+        <f t="shared" si="34"/>
         <v>36</v>
       </c>
       <c r="V53" s="49">
-        <f>T53-H53</f>
+        <f t="shared" si="35"/>
         <v>57</v>
       </c>
       <c r="W53" s="49" t="s">
@@ -7939,12 +8021,12 @@
         <v>108</v>
       </c>
       <c r="D54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>197821</v>
       </c>
       <c r="G54" s="11"/>
@@ -7952,7 +8034,7 @@
         <v>197707</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>197866</v>
       </c>
       <c r="J54" s="11" t="s">
@@ -7989,11 +8071,11 @@
         <v>197835</v>
       </c>
       <c r="U54" s="11">
-        <f>S54-H54</f>
+        <f t="shared" si="34"/>
         <v>113</v>
       </c>
       <c r="V54" s="11">
-        <f>T54-H54</f>
+        <f t="shared" si="35"/>
         <v>128</v>
       </c>
       <c r="W54" s="11" t="s">
@@ -8018,23 +8100,23 @@
         <v>118</v>
       </c>
       <c r="D55" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E55" s="49">
         <v>0</v>
       </c>
       <c r="F55" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1237285</v>
       </c>
       <c r="G55" s="49"/>
       <c r="H55" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1237241</v>
       </c>
       <c r="I55" s="49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1237400</v>
       </c>
       <c r="J55" s="49" t="s">
@@ -8072,11 +8154,11 @@
         <v>1237325</v>
       </c>
       <c r="U55" s="49">
-        <f>S55-H55</f>
+        <f t="shared" si="34"/>
         <v>44</v>
       </c>
       <c r="V55" s="49">
-        <f>T55-H55</f>
+        <f t="shared" si="35"/>
         <v>84</v>
       </c>
       <c r="W55" s="49" t="s">
@@ -8101,14 +8183,14 @@
         <v>118</v>
       </c>
       <c r="D56" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E56" s="53">
         <v>-15</v>
       </c>
       <c r="F56" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2212256</v>
       </c>
       <c r="G56" s="53"/>
@@ -8116,7 +8198,7 @@
         <v>2212197</v>
       </c>
       <c r="I56" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2212356</v>
       </c>
       <c r="J56" s="53" t="s">
@@ -8153,11 +8235,11 @@
         <v>2212319</v>
       </c>
       <c r="U56" s="53">
-        <f>S56-H56</f>
+        <f t="shared" si="34"/>
         <v>103</v>
       </c>
       <c r="V56" s="53">
-        <f>T56-H56</f>
+        <f t="shared" si="35"/>
         <v>122</v>
       </c>
       <c r="W56" s="53" t="s">
@@ -8182,14 +8264,14 @@
         <v>108</v>
       </c>
       <c r="D57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E57" s="11">
         <v>0</v>
       </c>
       <c r="F57" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2266214</v>
       </c>
       <c r="G57" s="11"/>
@@ -8197,7 +8279,7 @@
         <v>2266100</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2266259</v>
       </c>
       <c r="J57" s="11" t="s">
@@ -8234,11 +8316,11 @@
         <v>2266165</v>
       </c>
       <c r="U57" s="11">
-        <f>S57-H57</f>
+        <f t="shared" si="34"/>
         <v>40</v>
       </c>
       <c r="V57" s="11">
-        <f>T57-H57</f>
+        <f t="shared" si="35"/>
         <v>65</v>
       </c>
       <c r="W57" s="11" t="s">
@@ -8263,14 +8345,14 @@
         <v>108</v>
       </c>
       <c r="D58" s="11">
-        <f t="shared" ref="D58" si="38">IF(C58="fwd",1,-1)</f>
+        <f t="shared" ref="D58" si="46">IF(C58="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E58" s="11">
         <v>0</v>
       </c>
       <c r="F58" s="11">
-        <f t="shared" ref="F58" si="39">B58+D58*E58</f>
+        <f t="shared" ref="F58" si="47">B58+D58*E58</f>
         <v>2266214</v>
       </c>
       <c r="G58" s="11"/>
@@ -8278,7 +8360,7 @@
         <v>2266100</v>
       </c>
       <c r="I58" s="11">
-        <f t="shared" ref="I58" si="40">H58+159</f>
+        <f t="shared" ref="I58" si="48">H58+159</f>
         <v>2266259</v>
       </c>
       <c r="J58" s="11" t="s">
@@ -8342,23 +8424,23 @@
         <v>118</v>
       </c>
       <c r="D59" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E59" s="56">
         <v>0</v>
       </c>
       <c r="F59" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4122354</v>
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>4122310</v>
       </c>
       <c r="I59" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>4122469</v>
       </c>
       <c r="J59" s="56" t="s">
@@ -8396,11 +8478,11 @@
         <v>4122350</v>
       </c>
       <c r="U59" s="56">
-        <f>S59-H59</f>
+        <f t="shared" ref="U59:U94" si="49">S59-H59</f>
         <v>17</v>
       </c>
       <c r="V59" s="56">
-        <f>T59-H59</f>
+        <f t="shared" ref="V59:V94" si="50">T59-H59</f>
         <v>40</v>
       </c>
       <c r="W59" s="56" t="s">
@@ -8425,23 +8507,23 @@
         <v>118</v>
       </c>
       <c r="D60" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E60" s="49">
         <v>0</v>
       </c>
       <c r="F60" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1907086</v>
       </c>
       <c r="G60" s="49"/>
       <c r="H60" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1907042</v>
       </c>
       <c r="I60" s="49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1907201</v>
       </c>
       <c r="J60" s="49" t="s">
@@ -8479,11 +8561,11 @@
         <v>1907095</v>
       </c>
       <c r="U60" s="49">
-        <f>S60-H60</f>
+        <f t="shared" si="49"/>
         <v>33</v>
       </c>
       <c r="V60" s="49">
-        <f>T60-H60</f>
+        <f t="shared" si="50"/>
         <v>53</v>
       </c>
       <c r="W60" s="49" t="s">
@@ -8508,23 +8590,23 @@
         <v>118</v>
       </c>
       <c r="D61" s="49">
-        <f t="shared" ref="D61" si="41">IF(C61="fwd",1,-1)</f>
+        <f t="shared" ref="D61" si="51">IF(C61="fwd",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="E61" s="49">
         <v>0</v>
       </c>
       <c r="F61" s="49">
-        <f t="shared" ref="F61" si="42">B61+D61*E61</f>
+        <f t="shared" ref="F61" si="52">B61+D61*E61</f>
         <v>1907086</v>
       </c>
       <c r="G61" s="49"/>
       <c r="H61" s="49">
-        <f t="shared" ref="H61" si="43">F61-44</f>
+        <f t="shared" ref="H61" si="53">F61-44</f>
         <v>1907042</v>
       </c>
       <c r="I61" s="49">
-        <f t="shared" ref="I61" si="44">H61+159</f>
+        <f t="shared" ref="I61" si="54">H61+159</f>
         <v>1907201</v>
       </c>
       <c r="J61" s="49" t="s">
@@ -8562,11 +8644,11 @@
         <v>1907136</v>
       </c>
       <c r="U61" s="49">
-        <f>S61-H61</f>
+        <f t="shared" si="49"/>
         <v>84</v>
       </c>
       <c r="V61" s="49">
-        <f>T61-H61</f>
+        <f t="shared" si="50"/>
         <v>94</v>
       </c>
       <c r="W61" s="49" t="s">
@@ -8591,23 +8673,23 @@
         <v>118</v>
       </c>
       <c r="D62" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E62" s="11">
         <v>0</v>
       </c>
       <c r="F62" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>794644</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>794600</v>
       </c>
       <c r="I62" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>794759</v>
       </c>
       <c r="J62" s="11" t="s">
@@ -8645,11 +8727,11 @@
         <v>794750</v>
       </c>
       <c r="U62" s="11">
-        <f>S62-H62</f>
+        <f t="shared" si="49"/>
         <v>133</v>
       </c>
       <c r="V62" s="11">
-        <f>T62-H62</f>
+        <f t="shared" si="50"/>
         <v>150</v>
       </c>
       <c r="W62" s="11" t="s">
@@ -8663,521 +8745,757 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
-      <c r="A63" s="26" t="s">
+    <row r="63" spans="1:26" s="54" customFormat="1" ht="17">
+      <c r="A63" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="53">
         <v>1018330</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="9">
-        <f t="shared" si="1"/>
+      <c r="D63" s="53">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="9">
-        <f t="shared" si="2"/>
+      <c r="E63" s="53">
+        <v>0</v>
+      </c>
+      <c r="F63" s="53">
+        <f t="shared" si="4"/>
         <v>1018330</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9">
-        <f t="shared" si="19"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53">
+        <f t="shared" si="25"/>
         <v>1018286</v>
       </c>
-      <c r="I63" s="9">
-        <f t="shared" si="23"/>
+      <c r="I63" s="53">
+        <f t="shared" si="29"/>
         <v>1018445</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="11">
-        <f>S63-H63</f>
-        <v>-1018286</v>
-      </c>
-      <c r="V63" s="11">
-        <f>T63-H63</f>
-        <v>-1018286</v>
-      </c>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-    </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="26" t="s">
+      <c r="J63" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="K63" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="L63" s="54">
+        <v>1018460</v>
+      </c>
+      <c r="M63" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="N63" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="O63" s="53">
+        <v>1018425</v>
+      </c>
+      <c r="P63" s="53">
+        <v>1018460</v>
+      </c>
+      <c r="Q63" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="R63" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="S63" s="53">
+        <v>1018418</v>
+      </c>
+      <c r="T63" s="53">
+        <f>S63+13</f>
+        <v>1018431</v>
+      </c>
+      <c r="U63" s="53">
+        <f t="shared" si="49"/>
+        <v>132</v>
+      </c>
+      <c r="V63" s="53">
+        <f t="shared" si="50"/>
+        <v>145</v>
+      </c>
+      <c r="W63" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="X63" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A64" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="11">
         <v>443748</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="9">
-        <f t="shared" si="1"/>
+      <c r="D64" s="11">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
-        <f t="shared" si="2"/>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="4"/>
         <v>443748</v>
       </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9">
-        <f t="shared" si="19"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11">
+        <f t="shared" si="25"/>
         <v>443704</v>
       </c>
-      <c r="I64" s="9">
-        <f t="shared" si="23"/>
+      <c r="I64" s="11">
+        <f t="shared" si="29"/>
         <v>443863</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
+      <c r="J64" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L64">
+        <v>443748</v>
+      </c>
+      <c r="M64" t="s">
+        <v>295</v>
+      </c>
+      <c r="N64" t="s">
+        <v>366</v>
+      </c>
+      <c r="O64" s="11">
+        <v>443720</v>
+      </c>
+      <c r="P64" s="11">
+        <v>4437498</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="R64" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="S64" s="11">
+        <v>443715</v>
+      </c>
+      <c r="T64" s="11">
+        <f>S64+12</f>
+        <v>443727</v>
+      </c>
       <c r="U64" s="11">
-        <f>S64-H64</f>
-        <v>-443704</v>
+        <f t="shared" si="49"/>
+        <v>11</v>
       </c>
       <c r="V64" s="11">
-        <f>T64-H64</f>
-        <v>-443704</v>
-      </c>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-    </row>
-    <row r="65" spans="1:26">
-      <c r="A65" s="26" t="s">
+        <f t="shared" si="50"/>
+        <v>23</v>
+      </c>
+      <c r="W64" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="X64" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" s="54" customFormat="1" ht="17">
+      <c r="A65" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="53">
         <v>1950760</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <f t="shared" si="2"/>
+      <c r="D65" s="53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="53">
+        <v>0</v>
+      </c>
+      <c r="F65" s="53">
+        <f t="shared" si="4"/>
         <v>1950760</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9">
-        <f t="shared" si="19"/>
-        <v>1950716</v>
-      </c>
-      <c r="I65" s="9">
-        <f t="shared" si="23"/>
-        <v>1950875</v>
-      </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="11">
-        <f>S65-H65</f>
-        <v>-1950716</v>
-      </c>
-      <c r="V65" s="11">
-        <f>T65-H65</f>
-        <v>-1950716</v>
-      </c>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-    </row>
-    <row r="66" spans="1:26">
-      <c r="A66" s="26" t="s">
+      <c r="G65" s="53"/>
+      <c r="H65" s="53">
+        <v>1950646</v>
+      </c>
+      <c r="I65" s="53">
+        <f t="shared" si="29"/>
+        <v>1950805</v>
+      </c>
+      <c r="J65" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="K65" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="L65" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="M65" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="N65" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="O65" s="53">
+        <v>1950636</v>
+      </c>
+      <c r="P65" s="53">
+        <v>1950660</v>
+      </c>
+      <c r="Q65" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="R65" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="S65" s="53">
+        <v>1950650</v>
+      </c>
+      <c r="T65" s="53">
+        <f>S65+12</f>
+        <v>1950662</v>
+      </c>
+      <c r="U65" s="53">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+      <c r="V65" s="53">
+        <f t="shared" si="50"/>
+        <v>16</v>
+      </c>
+      <c r="W65" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="X65" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" s="54" customFormat="1" ht="17">
+      <c r="A66" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="53">
+        <v>1950760</v>
+      </c>
+      <c r="C66" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="53">
+        <f t="shared" ref="D66" si="55">IF(C66="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="53">
+        <v>0</v>
+      </c>
+      <c r="F66" s="53">
+        <f t="shared" ref="F66" si="56">B66+D66*E66</f>
+        <v>1950760</v>
+      </c>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53">
+        <v>1950646</v>
+      </c>
+      <c r="I66" s="53">
+        <f t="shared" ref="I66" si="57">H66+159</f>
+        <v>1950805</v>
+      </c>
+      <c r="J66" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="K66" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="L66" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="M66" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="N66" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="O66" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="P66" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q66" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="R66" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="S66" s="53">
+        <v>1950680</v>
+      </c>
+      <c r="T66" s="53">
+        <f>S66+11</f>
+        <v>1950691</v>
+      </c>
+      <c r="U66" s="53">
+        <f t="shared" ref="U66" si="58">S66-H66</f>
+        <v>34</v>
+      </c>
+      <c r="V66" s="53">
+        <f t="shared" ref="V66" si="59">T66-H66</f>
+        <v>45</v>
+      </c>
+      <c r="W66" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="X66" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y66" s="53"/>
+      <c r="Z66" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" s="54" customFormat="1" ht="17">
+      <c r="A67" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="53">
+        <v>1950760</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="53">
+        <f t="shared" ref="D67" si="60">IF(C67="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E67" s="53">
+        <v>0</v>
+      </c>
+      <c r="F67" s="53">
+        <f t="shared" ref="F67" si="61">B67+D67*E67</f>
+        <v>1950760</v>
+      </c>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53">
+        <v>1950646</v>
+      </c>
+      <c r="I67" s="53">
+        <f t="shared" ref="I67" si="62">H67+159</f>
+        <v>1950805</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="K67" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="L67" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="M67" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="N67" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="O67" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="P67" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q67" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="R67" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="S67" s="53">
+        <v>1950706</v>
+      </c>
+      <c r="T67" s="53">
+        <f>S67+20</f>
+        <v>1950726</v>
+      </c>
+      <c r="U67" s="53">
+        <f t="shared" ref="U67" si="63">S67-H67</f>
+        <v>60</v>
+      </c>
+      <c r="V67" s="53">
+        <f t="shared" ref="V67" si="64">T67-H67</f>
+        <v>80</v>
+      </c>
+      <c r="W67" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="X67" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y67" s="53"/>
+      <c r="Z67" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A68" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B68" s="11">
         <v>852626</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C68" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="9">
-        <f t="shared" si="1"/>
+      <c r="D68" s="11">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9">
-        <f t="shared" si="2"/>
+      <c r="E68" s="11">
+        <v>0</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="4"/>
         <v>852626</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9">
-        <f t="shared" si="19"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11">
+        <f t="shared" si="25"/>
         <v>852582</v>
       </c>
-      <c r="I66" s="9">
-        <f t="shared" si="23"/>
+      <c r="I68" s="11">
+        <f t="shared" si="29"/>
         <v>852741</v>
       </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="11">
-        <f>S66-H66</f>
+      <c r="J68" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="K68" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="L68" s="3">
+        <v>852626</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11">
+        <f t="shared" si="49"/>
         <v>-852582</v>
       </c>
-      <c r="V66" s="11">
-        <f>T66-H66</f>
+      <c r="V68" s="11">
+        <f t="shared" si="50"/>
         <v>-852582</v>
       </c>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-    </row>
-    <row r="67" spans="1:26">
-      <c r="A67" s="26" t="s">
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+    </row>
+    <row r="69" spans="1:26" s="54" customFormat="1" ht="17">
+      <c r="A69" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B69" s="53">
         <v>889945</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C69" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="9">
-        <f t="shared" si="1"/>
+      <c r="D69" s="53">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E69" s="53">
         <v>-7</v>
       </c>
-      <c r="F67" s="9">
-        <f t="shared" si="2"/>
+      <c r="F69" s="53">
+        <f t="shared" si="4"/>
         <v>889952</v>
       </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9">
-        <f t="shared" si="19"/>
-        <v>889908</v>
-      </c>
-      <c r="I67" s="9">
-        <f t="shared" si="23"/>
-        <v>890067</v>
-      </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="11">
-        <f>S67-H67</f>
-        <v>-889908</v>
-      </c>
-      <c r="V67" s="11">
-        <f>T67-H67</f>
-        <v>-889908</v>
-      </c>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-    </row>
-    <row r="68" spans="1:26">
-      <c r="A68" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="9">
-        <v>2926272</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E68" s="9">
-        <v>-158</v>
-      </c>
-      <c r="F68" s="9">
-        <f t="shared" si="2"/>
-        <v>2926114</v>
-      </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9">
-        <f t="shared" si="19"/>
-        <v>2926070</v>
-      </c>
-      <c r="I68" s="9">
-        <f t="shared" si="23"/>
-        <v>2926229</v>
-      </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="11">
-        <f>S68-H68</f>
-        <v>-2926070</v>
-      </c>
-      <c r="V68" s="11">
-        <f>T68-H68</f>
-        <v>-2926070</v>
-      </c>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-    </row>
-    <row r="69" spans="1:26">
-      <c r="A69" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="9">
-        <v>2870686</v>
-      </c>
-      <c r="C69" s="9" t="s">
+      <c r="G69" s="53"/>
+      <c r="H69" s="53">
+        <v>889901</v>
+      </c>
+      <c r="I69" s="53">
+        <f t="shared" si="29"/>
+        <v>890060</v>
+      </c>
+      <c r="J69" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="K69" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="L69" s="54">
+        <v>889941</v>
+      </c>
+      <c r="M69" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="N69" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="O69" s="53">
+        <v>889911</v>
+      </c>
+      <c r="P69" s="53">
+        <v>889941</v>
+      </c>
+      <c r="Q69" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="R69" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="S69" s="53">
+        <f>T69-25</f>
+        <v>889916</v>
+      </c>
+      <c r="T69" s="53">
+        <v>889941</v>
+      </c>
+      <c r="U69" s="53">
+        <f t="shared" si="49"/>
+        <v>15</v>
+      </c>
+      <c r="V69" s="53">
+        <f t="shared" si="50"/>
+        <v>40</v>
+      </c>
+      <c r="W69" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="X69" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y69" s="53"/>
+      <c r="Z69" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" s="54" customFormat="1" ht="17">
+      <c r="A70" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="53">
+        <v>889945</v>
+      </c>
+      <c r="C70" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="9">
-        <f t="shared" si="1"/>
+      <c r="D70" s="53">
+        <f t="shared" ref="D70" si="65">IF(C70="fwd",1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="E69" s="9">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9">
-        <f t="shared" si="2"/>
-        <v>2870686</v>
-      </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9">
-        <f t="shared" si="19"/>
-        <v>2870642</v>
-      </c>
-      <c r="I69" s="9">
-        <f t="shared" si="23"/>
-        <v>2870801</v>
-      </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="11">
-        <f>S69-H69</f>
-        <v>-2870642</v>
-      </c>
-      <c r="V69" s="11">
-        <f>T69-H69</f>
-        <v>-2870642</v>
-      </c>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-    </row>
-    <row r="70" spans="1:26">
-      <c r="A70" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="9">
-        <v>220022</v>
-      </c>
-      <c r="C70" s="9" t="s">
+      <c r="E70" s="53">
+        <v>-7</v>
+      </c>
+      <c r="F70" s="53">
+        <f t="shared" ref="F70" si="66">B70+D70*E70</f>
+        <v>889952</v>
+      </c>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53">
+        <v>889901</v>
+      </c>
+      <c r="I70" s="53">
+        <f t="shared" ref="I70" si="67">H70+159</f>
+        <v>890060</v>
+      </c>
+      <c r="J70" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="K70" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="L70" s="54">
+        <v>889941</v>
+      </c>
+      <c r="M70" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="N70" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="O70" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="P70" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q70" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="R70" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="S70" s="53">
+        <v>889950</v>
+      </c>
+      <c r="T70" s="53">
+        <f>S70+17</f>
+        <v>889967</v>
+      </c>
+      <c r="U70" s="53">
+        <f t="shared" ref="U70" si="68">S70-H70</f>
+        <v>49</v>
+      </c>
+      <c r="V70" s="53">
+        <f t="shared" ref="V70" si="69">T70-H70</f>
+        <v>66</v>
+      </c>
+      <c r="W70" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="X70" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y70" s="53"/>
+      <c r="Z70" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" s="54" customFormat="1" ht="17">
+      <c r="A71" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="53">
+        <v>889945</v>
+      </c>
+      <c r="C71" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="9">
-        <f t="shared" si="1"/>
+      <c r="D71" s="53">
+        <f t="shared" ref="D71" si="70">IF(C71="fwd",1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
-        <f t="shared" si="2"/>
-        <v>220022</v>
-      </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9">
-        <f t="shared" si="19"/>
-        <v>219978</v>
-      </c>
-      <c r="I70" s="9">
-        <f t="shared" si="23"/>
-        <v>220137</v>
-      </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="11">
-        <f>S70-H70</f>
-        <v>-219978</v>
-      </c>
-      <c r="V70" s="11">
-        <f>T70-H70</f>
-        <v>-219978</v>
-      </c>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-    </row>
-    <row r="71" spans="1:26">
-      <c r="A71" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="9">
-        <v>2082728</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E71" s="9">
-        <v>0</v>
-      </c>
-      <c r="F71" s="9">
-        <f t="shared" si="2"/>
-        <v>2082728</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9">
-        <f t="shared" si="19"/>
-        <v>2082684</v>
-      </c>
-      <c r="I71" s="9">
-        <f t="shared" si="23"/>
-        <v>2082843</v>
-      </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="11">
-        <f>S71-H71</f>
-        <v>-2082684</v>
-      </c>
-      <c r="V71" s="11">
-        <f>T71-H71</f>
-        <v>-2082684</v>
-      </c>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
+      <c r="E71" s="53">
+        <v>-7</v>
+      </c>
+      <c r="F71" s="53">
+        <f t="shared" ref="F71" si="71">B71+D71*E71</f>
+        <v>889952</v>
+      </c>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53">
+        <v>889901</v>
+      </c>
+      <c r="I71" s="53">
+        <f t="shared" ref="I71" si="72">H71+159</f>
+        <v>890060</v>
+      </c>
+      <c r="J71" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="K71" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="L71" s="54">
+        <v>889941</v>
+      </c>
+      <c r="M71" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="N71" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="O71" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="P71" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q71" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="R71" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="S71" s="53">
+        <v>890021</v>
+      </c>
+      <c r="T71" s="53">
+        <f>S71+30</f>
+        <v>890051</v>
+      </c>
+      <c r="U71" s="53">
+        <f t="shared" ref="U71" si="73">S71-H71</f>
+        <v>120</v>
+      </c>
+      <c r="V71" s="53">
+        <f t="shared" ref="V71" si="74">T71-H71</f>
+        <v>150</v>
+      </c>
+      <c r="W71" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="X71" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y71" s="53"/>
+      <c r="Z71" s="53">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" s="9">
-        <v>2999918</v>
+        <v>2926272</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D72" s="9">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="E72" s="9">
-        <v>0</v>
+        <v>-158</v>
       </c>
       <c r="F72" s="9">
-        <f t="shared" si="2"/>
-        <v>2999918</v>
+        <f t="shared" si="4"/>
+        <v>2926114</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9">
-        <f t="shared" si="19"/>
-        <v>2999874</v>
+        <f t="shared" si="25"/>
+        <v>2926070</v>
       </c>
       <c r="I72" s="9">
-        <f t="shared" si="23"/>
-        <v>3000033</v>
+        <f t="shared" si="29"/>
+        <v>2926229</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -9191,12 +9509,12 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="11">
-        <f>S72-H72</f>
-        <v>-2999874</v>
+        <f t="shared" si="49"/>
+        <v>-2926070</v>
       </c>
       <c r="V72" s="11">
-        <f>T72-H72</f>
-        <v>-2999874</v>
+        <f t="shared" si="50"/>
+        <v>-2926070</v>
       </c>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
@@ -9205,33 +9523,33 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="26" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B73" s="9">
-        <v>486492</v>
+        <v>2870686</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D73" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
       <c r="E73" s="9">
         <v>0</v>
       </c>
       <c r="F73" s="9">
-        <f t="shared" si="2"/>
-        <v>486492</v>
+        <f t="shared" si="4"/>
+        <v>2870686</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9">
-        <f t="shared" si="19"/>
-        <v>486448</v>
+        <f t="shared" si="25"/>
+        <v>2870642</v>
       </c>
       <c r="I73" s="9">
-        <f t="shared" si="23"/>
-        <v>486607</v>
+        <f t="shared" si="29"/>
+        <v>2870801</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -9245,12 +9563,12 @@
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="11">
-        <f>S73-H73</f>
-        <v>-486448</v>
+        <f t="shared" si="49"/>
+        <v>-2870642</v>
       </c>
       <c r="V73" s="11">
-        <f>T73-H73</f>
-        <v>-486448</v>
+        <f t="shared" si="50"/>
+        <v>-2870642</v>
       </c>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
@@ -9259,33 +9577,33 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="26" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B74" s="9">
-        <v>3069871</v>
+        <v>220022</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D74" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
-        <f t="shared" si="2"/>
-        <v>3069871</v>
+        <f t="shared" si="4"/>
+        <v>220022</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9">
-        <f t="shared" si="19"/>
-        <v>3069827</v>
+        <f t="shared" si="25"/>
+        <v>219978</v>
       </c>
       <c r="I74" s="9">
-        <f t="shared" si="23"/>
-        <v>3069986</v>
+        <f t="shared" si="29"/>
+        <v>220137</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -9299,12 +9617,12 @@
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
       <c r="U74" s="11">
-        <f>S74-H74</f>
-        <v>-3069827</v>
+        <f t="shared" si="49"/>
+        <v>-219978</v>
       </c>
       <c r="V74" s="11">
-        <f>T74-H74</f>
-        <v>-3069827</v>
+        <f t="shared" si="50"/>
+        <v>-219978</v>
       </c>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
@@ -9313,33 +9631,33 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="26" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B75" s="9">
-        <v>1395973</v>
+        <v>2082728</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D75" s="9">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="E75" s="9">
         <v>0</v>
       </c>
       <c r="F75" s="9">
-        <f t="shared" si="2"/>
-        <v>1395973</v>
+        <f t="shared" si="4"/>
+        <v>2082728</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9">
-        <f t="shared" si="19"/>
-        <v>1395929</v>
+        <f t="shared" si="25"/>
+        <v>2082684</v>
       </c>
       <c r="I75" s="9">
-        <f t="shared" si="23"/>
-        <v>1396088</v>
+        <f t="shared" si="29"/>
+        <v>2082843</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -9353,12 +9671,12 @@
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="11">
-        <f>S75-H75</f>
-        <v>-1395929</v>
+        <f t="shared" si="49"/>
+        <v>-2082684</v>
       </c>
       <c r="V75" s="11">
-        <f>T75-H75</f>
-        <v>-1395929</v>
+        <f t="shared" si="50"/>
+        <v>-2082684</v>
       </c>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
@@ -9367,39 +9685,39 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B76" s="9">
-        <v>604684</v>
+        <v>2999918</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D76" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="9">
-        <f t="shared" si="2"/>
-        <v>604684</v>
+        <f t="shared" si="4"/>
+        <v>2999918</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9">
-        <f t="shared" si="19"/>
-        <v>604640</v>
+        <f t="shared" si="25"/>
+        <v>2999874</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" si="23"/>
-        <v>604799</v>
+        <f t="shared" si="29"/>
+        <v>3000033</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
+      <c r="N76" s="26"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
@@ -9407,12 +9725,12 @@
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="11">
-        <f>S76-H76</f>
-        <v>-604640</v>
+        <f t="shared" si="49"/>
+        <v>-2999874</v>
       </c>
       <c r="V76" s="11">
-        <f>T76-H76</f>
-        <v>-604640</v>
+        <f t="shared" si="50"/>
+        <v>-2999874</v>
       </c>
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
@@ -9421,39 +9739,39 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B77" s="9">
-        <v>1509221</v>
+        <v>486492</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D77" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
       <c r="F77" s="9">
-        <f t="shared" si="2"/>
-        <v>1509221</v>
+        <f t="shared" si="4"/>
+        <v>486492</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9">
-        <f t="shared" si="19"/>
-        <v>1509177</v>
+        <f t="shared" si="25"/>
+        <v>486448</v>
       </c>
       <c r="I77" s="9">
-        <f t="shared" si="23"/>
-        <v>1509336</v>
+        <f t="shared" si="29"/>
+        <v>486607</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
+      <c r="N77" s="26"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
@@ -9461,12 +9779,12 @@
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
       <c r="U77" s="11">
-        <f>S77-H77</f>
-        <v>-1509177</v>
+        <f t="shared" si="49"/>
+        <v>-486448</v>
       </c>
       <c r="V77" s="11">
-        <f>T77-H77</f>
-        <v>-1509177</v>
+        <f t="shared" si="50"/>
+        <v>-486448</v>
       </c>
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
@@ -9475,39 +9793,39 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="26" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B78" s="9">
-        <v>3353049</v>
+        <v>3069871</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D78" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="9">
-        <f t="shared" si="2"/>
-        <v>3353049</v>
+        <f t="shared" si="4"/>
+        <v>3069871</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9">
-        <f t="shared" si="19"/>
-        <v>3353005</v>
+        <f t="shared" si="25"/>
+        <v>3069827</v>
       </c>
       <c r="I78" s="9">
-        <f t="shared" si="23"/>
-        <v>3353164</v>
+        <f t="shared" si="29"/>
+        <v>3069986</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
+      <c r="N78" s="26"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
@@ -9515,12 +9833,12 @@
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
       <c r="U78" s="11">
-        <f>S78-H78</f>
-        <v>-3353005</v>
+        <f t="shared" si="49"/>
+        <v>-3069827</v>
       </c>
       <c r="V78" s="11">
-        <f>T78-H78</f>
-        <v>-3353005</v>
+        <f t="shared" si="50"/>
+        <v>-3069827</v>
       </c>
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
@@ -9529,39 +9847,39 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="26" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B79" s="9">
-        <v>1226139</v>
+        <v>1395973</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D79" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E79" s="9">
         <v>0</v>
       </c>
       <c r="F79" s="9">
-        <f t="shared" si="2"/>
-        <v>1226139</v>
+        <f t="shared" si="4"/>
+        <v>1395973</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9">
-        <f t="shared" si="19"/>
-        <v>1226095</v>
+        <f t="shared" si="25"/>
+        <v>1395929</v>
       </c>
       <c r="I79" s="9">
-        <f t="shared" si="23"/>
-        <v>1226254</v>
+        <f t="shared" si="29"/>
+        <v>1396088</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
+      <c r="N79" s="26"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
@@ -9569,12 +9887,12 @@
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="11">
-        <f>S79-H79</f>
-        <v>-1226095</v>
+        <f t="shared" si="49"/>
+        <v>-1395929</v>
       </c>
       <c r="V79" s="11">
-        <f>T79-H79</f>
-        <v>-1226095</v>
+        <f t="shared" si="50"/>
+        <v>-1395929</v>
       </c>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
@@ -9583,33 +9901,33 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="26" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B80" s="9">
-        <v>693469</v>
+        <v>604684</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D80" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="9">
-        <f t="shared" si="2"/>
-        <v>693469</v>
+        <f t="shared" si="4"/>
+        <v>604684</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9">
-        <f t="shared" si="19"/>
-        <v>693425</v>
+        <f t="shared" si="25"/>
+        <v>604640</v>
       </c>
       <c r="I80" s="9">
-        <f t="shared" si="23"/>
-        <v>693584</v>
+        <f t="shared" si="29"/>
+        <v>604799</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -9623,12 +9941,12 @@
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
       <c r="U80" s="11">
-        <f>S80-H80</f>
-        <v>-693425</v>
+        <f t="shared" si="49"/>
+        <v>-604640</v>
       </c>
       <c r="V80" s="11">
-        <f>T80-H80</f>
-        <v>-693425</v>
+        <f t="shared" si="50"/>
+        <v>-604640</v>
       </c>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
@@ -9637,33 +9955,33 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="26" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B81" s="9">
-        <v>1848700</v>
+        <v>1509221</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D81" s="9">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
       <c r="F81" s="9">
-        <f t="shared" si="2"/>
-        <v>1848700</v>
+        <f t="shared" si="4"/>
+        <v>1509221</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9">
-        <f t="shared" si="19"/>
-        <v>1848656</v>
+        <f t="shared" si="25"/>
+        <v>1509177</v>
       </c>
       <c r="I81" s="9">
-        <f t="shared" si="23"/>
-        <v>1848815</v>
+        <f t="shared" si="29"/>
+        <v>1509336</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -9677,12 +9995,12 @@
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
       <c r="U81" s="11">
-        <f>S81-H81</f>
-        <v>-1848656</v>
+        <f t="shared" si="49"/>
+        <v>-1509177</v>
       </c>
       <c r="V81" s="11">
-        <f>T81-H81</f>
-        <v>-1848656</v>
+        <f t="shared" si="50"/>
+        <v>-1509177</v>
       </c>
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
@@ -9691,33 +10009,33 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="26" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B82" s="9">
-        <v>3096620</v>
+        <v>3353049</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D82" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
-        <f t="shared" si="2"/>
-        <v>3096620</v>
+        <f t="shared" si="4"/>
+        <v>3353049</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9">
-        <f t="shared" si="19"/>
-        <v>3096576</v>
+        <f t="shared" si="25"/>
+        <v>3353005</v>
       </c>
       <c r="I82" s="9">
-        <f t="shared" si="23"/>
-        <v>3096735</v>
+        <f t="shared" si="29"/>
+        <v>3353164</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -9731,12 +10049,12 @@
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
       <c r="U82" s="11">
-        <f>S82-H82</f>
-        <v>-3096576</v>
+        <f t="shared" si="49"/>
+        <v>-3353005</v>
       </c>
       <c r="V82" s="11">
-        <f>T82-H82</f>
-        <v>-3096576</v>
+        <f t="shared" si="50"/>
+        <v>-3353005</v>
       </c>
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
@@ -9745,33 +10063,33 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="26" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B83" s="9">
-        <v>3403446</v>
+        <v>1226139</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D83" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
       <c r="E83" s="9">
         <v>0</v>
       </c>
       <c r="F83" s="9">
-        <f t="shared" si="2"/>
-        <v>3403446</v>
+        <f t="shared" si="4"/>
+        <v>1226139</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9">
-        <f t="shared" si="19"/>
-        <v>3403402</v>
+        <f t="shared" si="25"/>
+        <v>1226095</v>
       </c>
       <c r="I83" s="9">
-        <f t="shared" si="23"/>
-        <v>3403561</v>
+        <f t="shared" si="29"/>
+        <v>1226254</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -9785,12 +10103,12 @@
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
       <c r="U83" s="11">
-        <f>S83-H83</f>
-        <v>-3403402</v>
+        <f t="shared" si="49"/>
+        <v>-1226095</v>
       </c>
       <c r="V83" s="11">
-        <f>T83-H83</f>
-        <v>-3403402</v>
+        <f t="shared" si="50"/>
+        <v>-1226095</v>
       </c>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
@@ -9799,33 +10117,33 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="26" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B84" s="9">
-        <v>2214673</v>
+        <v>693469</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D84" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="9">
-        <f t="shared" si="2"/>
-        <v>2214673</v>
+        <f t="shared" si="4"/>
+        <v>693469</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9">
-        <f t="shared" si="19"/>
-        <v>2214629</v>
+        <f t="shared" si="25"/>
+        <v>693425</v>
       </c>
       <c r="I84" s="9">
-        <f t="shared" si="23"/>
-        <v>2214788</v>
+        <f t="shared" si="29"/>
+        <v>693584</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -9839,12 +10157,12 @@
       <c r="S84" s="9"/>
       <c r="T84" s="9"/>
       <c r="U84" s="11">
-        <f>S84-H84</f>
-        <v>-2214629</v>
+        <f t="shared" si="49"/>
+        <v>-693425</v>
       </c>
       <c r="V84" s="11">
-        <f>T84-H84</f>
-        <v>-2214629</v>
+        <f t="shared" si="50"/>
+        <v>-693425</v>
       </c>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
@@ -9853,33 +10171,33 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="26" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B85" s="9">
-        <v>2212969</v>
+        <v>1848700</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D85" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E85" s="9">
         <v>0</v>
       </c>
       <c r="F85" s="9">
-        <f t="shared" si="2"/>
-        <v>2212969</v>
+        <f t="shared" si="4"/>
+        <v>1848700</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9">
-        <f t="shared" si="19"/>
-        <v>2212925</v>
+        <f t="shared" si="25"/>
+        <v>1848656</v>
       </c>
       <c r="I85" s="9">
-        <f t="shared" si="23"/>
-        <v>2213084</v>
+        <f t="shared" si="29"/>
+        <v>1848815</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -9893,12 +10211,12 @@
       <c r="S85" s="9"/>
       <c r="T85" s="9"/>
       <c r="U85" s="11">
-        <f>S85-H85</f>
-        <v>-2212925</v>
+        <f t="shared" si="49"/>
+        <v>-1848656</v>
       </c>
       <c r="V85" s="11">
-        <f>T85-H85</f>
-        <v>-2212925</v>
+        <f t="shared" si="50"/>
+        <v>-1848656</v>
       </c>
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
@@ -9907,33 +10225,33 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="26" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B86" s="9">
-        <v>845736</v>
+        <v>3096620</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D86" s="9">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="9">
-        <f t="shared" si="2"/>
-        <v>845736</v>
+        <f t="shared" si="4"/>
+        <v>3096620</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9">
-        <f t="shared" si="19"/>
-        <v>845692</v>
+        <f t="shared" si="25"/>
+        <v>3096576</v>
       </c>
       <c r="I86" s="9">
-        <f t="shared" si="23"/>
-        <v>845851</v>
+        <f t="shared" si="29"/>
+        <v>3096735</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -9947,12 +10265,12 @@
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
       <c r="U86" s="11">
-        <f>S86-H86</f>
-        <v>-845692</v>
+        <f t="shared" si="49"/>
+        <v>-3096576</v>
       </c>
       <c r="V86" s="11">
-        <f>T86-H86</f>
-        <v>-845692</v>
+        <f t="shared" si="50"/>
+        <v>-3096576</v>
       </c>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
@@ -9961,33 +10279,33 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="26" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B87" s="9">
-        <v>3438001</v>
+        <v>3403446</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D87" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E87" s="9">
         <v>0</v>
       </c>
       <c r="F87" s="9">
-        <f t="shared" si="2"/>
-        <v>3438001</v>
+        <f t="shared" si="4"/>
+        <v>3403446</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9">
-        <f t="shared" si="19"/>
-        <v>3437957</v>
+        <f t="shared" si="25"/>
+        <v>3403402</v>
       </c>
       <c r="I87" s="9">
-        <f t="shared" si="23"/>
-        <v>3438116</v>
+        <f t="shared" si="29"/>
+        <v>3403561</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -10001,12 +10319,12 @@
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
       <c r="U87" s="11">
-        <f>S87-H87</f>
-        <v>-3437957</v>
+        <f t="shared" si="49"/>
+        <v>-3403402</v>
       </c>
       <c r="V87" s="11">
-        <f>T87-H87</f>
-        <v>-3437957</v>
+        <f t="shared" si="50"/>
+        <v>-3403402</v>
       </c>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
@@ -10015,33 +10333,33 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="26" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B88" s="9">
-        <v>4118427</v>
+        <v>2214673</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D88" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
       <c r="E88" s="9">
         <v>0</v>
       </c>
       <c r="F88" s="9">
-        <f t="shared" si="2"/>
-        <v>4118427</v>
+        <f t="shared" si="4"/>
+        <v>2214673</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9">
-        <f t="shared" si="19"/>
-        <v>4118383</v>
+        <f t="shared" si="25"/>
+        <v>2214629</v>
       </c>
       <c r="I88" s="9">
-        <f t="shared" si="23"/>
-        <v>4118542</v>
+        <f t="shared" si="29"/>
+        <v>2214788</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -10055,12 +10373,12 @@
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
       <c r="U88" s="11">
-        <f>S88-H88</f>
-        <v>-4118383</v>
+        <f t="shared" si="49"/>
+        <v>-2214629</v>
       </c>
       <c r="V88" s="11">
-        <f>T88-H88</f>
-        <v>-4118383</v>
+        <f t="shared" si="50"/>
+        <v>-2214629</v>
       </c>
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
@@ -10069,33 +10387,33 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="26" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="B89" s="9">
-        <v>3808516</v>
+        <v>2212969</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D89" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
       <c r="E89" s="9">
         <v>0</v>
       </c>
       <c r="F89" s="9">
-        <f t="shared" si="2"/>
-        <v>3808516</v>
+        <f t="shared" si="4"/>
+        <v>2212969</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9">
-        <f t="shared" si="19"/>
-        <v>3808472</v>
+        <f t="shared" si="25"/>
+        <v>2212925</v>
       </c>
       <c r="I89" s="9">
-        <f t="shared" si="23"/>
-        <v>3808631</v>
+        <f t="shared" si="29"/>
+        <v>2213084</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -10109,212 +10427,155 @@
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
       <c r="U89" s="11">
-        <f>S89-H89</f>
-        <v>-3808472</v>
+        <f t="shared" si="49"/>
+        <v>-2212925</v>
       </c>
       <c r="V89" s="11">
-        <f>T89-H89</f>
-        <v>-3808472</v>
+        <f t="shared" si="50"/>
+        <v>-2212925</v>
       </c>
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
     </row>
-    <row r="90" spans="1:26" s="3" customFormat="1">
-      <c r="A90" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="C90" s="11" t="s">
+    <row r="90" spans="1:26">
+      <c r="A90" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="9">
+        <v>845736</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D90" s="11">
-        <f t="shared" si="1"/>
+      <c r="D90" s="9">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E90" s="11">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" ref="F90" si="45">B90+D90*E90</f>
-        <v>4175107</v>
-      </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11">
-        <v>4175063</v>
-      </c>
-      <c r="I90" s="11">
-        <f>H90+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L90" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="M90" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N90" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="O90" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="P90" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q90" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="R90" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="S90" s="11">
-        <v>4175143</v>
-      </c>
-      <c r="T90" s="11">
-        <f>4175175</f>
-        <v>4175175</v>
-      </c>
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
+        <f t="shared" si="4"/>
+        <v>845736</v>
+      </c>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9">
+        <f t="shared" si="25"/>
+        <v>845692</v>
+      </c>
+      <c r="I90" s="9">
+        <f t="shared" si="29"/>
+        <v>845851</v>
+      </c>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
       <c r="U90" s="11">
-        <f>S90-H90</f>
-        <v>80</v>
+        <f t="shared" si="49"/>
+        <v>-845692</v>
       </c>
       <c r="V90" s="11">
-        <f>T90-H90</f>
-        <v>112</v>
-      </c>
-      <c r="W90" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="X90" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y90" s="11"/>
-      <c r="Z90" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" s="3" customFormat="1">
-      <c r="A91" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="11">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="E91" s="11">
-        <v>0</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="2"/>
-        <v>4175107</v>
-      </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11">
-        <v>4175063</v>
-      </c>
-      <c r="I91" s="11">
-        <f>H91+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L91" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="M91" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N91" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="O91" s="11">
-        <f>P91-20</f>
-        <v>4175087</v>
-      </c>
-      <c r="P91" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="Q91" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="R91" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="S91" s="11">
-        <v>4175105</v>
-      </c>
-      <c r="T91" s="11">
-        <f>S91+84</f>
-        <v>4175189</v>
-      </c>
+        <f t="shared" si="50"/>
+        <v>-845692</v>
+      </c>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="9">
+        <v>3438001</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="9">
+        <v>0</v>
+      </c>
+      <c r="F91" s="9">
+        <f t="shared" si="4"/>
+        <v>3438001</v>
+      </c>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9">
+        <f t="shared" si="25"/>
+        <v>3437957</v>
+      </c>
+      <c r="I91" s="9">
+        <f t="shared" si="29"/>
+        <v>3438116</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
       <c r="U91" s="11">
-        <f>S91-H91</f>
-        <v>42</v>
+        <f t="shared" si="49"/>
+        <v>-3437957</v>
       </c>
       <c r="V91" s="11">
-        <f>T91-H91</f>
-        <v>126</v>
-      </c>
-      <c r="W91" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="X91" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y91" s="11"/>
-      <c r="Z91" s="11">
-        <v>0</v>
-      </c>
+        <f t="shared" si="50"/>
+        <v>-3437957</v>
+      </c>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="26" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B92" s="9">
-        <v>4621716</v>
+        <v>4118427</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D92" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E92" s="9">
         <v>0</v>
       </c>
       <c r="F92" s="9">
-        <f t="shared" si="2"/>
-        <v>4621716</v>
+        <f t="shared" si="4"/>
+        <v>4118427</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9">
-        <f>F92</f>
-        <v>4621716</v>
+        <f t="shared" si="25"/>
+        <v>4118383</v>
       </c>
       <c r="I92" s="9">
-        <f>H92+D92*160</f>
-        <v>4621876</v>
+        <f t="shared" si="29"/>
+        <v>4118542</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -10328,12 +10589,12 @@
       <c r="S92" s="9"/>
       <c r="T92" s="9"/>
       <c r="U92" s="11">
-        <f>S92-H92</f>
-        <v>-4621716</v>
+        <f t="shared" si="49"/>
+        <v>-4118383</v>
       </c>
       <c r="V92" s="11">
-        <f>T92-H92</f>
-        <v>-4621716</v>
+        <f t="shared" si="50"/>
+        <v>-4118383</v>
       </c>
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
@@ -10342,33 +10603,33 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="26" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B93" s="9">
-        <v>4370616</v>
+        <v>3808516</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D93" s="9">
-        <f t="shared" ref="D93:D144" si="46">IF(C93="fwd",1,-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E93" s="9">
         <v>0</v>
       </c>
       <c r="F93" s="9">
-        <f t="shared" ref="F93:F144" si="47">B93+D93*E93</f>
-        <v>4370616</v>
+        <f t="shared" si="4"/>
+        <v>3808516</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9">
-        <f t="shared" ref="H93:H144" si="48">F93</f>
-        <v>4370616</v>
+        <f t="shared" si="25"/>
+        <v>3808472</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" ref="I93:I144" si="49">H93+D93*160</f>
-        <v>4370776</v>
+        <f t="shared" si="29"/>
+        <v>3808631</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -10382,155 +10643,212 @@
       <c r="S93" s="9"/>
       <c r="T93" s="9"/>
       <c r="U93" s="11">
-        <f>S93-H93</f>
-        <v>-4370616</v>
+        <f t="shared" si="49"/>
+        <v>-3808472</v>
       </c>
       <c r="V93" s="11">
-        <f>T93-H93</f>
-        <v>-4370616</v>
+        <f t="shared" si="50"/>
+        <v>-3808472</v>
       </c>
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
     </row>
-    <row r="94" spans="1:26">
-      <c r="A94" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B94" s="9">
-        <v>4472553</v>
-      </c>
-      <c r="C94" s="9" t="s">
+    <row r="94" spans="1:26" s="3" customFormat="1">
+      <c r="A94" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D94" s="9">
-        <f t="shared" si="46"/>
+      <c r="D94" s="11">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94" s="9">
-        <f t="shared" si="47"/>
-        <v>4472553</v>
-      </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9">
-        <f t="shared" si="48"/>
-        <v>4472553</v>
-      </c>
-      <c r="I94" s="9">
+      <c r="E94" s="11">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <f t="shared" ref="F94" si="75">B94+D94*E94</f>
+        <v>4175107</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11">
+        <v>4175063</v>
+      </c>
+      <c r="I94" s="11">
+        <f>H94+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L94" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O94" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q94" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="R94" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S94" s="11">
+        <v>4175143</v>
+      </c>
+      <c r="T94" s="11">
+        <f>4175175</f>
+        <v>4175175</v>
+      </c>
+      <c r="U94" s="11">
         <f t="shared" si="49"/>
-        <v>4472393</v>
-      </c>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="9"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
-      <c r="U94" s="11">
-        <f>S94-H94</f>
-        <v>-4472553</v>
+        <v>80</v>
       </c>
       <c r="V94" s="11">
-        <f>T94-H94</f>
-        <v>-4472553</v>
-      </c>
-      <c r="W94" s="9"/>
-      <c r="X94" s="9"/>
-      <c r="Y94" s="9"/>
-      <c r="Z94" s="9"/>
-    </row>
-    <row r="95" spans="1:26">
-      <c r="A95" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" s="9">
-        <v>4178354</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="E95" s="9">
-        <v>0</v>
-      </c>
-      <c r="F95" s="9">
-        <f t="shared" si="47"/>
-        <v>4178354</v>
-      </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9">
-        <f t="shared" si="48"/>
-        <v>4178354</v>
-      </c>
-      <c r="I95" s="9">
-        <f t="shared" si="49"/>
-        <v>4178514</v>
-      </c>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
+        <f t="shared" si="50"/>
+        <v>112</v>
+      </c>
+      <c r="W94" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="X94" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" s="3" customFormat="1">
+      <c r="A95" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" s="11">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <f t="shared" si="4"/>
+        <v>4175107</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11">
+        <v>4175063</v>
+      </c>
+      <c r="I95" s="11">
+        <f>H95+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L95" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O95" s="11">
+        <f>P95-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="P95" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="Q95" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R95" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="S95" s="11">
+        <v>4175105</v>
+      </c>
+      <c r="T95" s="11">
+        <f>S95+84</f>
+        <v>4175189</v>
+      </c>
       <c r="U95" s="11">
-        <f>S95-H95</f>
-        <v>-4178354</v>
+        <f t="shared" ref="U95:U112" si="76">S95-H95</f>
+        <v>42</v>
       </c>
       <c r="V95" s="11">
-        <f>T95-H95</f>
-        <v>-4178354</v>
-      </c>
-      <c r="W95" s="9"/>
-      <c r="X95" s="9"/>
-      <c r="Y95" s="9"/>
-      <c r="Z95" s="9"/>
+        <f t="shared" ref="V95:V112" si="77">T95-H95</f>
+        <v>126</v>
+      </c>
+      <c r="W95" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="X95" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="26" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B96" s="9">
-        <v>2042294</v>
+        <v>4621716</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D96" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E96" s="9">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F96" s="9">
-        <f t="shared" si="47"/>
-        <v>2042280</v>
+        <f t="shared" si="4"/>
+        <v>4621716</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9">
-        <f t="shared" si="48"/>
-        <v>2042280</v>
+        <f>F96</f>
+        <v>4621716</v>
       </c>
       <c r="I96" s="9">
-        <f t="shared" si="49"/>
-        <v>2042440</v>
+        <f>H96+D96*160</f>
+        <v>4621876</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -10544,12 +10862,12 @@
       <c r="S96" s="9"/>
       <c r="T96" s="9"/>
       <c r="U96" s="11">
-        <f>S96-H96</f>
-        <v>-2042280</v>
+        <f t="shared" si="76"/>
+        <v>-4621716</v>
       </c>
       <c r="V96" s="11">
-        <f>T96-H96</f>
-        <v>-2042280</v>
+        <f t="shared" si="77"/>
+        <v>-4621716</v>
       </c>
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
@@ -10558,33 +10876,33 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="26" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B97" s="9">
-        <v>3922525</v>
+        <v>4370616</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D97" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" ref="D97:D148" si="78">IF(C97="fwd",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="E97" s="9">
         <v>0</v>
       </c>
       <c r="F97" s="9">
-        <f t="shared" si="47"/>
-        <v>3922525</v>
+        <f t="shared" ref="F97:F148" si="79">B97+D97*E97</f>
+        <v>4370616</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9">
-        <f t="shared" si="48"/>
-        <v>3922525</v>
+        <f t="shared" ref="H97:H148" si="80">F97</f>
+        <v>4370616</v>
       </c>
       <c r="I97" s="9">
-        <f t="shared" si="49"/>
-        <v>3922365</v>
+        <f t="shared" ref="I97:I148" si="81">H97+D97*160</f>
+        <v>4370776</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -10598,12 +10916,12 @@
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
       <c r="U97" s="11">
-        <f>S97-H97</f>
-        <v>-3922525</v>
+        <f t="shared" si="76"/>
+        <v>-4370616</v>
       </c>
       <c r="V97" s="11">
-        <f>T97-H97</f>
-        <v>-3922525</v>
+        <f t="shared" si="77"/>
+        <v>-4370616</v>
       </c>
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
@@ -10612,33 +10930,33 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B98" s="9">
-        <v>1114213</v>
+        <v>4472553</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D98" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="E98" s="9">
         <v>0</v>
       </c>
       <c r="F98" s="9">
-        <f t="shared" si="47"/>
-        <v>1114213</v>
+        <f t="shared" si="79"/>
+        <v>4472553</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9">
-        <f t="shared" si="48"/>
-        <v>1114213</v>
+        <f t="shared" si="80"/>
+        <v>4472553</v>
       </c>
       <c r="I98" s="9">
-        <f t="shared" si="49"/>
-        <v>1114053</v>
+        <f t="shared" si="81"/>
+        <v>4472393</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -10652,12 +10970,12 @@
       <c r="S98" s="9"/>
       <c r="T98" s="9"/>
       <c r="U98" s="11">
-        <f>S98-H98</f>
-        <v>-1114213</v>
+        <f t="shared" si="76"/>
+        <v>-4472553</v>
       </c>
       <c r="V98" s="11">
-        <f>T98-H98</f>
-        <v>-1114213</v>
+        <f t="shared" si="77"/>
+        <v>-4472553</v>
       </c>
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
@@ -10666,33 +10984,33 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B99" s="9">
-        <v>2644913</v>
+        <v>4178354</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D99" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E99" s="9">
         <v>0</v>
       </c>
       <c r="F99" s="9">
-        <f t="shared" si="47"/>
-        <v>2644913</v>
+        <f t="shared" si="79"/>
+        <v>4178354</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9">
-        <f t="shared" si="48"/>
-        <v>2644913</v>
+        <f t="shared" si="80"/>
+        <v>4178354</v>
       </c>
       <c r="I99" s="9">
-        <f t="shared" si="49"/>
-        <v>2644753</v>
+        <f t="shared" si="81"/>
+        <v>4178514</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -10706,12 +11024,12 @@
       <c r="S99" s="9"/>
       <c r="T99" s="9"/>
       <c r="U99" s="11">
-        <f>S99-H99</f>
-        <v>-2644913</v>
+        <f t="shared" si="76"/>
+        <v>-4178354</v>
       </c>
       <c r="V99" s="11">
-        <f>T99-H99</f>
-        <v>-2644913</v>
+        <f t="shared" si="77"/>
+        <v>-4178354</v>
       </c>
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
@@ -10720,33 +11038,33 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="26" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B100" s="9">
-        <v>148</v>
+        <v>2042294</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D100" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="E100" s="9">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F100" s="9">
-        <f t="shared" si="47"/>
-        <v>148</v>
+        <f t="shared" si="79"/>
+        <v>2042280</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9">
-        <f t="shared" si="48"/>
-        <v>148</v>
+        <f t="shared" si="80"/>
+        <v>2042280</v>
       </c>
       <c r="I100" s="9">
-        <f t="shared" si="49"/>
-        <v>308</v>
+        <f t="shared" si="81"/>
+        <v>2042440</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -10760,12 +11078,12 @@
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="11">
-        <f>S100-H100</f>
-        <v>-148</v>
+        <f t="shared" si="76"/>
+        <v>-2042280</v>
       </c>
       <c r="V100" s="11">
-        <f>T100-H100</f>
-        <v>-148</v>
+        <f t="shared" si="77"/>
+        <v>-2042280</v>
       </c>
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
@@ -10774,33 +11092,33 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="26" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="B101" s="9">
-        <v>454993</v>
+        <v>3922525</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D101" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E101" s="9">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F101" s="9">
-        <f t="shared" si="47"/>
-        <v>454864</v>
+        <f t="shared" si="79"/>
+        <v>3922525</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9">
-        <f t="shared" si="48"/>
-        <v>454864</v>
+        <f t="shared" si="80"/>
+        <v>3922525</v>
       </c>
       <c r="I101" s="9">
-        <f t="shared" si="49"/>
-        <v>455024</v>
+        <f t="shared" si="81"/>
+        <v>3922365</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -10814,12 +11132,12 @@
       <c r="S101" s="9"/>
       <c r="T101" s="9"/>
       <c r="U101" s="11">
-        <f>S101-H101</f>
-        <v>-454864</v>
+        <f t="shared" si="76"/>
+        <v>-3922525</v>
       </c>
       <c r="V101" s="11">
-        <f>T101-H101</f>
-        <v>-454864</v>
+        <f t="shared" si="77"/>
+        <v>-3922525</v>
       </c>
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
@@ -10828,33 +11146,33 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B102" s="9">
-        <v>189712</v>
+        <v>1114213</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D102" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E102" s="9">
         <v>0</v>
       </c>
       <c r="F102" s="9">
-        <f t="shared" si="47"/>
-        <v>189712</v>
+        <f t="shared" si="79"/>
+        <v>1114213</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9">
-        <f t="shared" si="48"/>
-        <v>189712</v>
+        <f t="shared" si="80"/>
+        <v>1114213</v>
       </c>
       <c r="I102" s="9">
-        <f t="shared" si="49"/>
-        <v>189872</v>
+        <f t="shared" si="81"/>
+        <v>1114053</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -10868,12 +11186,12 @@
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
       <c r="U102" s="11">
-        <f>S102-H102</f>
-        <v>-189712</v>
+        <f t="shared" si="76"/>
+        <v>-1114213</v>
       </c>
       <c r="V102" s="11">
-        <f>T102-H102</f>
-        <v>-189712</v>
+        <f t="shared" si="77"/>
+        <v>-1114213</v>
       </c>
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
@@ -10882,33 +11200,33 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="26" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B103" s="9">
-        <v>3948058</v>
+        <v>2644913</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D103" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E103" s="9">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F103" s="9">
-        <f t="shared" si="47"/>
-        <v>3948030</v>
+        <f t="shared" si="79"/>
+        <v>2644913</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9">
-        <f t="shared" si="48"/>
-        <v>3948030</v>
+        <f t="shared" si="80"/>
+        <v>2644913</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" si="49"/>
-        <v>3948190</v>
+        <f t="shared" si="81"/>
+        <v>2644753</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -10922,12 +11240,12 @@
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
       <c r="U103" s="11">
-        <f>S103-H103</f>
-        <v>-3948030</v>
+        <f t="shared" si="76"/>
+        <v>-2644913</v>
       </c>
       <c r="V103" s="11">
-        <f>T103-H103</f>
-        <v>-3948030</v>
+        <f t="shared" si="77"/>
+        <v>-2644913</v>
       </c>
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
@@ -10936,33 +11254,33 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="26" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B104" s="9">
-        <v>911076</v>
+        <v>148</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D104" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E104" s="9">
         <v>0</v>
       </c>
       <c r="F104" s="9">
-        <f t="shared" si="47"/>
-        <v>911076</v>
+        <f t="shared" si="79"/>
+        <v>148</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9">
-        <f t="shared" si="48"/>
-        <v>911076</v>
+        <f t="shared" si="80"/>
+        <v>148</v>
       </c>
       <c r="I104" s="9">
-        <f t="shared" si="49"/>
-        <v>910916</v>
+        <f t="shared" si="81"/>
+        <v>308</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -10976,12 +11294,12 @@
       <c r="S104" s="9"/>
       <c r="T104" s="9"/>
       <c r="U104" s="11">
-        <f>S104-H104</f>
-        <v>-911076</v>
+        <f t="shared" si="76"/>
+        <v>-148</v>
       </c>
       <c r="V104" s="11">
-        <f>T104-H104</f>
-        <v>-911076</v>
+        <f t="shared" si="77"/>
+        <v>-148</v>
       </c>
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
@@ -10990,33 +11308,33 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="26" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B105" s="9">
-        <v>1655186</v>
+        <v>454993</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D105" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E105" s="9">
-        <v>-45</v>
+        <v>-129</v>
       </c>
       <c r="F105" s="9">
-        <f t="shared" si="47"/>
-        <v>1655231</v>
+        <f t="shared" si="79"/>
+        <v>454864</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9">
-        <f t="shared" si="48"/>
-        <v>1655231</v>
+        <f t="shared" si="80"/>
+        <v>454864</v>
       </c>
       <c r="I105" s="9">
-        <f t="shared" si="49"/>
-        <v>1655071</v>
+        <f t="shared" si="81"/>
+        <v>455024</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
@@ -11030,12 +11348,12 @@
       <c r="S105" s="9"/>
       <c r="T105" s="9"/>
       <c r="U105" s="11">
-        <f>S105-H105</f>
-        <v>-1655231</v>
+        <f t="shared" si="76"/>
+        <v>-454864</v>
       </c>
       <c r="V105" s="11">
-        <f>T105-H105</f>
-        <v>-1655231</v>
+        <f t="shared" si="77"/>
+        <v>-454864</v>
       </c>
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
@@ -11044,33 +11362,33 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="26" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B106" s="9">
-        <v>4390638</v>
+        <v>189712</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D106" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E106" s="9">
         <v>0</v>
       </c>
       <c r="F106" s="9">
-        <f t="shared" si="47"/>
-        <v>4390638</v>
+        <f t="shared" si="79"/>
+        <v>189712</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9">
-        <f t="shared" si="48"/>
-        <v>4390638</v>
+        <f t="shared" si="80"/>
+        <v>189712</v>
       </c>
       <c r="I106" s="9">
-        <f t="shared" si="49"/>
-        <v>4390478</v>
+        <f t="shared" si="81"/>
+        <v>189872</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -11084,12 +11402,12 @@
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
       <c r="U106" s="11">
-        <f>S106-H106</f>
-        <v>-4390638</v>
+        <f t="shared" si="76"/>
+        <v>-189712</v>
       </c>
       <c r="V106" s="11">
-        <f>T106-H106</f>
-        <v>-4390638</v>
+        <f t="shared" si="77"/>
+        <v>-189712</v>
       </c>
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
@@ -11098,33 +11416,33 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="26" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B107" s="9">
-        <v>4640508</v>
+        <v>3948058</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D107" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E107" s="9">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F107" s="9">
-        <f t="shared" si="47"/>
-        <v>4640508</v>
+        <f t="shared" si="79"/>
+        <v>3948030</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9">
-        <f t="shared" si="48"/>
-        <v>4640508</v>
+        <f t="shared" si="80"/>
+        <v>3948030</v>
       </c>
       <c r="I107" s="9">
-        <f t="shared" si="49"/>
-        <v>4640348</v>
+        <f t="shared" si="81"/>
+        <v>3948190</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
@@ -11138,12 +11456,12 @@
       <c r="S107" s="9"/>
       <c r="T107" s="9"/>
       <c r="U107" s="11">
-        <f>S107-H107</f>
-        <v>-4640508</v>
+        <f t="shared" si="76"/>
+        <v>-3948030</v>
       </c>
       <c r="V107" s="11">
-        <f>T107-H107</f>
-        <v>-4640508</v>
+        <f t="shared" si="77"/>
+        <v>-3948030</v>
       </c>
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
@@ -11152,33 +11470,33 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B108" s="9">
-        <v>1972716</v>
+        <v>911076</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="E108" s="9">
         <v>0</v>
       </c>
       <c r="F108" s="9">
-        <f t="shared" si="47"/>
-        <v>1972716</v>
+        <f t="shared" si="79"/>
+        <v>911076</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9">
-        <f t="shared" si="48"/>
-        <v>1972716</v>
+        <f t="shared" si="80"/>
+        <v>911076</v>
       </c>
       <c r="I108" s="9">
-        <f t="shared" si="49"/>
-        <v>1972556</v>
+        <f t="shared" si="81"/>
+        <v>910916</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -11192,209 +11510,155 @@
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
       <c r="U108" s="11">
-        <f>S108-H108</f>
-        <v>-1972716</v>
+        <f t="shared" si="76"/>
+        <v>-911076</v>
       </c>
       <c r="V108" s="11">
-        <f>T108-H108</f>
-        <v>-1972716</v>
+        <f t="shared" si="77"/>
+        <v>-911076</v>
       </c>
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
     </row>
-    <row r="109" spans="1:26" s="3" customFormat="1" ht="17">
-      <c r="A109" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="11">
-        <v>652172</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" s="11">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="E109" s="11">
-        <v>0</v>
-      </c>
-      <c r="F109" s="11">
-        <f t="shared" ref="F109" si="50">B109+D109*E109</f>
-        <v>652172</v>
-      </c>
-      <c r="G109" s="11"/>
-      <c r="H109" s="27">
-        <v>652058</v>
-      </c>
-      <c r="I109" s="11">
-        <f>H109+D109*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J109" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K109" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L109" s="11">
-        <v>652172</v>
-      </c>
-      <c r="M109" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N109" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O109" s="11">
-        <v>652193</v>
-      </c>
-      <c r="P109" s="11">
-        <v>652199</v>
-      </c>
-      <c r="Q109" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="R109" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="S109" s="27">
-        <f>130+H109</f>
-        <v>652188</v>
-      </c>
-      <c r="T109" s="27">
-        <f>S109+30</f>
-        <v>652218</v>
-      </c>
+    <row r="109" spans="1:26">
+      <c r="A109" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="9">
+        <v>1655186</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="9">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="E109" s="9">
+        <v>-45</v>
+      </c>
+      <c r="F109" s="9">
+        <f t="shared" si="79"/>
+        <v>1655231</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9">
+        <f t="shared" si="80"/>
+        <v>1655231</v>
+      </c>
+      <c r="I109" s="9">
+        <f t="shared" si="81"/>
+        <v>1655071</v>
+      </c>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
       <c r="U109" s="11">
-        <v>130</v>
+        <f t="shared" si="76"/>
+        <v>-1655231</v>
       </c>
       <c r="V109" s="11">
-        <v>160</v>
-      </c>
-      <c r="W109" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X109" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y109" s="11"/>
-      <c r="Z109" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26" s="3" customFormat="1" ht="17">
-      <c r="A110" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B110" s="11">
-        <v>652172</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" s="11">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="E110" s="11">
-        <v>0</v>
-      </c>
-      <c r="F110" s="11">
-        <f t="shared" si="47"/>
-        <v>652172</v>
-      </c>
-      <c r="G110" s="11"/>
-      <c r="H110" s="27">
-        <v>652058</v>
-      </c>
-      <c r="I110" s="11">
-        <f>H110+D110*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J110" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K110" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L110" s="11">
-        <v>652172</v>
-      </c>
-      <c r="M110" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N110" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O110" s="11">
-        <v>652118</v>
-      </c>
-      <c r="P110" s="11">
-        <v>652140</v>
-      </c>
-      <c r="Q110" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="R110" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="S110" s="27">
-        <f>60+H110</f>
-        <v>652118</v>
-      </c>
-      <c r="T110" s="27">
-        <f>S110+25</f>
-        <v>652143</v>
-      </c>
+        <f t="shared" si="77"/>
+        <v>-1655231</v>
+      </c>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="9">
+        <v>4390638</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="9">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="E110" s="9">
+        <v>0</v>
+      </c>
+      <c r="F110" s="9">
+        <f t="shared" si="79"/>
+        <v>4390638</v>
+      </c>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9">
+        <f t="shared" si="80"/>
+        <v>4390638</v>
+      </c>
+      <c r="I110" s="9">
+        <f t="shared" si="81"/>
+        <v>4390478</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
       <c r="U110" s="11">
-        <v>60</v>
+        <f t="shared" si="76"/>
+        <v>-4390638</v>
       </c>
       <c r="V110" s="11">
-        <v>85</v>
-      </c>
-      <c r="W110" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="X110" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y110" s="11"/>
-      <c r="Z110" s="11">
-        <v>0</v>
-      </c>
+        <f t="shared" si="77"/>
+        <v>-4390638</v>
+      </c>
+      <c r="W110" s="9"/>
+      <c r="X110" s="9"/>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="9"/>
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="26" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B111" s="9">
-        <v>70075</v>
+        <v>4640508</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D111" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="E111" s="9">
         <v>0</v>
       </c>
       <c r="F111" s="9">
-        <f t="shared" si="47"/>
-        <v>70075</v>
+        <f t="shared" si="79"/>
+        <v>4640508</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9">
-        <f t="shared" si="48"/>
-        <v>70075</v>
+        <f t="shared" si="80"/>
+        <v>4640508</v>
       </c>
       <c r="I111" s="9">
-        <f t="shared" si="49"/>
-        <v>69915</v>
+        <f t="shared" si="81"/>
+        <v>4640348</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
@@ -11407,8 +11671,14 @@
       <c r="R111" s="9"/>
       <c r="S111" s="9"/>
       <c r="T111" s="9"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="9"/>
+      <c r="U111" s="11">
+        <f t="shared" si="76"/>
+        <v>-4640508</v>
+      </c>
+      <c r="V111" s="11">
+        <f t="shared" si="77"/>
+        <v>-4640508</v>
+      </c>
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
@@ -11416,33 +11686,33 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="26" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B112" s="9">
-        <v>70241</v>
+        <v>1972716</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D112" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E112" s="9">
         <v>0</v>
       </c>
       <c r="F112" s="9">
-        <f t="shared" si="47"/>
-        <v>70241</v>
+        <f t="shared" si="79"/>
+        <v>1972716</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9">
-        <f t="shared" si="48"/>
-        <v>70241</v>
+        <f t="shared" si="80"/>
+        <v>1972716</v>
       </c>
       <c r="I112" s="9">
-        <f t="shared" si="49"/>
-        <v>70401</v>
+        <f t="shared" si="81"/>
+        <v>1972556</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -11455,138 +11725,210 @@
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
       <c r="T112" s="9"/>
-      <c r="U112" s="9"/>
-      <c r="V112" s="9"/>
+      <c r="U112" s="11">
+        <f t="shared" si="76"/>
+        <v>-1972716</v>
+      </c>
+      <c r="V112" s="11">
+        <f t="shared" si="77"/>
+        <v>-1972716</v>
+      </c>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
     </row>
-    <row r="113" spans="1:26">
-      <c r="A113" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B113" s="9">
-        <v>3731069</v>
-      </c>
-      <c r="C113" s="9" t="s">
+    <row r="113" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A113" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="11">
+        <v>652172</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D113" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="E113" s="9">
-        <v>0</v>
-      </c>
-      <c r="F113" s="9">
-        <f t="shared" si="47"/>
-        <v>3731069</v>
-      </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9">
-        <f t="shared" si="48"/>
-        <v>3731069</v>
-      </c>
-      <c r="I113" s="9">
-        <f t="shared" si="49"/>
-        <v>3731229</v>
-      </c>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="9"/>
-      <c r="P113" s="9"/>
-      <c r="Q113" s="9"/>
-      <c r="R113" s="9"/>
-      <c r="S113" s="9"/>
-      <c r="T113" s="9"/>
-      <c r="U113" s="9"/>
-      <c r="V113" s="9"/>
-      <c r="W113" s="9"/>
-      <c r="X113" s="9"/>
-      <c r="Y113" s="9"/>
-      <c r="Z113" s="9"/>
-    </row>
-    <row r="114" spans="1:26">
-      <c r="A114" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B114" s="9">
-        <v>3730807</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D114" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
-      </c>
-      <c r="E114" s="9">
-        <v>0</v>
-      </c>
-      <c r="F114" s="9">
-        <f t="shared" si="47"/>
-        <v>3730807</v>
-      </c>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9">
-        <f t="shared" si="48"/>
-        <v>3730807</v>
-      </c>
-      <c r="I114" s="9">
-        <f t="shared" si="49"/>
-        <v>3730647</v>
-      </c>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="9"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
-      <c r="X114" s="9"/>
-      <c r="Y114" s="9"/>
-      <c r="Z114" s="9"/>
+      <c r="D113" s="11">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="11">
+        <v>0</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" ref="F113" si="82">B113+D113*E113</f>
+        <v>652172</v>
+      </c>
+      <c r="G113" s="11"/>
+      <c r="H113" s="27">
+        <v>652058</v>
+      </c>
+      <c r="I113" s="11">
+        <f>H113+D113*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L113" s="11">
+        <v>652172</v>
+      </c>
+      <c r="M113" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O113" s="11">
+        <v>652193</v>
+      </c>
+      <c r="P113" s="11">
+        <v>652199</v>
+      </c>
+      <c r="Q113" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="R113" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="S113" s="27">
+        <f>130+H113</f>
+        <v>652188</v>
+      </c>
+      <c r="T113" s="27">
+        <f>S113+30</f>
+        <v>652218</v>
+      </c>
+      <c r="U113" s="11">
+        <v>130</v>
+      </c>
+      <c r="V113" s="11">
+        <v>160</v>
+      </c>
+      <c r="W113" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="X113" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y113" s="11"/>
+      <c r="Z113" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A114" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" s="11">
+        <v>652172</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="11">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="11">
+        <v>0</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="79"/>
+        <v>652172</v>
+      </c>
+      <c r="G114" s="11"/>
+      <c r="H114" s="27">
+        <v>652058</v>
+      </c>
+      <c r="I114" s="11">
+        <f>H114+D114*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K114" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L114" s="11">
+        <v>652172</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O114" s="11">
+        <v>652118</v>
+      </c>
+      <c r="P114" s="11">
+        <v>652140</v>
+      </c>
+      <c r="Q114" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="R114" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="S114" s="27">
+        <f>60+H114</f>
+        <v>652118</v>
+      </c>
+      <c r="T114" s="27">
+        <f>S114+25</f>
+        <v>652143</v>
+      </c>
+      <c r="U114" s="11">
+        <v>60</v>
+      </c>
+      <c r="V114" s="11">
+        <v>85</v>
+      </c>
+      <c r="W114" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="X114" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y114" s="11"/>
+      <c r="Z114" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:26">
       <c r="A115" s="26" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B115" s="9">
-        <v>1647934</v>
+        <v>70075</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D115" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E115" s="9">
         <v>0</v>
       </c>
       <c r="F115" s="9">
-        <f t="shared" si="47"/>
-        <v>1647934</v>
+        <f t="shared" si="79"/>
+        <v>70075</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9">
-        <f t="shared" si="48"/>
-        <v>1647934</v>
+        <f t="shared" si="80"/>
+        <v>70075</v>
       </c>
       <c r="I115" s="9">
-        <f t="shared" si="49"/>
-        <v>1648094</v>
+        <f t="shared" si="81"/>
+        <v>69915</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -11608,33 +11950,33 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B116" s="9">
-        <v>1647876</v>
+        <v>70241</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D116" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E116" s="9">
         <v>0</v>
       </c>
       <c r="F116" s="9">
-        <f t="shared" si="47"/>
-        <v>1647876</v>
+        <f t="shared" si="79"/>
+        <v>70241</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9">
-        <f t="shared" si="48"/>
-        <v>1647876</v>
+        <f t="shared" si="80"/>
+        <v>70241</v>
       </c>
       <c r="I116" s="9">
-        <f t="shared" si="49"/>
-        <v>1647716</v>
+        <f t="shared" si="81"/>
+        <v>70401</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -11656,33 +11998,33 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="26" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B117" s="9">
-        <v>1649597</v>
+        <v>3731069</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D117" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="E117" s="9">
         <v>0</v>
       </c>
       <c r="F117" s="9">
-        <f t="shared" si="47"/>
-        <v>1649597</v>
+        <f t="shared" si="79"/>
+        <v>3731069</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9">
-        <f t="shared" si="48"/>
-        <v>1649597</v>
+        <f t="shared" si="80"/>
+        <v>3731069</v>
       </c>
       <c r="I117" s="9">
-        <f t="shared" si="49"/>
-        <v>1649757</v>
+        <f t="shared" si="81"/>
+        <v>3731229</v>
       </c>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
@@ -11704,33 +12046,33 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B118" s="9">
-        <v>3536707</v>
+        <v>3730807</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D118" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="E118" s="9">
         <v>0</v>
       </c>
       <c r="F118" s="9">
-        <f t="shared" si="47"/>
-        <v>3536707</v>
+        <f t="shared" si="79"/>
+        <v>3730807</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9">
-        <f t="shared" si="48"/>
-        <v>3536707</v>
+        <f t="shared" si="80"/>
+        <v>3730807</v>
       </c>
       <c r="I118" s="9">
-        <f t="shared" si="49"/>
-        <v>3536547</v>
+        <f t="shared" si="81"/>
+        <v>3730647</v>
       </c>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -11752,33 +12094,33 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="26" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B119" s="9">
-        <v>2524910</v>
+        <v>1647934</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D119" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E119" s="9">
         <v>0</v>
       </c>
       <c r="F119" s="9">
-        <f t="shared" si="47"/>
-        <v>2524910</v>
+        <f t="shared" si="79"/>
+        <v>1647934</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9">
-        <f t="shared" si="48"/>
-        <v>2524910</v>
+        <f t="shared" si="80"/>
+        <v>1647934</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" si="49"/>
-        <v>2524750</v>
+        <f t="shared" si="81"/>
+        <v>1648094</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
@@ -11800,33 +12142,33 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="26" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B120" s="9">
-        <v>3957912</v>
+        <v>1647876</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D120" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E120" s="9">
         <v>0</v>
       </c>
       <c r="F120" s="9">
-        <f t="shared" si="47"/>
-        <v>3957912</v>
+        <f t="shared" si="79"/>
+        <v>1647876</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9">
-        <f t="shared" si="48"/>
-        <v>3957912</v>
+        <f t="shared" si="80"/>
+        <v>1647876</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="49"/>
-        <v>3958072</v>
+        <f t="shared" si="81"/>
+        <v>1647716</v>
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -11848,33 +12190,33 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="26" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B121" s="9">
-        <v>3927129</v>
+        <v>1649597</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D121" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="E121" s="9">
         <v>0</v>
       </c>
       <c r="F121" s="9">
-        <f t="shared" si="47"/>
-        <v>3927129</v>
+        <f t="shared" si="79"/>
+        <v>1649597</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9">
-        <f t="shared" si="48"/>
-        <v>3927129</v>
+        <f t="shared" si="80"/>
+        <v>1649597</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="49"/>
-        <v>3927289</v>
+        <f t="shared" si="81"/>
+        <v>1649757</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
@@ -11896,33 +12238,33 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="26" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B122" s="9">
-        <v>4494597</v>
+        <v>3536707</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D122" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E122" s="9">
         <v>0</v>
       </c>
       <c r="F122" s="9">
-        <f t="shared" si="47"/>
-        <v>4494597</v>
+        <f t="shared" si="79"/>
+        <v>3536707</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9">
-        <f t="shared" si="48"/>
-        <v>4494597</v>
+        <f t="shared" si="80"/>
+        <v>3536707</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" si="49"/>
-        <v>4494757</v>
+        <f t="shared" si="81"/>
+        <v>3536547</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -11944,33 +12286,33 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="26" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B123" s="9">
-        <v>246533</v>
+        <v>2524910</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D123" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="E123" s="9">
         <v>0</v>
       </c>
       <c r="F123" s="9">
-        <f t="shared" si="47"/>
-        <v>246533</v>
+        <f t="shared" si="79"/>
+        <v>2524910</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9">
-        <f t="shared" si="48"/>
-        <v>246533</v>
+        <f t="shared" si="80"/>
+        <v>2524910</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="49"/>
-        <v>246373</v>
+        <f t="shared" si="81"/>
+        <v>2524750</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
@@ -11992,33 +12334,33 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="26" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B124" s="9">
-        <v>4591367</v>
+        <v>3957912</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D124" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E124" s="9">
         <v>0</v>
       </c>
       <c r="F124" s="9">
-        <f t="shared" si="47"/>
-        <v>4591367</v>
+        <f t="shared" si="79"/>
+        <v>3957912</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9">
-        <f t="shared" si="48"/>
-        <v>4591367</v>
+        <f t="shared" si="80"/>
+        <v>3957912</v>
       </c>
       <c r="I124" s="9">
-        <f t="shared" si="49"/>
-        <v>4591207</v>
+        <f t="shared" si="81"/>
+        <v>3958072</v>
       </c>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -12040,33 +12382,33 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="26" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B125" s="9">
-        <v>1977302</v>
+        <v>3927129</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D125" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E125" s="9">
         <v>0</v>
       </c>
       <c r="F125" s="9">
-        <f t="shared" si="47"/>
-        <v>1977302</v>
+        <f t="shared" si="79"/>
+        <v>3927129</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9">
-        <f t="shared" si="48"/>
-        <v>1977302</v>
+        <f t="shared" si="80"/>
+        <v>3927129</v>
       </c>
       <c r="I125" s="9">
-        <f t="shared" si="49"/>
-        <v>1977142</v>
+        <f t="shared" si="81"/>
+        <v>3927289</v>
       </c>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
@@ -12088,33 +12430,33 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="26" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B126" s="9">
-        <v>933138</v>
+        <v>4494597</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D126" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="E126" s="9">
         <v>0</v>
       </c>
       <c r="F126" s="9">
-        <f t="shared" si="47"/>
-        <v>933138</v>
+        <f t="shared" si="79"/>
+        <v>4494597</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9">
-        <f t="shared" si="48"/>
-        <v>933138</v>
+        <f t="shared" si="80"/>
+        <v>4494597</v>
       </c>
       <c r="I126" s="9">
-        <f t="shared" si="49"/>
-        <v>933298</v>
+        <f t="shared" si="81"/>
+        <v>4494757</v>
       </c>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -12136,33 +12478,33 @@
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="26" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B127" s="9">
-        <v>87969</v>
+        <v>246533</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D127" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E127" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F127" s="9">
-        <f t="shared" si="47"/>
-        <v>87991</v>
+        <f t="shared" si="79"/>
+        <v>246533</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9">
-        <f t="shared" si="48"/>
-        <v>87991</v>
+        <f t="shared" si="80"/>
+        <v>246533</v>
       </c>
       <c r="I127" s="9">
-        <f t="shared" si="49"/>
-        <v>88151</v>
+        <f t="shared" si="81"/>
+        <v>246373</v>
       </c>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
@@ -12184,33 +12526,33 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="26" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B128" s="9">
-        <v>3997907</v>
+        <v>4591367</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D128" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E128" s="9">
         <v>0</v>
       </c>
       <c r="F128" s="9">
-        <f t="shared" si="47"/>
-        <v>3997907</v>
+        <f t="shared" si="79"/>
+        <v>4591367</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9">
-        <f t="shared" si="48"/>
-        <v>3997907</v>
+        <f t="shared" si="80"/>
+        <v>4591367</v>
       </c>
       <c r="I128" s="9">
-        <f t="shared" si="49"/>
-        <v>3998067</v>
+        <f t="shared" si="81"/>
+        <v>4591207</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -12232,33 +12574,33 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B129" s="9">
-        <v>4338042</v>
+        <v>1977302</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D129" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="E129" s="9">
         <v>0</v>
       </c>
       <c r="F129" s="9">
-        <f t="shared" si="47"/>
-        <v>4338042</v>
+        <f t="shared" si="79"/>
+        <v>1977302</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9">
-        <f t="shared" si="48"/>
-        <v>4338042</v>
+        <f t="shared" si="80"/>
+        <v>1977302</v>
       </c>
       <c r="I129" s="9">
-        <f t="shared" si="49"/>
-        <v>4337882</v>
+        <f t="shared" si="81"/>
+        <v>1977142</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
@@ -12280,33 +12622,33 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B130" s="9">
-        <v>1942634</v>
+        <v>933138</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D130" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="E130" s="9">
         <v>0</v>
       </c>
       <c r="F130" s="9">
-        <f t="shared" si="47"/>
-        <v>1942634</v>
+        <f t="shared" si="79"/>
+        <v>933138</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9">
-        <f t="shared" si="48"/>
-        <v>1942634</v>
+        <f t="shared" si="80"/>
+        <v>933138</v>
       </c>
       <c r="I130" s="9">
-        <f t="shared" si="49"/>
-        <v>1942794</v>
+        <f t="shared" si="81"/>
+        <v>933298</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -12328,33 +12670,33 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="26" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B131" s="9">
-        <v>1942661</v>
+        <v>87969</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E131" s="9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F131" s="9">
-        <f t="shared" si="47"/>
-        <v>1942661</v>
+        <f t="shared" si="79"/>
+        <v>87991</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9">
-        <f t="shared" si="48"/>
-        <v>1942661</v>
+        <f t="shared" si="80"/>
+        <v>87991</v>
       </c>
       <c r="I131" s="9">
-        <f t="shared" si="49"/>
-        <v>1942501</v>
+        <f t="shared" si="81"/>
+        <v>88151</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
@@ -12376,33 +12718,33 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="26" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B132" s="9">
-        <v>3182433</v>
+        <v>3997907</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D132" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="E132" s="9">
         <v>0</v>
       </c>
       <c r="F132" s="9">
-        <f t="shared" si="47"/>
-        <v>3182433</v>
+        <f t="shared" si="79"/>
+        <v>3997907</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9">
-        <f t="shared" si="48"/>
-        <v>3182433</v>
+        <f t="shared" si="80"/>
+        <v>3997907</v>
       </c>
       <c r="I132" s="9">
-        <f t="shared" si="49"/>
-        <v>3182593</v>
+        <f t="shared" si="81"/>
+        <v>3998067</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -12424,33 +12766,33 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="26" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="B133" s="9">
-        <v>3637612</v>
+        <v>4338042</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D133" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E133" s="9">
         <v>0</v>
       </c>
       <c r="F133" s="9">
-        <f t="shared" si="47"/>
-        <v>3637612</v>
+        <f t="shared" si="79"/>
+        <v>4338042</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9">
-        <f t="shared" si="48"/>
-        <v>3637612</v>
+        <f t="shared" si="80"/>
+        <v>4338042</v>
       </c>
       <c r="I133" s="9">
-        <f t="shared" si="49"/>
-        <v>3637772</v>
+        <f t="shared" si="81"/>
+        <v>4337882</v>
       </c>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
@@ -12472,33 +12814,33 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" s="26" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B134" s="9">
-        <v>4376509</v>
+        <v>1942634</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D134" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="E134" s="9">
         <v>0</v>
       </c>
       <c r="F134" s="9">
-        <f t="shared" si="47"/>
-        <v>4376509</v>
+        <f t="shared" si="79"/>
+        <v>1942634</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9">
-        <f t="shared" si="48"/>
-        <v>4376509</v>
+        <f t="shared" si="80"/>
+        <v>1942634</v>
       </c>
       <c r="I134" s="9">
-        <f t="shared" si="49"/>
-        <v>4376669</v>
+        <f t="shared" si="81"/>
+        <v>1942794</v>
       </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -12520,33 +12862,33 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" s="26" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B135" s="9">
-        <v>83735</v>
+        <v>1942661</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D135" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="E135" s="9">
         <v>0</v>
       </c>
       <c r="F135" s="9">
-        <f t="shared" si="47"/>
-        <v>83735</v>
+        <f t="shared" si="79"/>
+        <v>1942661</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9">
-        <f t="shared" si="48"/>
-        <v>83735</v>
+        <f t="shared" si="80"/>
+        <v>1942661</v>
       </c>
       <c r="I135" s="9">
-        <f t="shared" si="49"/>
-        <v>83575</v>
+        <f t="shared" si="81"/>
+        <v>1942501</v>
       </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
@@ -12568,31 +12910,33 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" s="26" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="B136" s="9">
-        <v>1645903</v>
+        <v>3182433</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D136" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
-      </c>
-      <c r="E136" s="9"/>
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="E136" s="9">
+        <v>0</v>
+      </c>
       <c r="F136" s="9">
-        <f t="shared" si="47"/>
-        <v>1645903</v>
+        <f t="shared" si="79"/>
+        <v>3182433</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9">
-        <f t="shared" si="48"/>
-        <v>1645903</v>
+        <f t="shared" si="80"/>
+        <v>3182433</v>
       </c>
       <c r="I136" s="9">
-        <f t="shared" si="49"/>
-        <v>1645743</v>
+        <f t="shared" si="81"/>
+        <v>3182593</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -12614,33 +12958,33 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" s="26" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="B137" s="9">
-        <v>1619093</v>
+        <v>3637612</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D137" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="E137" s="9">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F137" s="9">
-        <f t="shared" si="47"/>
-        <v>1619083</v>
+        <f t="shared" si="79"/>
+        <v>3637612</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9">
-        <f t="shared" si="48"/>
-        <v>1619083</v>
+        <f t="shared" si="80"/>
+        <v>3637612</v>
       </c>
       <c r="I137" s="9">
-        <f t="shared" si="49"/>
-        <v>1619243</v>
+        <f t="shared" si="81"/>
+        <v>3637772</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
@@ -12662,33 +13006,33 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" s="26" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="B138" s="9">
-        <v>4326836</v>
+        <v>4376509</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E138" s="9">
         <v>0</v>
       </c>
       <c r="F138" s="9">
-        <f t="shared" si="47"/>
-        <v>4326836</v>
+        <f t="shared" si="79"/>
+        <v>4376509</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9">
-        <f t="shared" si="48"/>
-        <v>4326836</v>
+        <f t="shared" si="80"/>
+        <v>4376509</v>
       </c>
       <c r="I138" s="9">
-        <f t="shared" si="49"/>
-        <v>4326676</v>
+        <f t="shared" si="81"/>
+        <v>4376669</v>
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -12710,33 +13054,33 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="26" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B139" s="9">
-        <v>2032352</v>
+        <v>83735</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D139" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="E139" s="9">
         <v>0</v>
       </c>
       <c r="F139" s="9">
-        <f t="shared" si="47"/>
-        <v>2032352</v>
+        <f t="shared" si="79"/>
+        <v>83735</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9">
-        <f t="shared" si="48"/>
-        <v>2032352</v>
+        <f t="shared" si="80"/>
+        <v>83735</v>
       </c>
       <c r="I139" s="9">
-        <f t="shared" si="49"/>
-        <v>2032192</v>
+        <f t="shared" si="81"/>
+        <v>83575</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
@@ -12758,33 +13102,31 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B140" s="9">
-        <v>2949066</v>
+        <v>1645903</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D140" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
-      <c r="E140" s="9">
-        <v>0</v>
-      </c>
+      <c r="E140" s="9"/>
       <c r="F140" s="9">
-        <f t="shared" si="47"/>
-        <v>2949066</v>
+        <f t="shared" si="79"/>
+        <v>1645903</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9">
-        <f t="shared" si="48"/>
-        <v>2949066</v>
+        <f t="shared" si="80"/>
+        <v>1645903</v>
       </c>
       <c r="I140" s="9">
-        <f t="shared" si="49"/>
-        <v>2948906</v>
+        <f t="shared" si="81"/>
+        <v>1645743</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -12806,33 +13148,33 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B141" s="9">
-        <v>3811175</v>
+        <v>1619093</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D141" s="9">
-        <f t="shared" si="46"/>
-        <v>-1</v>
+        <f t="shared" si="78"/>
+        <v>1</v>
       </c>
       <c r="E141" s="9">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F141" s="9">
-        <f t="shared" si="47"/>
-        <v>3811175</v>
+        <f t="shared" si="79"/>
+        <v>1619083</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9">
-        <f t="shared" si="48"/>
-        <v>3811175</v>
+        <f t="shared" si="80"/>
+        <v>1619083</v>
       </c>
       <c r="I141" s="9">
-        <f t="shared" si="49"/>
-        <v>3811015</v>
+        <f t="shared" si="81"/>
+        <v>1619243</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
@@ -12854,33 +13196,33 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B142" s="9">
-        <v>919103</v>
+        <v>4326836</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D142" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="E142" s="9">
         <v>0</v>
       </c>
       <c r="F142" s="9">
-        <f t="shared" si="47"/>
-        <v>919103</v>
+        <f t="shared" si="79"/>
+        <v>4326836</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9">
-        <f t="shared" si="48"/>
-        <v>919103</v>
+        <f t="shared" si="80"/>
+        <v>4326836</v>
       </c>
       <c r="I142" s="9">
-        <f t="shared" si="49"/>
-        <v>918943</v>
+        <f t="shared" si="81"/>
+        <v>4326676</v>
       </c>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -12902,33 +13244,33 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B143" s="9">
-        <v>830783</v>
+        <v>2032352</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D143" s="9">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>-1</v>
       </c>
       <c r="E143" s="9">
         <v>0</v>
       </c>
       <c r="F143" s="9">
-        <f t="shared" si="47"/>
-        <v>830783</v>
+        <f t="shared" si="79"/>
+        <v>2032352</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9">
-        <f t="shared" si="48"/>
-        <v>830783</v>
+        <f t="shared" si="80"/>
+        <v>2032352</v>
       </c>
       <c r="I143" s="9">
-        <f t="shared" si="49"/>
-        <v>830943</v>
+        <f t="shared" si="81"/>
+        <v>2032192</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
@@ -12949,28 +13291,34 @@
       <c r="Z143" s="9"/>
     </row>
     <row r="144" spans="1:26">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
+      <c r="A144" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B144" s="9">
+        <v>2949066</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="D144" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="E144" s="9">
         <v>0</v>
       </c>
       <c r="F144" s="9">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="79"/>
+        <v>2949066</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="9">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="80"/>
+        <v>2949066</v>
       </c>
       <c r="I144" s="9">
-        <f t="shared" si="49"/>
-        <v>-160</v>
+        <f t="shared" si="81"/>
+        <v>2948906</v>
       </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -12990,11 +13338,197 @@
       <c r="Y144" s="9"/>
       <c r="Z144" s="9"/>
     </row>
+    <row r="145" spans="1:26">
+      <c r="A145" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B145" s="9">
+        <v>3811175</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D145" s="9">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="E145" s="9">
+        <v>0</v>
+      </c>
+      <c r="F145" s="9">
+        <f t="shared" si="79"/>
+        <v>3811175</v>
+      </c>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9">
+        <f t="shared" si="80"/>
+        <v>3811175</v>
+      </c>
+      <c r="I145" s="9">
+        <f t="shared" si="81"/>
+        <v>3811015</v>
+      </c>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="9"/>
+      <c r="T145" s="9"/>
+      <c r="U145" s="9"/>
+      <c r="V145" s="9"/>
+      <c r="W145" s="9"/>
+      <c r="X145" s="9"/>
+      <c r="Y145" s="9"/>
+      <c r="Z145" s="9"/>
+    </row>
+    <row r="146" spans="1:26">
+      <c r="A146" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" s="9">
+        <v>919103</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D146" s="9">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="E146" s="9">
+        <v>0</v>
+      </c>
+      <c r="F146" s="9">
+        <f t="shared" si="79"/>
+        <v>919103</v>
+      </c>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9">
+        <f t="shared" si="80"/>
+        <v>919103</v>
+      </c>
+      <c r="I146" s="9">
+        <f t="shared" si="81"/>
+        <v>918943</v>
+      </c>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
+      <c r="R146" s="9"/>
+      <c r="S146" s="9"/>
+      <c r="T146" s="9"/>
+      <c r="U146" s="9"/>
+      <c r="V146" s="9"/>
+      <c r="W146" s="9"/>
+      <c r="X146" s="9"/>
+      <c r="Y146" s="9"/>
+      <c r="Z146" s="9"/>
+    </row>
+    <row r="147" spans="1:26">
+      <c r="A147" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="9">
+        <v>830783</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D147" s="9">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="9">
+        <v>0</v>
+      </c>
+      <c r="F147" s="9">
+        <f t="shared" si="79"/>
+        <v>830783</v>
+      </c>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9">
+        <f t="shared" si="80"/>
+        <v>830783</v>
+      </c>
+      <c r="I147" s="9">
+        <f t="shared" si="81"/>
+        <v>830943</v>
+      </c>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="9"/>
+      <c r="R147" s="9"/>
+      <c r="S147" s="9"/>
+      <c r="T147" s="9"/>
+      <c r="U147" s="9"/>
+      <c r="V147" s="9"/>
+      <c r="W147" s="9"/>
+      <c r="X147" s="9"/>
+      <c r="Y147" s="9"/>
+      <c r="Z147" s="9"/>
+    </row>
+    <row r="148" spans="1:26">
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="E148" s="9">
+        <v>0</v>
+      </c>
+      <c r="F148" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="I148" s="9">
+        <f t="shared" si="81"/>
+        <v>-160</v>
+      </c>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9"/>
+      <c r="R148" s="9"/>
+      <c r="S148" s="9"/>
+      <c r="T148" s="9"/>
+      <c r="U148" s="9"/>
+      <c r="V148" s="9"/>
+      <c r="W148" s="9"/>
+      <c r="X148" s="9"/>
+      <c r="Y148" s="9"/>
+      <c r="Z148" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I91 P29 H49" formula="1"/>
+    <ignoredError sqref="I95 P29 H49" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4850C-53B3-F14D-8A15-145CD001E40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057B099D-F3B3-3445-B548-139A74B2512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="389">
   <si>
     <t>Operon</t>
   </si>
@@ -1199,6 +1199,12 @@
   </si>
   <si>
     <t>TCGCCAGTGTGGCGTTCAGTAAGATAAAGCC</t>
+  </si>
+  <si>
+    <t>GCACATGGCGTTTGTTACGATAGTGG</t>
+  </si>
+  <si>
+    <t>GATAGTGGCATATGAA</t>
   </si>
 </sst>
 </file>
@@ -3556,9 +3562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
   <dimension ref="A1:Z148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W71" sqref="W71"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z69" sqref="Z69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9202,24 +9208,43 @@
       <c r="N68" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
+      <c r="O68" s="11">
+        <v>852601</v>
+      </c>
+      <c r="P68" s="11">
+        <v>852626</v>
+      </c>
+      <c r="Q68" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="R68" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="S68" s="11">
+        <v>852593</v>
+      </c>
+      <c r="T68" s="11">
+        <f>S68+15</f>
+        <v>852608</v>
+      </c>
       <c r="U68" s="11">
         <f t="shared" si="49"/>
-        <v>-852582</v>
+        <v>11</v>
       </c>
       <c r="V68" s="11">
         <f t="shared" si="50"/>
-        <v>-852582</v>
-      </c>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="W68" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="X68" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="Y68" s="11"/>
-      <c r="Z68" s="11"/>
+      <c r="Z68" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:26" s="54" customFormat="1" ht="17">
       <c r="A69" s="52" t="s">

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057B099D-F3B3-3445-B548-139A74B2512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE241DE-FEE9-3641-BF44-E4E7863DCFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="396">
   <si>
     <t>Operon</t>
   </si>
@@ -1205,6 +1205,27 @@
   </si>
   <si>
     <t>GATAGTGGCATATGAA</t>
+  </si>
+  <si>
+    <t>2,926,308 -&gt; 2,927,672</t>
+  </si>
+  <si>
+    <t>GATTTTGTCCCATCGACCACAAGACTGGTTCGGCAATAAATTTTTTCTCAATTTTGCGTGCTGGATTCACGCAGAAGGTTGTGAAAGGTCATCAGGCAGGGCTATTGTAATCAAAGGGAATGACGATATTCGTCCCATAAGGAGTTTTTCTTGATTACAC</t>
+  </si>
+  <si>
+    <t>CATAAGGAGTTTT</t>
+  </si>
+  <si>
+    <t>CATAAGGAGTTTTTCTT</t>
+  </si>
+  <si>
+    <t>TTTCTTGATTACA</t>
+  </si>
+  <si>
+    <t>2,868,893 &lt;- 2,869,519</t>
+  </si>
+  <si>
+    <t>CGGTAGCAACTTGCAGGGGGCGCAGCGCTGGGCGCAAACCAATACTCCGGTGCGCGATCGCAATAAACGGAGTTTTTGGTTGTCGGCAGCCCGCAGTGCGTTGTTTAATCAGATTGTTGCTGAGCGCCTCAAAAAAGCAGACGTTAATCAAGTTGTTGAC</t>
   </si>
 </sst>
 </file>
@@ -3560,11 +3581,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:Z148"/>
+  <dimension ref="A1:Z154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z69" sqref="Z69"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y76" sqref="Y76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3933,14 +3954,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D96" si="3">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D97" si="3">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" ref="F5:F96" si="4">B5+D5*E5</f>
+        <f t="shared" ref="F5:F97" si="4">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="11">
@@ -6970,7 +6991,7 @@
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11">
-        <f t="shared" ref="H41:H93" si="25">F41-44</f>
+        <f t="shared" ref="H41:H94" si="25">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="11">
@@ -7301,7 +7322,7 @@
         <v>63314</v>
       </c>
       <c r="I45" s="11">
-        <f t="shared" ref="I45:I93" si="29">H45+159</f>
+        <f t="shared" ref="I45:I94" si="29">H45+159</f>
         <v>63473</v>
       </c>
       <c r="J45" s="11" t="s">
@@ -8484,11 +8505,11 @@
         <v>4122350</v>
       </c>
       <c r="U59" s="56">
-        <f t="shared" ref="U59:U94" si="49">S59-H59</f>
+        <f t="shared" ref="U59:U95" si="49">S59-H59</f>
         <v>17</v>
       </c>
       <c r="V59" s="56">
-        <f t="shared" ref="V59:V94" si="50">T59-H59</f>
+        <f t="shared" ref="V59:V95" si="50">T59-H59</f>
         <v>40</v>
       </c>
       <c r="W59" s="56" t="s">
@@ -9492,120 +9513,177 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
-      <c r="A72" s="26" t="s">
+    <row r="72" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A72" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="11">
         <v>2926272</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="11">
         <v>-158</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="11">
         <f t="shared" si="4"/>
         <v>2926114</v>
       </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9">
-        <f t="shared" si="25"/>
-        <v>2926070</v>
-      </c>
-      <c r="I72" s="9">
+      <c r="G72" s="11"/>
+      <c r="H72" s="11">
+        <v>2926158</v>
+      </c>
+      <c r="I72" s="11">
         <f t="shared" si="29"/>
-        <v>2926229</v>
-      </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
+        <v>2926317</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="K72" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O72" s="3">
+        <v>2926293</v>
+      </c>
+      <c r="P72" s="3">
+        <v>2926309</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="S72" s="11">
+        <f>T72-12</f>
+        <v>2926293</v>
+      </c>
+      <c r="T72" s="11">
+        <f>2926317-12</f>
+        <v>2926305</v>
+      </c>
       <c r="U72" s="11">
-        <f t="shared" si="49"/>
-        <v>-2926070</v>
+        <f>S72-H72</f>
+        <v>135</v>
       </c>
       <c r="V72" s="11">
-        <f t="shared" si="50"/>
-        <v>-2926070</v>
-      </c>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-    </row>
-    <row r="73" spans="1:26">
-      <c r="A73" s="26" t="s">
+        <f>T72-H72</f>
+        <v>147</v>
+      </c>
+      <c r="W72" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="X72" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A73" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="11">
+        <v>2926272</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="11">
+        <f t="shared" ref="D73" si="75">IF(C73="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E73" s="11">
+        <v>-158</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" ref="F73" si="76">B73+D73*E73</f>
+        <v>2926114</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11">
+        <v>2926158</v>
+      </c>
+      <c r="I73" s="11">
+        <f t="shared" ref="I73" si="77">H73+159</f>
+        <v>2926317</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="K73" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S73" s="11">
+        <f>T73-12</f>
+        <v>2926304</v>
+      </c>
+      <c r="T73" s="11">
+        <v>2926316</v>
+      </c>
+      <c r="U73" s="11">
+        <f>S73-H73</f>
+        <v>146</v>
+      </c>
+      <c r="V73" s="11">
+        <f>T73-H73</f>
+        <v>158</v>
+      </c>
+      <c r="W73" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="X73" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="17">
+      <c r="A74" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B74" s="9">
         <v>2870686</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E73" s="9">
-        <v>0</v>
-      </c>
-      <c r="F73" s="9">
-        <f t="shared" si="4"/>
-        <v>2870686</v>
-      </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9">
-        <f t="shared" si="25"/>
-        <v>2870642</v>
-      </c>
-      <c r="I73" s="9">
-        <f t="shared" si="29"/>
-        <v>2870801</v>
-      </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="11">
-        <f t="shared" si="49"/>
-        <v>-2870642</v>
-      </c>
-      <c r="V73" s="11">
-        <f t="shared" si="50"/>
-        <v>-2870642</v>
-      </c>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-    </row>
-    <row r="74" spans="1:26">
-      <c r="A74" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="9">
-        <v>220022</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>118</v>
@@ -9619,70 +9697,96 @@
       </c>
       <c r="F74" s="9">
         <f t="shared" si="4"/>
-        <v>220022</v>
+        <v>2870686</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9">
         <f t="shared" si="25"/>
-        <v>219978</v>
+        <v>2870642</v>
       </c>
       <c r="I74" s="9">
         <f t="shared" si="29"/>
-        <v>220137</v>
-      </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="11">
-        <f t="shared" si="49"/>
-        <v>-219978</v>
-      </c>
-      <c r="V74" s="11">
-        <f t="shared" si="50"/>
-        <v>-219978</v>
-      </c>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
+        <v>2870801</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="N74" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="P74" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q74" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="R74" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="S74" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="T74" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="U74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="V74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="W74" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="X74" s="9" t="s">
+        <v>158</v>
+      </c>
       <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
+      <c r="Z74" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="26" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B75" s="9">
-        <v>2082728</v>
+        <v>220022</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D75" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E75" s="9">
         <v>0</v>
       </c>
       <c r="F75" s="9">
         <f t="shared" si="4"/>
-        <v>2082728</v>
+        <v>220022</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9">
         <f t="shared" si="25"/>
-        <v>2082684</v>
+        <v>219978</v>
       </c>
       <c r="I75" s="9">
         <f t="shared" si="29"/>
-        <v>2082843</v>
+        <v>220137</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -9697,11 +9801,11 @@
       <c r="T75" s="9"/>
       <c r="U75" s="11">
         <f t="shared" si="49"/>
-        <v>-2082684</v>
+        <v>-219978</v>
       </c>
       <c r="V75" s="11">
         <f t="shared" si="50"/>
-        <v>-2082684</v>
+        <v>-219978</v>
       </c>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
@@ -9710,33 +9814,33 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B76" s="9">
-        <v>2999918</v>
+        <v>2082728</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="9">
         <f t="shared" si="4"/>
-        <v>2999918</v>
+        <v>2082728</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9">
         <f t="shared" si="25"/>
-        <v>2999874</v>
+        <v>2082684</v>
       </c>
       <c r="I76" s="9">
         <f t="shared" si="29"/>
-        <v>3000033</v>
+        <v>2082843</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -9751,11 +9855,11 @@
       <c r="T76" s="9"/>
       <c r="U76" s="11">
         <f t="shared" si="49"/>
-        <v>-2999874</v>
+        <v>-2082684</v>
       </c>
       <c r="V76" s="11">
         <f t="shared" si="50"/>
-        <v>-2999874</v>
+        <v>-2082684</v>
       </c>
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
@@ -9764,33 +9868,33 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="26" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B77" s="9">
-        <v>486492</v>
+        <v>2999918</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D77" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
       <c r="F77" s="9">
         <f t="shared" si="4"/>
-        <v>486492</v>
+        <v>2999918</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9">
         <f t="shared" si="25"/>
-        <v>486448</v>
+        <v>2999874</v>
       </c>
       <c r="I77" s="9">
         <f t="shared" si="29"/>
-        <v>486607</v>
+        <v>3000033</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -9805,11 +9909,11 @@
       <c r="T77" s="9"/>
       <c r="U77" s="11">
         <f t="shared" si="49"/>
-        <v>-486448</v>
+        <v>-2999874</v>
       </c>
       <c r="V77" s="11">
         <f t="shared" si="50"/>
-        <v>-486448</v>
+        <v>-2999874</v>
       </c>
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
@@ -9818,33 +9922,33 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="26" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B78" s="9">
-        <v>3069871</v>
+        <v>486492</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="9">
         <f t="shared" si="4"/>
-        <v>3069871</v>
+        <v>486492</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9">
         <f t="shared" si="25"/>
-        <v>3069827</v>
+        <v>486448</v>
       </c>
       <c r="I78" s="9">
         <f t="shared" si="29"/>
-        <v>3069986</v>
+        <v>486607</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -9859,11 +9963,11 @@
       <c r="T78" s="9"/>
       <c r="U78" s="11">
         <f t="shared" si="49"/>
-        <v>-3069827</v>
+        <v>-486448</v>
       </c>
       <c r="V78" s="11">
         <f t="shared" si="50"/>
-        <v>-3069827</v>
+        <v>-486448</v>
       </c>
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
@@ -9872,10 +9976,10 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="26" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B79" s="9">
-        <v>1395973</v>
+        <v>3069871</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>118</v>
@@ -9889,16 +9993,16 @@
       </c>
       <c r="F79" s="9">
         <f t="shared" si="4"/>
-        <v>1395973</v>
+        <v>3069871</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9">
         <f t="shared" si="25"/>
-        <v>1395929</v>
+        <v>3069827</v>
       </c>
       <c r="I79" s="9">
         <f t="shared" si="29"/>
-        <v>1396088</v>
+        <v>3069986</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -9913,11 +10017,11 @@
       <c r="T79" s="9"/>
       <c r="U79" s="11">
         <f t="shared" si="49"/>
-        <v>-1395929</v>
+        <v>-3069827</v>
       </c>
       <c r="V79" s="11">
         <f t="shared" si="50"/>
-        <v>-1395929</v>
+        <v>-3069827</v>
       </c>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
@@ -9926,10 +10030,10 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B80" s="9">
-        <v>604684</v>
+        <v>1395973</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>118</v>
@@ -9943,22 +10047,22 @@
       </c>
       <c r="F80" s="9">
         <f t="shared" si="4"/>
-        <v>604684</v>
+        <v>1395973</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9">
         <f t="shared" si="25"/>
-        <v>604640</v>
+        <v>1395929</v>
       </c>
       <c r="I80" s="9">
         <f t="shared" si="29"/>
-        <v>604799</v>
+        <v>1396088</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
+      <c r="N80" s="26"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
@@ -9967,11 +10071,11 @@
       <c r="T80" s="9"/>
       <c r="U80" s="11">
         <f t="shared" si="49"/>
-        <v>-604640</v>
+        <v>-1395929</v>
       </c>
       <c r="V80" s="11">
         <f t="shared" si="50"/>
-        <v>-604640</v>
+        <v>-1395929</v>
       </c>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
@@ -9980,33 +10084,33 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="26" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B81" s="9">
-        <v>1509221</v>
+        <v>604684</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" si="4"/>
-        <v>1509221</v>
+        <v>604684</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9">
         <f t="shared" si="25"/>
-        <v>1509177</v>
+        <v>604640</v>
       </c>
       <c r="I81" s="9">
         <f t="shared" si="29"/>
-        <v>1509336</v>
+        <v>604799</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -10021,11 +10125,11 @@
       <c r="T81" s="9"/>
       <c r="U81" s="11">
         <f t="shared" si="49"/>
-        <v>-1509177</v>
+        <v>-604640</v>
       </c>
       <c r="V81" s="11">
         <f t="shared" si="50"/>
-        <v>-1509177</v>
+        <v>-604640</v>
       </c>
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
@@ -10034,33 +10138,33 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="26" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B82" s="9">
-        <v>3353049</v>
+        <v>1509221</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="4"/>
-        <v>3353049</v>
+        <v>1509221</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9">
         <f t="shared" si="25"/>
-        <v>3353005</v>
+        <v>1509177</v>
       </c>
       <c r="I82" s="9">
         <f t="shared" si="29"/>
-        <v>3353164</v>
+        <v>1509336</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -10075,11 +10179,11 @@
       <c r="T82" s="9"/>
       <c r="U82" s="11">
         <f t="shared" si="49"/>
-        <v>-3353005</v>
+        <v>-1509177</v>
       </c>
       <c r="V82" s="11">
         <f t="shared" si="50"/>
-        <v>-3353005</v>
+        <v>-1509177</v>
       </c>
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
@@ -10088,10 +10192,10 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B83" s="9">
-        <v>1226139</v>
+        <v>3353049</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>118</v>
@@ -10105,16 +10209,16 @@
       </c>
       <c r="F83" s="9">
         <f t="shared" si="4"/>
-        <v>1226139</v>
+        <v>3353049</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9">
         <f t="shared" si="25"/>
-        <v>1226095</v>
+        <v>3353005</v>
       </c>
       <c r="I83" s="9">
         <f t="shared" si="29"/>
-        <v>1226254</v>
+        <v>3353164</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -10129,11 +10233,11 @@
       <c r="T83" s="9"/>
       <c r="U83" s="11">
         <f t="shared" si="49"/>
-        <v>-1226095</v>
+        <v>-3353005</v>
       </c>
       <c r="V83" s="11">
         <f t="shared" si="50"/>
-        <v>-1226095</v>
+        <v>-3353005</v>
       </c>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
@@ -10142,10 +10246,10 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="26" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B84" s="9">
-        <v>693469</v>
+        <v>1226139</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>118</v>
@@ -10159,16 +10263,16 @@
       </c>
       <c r="F84" s="9">
         <f t="shared" si="4"/>
-        <v>693469</v>
+        <v>1226139</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9">
         <f t="shared" si="25"/>
-        <v>693425</v>
+        <v>1226095</v>
       </c>
       <c r="I84" s="9">
         <f t="shared" si="29"/>
-        <v>693584</v>
+        <v>1226254</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -10183,11 +10287,11 @@
       <c r="T84" s="9"/>
       <c r="U84" s="11">
         <f t="shared" si="49"/>
-        <v>-693425</v>
+        <v>-1226095</v>
       </c>
       <c r="V84" s="11">
         <f t="shared" si="50"/>
-        <v>-693425</v>
+        <v>-1226095</v>
       </c>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
@@ -10196,10 +10300,10 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B85" s="9">
-        <v>1848700</v>
+        <v>693469</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>118</v>
@@ -10213,16 +10317,16 @@
       </c>
       <c r="F85" s="9">
         <f t="shared" si="4"/>
-        <v>1848700</v>
+        <v>693469</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9">
         <f t="shared" si="25"/>
-        <v>1848656</v>
+        <v>693425</v>
       </c>
       <c r="I85" s="9">
         <f t="shared" si="29"/>
-        <v>1848815</v>
+        <v>693584</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -10237,11 +10341,11 @@
       <c r="T85" s="9"/>
       <c r="U85" s="11">
         <f t="shared" si="49"/>
-        <v>-1848656</v>
+        <v>-693425</v>
       </c>
       <c r="V85" s="11">
         <f t="shared" si="50"/>
-        <v>-1848656</v>
+        <v>-693425</v>
       </c>
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
@@ -10250,33 +10354,33 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="26" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B86" s="9">
-        <v>3096620</v>
+        <v>1848700</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="9">
         <f t="shared" si="4"/>
-        <v>3096620</v>
+        <v>1848700</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9">
         <f t="shared" si="25"/>
-        <v>3096576</v>
+        <v>1848656</v>
       </c>
       <c r="I86" s="9">
         <f t="shared" si="29"/>
-        <v>3096735</v>
+        <v>1848815</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -10291,11 +10395,11 @@
       <c r="T86" s="9"/>
       <c r="U86" s="11">
         <f t="shared" si="49"/>
-        <v>-3096576</v>
+        <v>-1848656</v>
       </c>
       <c r="V86" s="11">
         <f t="shared" si="50"/>
-        <v>-3096576</v>
+        <v>-1848656</v>
       </c>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
@@ -10304,10 +10408,10 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="26" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B87" s="9">
-        <v>3403446</v>
+        <v>3096620</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>108</v>
@@ -10321,16 +10425,16 @@
       </c>
       <c r="F87" s="9">
         <f t="shared" si="4"/>
-        <v>3403446</v>
+        <v>3096620</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9">
         <f t="shared" si="25"/>
-        <v>3403402</v>
+        <v>3096576</v>
       </c>
       <c r="I87" s="9">
         <f t="shared" si="29"/>
-        <v>3403561</v>
+        <v>3096735</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -10345,11 +10449,11 @@
       <c r="T87" s="9"/>
       <c r="U87" s="11">
         <f t="shared" si="49"/>
-        <v>-3403402</v>
+        <v>-3096576</v>
       </c>
       <c r="V87" s="11">
         <f t="shared" si="50"/>
-        <v>-3403402</v>
+        <v>-3096576</v>
       </c>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
@@ -10358,33 +10462,33 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="26" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B88" s="9">
-        <v>2214673</v>
+        <v>3403446</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D88" s="9">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E88" s="9">
         <v>0</v>
       </c>
       <c r="F88" s="9">
         <f t="shared" si="4"/>
-        <v>2214673</v>
+        <v>3403446</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9">
         <f t="shared" si="25"/>
-        <v>2214629</v>
+        <v>3403402</v>
       </c>
       <c r="I88" s="9">
         <f t="shared" si="29"/>
-        <v>2214788</v>
+        <v>3403561</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -10399,11 +10503,11 @@
       <c r="T88" s="9"/>
       <c r="U88" s="11">
         <f t="shared" si="49"/>
-        <v>-2214629</v>
+        <v>-3403402</v>
       </c>
       <c r="V88" s="11">
         <f t="shared" si="50"/>
-        <v>-2214629</v>
+        <v>-3403402</v>
       </c>
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
@@ -10412,10 +10516,10 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="26" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B89" s="9">
-        <v>2212969</v>
+        <v>2214673</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>118</v>
@@ -10429,16 +10533,16 @@
       </c>
       <c r="F89" s="9">
         <f t="shared" si="4"/>
-        <v>2212969</v>
+        <v>2214673</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9">
         <f t="shared" si="25"/>
-        <v>2212925</v>
+        <v>2214629</v>
       </c>
       <c r="I89" s="9">
         <f t="shared" si="29"/>
-        <v>2213084</v>
+        <v>2214788</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -10453,11 +10557,11 @@
       <c r="T89" s="9"/>
       <c r="U89" s="11">
         <f t="shared" si="49"/>
-        <v>-2212925</v>
+        <v>-2214629</v>
       </c>
       <c r="V89" s="11">
         <f t="shared" si="50"/>
-        <v>-2212925</v>
+        <v>-2214629</v>
       </c>
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
@@ -10466,10 +10570,10 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="26" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B90" s="9">
-        <v>845736</v>
+        <v>2212969</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>118</v>
@@ -10483,16 +10587,16 @@
       </c>
       <c r="F90" s="9">
         <f t="shared" si="4"/>
-        <v>845736</v>
+        <v>2212969</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9">
         <f t="shared" si="25"/>
-        <v>845692</v>
+        <v>2212925</v>
       </c>
       <c r="I90" s="9">
         <f t="shared" si="29"/>
-        <v>845851</v>
+        <v>2213084</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -10507,11 +10611,11 @@
       <c r="T90" s="9"/>
       <c r="U90" s="11">
         <f t="shared" si="49"/>
-        <v>-845692</v>
+        <v>-2212925</v>
       </c>
       <c r="V90" s="11">
         <f t="shared" si="50"/>
-        <v>-845692</v>
+        <v>-2212925</v>
       </c>
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
@@ -10520,33 +10624,33 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="26" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B91" s="9">
-        <v>3438001</v>
+        <v>845736</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E91" s="9">
         <v>0</v>
       </c>
       <c r="F91" s="9">
         <f t="shared" si="4"/>
-        <v>3438001</v>
+        <v>845736</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9">
         <f t="shared" si="25"/>
-        <v>3437957</v>
+        <v>845692</v>
       </c>
       <c r="I91" s="9">
         <f t="shared" si="29"/>
-        <v>3438116</v>
+        <v>845851</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -10561,11 +10665,11 @@
       <c r="T91" s="9"/>
       <c r="U91" s="11">
         <f t="shared" si="49"/>
-        <v>-3437957</v>
+        <v>-845692</v>
       </c>
       <c r="V91" s="11">
         <f t="shared" si="50"/>
-        <v>-3437957</v>
+        <v>-845692</v>
       </c>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
@@ -10574,10 +10678,10 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="26" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B92" s="9">
-        <v>4118427</v>
+        <v>3438001</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>108</v>
@@ -10591,16 +10695,16 @@
       </c>
       <c r="F92" s="9">
         <f t="shared" si="4"/>
-        <v>4118427</v>
+        <v>3438001</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9">
         <f t="shared" si="25"/>
-        <v>4118383</v>
+        <v>3437957</v>
       </c>
       <c r="I92" s="9">
         <f t="shared" si="29"/>
-        <v>4118542</v>
+        <v>3438116</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -10615,11 +10719,11 @@
       <c r="T92" s="9"/>
       <c r="U92" s="11">
         <f t="shared" si="49"/>
-        <v>-4118383</v>
+        <v>-3437957</v>
       </c>
       <c r="V92" s="11">
         <f t="shared" si="50"/>
-        <v>-4118383</v>
+        <v>-3437957</v>
       </c>
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
@@ -10628,10 +10732,10 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="26" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B93" s="9">
-        <v>3808516</v>
+        <v>4118427</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>108</v>
@@ -10645,16 +10749,16 @@
       </c>
       <c r="F93" s="9">
         <f t="shared" si="4"/>
-        <v>3808516</v>
+        <v>4118427</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9">
         <f t="shared" si="25"/>
-        <v>3808472</v>
+        <v>4118383</v>
       </c>
       <c r="I93" s="9">
         <f t="shared" si="29"/>
-        <v>3808631</v>
+        <v>4118542</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -10669,98 +10773,70 @@
       <c r="T93" s="9"/>
       <c r="U93" s="11">
         <f t="shared" si="49"/>
-        <v>-3808472</v>
+        <v>-4118383</v>
       </c>
       <c r="V93" s="11">
         <f t="shared" si="50"/>
-        <v>-3808472</v>
+        <v>-4118383</v>
       </c>
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
     </row>
-    <row r="94" spans="1:26" s="3" customFormat="1">
-      <c r="A94" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D94" s="11">
+    <row r="94" spans="1:26">
+      <c r="A94" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="9">
+        <v>3808516</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="9">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E94" s="11">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" ref="F94" si="75">B94+D94*E94</f>
-        <v>4175107</v>
-      </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11">
-        <v>4175063</v>
-      </c>
-      <c r="I94" s="11">
-        <f>H94+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K94" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L94" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="M94" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N94" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="O94" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="P94" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q94" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="R94" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="S94" s="11">
-        <v>4175143</v>
-      </c>
-      <c r="T94" s="11">
-        <f>4175175</f>
-        <v>4175175</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0</v>
+      </c>
+      <c r="F94" s="9">
+        <f t="shared" si="4"/>
+        <v>3808516</v>
+      </c>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9">
+        <f t="shared" si="25"/>
+        <v>3808472</v>
+      </c>
+      <c r="I94" s="9">
+        <f t="shared" si="29"/>
+        <v>3808631</v>
+      </c>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
       <c r="U94" s="11">
         <f t="shared" si="49"/>
-        <v>80</v>
+        <v>-3808472</v>
       </c>
       <c r="V94" s="11">
         <f t="shared" si="50"/>
-        <v>112</v>
-      </c>
-      <c r="W94" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="X94" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y94" s="11"/>
-      <c r="Z94" s="11">
-        <v>1</v>
-      </c>
+        <v>-3808472</v>
+      </c>
+      <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
+      <c r="Y94" s="9"/>
+      <c r="Z94" s="9"/>
     </row>
     <row r="95" spans="1:26" s="3" customFormat="1">
       <c r="A95" s="10" t="s">
@@ -10780,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F95" si="78">B95+D95*E95</f>
         <v>4175107</v>
       </c>
       <c r="G95" s="11"/>
@@ -10806,128 +10882,156 @@
       <c r="N95" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="O95" s="11">
-        <f>P95-20</f>
-        <v>4175087</v>
-      </c>
-      <c r="P95" s="11">
-        <v>4175107</v>
+      <c r="O95" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="Q95" s="11" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="R95" s="11" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="S95" s="11">
-        <v>4175105</v>
+        <v>4175143</v>
       </c>
       <c r="T95" s="11">
-        <f>S95+84</f>
-        <v>4175189</v>
+        <f>4175175</f>
+        <v>4175175</v>
       </c>
       <c r="U95" s="11">
-        <f t="shared" ref="U95:U112" si="76">S95-H95</f>
-        <v>42</v>
+        <f t="shared" si="49"/>
+        <v>80</v>
       </c>
       <c r="V95" s="11">
-        <f t="shared" ref="V95:V112" si="77">T95-H95</f>
-        <v>126</v>
+        <f t="shared" si="50"/>
+        <v>112</v>
       </c>
       <c r="W95" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X95" s="11" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Y95" s="11"/>
       <c r="Z95" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26">
-      <c r="A96" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="3" customFormat="1">
+      <c r="A96" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="11">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E96" s="11">
+        <v>0</v>
+      </c>
+      <c r="F96" s="11">
+        <f t="shared" si="4"/>
+        <v>4175107</v>
+      </c>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11">
+        <v>4175063</v>
+      </c>
+      <c r="I96" s="11">
+        <f>H96+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L96" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O96" s="11">
+        <f>P96-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="P96" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="Q96" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R96" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="S96" s="11">
+        <v>4175105</v>
+      </c>
+      <c r="T96" s="11">
+        <f>S96+84</f>
+        <v>4175189</v>
+      </c>
+      <c r="U96" s="11">
+        <f t="shared" ref="U96:U113" si="79">S96-H96</f>
+        <v>42</v>
+      </c>
+      <c r="V96" s="11">
+        <f t="shared" ref="V96:V113" si="80">T96-H96</f>
+        <v>126</v>
+      </c>
+      <c r="W96" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="X96" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B97" s="9">
         <v>4621716</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C97" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D97" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96" s="9">
+      <c r="E97" s="9">
+        <v>0</v>
+      </c>
+      <c r="F97" s="9">
         <f t="shared" si="4"/>
         <v>4621716</v>
       </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9">
-        <f>F96</f>
-        <v>4621716</v>
-      </c>
-      <c r="I96" s="9">
-        <f>H96+D96*160</f>
-        <v>4621876</v>
-      </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="9"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
-      <c r="U96" s="11">
-        <f t="shared" si="76"/>
-        <v>-4621716</v>
-      </c>
-      <c r="V96" s="11">
-        <f t="shared" si="77"/>
-        <v>-4621716</v>
-      </c>
-      <c r="W96" s="9"/>
-      <c r="X96" s="9"/>
-      <c r="Y96" s="9"/>
-      <c r="Z96" s="9"/>
-    </row>
-    <row r="97" spans="1:26">
-      <c r="A97" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="9">
-        <v>4370616</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D97" s="9">
-        <f t="shared" ref="D97:D148" si="78">IF(C97="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E97" s="9">
-        <v>0</v>
-      </c>
-      <c r="F97" s="9">
-        <f t="shared" ref="F97:F148" si="79">B97+D97*E97</f>
-        <v>4370616</v>
-      </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9">
-        <f t="shared" ref="H97:H148" si="80">F97</f>
-        <v>4370616</v>
+        <f>F97</f>
+        <v>4621716</v>
       </c>
       <c r="I97" s="9">
-        <f t="shared" ref="I97:I148" si="81">H97+D97*160</f>
-        <v>4370776</v>
+        <f>H97+D97*160</f>
+        <v>4621876</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -10941,12 +11045,12 @@
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
       <c r="U97" s="11">
-        <f t="shared" si="76"/>
-        <v>-4370616</v>
+        <f t="shared" si="79"/>
+        <v>-4621716</v>
       </c>
       <c r="V97" s="11">
-        <f t="shared" si="77"/>
-        <v>-4370616</v>
+        <f t="shared" si="80"/>
+        <v>-4621716</v>
       </c>
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
@@ -10955,33 +11059,33 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="26" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B98" s="9">
-        <v>4472553</v>
+        <v>4370616</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D98" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" ref="D98:D148" si="81">IF(C98="fwd",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="E98" s="9">
         <v>0</v>
       </c>
       <c r="F98" s="9">
-        <f t="shared" si="79"/>
-        <v>4472553</v>
+        <f t="shared" ref="F98:F148" si="82">B98+D98*E98</f>
+        <v>4370616</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9">
-        <f t="shared" si="80"/>
-        <v>4472553</v>
+        <f t="shared" ref="H98:H148" si="83">F98</f>
+        <v>4370616</v>
       </c>
       <c r="I98" s="9">
-        <f t="shared" si="81"/>
-        <v>4472393</v>
+        <f t="shared" ref="I98:I148" si="84">H98+D98*160</f>
+        <v>4370776</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -10995,12 +11099,12 @@
       <c r="S98" s="9"/>
       <c r="T98" s="9"/>
       <c r="U98" s="11">
-        <f t="shared" si="76"/>
-        <v>-4472553</v>
+        <f t="shared" si="79"/>
+        <v>-4370616</v>
       </c>
       <c r="V98" s="11">
-        <f t="shared" si="77"/>
-        <v>-4472553</v>
+        <f t="shared" si="80"/>
+        <v>-4370616</v>
       </c>
       <c r="W98" s="9"/>
       <c r="X98" s="9"/>
@@ -11009,33 +11113,33 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B99" s="9">
-        <v>4178354</v>
+        <v>4472553</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D99" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
+        <f t="shared" si="81"/>
+        <v>-1</v>
       </c>
       <c r="E99" s="9">
         <v>0</v>
       </c>
       <c r="F99" s="9">
-        <f t="shared" si="79"/>
-        <v>4178354</v>
+        <f t="shared" si="82"/>
+        <v>4472553</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9">
-        <f t="shared" si="80"/>
-        <v>4178354</v>
+        <f t="shared" si="83"/>
+        <v>4472553</v>
       </c>
       <c r="I99" s="9">
-        <f t="shared" si="81"/>
-        <v>4178514</v>
+        <f t="shared" si="84"/>
+        <v>4472393</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -11049,12 +11153,12 @@
       <c r="S99" s="9"/>
       <c r="T99" s="9"/>
       <c r="U99" s="11">
-        <f t="shared" si="76"/>
-        <v>-4178354</v>
+        <f t="shared" si="79"/>
+        <v>-4472553</v>
       </c>
       <c r="V99" s="11">
-        <f t="shared" si="77"/>
-        <v>-4178354</v>
+        <f t="shared" si="80"/>
+        <v>-4472553</v>
       </c>
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
@@ -11063,33 +11167,33 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B100" s="9">
-        <v>2042294</v>
+        <v>4178354</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D100" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E100" s="9">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F100" s="9">
-        <f t="shared" si="79"/>
-        <v>2042280</v>
+        <f t="shared" si="82"/>
+        <v>4178354</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9">
-        <f t="shared" si="80"/>
-        <v>2042280</v>
+        <f t="shared" si="83"/>
+        <v>4178354</v>
       </c>
       <c r="I100" s="9">
-        <f t="shared" si="81"/>
-        <v>2042440</v>
+        <f t="shared" si="84"/>
+        <v>4178514</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -11103,12 +11207,12 @@
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="11">
-        <f t="shared" si="76"/>
-        <v>-2042280</v>
+        <f t="shared" si="79"/>
+        <v>-4178354</v>
       </c>
       <c r="V100" s="11">
-        <f t="shared" si="77"/>
-        <v>-2042280</v>
+        <f t="shared" si="80"/>
+        <v>-4178354</v>
       </c>
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
@@ -11117,33 +11221,33 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B101" s="9">
-        <v>3922525</v>
+        <v>2042294</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D101" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E101" s="9">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F101" s="9">
-        <f t="shared" si="79"/>
-        <v>3922525</v>
+        <f t="shared" si="82"/>
+        <v>2042280</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9">
-        <f t="shared" si="80"/>
-        <v>3922525</v>
+        <f t="shared" si="83"/>
+        <v>2042280</v>
       </c>
       <c r="I101" s="9">
-        <f t="shared" si="81"/>
-        <v>3922365</v>
+        <f t="shared" si="84"/>
+        <v>2042440</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -11157,12 +11261,12 @@
       <c r="S101" s="9"/>
       <c r="T101" s="9"/>
       <c r="U101" s="11">
-        <f t="shared" si="76"/>
-        <v>-3922525</v>
+        <f t="shared" si="79"/>
+        <v>-2042280</v>
       </c>
       <c r="V101" s="11">
-        <f t="shared" si="77"/>
-        <v>-3922525</v>
+        <f t="shared" si="80"/>
+        <v>-2042280</v>
       </c>
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
@@ -11171,33 +11275,33 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B102" s="9">
-        <v>1114213</v>
+        <v>3922525</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D102" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E102" s="9">
         <v>0</v>
       </c>
       <c r="F102" s="9">
-        <f t="shared" si="79"/>
-        <v>1114213</v>
+        <f t="shared" si="82"/>
+        <v>3922525</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9">
-        <f t="shared" si="80"/>
-        <v>1114213</v>
+        <f t="shared" si="83"/>
+        <v>3922525</v>
       </c>
       <c r="I102" s="9">
-        <f t="shared" si="81"/>
-        <v>1114053</v>
+        <f t="shared" si="84"/>
+        <v>3922365</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -11211,12 +11315,12 @@
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
       <c r="U102" s="11">
-        <f t="shared" si="76"/>
-        <v>-1114213</v>
+        <f t="shared" si="79"/>
+        <v>-3922525</v>
       </c>
       <c r="V102" s="11">
-        <f t="shared" si="77"/>
-        <v>-1114213</v>
+        <f t="shared" si="80"/>
+        <v>-3922525</v>
       </c>
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
@@ -11225,33 +11329,33 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B103" s="9">
-        <v>2644913</v>
+        <v>1114213</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D103" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E103" s="9">
         <v>0</v>
       </c>
       <c r="F103" s="9">
-        <f t="shared" si="79"/>
-        <v>2644913</v>
+        <f t="shared" si="82"/>
+        <v>1114213</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9">
-        <f t="shared" si="80"/>
-        <v>2644913</v>
+        <f t="shared" si="83"/>
+        <v>1114213</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" si="81"/>
-        <v>2644753</v>
+        <f t="shared" si="84"/>
+        <v>1114053</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -11265,12 +11369,12 @@
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
       <c r="U103" s="11">
-        <f t="shared" si="76"/>
-        <v>-2644913</v>
+        <f t="shared" si="79"/>
+        <v>-1114213</v>
       </c>
       <c r="V103" s="11">
-        <f t="shared" si="77"/>
-        <v>-2644913</v>
+        <f t="shared" si="80"/>
+        <v>-1114213</v>
       </c>
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
@@ -11279,33 +11383,33 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="26" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B104" s="9">
-        <v>148</v>
+        <v>2644913</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D104" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
+        <f t="shared" si="81"/>
+        <v>-1</v>
       </c>
       <c r="E104" s="9">
         <v>0</v>
       </c>
       <c r="F104" s="9">
-        <f t="shared" si="79"/>
-        <v>148</v>
+        <f t="shared" si="82"/>
+        <v>2644913</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9">
-        <f t="shared" si="80"/>
-        <v>148</v>
+        <f t="shared" si="83"/>
+        <v>2644913</v>
       </c>
       <c r="I104" s="9">
-        <f t="shared" si="81"/>
-        <v>308</v>
+        <f t="shared" si="84"/>
+        <v>2644753</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -11319,12 +11423,12 @@
       <c r="S104" s="9"/>
       <c r="T104" s="9"/>
       <c r="U104" s="11">
-        <f t="shared" si="76"/>
-        <v>-148</v>
+        <f t="shared" si="79"/>
+        <v>-2644913</v>
       </c>
       <c r="V104" s="11">
-        <f t="shared" si="77"/>
-        <v>-148</v>
+        <f t="shared" si="80"/>
+        <v>-2644913</v>
       </c>
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
@@ -11333,33 +11437,33 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="26" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B105" s="9">
-        <v>454993</v>
+        <v>148</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D105" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E105" s="9">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F105" s="9">
-        <f t="shared" si="79"/>
-        <v>454864</v>
+        <f t="shared" si="82"/>
+        <v>148</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9">
-        <f t="shared" si="80"/>
-        <v>454864</v>
+        <f t="shared" si="83"/>
+        <v>148</v>
       </c>
       <c r="I105" s="9">
-        <f t="shared" si="81"/>
-        <v>455024</v>
+        <f t="shared" si="84"/>
+        <v>308</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
@@ -11373,12 +11477,12 @@
       <c r="S105" s="9"/>
       <c r="T105" s="9"/>
       <c r="U105" s="11">
-        <f t="shared" si="76"/>
-        <v>-454864</v>
+        <f t="shared" si="79"/>
+        <v>-148</v>
       </c>
       <c r="V105" s="11">
-        <f t="shared" si="77"/>
-        <v>-454864</v>
+        <f t="shared" si="80"/>
+        <v>-148</v>
       </c>
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
@@ -11387,33 +11491,33 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="26" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B106" s="9">
-        <v>189712</v>
+        <v>454993</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D106" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E106" s="9">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="F106" s="9">
-        <f t="shared" si="79"/>
-        <v>189712</v>
+        <f t="shared" si="82"/>
+        <v>454864</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9">
-        <f t="shared" si="80"/>
-        <v>189712</v>
+        <f t="shared" si="83"/>
+        <v>454864</v>
       </c>
       <c r="I106" s="9">
-        <f t="shared" si="81"/>
-        <v>189872</v>
+        <f t="shared" si="84"/>
+        <v>455024</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -11427,12 +11531,12 @@
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
       <c r="U106" s="11">
-        <f t="shared" si="76"/>
-        <v>-189712</v>
+        <f t="shared" si="79"/>
+        <v>-454864</v>
       </c>
       <c r="V106" s="11">
-        <f t="shared" si="77"/>
-        <v>-189712</v>
+        <f t="shared" si="80"/>
+        <v>-454864</v>
       </c>
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
@@ -11441,33 +11545,33 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="26" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B107" s="9">
-        <v>3948058</v>
+        <v>189712</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E107" s="9">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F107" s="9">
-        <f t="shared" si="79"/>
-        <v>3948030</v>
+        <f t="shared" si="82"/>
+        <v>189712</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9">
-        <f t="shared" si="80"/>
-        <v>3948030</v>
+        <f t="shared" si="83"/>
+        <v>189712</v>
       </c>
       <c r="I107" s="9">
-        <f t="shared" si="81"/>
-        <v>3948190</v>
+        <f t="shared" si="84"/>
+        <v>189872</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
@@ -11481,12 +11585,12 @@
       <c r="S107" s="9"/>
       <c r="T107" s="9"/>
       <c r="U107" s="11">
-        <f t="shared" si="76"/>
-        <v>-3948030</v>
+        <f t="shared" si="79"/>
+        <v>-189712</v>
       </c>
       <c r="V107" s="11">
-        <f t="shared" si="77"/>
-        <v>-3948030</v>
+        <f t="shared" si="80"/>
+        <v>-189712</v>
       </c>
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
@@ -11495,33 +11599,33 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="26" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B108" s="9">
-        <v>911076</v>
+        <v>3948058</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E108" s="9">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F108" s="9">
-        <f t="shared" si="79"/>
-        <v>911076</v>
+        <f t="shared" si="82"/>
+        <v>3948030</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9">
-        <f t="shared" si="80"/>
-        <v>911076</v>
+        <f t="shared" si="83"/>
+        <v>3948030</v>
       </c>
       <c r="I108" s="9">
-        <f t="shared" si="81"/>
-        <v>910916</v>
+        <f t="shared" si="84"/>
+        <v>3948190</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -11535,12 +11639,12 @@
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
       <c r="U108" s="11">
-        <f t="shared" si="76"/>
-        <v>-911076</v>
+        <f t="shared" si="79"/>
+        <v>-3948030</v>
       </c>
       <c r="V108" s="11">
-        <f t="shared" si="77"/>
-        <v>-911076</v>
+        <f t="shared" si="80"/>
+        <v>-3948030</v>
       </c>
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
@@ -11549,33 +11653,33 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="26" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B109" s="9">
-        <v>1655186</v>
+        <v>911076</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D109" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E109" s="9">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F109" s="9">
-        <f t="shared" si="79"/>
-        <v>1655231</v>
+        <f t="shared" si="82"/>
+        <v>911076</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9">
-        <f t="shared" si="80"/>
-        <v>1655231</v>
+        <f t="shared" si="83"/>
+        <v>911076</v>
       </c>
       <c r="I109" s="9">
-        <f t="shared" si="81"/>
-        <v>1655071</v>
+        <f t="shared" si="84"/>
+        <v>910916</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
@@ -11589,12 +11693,12 @@
       <c r="S109" s="9"/>
       <c r="T109" s="9"/>
       <c r="U109" s="11">
-        <f t="shared" si="76"/>
-        <v>-1655231</v>
+        <f t="shared" si="79"/>
+        <v>-911076</v>
       </c>
       <c r="V109" s="11">
-        <f t="shared" si="77"/>
-        <v>-1655231</v>
+        <f t="shared" si="80"/>
+        <v>-911076</v>
       </c>
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
@@ -11603,33 +11707,33 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="26" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B110" s="9">
-        <v>4390638</v>
+        <v>1655186</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D110" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E110" s="9">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F110" s="9">
-        <f t="shared" si="79"/>
-        <v>4390638</v>
+        <f t="shared" si="82"/>
+        <v>1655231</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9">
-        <f t="shared" si="80"/>
-        <v>4390638</v>
+        <f t="shared" si="83"/>
+        <v>1655231</v>
       </c>
       <c r="I110" s="9">
-        <f t="shared" si="81"/>
-        <v>4390478</v>
+        <f t="shared" si="84"/>
+        <v>1655071</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -11643,12 +11747,12 @@
       <c r="S110" s="9"/>
       <c r="T110" s="9"/>
       <c r="U110" s="11">
-        <f t="shared" si="76"/>
-        <v>-4390638</v>
+        <f t="shared" si="79"/>
+        <v>-1655231</v>
       </c>
       <c r="V110" s="11">
-        <f t="shared" si="77"/>
-        <v>-4390638</v>
+        <f t="shared" si="80"/>
+        <v>-1655231</v>
       </c>
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
@@ -11657,33 +11761,33 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="26" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B111" s="9">
-        <v>4640508</v>
+        <v>4390638</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D111" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E111" s="9">
         <v>0</v>
       </c>
       <c r="F111" s="9">
-        <f t="shared" si="79"/>
-        <v>4640508</v>
+        <f t="shared" si="82"/>
+        <v>4390638</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9">
-        <f t="shared" si="80"/>
-        <v>4640508</v>
+        <f t="shared" si="83"/>
+        <v>4390638</v>
       </c>
       <c r="I111" s="9">
-        <f t="shared" si="81"/>
-        <v>4640348</v>
+        <f t="shared" si="84"/>
+        <v>4390478</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
@@ -11697,12 +11801,12 @@
       <c r="S111" s="9"/>
       <c r="T111" s="9"/>
       <c r="U111" s="11">
-        <f t="shared" si="76"/>
-        <v>-4640508</v>
+        <f t="shared" si="79"/>
+        <v>-4390638</v>
       </c>
       <c r="V111" s="11">
-        <f t="shared" si="77"/>
-        <v>-4640508</v>
+        <f t="shared" si="80"/>
+        <v>-4390638</v>
       </c>
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
@@ -11711,33 +11815,33 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="26" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B112" s="9">
-        <v>1972716</v>
+        <v>4640508</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E112" s="9">
         <v>0</v>
       </c>
       <c r="F112" s="9">
-        <f t="shared" si="79"/>
-        <v>1972716</v>
+        <f t="shared" si="82"/>
+        <v>4640508</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9">
-        <f t="shared" si="80"/>
-        <v>1972716</v>
+        <f t="shared" si="83"/>
+        <v>4640508</v>
       </c>
       <c r="I112" s="9">
-        <f t="shared" si="81"/>
-        <v>1972556</v>
+        <f t="shared" si="84"/>
+        <v>4640348</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -11751,98 +11855,71 @@
       <c r="S112" s="9"/>
       <c r="T112" s="9"/>
       <c r="U112" s="11">
-        <f t="shared" si="76"/>
-        <v>-1972716</v>
+        <f t="shared" si="79"/>
+        <v>-4640508</v>
       </c>
       <c r="V112" s="11">
-        <f t="shared" si="77"/>
-        <v>-1972716</v>
+        <f t="shared" si="80"/>
+        <v>-4640508</v>
       </c>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
     </row>
-    <row r="113" spans="1:26" s="3" customFormat="1" ht="17">
-      <c r="A113" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B113" s="11">
-        <v>652172</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D113" s="11">
-        <f t="shared" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="E113" s="11">
-        <v>0</v>
-      </c>
-      <c r="F113" s="11">
-        <f t="shared" ref="F113" si="82">B113+D113*E113</f>
-        <v>652172</v>
-      </c>
-      <c r="G113" s="11"/>
-      <c r="H113" s="27">
-        <v>652058</v>
-      </c>
-      <c r="I113" s="11">
-        <f>H113+D113*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J113" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K113" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L113" s="11">
-        <v>652172</v>
-      </c>
-      <c r="M113" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N113" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O113" s="11">
-        <v>652193</v>
-      </c>
-      <c r="P113" s="11">
-        <v>652199</v>
-      </c>
-      <c r="Q113" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="R113" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="S113" s="27">
-        <f>130+H113</f>
-        <v>652188</v>
-      </c>
-      <c r="T113" s="27">
-        <f>S113+30</f>
-        <v>652218</v>
-      </c>
+    <row r="113" spans="1:26">
+      <c r="A113" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" s="9">
+        <v>1972716</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="9">
+        <f t="shared" si="81"/>
+        <v>-1</v>
+      </c>
+      <c r="E113" s="9">
+        <v>0</v>
+      </c>
+      <c r="F113" s="9">
+        <f t="shared" si="82"/>
+        <v>1972716</v>
+      </c>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9">
+        <f t="shared" si="83"/>
+        <v>1972716</v>
+      </c>
+      <c r="I113" s="9">
+        <f t="shared" si="84"/>
+        <v>1972556</v>
+      </c>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
       <c r="U113" s="11">
-        <v>130</v>
+        <f t="shared" si="79"/>
+        <v>-1972716</v>
       </c>
       <c r="V113" s="11">
-        <v>160</v>
-      </c>
-      <c r="W113" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X113" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y113" s="11"/>
-      <c r="Z113" s="11">
-        <v>0</v>
-      </c>
+        <f t="shared" si="80"/>
+        <v>-1972716</v>
+      </c>
+      <c r="W113" s="9"/>
+      <c r="X113" s="9"/>
+      <c r="Y113" s="9"/>
+      <c r="Z113" s="9"/>
     </row>
     <row r="114" spans="1:26" s="3" customFormat="1" ht="17">
       <c r="A114" s="10" t="s">
@@ -11855,14 +11932,14 @@
         <v>108</v>
       </c>
       <c r="D114" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E114" s="11">
         <v>0</v>
       </c>
       <c r="F114" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="F114" si="85">B114+D114*E114</f>
         <v>652172</v>
       </c>
       <c r="G114" s="11"/>
@@ -11889,119 +11966,152 @@
         <v>165</v>
       </c>
       <c r="O114" s="11">
-        <v>652118</v>
+        <v>652193</v>
       </c>
       <c r="P114" s="11">
-        <v>652140</v>
+        <v>652199</v>
       </c>
       <c r="Q114" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R114" s="11" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="S114" s="27">
-        <f>60+H114</f>
-        <v>652118</v>
+        <f>130+H114</f>
+        <v>652188</v>
       </c>
       <c r="T114" s="27">
-        <f>S114+25</f>
-        <v>652143</v>
+        <f>S114+30</f>
+        <v>652218</v>
       </c>
       <c r="U114" s="11">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="V114" s="11">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="W114" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X114" s="11" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Y114" s="11"/>
       <c r="Z114" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
-      <c r="A115" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B115" s="9">
-        <v>70075</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D115" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
-      </c>
-      <c r="E115" s="9">
-        <v>0</v>
-      </c>
-      <c r="F115" s="9">
-        <f t="shared" si="79"/>
-        <v>70075</v>
-      </c>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9">
-        <f t="shared" si="80"/>
-        <v>70075</v>
-      </c>
-      <c r="I115" s="9">
+    <row r="115" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A115" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="11">
+        <v>652172</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" s="11">
         <f t="shared" si="81"/>
-        <v>69915</v>
-      </c>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-      <c r="N115" s="9"/>
-      <c r="O115" s="9"/>
-      <c r="P115" s="9"/>
-      <c r="Q115" s="9"/>
-      <c r="R115" s="9"/>
-      <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
-      <c r="U115" s="9"/>
-      <c r="V115" s="9"/>
-      <c r="W115" s="9"/>
-      <c r="X115" s="9"/>
-      <c r="Y115" s="9"/>
-      <c r="Z115" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="11">
+        <v>0</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="82"/>
+        <v>652172</v>
+      </c>
+      <c r="G115" s="11"/>
+      <c r="H115" s="27">
+        <v>652058</v>
+      </c>
+      <c r="I115" s="11">
+        <f>H115+D115*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L115" s="11">
+        <v>652172</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O115" s="11">
+        <v>652118</v>
+      </c>
+      <c r="P115" s="11">
+        <v>652140</v>
+      </c>
+      <c r="Q115" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="R115" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="S115" s="27">
+        <f>60+H115</f>
+        <v>652118</v>
+      </c>
+      <c r="T115" s="27">
+        <f>S115+25</f>
+        <v>652143</v>
+      </c>
+      <c r="U115" s="11">
+        <v>60</v>
+      </c>
+      <c r="V115" s="11">
+        <v>85</v>
+      </c>
+      <c r="W115" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="X115" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y115" s="11"/>
+      <c r="Z115" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="26" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B116" s="9">
-        <v>70241</v>
+        <v>70075</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D116" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
+        <f t="shared" si="81"/>
+        <v>-1</v>
       </c>
       <c r="E116" s="9">
         <v>0</v>
       </c>
       <c r="F116" s="9">
-        <f t="shared" si="79"/>
-        <v>70241</v>
+        <f t="shared" si="82"/>
+        <v>70075</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9">
-        <f t="shared" si="80"/>
-        <v>70241</v>
+        <f t="shared" si="83"/>
+        <v>70075</v>
       </c>
       <c r="I116" s="9">
-        <f t="shared" si="81"/>
-        <v>70401</v>
+        <f t="shared" si="84"/>
+        <v>69915</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -12023,33 +12133,33 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="26" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B117" s="9">
-        <v>3731069</v>
+        <v>70241</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D117" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E117" s="9">
         <v>0</v>
       </c>
       <c r="F117" s="9">
-        <f t="shared" si="79"/>
-        <v>3731069</v>
+        <f t="shared" si="82"/>
+        <v>70241</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9">
-        <f t="shared" si="80"/>
-        <v>3731069</v>
+        <f t="shared" si="83"/>
+        <v>70241</v>
       </c>
       <c r="I117" s="9">
-        <f t="shared" si="81"/>
-        <v>3731229</v>
+        <f t="shared" si="84"/>
+        <v>70401</v>
       </c>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
@@ -12071,33 +12181,33 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B118" s="9">
-        <v>3730807</v>
+        <v>3731069</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D118" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E118" s="9">
         <v>0</v>
       </c>
       <c r="F118" s="9">
-        <f t="shared" si="79"/>
-        <v>3730807</v>
+        <f t="shared" si="82"/>
+        <v>3731069</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118" s="9">
-        <f t="shared" si="80"/>
-        <v>3730807</v>
+        <f t="shared" si="83"/>
+        <v>3731069</v>
       </c>
       <c r="I118" s="9">
-        <f t="shared" si="81"/>
-        <v>3730647</v>
+        <f t="shared" si="84"/>
+        <v>3731229</v>
       </c>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -12119,33 +12229,33 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="26" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B119" s="9">
-        <v>1647934</v>
+        <v>3730807</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D119" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
+        <f t="shared" si="81"/>
+        <v>-1</v>
       </c>
       <c r="E119" s="9">
         <v>0</v>
       </c>
       <c r="F119" s="9">
-        <f t="shared" si="79"/>
-        <v>1647934</v>
+        <f t="shared" si="82"/>
+        <v>3730807</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9">
-        <f t="shared" si="80"/>
-        <v>1647934</v>
+        <f t="shared" si="83"/>
+        <v>3730807</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" si="81"/>
-        <v>1648094</v>
+        <f t="shared" si="84"/>
+        <v>3730647</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
@@ -12167,33 +12277,33 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="26" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="B120" s="9">
-        <v>1647876</v>
+        <v>1647934</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D120" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E120" s="9">
         <v>0</v>
       </c>
       <c r="F120" s="9">
-        <f t="shared" si="79"/>
-        <v>1647876</v>
+        <f t="shared" si="82"/>
+        <v>1647934</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9">
-        <f t="shared" si="80"/>
-        <v>1647876</v>
+        <f t="shared" si="83"/>
+        <v>1647934</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="81"/>
-        <v>1647716</v>
+        <f t="shared" si="84"/>
+        <v>1648094</v>
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -12215,33 +12325,33 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="26" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="B121" s="9">
-        <v>1649597</v>
+        <v>1647876</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D121" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
+        <f t="shared" si="81"/>
+        <v>-1</v>
       </c>
       <c r="E121" s="9">
         <v>0</v>
       </c>
       <c r="F121" s="9">
-        <f t="shared" si="79"/>
-        <v>1649597</v>
+        <f t="shared" si="82"/>
+        <v>1647876</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9">
-        <f t="shared" si="80"/>
-        <v>1649597</v>
+        <f t="shared" si="83"/>
+        <v>1647876</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="81"/>
-        <v>1649757</v>
+        <f t="shared" si="84"/>
+        <v>1647716</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
@@ -12263,33 +12373,33 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="26" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B122" s="9">
-        <v>3536707</v>
+        <v>1649597</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D122" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E122" s="9">
         <v>0</v>
       </c>
       <c r="F122" s="9">
-        <f t="shared" si="79"/>
-        <v>3536707</v>
+        <f t="shared" si="82"/>
+        <v>1649597</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9">
-        <f t="shared" si="80"/>
-        <v>3536707</v>
+        <f t="shared" si="83"/>
+        <v>1649597</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" si="81"/>
-        <v>3536547</v>
+        <f t="shared" si="84"/>
+        <v>1649757</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -12311,33 +12421,33 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="26" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B123" s="9">
-        <v>2524910</v>
+        <v>3536707</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D123" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E123" s="9">
         <v>0</v>
       </c>
       <c r="F123" s="9">
-        <f t="shared" si="79"/>
-        <v>2524910</v>
+        <f t="shared" si="82"/>
+        <v>3536707</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9">
-        <f t="shared" si="80"/>
-        <v>2524910</v>
+        <f t="shared" si="83"/>
+        <v>3536707</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="81"/>
-        <v>2524750</v>
+        <f t="shared" si="84"/>
+        <v>3536547</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
@@ -12359,33 +12469,33 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="26" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B124" s="9">
-        <v>3957912</v>
+        <v>2524910</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D124" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
+        <f t="shared" si="81"/>
+        <v>-1</v>
       </c>
       <c r="E124" s="9">
         <v>0</v>
       </c>
       <c r="F124" s="9">
-        <f t="shared" si="79"/>
-        <v>3957912</v>
+        <f t="shared" si="82"/>
+        <v>2524910</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9">
-        <f t="shared" si="80"/>
-        <v>3957912</v>
+        <f t="shared" si="83"/>
+        <v>2524910</v>
       </c>
       <c r="I124" s="9">
-        <f t="shared" si="81"/>
-        <v>3958072</v>
+        <f t="shared" si="84"/>
+        <v>2524750</v>
       </c>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -12407,33 +12517,33 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B125" s="9">
-        <v>3927129</v>
+        <v>3957912</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D125" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E125" s="9">
         <v>0</v>
       </c>
       <c r="F125" s="9">
-        <f t="shared" si="79"/>
-        <v>3927129</v>
+        <f t="shared" si="82"/>
+        <v>3957912</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9">
-        <f t="shared" si="80"/>
-        <v>3927129</v>
+        <f t="shared" si="83"/>
+        <v>3957912</v>
       </c>
       <c r="I125" s="9">
-        <f t="shared" si="81"/>
-        <v>3927289</v>
+        <f t="shared" si="84"/>
+        <v>3958072</v>
       </c>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
@@ -12455,33 +12565,33 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="26" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B126" s="9">
-        <v>4494597</v>
+        <v>3927129</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D126" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E126" s="9">
         <v>0</v>
       </c>
       <c r="F126" s="9">
-        <f t="shared" si="79"/>
-        <v>4494597</v>
+        <f t="shared" si="82"/>
+        <v>3927129</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9">
-        <f t="shared" si="80"/>
-        <v>4494597</v>
+        <f t="shared" si="83"/>
+        <v>3927129</v>
       </c>
       <c r="I126" s="9">
-        <f t="shared" si="81"/>
-        <v>4494757</v>
+        <f t="shared" si="84"/>
+        <v>3927289</v>
       </c>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -12503,33 +12613,33 @@
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B127" s="9">
-        <v>246533</v>
+        <v>4494597</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D127" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E127" s="9">
         <v>0</v>
       </c>
       <c r="F127" s="9">
-        <f t="shared" si="79"/>
-        <v>246533</v>
+        <f t="shared" si="82"/>
+        <v>4494597</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9">
-        <f t="shared" si="80"/>
-        <v>246533</v>
+        <f t="shared" si="83"/>
+        <v>4494597</v>
       </c>
       <c r="I127" s="9">
-        <f t="shared" si="81"/>
-        <v>246373</v>
+        <f t="shared" si="84"/>
+        <v>4494757</v>
       </c>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
@@ -12551,33 +12661,33 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="26" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B128" s="9">
-        <v>4591367</v>
+        <v>246533</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D128" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E128" s="9">
         <v>0</v>
       </c>
       <c r="F128" s="9">
-        <f t="shared" si="79"/>
-        <v>4591367</v>
+        <f t="shared" si="82"/>
+        <v>246533</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9">
-        <f t="shared" si="80"/>
-        <v>4591367</v>
+        <f t="shared" si="83"/>
+        <v>246533</v>
       </c>
       <c r="I128" s="9">
-        <f t="shared" si="81"/>
-        <v>4591207</v>
+        <f t="shared" si="84"/>
+        <v>246373</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -12599,33 +12709,33 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B129" s="9">
-        <v>1977302</v>
+        <v>4591367</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D129" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E129" s="9">
         <v>0</v>
       </c>
       <c r="F129" s="9">
-        <f t="shared" si="79"/>
-        <v>1977302</v>
+        <f t="shared" si="82"/>
+        <v>4591367</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9">
-        <f t="shared" si="80"/>
-        <v>1977302</v>
+        <f t="shared" si="83"/>
+        <v>4591367</v>
       </c>
       <c r="I129" s="9">
-        <f t="shared" si="81"/>
-        <v>1977142</v>
+        <f t="shared" si="84"/>
+        <v>4591207</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
@@ -12647,33 +12757,33 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="26" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B130" s="9">
-        <v>933138</v>
+        <v>1977302</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D130" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
+        <f t="shared" si="81"/>
+        <v>-1</v>
       </c>
       <c r="E130" s="9">
         <v>0</v>
       </c>
       <c r="F130" s="9">
-        <f t="shared" si="79"/>
-        <v>933138</v>
+        <f t="shared" si="82"/>
+        <v>1977302</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9">
-        <f t="shared" si="80"/>
-        <v>933138</v>
+        <f t="shared" si="83"/>
+        <v>1977302</v>
       </c>
       <c r="I130" s="9">
-        <f t="shared" si="81"/>
-        <v>933298</v>
+        <f t="shared" si="84"/>
+        <v>1977142</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -12695,33 +12805,33 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="26" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B131" s="9">
-        <v>87969</v>
+        <v>933138</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E131" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F131" s="9">
-        <f t="shared" si="79"/>
-        <v>87991</v>
+        <f t="shared" si="82"/>
+        <v>933138</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9">
-        <f t="shared" si="80"/>
-        <v>87991</v>
+        <f t="shared" si="83"/>
+        <v>933138</v>
       </c>
       <c r="I131" s="9">
-        <f t="shared" si="81"/>
-        <v>88151</v>
+        <f t="shared" si="84"/>
+        <v>933298</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
@@ -12743,33 +12853,33 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="26" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B132" s="9">
-        <v>3997907</v>
+        <v>87969</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D132" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E132" s="9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F132" s="9">
-        <f t="shared" si="79"/>
-        <v>3997907</v>
+        <f t="shared" si="82"/>
+        <v>87991</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9">
-        <f t="shared" si="80"/>
-        <v>3997907</v>
+        <f t="shared" si="83"/>
+        <v>87991</v>
       </c>
       <c r="I132" s="9">
-        <f t="shared" si="81"/>
-        <v>3998067</v>
+        <f t="shared" si="84"/>
+        <v>88151</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -12791,33 +12901,33 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="26" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B133" s="9">
-        <v>4338042</v>
+        <v>3997907</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D133" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E133" s="9">
         <v>0</v>
       </c>
       <c r="F133" s="9">
-        <f t="shared" si="79"/>
-        <v>4338042</v>
+        <f t="shared" si="82"/>
+        <v>3997907</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9">
-        <f t="shared" si="80"/>
-        <v>4338042</v>
+        <f t="shared" si="83"/>
+        <v>3997907</v>
       </c>
       <c r="I133" s="9">
-        <f t="shared" si="81"/>
-        <v>4337882</v>
+        <f t="shared" si="84"/>
+        <v>3998067</v>
       </c>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
@@ -12839,33 +12949,33 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" s="26" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B134" s="9">
-        <v>1942634</v>
+        <v>4338042</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D134" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
+        <f t="shared" si="81"/>
+        <v>-1</v>
       </c>
       <c r="E134" s="9">
         <v>0</v>
       </c>
       <c r="F134" s="9">
-        <f t="shared" si="79"/>
-        <v>1942634</v>
+        <f t="shared" si="82"/>
+        <v>4338042</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9">
-        <f t="shared" si="80"/>
-        <v>1942634</v>
+        <f t="shared" si="83"/>
+        <v>4338042</v>
       </c>
       <c r="I134" s="9">
-        <f t="shared" si="81"/>
-        <v>1942794</v>
+        <f t="shared" si="84"/>
+        <v>4337882</v>
       </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -12887,33 +12997,33 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B135" s="9">
-        <v>1942661</v>
+        <v>1942634</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D135" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E135" s="9">
         <v>0</v>
       </c>
       <c r="F135" s="9">
-        <f t="shared" si="79"/>
-        <v>1942661</v>
+        <f t="shared" si="82"/>
+        <v>1942634</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9">
-        <f t="shared" si="80"/>
-        <v>1942661</v>
+        <f t="shared" si="83"/>
+        <v>1942634</v>
       </c>
       <c r="I135" s="9">
-        <f t="shared" si="81"/>
-        <v>1942501</v>
+        <f t="shared" si="84"/>
+        <v>1942794</v>
       </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
@@ -12935,33 +13045,33 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" s="26" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B136" s="9">
-        <v>3182433</v>
+        <v>1942661</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D136" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
+        <f t="shared" si="81"/>
+        <v>-1</v>
       </c>
       <c r="E136" s="9">
         <v>0</v>
       </c>
       <c r="F136" s="9">
-        <f t="shared" si="79"/>
-        <v>3182433</v>
+        <f t="shared" si="82"/>
+        <v>1942661</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9">
-        <f t="shared" si="80"/>
-        <v>3182433</v>
+        <f t="shared" si="83"/>
+        <v>1942661</v>
       </c>
       <c r="I136" s="9">
-        <f t="shared" si="81"/>
-        <v>3182593</v>
+        <f t="shared" si="84"/>
+        <v>1942501</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -12983,33 +13093,33 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" s="26" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B137" s="9">
-        <v>3637612</v>
+        <v>3182433</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D137" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E137" s="9">
         <v>0</v>
       </c>
       <c r="F137" s="9">
-        <f t="shared" si="79"/>
-        <v>3637612</v>
+        <f t="shared" si="82"/>
+        <v>3182433</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9">
-        <f t="shared" si="80"/>
-        <v>3637612</v>
+        <f t="shared" si="83"/>
+        <v>3182433</v>
       </c>
       <c r="I137" s="9">
-        <f t="shared" si="81"/>
-        <v>3637772</v>
+        <f t="shared" si="84"/>
+        <v>3182593</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
@@ -13031,33 +13141,33 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" s="26" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B138" s="9">
-        <v>4376509</v>
+        <v>3637612</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="E138" s="9">
         <v>0</v>
       </c>
       <c r="F138" s="9">
-        <f t="shared" si="79"/>
-        <v>4376509</v>
+        <f t="shared" si="82"/>
+        <v>3637612</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9">
-        <f t="shared" si="80"/>
-        <v>4376509</v>
+        <f t="shared" si="83"/>
+        <v>3637612</v>
       </c>
       <c r="I138" s="9">
-        <f t="shared" si="81"/>
-        <v>4376669</v>
+        <f t="shared" si="84"/>
+        <v>3637772</v>
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -13079,33 +13189,33 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="26" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B139" s="9">
-        <v>83735</v>
+        <v>4376509</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D139" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E139" s="9">
         <v>0</v>
       </c>
       <c r="F139" s="9">
-        <f t="shared" si="79"/>
-        <v>83735</v>
+        <f t="shared" si="82"/>
+        <v>4376509</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9">
-        <f t="shared" si="80"/>
-        <v>83735</v>
+        <f t="shared" si="83"/>
+        <v>4376509</v>
       </c>
       <c r="I139" s="9">
-        <f t="shared" si="81"/>
-        <v>83575</v>
+        <f t="shared" si="84"/>
+        <v>4376669</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
@@ -13127,31 +13237,33 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="26" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B140" s="9">
-        <v>1645903</v>
+        <v>83735</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D140" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
-      <c r="E140" s="9"/>
+      <c r="E140" s="9">
+        <v>0</v>
+      </c>
       <c r="F140" s="9">
-        <f t="shared" si="79"/>
-        <v>1645903</v>
+        <f t="shared" si="82"/>
+        <v>83735</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9">
-        <f t="shared" si="80"/>
-        <v>1645903</v>
+        <f t="shared" si="83"/>
+        <v>83735</v>
       </c>
       <c r="I140" s="9">
-        <f t="shared" si="81"/>
-        <v>1645743</v>
+        <f t="shared" si="84"/>
+        <v>83575</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -13173,33 +13285,31 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B141" s="9">
-        <v>1619093</v>
+        <v>1645903</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D141" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="E141" s="9">
-        <v>-10</v>
-      </c>
+        <f t="shared" si="81"/>
+        <v>-1</v>
+      </c>
+      <c r="E141" s="9"/>
       <c r="F141" s="9">
-        <f t="shared" si="79"/>
-        <v>1619083</v>
+        <f t="shared" si="82"/>
+        <v>1645903</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9">
-        <f t="shared" si="80"/>
-        <v>1619083</v>
+        <f t="shared" si="83"/>
+        <v>1645903</v>
       </c>
       <c r="I141" s="9">
-        <f t="shared" si="81"/>
-        <v>1619243</v>
+        <f t="shared" si="84"/>
+        <v>1645743</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
@@ -13221,33 +13331,33 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142" s="9">
-        <v>4326836</v>
+        <v>1619093</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D142" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E142" s="9">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F142" s="9">
-        <f t="shared" si="79"/>
-        <v>4326836</v>
+        <f t="shared" si="82"/>
+        <v>1619083</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9">
-        <f t="shared" si="80"/>
-        <v>4326836</v>
+        <f t="shared" si="83"/>
+        <v>1619083</v>
       </c>
       <c r="I142" s="9">
-        <f t="shared" si="81"/>
-        <v>4326676</v>
+        <f t="shared" si="84"/>
+        <v>1619243</v>
       </c>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -13269,33 +13379,33 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B143" s="9">
-        <v>2032352</v>
+        <v>4326836</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D143" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E143" s="9">
         <v>0</v>
       </c>
       <c r="F143" s="9">
-        <f t="shared" si="79"/>
-        <v>2032352</v>
+        <f t="shared" si="82"/>
+        <v>4326836</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9">
-        <f t="shared" si="80"/>
-        <v>2032352</v>
+        <f t="shared" si="83"/>
+        <v>4326836</v>
       </c>
       <c r="I143" s="9">
-        <f t="shared" si="81"/>
-        <v>2032192</v>
+        <f t="shared" si="84"/>
+        <v>4326676</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
@@ -13317,33 +13427,33 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B144" s="9">
-        <v>2949066</v>
+        <v>2032352</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D144" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E144" s="9">
         <v>0</v>
       </c>
       <c r="F144" s="9">
-        <f t="shared" si="79"/>
-        <v>2949066</v>
+        <f t="shared" si="82"/>
+        <v>2032352</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="9">
-        <f t="shared" si="80"/>
-        <v>2949066</v>
+        <f t="shared" si="83"/>
+        <v>2032352</v>
       </c>
       <c r="I144" s="9">
-        <f t="shared" si="81"/>
-        <v>2948906</v>
+        <f t="shared" si="84"/>
+        <v>2032192</v>
       </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -13365,33 +13475,33 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="9">
-        <v>3811175</v>
+        <v>2949066</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D145" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E145" s="9">
         <v>0</v>
       </c>
       <c r="F145" s="9">
-        <f t="shared" si="79"/>
-        <v>3811175</v>
+        <f t="shared" si="82"/>
+        <v>2949066</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9">
-        <f t="shared" si="80"/>
-        <v>3811175</v>
+        <f t="shared" si="83"/>
+        <v>2949066</v>
       </c>
       <c r="I145" s="9">
-        <f t="shared" si="81"/>
-        <v>3811015</v>
+        <f t="shared" si="84"/>
+        <v>2948906</v>
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
@@ -13413,33 +13523,33 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B146" s="9">
-        <v>919103</v>
+        <v>3811175</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D146" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="E146" s="9">
         <v>0</v>
       </c>
       <c r="F146" s="9">
-        <f t="shared" si="79"/>
-        <v>919103</v>
+        <f t="shared" si="82"/>
+        <v>3811175</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9">
-        <f t="shared" si="80"/>
-        <v>919103</v>
+        <f t="shared" si="83"/>
+        <v>3811175</v>
       </c>
       <c r="I146" s="9">
-        <f t="shared" si="81"/>
-        <v>918943</v>
+        <f t="shared" si="84"/>
+        <v>3811015</v>
       </c>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -13461,33 +13571,33 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B147" s="9">
-        <v>830783</v>
+        <v>919103</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D147" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
+        <f t="shared" si="81"/>
+        <v>-1</v>
       </c>
       <c r="E147" s="9">
         <v>0</v>
       </c>
       <c r="F147" s="9">
-        <f t="shared" si="79"/>
-        <v>830783</v>
+        <f t="shared" si="82"/>
+        <v>919103</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9">
-        <f t="shared" si="80"/>
-        <v>830783</v>
+        <f t="shared" si="83"/>
+        <v>919103</v>
       </c>
       <c r="I147" s="9">
-        <f t="shared" si="81"/>
-        <v>830943</v>
+        <f t="shared" si="84"/>
+        <v>918943</v>
       </c>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
@@ -13508,28 +13618,34 @@
       <c r="Z147" s="9"/>
     </row>
     <row r="148" spans="1:26">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
+      <c r="A148" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148" s="9">
+        <v>830783</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D148" s="9">
-        <f t="shared" si="78"/>
-        <v>-1</v>
+        <f t="shared" si="81"/>
+        <v>1</v>
       </c>
       <c r="E148" s="9">
         <v>0</v>
       </c>
       <c r="F148" s="9">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="82"/>
+        <v>830783</v>
       </c>
       <c r="G148" s="9"/>
       <c r="H148" s="9">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <f t="shared" si="83"/>
+        <v>830783</v>
       </c>
       <c r="I148" s="9">
-        <f t="shared" si="81"/>
-        <v>-160</v>
+        <f t="shared" si="84"/>
+        <v>830943</v>
       </c>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
@@ -13549,11 +13665,49 @@
       <c r="Y148" s="9"/>
       <c r="Z148" s="9"/>
     </row>
+    <row r="149" spans="1:26">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+      <c r="R149" s="9"/>
+      <c r="S149" s="9"/>
+      <c r="T149" s="9"/>
+      <c r="U149" s="9"/>
+      <c r="V149" s="9"/>
+      <c r="W149" s="9"/>
+      <c r="X149" s="9"/>
+      <c r="Y149" s="9"/>
+      <c r="Z149" s="9"/>
+    </row>
+    <row r="154" spans="1:26">
+      <c r="A154">
+        <f>COUNTA(_xlfn.UNIQUE(A2:A148))</f>
+        <v>111</v>
+      </c>
+      <c r="B154">
+        <f>COUNTA(_xlfn.UNIQUE(J1:J148))</f>
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I95 P29 H49" formula="1"/>
+    <ignoredError sqref="I96 P29 H49" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE241DE-FEE9-3641-BF44-E4E7863DCFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F6C40-3347-4440-BAB6-B529F1247552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="412">
   <si>
     <t>Operon</t>
   </si>
@@ -1226,13 +1226,61 @@
   </si>
   <si>
     <t>CGGTAGCAACTTGCAGGGGGCGCAGCGCTGGGCGCAAACCAATACTCCGGTGCGCGATCGCAATAAACGGAGTTTTTGGTTGTCGGCAGCCCGCAGTGCGTTGTTTAATCAGATTGTTGCTGAGCGCCTCAAAAAAGCAGACGTTAATCAAGTTGTTGAC</t>
+  </si>
+  <si>
+    <t>CGGCGGAGCTGTTAAAGGCTGGTAATTTTTAGGCTGTTTCCACAATTTGTAATATCATTCAGGACGGGCGCTTGCCCGTCTTGTCATTTTTACAAGCTCCTGATTCAATATTGACGTTTTGATCATACATTGAGGAAATACTATGCGTGCTTTACCGATC</t>
+  </si>
+  <si>
+    <t>219,591 &lt;- 219,995</t>
+  </si>
+  <si>
+    <t>CTGTTTCCACAATTTGTAATATCATTCAGGACGGGCGCTTG</t>
+  </si>
+  <si>
+    <t>2,082,756 -&gt; 2,084,183</t>
+  </si>
+  <si>
+    <t>cactcgctgccaaattgtggcgctaaagctgattagcacggtgatatttgatactctggcAgacagcagaaataacggatt</t>
+  </si>
+  <si>
+    <t>AAAGTGCAAGAAAATGTGACTACCCTCTCATTTTTATCTGACATGATCTGTTGCCACTCGCTGCCAAATTGTGGCGCTAAAGCTGATTAGCACGGTGATATTTGATACTCTGGCAGACAGCAGAAATAACGGATTTAACCTAATGATGAATGACGGTAAG</t>
+  </si>
+  <si>
+    <t>AGACAGCAGAAATAACGGATTTAACCTAA</t>
+  </si>
+  <si>
+    <t>GGCAGACAGCAGAAATAACGGATTTA</t>
+  </si>
+  <si>
+    <t>CTACCCTCTCATTTTTAT</t>
+  </si>
+  <si>
+    <t>tgggattattacgcatcaggatgggaaatagggtaaaaagtcaggaagttcgatacctctAcagcgaatattttgctgatg</t>
+  </si>
+  <si>
+    <t>2,999,136 &lt;- 2,999,891</t>
+  </si>
+  <si>
+    <t>AATATTTTGCTGATGATACTTCCCTTTGCCAAATGAAATTAACCTCTTTCTCTATTACCACGTTTTTCCAGAAGCAAGAGATTGGGTATCAAGAGGCTGGCTGCTATGATAAGGCGTCTTGTTTTTTAAGCGAGGAAAGATTTTGAGTGCGGGACGCCTG</t>
+  </si>
+  <si>
+    <t>ACAGCGAATATTTTGCTGATGATACTTCCC</t>
+  </si>
+  <si>
+    <t>AATATTTTGCTGATG</t>
+  </si>
+  <si>
+    <t>CTCTTTCTCTATTACCACGTTTTTCC</t>
+  </si>
+  <si>
+    <t>TAAGCGAGGAAAGATTTT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1258,8 +1306,15 @@
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,6 +1411,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1369,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1504,6 +1565,15 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3581,11 +3651,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:Z154"/>
+  <dimension ref="A1:Z157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y76" sqref="Y76"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W84" sqref="W84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3954,14 +4024,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D97" si="3">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D100" si="3">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" ref="F5:F97" si="4">B5+D5*E5</f>
+        <f t="shared" ref="F5:F100" si="4">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="11">
@@ -6991,7 +7061,7 @@
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11">
-        <f t="shared" ref="H41:H94" si="25">F41-44</f>
+        <f t="shared" ref="H41:H97" si="25">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="11">
@@ -7322,7 +7392,7 @@
         <v>63314</v>
       </c>
       <c r="I45" s="11">
-        <f t="shared" ref="I45:I94" si="29">H45+159</f>
+        <f t="shared" ref="I45:I97" si="29">H45+159</f>
         <v>63473</v>
       </c>
       <c r="J45" s="11" t="s">
@@ -8505,11 +8575,11 @@
         <v>4122350</v>
       </c>
       <c r="U59" s="56">
-        <f t="shared" ref="U59:U95" si="49">S59-H59</f>
+        <f t="shared" ref="U59:U98" si="49">S59-H59</f>
         <v>17</v>
       </c>
       <c r="V59" s="56">
-        <f t="shared" ref="V59:V95" si="50">T59-H59</f>
+        <f t="shared" ref="V59:V98" si="50">T59-H59</f>
         <v>40</v>
       </c>
       <c r="W59" s="56" t="s">
@@ -9678,67 +9748,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="17">
-      <c r="A74" s="26" t="s">
+    <row r="74" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A74" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="11">
         <v>2870686</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="11">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="9">
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="4"/>
         <v>2870686</v>
       </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9">
+      <c r="G74" s="11"/>
+      <c r="H74" s="11">
         <f t="shared" si="25"/>
         <v>2870642</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="11">
         <f t="shared" si="29"/>
         <v>2870801</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="L74" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M74" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="N74" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="O74" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="P74" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q74" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="R74" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="S74" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="T74" s="9" t="s">
+      <c r="M74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T74" s="11" t="s">
         <v>158</v>
       </c>
       <c r="U74" s="11" t="s">
@@ -9747,376 +9817,541 @@
       <c r="V74" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="W74" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="X74" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26">
-      <c r="A75" s="26" t="s">
+      <c r="W74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="X74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A75" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="11">
         <v>220022</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="11">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75" s="9">
+      <c r="E75" s="11">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="4"/>
         <v>220022</v>
       </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9">
+      <c r="G75" s="11"/>
+      <c r="H75" s="11">
         <f t="shared" si="25"/>
         <v>219978</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="11">
         <f t="shared" si="29"/>
         <v>220137</v>
       </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
+      <c r="J75" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="K75" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q75" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="R75" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S75" s="11">
+        <f>T75-40</f>
+        <v>220064</v>
+      </c>
+      <c r="T75" s="11">
+        <v>220104</v>
+      </c>
       <c r="U75" s="11">
         <f t="shared" si="49"/>
-        <v>-219978</v>
+        <v>86</v>
       </c>
       <c r="V75" s="11">
         <f t="shared" si="50"/>
-        <v>-219978</v>
-      </c>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-    </row>
-    <row r="76" spans="1:26">
-      <c r="A76" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="W75" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="X75" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" s="63" customFormat="1" ht="17">
+      <c r="A76" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="61">
         <v>2082728</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="61">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
+      <c r="E76" s="61">
+        <v>0</v>
+      </c>
+      <c r="F76" s="61">
         <f t="shared" si="4"/>
         <v>2082728</v>
       </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9">
-        <f t="shared" si="25"/>
-        <v>2082684</v>
-      </c>
-      <c r="I76" s="9">
+      <c r="G76" s="61"/>
+      <c r="H76" s="61">
+        <v>2082614</v>
+      </c>
+      <c r="I76" s="61">
         <f t="shared" si="29"/>
-        <v>2082843</v>
-      </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="11">
+        <v>2082773</v>
+      </c>
+      <c r="J76" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="K76" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="L76" s="63">
+        <v>2082728</v>
+      </c>
+      <c r="N76" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="O76" s="61">
+        <v>2082728</v>
+      </c>
+      <c r="P76" s="61">
+        <v>2082756</v>
+      </c>
+      <c r="Q76" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="R76" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="S76" s="61">
+        <v>2082725</v>
+      </c>
+      <c r="T76" s="61">
+        <f>S76+25</f>
+        <v>2082750</v>
+      </c>
+      <c r="U76" s="61">
         <f t="shared" si="49"/>
-        <v>-2082684</v>
-      </c>
-      <c r="V76" s="11">
+        <v>111</v>
+      </c>
+      <c r="V76" s="61">
         <f t="shared" si="50"/>
-        <v>-2082684</v>
-      </c>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
-    </row>
-    <row r="77" spans="1:26">
-      <c r="A77" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="W76" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="X76" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y76" s="61"/>
+      <c r="Z76" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" s="63" customFormat="1" ht="17">
+      <c r="A77" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="61">
+        <v>2082728</v>
+      </c>
+      <c r="C77" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="61">
+        <f t="shared" ref="D77" si="78">IF(C77="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E77" s="61">
+        <v>0</v>
+      </c>
+      <c r="F77" s="61">
+        <f t="shared" ref="F77" si="79">B77+D77*E77</f>
+        <v>2082728</v>
+      </c>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61">
+        <v>2082614</v>
+      </c>
+      <c r="I77" s="61">
+        <f t="shared" ref="I77" si="80">H77+159</f>
+        <v>2082773</v>
+      </c>
+      <c r="J77" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="K77" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="L77" s="63">
+        <v>2082728</v>
+      </c>
+      <c r="N77" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="O77" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="P77" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q77" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="R77" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="S77" s="61">
+        <f>T77-17</f>
+        <v>2082633</v>
+      </c>
+      <c r="T77" s="61">
+        <v>2082650</v>
+      </c>
+      <c r="U77" s="61">
+        <f t="shared" ref="U77" si="81">S77-H77</f>
+        <v>19</v>
+      </c>
+      <c r="V77" s="61">
+        <f t="shared" ref="V77" si="82">T77-H77</f>
+        <v>36</v>
+      </c>
+      <c r="W77" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="X77" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y77" s="61"/>
+      <c r="Z77" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A78" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B78" s="11">
         <v>2999918</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="11">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="9">
+      <c r="E78" s="11">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="4"/>
         <v>2999918</v>
       </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9">
+      <c r="G78" s="11"/>
+      <c r="H78" s="11">
         <f t="shared" si="25"/>
         <v>2999874</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I78" s="11">
         <f t="shared" si="29"/>
         <v>3000033</v>
       </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="11">
+      <c r="J78" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="K78" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="L78" s="64">
+        <v>3000039</v>
+      </c>
+      <c r="M78" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="N78" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="O78" s="11">
+        <v>3000010</v>
+      </c>
+      <c r="P78" s="11">
+        <v>3000039</v>
+      </c>
+      <c r="Q78" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="R78" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="S78" s="11">
+        <v>3000019</v>
+      </c>
+      <c r="T78" s="11">
+        <v>3000033</v>
+      </c>
+      <c r="U78" s="11">
         <f t="shared" si="49"/>
-        <v>-2999874</v>
-      </c>
-      <c r="V77" s="11">
+        <v>145</v>
+      </c>
+      <c r="V78" s="11">
         <f t="shared" si="50"/>
-        <v>-2999874</v>
-      </c>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-    </row>
-    <row r="78" spans="1:26">
-      <c r="A78" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="W78" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="X78" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A79" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="11">
+        <v>2999918</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="11">
+        <f t="shared" ref="D79" si="83">IF(C79="fwd",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E79" s="11">
+        <v>0</v>
+      </c>
+      <c r="F79" s="11">
+        <f t="shared" ref="F79" si="84">B79+D79*E79</f>
+        <v>2999918</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11">
+        <f t="shared" ref="H79" si="85">F79-44</f>
+        <v>2999874</v>
+      </c>
+      <c r="I79" s="11">
+        <f t="shared" ref="I79" si="86">H79+159</f>
+        <v>3000033</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="K79" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="L79" s="64">
+        <v>3000039</v>
+      </c>
+      <c r="M79" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="N79" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="O79" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P79" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q79" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="R79" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S79" s="11">
+        <f>T79-25</f>
+        <v>2999965</v>
+      </c>
+      <c r="T79" s="11">
+        <v>2999990</v>
+      </c>
+      <c r="U79" s="11">
+        <f t="shared" ref="U79" si="87">S79-H79</f>
+        <v>91</v>
+      </c>
+      <c r="V79" s="11">
+        <f t="shared" ref="V79" si="88">T79-H79</f>
+        <v>116</v>
+      </c>
+      <c r="W79" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="X79" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A80" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="11">
+        <v>2999918</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="11">
+        <f t="shared" ref="D80" si="89">IF(C80="fwd",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E80" s="11">
+        <v>0</v>
+      </c>
+      <c r="F80" s="11">
+        <f t="shared" ref="F80" si="90">B80+D80*E80</f>
+        <v>2999918</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11">
+        <f t="shared" ref="H80" si="91">F80-44</f>
+        <v>2999874</v>
+      </c>
+      <c r="I80" s="11">
+        <f t="shared" ref="I80" si="92">H80+159</f>
+        <v>3000033</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="K80" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="L80" s="64">
+        <v>3000039</v>
+      </c>
+      <c r="M80" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="N80" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q80" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="R80" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S80" s="11">
+        <v>2999890</v>
+      </c>
+      <c r="T80" s="11">
+        <f>S80+17</f>
+        <v>2999907</v>
+      </c>
+      <c r="U80" s="11">
+        <f t="shared" ref="U80" si="93">S80-H80</f>
+        <v>16</v>
+      </c>
+      <c r="V80" s="11">
+        <f t="shared" ref="V80" si="94">T80-H80</f>
+        <v>33</v>
+      </c>
+      <c r="W80" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="X80" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B81" s="9">
         <v>486492</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D81" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78" s="9">
+      <c r="E81" s="9">
+        <v>0</v>
+      </c>
+      <c r="F81" s="9">
         <f t="shared" si="4"/>
         <v>486492</v>
-      </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9">
-        <f t="shared" si="25"/>
-        <v>486448</v>
-      </c>
-      <c r="I78" s="9">
-        <f t="shared" si="29"/>
-        <v>486607</v>
-      </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="11">
-        <f t="shared" si="49"/>
-        <v>-486448</v>
-      </c>
-      <c r="V78" s="11">
-        <f t="shared" si="50"/>
-        <v>-486448</v>
-      </c>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
-      <c r="Z78" s="9"/>
-    </row>
-    <row r="79" spans="1:26">
-      <c r="A79" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" s="9">
-        <v>3069871</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E79" s="9">
-        <v>0</v>
-      </c>
-      <c r="F79" s="9">
-        <f t="shared" si="4"/>
-        <v>3069871</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9">
-        <f t="shared" si="25"/>
-        <v>3069827</v>
-      </c>
-      <c r="I79" s="9">
-        <f t="shared" si="29"/>
-        <v>3069986</v>
-      </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="11">
-        <f t="shared" si="49"/>
-        <v>-3069827</v>
-      </c>
-      <c r="V79" s="11">
-        <f t="shared" si="50"/>
-        <v>-3069827</v>
-      </c>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="9"/>
-    </row>
-    <row r="80" spans="1:26">
-      <c r="A80" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="9">
-        <v>1395973</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D80" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
-        <f t="shared" si="4"/>
-        <v>1395973</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9">
-        <f t="shared" si="25"/>
-        <v>1395929</v>
-      </c>
-      <c r="I80" s="9">
-        <f t="shared" si="29"/>
-        <v>1396088</v>
-      </c>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="11">
-        <f t="shared" si="49"/>
-        <v>-1395929</v>
-      </c>
-      <c r="V80" s="11">
-        <f t="shared" si="50"/>
-        <v>-1395929</v>
-      </c>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-    </row>
-    <row r="81" spans="1:26">
-      <c r="A81" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="9">
-        <v>604684</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D81" s="9">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="F81" s="9">
-        <f t="shared" si="4"/>
-        <v>604684</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9">
         <f t="shared" si="25"/>
-        <v>604640</v>
+        <v>486448</v>
       </c>
       <c r="I81" s="9">
         <f t="shared" si="29"/>
-        <v>604799</v>
+        <v>486607</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
+      <c r="N81" s="26"/>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
@@ -10125,11 +10360,11 @@
       <c r="T81" s="9"/>
       <c r="U81" s="11">
         <f t="shared" si="49"/>
-        <v>-604640</v>
+        <v>-486448</v>
       </c>
       <c r="V81" s="11">
         <f t="shared" si="50"/>
-        <v>-604640</v>
+        <v>-486448</v>
       </c>
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
@@ -10138,39 +10373,39 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="26" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B82" s="9">
-        <v>1509221</v>
+        <v>3069871</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="4"/>
-        <v>1509221</v>
+        <v>3069871</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9">
         <f t="shared" si="25"/>
-        <v>1509177</v>
+        <v>3069827</v>
       </c>
       <c r="I82" s="9">
         <f t="shared" si="29"/>
-        <v>1509336</v>
+        <v>3069986</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
+      <c r="N82" s="26"/>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
@@ -10179,11 +10414,11 @@
       <c r="T82" s="9"/>
       <c r="U82" s="11">
         <f t="shared" si="49"/>
-        <v>-1509177</v>
+        <v>-3069827</v>
       </c>
       <c r="V82" s="11">
         <f t="shared" si="50"/>
-        <v>-1509177</v>
+        <v>-3069827</v>
       </c>
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
@@ -10192,10 +10427,10 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="26" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B83" s="9">
-        <v>3353049</v>
+        <v>1395973</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>118</v>
@@ -10209,22 +10444,22 @@
       </c>
       <c r="F83" s="9">
         <f t="shared" si="4"/>
-        <v>3353049</v>
+        <v>1395973</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9">
         <f t="shared" si="25"/>
-        <v>3353005</v>
+        <v>1395929</v>
       </c>
       <c r="I83" s="9">
         <f t="shared" si="29"/>
-        <v>3353164</v>
+        <v>1396088</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
+      <c r="N83" s="26"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
@@ -10233,11 +10468,11 @@
       <c r="T83" s="9"/>
       <c r="U83" s="11">
         <f t="shared" si="49"/>
-        <v>-3353005</v>
+        <v>-1395929</v>
       </c>
       <c r="V83" s="11">
         <f t="shared" si="50"/>
-        <v>-3353005</v>
+        <v>-1395929</v>
       </c>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
@@ -10246,10 +10481,10 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="26" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B84" s="9">
-        <v>1226139</v>
+        <v>604684</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>118</v>
@@ -10263,16 +10498,16 @@
       </c>
       <c r="F84" s="9">
         <f t="shared" si="4"/>
-        <v>1226139</v>
+        <v>604684</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9">
         <f t="shared" si="25"/>
-        <v>1226095</v>
+        <v>604640</v>
       </c>
       <c r="I84" s="9">
         <f t="shared" si="29"/>
-        <v>1226254</v>
+        <v>604799</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -10287,11 +10522,11 @@
       <c r="T84" s="9"/>
       <c r="U84" s="11">
         <f t="shared" si="49"/>
-        <v>-1226095</v>
+        <v>-604640</v>
       </c>
       <c r="V84" s="11">
         <f t="shared" si="50"/>
-        <v>-1226095</v>
+        <v>-604640</v>
       </c>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
@@ -10300,33 +10535,33 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="26" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B85" s="9">
-        <v>693469</v>
+        <v>1509221</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D85" s="9">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E85" s="9">
         <v>0</v>
       </c>
       <c r="F85" s="9">
         <f t="shared" si="4"/>
-        <v>693469</v>
+        <v>1509221</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9">
         <f t="shared" si="25"/>
-        <v>693425</v>
+        <v>1509177</v>
       </c>
       <c r="I85" s="9">
         <f t="shared" si="29"/>
-        <v>693584</v>
+        <v>1509336</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -10341,11 +10576,11 @@
       <c r="T85" s="9"/>
       <c r="U85" s="11">
         <f t="shared" si="49"/>
-        <v>-693425</v>
+        <v>-1509177</v>
       </c>
       <c r="V85" s="11">
         <f t="shared" si="50"/>
-        <v>-693425</v>
+        <v>-1509177</v>
       </c>
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
@@ -10354,10 +10589,10 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="26" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B86" s="9">
-        <v>1848700</v>
+        <v>3353049</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>118</v>
@@ -10371,16 +10606,16 @@
       </c>
       <c r="F86" s="9">
         <f t="shared" si="4"/>
-        <v>1848700</v>
+        <v>3353049</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9">
         <f t="shared" si="25"/>
-        <v>1848656</v>
+        <v>3353005</v>
       </c>
       <c r="I86" s="9">
         <f t="shared" si="29"/>
-        <v>1848815</v>
+        <v>3353164</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -10395,11 +10630,11 @@
       <c r="T86" s="9"/>
       <c r="U86" s="11">
         <f t="shared" si="49"/>
-        <v>-1848656</v>
+        <v>-3353005</v>
       </c>
       <c r="V86" s="11">
         <f t="shared" si="50"/>
-        <v>-1848656</v>
+        <v>-3353005</v>
       </c>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
@@ -10408,33 +10643,33 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="26" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B87" s="9">
-        <v>3096620</v>
+        <v>1226139</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E87" s="9">
         <v>0</v>
       </c>
       <c r="F87" s="9">
         <f t="shared" si="4"/>
-        <v>3096620</v>
+        <v>1226139</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9">
         <f t="shared" si="25"/>
-        <v>3096576</v>
+        <v>1226095</v>
       </c>
       <c r="I87" s="9">
         <f t="shared" si="29"/>
-        <v>3096735</v>
+        <v>1226254</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -10449,11 +10684,11 @@
       <c r="T87" s="9"/>
       <c r="U87" s="11">
         <f t="shared" si="49"/>
-        <v>-3096576</v>
+        <v>-1226095</v>
       </c>
       <c r="V87" s="11">
         <f t="shared" si="50"/>
-        <v>-3096576</v>
+        <v>-1226095</v>
       </c>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
@@ -10462,33 +10697,33 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="26" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B88" s="9">
-        <v>3403446</v>
+        <v>693469</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D88" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E88" s="9">
         <v>0</v>
       </c>
       <c r="F88" s="9">
         <f t="shared" si="4"/>
-        <v>3403446</v>
+        <v>693469</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9">
         <f t="shared" si="25"/>
-        <v>3403402</v>
+        <v>693425</v>
       </c>
       <c r="I88" s="9">
         <f t="shared" si="29"/>
-        <v>3403561</v>
+        <v>693584</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -10503,11 +10738,11 @@
       <c r="T88" s="9"/>
       <c r="U88" s="11">
         <f t="shared" si="49"/>
-        <v>-3403402</v>
+        <v>-693425</v>
       </c>
       <c r="V88" s="11">
         <f t="shared" si="50"/>
-        <v>-3403402</v>
+        <v>-693425</v>
       </c>
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
@@ -10516,10 +10751,10 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="26" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B89" s="9">
-        <v>2214673</v>
+        <v>1848700</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>118</v>
@@ -10533,16 +10768,16 @@
       </c>
       <c r="F89" s="9">
         <f t="shared" si="4"/>
-        <v>2214673</v>
+        <v>1848700</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9">
         <f t="shared" si="25"/>
-        <v>2214629</v>
+        <v>1848656</v>
       </c>
       <c r="I89" s="9">
         <f t="shared" si="29"/>
-        <v>2214788</v>
+        <v>1848815</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -10557,11 +10792,11 @@
       <c r="T89" s="9"/>
       <c r="U89" s="11">
         <f t="shared" si="49"/>
-        <v>-2214629</v>
+        <v>-1848656</v>
       </c>
       <c r="V89" s="11">
         <f t="shared" si="50"/>
-        <v>-2214629</v>
+        <v>-1848656</v>
       </c>
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
@@ -10570,33 +10805,33 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B90" s="9">
-        <v>2212969</v>
+        <v>3096620</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D90" s="9">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E90" s="9">
         <v>0</v>
       </c>
       <c r="F90" s="9">
         <f t="shared" si="4"/>
-        <v>2212969</v>
+        <v>3096620</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9">
         <f t="shared" si="25"/>
-        <v>2212925</v>
+        <v>3096576</v>
       </c>
       <c r="I90" s="9">
         <f t="shared" si="29"/>
-        <v>2213084</v>
+        <v>3096735</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -10611,11 +10846,11 @@
       <c r="T90" s="9"/>
       <c r="U90" s="11">
         <f t="shared" si="49"/>
-        <v>-2212925</v>
+        <v>-3096576</v>
       </c>
       <c r="V90" s="11">
         <f t="shared" si="50"/>
-        <v>-2212925</v>
+        <v>-3096576</v>
       </c>
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
@@ -10624,33 +10859,33 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="26" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B91" s="9">
-        <v>845736</v>
+        <v>3403446</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E91" s="9">
         <v>0</v>
       </c>
       <c r="F91" s="9">
         <f t="shared" si="4"/>
-        <v>845736</v>
+        <v>3403446</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9">
         <f t="shared" si="25"/>
-        <v>845692</v>
+        <v>3403402</v>
       </c>
       <c r="I91" s="9">
         <f t="shared" si="29"/>
-        <v>845851</v>
+        <v>3403561</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -10665,11 +10900,11 @@
       <c r="T91" s="9"/>
       <c r="U91" s="11">
         <f t="shared" si="49"/>
-        <v>-845692</v>
+        <v>-3403402</v>
       </c>
       <c r="V91" s="11">
         <f t="shared" si="50"/>
-        <v>-845692</v>
+        <v>-3403402</v>
       </c>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
@@ -10678,33 +10913,33 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="26" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B92" s="9">
-        <v>3438001</v>
+        <v>2214673</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D92" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E92" s="9">
         <v>0</v>
       </c>
       <c r="F92" s="9">
         <f t="shared" si="4"/>
-        <v>3438001</v>
+        <v>2214673</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9">
         <f t="shared" si="25"/>
-        <v>3437957</v>
+        <v>2214629</v>
       </c>
       <c r="I92" s="9">
         <f t="shared" si="29"/>
-        <v>3438116</v>
+        <v>2214788</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -10719,11 +10954,11 @@
       <c r="T92" s="9"/>
       <c r="U92" s="11">
         <f t="shared" si="49"/>
-        <v>-3437957</v>
+        <v>-2214629</v>
       </c>
       <c r="V92" s="11">
         <f t="shared" si="50"/>
-        <v>-3437957</v>
+        <v>-2214629</v>
       </c>
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
@@ -10732,33 +10967,33 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B93" s="9">
-        <v>4118427</v>
+        <v>2212969</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D93" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E93" s="9">
         <v>0</v>
       </c>
       <c r="F93" s="9">
         <f t="shared" si="4"/>
-        <v>4118427</v>
+        <v>2212969</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9">
         <f t="shared" si="25"/>
-        <v>4118383</v>
+        <v>2212925</v>
       </c>
       <c r="I93" s="9">
         <f t="shared" si="29"/>
-        <v>4118542</v>
+        <v>2213084</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -10773,11 +11008,11 @@
       <c r="T93" s="9"/>
       <c r="U93" s="11">
         <f t="shared" si="49"/>
-        <v>-4118383</v>
+        <v>-2212925</v>
       </c>
       <c r="V93" s="11">
         <f t="shared" si="50"/>
-        <v>-4118383</v>
+        <v>-2212925</v>
       </c>
       <c r="W93" s="9"/>
       <c r="X93" s="9"/>
@@ -10786,33 +11021,33 @@
     </row>
     <row r="94" spans="1:26">
       <c r="A94" s="26" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="B94" s="9">
-        <v>3808516</v>
+        <v>845736</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" si="4"/>
-        <v>3808516</v>
+        <v>845736</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9">
         <f t="shared" si="25"/>
-        <v>3808472</v>
+        <v>845692</v>
       </c>
       <c r="I94" s="9">
         <f t="shared" si="29"/>
-        <v>3808631</v>
+        <v>845851</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -10827,188 +11062,131 @@
       <c r="T94" s="9"/>
       <c r="U94" s="11">
         <f t="shared" si="49"/>
-        <v>-3808472</v>
+        <v>-845692</v>
       </c>
       <c r="V94" s="11">
         <f t="shared" si="50"/>
-        <v>-3808472</v>
+        <v>-845692</v>
       </c>
       <c r="W94" s="9"/>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
     </row>
-    <row r="95" spans="1:26" s="3" customFormat="1">
-      <c r="A95" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D95" s="11">
+    <row r="95" spans="1:26">
+      <c r="A95" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="9">
+        <v>3438001</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="9">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E95" s="11">
-        <v>0</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" ref="F95" si="78">B95+D95*E95</f>
-        <v>4175107</v>
-      </c>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11">
-        <v>4175063</v>
-      </c>
-      <c r="I95" s="11">
-        <f>H95+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J95" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L95" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="M95" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N95" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="O95" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="P95" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q95" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="R95" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="S95" s="11">
-        <v>4175143</v>
-      </c>
-      <c r="T95" s="11">
-        <f>4175175</f>
-        <v>4175175</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0</v>
+      </c>
+      <c r="F95" s="9">
+        <f t="shared" si="4"/>
+        <v>3438001</v>
+      </c>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9">
+        <f t="shared" si="25"/>
+        <v>3437957</v>
+      </c>
+      <c r="I95" s="9">
+        <f t="shared" si="29"/>
+        <v>3438116</v>
+      </c>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
       <c r="U95" s="11">
         <f t="shared" si="49"/>
-        <v>80</v>
+        <v>-3437957</v>
       </c>
       <c r="V95" s="11">
         <f t="shared" si="50"/>
-        <v>112</v>
-      </c>
-      <c r="W95" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="X95" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y95" s="11"/>
-      <c r="Z95" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" s="3" customFormat="1">
-      <c r="A96" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D96" s="11">
+        <v>-3437957</v>
+      </c>
+      <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
+      <c r="Y95" s="9"/>
+      <c r="Z95" s="9"/>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="9">
+        <v>4118427</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" s="9">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E96" s="11">
-        <v>0</v>
-      </c>
-      <c r="F96" s="11">
+        <v>1</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0</v>
+      </c>
+      <c r="F96" s="9">
         <f t="shared" si="4"/>
-        <v>4175107</v>
-      </c>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11">
-        <v>4175063</v>
-      </c>
-      <c r="I96" s="11">
-        <f>H96+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K96" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="L96" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="M96" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N96" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="O96" s="11">
-        <f>P96-20</f>
-        <v>4175087</v>
-      </c>
-      <c r="P96" s="11">
-        <v>4175107</v>
-      </c>
-      <c r="Q96" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="R96" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="S96" s="11">
-        <v>4175105</v>
-      </c>
-      <c r="T96" s="11">
-        <f>S96+84</f>
-        <v>4175189</v>
-      </c>
+        <v>4118427</v>
+      </c>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9">
+        <f t="shared" si="25"/>
+        <v>4118383</v>
+      </c>
+      <c r="I96" s="9">
+        <f t="shared" si="29"/>
+        <v>4118542</v>
+      </c>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
       <c r="U96" s="11">
-        <f t="shared" ref="U96:U113" si="79">S96-H96</f>
-        <v>42</v>
+        <f t="shared" si="49"/>
+        <v>-4118383</v>
       </c>
       <c r="V96" s="11">
-        <f t="shared" ref="V96:V113" si="80">T96-H96</f>
-        <v>126</v>
-      </c>
-      <c r="W96" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="X96" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y96" s="11"/>
-      <c r="Z96" s="11">
-        <v>0</v>
-      </c>
+        <f t="shared" si="50"/>
+        <v>-4118383</v>
+      </c>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="9"/>
+      <c r="Z96" s="9"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="26" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B97" s="9">
-        <v>4621716</v>
+        <v>3808516</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>108</v>
@@ -11022,16 +11200,16 @@
       </c>
       <c r="F97" s="9">
         <f t="shared" si="4"/>
-        <v>4621716</v>
+        <v>3808516</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9">
-        <f>F97</f>
-        <v>4621716</v>
+        <f t="shared" si="25"/>
+        <v>3808472</v>
       </c>
       <c r="I97" s="9">
-        <f>H97+D97*160</f>
-        <v>4621876</v>
+        <f t="shared" si="29"/>
+        <v>3808631</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -11045,155 +11223,212 @@
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
       <c r="U97" s="11">
-        <f t="shared" si="79"/>
-        <v>-4621716</v>
+        <f t="shared" si="49"/>
+        <v>-3808472</v>
       </c>
       <c r="V97" s="11">
-        <f t="shared" si="80"/>
-        <v>-4621716</v>
+        <f t="shared" si="50"/>
+        <v>-3808472</v>
       </c>
       <c r="W97" s="9"/>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
     </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98" s="9">
-        <v>4370616</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" s="9">
-        <f t="shared" ref="D98:D148" si="81">IF(C98="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98" s="9">
-        <f t="shared" ref="F98:F148" si="82">B98+D98*E98</f>
-        <v>4370616</v>
-      </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9">
-        <f t="shared" ref="H98:H148" si="83">F98</f>
-        <v>4370616</v>
-      </c>
-      <c r="I98" s="9">
-        <f t="shared" ref="I98:I148" si="84">H98+D98*160</f>
-        <v>4370776</v>
-      </c>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="9"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
+    <row r="98" spans="1:26" s="3" customFormat="1">
+      <c r="A98" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="11">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E98" s="11">
+        <v>0</v>
+      </c>
+      <c r="F98" s="11">
+        <f t="shared" ref="F98" si="95">B98+D98*E98</f>
+        <v>4175107</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11">
+        <v>4175063</v>
+      </c>
+      <c r="I98" s="11">
+        <f>H98+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L98" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O98" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P98" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q98" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="R98" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S98" s="11">
+        <v>4175143</v>
+      </c>
+      <c r="T98" s="11">
+        <f>4175175</f>
+        <v>4175175</v>
+      </c>
       <c r="U98" s="11">
-        <f t="shared" si="79"/>
-        <v>-4370616</v>
+        <f t="shared" si="49"/>
+        <v>80</v>
       </c>
       <c r="V98" s="11">
-        <f t="shared" si="80"/>
-        <v>-4370616</v>
-      </c>
-      <c r="W98" s="9"/>
-      <c r="X98" s="9"/>
-      <c r="Y98" s="9"/>
-      <c r="Z98" s="9"/>
-    </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99" s="9">
-        <v>4472553</v>
-      </c>
-      <c r="C99" s="9" t="s">
+        <f t="shared" si="50"/>
+        <v>112</v>
+      </c>
+      <c r="W98" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="X98" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y98" s="11"/>
+      <c r="Z98" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" s="3" customFormat="1">
+      <c r="A99" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D99" s="9">
-        <f t="shared" si="81"/>
+      <c r="D99" s="11">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E99" s="9">
-        <v>0</v>
-      </c>
-      <c r="F99" s="9">
-        <f t="shared" si="82"/>
-        <v>4472553</v>
-      </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9">
-        <f t="shared" si="83"/>
-        <v>4472553</v>
-      </c>
-      <c r="I99" s="9">
-        <f t="shared" si="84"/>
-        <v>4472393</v>
-      </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="9"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
+      <c r="E99" s="11">
+        <v>0</v>
+      </c>
+      <c r="F99" s="11">
+        <f t="shared" si="4"/>
+        <v>4175107</v>
+      </c>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11">
+        <v>4175063</v>
+      </c>
+      <c r="I99" s="11">
+        <f>H99+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L99" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O99" s="11">
+        <f>P99-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="P99" s="11">
+        <v>4175107</v>
+      </c>
+      <c r="Q99" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R99" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="S99" s="11">
+        <v>4175105</v>
+      </c>
+      <c r="T99" s="11">
+        <f>S99+84</f>
+        <v>4175189</v>
+      </c>
       <c r="U99" s="11">
-        <f t="shared" si="79"/>
-        <v>-4472553</v>
+        <f t="shared" ref="U99:U116" si="96">S99-H99</f>
+        <v>42</v>
       </c>
       <c r="V99" s="11">
-        <f t="shared" si="80"/>
-        <v>-4472553</v>
-      </c>
-      <c r="W99" s="9"/>
-      <c r="X99" s="9"/>
-      <c r="Y99" s="9"/>
-      <c r="Z99" s="9"/>
+        <f t="shared" ref="V99:V116" si="97">T99-H99</f>
+        <v>126</v>
+      </c>
+      <c r="W99" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="X99" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="26" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B100" s="9">
-        <v>4178354</v>
+        <v>4621716</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D100" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E100" s="9">
         <v>0</v>
       </c>
       <c r="F100" s="9">
-        <f t="shared" si="82"/>
-        <v>4178354</v>
+        <f t="shared" si="4"/>
+        <v>4621716</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9">
-        <f t="shared" si="83"/>
-        <v>4178354</v>
+        <f>F100</f>
+        <v>4621716</v>
       </c>
       <c r="I100" s="9">
-        <f t="shared" si="84"/>
-        <v>4178514</v>
+        <f>H100+D100*160</f>
+        <v>4621876</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -11207,12 +11442,12 @@
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="11">
-        <f t="shared" si="79"/>
-        <v>-4178354</v>
+        <f t="shared" si="96"/>
+        <v>-4621716</v>
       </c>
       <c r="V100" s="11">
-        <f t="shared" si="80"/>
-        <v>-4178354</v>
+        <f t="shared" si="97"/>
+        <v>-4621716</v>
       </c>
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
@@ -11221,33 +11456,33 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="26" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B101" s="9">
-        <v>2042294</v>
+        <v>4370616</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D101" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="D101:D151" si="98">IF(C101="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E101" s="9">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F101" s="9">
-        <f t="shared" si="82"/>
-        <v>2042280</v>
+        <f t="shared" ref="F101:F151" si="99">B101+D101*E101</f>
+        <v>4370616</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101" s="9">
-        <f t="shared" si="83"/>
-        <v>2042280</v>
+        <f t="shared" ref="H101:H151" si="100">F101</f>
+        <v>4370616</v>
       </c>
       <c r="I101" s="9">
-        <f t="shared" si="84"/>
-        <v>2042440</v>
+        <f t="shared" ref="I101:I151" si="101">H101+D101*160</f>
+        <v>4370776</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -11261,12 +11496,12 @@
       <c r="S101" s="9"/>
       <c r="T101" s="9"/>
       <c r="U101" s="11">
-        <f t="shared" si="79"/>
-        <v>-2042280</v>
+        <f t="shared" si="96"/>
+        <v>-4370616</v>
       </c>
       <c r="V101" s="11">
-        <f t="shared" si="80"/>
-        <v>-2042280</v>
+        <f t="shared" si="97"/>
+        <v>-4370616</v>
       </c>
       <c r="W101" s="9"/>
       <c r="X101" s="9"/>
@@ -11275,33 +11510,33 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B102" s="9">
-        <v>3922525</v>
+        <v>4472553</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D102" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="E102" s="9">
         <v>0</v>
       </c>
       <c r="F102" s="9">
-        <f t="shared" si="82"/>
-        <v>3922525</v>
+        <f t="shared" si="99"/>
+        <v>4472553</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9">
-        <f t="shared" si="83"/>
-        <v>3922525</v>
+        <f t="shared" si="100"/>
+        <v>4472553</v>
       </c>
       <c r="I102" s="9">
-        <f t="shared" si="84"/>
-        <v>3922365</v>
+        <f t="shared" si="101"/>
+        <v>4472393</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -11315,12 +11550,12 @@
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
       <c r="U102" s="11">
-        <f t="shared" si="79"/>
-        <v>-3922525</v>
+        <f t="shared" si="96"/>
+        <v>-4472553</v>
       </c>
       <c r="V102" s="11">
-        <f t="shared" si="80"/>
-        <v>-3922525</v>
+        <f t="shared" si="97"/>
+        <v>-4472553</v>
       </c>
       <c r="W102" s="9"/>
       <c r="X102" s="9"/>
@@ -11329,33 +11564,33 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B103" s="9">
-        <v>1114213</v>
+        <v>4178354</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D103" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E103" s="9">
         <v>0</v>
       </c>
       <c r="F103" s="9">
-        <f t="shared" si="82"/>
-        <v>1114213</v>
+        <f t="shared" si="99"/>
+        <v>4178354</v>
       </c>
       <c r="G103" s="9"/>
       <c r="H103" s="9">
-        <f t="shared" si="83"/>
-        <v>1114213</v>
+        <f t="shared" si="100"/>
+        <v>4178354</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" si="84"/>
-        <v>1114053</v>
+        <f t="shared" si="101"/>
+        <v>4178514</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -11369,12 +11604,12 @@
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
       <c r="U103" s="11">
-        <f t="shared" si="79"/>
-        <v>-1114213</v>
+        <f t="shared" si="96"/>
+        <v>-4178354</v>
       </c>
       <c r="V103" s="11">
-        <f t="shared" si="80"/>
-        <v>-1114213</v>
+        <f t="shared" si="97"/>
+        <v>-4178354</v>
       </c>
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
@@ -11383,33 +11618,33 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B104" s="9">
-        <v>2644913</v>
+        <v>2042294</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D104" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E104" s="9">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F104" s="9">
-        <f t="shared" si="82"/>
-        <v>2644913</v>
+        <f t="shared" si="99"/>
+        <v>2042280</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="9">
-        <f t="shared" si="83"/>
-        <v>2644913</v>
+        <f t="shared" si="100"/>
+        <v>2042280</v>
       </c>
       <c r="I104" s="9">
-        <f t="shared" si="84"/>
-        <v>2644753</v>
+        <f t="shared" si="101"/>
+        <v>2042440</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -11423,12 +11658,12 @@
       <c r="S104" s="9"/>
       <c r="T104" s="9"/>
       <c r="U104" s="11">
-        <f t="shared" si="79"/>
-        <v>-2644913</v>
+        <f t="shared" si="96"/>
+        <v>-2042280</v>
       </c>
       <c r="V104" s="11">
-        <f t="shared" si="80"/>
-        <v>-2644913</v>
+        <f t="shared" si="97"/>
+        <v>-2042280</v>
       </c>
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
@@ -11437,33 +11672,33 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="26" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B105" s="9">
-        <v>148</v>
+        <v>3922525</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D105" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E105" s="9">
         <v>0</v>
       </c>
       <c r="F105" s="9">
-        <f t="shared" si="82"/>
-        <v>148</v>
+        <f t="shared" si="99"/>
+        <v>3922525</v>
       </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9">
-        <f t="shared" si="83"/>
-        <v>148</v>
+        <f t="shared" si="100"/>
+        <v>3922525</v>
       </c>
       <c r="I105" s="9">
-        <f t="shared" si="84"/>
-        <v>308</v>
+        <f t="shared" si="101"/>
+        <v>3922365</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
@@ -11477,12 +11712,12 @@
       <c r="S105" s="9"/>
       <c r="T105" s="9"/>
       <c r="U105" s="11">
-        <f t="shared" si="79"/>
-        <v>-148</v>
+        <f t="shared" si="96"/>
+        <v>-3922525</v>
       </c>
       <c r="V105" s="11">
-        <f t="shared" si="80"/>
-        <v>-148</v>
+        <f t="shared" si="97"/>
+        <v>-3922525</v>
       </c>
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
@@ -11491,33 +11726,33 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="26" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="B106" s="9">
-        <v>454993</v>
+        <v>1114213</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D106" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E106" s="9">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F106" s="9">
-        <f t="shared" si="82"/>
-        <v>454864</v>
+        <f t="shared" si="99"/>
+        <v>1114213</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9">
-        <f t="shared" si="83"/>
-        <v>454864</v>
+        <f t="shared" si="100"/>
+        <v>1114213</v>
       </c>
       <c r="I106" s="9">
-        <f t="shared" si="84"/>
-        <v>455024</v>
+        <f t="shared" si="101"/>
+        <v>1114053</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -11531,12 +11766,12 @@
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
       <c r="U106" s="11">
-        <f t="shared" si="79"/>
-        <v>-454864</v>
+        <f t="shared" si="96"/>
+        <v>-1114213</v>
       </c>
       <c r="V106" s="11">
-        <f t="shared" si="80"/>
-        <v>-454864</v>
+        <f t="shared" si="97"/>
+        <v>-1114213</v>
       </c>
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
@@ -11545,33 +11780,33 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="9">
-        <v>189712</v>
+        <v>2644913</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D107" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E107" s="9">
         <v>0</v>
       </c>
       <c r="F107" s="9">
-        <f t="shared" si="82"/>
-        <v>189712</v>
+        <f t="shared" si="99"/>
+        <v>2644913</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107" s="9">
-        <f t="shared" si="83"/>
-        <v>189712</v>
+        <f t="shared" si="100"/>
+        <v>2644913</v>
       </c>
       <c r="I107" s="9">
-        <f t="shared" si="84"/>
-        <v>189872</v>
+        <f t="shared" si="101"/>
+        <v>2644753</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
@@ -11585,12 +11820,12 @@
       <c r="S107" s="9"/>
       <c r="T107" s="9"/>
       <c r="U107" s="11">
-        <f t="shared" si="79"/>
-        <v>-189712</v>
+        <f t="shared" si="96"/>
+        <v>-2644913</v>
       </c>
       <c r="V107" s="11">
-        <f t="shared" si="80"/>
-        <v>-189712</v>
+        <f t="shared" si="97"/>
+        <v>-2644913</v>
       </c>
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
@@ -11599,33 +11834,33 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="26" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B108" s="9">
-        <v>3948058</v>
+        <v>148</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="E108" s="9">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F108" s="9">
-        <f t="shared" si="82"/>
-        <v>3948030</v>
+        <f t="shared" si="99"/>
+        <v>148</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9">
-        <f t="shared" si="83"/>
-        <v>3948030</v>
+        <f t="shared" si="100"/>
+        <v>148</v>
       </c>
       <c r="I108" s="9">
-        <f t="shared" si="84"/>
-        <v>3948190</v>
+        <f t="shared" si="101"/>
+        <v>308</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -11639,12 +11874,12 @@
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
       <c r="U108" s="11">
-        <f t="shared" si="79"/>
-        <v>-3948030</v>
+        <f t="shared" si="96"/>
+        <v>-148</v>
       </c>
       <c r="V108" s="11">
-        <f t="shared" si="80"/>
-        <v>-3948030</v>
+        <f t="shared" si="97"/>
+        <v>-148</v>
       </c>
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
@@ -11653,33 +11888,33 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="26" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B109" s="9">
-        <v>911076</v>
+        <v>454993</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D109" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E109" s="9">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="F109" s="9">
-        <f t="shared" si="82"/>
-        <v>911076</v>
+        <f t="shared" si="99"/>
+        <v>454864</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9">
-        <f t="shared" si="83"/>
-        <v>911076</v>
+        <f t="shared" si="100"/>
+        <v>454864</v>
       </c>
       <c r="I109" s="9">
-        <f t="shared" si="84"/>
-        <v>910916</v>
+        <f t="shared" si="101"/>
+        <v>455024</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
@@ -11693,12 +11928,12 @@
       <c r="S109" s="9"/>
       <c r="T109" s="9"/>
       <c r="U109" s="11">
-        <f t="shared" si="79"/>
-        <v>-911076</v>
+        <f t="shared" si="96"/>
+        <v>-454864</v>
       </c>
       <c r="V109" s="11">
-        <f t="shared" si="80"/>
-        <v>-911076</v>
+        <f t="shared" si="97"/>
+        <v>-454864</v>
       </c>
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
@@ -11707,33 +11942,33 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="26" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B110" s="9">
-        <v>1655186</v>
+        <v>189712</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D110" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E110" s="9">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F110" s="9">
-        <f t="shared" si="82"/>
-        <v>1655231</v>
+        <f t="shared" si="99"/>
+        <v>189712</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9">
-        <f t="shared" si="83"/>
-        <v>1655231</v>
+        <f t="shared" si="100"/>
+        <v>189712</v>
       </c>
       <c r="I110" s="9">
-        <f t="shared" si="84"/>
-        <v>1655071</v>
+        <f t="shared" si="101"/>
+        <v>189872</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -11747,12 +11982,12 @@
       <c r="S110" s="9"/>
       <c r="T110" s="9"/>
       <c r="U110" s="11">
-        <f t="shared" si="79"/>
-        <v>-1655231</v>
+        <f t="shared" si="96"/>
+        <v>-189712</v>
       </c>
       <c r="V110" s="11">
-        <f t="shared" si="80"/>
-        <v>-1655231</v>
+        <f t="shared" si="97"/>
+        <v>-189712</v>
       </c>
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
@@ -11761,33 +11996,33 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="26" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B111" s="9">
-        <v>4390638</v>
+        <v>3948058</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D111" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E111" s="9">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F111" s="9">
-        <f t="shared" si="82"/>
-        <v>4390638</v>
+        <f t="shared" si="99"/>
+        <v>3948030</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9">
-        <f t="shared" si="83"/>
-        <v>4390638</v>
+        <f t="shared" si="100"/>
+        <v>3948030</v>
       </c>
       <c r="I111" s="9">
-        <f t="shared" si="84"/>
-        <v>4390478</v>
+        <f t="shared" si="101"/>
+        <v>3948190</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
@@ -11801,12 +12036,12 @@
       <c r="S111" s="9"/>
       <c r="T111" s="9"/>
       <c r="U111" s="11">
-        <f t="shared" si="79"/>
-        <v>-4390638</v>
+        <f t="shared" si="96"/>
+        <v>-3948030</v>
       </c>
       <c r="V111" s="11">
-        <f t="shared" si="80"/>
-        <v>-4390638</v>
+        <f t="shared" si="97"/>
+        <v>-3948030</v>
       </c>
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
@@ -11815,33 +12050,33 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="26" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B112" s="9">
-        <v>4640508</v>
+        <v>911076</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="E112" s="9">
         <v>0</v>
       </c>
       <c r="F112" s="9">
-        <f t="shared" si="82"/>
-        <v>4640508</v>
+        <f t="shared" si="99"/>
+        <v>911076</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9">
-        <f t="shared" si="83"/>
-        <v>4640508</v>
+        <f t="shared" si="100"/>
+        <v>911076</v>
       </c>
       <c r="I112" s="9">
-        <f t="shared" si="84"/>
-        <v>4640348</v>
+        <f t="shared" si="101"/>
+        <v>910916</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -11855,12 +12090,12 @@
       <c r="S112" s="9"/>
       <c r="T112" s="9"/>
       <c r="U112" s="11">
-        <f t="shared" si="79"/>
-        <v>-4640508</v>
+        <f t="shared" si="96"/>
+        <v>-911076</v>
       </c>
       <c r="V112" s="11">
-        <f t="shared" si="80"/>
-        <v>-4640508</v>
+        <f t="shared" si="97"/>
+        <v>-911076</v>
       </c>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
@@ -11869,33 +12104,33 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="26" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B113" s="9">
-        <v>1972716</v>
+        <v>1655186</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D113" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="E113" s="9">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F113" s="9">
-        <f t="shared" si="82"/>
-        <v>1972716</v>
+        <f t="shared" si="99"/>
+        <v>1655231</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9">
-        <f t="shared" si="83"/>
-        <v>1972716</v>
+        <f t="shared" si="100"/>
+        <v>1655231</v>
       </c>
       <c r="I113" s="9">
-        <f t="shared" si="84"/>
-        <v>1972556</v>
+        <f t="shared" si="101"/>
+        <v>1655071</v>
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
@@ -11909,209 +12144,155 @@
       <c r="S113" s="9"/>
       <c r="T113" s="9"/>
       <c r="U113" s="11">
-        <f t="shared" si="79"/>
-        <v>-1972716</v>
+        <f t="shared" si="96"/>
+        <v>-1655231</v>
       </c>
       <c r="V113" s="11">
-        <f t="shared" si="80"/>
-        <v>-1972716</v>
+        <f t="shared" si="97"/>
+        <v>-1655231</v>
       </c>
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
     </row>
-    <row r="114" spans="1:26" s="3" customFormat="1" ht="17">
-      <c r="A114" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B114" s="11">
-        <v>652172</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D114" s="11">
-        <f t="shared" si="81"/>
-        <v>1</v>
-      </c>
-      <c r="E114" s="11">
-        <v>0</v>
-      </c>
-      <c r="F114" s="11">
-        <f t="shared" ref="F114" si="85">B114+D114*E114</f>
-        <v>652172</v>
-      </c>
-      <c r="G114" s="11"/>
-      <c r="H114" s="27">
-        <v>652058</v>
-      </c>
-      <c r="I114" s="11">
-        <f>H114+D114*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J114" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K114" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L114" s="11">
-        <v>652172</v>
-      </c>
-      <c r="M114" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N114" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O114" s="11">
-        <v>652193</v>
-      </c>
-      <c r="P114" s="11">
-        <v>652199</v>
-      </c>
-      <c r="Q114" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="R114" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="S114" s="27">
-        <f>130+H114</f>
-        <v>652188</v>
-      </c>
-      <c r="T114" s="27">
-        <f>S114+30</f>
-        <v>652218</v>
-      </c>
+    <row r="114" spans="1:26">
+      <c r="A114" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" s="9">
+        <v>4390638</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" s="9">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="E114" s="9">
+        <v>0</v>
+      </c>
+      <c r="F114" s="9">
+        <f t="shared" si="99"/>
+        <v>4390638</v>
+      </c>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9">
+        <f t="shared" si="100"/>
+        <v>4390638</v>
+      </c>
+      <c r="I114" s="9">
+        <f t="shared" si="101"/>
+        <v>4390478</v>
+      </c>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
       <c r="U114" s="11">
-        <v>130</v>
+        <f t="shared" si="96"/>
+        <v>-4390638</v>
       </c>
       <c r="V114" s="11">
-        <v>160</v>
-      </c>
-      <c r="W114" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X114" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y114" s="11"/>
-      <c r="Z114" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" s="3" customFormat="1" ht="17">
-      <c r="A115" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B115" s="11">
-        <v>652172</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D115" s="11">
-        <f t="shared" si="81"/>
-        <v>1</v>
-      </c>
-      <c r="E115" s="11">
-        <v>0</v>
-      </c>
-      <c r="F115" s="11">
-        <f t="shared" si="82"/>
-        <v>652172</v>
-      </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="27">
-        <v>652058</v>
-      </c>
-      <c r="I115" s="11">
-        <f>H115+D115*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J115" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K115" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L115" s="11">
-        <v>652172</v>
-      </c>
-      <c r="M115" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N115" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O115" s="11">
-        <v>652118</v>
-      </c>
-      <c r="P115" s="11">
-        <v>652140</v>
-      </c>
-      <c r="Q115" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="R115" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="S115" s="27">
-        <f>60+H115</f>
-        <v>652118</v>
-      </c>
-      <c r="T115" s="27">
-        <f>S115+25</f>
-        <v>652143</v>
-      </c>
+        <f t="shared" si="97"/>
+        <v>-4390638</v>
+      </c>
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="9"/>
+      <c r="Z114" s="9"/>
+    </row>
+    <row r="115" spans="1:26">
+      <c r="A115" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="9">
+        <v>4640508</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="9">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="E115" s="9">
+        <v>0</v>
+      </c>
+      <c r="F115" s="9">
+        <f t="shared" si="99"/>
+        <v>4640508</v>
+      </c>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9">
+        <f t="shared" si="100"/>
+        <v>4640508</v>
+      </c>
+      <c r="I115" s="9">
+        <f t="shared" si="101"/>
+        <v>4640348</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
       <c r="U115" s="11">
-        <v>60</v>
+        <f t="shared" si="96"/>
+        <v>-4640508</v>
       </c>
       <c r="V115" s="11">
-        <v>85</v>
-      </c>
-      <c r="W115" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="X115" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y115" s="11"/>
-      <c r="Z115" s="11">
-        <v>0</v>
-      </c>
+        <f t="shared" si="97"/>
+        <v>-4640508</v>
+      </c>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
+      <c r="Z115" s="9"/>
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="26" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B116" s="9">
-        <v>70075</v>
+        <v>1972716</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D116" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="E116" s="9">
         <v>0</v>
       </c>
       <c r="F116" s="9">
-        <f t="shared" si="82"/>
-        <v>70075</v>
+        <f t="shared" si="99"/>
+        <v>1972716</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9">
-        <f t="shared" si="83"/>
-        <v>70075</v>
+        <f t="shared" si="100"/>
+        <v>1972716</v>
       </c>
       <c r="I116" s="9">
-        <f t="shared" si="84"/>
-        <v>69915</v>
+        <f t="shared" si="101"/>
+        <v>1972556</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -12124,138 +12305,210 @@
       <c r="R116" s="9"/>
       <c r="S116" s="9"/>
       <c r="T116" s="9"/>
-      <c r="U116" s="9"/>
-      <c r="V116" s="9"/>
+      <c r="U116" s="11">
+        <f t="shared" si="96"/>
+        <v>-1972716</v>
+      </c>
+      <c r="V116" s="11">
+        <f t="shared" si="97"/>
+        <v>-1972716</v>
+      </c>
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
     </row>
-    <row r="117" spans="1:26">
-      <c r="A117" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B117" s="9">
-        <v>70241</v>
-      </c>
-      <c r="C117" s="9" t="s">
+    <row r="117" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A117" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="11">
+        <v>652172</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D117" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
-      </c>
-      <c r="E117" s="9">
-        <v>0</v>
-      </c>
-      <c r="F117" s="9">
-        <f t="shared" si="82"/>
-        <v>70241</v>
-      </c>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9">
-        <f t="shared" si="83"/>
-        <v>70241</v>
-      </c>
-      <c r="I117" s="9">
-        <f t="shared" si="84"/>
-        <v>70401</v>
-      </c>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-      <c r="M117" s="9"/>
-      <c r="N117" s="9"/>
-      <c r="O117" s="9"/>
-      <c r="P117" s="9"/>
-      <c r="Q117" s="9"/>
-      <c r="R117" s="9"/>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
-      <c r="U117" s="9"/>
-      <c r="V117" s="9"/>
-      <c r="W117" s="9"/>
-      <c r="X117" s="9"/>
-      <c r="Y117" s="9"/>
-      <c r="Z117" s="9"/>
-    </row>
-    <row r="118" spans="1:26">
-      <c r="A118" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B118" s="9">
-        <v>3731069</v>
-      </c>
-      <c r="C118" s="9" t="s">
+      <c r="D117" s="11">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="11">
+        <v>0</v>
+      </c>
+      <c r="F117" s="11">
+        <f t="shared" ref="F117" si="102">B117+D117*E117</f>
+        <v>652172</v>
+      </c>
+      <c r="G117" s="11"/>
+      <c r="H117" s="27">
+        <v>652058</v>
+      </c>
+      <c r="I117" s="11">
+        <f>H117+D117*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L117" s="11">
+        <v>652172</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O117" s="11">
+        <v>652193</v>
+      </c>
+      <c r="P117" s="11">
+        <v>652199</v>
+      </c>
+      <c r="Q117" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="R117" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="S117" s="27">
+        <f>130+H117</f>
+        <v>652188</v>
+      </c>
+      <c r="T117" s="27">
+        <f>S117+30</f>
+        <v>652218</v>
+      </c>
+      <c r="U117" s="11">
+        <v>130</v>
+      </c>
+      <c r="V117" s="11">
+        <v>160</v>
+      </c>
+      <c r="W117" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="X117" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y117" s="11"/>
+      <c r="Z117" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" s="3" customFormat="1" ht="17">
+      <c r="A118" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="11">
+        <v>652172</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D118" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
-      </c>
-      <c r="E118" s="9">
-        <v>0</v>
-      </c>
-      <c r="F118" s="9">
-        <f t="shared" si="82"/>
-        <v>3731069</v>
-      </c>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9">
-        <f t="shared" si="83"/>
-        <v>3731069</v>
-      </c>
-      <c r="I118" s="9">
-        <f t="shared" si="84"/>
-        <v>3731229</v>
-      </c>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="9"/>
-      <c r="O118" s="9"/>
-      <c r="P118" s="9"/>
-      <c r="Q118" s="9"/>
-      <c r="R118" s="9"/>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
-      <c r="U118" s="9"/>
-      <c r="V118" s="9"/>
-      <c r="W118" s="9"/>
-      <c r="X118" s="9"/>
-      <c r="Y118" s="9"/>
-      <c r="Z118" s="9"/>
+      <c r="D118" s="11">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="11">
+        <v>0</v>
+      </c>
+      <c r="F118" s="11">
+        <f t="shared" si="99"/>
+        <v>652172</v>
+      </c>
+      <c r="G118" s="11"/>
+      <c r="H118" s="27">
+        <v>652058</v>
+      </c>
+      <c r="I118" s="11">
+        <f>H118+D118*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K118" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L118" s="11">
+        <v>652172</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O118" s="11">
+        <v>652118</v>
+      </c>
+      <c r="P118" s="11">
+        <v>652140</v>
+      </c>
+      <c r="Q118" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="R118" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="S118" s="27">
+        <f>60+H118</f>
+        <v>652118</v>
+      </c>
+      <c r="T118" s="27">
+        <f>S118+25</f>
+        <v>652143</v>
+      </c>
+      <c r="U118" s="11">
+        <v>60</v>
+      </c>
+      <c r="V118" s="11">
+        <v>85</v>
+      </c>
+      <c r="W118" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="X118" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y118" s="11"/>
+      <c r="Z118" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B119" s="9">
-        <v>3730807</v>
+        <v>70075</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D119" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="E119" s="9">
         <v>0</v>
       </c>
       <c r="F119" s="9">
-        <f t="shared" si="82"/>
-        <v>3730807</v>
+        <f t="shared" si="99"/>
+        <v>70075</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119" s="9">
-        <f t="shared" si="83"/>
-        <v>3730807</v>
+        <f t="shared" si="100"/>
+        <v>70075</v>
       </c>
       <c r="I119" s="9">
-        <f t="shared" si="84"/>
-        <v>3730647</v>
+        <f t="shared" si="101"/>
+        <v>69915</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
@@ -12277,33 +12530,33 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="26" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="B120" s="9">
-        <v>1647934</v>
+        <v>70241</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D120" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="E120" s="9">
         <v>0</v>
       </c>
       <c r="F120" s="9">
-        <f t="shared" si="82"/>
-        <v>1647934</v>
+        <f t="shared" si="99"/>
+        <v>70241</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120" s="9">
-        <f t="shared" si="83"/>
-        <v>1647934</v>
+        <f t="shared" si="100"/>
+        <v>70241</v>
       </c>
       <c r="I120" s="9">
-        <f t="shared" si="84"/>
-        <v>1648094</v>
+        <f t="shared" si="101"/>
+        <v>70401</v>
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -12325,33 +12578,33 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="26" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B121" s="9">
-        <v>1647876</v>
+        <v>3731069</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D121" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E121" s="9">
         <v>0</v>
       </c>
       <c r="F121" s="9">
-        <f t="shared" si="82"/>
-        <v>1647876</v>
+        <f t="shared" si="99"/>
+        <v>3731069</v>
       </c>
       <c r="G121" s="9"/>
       <c r="H121" s="9">
-        <f t="shared" si="83"/>
-        <v>1647876</v>
+        <f t="shared" si="100"/>
+        <v>3731069</v>
       </c>
       <c r="I121" s="9">
-        <f t="shared" si="84"/>
-        <v>1647716</v>
+        <f t="shared" si="101"/>
+        <v>3731229</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
@@ -12373,33 +12626,33 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="26" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B122" s="9">
-        <v>1649597</v>
+        <v>3730807</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D122" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E122" s="9">
         <v>0</v>
       </c>
       <c r="F122" s="9">
-        <f t="shared" si="82"/>
-        <v>1649597</v>
+        <f t="shared" si="99"/>
+        <v>3730807</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122" s="9">
-        <f t="shared" si="83"/>
-        <v>1649597</v>
+        <f t="shared" si="100"/>
+        <v>3730807</v>
       </c>
       <c r="I122" s="9">
-        <f t="shared" si="84"/>
-        <v>1649757</v>
+        <f t="shared" si="101"/>
+        <v>3730647</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -12421,33 +12674,33 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="26" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B123" s="9">
-        <v>3536707</v>
+        <v>1647934</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D123" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E123" s="9">
         <v>0</v>
       </c>
       <c r="F123" s="9">
-        <f t="shared" si="82"/>
-        <v>3536707</v>
+        <f t="shared" si="99"/>
+        <v>1647934</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="9">
-        <f t="shared" si="83"/>
-        <v>3536707</v>
+        <f t="shared" si="100"/>
+        <v>1647934</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="84"/>
-        <v>3536547</v>
+        <f t="shared" si="101"/>
+        <v>1648094</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
@@ -12469,33 +12722,33 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="26" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B124" s="9">
-        <v>2524910</v>
+        <v>1647876</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D124" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="E124" s="9">
         <v>0</v>
       </c>
       <c r="F124" s="9">
-        <f t="shared" si="82"/>
-        <v>2524910</v>
+        <f t="shared" si="99"/>
+        <v>1647876</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124" s="9">
-        <f t="shared" si="83"/>
-        <v>2524910</v>
+        <f t="shared" si="100"/>
+        <v>1647876</v>
       </c>
       <c r="I124" s="9">
-        <f t="shared" si="84"/>
-        <v>2524750</v>
+        <f t="shared" si="101"/>
+        <v>1647716</v>
       </c>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -12517,33 +12770,33 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="26" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="B125" s="9">
-        <v>3957912</v>
+        <v>1649597</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D125" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="E125" s="9">
         <v>0</v>
       </c>
       <c r="F125" s="9">
-        <f t="shared" si="82"/>
-        <v>3957912</v>
+        <f t="shared" si="99"/>
+        <v>1649597</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125" s="9">
-        <f t="shared" si="83"/>
-        <v>3957912</v>
+        <f t="shared" si="100"/>
+        <v>1649597</v>
       </c>
       <c r="I125" s="9">
-        <f t="shared" si="84"/>
-        <v>3958072</v>
+        <f t="shared" si="101"/>
+        <v>1649757</v>
       </c>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
@@ -12565,33 +12818,33 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="26" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B126" s="9">
-        <v>3927129</v>
+        <v>3536707</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D126" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E126" s="9">
         <v>0</v>
       </c>
       <c r="F126" s="9">
-        <f t="shared" si="82"/>
-        <v>3927129</v>
+        <f t="shared" si="99"/>
+        <v>3536707</v>
       </c>
       <c r="G126" s="9"/>
       <c r="H126" s="9">
-        <f t="shared" si="83"/>
-        <v>3927129</v>
+        <f t="shared" si="100"/>
+        <v>3536707</v>
       </c>
       <c r="I126" s="9">
-        <f t="shared" si="84"/>
-        <v>3927289</v>
+        <f t="shared" si="101"/>
+        <v>3536547</v>
       </c>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -12613,33 +12866,33 @@
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="26" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B127" s="9">
-        <v>4494597</v>
+        <v>2524910</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D127" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E127" s="9">
         <v>0</v>
       </c>
       <c r="F127" s="9">
-        <f t="shared" si="82"/>
-        <v>4494597</v>
+        <f t="shared" si="99"/>
+        <v>2524910</v>
       </c>
       <c r="G127" s="9"/>
       <c r="H127" s="9">
-        <f t="shared" si="83"/>
-        <v>4494597</v>
+        <f t="shared" si="100"/>
+        <v>2524910</v>
       </c>
       <c r="I127" s="9">
-        <f t="shared" si="84"/>
-        <v>4494757</v>
+        <f t="shared" si="101"/>
+        <v>2524750</v>
       </c>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
@@ -12661,33 +12914,33 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="26" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B128" s="9">
-        <v>246533</v>
+        <v>3957912</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D128" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E128" s="9">
         <v>0</v>
       </c>
       <c r="F128" s="9">
-        <f t="shared" si="82"/>
-        <v>246533</v>
+        <f t="shared" si="99"/>
+        <v>3957912</v>
       </c>
       <c r="G128" s="9"/>
       <c r="H128" s="9">
-        <f t="shared" si="83"/>
-        <v>246533</v>
+        <f t="shared" si="100"/>
+        <v>3957912</v>
       </c>
       <c r="I128" s="9">
-        <f t="shared" si="84"/>
-        <v>246373</v>
+        <f t="shared" si="101"/>
+        <v>3958072</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -12709,33 +12962,33 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="26" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B129" s="9">
-        <v>4591367</v>
+        <v>3927129</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D129" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E129" s="9">
         <v>0</v>
       </c>
       <c r="F129" s="9">
-        <f t="shared" si="82"/>
-        <v>4591367</v>
+        <f t="shared" si="99"/>
+        <v>3927129</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9">
-        <f t="shared" si="83"/>
-        <v>4591367</v>
+        <f t="shared" si="100"/>
+        <v>3927129</v>
       </c>
       <c r="I129" s="9">
-        <f t="shared" si="84"/>
-        <v>4591207</v>
+        <f t="shared" si="101"/>
+        <v>3927289</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
@@ -12757,33 +13010,33 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="26" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B130" s="9">
-        <v>1977302</v>
+        <v>4494597</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D130" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E130" s="9">
         <v>0</v>
       </c>
       <c r="F130" s="9">
-        <f t="shared" si="82"/>
-        <v>1977302</v>
+        <f t="shared" si="99"/>
+        <v>4494597</v>
       </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9">
-        <f t="shared" si="83"/>
-        <v>1977302</v>
+        <f t="shared" si="100"/>
+        <v>4494597</v>
       </c>
       <c r="I130" s="9">
-        <f t="shared" si="84"/>
-        <v>1977142</v>
+        <f t="shared" si="101"/>
+        <v>4494757</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -12805,33 +13058,33 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="26" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B131" s="9">
-        <v>933138</v>
+        <v>246533</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E131" s="9">
         <v>0</v>
       </c>
       <c r="F131" s="9">
-        <f t="shared" si="82"/>
-        <v>933138</v>
+        <f t="shared" si="99"/>
+        <v>246533</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="9">
-        <f t="shared" si="83"/>
-        <v>933138</v>
+        <f t="shared" si="100"/>
+        <v>246533</v>
       </c>
       <c r="I131" s="9">
-        <f t="shared" si="84"/>
-        <v>933298</v>
+        <f t="shared" si="101"/>
+        <v>246373</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
@@ -12853,33 +13106,33 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="26" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B132" s="9">
-        <v>87969</v>
+        <v>4591367</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D132" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E132" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F132" s="9">
-        <f t="shared" si="82"/>
-        <v>87991</v>
+        <f t="shared" si="99"/>
+        <v>4591367</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132" s="9">
-        <f t="shared" si="83"/>
-        <v>87991</v>
+        <f t="shared" si="100"/>
+        <v>4591367</v>
       </c>
       <c r="I132" s="9">
-        <f t="shared" si="84"/>
-        <v>88151</v>
+        <f t="shared" si="101"/>
+        <v>4591207</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -12901,33 +13154,33 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="26" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B133" s="9">
-        <v>3997907</v>
+        <v>1977302</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D133" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E133" s="9">
         <v>0</v>
       </c>
       <c r="F133" s="9">
-        <f t="shared" si="82"/>
-        <v>3997907</v>
+        <f t="shared" si="99"/>
+        <v>1977302</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133" s="9">
-        <f t="shared" si="83"/>
-        <v>3997907</v>
+        <f t="shared" si="100"/>
+        <v>1977302</v>
       </c>
       <c r="I133" s="9">
-        <f t="shared" si="84"/>
-        <v>3998067</v>
+        <f t="shared" si="101"/>
+        <v>1977142</v>
       </c>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
@@ -12949,33 +13202,33 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" s="26" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B134" s="9">
-        <v>4338042</v>
+        <v>933138</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D134" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E134" s="9">
         <v>0</v>
       </c>
       <c r="F134" s="9">
-        <f t="shared" si="82"/>
-        <v>4338042</v>
+        <f t="shared" si="99"/>
+        <v>933138</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9">
-        <f t="shared" si="83"/>
-        <v>4338042</v>
+        <f t="shared" si="100"/>
+        <v>933138</v>
       </c>
       <c r="I134" s="9">
-        <f t="shared" si="84"/>
-        <v>4337882</v>
+        <f t="shared" si="101"/>
+        <v>933298</v>
       </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -12997,33 +13250,33 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" s="26" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B135" s="9">
-        <v>1942634</v>
+        <v>87969</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D135" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="E135" s="9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F135" s="9">
-        <f t="shared" si="82"/>
-        <v>1942634</v>
+        <f t="shared" si="99"/>
+        <v>87991</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9">
-        <f t="shared" si="83"/>
-        <v>1942634</v>
+        <f t="shared" si="100"/>
+        <v>87991</v>
       </c>
       <c r="I135" s="9">
-        <f t="shared" si="84"/>
-        <v>1942794</v>
+        <f t="shared" si="101"/>
+        <v>88151</v>
       </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
@@ -13045,33 +13298,33 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B136" s="9">
-        <v>1942661</v>
+        <v>3997907</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D136" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E136" s="9">
         <v>0</v>
       </c>
       <c r="F136" s="9">
-        <f t="shared" si="82"/>
-        <v>1942661</v>
+        <f t="shared" si="99"/>
+        <v>3997907</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136" s="9">
-        <f t="shared" si="83"/>
-        <v>1942661</v>
+        <f t="shared" si="100"/>
+        <v>3997907</v>
       </c>
       <c r="I136" s="9">
-        <f t="shared" si="84"/>
-        <v>1942501</v>
+        <f t="shared" si="101"/>
+        <v>3998067</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -13093,33 +13346,33 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" s="26" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B137" s="9">
-        <v>3182433</v>
+        <v>4338042</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D137" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E137" s="9">
         <v>0</v>
       </c>
       <c r="F137" s="9">
-        <f t="shared" si="82"/>
-        <v>3182433</v>
+        <f t="shared" si="99"/>
+        <v>4338042</v>
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9">
-        <f t="shared" si="83"/>
-        <v>3182433</v>
+        <f t="shared" si="100"/>
+        <v>4338042</v>
       </c>
       <c r="I137" s="9">
-        <f t="shared" si="84"/>
-        <v>3182593</v>
+        <f t="shared" si="101"/>
+        <v>4337882</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
@@ -13141,33 +13394,33 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" s="26" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B138" s="9">
-        <v>3637612</v>
+        <v>1942634</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="E138" s="9">
         <v>0</v>
       </c>
       <c r="F138" s="9">
-        <f t="shared" si="82"/>
-        <v>3637612</v>
+        <f t="shared" si="99"/>
+        <v>1942634</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138" s="9">
-        <f t="shared" si="83"/>
-        <v>3637612</v>
+        <f t="shared" si="100"/>
+        <v>1942634</v>
       </c>
       <c r="I138" s="9">
-        <f t="shared" si="84"/>
-        <v>3637772</v>
+        <f t="shared" si="101"/>
+        <v>1942794</v>
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -13189,33 +13442,33 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="26" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B139" s="9">
-        <v>4376509</v>
+        <v>1942661</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D139" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E139" s="9">
         <v>0</v>
       </c>
       <c r="F139" s="9">
-        <f t="shared" si="82"/>
-        <v>4376509</v>
+        <f t="shared" si="99"/>
+        <v>1942661</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9">
-        <f t="shared" si="83"/>
-        <v>4376509</v>
+        <f t="shared" si="100"/>
+        <v>1942661</v>
       </c>
       <c r="I139" s="9">
-        <f t="shared" si="84"/>
-        <v>4376669</v>
+        <f t="shared" si="101"/>
+        <v>1942501</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
@@ -13237,33 +13490,33 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="26" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B140" s="9">
-        <v>83735</v>
+        <v>3182433</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D140" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E140" s="9">
         <v>0</v>
       </c>
       <c r="F140" s="9">
-        <f t="shared" si="82"/>
-        <v>83735</v>
+        <f t="shared" si="99"/>
+        <v>3182433</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9">
-        <f t="shared" si="83"/>
-        <v>83735</v>
+        <f t="shared" si="100"/>
+        <v>3182433</v>
       </c>
       <c r="I140" s="9">
-        <f t="shared" si="84"/>
-        <v>83575</v>
+        <f t="shared" si="101"/>
+        <v>3182593</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -13285,31 +13538,33 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="26" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="B141" s="9">
-        <v>1645903</v>
+        <v>3637612</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D141" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
-      </c>
-      <c r="E141" s="9"/>
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+      <c r="E141" s="9">
+        <v>0</v>
+      </c>
       <c r="F141" s="9">
-        <f t="shared" si="82"/>
-        <v>1645903</v>
+        <f t="shared" si="99"/>
+        <v>3637612</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9">
-        <f t="shared" si="83"/>
-        <v>1645903</v>
+        <f t="shared" si="100"/>
+        <v>3637612</v>
       </c>
       <c r="I141" s="9">
-        <f t="shared" si="84"/>
-        <v>1645743</v>
+        <f t="shared" si="101"/>
+        <v>3637772</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
@@ -13331,33 +13586,33 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="26" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B142" s="9">
-        <v>1619093</v>
+        <v>4376509</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D142" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="E142" s="9">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F142" s="9">
-        <f t="shared" si="82"/>
-        <v>1619083</v>
+        <f t="shared" si="99"/>
+        <v>4376509</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="9">
-        <f t="shared" si="83"/>
-        <v>1619083</v>
+        <f t="shared" si="100"/>
+        <v>4376509</v>
       </c>
       <c r="I142" s="9">
-        <f t="shared" si="84"/>
-        <v>1619243</v>
+        <f t="shared" si="101"/>
+        <v>4376669</v>
       </c>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -13379,33 +13634,33 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="26" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B143" s="9">
-        <v>4326836</v>
+        <v>83735</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D143" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="E143" s="9">
         <v>0</v>
       </c>
       <c r="F143" s="9">
-        <f t="shared" si="82"/>
-        <v>4326836</v>
+        <f t="shared" si="99"/>
+        <v>83735</v>
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9">
-        <f t="shared" si="83"/>
-        <v>4326836</v>
+        <f t="shared" si="100"/>
+        <v>83735</v>
       </c>
       <c r="I143" s="9">
-        <f t="shared" si="84"/>
-        <v>4326676</v>
+        <f t="shared" si="101"/>
+        <v>83575</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
@@ -13427,33 +13682,31 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B144" s="9">
-        <v>2032352</v>
+        <v>1645903</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D144" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
-      <c r="E144" s="9">
-        <v>0</v>
-      </c>
+      <c r="E144" s="9"/>
       <c r="F144" s="9">
-        <f t="shared" si="82"/>
-        <v>2032352</v>
+        <f t="shared" si="99"/>
+        <v>1645903</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="9">
-        <f t="shared" si="83"/>
-        <v>2032352</v>
+        <f t="shared" si="100"/>
+        <v>1645903</v>
       </c>
       <c r="I144" s="9">
-        <f t="shared" si="84"/>
-        <v>2032192</v>
+        <f t="shared" si="101"/>
+        <v>1645743</v>
       </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -13475,33 +13728,33 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B145" s="9">
-        <v>2949066</v>
+        <v>1619093</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D145" s="9">
-        <f t="shared" si="81"/>
-        <v>-1</v>
+        <f t="shared" si="98"/>
+        <v>1</v>
       </c>
       <c r="E145" s="9">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F145" s="9">
-        <f t="shared" si="82"/>
-        <v>2949066</v>
+        <f t="shared" si="99"/>
+        <v>1619083</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9">
-        <f t="shared" si="83"/>
-        <v>2949066</v>
+        <f t="shared" si="100"/>
+        <v>1619083</v>
       </c>
       <c r="I145" s="9">
-        <f t="shared" si="84"/>
-        <v>2948906</v>
+        <f t="shared" si="101"/>
+        <v>1619243</v>
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
@@ -13523,33 +13776,33 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B146" s="9">
-        <v>3811175</v>
+        <v>4326836</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D146" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="E146" s="9">
         <v>0</v>
       </c>
       <c r="F146" s="9">
-        <f t="shared" si="82"/>
-        <v>3811175</v>
+        <f t="shared" si="99"/>
+        <v>4326836</v>
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9">
-        <f t="shared" si="83"/>
-        <v>3811175</v>
+        <f t="shared" si="100"/>
+        <v>4326836</v>
       </c>
       <c r="I146" s="9">
-        <f t="shared" si="84"/>
-        <v>3811015</v>
+        <f t="shared" si="101"/>
+        <v>4326676</v>
       </c>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -13571,33 +13824,33 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B147" s="9">
-        <v>919103</v>
+        <v>2032352</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D147" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="E147" s="9">
         <v>0</v>
       </c>
       <c r="F147" s="9">
-        <f t="shared" si="82"/>
-        <v>919103</v>
+        <f t="shared" si="99"/>
+        <v>2032352</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9">
-        <f t="shared" si="83"/>
-        <v>919103</v>
+        <f t="shared" si="100"/>
+        <v>2032352</v>
       </c>
       <c r="I147" s="9">
-        <f t="shared" si="84"/>
-        <v>918943</v>
+        <f t="shared" si="101"/>
+        <v>2032192</v>
       </c>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
@@ -13619,33 +13872,33 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B148" s="9">
-        <v>830783</v>
+        <v>2949066</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D148" s="9">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>-1</v>
       </c>
       <c r="E148" s="9">
         <v>0</v>
       </c>
       <c r="F148" s="9">
-        <f t="shared" si="82"/>
-        <v>830783</v>
+        <f t="shared" si="99"/>
+        <v>2949066</v>
       </c>
       <c r="G148" s="9"/>
       <c r="H148" s="9">
-        <f t="shared" si="83"/>
-        <v>830783</v>
+        <f t="shared" si="100"/>
+        <v>2949066</v>
       </c>
       <c r="I148" s="9">
-        <f t="shared" si="84"/>
-        <v>830943</v>
+        <f t="shared" si="101"/>
+        <v>2948906</v>
       </c>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
@@ -13666,15 +13919,35 @@
       <c r="Z148" s="9"/>
     </row>
     <row r="149" spans="1:26">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
+      <c r="A149" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B149" s="9">
+        <v>3811175</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D149" s="9">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="E149" s="9">
+        <v>0</v>
+      </c>
+      <c r="F149" s="9">
+        <f t="shared" si="99"/>
+        <v>3811175</v>
+      </c>
       <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
+      <c r="H149" s="9">
+        <f t="shared" si="100"/>
+        <v>3811175</v>
+      </c>
+      <c r="I149" s="9">
+        <f t="shared" si="101"/>
+        <v>3811015</v>
+      </c>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
@@ -13693,21 +13966,145 @@
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
     </row>
-    <row r="154" spans="1:26">
-      <c r="A154">
-        <f>COUNTA(_xlfn.UNIQUE(A2:A148))</f>
+    <row r="150" spans="1:26">
+      <c r="A150" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" s="9">
+        <v>919103</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D150" s="9">
+        <f t="shared" si="98"/>
+        <v>-1</v>
+      </c>
+      <c r="E150" s="9">
+        <v>0</v>
+      </c>
+      <c r="F150" s="9">
+        <f t="shared" si="99"/>
+        <v>919103</v>
+      </c>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9">
+        <f t="shared" si="100"/>
+        <v>919103</v>
+      </c>
+      <c r="I150" s="9">
+        <f t="shared" si="101"/>
+        <v>918943</v>
+      </c>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="9"/>
+      <c r="O150" s="9"/>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
+      <c r="R150" s="9"/>
+      <c r="S150" s="9"/>
+      <c r="T150" s="9"/>
+      <c r="U150" s="9"/>
+      <c r="V150" s="9"/>
+      <c r="W150" s="9"/>
+      <c r="X150" s="9"/>
+      <c r="Y150" s="9"/>
+      <c r="Z150" s="9"/>
+    </row>
+    <row r="151" spans="1:26">
+      <c r="A151" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="9">
+        <v>830783</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151" s="9">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+      <c r="E151" s="9">
+        <v>0</v>
+      </c>
+      <c r="F151" s="9">
+        <f t="shared" si="99"/>
+        <v>830783</v>
+      </c>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9">
+        <f t="shared" si="100"/>
+        <v>830783</v>
+      </c>
+      <c r="I151" s="9">
+        <f t="shared" si="101"/>
+        <v>830943</v>
+      </c>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="9"/>
+      <c r="Q151" s="9"/>
+      <c r="R151" s="9"/>
+      <c r="S151" s="9"/>
+      <c r="T151" s="9"/>
+      <c r="U151" s="9"/>
+      <c r="V151" s="9"/>
+      <c r="W151" s="9"/>
+      <c r="X151" s="9"/>
+      <c r="Y151" s="9"/>
+      <c r="Z151" s="9"/>
+    </row>
+    <row r="152" spans="1:26">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9"/>
+      <c r="R152" s="9"/>
+      <c r="S152" s="9"/>
+      <c r="T152" s="9"/>
+      <c r="U152" s="9"/>
+      <c r="V152" s="9"/>
+      <c r="W152" s="9"/>
+      <c r="X152" s="9"/>
+      <c r="Y152" s="9"/>
+      <c r="Z152" s="9"/>
+    </row>
+    <row r="157" spans="1:26">
+      <c r="A157">
+        <f>COUNTA(_xlfn.UNIQUE(A2:A151))</f>
         <v>111</v>
       </c>
-      <c r="B154">
-        <f>COUNTA(_xlfn.UNIQUE(J1:J148))</f>
-        <v>43</v>
+      <c r="B157">
+        <f>COUNTA(_xlfn.UNIQUE(J1:J151))</f>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I96 P29 H49" formula="1"/>
+    <ignoredError sqref="I99 P29 H49" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2190FEDD-2B13-9D47-A6A1-FC522C459E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B32FA5-A213-0B4C-87A7-D37F80D7C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="451">
   <si>
     <t>Operon</t>
   </si>
@@ -1304,6 +1304,93 @@
   </si>
   <si>
     <t>TTGTCAGACTGCCCGTCATAAGGCGGCGGAGTGTATTTCTC</t>
+  </si>
+  <si>
+    <t>TTGGCAAAATTAT</t>
+  </si>
+  <si>
+    <t>CTGCGGGGATTTTT</t>
+  </si>
+  <si>
+    <t>TCGTTGCTATT</t>
+  </si>
+  <si>
+    <t>ttgctacttccttccctgactattgatgatctgaatgaattgtcgcggtaaaatagccccGccaggggtttccggcatgac</t>
+  </si>
+  <si>
+    <t>1,394,891 &lt;- 1,395,922</t>
+  </si>
+  <si>
+    <t>AGATGACAAACATGATCTCATATCAGGGACTTGTTCGCACCTTCCTTAGCTAATGTTGCTACTTCCTTCCCTGACTATTGATGATCTGAATGAATTGTCGCGGTAAAATAGCCCCGCCAGGGGTTTCCGGCATGACGACAATTATCTGGAGGAGCCTGAT</t>
+  </si>
+  <si>
+    <t>GCCAGGGGTTTCCGGCATGACGACAATTATCTGG</t>
+  </si>
+  <si>
+    <t>GTTCGCACCTTCCTTAG</t>
+  </si>
+  <si>
+    <t>AATTATCTGGA</t>
+  </si>
+  <si>
+    <t>603,416 &lt;- 604,663</t>
+  </si>
+  <si>
+    <t>CGCAAAACATCACCTTAACCGAAGTGTAATTCTCTCTTGCCGGGCATCTGCCCGGCTATTTCCTCTCAGATTCTCCTGATTTGCATAACCCTGTTTCAGCCGTCATCATAGGCTGCTGTTGTATAAAGGAGACGTTATGCAGGATTTAATATCCCAGGTT</t>
+  </si>
+  <si>
+    <t>1,509,508 -&gt; 1,509,924</t>
+  </si>
+  <si>
+    <t>GTTTCTTGAGGTTATTATTCAGTTTTGCAAATTAGCGCAAAGAAATTCTGGAATCTTCCTTCCTGATTTTGCATTGCATTCTGCCGTTGCGGCGATTTAGTGCTATTTTCGAGCAAATTACACACGGAGGTAAACACTAATGTTTACTTTGTTGATATAC</t>
+  </si>
+  <si>
+    <t>AAATTACACACGGA</t>
+  </si>
+  <si>
+    <t>CAAATTACACACGGAG</t>
+  </si>
+  <si>
+    <t>AGGTAAACACTAATGTTTACTT</t>
+  </si>
+  <si>
+    <t>GGTAAACACTAATGTTTACTTT</t>
+  </si>
+  <si>
+    <t>gaattccgcatttctcacacaatttataacgtaactgtcagaattgggtattattggggcAggttgtcgtgaaggaattcc</t>
+  </si>
+  <si>
+    <t>3,350,689 &lt;- 3,353,025</t>
+  </si>
+  <si>
+    <t>AGGGATCGGCGCTGGGACGTCCGTGGCTACCTCCAACGGAGTAGGTCGTTGAGGGGAATTCCGCATTTCTCACACAATTTATAACGTAACTGTCAGAATTGGGTATTATTGGGGCAGGTTGTCGTGAAGGAATTCCCTAATGAAGCAAATTCGTCTGCTG</t>
+  </si>
+  <si>
+    <t>TTAGGGAATTCCTTCACGACAACCT</t>
+  </si>
+  <si>
+    <t>AATAATACCCAATTCTGACAGTTACGTTATAAATTGTGTGA</t>
+  </si>
+  <si>
+    <t>1,225,385 &lt;- 1,226,080</t>
+  </si>
+  <si>
+    <t>ACAAGGGTATTTTTTAAGCTATGAATCAGCGCCATTTATCACAGAATAGACTTTTACTCTGAATAAATGGGAGGGTGACTTGCCTCAATATAATCCAGACTATAACATGCCTTATAGTCTTCGGAACATCATCGCGCGCTGGCGATGATTAATAGCTAAT</t>
+  </si>
+  <si>
+    <t>ACTCTGAATAAATGGGAG</t>
+  </si>
+  <si>
+    <t>tctcaggcctgccgttccggtgggccttgttttttctctctttatccccatctttattgcAatgcttgcgcctttttcctg</t>
+  </si>
+  <si>
+    <t>692,338 &lt;- 693,378</t>
+  </si>
+  <si>
+    <t>ATTGCCCGTACCCGCAAAGAAAACGACCTTGGCGTGGGTTATTATCAGCCGTAATTCTCAGGCCTGCCGTTCCGGTGGGCCTTGTTTTTTCTCTCTTTATCCCCATCTTTATTGCAATGCTTGCGCCTTTTTCCTGTGGCGTGAATAATTTCCTTATAGG</t>
+  </si>
+  <si>
+    <t>AATGCTTGCGCCTTTTTCCTGTGGCGTGAATAATT</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1583,23 +1670,21 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1621,6 +1706,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3698,40 +3786,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:Z160"/>
+  <dimension ref="A1:Z163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z84" sqref="Z84"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V95" sqref="V95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="20" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="187" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="145" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="66.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24" style="44" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.83203125" style="44" customWidth="1"/>
-    <col min="23" max="23" width="95.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.1640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="44"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="187" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="145" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.83203125" customWidth="1"/>
+    <col min="23" max="23" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -3812,7 +3899,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -3895,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="3" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -3978,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -4061,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="45" customFormat="1">
+    <row r="5" spans="1:26" s="2" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -4072,14 +4159,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D103" si="3">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D106" si="3">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F103" si="4">B5+D5*E5</f>
+        <f t="shared" ref="F5:F106" si="4">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="5">
@@ -4145,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="6" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
@@ -4229,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="7" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -4313,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="8" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
@@ -4396,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="9" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
@@ -4479,7 +4566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="10" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -4563,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="11" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
@@ -4648,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="12" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -4730,7 +4817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="13" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A13" s="4" t="s">
         <v>74</v>
       </c>
@@ -4815,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="14" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
@@ -4898,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="15" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
@@ -4981,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="45" customFormat="1">
+    <row r="16" spans="1:26" s="2" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>152</v>
       </c>
@@ -5065,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="45" customFormat="1">
+    <row r="17" spans="1:26" s="2" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>152</v>
       </c>
@@ -5149,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="45" customFormat="1" ht="19" customHeight="1">
+    <row r="18" spans="1:26" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -5233,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="46" customFormat="1" ht="17">
+    <row r="19" spans="1:26" s="44" customFormat="1" ht="17">
       <c r="A19" s="8" t="s">
         <v>228</v>
       </c>
@@ -5317,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="46" customFormat="1" ht="17">
+    <row r="20" spans="1:26" s="44" customFormat="1" ht="17">
       <c r="A20" s="8" t="s">
         <v>228</v>
       </c>
@@ -5399,7 +5486,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="47" customFormat="1" ht="17">
+    <row r="21" spans="1:26" s="45" customFormat="1" ht="17">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -5482,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="47" customFormat="1" ht="17">
+    <row r="22" spans="1:26" s="45" customFormat="1" ht="17">
       <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
@@ -5565,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="48" customFormat="1">
+    <row r="23" spans="1:26" s="46" customFormat="1">
       <c r="A23" s="14" t="s">
         <v>98</v>
       </c>
@@ -5649,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="48" customFormat="1">
+    <row r="24" spans="1:26" s="46" customFormat="1">
       <c r="A24" s="14" t="s">
         <v>98</v>
       </c>
@@ -5733,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="49" customFormat="1">
+    <row r="25" spans="1:26" s="47" customFormat="1">
       <c r="A25" s="16" t="s">
         <v>78</v>
       </c>
@@ -5818,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="49" customFormat="1">
+    <row r="26" spans="1:26" s="47" customFormat="1">
       <c r="A26" s="16" t="s">
         <v>78</v>
       </c>
@@ -5903,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="49" customFormat="1">
+    <row r="27" spans="1:26" s="47" customFormat="1">
       <c r="A27" s="16" t="s">
         <v>78</v>
       </c>
@@ -5988,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="50" customFormat="1" ht="17">
+    <row r="28" spans="1:26" s="48" customFormat="1" ht="17">
       <c r="A28" s="18" t="s">
         <v>39</v>
       </c>
@@ -6023,7 +6110,7 @@
       <c r="J28" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="K28" s="61" t="s">
+      <c r="K28" s="59" t="s">
         <v>265</v>
       </c>
       <c r="L28" s="19">
@@ -6074,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="50" customFormat="1" ht="17">
+    <row r="29" spans="1:26" s="48" customFormat="1" ht="17">
       <c r="A29" s="18" t="s">
         <v>39</v>
       </c>
@@ -6109,7 +6196,7 @@
       <c r="J29" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="K29" s="61" t="s">
+      <c r="K29" s="59" t="s">
         <v>265</v>
       </c>
       <c r="L29" s="19">
@@ -6160,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="50" customFormat="1">
+    <row r="30" spans="1:26" s="48" customFormat="1">
       <c r="A30" s="18" t="s">
         <v>39</v>
       </c>
@@ -6245,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="51" customFormat="1" ht="17">
+    <row r="31" spans="1:26" s="49" customFormat="1" ht="17">
       <c r="A31" s="22" t="s">
         <v>102</v>
       </c>
@@ -6279,7 +6366,7 @@
       <c r="J31" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="K31" s="62" t="s">
+      <c r="K31" s="60" t="s">
         <v>267</v>
       </c>
       <c r="L31" s="23">
@@ -6329,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="52" customFormat="1" ht="17">
+    <row r="32" spans="1:26" s="50" customFormat="1" ht="17">
       <c r="A32" s="24" t="s">
         <v>22</v>
       </c>
@@ -6364,7 +6451,7 @@
       <c r="J32" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="K32" s="61" t="s">
+      <c r="K32" s="59" t="s">
         <v>270</v>
       </c>
       <c r="L32" s="25" t="s">
@@ -6414,7 +6501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="53" customFormat="1" ht="17">
+    <row r="33" spans="1:26" s="51" customFormat="1" ht="17">
       <c r="A33" s="26" t="s">
         <v>30</v>
       </c>
@@ -6448,7 +6535,7 @@
       <c r="J33" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="K33" s="61" t="s">
+      <c r="K33" s="59" t="s">
         <v>275</v>
       </c>
       <c r="L33" s="27" t="s">
@@ -6498,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="34" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -6532,7 +6619,7 @@
       <c r="J34" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K34" s="61" t="s">
+      <c r="K34" s="59" t="s">
         <v>277</v>
       </c>
       <c r="L34" s="5" t="s">
@@ -6583,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="54" customFormat="1" ht="17">
+    <row r="35" spans="1:26" s="52" customFormat="1" ht="17">
       <c r="A35" s="28" t="s">
         <v>79</v>
       </c>
@@ -6618,7 +6705,7 @@
       <c r="J35" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="K35" s="61" t="s">
+      <c r="K35" s="59" t="s">
         <v>282</v>
       </c>
       <c r="L35" s="3">
@@ -6669,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="54" customFormat="1" ht="17">
+    <row r="36" spans="1:26" s="52" customFormat="1" ht="17">
       <c r="A36" s="28" t="s">
         <v>79</v>
       </c>
@@ -6704,7 +6791,7 @@
       <c r="J36" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="K36" s="61" t="s">
+      <c r="K36" s="59" t="s">
         <v>282</v>
       </c>
       <c r="L36" s="3">
@@ -6754,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="55" customFormat="1" ht="17">
+    <row r="37" spans="1:26" s="53" customFormat="1" ht="17">
       <c r="A37" s="30" t="s">
         <v>67</v>
       </c>
@@ -6789,7 +6876,7 @@
       <c r="J37" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="K37" s="61" t="s">
+      <c r="K37" s="59" t="s">
         <v>287</v>
       </c>
       <c r="L37" s="31" t="s">
@@ -6839,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="55" customFormat="1" ht="17">
+    <row r="38" spans="1:26" s="53" customFormat="1" ht="17">
       <c r="A38" s="30" t="s">
         <v>67</v>
       </c>
@@ -6874,7 +6961,7 @@
       <c r="J38" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="K38" s="61" t="s">
+      <c r="K38" s="59" t="s">
         <v>287</v>
       </c>
       <c r="L38" s="31" t="s">
@@ -6924,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="54" customFormat="1" ht="17">
+    <row r="39" spans="1:26" s="52" customFormat="1" ht="17">
       <c r="A39" s="28" t="s">
         <v>47</v>
       </c>
@@ -6955,7 +7042,7 @@
       <c r="J39" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="K39" s="61" t="s">
+      <c r="K39" s="59" t="s">
         <v>291</v>
       </c>
       <c r="L39" s="29" t="s">
@@ -7005,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="54" customFormat="1" ht="17">
+    <row r="40" spans="1:26" s="52" customFormat="1" ht="17">
       <c r="A40" s="28" t="s">
         <v>47</v>
       </c>
@@ -7036,7 +7123,7 @@
       <c r="J40" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="K40" s="61" t="s">
+      <c r="K40" s="59" t="s">
         <v>291</v>
       </c>
       <c r="L40" s="29" t="s">
@@ -7086,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="41" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -7109,7 +7196,7 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5">
-        <f t="shared" ref="H41:H100" si="25">F41-44</f>
+        <f t="shared" ref="H41:H103" si="25">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="5">
@@ -7119,7 +7206,7 @@
       <c r="J41" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="K41" s="61" t="s">
+      <c r="K41" s="59" t="s">
         <v>298</v>
       </c>
       <c r="L41" s="5">
@@ -7169,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="42" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -7202,7 +7289,7 @@
       <c r="J42" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="K42" s="61" t="s">
+      <c r="K42" s="59" t="s">
         <v>298</v>
       </c>
       <c r="L42" s="5">
@@ -7251,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="56" customFormat="1" ht="17">
+    <row r="43" spans="1:26" s="54" customFormat="1" ht="17">
       <c r="A43" s="32" t="s">
         <v>6</v>
       </c>
@@ -7282,7 +7369,7 @@
       <c r="J43" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="K43" s="61" t="s">
+      <c r="K43" s="59" t="s">
         <v>302</v>
       </c>
       <c r="L43" s="33" t="s">
@@ -7332,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="56" customFormat="1" ht="17">
+    <row r="44" spans="1:26" s="54" customFormat="1" ht="17">
       <c r="A44" s="32" t="s">
         <v>6</v>
       </c>
@@ -7363,7 +7450,7 @@
       <c r="J44" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="K44" s="61" t="s">
+      <c r="K44" s="59" t="s">
         <v>302</v>
       </c>
       <c r="L44" s="33" t="s">
@@ -7413,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="45" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A45" s="4" t="s">
         <v>48</v>
       </c>
@@ -7440,7 +7527,7 @@
         <v>63314</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" ref="I45:I100" si="29">H45+159</f>
+        <f t="shared" ref="I45:I103" si="29">H45+159</f>
         <v>63473</v>
       </c>
       <c r="J45" s="5" t="s">
@@ -7493,7 +7580,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="46" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -7576,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="48" customFormat="1" ht="17">
+    <row r="47" spans="1:26" s="46" customFormat="1" ht="17">
       <c r="A47" s="14" t="s">
         <v>57</v>
       </c>
@@ -7609,7 +7696,7 @@
       <c r="J47" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="K47" s="61" t="s">
+      <c r="K47" s="59" t="s">
         <v>314</v>
       </c>
       <c r="L47" s="3">
@@ -7659,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="48" customFormat="1" ht="17">
+    <row r="48" spans="1:26" s="46" customFormat="1" ht="17">
       <c r="A48" s="14" t="s">
         <v>57</v>
       </c>
@@ -7692,7 +7779,7 @@
       <c r="J48" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="K48" s="61" t="s">
+      <c r="K48" s="59" t="s">
         <v>314</v>
       </c>
       <c r="L48" s="3">
@@ -7742,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="49" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A49" s="4" t="s">
         <v>76</v>
       </c>
@@ -7775,7 +7862,7 @@
       <c r="J49" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="K49" s="61" t="s">
+      <c r="K49" s="59" t="s">
         <v>320</v>
       </c>
       <c r="L49" s="3">
@@ -7825,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="50" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A50" s="4" t="s">
         <v>76</v>
       </c>
@@ -7858,7 +7945,7 @@
       <c r="J50" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="K50" s="61" t="s">
+      <c r="K50" s="59" t="s">
         <v>320</v>
       </c>
       <c r="L50" s="3">
@@ -7908,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="51" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A51" s="4" t="s">
         <v>76</v>
       </c>
@@ -7941,7 +8028,7 @@
       <c r="J51" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="K51" s="61" t="s">
+      <c r="K51" s="59" t="s">
         <v>320</v>
       </c>
       <c r="L51" s="3">
@@ -7991,7 +8078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="57" customFormat="1" ht="17">
+    <row r="52" spans="1:26" s="55" customFormat="1" ht="17">
       <c r="A52" s="35" t="s">
         <v>89</v>
       </c>
@@ -8023,7 +8110,7 @@
       <c r="J52" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="K52" s="61" t="s">
+      <c r="K52" s="59" t="s">
         <v>327</v>
       </c>
       <c r="L52" s="36" t="s">
@@ -8073,7 +8160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="57" customFormat="1" ht="17">
+    <row r="53" spans="1:26" s="55" customFormat="1" ht="17">
       <c r="A53" s="35" t="s">
         <v>89</v>
       </c>
@@ -8105,7 +8192,7 @@
       <c r="J53" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="K53" s="61" t="s">
+      <c r="K53" s="59" t="s">
         <v>327</v>
       </c>
       <c r="L53" s="36" t="s">
@@ -8155,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="54" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A54" s="4" t="s">
         <v>90</v>
       </c>
@@ -8234,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="57" customFormat="1" ht="17">
+    <row r="55" spans="1:26" s="55" customFormat="1" ht="17">
       <c r="A55" s="35" t="s">
         <v>17</v>
       </c>
@@ -8267,7 +8354,7 @@
       <c r="J55" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="K55" s="63" t="s">
+      <c r="K55" s="61" t="s">
         <v>334</v>
       </c>
       <c r="L55" s="36">
@@ -8317,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="58" customFormat="1">
+    <row r="56" spans="1:26" s="56" customFormat="1">
       <c r="A56" s="38" t="s">
         <v>68</v>
       </c>
@@ -8398,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="57" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
@@ -8479,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="58" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A58" s="4" t="s">
         <v>65</v>
       </c>
@@ -8558,7 +8645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="59" customFormat="1" ht="17">
+    <row r="59" spans="1:26" s="57" customFormat="1" ht="17">
       <c r="A59" s="40" t="s">
         <v>13</v>
       </c>
@@ -8591,7 +8678,7 @@
       <c r="J59" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="K59" s="64" t="s">
+      <c r="K59" s="62" t="s">
         <v>347</v>
       </c>
       <c r="L59" s="41" t="s">
@@ -8623,11 +8710,11 @@
         <v>4122350</v>
       </c>
       <c r="U59" s="41">
-        <f t="shared" ref="U59:U101" si="49">S59-H59</f>
+        <f t="shared" ref="U59:U104" si="49">S59-H59</f>
         <v>17</v>
       </c>
       <c r="V59" s="41">
-        <f t="shared" ref="V59:V101" si="50">T59-H59</f>
+        <f t="shared" ref="V59:V104" si="50">T59-H59</f>
         <v>40</v>
       </c>
       <c r="W59" s="41" t="s">
@@ -8641,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="57" customFormat="1" ht="17">
+    <row r="60" spans="1:26" s="55" customFormat="1" ht="17">
       <c r="A60" s="35" t="s">
         <v>21</v>
       </c>
@@ -8674,7 +8761,7 @@
       <c r="J60" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="K60" s="63" t="s">
+      <c r="K60" s="61" t="s">
         <v>351</v>
       </c>
       <c r="L60" s="36">
@@ -8724,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="57" customFormat="1" ht="17">
+    <row r="61" spans="1:26" s="55" customFormat="1" ht="17">
       <c r="A61" s="35" t="s">
         <v>21</v>
       </c>
@@ -8757,7 +8844,7 @@
       <c r="J61" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="K61" s="63" t="s">
+      <c r="K61" s="61" t="s">
         <v>351</v>
       </c>
       <c r="L61" s="36">
@@ -8807,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="62" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
@@ -8840,7 +8927,7 @@
       <c r="J62" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K62" s="61" t="s">
+      <c r="K62" s="59" t="s">
         <v>357</v>
       </c>
       <c r="L62" s="5" t="s">
@@ -8890,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="58" customFormat="1" ht="17">
+    <row r="63" spans="1:26" s="56" customFormat="1" ht="17">
       <c r="A63" s="38" t="s">
         <v>66</v>
       </c>
@@ -8923,7 +9010,7 @@
       <c r="J63" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>361</v>
       </c>
       <c r="L63" s="39">
@@ -8973,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="64" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A64" s="4" t="s">
         <v>100</v>
       </c>
@@ -9006,7 +9093,7 @@
       <c r="J64" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="K64" s="61" t="s">
+      <c r="K64" s="59" t="s">
         <v>365</v>
       </c>
       <c r="L64" s="3">
@@ -9056,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="58" customFormat="1" ht="17">
+    <row r="65" spans="1:26" s="56" customFormat="1" ht="17">
       <c r="A65" s="38" t="s">
         <v>71</v>
       </c>
@@ -9088,7 +9175,7 @@
       <c r="J65" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K65" s="65" t="s">
+      <c r="K65" s="63" t="s">
         <v>370</v>
       </c>
       <c r="L65" s="39" t="s">
@@ -9138,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="58" customFormat="1" ht="17">
+    <row r="66" spans="1:26" s="56" customFormat="1" ht="17">
       <c r="A66" s="38" t="s">
         <v>71</v>
       </c>
@@ -9170,7 +9257,7 @@
       <c r="J66" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K66" s="65" t="s">
+      <c r="K66" s="63" t="s">
         <v>370</v>
       </c>
       <c r="L66" s="39" t="s">
@@ -9220,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="58" customFormat="1" ht="17">
+    <row r="67" spans="1:26" s="56" customFormat="1" ht="17">
       <c r="A67" s="38" t="s">
         <v>71</v>
       </c>
@@ -9252,7 +9339,7 @@
       <c r="J67" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K67" s="65" t="s">
+      <c r="K67" s="63" t="s">
         <v>370</v>
       </c>
       <c r="L67" s="39" t="s">
@@ -9302,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="68" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A68" s="4" t="s">
         <v>27</v>
       </c>
@@ -9385,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="58" customFormat="1" ht="17">
+    <row r="69" spans="1:26" s="56" customFormat="1" ht="17">
       <c r="A69" s="38" t="s">
         <v>87</v>
       </c>
@@ -9417,7 +9504,7 @@
       <c r="J69" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="K69" s="65" t="s">
+      <c r="K69" s="63" t="s">
         <v>380</v>
       </c>
       <c r="L69" s="39">
@@ -9467,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="58" customFormat="1" ht="17">
+    <row r="70" spans="1:26" s="56" customFormat="1" ht="17">
       <c r="A70" s="38" t="s">
         <v>87</v>
       </c>
@@ -9499,7 +9586,7 @@
       <c r="J70" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="K70" s="65" t="s">
+      <c r="K70" s="63" t="s">
         <v>380</v>
       </c>
       <c r="L70" s="39">
@@ -9549,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="58" customFormat="1" ht="17">
+    <row r="71" spans="1:26" s="56" customFormat="1" ht="17">
       <c r="A71" s="38" t="s">
         <v>87</v>
       </c>
@@ -9581,7 +9668,7 @@
       <c r="J71" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="K71" s="65" t="s">
+      <c r="K71" s="63" t="s">
         <v>380</v>
       </c>
       <c r="L71" s="39">
@@ -9631,7 +9718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="72" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A72" s="4" t="s">
         <v>31</v>
       </c>
@@ -9714,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="73" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A73" s="4" t="s">
         <v>31</v>
       </c>
@@ -9796,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="74" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A74" s="4" t="s">
         <v>70</v>
       </c>
@@ -9876,7 +9963,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="75" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A75" s="4" t="s">
         <v>88</v>
       </c>
@@ -9959,7 +10046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="60" customFormat="1" ht="17">
+    <row r="76" spans="1:26" s="58" customFormat="1" ht="17">
       <c r="A76" s="42" t="s">
         <v>23</v>
       </c>
@@ -9991,7 +10078,7 @@
       <c r="J76" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="K76" s="66" t="s">
+      <c r="K76" s="64" t="s">
         <v>399</v>
       </c>
       <c r="L76" s="43">
@@ -10039,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="60" customFormat="1" ht="17">
+    <row r="77" spans="1:26" s="58" customFormat="1" ht="17">
       <c r="A77" s="42" t="s">
         <v>23</v>
       </c>
@@ -10071,7 +10158,7 @@
       <c r="J77" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="K77" s="66" t="s">
+      <c r="K77" s="64" t="s">
         <v>399</v>
       </c>
       <c r="L77" s="43">
@@ -10119,7 +10206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="78" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A78" s="4" t="s">
         <v>32</v>
       </c>
@@ -10155,13 +10242,13 @@
       <c r="K78" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="L78" s="67">
+      <c r="L78" s="65">
         <v>3000039</v>
       </c>
-      <c r="M78" s="67" t="s">
+      <c r="M78" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="N78" s="67" t="s">
+      <c r="N78" s="65" t="s">
         <v>405</v>
       </c>
       <c r="O78" s="5">
@@ -10201,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="79" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A79" s="4" t="s">
         <v>32</v>
       </c>
@@ -10237,13 +10324,13 @@
       <c r="K79" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="L79" s="67">
+      <c r="L79" s="65">
         <v>3000039</v>
       </c>
-      <c r="M79" s="67" t="s">
+      <c r="M79" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="N79" s="67" t="s">
+      <c r="N79" s="65" t="s">
         <v>405</v>
       </c>
       <c r="O79" s="5" t="s">
@@ -10284,7 +10371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="80" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A80" s="4" t="s">
         <v>32</v>
       </c>
@@ -10320,13 +10407,13 @@
       <c r="K80" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="L80" s="67">
+      <c r="L80" s="65">
         <v>3000039</v>
       </c>
-      <c r="M80" s="67" t="s">
+      <c r="M80" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="N80" s="67" t="s">
+      <c r="N80" s="65" t="s">
         <v>405</v>
       </c>
       <c r="O80" s="5" t="s">
@@ -10367,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="57" customFormat="1" ht="17">
+    <row r="81" spans="1:26" s="55" customFormat="1" ht="17">
       <c r="A81" s="35" t="s">
         <v>97</v>
       </c>
@@ -10446,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="57" customFormat="1" ht="17">
+    <row r="82" spans="1:26" s="55" customFormat="1" ht="17">
       <c r="A82" s="35" t="s">
         <v>97</v>
       </c>
@@ -10515,7 +10602,9 @@
         <f t="shared" ref="V82" si="99">T82-H82</f>
         <v>80</v>
       </c>
-      <c r="W82" s="36"/>
+      <c r="W82" s="36" t="s">
+        <v>424</v>
+      </c>
       <c r="X82" s="36" t="s">
         <v>167</v>
       </c>
@@ -10524,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="83" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A83" s="4" t="s">
         <v>63</v>
       </c>
@@ -10563,7 +10652,6 @@
       <c r="L83" s="2">
         <v>3069871</v>
       </c>
-      <c r="M83" s="2"/>
       <c r="N83" s="2" t="s">
         <v>417</v>
       </c>
@@ -10605,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="45" customFormat="1" ht="17">
+    <row r="84" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A84" s="4" t="s">
         <v>63</v>
       </c>
@@ -10644,7 +10732,6 @@
       <c r="L84" s="2">
         <v>3069871</v>
       </c>
-      <c r="M84" s="2"/>
       <c r="N84" s="2" t="s">
         <v>417</v>
       </c>
@@ -10660,22 +10747,33 @@
       <c r="R84" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
+      <c r="S84" s="5">
+        <v>3069895</v>
+      </c>
+      <c r="T84" s="5">
+        <f>S84+12</f>
+        <v>3069907</v>
+      </c>
       <c r="U84" s="5">
         <f t="shared" ref="U84" si="104">S84-H84</f>
-        <v>-3069827</v>
+        <v>68</v>
       </c>
       <c r="V84" s="5">
         <f t="shared" ref="V84" si="105">T84-H84</f>
-        <v>-3069827</v>
-      </c>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="W84" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="X84" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-    </row>
-    <row r="85" spans="1:26" s="45" customFormat="1" ht="17">
+      <c r="Z84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A85" s="4" t="s">
         <v>63</v>
       </c>
@@ -10714,7 +10812,6 @@
       <c r="L85" s="2">
         <v>3069871</v>
       </c>
-      <c r="M85" s="2"/>
       <c r="N85" s="2" t="s">
         <v>417</v>
       </c>
@@ -10730,513 +10827,766 @@
       <c r="R85" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
+      <c r="S85" s="5">
+        <v>3069951</v>
+      </c>
+      <c r="T85" s="5">
+        <f>S85+13</f>
+        <v>3069964</v>
+      </c>
       <c r="U85" s="5">
         <f t="shared" ref="U85" si="110">S85-H85</f>
-        <v>-3069827</v>
+        <v>124</v>
       </c>
       <c r="V85" s="5">
         <f t="shared" ref="V85" si="111">T85-H85</f>
-        <v>-3069827</v>
-      </c>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
+        <v>137</v>
+      </c>
+      <c r="W85" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="X85" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-    </row>
-    <row r="86" spans="1:26">
-      <c r="A86" s="20" t="s">
+      <c r="Z85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" s="46" customFormat="1" ht="17">
+      <c r="A86" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="15">
         <v>1395973</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="15">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
+      <c r="E86" s="15">
+        <v>0</v>
+      </c>
+      <c r="F86" s="15">
         <f t="shared" si="4"/>
         <v>1395973</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3">
+      <c r="G86" s="15"/>
+      <c r="H86" s="15">
         <f t="shared" si="25"/>
         <v>1395929</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="15">
         <f t="shared" si="29"/>
         <v>1396088</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="5">
+      <c r="J86" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="K86" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="L86" s="46">
+        <v>1395973</v>
+      </c>
+      <c r="N86" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="O86" s="15">
+        <v>1395940</v>
+      </c>
+      <c r="P86" s="15">
+        <v>1395973</v>
+      </c>
+      <c r="Q86" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="R86" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="S86" s="15">
+        <v>1395939</v>
+      </c>
+      <c r="T86" s="15">
+        <f>S86+10</f>
+        <v>1395949</v>
+      </c>
+      <c r="U86" s="15">
         <f t="shared" si="49"/>
-        <v>-1395929</v>
-      </c>
-      <c r="V86" s="5">
+        <v>10</v>
+      </c>
+      <c r="V86" s="15">
         <f t="shared" si="50"/>
-        <v>-1395929</v>
-      </c>
-      <c r="W86" s="3"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-    </row>
-    <row r="87" spans="1:26">
-      <c r="A87" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W86" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="X86" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" s="46" customFormat="1" ht="17">
+      <c r="A87" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="15">
+        <v>1395973</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="15">
+        <f t="shared" ref="D87" si="112">IF(C87="fwd",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E87" s="15">
+        <v>0</v>
+      </c>
+      <c r="F87" s="15">
+        <f t="shared" ref="F87" si="113">B87+D87*E87</f>
+        <v>1395973</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15">
+        <f t="shared" ref="H87" si="114">F87-44</f>
+        <v>1395929</v>
+      </c>
+      <c r="I87" s="15">
+        <f t="shared" ref="I87" si="115">H87+159</f>
+        <v>1396088</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="K87" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="L87" s="46">
+        <v>1395973</v>
+      </c>
+      <c r="N87" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="O87" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="P87" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q87" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="R87" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="S87" s="15">
+        <v>1396040</v>
+      </c>
+      <c r="T87" s="15">
+        <f>S87+16</f>
+        <v>1396056</v>
+      </c>
+      <c r="U87" s="15">
+        <f t="shared" ref="U87" si="116">S87-H87</f>
+        <v>111</v>
+      </c>
+      <c r="V87" s="15">
+        <f t="shared" ref="V87" si="117">T87-H87</f>
+        <v>127</v>
+      </c>
+      <c r="W87" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="X87" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A88" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B88" s="5">
         <v>604684</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D88" s="5">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
         <f t="shared" si="4"/>
         <v>604684</v>
       </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3">
+      <c r="G88" s="5"/>
+      <c r="H88" s="5">
         <f t="shared" si="25"/>
         <v>604640</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I88" s="5">
         <f t="shared" si="29"/>
         <v>604799</v>
       </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="5">
-        <f t="shared" si="49"/>
-        <v>-604640</v>
-      </c>
-      <c r="V87" s="5">
-        <f t="shared" si="50"/>
-        <v>-604640</v>
-      </c>
-      <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-    </row>
-    <row r="88" spans="1:26">
-      <c r="A88" s="20" t="s">
+      <c r="J88" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="K88" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="T88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="X88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" s="56" customFormat="1" ht="17">
+      <c r="A89" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B89" s="39">
         <v>1509221</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D89" s="39">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="E89" s="39">
+        <v>0</v>
+      </c>
+      <c r="F89" s="39">
         <f t="shared" si="4"/>
         <v>1509221</v>
       </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3">
-        <f t="shared" si="25"/>
-        <v>1509177</v>
-      </c>
-      <c r="I88" s="3">
+      <c r="G89" s="39"/>
+      <c r="H89" s="39">
+        <v>1509107</v>
+      </c>
+      <c r="I89" s="39">
         <f t="shared" si="29"/>
-        <v>1509336</v>
-      </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="5">
+        <v>1509266</v>
+      </c>
+      <c r="J89" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="K89" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="L89" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="M89" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="N89" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="O89" s="39">
+        <v>1509221</v>
+      </c>
+      <c r="P89" s="39">
+        <v>1509234</v>
+      </c>
+      <c r="Q89" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="R89" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="S89" s="39">
+        <v>1509220</v>
+      </c>
+      <c r="T89" s="39">
+        <f>S89+15</f>
+        <v>1509235</v>
+      </c>
+      <c r="U89" s="39">
         <f t="shared" si="49"/>
-        <v>-1509177</v>
-      </c>
-      <c r="V88" s="5">
+        <v>113</v>
+      </c>
+      <c r="V89" s="39">
         <f t="shared" si="50"/>
-        <v>-1509177</v>
-      </c>
-      <c r="W88" s="3"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-    </row>
-    <row r="89" spans="1:26">
-      <c r="A89" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="W89" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="X89" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" s="56" customFormat="1" ht="17">
+      <c r="A90" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="39">
+        <v>1509221</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="39">
+        <f t="shared" ref="D90" si="118">IF(C90="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E90" s="39">
+        <v>0</v>
+      </c>
+      <c r="F90" s="39">
+        <f t="shared" ref="F90" si="119">B90+D90*E90</f>
+        <v>1509221</v>
+      </c>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39">
+        <v>1509107</v>
+      </c>
+      <c r="I90" s="39">
+        <f t="shared" ref="I90" si="120">H90+159</f>
+        <v>1509266</v>
+      </c>
+      <c r="J90" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="K90" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="L90" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="M90" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="N90" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="O90" s="39">
+        <v>1509234</v>
+      </c>
+      <c r="P90" s="39">
+        <v>1509255</v>
+      </c>
+      <c r="Q90" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="R90" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="S90" s="39">
+        <v>1509235</v>
+      </c>
+      <c r="T90" s="39">
+        <f>S90+21</f>
+        <v>1509256</v>
+      </c>
+      <c r="U90" s="39">
+        <f t="shared" ref="U90" si="121">S90-H90</f>
+        <v>128</v>
+      </c>
+      <c r="V90" s="39">
+        <f t="shared" ref="V90" si="122">T90-H90</f>
+        <v>149</v>
+      </c>
+      <c r="W90" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="X90" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B91" s="5">
         <v>3353049</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C91" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D91" s="5">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+      <c r="F91" s="5">
         <f t="shared" si="4"/>
         <v>3353049</v>
       </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3">
+      <c r="G91" s="5"/>
+      <c r="H91" s="5">
         <f t="shared" si="25"/>
         <v>3353005</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I91" s="5">
         <f t="shared" si="29"/>
         <v>3353164</v>
       </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="5">
+      <c r="J91" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K91" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="L91" s="2">
+        <v>3353049</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="O91" s="5">
+        <v>3353025</v>
+      </c>
+      <c r="P91" s="5">
+        <v>3353049</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S91" s="5">
+        <v>3353055</v>
+      </c>
+      <c r="T91" s="5">
+        <f>S91+40</f>
+        <v>3353095</v>
+      </c>
+      <c r="U91" s="5">
         <f t="shared" si="49"/>
-        <v>-3353005</v>
-      </c>
-      <c r="V89" s="5">
+        <v>50</v>
+      </c>
+      <c r="V91" s="5">
         <f t="shared" si="50"/>
-        <v>-3353005</v>
-      </c>
-      <c r="W89" s="3"/>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
-    </row>
-    <row r="90" spans="1:26">
-      <c r="A90" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="W91" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="X91" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" s="51" customFormat="1" ht="17">
+      <c r="A92" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B92" s="27">
         <v>1226139</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C92" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D92" s="27">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
+      <c r="E92" s="27">
+        <v>0</v>
+      </c>
+      <c r="F92" s="27">
         <f t="shared" si="4"/>
         <v>1226139</v>
       </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3">
+      <c r="G92" s="27"/>
+      <c r="H92" s="27">
         <f t="shared" si="25"/>
         <v>1226095</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I92" s="27">
         <f t="shared" si="29"/>
         <v>1226254</v>
       </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="5">
+      <c r="J92" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="K92" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="L92" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="M92" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N92" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="O92" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="P92" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q92" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="R92" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="S92" s="27">
+        <f>T92-17</f>
+        <v>1226182</v>
+      </c>
+      <c r="T92" s="27">
+        <v>1226199</v>
+      </c>
+      <c r="U92" s="27">
         <f t="shared" si="49"/>
-        <v>-1226095</v>
-      </c>
-      <c r="V90" s="5">
+        <v>87</v>
+      </c>
+      <c r="V92" s="27">
         <f t="shared" si="50"/>
-        <v>-1226095</v>
-      </c>
-      <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="1:26">
-      <c r="A91" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="W92" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="X92" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A93" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B93" s="5">
         <v>693469</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D93" s="5">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="5">
         <f t="shared" si="4"/>
         <v>693469</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3">
+      <c r="G93" s="5"/>
+      <c r="H93" s="5">
         <f t="shared" si="25"/>
         <v>693425</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I93" s="5">
         <f t="shared" si="29"/>
         <v>693584</v>
       </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="5">
-        <f t="shared" si="49"/>
-        <v>-693425</v>
-      </c>
-      <c r="V91" s="5">
-        <f t="shared" si="50"/>
-        <v>-693425</v>
-      </c>
-      <c r="W91" s="3"/>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-    </row>
-    <row r="92" spans="1:26">
-      <c r="A92" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B92" s="3">
-        <v>1848700</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="J93" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K93" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="L93" s="2">
+        <v>693469</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="O93" s="5">
+        <v>693435</v>
+      </c>
+      <c r="P93" s="5">
+        <v>693469</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="S93" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="T93" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U93" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="V93" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="W93" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="X93" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A94" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="5">
+        <v>693469</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D92" s="3">
-        <f t="shared" si="3"/>
+      <c r="D94" s="5">
+        <f t="shared" ref="D94" si="123">IF(C94="fwd",1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3">
-        <f t="shared" si="4"/>
-        <v>1848700</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3">
-        <f t="shared" si="25"/>
-        <v>1848656</v>
-      </c>
-      <c r="I92" s="3">
-        <f t="shared" si="29"/>
-        <v>1848815</v>
-      </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="5">
-        <f t="shared" si="49"/>
-        <v>-1848656</v>
-      </c>
-      <c r="V92" s="5">
-        <f t="shared" si="50"/>
-        <v>-1848656</v>
-      </c>
-      <c r="W92" s="3"/>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
-    </row>
-    <row r="93" spans="1:26">
-      <c r="A93" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="3">
-        <v>3096620</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E93" s="3">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3">
-        <f t="shared" si="4"/>
-        <v>3096620</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3">
-        <f t="shared" si="25"/>
-        <v>3096576</v>
-      </c>
-      <c r="I93" s="3">
-        <f t="shared" si="29"/>
-        <v>3096735</v>
-      </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
-      <c r="U93" s="5">
-        <f t="shared" si="49"/>
-        <v>-3096576</v>
-      </c>
-      <c r="V93" s="5">
-        <f t="shared" si="50"/>
-        <v>-3096576</v>
-      </c>
-      <c r="W93" s="3"/>
-      <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-    </row>
-    <row r="94" spans="1:26">
-      <c r="A94" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="3">
-        <v>3403446</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <f t="shared" si="4"/>
-        <v>3403446</v>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3">
-        <f t="shared" si="25"/>
-        <v>3403402</v>
-      </c>
-      <c r="I94" s="3">
-        <f t="shared" si="29"/>
-        <v>3403561</v>
-      </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
+      <c r="E94" s="5">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
+        <f t="shared" ref="F94" si="124">B94+D94*E94</f>
+        <v>693469</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5">
+        <f t="shared" ref="H94" si="125">F94-44</f>
+        <v>693425</v>
+      </c>
+      <c r="I94" s="5">
+        <f t="shared" ref="I94" si="126">H94+159</f>
+        <v>693584</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K94" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="L94" s="2">
+        <v>693469</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S94" s="5">
+        <v>693515</v>
+      </c>
+      <c r="T94" s="5">
+        <f>S94+17</f>
+        <v>693532</v>
+      </c>
       <c r="U94" s="5">
         <f t="shared" si="49"/>
-        <v>-3403402</v>
+        <v>90</v>
       </c>
       <c r="V94" s="5">
         <f t="shared" si="50"/>
-        <v>-3403402</v>
-      </c>
-      <c r="W94" s="3"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5">
+        <v>-1</v>
+      </c>
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B95" s="3">
-        <v>2214673</v>
+        <v>1848700</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>118</v>
@@ -11250,16 +11600,16 @@
       </c>
       <c r="F95" s="3">
         <f t="shared" si="4"/>
-        <v>2214673</v>
+        <v>1848700</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3">
         <f t="shared" si="25"/>
-        <v>2214629</v>
+        <v>1848656</v>
       </c>
       <c r="I95" s="3">
         <f t="shared" si="29"/>
-        <v>2214788</v>
+        <v>1848815</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -11274,11 +11624,11 @@
       <c r="T95" s="3"/>
       <c r="U95" s="5">
         <f t="shared" si="49"/>
-        <v>-2214629</v>
+        <v>-1848656</v>
       </c>
       <c r="V95" s="5">
         <f t="shared" si="50"/>
-        <v>-2214629</v>
+        <v>-1848656</v>
       </c>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
@@ -11287,33 +11637,33 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B96" s="3">
-        <v>2212969</v>
+        <v>3096620</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D96" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="4"/>
-        <v>2212969</v>
+        <v>3096620</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3">
         <f t="shared" si="25"/>
-        <v>2212925</v>
+        <v>3096576</v>
       </c>
       <c r="I96" s="3">
         <f t="shared" si="29"/>
-        <v>2213084</v>
+        <v>3096735</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
@@ -11328,11 +11678,11 @@
       <c r="T96" s="3"/>
       <c r="U96" s="5">
         <f t="shared" si="49"/>
-        <v>-2212925</v>
+        <v>-3096576</v>
       </c>
       <c r="V96" s="5">
         <f t="shared" si="50"/>
-        <v>-2212925</v>
+        <v>-3096576</v>
       </c>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
@@ -11341,33 +11691,33 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="20" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B97" s="3">
-        <v>845736</v>
+        <v>3403446</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D97" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E97" s="3">
         <v>0</v>
       </c>
       <c r="F97" s="3">
         <f t="shared" si="4"/>
-        <v>845736</v>
+        <v>3403446</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3">
         <f t="shared" si="25"/>
-        <v>845692</v>
+        <v>3403402</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="29"/>
-        <v>845851</v>
+        <v>3403561</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -11382,11 +11732,11 @@
       <c r="T97" s="3"/>
       <c r="U97" s="5">
         <f t="shared" si="49"/>
-        <v>-845692</v>
+        <v>-3403402</v>
       </c>
       <c r="V97" s="5">
         <f t="shared" si="50"/>
-        <v>-845692</v>
+        <v>-3403402</v>
       </c>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
@@ -11395,33 +11745,33 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="20" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B98" s="3">
-        <v>3438001</v>
+        <v>2214673</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D98" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E98" s="3">
         <v>0</v>
       </c>
       <c r="F98" s="3">
         <f t="shared" si="4"/>
-        <v>3438001</v>
+        <v>2214673</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3">
         <f t="shared" si="25"/>
-        <v>3437957</v>
+        <v>2214629</v>
       </c>
       <c r="I98" s="3">
         <f t="shared" si="29"/>
-        <v>3438116</v>
+        <v>2214788</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -11436,11 +11786,11 @@
       <c r="T98" s="3"/>
       <c r="U98" s="5">
         <f t="shared" si="49"/>
-        <v>-3437957</v>
+        <v>-2214629</v>
       </c>
       <c r="V98" s="5">
         <f t="shared" si="50"/>
-        <v>-3437957</v>
+        <v>-2214629</v>
       </c>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
@@ -11449,33 +11799,33 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B99" s="3">
-        <v>4118427</v>
+        <v>2212969</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D99" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E99" s="3">
         <v>0</v>
       </c>
       <c r="F99" s="3">
         <f t="shared" si="4"/>
-        <v>4118427</v>
+        <v>2212969</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3">
         <f t="shared" si="25"/>
-        <v>4118383</v>
+        <v>2212925</v>
       </c>
       <c r="I99" s="3">
         <f t="shared" si="29"/>
-        <v>4118542</v>
+        <v>2213084</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -11490,11 +11840,11 @@
       <c r="T99" s="3"/>
       <c r="U99" s="5">
         <f t="shared" si="49"/>
-        <v>-4118383</v>
+        <v>-2212925</v>
       </c>
       <c r="V99" s="5">
         <f t="shared" si="50"/>
-        <v>-4118383</v>
+        <v>-2212925</v>
       </c>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
@@ -11503,33 +11853,33 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="20" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="B100" s="3">
-        <v>3808516</v>
+        <v>845736</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D100" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="4"/>
-        <v>3808516</v>
+        <v>845736</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3">
         <f t="shared" si="25"/>
-        <v>3808472</v>
+        <v>845692</v>
       </c>
       <c r="I100" s="3">
         <f t="shared" si="29"/>
-        <v>3808631</v>
+        <v>845851</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -11544,188 +11894,131 @@
       <c r="T100" s="3"/>
       <c r="U100" s="5">
         <f t="shared" si="49"/>
-        <v>-3808472</v>
+        <v>-845692</v>
       </c>
       <c r="V100" s="5">
         <f t="shared" si="50"/>
-        <v>-3808472</v>
+        <v>-845692</v>
       </c>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" s="45" customFormat="1">
-      <c r="A101" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" s="5">
+    <row r="101" spans="1:26">
+      <c r="A101" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="3">
+        <v>3438001</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E101" s="5">
-        <v>0</v>
-      </c>
-      <c r="F101" s="5">
-        <f t="shared" ref="F101" si="112">B101+D101*E101</f>
-        <v>4175107</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5">
-        <v>4175063</v>
-      </c>
-      <c r="I101" s="5">
-        <f>H101+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L101" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="O101" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P101" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q101" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R101" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S101" s="5">
-        <v>4175143</v>
-      </c>
-      <c r="T101" s="5">
-        <f>4175175</f>
-        <v>4175175</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="4"/>
+        <v>3438001</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3">
+        <f t="shared" si="25"/>
+        <v>3437957</v>
+      </c>
+      <c r="I101" s="3">
+        <f t="shared" si="29"/>
+        <v>3438116</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
       <c r="U101" s="5">
         <f t="shared" si="49"/>
-        <v>80</v>
+        <v>-3437957</v>
       </c>
       <c r="V101" s="5">
         <f t="shared" si="50"/>
-        <v>112</v>
-      </c>
-      <c r="W101" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="X101" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" s="45" customFormat="1">
-      <c r="A102" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D102" s="5">
+        <v>-3437957</v>
+      </c>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+    </row>
+    <row r="102" spans="1:26">
+      <c r="A102" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4118427</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E102" s="5">
-        <v>0</v>
-      </c>
-      <c r="F102" s="5">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <f t="shared" si="4"/>
-        <v>4175107</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5">
-        <v>4175063</v>
-      </c>
-      <c r="I102" s="5">
-        <f>H102+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L102" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N102" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="O102" s="5">
-        <f>P102-20</f>
-        <v>4175087</v>
-      </c>
-      <c r="P102" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="Q102" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="R102" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="S102" s="5">
-        <v>4175105</v>
-      </c>
-      <c r="T102" s="5">
-        <f>S102+84</f>
-        <v>4175189</v>
-      </c>
+        <v>4118427</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3">
+        <f t="shared" si="25"/>
+        <v>4118383</v>
+      </c>
+      <c r="I102" s="3">
+        <f t="shared" si="29"/>
+        <v>4118542</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
       <c r="U102" s="5">
-        <f t="shared" ref="U102:U119" si="113">S102-H102</f>
-        <v>42</v>
+        <f t="shared" si="49"/>
+        <v>-4118383</v>
       </c>
       <c r="V102" s="5">
-        <f t="shared" ref="V102:V119" si="114">T102-H102</f>
-        <v>126</v>
-      </c>
-      <c r="W102" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="X102" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y102" s="5"/>
-      <c r="Z102" s="5">
-        <v>0</v>
-      </c>
+        <f t="shared" si="50"/>
+        <v>-4118383</v>
+      </c>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="20" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B103" s="3">
-        <v>4621716</v>
+        <v>3808516</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>108</v>
@@ -11739,16 +12032,16 @@
       </c>
       <c r="F103" s="3">
         <f t="shared" si="4"/>
-        <v>4621716</v>
+        <v>3808516</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3">
-        <f>F103</f>
-        <v>4621716</v>
+        <f t="shared" si="25"/>
+        <v>3808472</v>
       </c>
       <c r="I103" s="3">
-        <f>H103+D103*160</f>
-        <v>4621876</v>
+        <f t="shared" si="29"/>
+        <v>3808631</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -11762,155 +12055,212 @@
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
       <c r="U103" s="5">
-        <f t="shared" si="113"/>
-        <v>-4621716</v>
+        <f t="shared" si="49"/>
+        <v>-3808472</v>
       </c>
       <c r="V103" s="5">
-        <f t="shared" si="114"/>
-        <v>-4621716</v>
+        <f t="shared" si="50"/>
+        <v>-3808472</v>
       </c>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26">
-      <c r="A104" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="3">
-        <v>4370616</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D104" s="3">
-        <f t="shared" ref="D104:D154" si="115">IF(C104="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3">
-        <f t="shared" ref="F104:F154" si="116">B104+D104*E104</f>
-        <v>4370616</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3">
-        <f t="shared" ref="H104:H154" si="117">F104</f>
-        <v>4370616</v>
-      </c>
-      <c r="I104" s="3">
-        <f t="shared" ref="I104:I154" si="118">H104+D104*160</f>
-        <v>4370776</v>
-      </c>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
+    <row r="104" spans="1:26" s="2" customFormat="1">
+      <c r="A104" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="5">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
+      <c r="F104" s="5">
+        <f t="shared" ref="F104" si="127">B104+D104*E104</f>
+        <v>4175107</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5">
+        <v>4175063</v>
+      </c>
+      <c r="I104" s="5">
+        <f>H104+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L104" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P104" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q104" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R104" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S104" s="5">
+        <v>4175143</v>
+      </c>
+      <c r="T104" s="5">
+        <f>4175175</f>
+        <v>4175175</v>
+      </c>
       <c r="U104" s="5">
-        <f t="shared" si="113"/>
-        <v>-4370616</v>
+        <f t="shared" si="49"/>
+        <v>80</v>
       </c>
       <c r="V104" s="5">
-        <f t="shared" si="114"/>
-        <v>-4370616</v>
-      </c>
-      <c r="W104" s="3"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-    </row>
-    <row r="105" spans="1:26">
-      <c r="A105" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B105" s="3">
-        <v>4472553</v>
-      </c>
-      <c r="C105" s="3" t="s">
+        <f t="shared" si="50"/>
+        <v>112</v>
+      </c>
+      <c r="W104" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="X104" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" s="2" customFormat="1">
+      <c r="A105" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D105" s="3">
-        <f t="shared" si="115"/>
+      <c r="D105" s="5">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
-        <f t="shared" si="116"/>
-        <v>4472553</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3">
-        <f t="shared" si="117"/>
-        <v>4472553</v>
-      </c>
-      <c r="I105" s="3">
-        <f t="shared" si="118"/>
-        <v>4472393</v>
-      </c>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
+      <c r="E105" s="5">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" si="4"/>
+        <v>4175107</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5">
+        <v>4175063</v>
+      </c>
+      <c r="I105" s="5">
+        <f>H105+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L105" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O105" s="5">
+        <f>P105-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="P105" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="Q105" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R105" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S105" s="5">
+        <v>4175105</v>
+      </c>
+      <c r="T105" s="5">
+        <f>S105+84</f>
+        <v>4175189</v>
+      </c>
       <c r="U105" s="5">
-        <f t="shared" si="113"/>
-        <v>-4472553</v>
+        <f t="shared" ref="U105:U122" si="128">S105-H105</f>
+        <v>42</v>
       </c>
       <c r="V105" s="5">
-        <f t="shared" si="114"/>
-        <v>-4472553</v>
-      </c>
-      <c r="W105" s="3"/>
-      <c r="X105" s="3"/>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
+        <f t="shared" ref="V105:V122" si="129">T105-H105</f>
+        <v>126</v>
+      </c>
+      <c r="W105" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="X105" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="20" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B106" s="3">
-        <v>4178354</v>
+        <v>4621716</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D106" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E106" s="3">
         <v>0</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="116"/>
-        <v>4178354</v>
+        <f t="shared" si="4"/>
+        <v>4621716</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3">
-        <f t="shared" si="117"/>
-        <v>4178354</v>
+        <f>F106</f>
+        <v>4621716</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="118"/>
-        <v>4178514</v>
+        <f>H106+D106*160</f>
+        <v>4621876</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
@@ -11924,12 +12274,12 @@
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
       <c r="U106" s="5">
-        <f t="shared" si="113"/>
-        <v>-4178354</v>
+        <f t="shared" si="128"/>
+        <v>-4621716</v>
       </c>
       <c r="V106" s="5">
-        <f t="shared" si="114"/>
-        <v>-4178354</v>
+        <f t="shared" si="129"/>
+        <v>-4621716</v>
       </c>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
@@ -11938,33 +12288,33 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="20" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B107" s="3">
-        <v>2042294</v>
+        <v>4370616</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" ref="D107:D157" si="130">IF(C107="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E107" s="3">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="116"/>
-        <v>2042280</v>
+        <f t="shared" ref="F107:F157" si="131">B107+D107*E107</f>
+        <v>4370616</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3">
-        <f t="shared" si="117"/>
-        <v>2042280</v>
+        <f t="shared" ref="H107:H157" si="132">F107</f>
+        <v>4370616</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="118"/>
-        <v>2042440</v>
+        <f t="shared" ref="I107:I157" si="133">H107+D107*160</f>
+        <v>4370776</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -11978,12 +12328,12 @@
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
       <c r="U107" s="5">
-        <f t="shared" si="113"/>
-        <v>-2042280</v>
+        <f t="shared" si="128"/>
+        <v>-4370616</v>
       </c>
       <c r="V107" s="5">
-        <f t="shared" si="114"/>
-        <v>-2042280</v>
+        <f t="shared" si="129"/>
+        <v>-4370616</v>
       </c>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
@@ -11992,33 +12342,33 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B108" s="3">
-        <v>3922525</v>
+        <v>4472553</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D108" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1</v>
       </c>
       <c r="E108" s="3">
         <v>0</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="116"/>
-        <v>3922525</v>
+        <f t="shared" si="131"/>
+        <v>4472553</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3">
-        <f t="shared" si="117"/>
-        <v>3922525</v>
+        <f t="shared" si="132"/>
+        <v>4472553</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="118"/>
-        <v>3922365</v>
+        <f t="shared" si="133"/>
+        <v>4472393</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -12032,12 +12382,12 @@
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
       <c r="U108" s="5">
-        <f t="shared" si="113"/>
-        <v>-3922525</v>
+        <f t="shared" si="128"/>
+        <v>-4472553</v>
       </c>
       <c r="V108" s="5">
-        <f t="shared" si="114"/>
-        <v>-3922525</v>
+        <f t="shared" si="129"/>
+        <v>-4472553</v>
       </c>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
@@ -12046,33 +12396,33 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B109" s="3">
-        <v>1114213</v>
+        <v>4178354</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D109" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E109" s="3">
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="116"/>
-        <v>1114213</v>
+        <f t="shared" si="131"/>
+        <v>4178354</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3">
-        <f t="shared" si="117"/>
-        <v>1114213</v>
+        <f t="shared" si="132"/>
+        <v>4178354</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="118"/>
-        <v>1114053</v>
+        <f t="shared" si="133"/>
+        <v>4178514</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -12086,12 +12436,12 @@
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
       <c r="U109" s="5">
-        <f t="shared" si="113"/>
-        <v>-1114213</v>
+        <f t="shared" si="128"/>
+        <v>-4178354</v>
       </c>
       <c r="V109" s="5">
-        <f t="shared" si="114"/>
-        <v>-1114213</v>
+        <f t="shared" si="129"/>
+        <v>-4178354</v>
       </c>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
@@ -12100,33 +12450,33 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B110" s="3">
-        <v>2644913</v>
+        <v>2042294</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E110" s="3">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="116"/>
-        <v>2644913</v>
+        <f t="shared" si="131"/>
+        <v>2042280</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3">
-        <f t="shared" si="117"/>
-        <v>2644913</v>
+        <f t="shared" si="132"/>
+        <v>2042280</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="118"/>
-        <v>2644753</v>
+        <f t="shared" si="133"/>
+        <v>2042440</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -12140,12 +12490,12 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="5">
-        <f t="shared" si="113"/>
-        <v>-2644913</v>
+        <f t="shared" si="128"/>
+        <v>-2042280</v>
       </c>
       <c r="V110" s="5">
-        <f t="shared" si="114"/>
-        <v>-2644913</v>
+        <f t="shared" si="129"/>
+        <v>-2042280</v>
       </c>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
@@ -12154,33 +12504,33 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="20" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B111" s="3">
-        <v>148</v>
+        <v>3922525</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E111" s="3">
         <v>0</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="116"/>
-        <v>148</v>
+        <f t="shared" si="131"/>
+        <v>3922525</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
-        <f t="shared" si="117"/>
-        <v>148</v>
+        <f t="shared" si="132"/>
+        <v>3922525</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="118"/>
-        <v>308</v>
+        <f t="shared" si="133"/>
+        <v>3922365</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -12194,12 +12544,12 @@
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
       <c r="U111" s="5">
-        <f t="shared" si="113"/>
-        <v>-148</v>
+        <f t="shared" si="128"/>
+        <v>-3922525</v>
       </c>
       <c r="V111" s="5">
-        <f t="shared" si="114"/>
-        <v>-148</v>
+        <f t="shared" si="129"/>
+        <v>-3922525</v>
       </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -12208,33 +12558,33 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="20" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="B112" s="3">
-        <v>454993</v>
+        <v>1114213</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D112" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E112" s="3">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="116"/>
-        <v>454864</v>
+        <f t="shared" si="131"/>
+        <v>1114213</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3">
-        <f t="shared" si="117"/>
-        <v>454864</v>
+        <f t="shared" si="132"/>
+        <v>1114213</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="118"/>
-        <v>455024</v>
+        <f t="shared" si="133"/>
+        <v>1114053</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -12248,12 +12598,12 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
       <c r="U112" s="5">
-        <f t="shared" si="113"/>
-        <v>-454864</v>
+        <f t="shared" si="128"/>
+        <v>-1114213</v>
       </c>
       <c r="V112" s="5">
-        <f t="shared" si="114"/>
-        <v>-454864</v>
+        <f t="shared" si="129"/>
+        <v>-1114213</v>
       </c>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
@@ -12262,33 +12612,33 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" s="3">
-        <v>189712</v>
+        <v>2644913</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D113" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E113" s="3">
         <v>0</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="116"/>
-        <v>189712</v>
+        <f t="shared" si="131"/>
+        <v>2644913</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3">
-        <f t="shared" si="117"/>
-        <v>189712</v>
+        <f t="shared" si="132"/>
+        <v>2644913</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="118"/>
-        <v>189872</v>
+        <f t="shared" si="133"/>
+        <v>2644753</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -12302,12 +12652,12 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
       <c r="U113" s="5">
-        <f t="shared" si="113"/>
-        <v>-189712</v>
+        <f t="shared" si="128"/>
+        <v>-2644913</v>
       </c>
       <c r="V113" s="5">
-        <f t="shared" si="114"/>
-        <v>-189712</v>
+        <f t="shared" si="129"/>
+        <v>-2644913</v>
       </c>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
@@ -12316,33 +12666,33 @@
     </row>
     <row r="114" spans="1:26">
       <c r="A114" s="20" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B114" s="3">
-        <v>3948058</v>
+        <v>148</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D114" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>1</v>
       </c>
       <c r="E114" s="3">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="116"/>
-        <v>3948030</v>
+        <f t="shared" si="131"/>
+        <v>148</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3">
-        <f t="shared" si="117"/>
-        <v>3948030</v>
+        <f t="shared" si="132"/>
+        <v>148</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="118"/>
-        <v>3948190</v>
+        <f t="shared" si="133"/>
+        <v>308</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -12356,12 +12706,12 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
       <c r="U114" s="5">
-        <f t="shared" si="113"/>
-        <v>-3948030</v>
+        <f t="shared" si="128"/>
+        <v>-148</v>
       </c>
       <c r="V114" s="5">
-        <f t="shared" si="114"/>
-        <v>-3948030</v>
+        <f t="shared" si="129"/>
+        <v>-148</v>
       </c>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
@@ -12370,33 +12720,33 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" s="20" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B115" s="3">
-        <v>911076</v>
+        <v>454993</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D115" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E115" s="3">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="116"/>
-        <v>911076</v>
+        <f t="shared" si="131"/>
+        <v>454864</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3">
-        <f t="shared" si="117"/>
-        <v>911076</v>
+        <f t="shared" si="132"/>
+        <v>454864</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="118"/>
-        <v>910916</v>
+        <f t="shared" si="133"/>
+        <v>455024</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -12410,12 +12760,12 @@
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
       <c r="U115" s="5">
-        <f t="shared" si="113"/>
-        <v>-911076</v>
+        <f t="shared" si="128"/>
+        <v>-454864</v>
       </c>
       <c r="V115" s="5">
-        <f t="shared" si="114"/>
-        <v>-911076</v>
+        <f t="shared" si="129"/>
+        <v>-454864</v>
       </c>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
@@ -12424,33 +12774,33 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="20" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B116" s="3">
-        <v>1655186</v>
+        <v>189712</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D116" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E116" s="3">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="116"/>
-        <v>1655231</v>
+        <f t="shared" si="131"/>
+        <v>189712</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3">
-        <f t="shared" si="117"/>
-        <v>1655231</v>
+        <f t="shared" si="132"/>
+        <v>189712</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="118"/>
-        <v>1655071</v>
+        <f t="shared" si="133"/>
+        <v>189872</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -12464,12 +12814,12 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
       <c r="U116" s="5">
-        <f t="shared" si="113"/>
-        <v>-1655231</v>
+        <f t="shared" si="128"/>
+        <v>-189712</v>
       </c>
       <c r="V116" s="5">
-        <f t="shared" si="114"/>
-        <v>-1655231</v>
+        <f t="shared" si="129"/>
+        <v>-189712</v>
       </c>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
@@ -12478,33 +12828,33 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="20" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B117" s="3">
-        <v>4390638</v>
+        <v>3948058</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D117" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E117" s="3">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="116"/>
-        <v>4390638</v>
+        <f t="shared" si="131"/>
+        <v>3948030</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3">
-        <f t="shared" si="117"/>
-        <v>4390638</v>
+        <f t="shared" si="132"/>
+        <v>3948030</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="118"/>
-        <v>4390478</v>
+        <f t="shared" si="133"/>
+        <v>3948190</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -12518,12 +12868,12 @@
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
       <c r="U117" s="5">
-        <f t="shared" si="113"/>
-        <v>-4390638</v>
+        <f t="shared" si="128"/>
+        <v>-3948030</v>
       </c>
       <c r="V117" s="5">
-        <f t="shared" si="114"/>
-        <v>-4390638</v>
+        <f t="shared" si="129"/>
+        <v>-3948030</v>
       </c>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
@@ -12532,33 +12882,33 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="20" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B118" s="3">
-        <v>4640508</v>
+        <v>911076</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D118" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1</v>
       </c>
       <c r="E118" s="3">
         <v>0</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="116"/>
-        <v>4640508</v>
+        <f t="shared" si="131"/>
+        <v>911076</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <f t="shared" si="117"/>
-        <v>4640508</v>
+        <f t="shared" si="132"/>
+        <v>911076</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="118"/>
-        <v>4640348</v>
+        <f t="shared" si="133"/>
+        <v>910916</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -12572,12 +12922,12 @@
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="5">
-        <f t="shared" si="113"/>
-        <v>-4640508</v>
+        <f t="shared" si="128"/>
+        <v>-911076</v>
       </c>
       <c r="V118" s="5">
-        <f t="shared" si="114"/>
-        <v>-4640508</v>
+        <f t="shared" si="129"/>
+        <v>-911076</v>
       </c>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
@@ -12586,33 +12936,33 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="20" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B119" s="3">
-        <v>1972716</v>
+        <v>1655186</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D119" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1</v>
       </c>
       <c r="E119" s="3">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="116"/>
-        <v>1972716</v>
+        <f t="shared" si="131"/>
+        <v>1655231</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <f t="shared" si="117"/>
-        <v>1972716</v>
+        <f t="shared" si="132"/>
+        <v>1655231</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="118"/>
-        <v>1972556</v>
+        <f t="shared" si="133"/>
+        <v>1655071</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -12626,209 +12976,155 @@
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="5">
-        <f t="shared" si="113"/>
-        <v>-1972716</v>
+        <f t="shared" si="128"/>
+        <v>-1655231</v>
       </c>
       <c r="V119" s="5">
-        <f t="shared" si="114"/>
-        <v>-1972716</v>
+        <f t="shared" si="129"/>
+        <v>-1655231</v>
       </c>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" s="45" customFormat="1" ht="17">
-      <c r="A120" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B120" s="5">
-        <v>652172</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D120" s="5">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="E120" s="5">
-        <v>0</v>
-      </c>
-      <c r="F120" s="5">
-        <f t="shared" ref="F120" si="119">B120+D120*E120</f>
-        <v>652172</v>
-      </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="21">
-        <v>652058</v>
-      </c>
-      <c r="I120" s="5">
-        <f>H120+D120*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="K120" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="L120" s="5">
-        <v>652172</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N120" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O120" s="5">
-        <v>652193</v>
-      </c>
-      <c r="P120" s="5">
-        <v>652199</v>
-      </c>
-      <c r="Q120" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="R120" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S120" s="21">
-        <f>130+H120</f>
-        <v>652188</v>
-      </c>
-      <c r="T120" s="21">
-        <f>S120+30</f>
-        <v>652218</v>
-      </c>
+    <row r="120" spans="1:26">
+      <c r="A120" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" s="3">
+        <v>4390638</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" s="3">
+        <f t="shared" si="130"/>
+        <v>-1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <f t="shared" si="131"/>
+        <v>4390638</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3">
+        <f t="shared" si="132"/>
+        <v>4390638</v>
+      </c>
+      <c r="I120" s="3">
+        <f t="shared" si="133"/>
+        <v>4390478</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
       <c r="U120" s="5">
-        <v>130</v>
+        <f t="shared" si="128"/>
+        <v>-4390638</v>
       </c>
       <c r="V120" s="5">
-        <v>160</v>
-      </c>
-      <c r="W120" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="X120" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y120" s="5"/>
-      <c r="Z120" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" s="45" customFormat="1" ht="17">
-      <c r="A121" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B121" s="5">
-        <v>652172</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D121" s="5">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="E121" s="5">
-        <v>0</v>
-      </c>
-      <c r="F121" s="5">
-        <f t="shared" si="116"/>
-        <v>652172</v>
-      </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="21">
-        <v>652058</v>
-      </c>
-      <c r="I121" s="5">
-        <f>H121+D121*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="K121" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="L121" s="5">
-        <v>652172</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N121" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O121" s="5">
-        <v>652118</v>
-      </c>
-      <c r="P121" s="5">
-        <v>652140</v>
-      </c>
-      <c r="Q121" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="R121" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="S121" s="21">
-        <f>60+H121</f>
-        <v>652118</v>
-      </c>
-      <c r="T121" s="21">
-        <f>S121+25</f>
-        <v>652143</v>
-      </c>
+        <f t="shared" si="129"/>
+        <v>-4390638</v>
+      </c>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+    </row>
+    <row r="121" spans="1:26">
+      <c r="A121" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" s="3">
+        <v>4640508</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" s="3">
+        <f t="shared" si="130"/>
+        <v>-1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3">
+        <f t="shared" si="131"/>
+        <v>4640508</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3">
+        <f t="shared" si="132"/>
+        <v>4640508</v>
+      </c>
+      <c r="I121" s="3">
+        <f t="shared" si="133"/>
+        <v>4640348</v>
+      </c>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
       <c r="U121" s="5">
-        <v>60</v>
+        <f t="shared" si="128"/>
+        <v>-4640508</v>
       </c>
       <c r="V121" s="5">
-        <v>85</v>
-      </c>
-      <c r="W121" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="X121" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y121" s="5"/>
-      <c r="Z121" s="5">
-        <v>0</v>
-      </c>
+        <f t="shared" si="129"/>
+        <v>-4640508</v>
+      </c>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="20" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B122" s="3">
-        <v>70075</v>
+        <v>1972716</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1</v>
       </c>
       <c r="E122" s="3">
         <v>0</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="116"/>
-        <v>70075</v>
+        <f t="shared" si="131"/>
+        <v>1972716</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3">
-        <f t="shared" si="117"/>
-        <v>70075</v>
+        <f t="shared" si="132"/>
+        <v>1972716</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="118"/>
-        <v>69915</v>
+        <f t="shared" si="133"/>
+        <v>1972556</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -12841,138 +13137,210 @@
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
-      <c r="U122" s="3"/>
-      <c r="V122" s="3"/>
+      <c r="U122" s="5">
+        <f t="shared" si="128"/>
+        <v>-1972716</v>
+      </c>
+      <c r="V122" s="5">
+        <f t="shared" si="129"/>
+        <v>-1972716</v>
+      </c>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26">
-      <c r="A123" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B123" s="3">
-        <v>70241</v>
-      </c>
-      <c r="C123" s="3" t="s">
+    <row r="123" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A123" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="5">
+        <v>652172</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D123" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="E123" s="3">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3">
-        <f t="shared" si="116"/>
-        <v>70241</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3">
-        <f t="shared" si="117"/>
-        <v>70241</v>
-      </c>
-      <c r="I123" s="3">
-        <f t="shared" si="118"/>
-        <v>70401</v>
-      </c>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
-      <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
-      <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-      <c r="S123" s="3"/>
-      <c r="T123" s="3"/>
-      <c r="U123" s="3"/>
-      <c r="V123" s="3"/>
-      <c r="W123" s="3"/>
-      <c r="X123" s="3"/>
-      <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
-    </row>
-    <row r="124" spans="1:26">
-      <c r="A124" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B124" s="3">
-        <v>3731069</v>
-      </c>
-      <c r="C124" s="3" t="s">
+      <c r="D123" s="5">
+        <f t="shared" si="130"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0</v>
+      </c>
+      <c r="F123" s="5">
+        <f t="shared" ref="F123" si="134">B123+D123*E123</f>
+        <v>652172</v>
+      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="21">
+        <v>652058</v>
+      </c>
+      <c r="I123" s="5">
+        <f>H123+D123*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L123" s="5">
+        <v>652172</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O123" s="5">
+        <v>652193</v>
+      </c>
+      <c r="P123" s="5">
+        <v>652199</v>
+      </c>
+      <c r="Q123" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="R123" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S123" s="21">
+        <f>130+H123</f>
+        <v>652188</v>
+      </c>
+      <c r="T123" s="21">
+        <f>S123+30</f>
+        <v>652218</v>
+      </c>
+      <c r="U123" s="5">
+        <v>130</v>
+      </c>
+      <c r="V123" s="5">
+        <v>160</v>
+      </c>
+      <c r="W123" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="X123" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A124" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B124" s="5">
+        <v>652172</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D124" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
-      </c>
-      <c r="E124" s="3">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3">
-        <f t="shared" si="116"/>
-        <v>3731069</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3">
-        <f t="shared" si="117"/>
-        <v>3731069</v>
-      </c>
-      <c r="I124" s="3">
-        <f t="shared" si="118"/>
-        <v>3731229</v>
-      </c>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3"/>
-      <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
-      <c r="S124" s="3"/>
-      <c r="T124" s="3"/>
-      <c r="U124" s="3"/>
-      <c r="V124" s="3"/>
-      <c r="W124" s="3"/>
-      <c r="X124" s="3"/>
-      <c r="Y124" s="3"/>
-      <c r="Z124" s="3"/>
+      <c r="D124" s="5">
+        <f t="shared" si="130"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0</v>
+      </c>
+      <c r="F124" s="5">
+        <f t="shared" si="131"/>
+        <v>652172</v>
+      </c>
+      <c r="G124" s="5"/>
+      <c r="H124" s="21">
+        <v>652058</v>
+      </c>
+      <c r="I124" s="5">
+        <f>H124+D124*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L124" s="5">
+        <v>652172</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O124" s="5">
+        <v>652118</v>
+      </c>
+      <c r="P124" s="5">
+        <v>652140</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S124" s="21">
+        <f>60+H124</f>
+        <v>652118</v>
+      </c>
+      <c r="T124" s="21">
+        <f>S124+25</f>
+        <v>652143</v>
+      </c>
+      <c r="U124" s="5">
+        <v>60</v>
+      </c>
+      <c r="V124" s="5">
+        <v>85</v>
+      </c>
+      <c r="W124" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="X124" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y124" s="5"/>
+      <c r="Z124" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B125" s="3">
-        <v>3730807</v>
+        <v>70075</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D125" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1</v>
       </c>
       <c r="E125" s="3">
         <v>0</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="116"/>
-        <v>3730807</v>
+        <f t="shared" si="131"/>
+        <v>70075</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3">
-        <f t="shared" si="117"/>
-        <v>3730807</v>
+        <f t="shared" si="132"/>
+        <v>70075</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="118"/>
-        <v>3730647</v>
+        <f t="shared" si="133"/>
+        <v>69915</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -12994,33 +13362,33 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="20" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="B126" s="3">
-        <v>1647934</v>
+        <v>70241</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D126" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>1</v>
       </c>
       <c r="E126" s="3">
         <v>0</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="116"/>
-        <v>1647934</v>
+        <f t="shared" si="131"/>
+        <v>70241</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3">
-        <f t="shared" si="117"/>
-        <v>1647934</v>
+        <f t="shared" si="132"/>
+        <v>70241</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="118"/>
-        <v>1648094</v>
+        <f t="shared" si="133"/>
+        <v>70401</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -13042,33 +13410,33 @@
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="20" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B127" s="3">
-        <v>1647876</v>
+        <v>3731069</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D127" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E127" s="3">
         <v>0</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="116"/>
-        <v>1647876</v>
+        <f t="shared" si="131"/>
+        <v>3731069</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3">
-        <f t="shared" si="117"/>
-        <v>1647876</v>
+        <f t="shared" si="132"/>
+        <v>3731069</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="118"/>
-        <v>1647716</v>
+        <f t="shared" si="133"/>
+        <v>3731229</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -13090,33 +13458,33 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="20" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B128" s="3">
-        <v>1649597</v>
+        <v>3730807</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D128" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E128" s="3">
         <v>0</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="116"/>
-        <v>1649597</v>
+        <f t="shared" si="131"/>
+        <v>3730807</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3">
-        <f t="shared" si="117"/>
-        <v>1649597</v>
+        <f t="shared" si="132"/>
+        <v>3730807</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="118"/>
-        <v>1649757</v>
+        <f t="shared" si="133"/>
+        <v>3730647</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -13138,33 +13506,33 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="20" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3">
-        <v>3536707</v>
+        <v>1647934</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D129" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E129" s="3">
         <v>0</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="116"/>
-        <v>3536707</v>
+        <f t="shared" si="131"/>
+        <v>1647934</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3">
-        <f t="shared" si="117"/>
-        <v>3536707</v>
+        <f t="shared" si="132"/>
+        <v>1647934</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="118"/>
-        <v>3536547</v>
+        <f t="shared" si="133"/>
+        <v>1648094</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -13186,33 +13554,33 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="20" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B130" s="3">
-        <v>2524910</v>
+        <v>1647876</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D130" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1</v>
       </c>
       <c r="E130" s="3">
         <v>0</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="116"/>
-        <v>2524910</v>
+        <f t="shared" si="131"/>
+        <v>1647876</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3">
-        <f t="shared" si="117"/>
-        <v>2524910</v>
+        <f t="shared" si="132"/>
+        <v>1647876</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="118"/>
-        <v>2524750</v>
+        <f t="shared" si="133"/>
+        <v>1647716</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -13234,33 +13602,33 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="20" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="B131" s="3">
-        <v>3957912</v>
+        <v>1649597</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D131" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>1</v>
       </c>
       <c r="E131" s="3">
         <v>0</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="116"/>
-        <v>3957912</v>
+        <f t="shared" si="131"/>
+        <v>1649597</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3">
-        <f t="shared" si="117"/>
-        <v>3957912</v>
+        <f t="shared" si="132"/>
+        <v>1649597</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="118"/>
-        <v>3958072</v>
+        <f t="shared" si="133"/>
+        <v>1649757</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -13282,33 +13650,33 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="20" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B132" s="3">
-        <v>3927129</v>
+        <v>3536707</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E132" s="3">
         <v>0</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="116"/>
-        <v>3927129</v>
+        <f t="shared" si="131"/>
+        <v>3536707</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3">
-        <f t="shared" si="117"/>
-        <v>3927129</v>
+        <f t="shared" si="132"/>
+        <v>3536707</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="118"/>
-        <v>3927289</v>
+        <f t="shared" si="133"/>
+        <v>3536547</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -13330,33 +13698,33 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="20" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B133" s="3">
-        <v>4494597</v>
+        <v>2524910</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E133" s="3">
         <v>0</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="116"/>
-        <v>4494597</v>
+        <f t="shared" si="131"/>
+        <v>2524910</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3">
-        <f t="shared" si="117"/>
-        <v>4494597</v>
+        <f t="shared" si="132"/>
+        <v>2524910</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="118"/>
-        <v>4494757</v>
+        <f t="shared" si="133"/>
+        <v>2524750</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -13378,33 +13746,33 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" s="20" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B134" s="3">
-        <v>246533</v>
+        <v>3957912</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D134" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="116"/>
-        <v>246533</v>
+        <f t="shared" si="131"/>
+        <v>3957912</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3">
-        <f t="shared" si="117"/>
-        <v>246533</v>
+        <f t="shared" si="132"/>
+        <v>3957912</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="118"/>
-        <v>246373</v>
+        <f t="shared" si="133"/>
+        <v>3958072</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -13426,33 +13794,33 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" s="20" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B135" s="3">
-        <v>4591367</v>
+        <v>3927129</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D135" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E135" s="3">
         <v>0</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="116"/>
-        <v>4591367</v>
+        <f t="shared" si="131"/>
+        <v>3927129</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3">
-        <f t="shared" si="117"/>
-        <v>4591367</v>
+        <f t="shared" si="132"/>
+        <v>3927129</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="118"/>
-        <v>4591207</v>
+        <f t="shared" si="133"/>
+        <v>3927289</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -13474,33 +13842,33 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" s="20" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B136" s="3">
-        <v>1977302</v>
+        <v>4494597</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D136" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E136" s="3">
         <v>0</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="116"/>
-        <v>1977302</v>
+        <f t="shared" si="131"/>
+        <v>4494597</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3">
-        <f t="shared" si="117"/>
-        <v>1977302</v>
+        <f t="shared" si="132"/>
+        <v>4494597</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="118"/>
-        <v>1977142</v>
+        <f t="shared" si="133"/>
+        <v>4494757</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -13522,33 +13890,33 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" s="20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B137" s="3">
-        <v>933138</v>
+        <v>246533</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D137" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E137" s="3">
         <v>0</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" si="116"/>
-        <v>933138</v>
+        <f t="shared" si="131"/>
+        <v>246533</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3">
-        <f t="shared" si="117"/>
-        <v>933138</v>
+        <f t="shared" si="132"/>
+        <v>246533</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="118"/>
-        <v>933298</v>
+        <f t="shared" si="133"/>
+        <v>246373</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -13570,33 +13938,33 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" s="20" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B138" s="3">
-        <v>87969</v>
+        <v>4591367</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D138" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E138" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="116"/>
-        <v>87991</v>
+        <f t="shared" si="131"/>
+        <v>4591367</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3">
-        <f t="shared" si="117"/>
-        <v>87991</v>
+        <f t="shared" si="132"/>
+        <v>4591367</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="118"/>
-        <v>88151</v>
+        <f t="shared" si="133"/>
+        <v>4591207</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -13618,33 +13986,33 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="20" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B139" s="3">
-        <v>3997907</v>
+        <v>1977302</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D139" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E139" s="3">
         <v>0</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="116"/>
-        <v>3997907</v>
+        <f t="shared" si="131"/>
+        <v>1977302</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3">
-        <f t="shared" si="117"/>
-        <v>3997907</v>
+        <f t="shared" si="132"/>
+        <v>1977302</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="118"/>
-        <v>3998067</v>
+        <f t="shared" si="133"/>
+        <v>1977142</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -13666,33 +14034,33 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="20" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B140" s="3">
-        <v>4338042</v>
+        <v>933138</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D140" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E140" s="3">
         <v>0</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="116"/>
-        <v>4338042</v>
+        <f t="shared" si="131"/>
+        <v>933138</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3">
-        <f t="shared" si="117"/>
-        <v>4338042</v>
+        <f t="shared" si="132"/>
+        <v>933138</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="118"/>
-        <v>4337882</v>
+        <f t="shared" si="133"/>
+        <v>933298</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -13714,33 +14082,33 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="20" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B141" s="3">
-        <v>1942634</v>
+        <v>87969</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D141" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>1</v>
       </c>
       <c r="E141" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="116"/>
-        <v>1942634</v>
+        <f t="shared" si="131"/>
+        <v>87991</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3">
-        <f t="shared" si="117"/>
-        <v>1942634</v>
+        <f t="shared" si="132"/>
+        <v>87991</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="118"/>
-        <v>1942794</v>
+        <f t="shared" si="133"/>
+        <v>88151</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -13762,33 +14130,33 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B142" s="3">
-        <v>1942661</v>
+        <v>3997907</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D142" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E142" s="3">
         <v>0</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" si="116"/>
-        <v>1942661</v>
+        <f t="shared" si="131"/>
+        <v>3997907</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3">
-        <f t="shared" si="117"/>
-        <v>1942661</v>
+        <f t="shared" si="132"/>
+        <v>3997907</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="118"/>
-        <v>1942501</v>
+        <f t="shared" si="133"/>
+        <v>3998067</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -13810,33 +14178,33 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="20" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B143" s="3">
-        <v>3182433</v>
+        <v>4338042</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D143" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E143" s="3">
         <v>0</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" si="116"/>
-        <v>3182433</v>
+        <f t="shared" si="131"/>
+        <v>4338042</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3">
-        <f t="shared" si="117"/>
-        <v>3182433</v>
+        <f t="shared" si="132"/>
+        <v>4338042</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="118"/>
-        <v>3182593</v>
+        <f t="shared" si="133"/>
+        <v>4337882</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -13858,33 +14226,33 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="20" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B144" s="3">
-        <v>3637612</v>
+        <v>1942634</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D144" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>1</v>
       </c>
       <c r="E144" s="3">
         <v>0</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" si="116"/>
-        <v>3637612</v>
+        <f t="shared" si="131"/>
+        <v>1942634</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3">
-        <f t="shared" si="117"/>
-        <v>3637612</v>
+        <f t="shared" si="132"/>
+        <v>1942634</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="118"/>
-        <v>3637772</v>
+        <f t="shared" si="133"/>
+        <v>1942794</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -13906,33 +14274,33 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="20" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B145" s="3">
-        <v>4376509</v>
+        <v>1942661</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D145" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E145" s="3">
         <v>0</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="116"/>
-        <v>4376509</v>
+        <f t="shared" si="131"/>
+        <v>1942661</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3">
-        <f t="shared" si="117"/>
-        <v>4376509</v>
+        <f t="shared" si="132"/>
+        <v>1942661</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="118"/>
-        <v>4376669</v>
+        <f t="shared" si="133"/>
+        <v>1942501</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -13954,33 +14322,33 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="20" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B146" s="3">
-        <v>83735</v>
+        <v>3182433</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D146" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E146" s="3">
         <v>0</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="116"/>
-        <v>83735</v>
+        <f t="shared" si="131"/>
+        <v>3182433</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3">
-        <f t="shared" si="117"/>
-        <v>83735</v>
+        <f t="shared" si="132"/>
+        <v>3182433</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="118"/>
-        <v>83575</v>
+        <f t="shared" si="133"/>
+        <v>3182593</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -14002,31 +14370,33 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="20" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="B147" s="3">
-        <v>1645903</v>
+        <v>3637612</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D147" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
-      </c>
-      <c r="E147" s="3"/>
+        <f t="shared" si="130"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0</v>
+      </c>
       <c r="F147" s="3">
-        <f t="shared" si="116"/>
-        <v>1645903</v>
+        <f t="shared" si="131"/>
+        <v>3637612</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3">
-        <f t="shared" si="117"/>
-        <v>1645903</v>
+        <f t="shared" si="132"/>
+        <v>3637612</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="118"/>
-        <v>1645743</v>
+        <f t="shared" si="133"/>
+        <v>3637772</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -14048,33 +14418,33 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" s="20" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B148" s="3">
-        <v>1619093</v>
+        <v>4376509</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D148" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>1</v>
       </c>
       <c r="E148" s="3">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="116"/>
-        <v>1619083</v>
+        <f t="shared" si="131"/>
+        <v>4376509</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3">
-        <f t="shared" si="117"/>
-        <v>1619083</v>
+        <f t="shared" si="132"/>
+        <v>4376509</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="118"/>
-        <v>1619243</v>
+        <f t="shared" si="133"/>
+        <v>4376669</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -14096,33 +14466,33 @@
     </row>
     <row r="149" spans="1:26">
       <c r="A149" s="20" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B149" s="3">
-        <v>4326836</v>
+        <v>83735</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D149" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1</v>
       </c>
       <c r="E149" s="3">
         <v>0</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="116"/>
-        <v>4326836</v>
+        <f t="shared" si="131"/>
+        <v>83735</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3">
-        <f t="shared" si="117"/>
-        <v>4326836</v>
+        <f t="shared" si="132"/>
+        <v>83735</v>
       </c>
       <c r="I149" s="3">
-        <f t="shared" si="118"/>
-        <v>4326676</v>
+        <f t="shared" si="133"/>
+        <v>83575</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -14144,33 +14514,31 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B150" s="3">
-        <v>2032352</v>
+        <v>1645903</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D150" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1</v>
       </c>
-      <c r="E150" s="3">
-        <v>0</v>
-      </c>
+      <c r="E150" s="3"/>
       <c r="F150" s="3">
-        <f t="shared" si="116"/>
-        <v>2032352</v>
+        <f t="shared" si="131"/>
+        <v>1645903</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3">
-        <f t="shared" si="117"/>
-        <v>2032352</v>
+        <f t="shared" si="132"/>
+        <v>1645903</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="118"/>
-        <v>2032192</v>
+        <f t="shared" si="133"/>
+        <v>1645743</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -14192,33 +14560,33 @@
     </row>
     <row r="151" spans="1:26">
       <c r="A151" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B151" s="3">
-        <v>2949066</v>
+        <v>1619093</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" si="115"/>
-        <v>-1</v>
+        <f t="shared" si="130"/>
+        <v>1</v>
       </c>
       <c r="E151" s="3">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F151" s="3">
-        <f t="shared" si="116"/>
-        <v>2949066</v>
+        <f t="shared" si="131"/>
+        <v>1619083</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3">
-        <f t="shared" si="117"/>
-        <v>2949066</v>
+        <f t="shared" si="132"/>
+        <v>1619083</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="118"/>
-        <v>2948906</v>
+        <f t="shared" si="133"/>
+        <v>1619243</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -14240,33 +14608,33 @@
     </row>
     <row r="152" spans="1:26">
       <c r="A152" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B152" s="3">
-        <v>3811175</v>
+        <v>4326836</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D152" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1</v>
       </c>
       <c r="E152" s="3">
         <v>0</v>
       </c>
       <c r="F152" s="3">
-        <f t="shared" si="116"/>
-        <v>3811175</v>
+        <f t="shared" si="131"/>
+        <v>4326836</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3">
-        <f t="shared" si="117"/>
-        <v>3811175</v>
+        <f t="shared" si="132"/>
+        <v>4326836</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="118"/>
-        <v>3811015</v>
+        <f t="shared" si="133"/>
+        <v>4326676</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -14288,33 +14656,33 @@
     </row>
     <row r="153" spans="1:26">
       <c r="A153" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B153" s="3">
-        <v>919103</v>
+        <v>2032352</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D153" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1</v>
       </c>
       <c r="E153" s="3">
         <v>0</v>
       </c>
       <c r="F153" s="3">
-        <f t="shared" si="116"/>
-        <v>919103</v>
+        <f t="shared" si="131"/>
+        <v>2032352</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3">
-        <f t="shared" si="117"/>
-        <v>919103</v>
+        <f t="shared" si="132"/>
+        <v>2032352</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="118"/>
-        <v>918943</v>
+        <f t="shared" si="133"/>
+        <v>2032192</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -14336,33 +14704,33 @@
     </row>
     <row r="154" spans="1:26">
       <c r="A154" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B154" s="3">
-        <v>830783</v>
+        <v>2949066</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D154" s="3">
-        <f t="shared" si="115"/>
-        <v>1</v>
+        <f t="shared" si="130"/>
+        <v>-1</v>
       </c>
       <c r="E154" s="3">
         <v>0</v>
       </c>
       <c r="F154" s="3">
-        <f t="shared" si="116"/>
-        <v>830783</v>
+        <f t="shared" si="131"/>
+        <v>2949066</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3">
-        <f t="shared" si="117"/>
-        <v>830783</v>
+        <f t="shared" si="132"/>
+        <v>2949066</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="118"/>
-        <v>830943</v>
+        <f t="shared" si="133"/>
+        <v>2948906</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -14382,21 +14750,165 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="160" spans="1:26">
-      <c r="A160" s="44">
-        <f>COUNTA(_xlfn.UNIQUE(A2:A154))</f>
+    <row r="155" spans="1:26">
+      <c r="A155" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155" s="3">
+        <v>3811175</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D155" s="3">
+        <f t="shared" si="130"/>
+        <v>-1</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0</v>
+      </c>
+      <c r="F155" s="3">
+        <f t="shared" si="131"/>
+        <v>3811175</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3">
+        <f t="shared" si="132"/>
+        <v>3811175</v>
+      </c>
+      <c r="I155" s="3">
+        <f t="shared" si="133"/>
+        <v>3811015</v>
+      </c>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="3"/>
+      <c r="V155" s="3"/>
+      <c r="W155" s="3"/>
+      <c r="X155" s="3"/>
+      <c r="Y155" s="3"/>
+      <c r="Z155" s="3"/>
+    </row>
+    <row r="156" spans="1:26">
+      <c r="A156" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B156" s="3">
+        <v>919103</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D156" s="3">
+        <f t="shared" si="130"/>
+        <v>-1</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0</v>
+      </c>
+      <c r="F156" s="3">
+        <f t="shared" si="131"/>
+        <v>919103</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3">
+        <f t="shared" si="132"/>
+        <v>919103</v>
+      </c>
+      <c r="I156" s="3">
+        <f t="shared" si="133"/>
+        <v>918943</v>
+      </c>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3"/>
+      <c r="U156" s="3"/>
+      <c r="V156" s="3"/>
+      <c r="W156" s="3"/>
+      <c r="X156" s="3"/>
+      <c r="Y156" s="3"/>
+      <c r="Z156" s="3"/>
+    </row>
+    <row r="157" spans="1:26">
+      <c r="A157" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157" s="3">
+        <v>830783</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D157" s="3">
+        <f t="shared" si="130"/>
+        <v>1</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0</v>
+      </c>
+      <c r="F157" s="3">
+        <f t="shared" si="131"/>
+        <v>830783</v>
+      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3">
+        <f t="shared" si="132"/>
+        <v>830783</v>
+      </c>
+      <c r="I157" s="3">
+        <f t="shared" si="133"/>
+        <v>830943</v>
+      </c>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+      <c r="W157" s="3"/>
+      <c r="X157" s="3"/>
+      <c r="Y157" s="3"/>
+      <c r="Z157" s="3"/>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <f>COUNTA(_xlfn.UNIQUE(A2:A157))</f>
         <v>111</v>
       </c>
-      <c r="B160" s="44">
-        <f>COUNTA(_xlfn.UNIQUE(J1:J154))</f>
-        <v>48</v>
+      <c r="B163">
+        <f>COUNTA(_xlfn.UNIQUE(J1:J157))</f>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I102 P29 H49" formula="1"/>
+    <ignoredError sqref="I105 P29 H49" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B32FA5-A213-0B4C-87A7-D37F80D7C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEF9E9-7300-C142-BFDC-D26E4537FF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="461">
   <si>
     <t>Operon</t>
   </si>
@@ -1391,6 +1391,36 @@
   </si>
   <si>
     <t>AATGCTTGCGCCTTTTTCCTGTGGCGTGAATAATT</t>
+  </si>
+  <si>
+    <t>AATTCTCAGGCCTGCCGT</t>
+  </si>
+  <si>
+    <t>tcagcaggaattgcggactgtgctgtaacaaaatccactctcgtgttaattttgtgaataAatatcacgacaggagttaat</t>
+  </si>
+  <si>
+    <t>1,848,125 &lt;- 1,848,676</t>
+  </si>
+  <si>
+    <t>ACACCTGTCACAGGCGCAATAGATGTGGTTATCGTAATGACCCAACCGGTACTTGTCAGCAGGAATTGCGGACTGTGCTGTAACAAAATCCACTCTCGTGTTAATTTTGTGAATAAATATCACGACAGGAGTTAATCAAATGGATGCACTCGAACTATTG</t>
+  </si>
+  <si>
+    <t>AATATCACGACAGGAGTTAATCAAA</t>
+  </si>
+  <si>
+    <t>GAGTTAATCAAATGGATGCACTC</t>
+  </si>
+  <si>
+    <t>CGGTACTTGTCAGCAGGAATTGCGGACTGT</t>
+  </si>
+  <si>
+    <t>3,097,267 -&gt; 3,098,403</t>
+  </si>
+  <si>
+    <t>CCGGTTGACGGCCAGGCCAACAGTCATCTGGTGAAGTTTCTCGGTAAGCAATTCCGGGTTGCCAAAAGCCAGGTGGTGATTGAAAAAGGCGAACTTGGCCGCCACAAACAAATTAAAATCATTAATCCGCAACAAATCCCGCCAGAAATCGCGGCGTTAA</t>
+  </si>
+  <si>
+    <t>GACGGCCAGGCCAACAG</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1709,6 +1739,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3786,11 +3817,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:Z163"/>
+  <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V95" sqref="V95"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X99" sqref="X99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4159,14 +4190,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D106" si="3">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D107" si="3">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F106" si="4">B5+D5*E5</f>
+        <f t="shared" ref="F5:F107" si="4">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="5">
@@ -7196,7 +7227,7 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5">
-        <f t="shared" ref="H41:H103" si="25">F41-44</f>
+        <f t="shared" ref="H41:H104" si="25">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="5">
@@ -7527,7 +7558,7 @@
         <v>63314</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" ref="I45:I103" si="29">H45+159</f>
+        <f t="shared" ref="I45:I104" si="29">H45+159</f>
         <v>63473</v>
       </c>
       <c r="J45" s="5" t="s">
@@ -8710,11 +8741,11 @@
         <v>4122350</v>
       </c>
       <c r="U59" s="41">
-        <f t="shared" ref="U59:U104" si="49">S59-H59</f>
+        <f t="shared" ref="U59:U105" si="49">S59-H59</f>
         <v>17</v>
       </c>
       <c r="V59" s="41">
-        <f t="shared" ref="V59:V104" si="50">T59-H59</f>
+        <f t="shared" ref="V59:V105" si="50">T59-H59</f>
         <v>40</v>
       </c>
       <c r="W59" s="41" t="s">
@@ -11572,206 +11603,288 @@
         <f t="shared" si="50"/>
         <v>107</v>
       </c>
-      <c r="W94" s="5"/>
+      <c r="W94" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="X94" s="5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y94" s="5"/>
       <c r="Z94" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26">
-      <c r="A95" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" s="58" customFormat="1" ht="17">
+      <c r="A95" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="43">
         <v>1848700</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="43">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3">
+      <c r="E95" s="43">
+        <v>0</v>
+      </c>
+      <c r="F95" s="43">
         <f t="shared" si="4"/>
         <v>1848700</v>
       </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3">
+      <c r="G95" s="43"/>
+      <c r="H95" s="43">
         <f t="shared" si="25"/>
         <v>1848656</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="43">
         <f t="shared" si="29"/>
         <v>1848815</v>
       </c>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="5">
+      <c r="J95" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="K95" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="L95" s="58">
+        <v>1848700</v>
+      </c>
+      <c r="N95" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="O95" s="43">
+        <v>1848676</v>
+      </c>
+      <c r="P95" s="43">
+        <v>1848700</v>
+      </c>
+      <c r="Q95" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="R95" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="S95" s="43">
+        <v>1848665</v>
+      </c>
+      <c r="T95" s="43">
+        <f>S95+22</f>
+        <v>1848687</v>
+      </c>
+      <c r="U95" s="43">
         <f t="shared" si="49"/>
-        <v>-1848656</v>
-      </c>
-      <c r="V95" s="5">
+        <v>9</v>
+      </c>
+      <c r="V95" s="43">
         <f t="shared" si="50"/>
-        <v>-1848656</v>
-      </c>
-      <c r="W95" s="3"/>
-      <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="1:26">
-      <c r="A96" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W95" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="X95" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y95" s="43"/>
+      <c r="Z95" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="58" customFormat="1" ht="17">
+      <c r="A96" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="43">
+        <v>1848700</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="43">
+        <f t="shared" ref="D96" si="127">IF(C96="fwd",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="E96" s="43">
+        <v>0</v>
+      </c>
+      <c r="F96" s="43">
+        <f t="shared" ref="F96" si="128">B96+D96*E96</f>
+        <v>1848700</v>
+      </c>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43">
+        <f t="shared" ref="H96" si="129">F96-44</f>
+        <v>1848656</v>
+      </c>
+      <c r="I96" s="43">
+        <f t="shared" ref="I96" si="130">H96+159</f>
+        <v>1848815</v>
+      </c>
+      <c r="J96" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="K96" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="L96" s="58">
+        <v>1848700</v>
+      </c>
+      <c r="N96" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="O96" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="P96" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q96" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="R96" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="S96" s="43">
+        <v>1848740</v>
+      </c>
+      <c r="T96" s="43">
+        <f>S96+29</f>
+        <v>1848769</v>
+      </c>
+      <c r="U96" s="43">
+        <f t="shared" ref="U96" si="131">S96-H96</f>
+        <v>84</v>
+      </c>
+      <c r="V96" s="43">
+        <f t="shared" ref="V96" si="132">T96-H96</f>
+        <v>113</v>
+      </c>
+      <c r="W96" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="X96" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y96" s="43"/>
+      <c r="Z96" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A97" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B97" s="5">
         <v>3096620</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D97" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5">
         <f t="shared" si="4"/>
         <v>3096620</v>
       </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3">
-        <f t="shared" si="25"/>
-        <v>3096576</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="G97" s="5"/>
+      <c r="H97" s="5">
+        <v>3096506</v>
+      </c>
+      <c r="I97" s="5">
         <f t="shared" si="29"/>
-        <v>3096735</v>
-      </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="5">
+        <v>3096665</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="K97" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S97" s="5">
+        <v>3096512</v>
+      </c>
+      <c r="T97" s="5">
+        <f>S97+16</f>
+        <v>3096528</v>
+      </c>
+      <c r="U97" s="5">
         <f t="shared" si="49"/>
-        <v>-3096576</v>
-      </c>
-      <c r="V96" s="5">
+        <v>6</v>
+      </c>
+      <c r="V97" s="5">
         <f t="shared" si="50"/>
-        <v>-3096576</v>
-      </c>
-      <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-    </row>
-    <row r="97" spans="1:26">
-      <c r="A97" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="W97" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="X97" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B98" s="3">
         <v>3403446</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D98" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
+      <c r="E98" s="3">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3">
         <f t="shared" si="4"/>
         <v>3403446</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3">
-        <f t="shared" si="25"/>
-        <v>3403402</v>
-      </c>
-      <c r="I97" s="3">
-        <f t="shared" si="29"/>
-        <v>3403561</v>
-      </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="5">
-        <f t="shared" si="49"/>
-        <v>-3403402</v>
-      </c>
-      <c r="V97" s="5">
-        <f t="shared" si="50"/>
-        <v>-3403402</v>
-      </c>
-      <c r="W97" s="3"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-    </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" s="3">
-        <v>2214673</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D98" s="3">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
-        <f t="shared" si="4"/>
-        <v>2214673</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3">
         <f t="shared" si="25"/>
-        <v>2214629</v>
+        <v>3403402</v>
       </c>
       <c r="I98" s="3">
         <f t="shared" si="29"/>
-        <v>2214788</v>
+        <v>3403561</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -11786,11 +11899,11 @@
       <c r="T98" s="3"/>
       <c r="U98" s="5">
         <f t="shared" si="49"/>
-        <v>-2214629</v>
+        <v>-3403402</v>
       </c>
       <c r="V98" s="5">
         <f t="shared" si="50"/>
-        <v>-2214629</v>
+        <v>-3403402</v>
       </c>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
@@ -11799,10 +11912,10 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="20" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B99" s="3">
-        <v>2212969</v>
+        <v>2214673</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>118</v>
@@ -11816,16 +11929,16 @@
       </c>
       <c r="F99" s="3">
         <f t="shared" si="4"/>
-        <v>2212969</v>
+        <v>2214673</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3">
         <f t="shared" si="25"/>
-        <v>2212925</v>
+        <v>2214629</v>
       </c>
       <c r="I99" s="3">
         <f t="shared" si="29"/>
-        <v>2213084</v>
+        <v>2214788</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -11840,11 +11953,11 @@
       <c r="T99" s="3"/>
       <c r="U99" s="5">
         <f t="shared" si="49"/>
-        <v>-2212925</v>
+        <v>-2214629</v>
       </c>
       <c r="V99" s="5">
         <f t="shared" si="50"/>
-        <v>-2212925</v>
+        <v>-2214629</v>
       </c>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
@@ -11853,10 +11966,10 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="20" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B100" s="3">
-        <v>845736</v>
+        <v>2212969</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>118</v>
@@ -11870,16 +11983,16 @@
       </c>
       <c r="F100" s="3">
         <f t="shared" si="4"/>
-        <v>845736</v>
+        <v>2212969</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3">
         <f t="shared" si="25"/>
-        <v>845692</v>
+        <v>2212925</v>
       </c>
       <c r="I100" s="3">
         <f t="shared" si="29"/>
-        <v>845851</v>
+        <v>2213084</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -11894,11 +12007,11 @@
       <c r="T100" s="3"/>
       <c r="U100" s="5">
         <f t="shared" si="49"/>
-        <v>-845692</v>
+        <v>-2212925</v>
       </c>
       <c r="V100" s="5">
         <f t="shared" si="50"/>
-        <v>-845692</v>
+        <v>-2212925</v>
       </c>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
@@ -11907,33 +12020,33 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="20" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B101" s="3">
-        <v>3438001</v>
+        <v>845736</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D101" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="4"/>
-        <v>3438001</v>
+        <v>845736</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3">
         <f t="shared" si="25"/>
-        <v>3437957</v>
+        <v>845692</v>
       </c>
       <c r="I101" s="3">
         <f t="shared" si="29"/>
-        <v>3438116</v>
+        <v>845851</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -11948,11 +12061,11 @@
       <c r="T101" s="3"/>
       <c r="U101" s="5">
         <f t="shared" si="49"/>
-        <v>-3437957</v>
+        <v>-845692</v>
       </c>
       <c r="V101" s="5">
         <f t="shared" si="50"/>
-        <v>-3437957</v>
+        <v>-845692</v>
       </c>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
@@ -11961,10 +12074,10 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="20" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B102" s="3">
-        <v>4118427</v>
+        <v>3438001</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>108</v>
@@ -11978,16 +12091,16 @@
       </c>
       <c r="F102" s="3">
         <f t="shared" si="4"/>
-        <v>4118427</v>
+        <v>3438001</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3">
         <f t="shared" si="25"/>
-        <v>4118383</v>
+        <v>3437957</v>
       </c>
       <c r="I102" s="3">
         <f t="shared" si="29"/>
-        <v>4118542</v>
+        <v>3438116</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -12002,11 +12115,11 @@
       <c r="T102" s="3"/>
       <c r="U102" s="5">
         <f t="shared" si="49"/>
-        <v>-4118383</v>
+        <v>-3437957</v>
       </c>
       <c r="V102" s="5">
         <f t="shared" si="50"/>
-        <v>-4118383</v>
+        <v>-3437957</v>
       </c>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
@@ -12015,10 +12128,10 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="20" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B103" s="3">
-        <v>3808516</v>
+        <v>4118427</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>108</v>
@@ -12032,16 +12145,16 @@
       </c>
       <c r="F103" s="3">
         <f t="shared" si="4"/>
-        <v>3808516</v>
+        <v>4118427</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3">
         <f t="shared" si="25"/>
-        <v>3808472</v>
+        <v>4118383</v>
       </c>
       <c r="I103" s="3">
         <f t="shared" si="29"/>
-        <v>3808631</v>
+        <v>4118542</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -12056,98 +12169,70 @@
       <c r="T103" s="3"/>
       <c r="U103" s="5">
         <f t="shared" si="49"/>
-        <v>-3808472</v>
+        <v>-4118383</v>
       </c>
       <c r="V103" s="5">
         <f t="shared" si="50"/>
-        <v>-3808472</v>
+        <v>-4118383</v>
       </c>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" s="2" customFormat="1">
-      <c r="A104" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D104" s="5">
+    <row r="104" spans="1:26">
+      <c r="A104" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="3">
+        <v>3808516</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E104" s="5">
-        <v>0</v>
-      </c>
-      <c r="F104" s="5">
-        <f t="shared" ref="F104" si="127">B104+D104*E104</f>
-        <v>4175107</v>
-      </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5">
-        <v>4175063</v>
-      </c>
-      <c r="I104" s="5">
-        <f>H104+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L104" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="M104" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N104" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="O104" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P104" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q104" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R104" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S104" s="5">
-        <v>4175143</v>
-      </c>
-      <c r="T104" s="5">
-        <f>4175175</f>
-        <v>4175175</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="4"/>
+        <v>3808516</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3">
+        <f t="shared" si="25"/>
+        <v>3808472</v>
+      </c>
+      <c r="I104" s="3">
+        <f t="shared" si="29"/>
+        <v>3808631</v>
+      </c>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
       <c r="U104" s="5">
         <f t="shared" si="49"/>
-        <v>80</v>
+        <v>-3808472</v>
       </c>
       <c r="V104" s="5">
         <f t="shared" si="50"/>
-        <v>112</v>
-      </c>
-      <c r="W104" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="X104" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5">
-        <v>1</v>
-      </c>
+        <v>-3808472</v>
+      </c>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" s="2" customFormat="1">
       <c r="A105" s="4" t="s">
@@ -12167,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F105" si="133">B105+D105*E105</f>
         <v>4175107</v>
       </c>
       <c r="G105" s="5"/>
@@ -12193,128 +12278,156 @@
       <c r="N105" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O105" s="5">
-        <f>P105-20</f>
-        <v>4175087</v>
-      </c>
-      <c r="P105" s="5">
-        <v>4175107</v>
+      <c r="O105" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P105" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="S105" s="5">
-        <v>4175105</v>
+        <v>4175143</v>
       </c>
       <c r="T105" s="5">
-        <f>S105+84</f>
-        <v>4175189</v>
+        <f>4175175</f>
+        <v>4175175</v>
       </c>
       <c r="U105" s="5">
-        <f t="shared" ref="U105:U122" si="128">S105-H105</f>
-        <v>42</v>
+        <f t="shared" si="49"/>
+        <v>80</v>
       </c>
       <c r="V105" s="5">
-        <f t="shared" ref="V105:V122" si="129">T105-H105</f>
-        <v>126</v>
+        <f t="shared" si="50"/>
+        <v>112</v>
       </c>
       <c r="W105" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X105" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Y105" s="5"/>
       <c r="Z105" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26">
-      <c r="A106" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" s="2" customFormat="1">
+      <c r="A106" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" s="5">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5">
+        <f t="shared" si="4"/>
+        <v>4175107</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5">
+        <v>4175063</v>
+      </c>
+      <c r="I106" s="5">
+        <f>H106+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L106" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O106" s="5">
+        <f>P106-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="P106" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="Q106" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R106" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S106" s="5">
+        <v>4175105</v>
+      </c>
+      <c r="T106" s="5">
+        <f>S106+84</f>
+        <v>4175189</v>
+      </c>
+      <c r="U106" s="5">
+        <f t="shared" ref="U106:U123" si="134">S106-H106</f>
+        <v>42</v>
+      </c>
+      <c r="V106" s="5">
+        <f t="shared" ref="V106:V123" si="135">T106-H106</f>
+        <v>126</v>
+      </c>
+      <c r="W106" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="X106" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B107" s="3">
         <v>4621716</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D107" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E106" s="3">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3">
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3">
         <f t="shared" si="4"/>
         <v>4621716</v>
       </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3">
-        <f>F106</f>
-        <v>4621716</v>
-      </c>
-      <c r="I106" s="3">
-        <f>H106+D106*160</f>
-        <v>4621876</v>
-      </c>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
-      <c r="U106" s="5">
-        <f t="shared" si="128"/>
-        <v>-4621716</v>
-      </c>
-      <c r="V106" s="5">
-        <f t="shared" si="129"/>
-        <v>-4621716</v>
-      </c>
-      <c r="W106" s="3"/>
-      <c r="X106" s="3"/>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
-    </row>
-    <row r="107" spans="1:26">
-      <c r="A107" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" s="3">
-        <v>4370616</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="3">
-        <f t="shared" ref="D107:D157" si="130">IF(C107="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E107" s="3">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3">
-        <f t="shared" ref="F107:F157" si="131">B107+D107*E107</f>
-        <v>4370616</v>
-      </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3">
-        <f t="shared" ref="H107:H157" si="132">F107</f>
-        <v>4370616</v>
+        <f>F107</f>
+        <v>4621716</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" ref="I107:I157" si="133">H107+D107*160</f>
-        <v>4370776</v>
+        <f>H107+D107*160</f>
+        <v>4621876</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -12328,12 +12441,12 @@
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
       <c r="U107" s="5">
-        <f t="shared" si="128"/>
-        <v>-4370616</v>
+        <f t="shared" si="134"/>
+        <v>-4621716</v>
       </c>
       <c r="V107" s="5">
-        <f t="shared" si="129"/>
-        <v>-4370616</v>
+        <f t="shared" si="135"/>
+        <v>-4621716</v>
       </c>
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
@@ -12342,33 +12455,33 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="20" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B108" s="3">
-        <v>4472553</v>
+        <v>4370616</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D108" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" ref="D108:D158" si="136">IF(C108="fwd",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="E108" s="3">
         <v>0</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="131"/>
-        <v>4472553</v>
+        <f t="shared" ref="F108:F158" si="137">B108+D108*E108</f>
+        <v>4370616</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3">
-        <f t="shared" si="132"/>
-        <v>4472553</v>
+        <f t="shared" ref="H108:H158" si="138">F108</f>
+        <v>4370616</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="133"/>
-        <v>4472393</v>
+        <f t="shared" ref="I108:I158" si="139">H108+D108*160</f>
+        <v>4370776</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -12382,12 +12495,12 @@
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
       <c r="U108" s="5">
-        <f t="shared" si="128"/>
-        <v>-4472553</v>
+        <f t="shared" si="134"/>
+        <v>-4370616</v>
       </c>
       <c r="V108" s="5">
-        <f t="shared" si="129"/>
-        <v>-4472553</v>
+        <f t="shared" si="135"/>
+        <v>-4370616</v>
       </c>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
@@ -12396,33 +12509,33 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109" s="3">
-        <v>4178354</v>
+        <v>4472553</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D109" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
+        <f t="shared" si="136"/>
+        <v>-1</v>
       </c>
       <c r="E109" s="3">
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="131"/>
-        <v>4178354</v>
+        <f t="shared" si="137"/>
+        <v>4472553</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3">
-        <f t="shared" si="132"/>
-        <v>4178354</v>
+        <f t="shared" si="138"/>
+        <v>4472553</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="133"/>
-        <v>4178514</v>
+        <f t="shared" si="139"/>
+        <v>4472393</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -12436,12 +12549,12 @@
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
       <c r="U109" s="5">
-        <f t="shared" si="128"/>
-        <v>-4178354</v>
+        <f t="shared" si="134"/>
+        <v>-4472553</v>
       </c>
       <c r="V109" s="5">
-        <f t="shared" si="129"/>
-        <v>-4178354</v>
+        <f t="shared" si="135"/>
+        <v>-4472553</v>
       </c>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
@@ -12450,33 +12563,33 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B110" s="3">
-        <v>2042294</v>
+        <v>4178354</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E110" s="3">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="131"/>
-        <v>2042280</v>
+        <f t="shared" si="137"/>
+        <v>4178354</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3">
-        <f t="shared" si="132"/>
-        <v>2042280</v>
+        <f t="shared" si="138"/>
+        <v>4178354</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="133"/>
-        <v>2042440</v>
+        <f t="shared" si="139"/>
+        <v>4178514</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -12490,12 +12603,12 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="5">
-        <f t="shared" si="128"/>
-        <v>-2042280</v>
+        <f t="shared" si="134"/>
+        <v>-4178354</v>
       </c>
       <c r="V110" s="5">
-        <f t="shared" si="129"/>
-        <v>-2042280</v>
+        <f t="shared" si="135"/>
+        <v>-4178354</v>
       </c>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
@@ -12504,33 +12617,33 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B111" s="3">
-        <v>3922525</v>
+        <v>2042294</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="E111" s="3">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="131"/>
-        <v>3922525</v>
+        <f t="shared" si="137"/>
+        <v>2042280</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
-        <f t="shared" si="132"/>
-        <v>3922525</v>
+        <f t="shared" si="138"/>
+        <v>2042280</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="133"/>
-        <v>3922365</v>
+        <f t="shared" si="139"/>
+        <v>2042440</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -12544,12 +12657,12 @@
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
       <c r="U111" s="5">
-        <f t="shared" si="128"/>
-        <v>-3922525</v>
+        <f t="shared" si="134"/>
+        <v>-2042280</v>
       </c>
       <c r="V111" s="5">
-        <f t="shared" si="129"/>
-        <v>-3922525</v>
+        <f t="shared" si="135"/>
+        <v>-2042280</v>
       </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -12558,33 +12671,33 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B112" s="3">
-        <v>1114213</v>
+        <v>3922525</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E112" s="3">
         <v>0</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="131"/>
-        <v>1114213</v>
+        <f t="shared" si="137"/>
+        <v>3922525</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3">
-        <f t="shared" si="132"/>
-        <v>1114213</v>
+        <f t="shared" si="138"/>
+        <v>3922525</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="133"/>
-        <v>1114053</v>
+        <f t="shared" si="139"/>
+        <v>3922365</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -12598,12 +12711,12 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
       <c r="U112" s="5">
-        <f t="shared" si="128"/>
-        <v>-1114213</v>
+        <f t="shared" si="134"/>
+        <v>-3922525</v>
       </c>
       <c r="V112" s="5">
-        <f t="shared" si="129"/>
-        <v>-1114213</v>
+        <f t="shared" si="135"/>
+        <v>-3922525</v>
       </c>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
@@ -12612,33 +12725,33 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B113" s="3">
-        <v>2644913</v>
+        <v>1114213</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D113" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E113" s="3">
         <v>0</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="131"/>
-        <v>2644913</v>
+        <f t="shared" si="137"/>
+        <v>1114213</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3">
-        <f t="shared" si="132"/>
-        <v>2644913</v>
+        <f t="shared" si="138"/>
+        <v>1114213</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="133"/>
-        <v>2644753</v>
+        <f t="shared" si="139"/>
+        <v>1114053</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -12652,12 +12765,12 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
       <c r="U113" s="5">
-        <f t="shared" si="128"/>
-        <v>-2644913</v>
+        <f t="shared" si="134"/>
+        <v>-1114213</v>
       </c>
       <c r="V113" s="5">
-        <f t="shared" si="129"/>
-        <v>-2644913</v>
+        <f t="shared" si="135"/>
+        <v>-1114213</v>
       </c>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
@@ -12666,33 +12779,33 @@
     </row>
     <row r="114" spans="1:26">
       <c r="A114" s="20" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B114" s="3">
-        <v>148</v>
+        <v>2644913</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D114" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
+        <f t="shared" si="136"/>
+        <v>-1</v>
       </c>
       <c r="E114" s="3">
         <v>0</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="131"/>
-        <v>148</v>
+        <f t="shared" si="137"/>
+        <v>2644913</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3">
-        <f t="shared" si="132"/>
-        <v>148</v>
+        <f t="shared" si="138"/>
+        <v>2644913</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="133"/>
-        <v>308</v>
+        <f t="shared" si="139"/>
+        <v>2644753</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -12706,12 +12819,12 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
       <c r="U114" s="5">
-        <f t="shared" si="128"/>
-        <v>-148</v>
+        <f t="shared" si="134"/>
+        <v>-2644913</v>
       </c>
       <c r="V114" s="5">
-        <f t="shared" si="129"/>
-        <v>-148</v>
+        <f t="shared" si="135"/>
+        <v>-2644913</v>
       </c>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
@@ -12720,33 +12833,33 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" s="20" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B115" s="3">
-        <v>454993</v>
+        <v>148</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D115" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E115" s="3">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="131"/>
-        <v>454864</v>
+        <f t="shared" si="137"/>
+        <v>148</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3">
-        <f t="shared" si="132"/>
-        <v>454864</v>
+        <f t="shared" si="138"/>
+        <v>148</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="133"/>
-        <v>455024</v>
+        <f t="shared" si="139"/>
+        <v>308</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -12760,12 +12873,12 @@
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
       <c r="U115" s="5">
-        <f t="shared" si="128"/>
-        <v>-454864</v>
+        <f t="shared" si="134"/>
+        <v>-148</v>
       </c>
       <c r="V115" s="5">
-        <f t="shared" si="129"/>
-        <v>-454864</v>
+        <f t="shared" si="135"/>
+        <v>-148</v>
       </c>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
@@ -12774,33 +12887,33 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="20" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B116" s="3">
-        <v>189712</v>
+        <v>454993</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D116" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E116" s="3">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="131"/>
-        <v>189712</v>
+        <f t="shared" si="137"/>
+        <v>454864</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3">
-        <f t="shared" si="132"/>
-        <v>189712</v>
+        <f t="shared" si="138"/>
+        <v>454864</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="133"/>
-        <v>189872</v>
+        <f t="shared" si="139"/>
+        <v>455024</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -12814,12 +12927,12 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
       <c r="U116" s="5">
-        <f t="shared" si="128"/>
-        <v>-189712</v>
+        <f t="shared" si="134"/>
+        <v>-454864</v>
       </c>
       <c r="V116" s="5">
-        <f t="shared" si="129"/>
-        <v>-189712</v>
+        <f t="shared" si="135"/>
+        <v>-454864</v>
       </c>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
@@ -12828,33 +12941,33 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="20" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B117" s="3">
-        <v>3948058</v>
+        <v>189712</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D117" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E117" s="3">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="131"/>
-        <v>3948030</v>
+        <f t="shared" si="137"/>
+        <v>189712</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3">
-        <f t="shared" si="132"/>
-        <v>3948030</v>
+        <f t="shared" si="138"/>
+        <v>189712</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="133"/>
-        <v>3948190</v>
+        <f t="shared" si="139"/>
+        <v>189872</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -12868,12 +12981,12 @@
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
       <c r="U117" s="5">
-        <f t="shared" si="128"/>
-        <v>-3948030</v>
+        <f t="shared" si="134"/>
+        <v>-189712</v>
       </c>
       <c r="V117" s="5">
-        <f t="shared" si="129"/>
-        <v>-3948030</v>
+        <f t="shared" si="135"/>
+        <v>-189712</v>
       </c>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
@@ -12882,33 +12995,33 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="20" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B118" s="3">
-        <v>911076</v>
+        <v>3948058</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D118" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="E118" s="3">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="131"/>
-        <v>911076</v>
+        <f t="shared" si="137"/>
+        <v>3948030</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <f t="shared" si="132"/>
-        <v>911076</v>
+        <f t="shared" si="138"/>
+        <v>3948030</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="133"/>
-        <v>910916</v>
+        <f t="shared" si="139"/>
+        <v>3948190</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -12922,12 +13035,12 @@
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="5">
-        <f t="shared" si="128"/>
-        <v>-911076</v>
+        <f t="shared" si="134"/>
+        <v>-3948030</v>
       </c>
       <c r="V118" s="5">
-        <f t="shared" si="129"/>
-        <v>-911076</v>
+        <f t="shared" si="135"/>
+        <v>-3948030</v>
       </c>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
@@ -12936,33 +13049,33 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="20" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B119" s="3">
-        <v>1655186</v>
+        <v>911076</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D119" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E119" s="3">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="131"/>
-        <v>1655231</v>
+        <f t="shared" si="137"/>
+        <v>911076</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <f t="shared" si="132"/>
-        <v>1655231</v>
+        <f t="shared" si="138"/>
+        <v>911076</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="133"/>
-        <v>1655071</v>
+        <f t="shared" si="139"/>
+        <v>910916</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -12976,12 +13089,12 @@
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="5">
-        <f t="shared" si="128"/>
-        <v>-1655231</v>
+        <f t="shared" si="134"/>
+        <v>-911076</v>
       </c>
       <c r="V119" s="5">
-        <f t="shared" si="129"/>
-        <v>-1655231</v>
+        <f t="shared" si="135"/>
+        <v>-911076</v>
       </c>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
@@ -12990,33 +13103,33 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="20" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B120" s="3">
-        <v>4390638</v>
+        <v>1655186</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D120" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E120" s="3">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="131"/>
-        <v>4390638</v>
+        <f t="shared" si="137"/>
+        <v>1655231</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3">
-        <f t="shared" si="132"/>
-        <v>4390638</v>
+        <f t="shared" si="138"/>
+        <v>1655231</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="133"/>
-        <v>4390478</v>
+        <f t="shared" si="139"/>
+        <v>1655071</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -13030,12 +13143,12 @@
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
       <c r="U120" s="5">
-        <f t="shared" si="128"/>
-        <v>-4390638</v>
+        <f t="shared" si="134"/>
+        <v>-1655231</v>
       </c>
       <c r="V120" s="5">
-        <f t="shared" si="129"/>
-        <v>-4390638</v>
+        <f t="shared" si="135"/>
+        <v>-1655231</v>
       </c>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
@@ -13044,33 +13157,33 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="20" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B121" s="3">
-        <v>4640508</v>
+        <v>4390638</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D121" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E121" s="3">
         <v>0</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="131"/>
-        <v>4640508</v>
+        <f t="shared" si="137"/>
+        <v>4390638</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3">
-        <f t="shared" si="132"/>
-        <v>4640508</v>
+        <f t="shared" si="138"/>
+        <v>4390638</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="133"/>
-        <v>4640348</v>
+        <f t="shared" si="139"/>
+        <v>4390478</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -13084,12 +13197,12 @@
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
       <c r="U121" s="5">
-        <f t="shared" si="128"/>
-        <v>-4640508</v>
+        <f t="shared" si="134"/>
+        <v>-4390638</v>
       </c>
       <c r="V121" s="5">
-        <f t="shared" si="129"/>
-        <v>-4640508</v>
+        <f t="shared" si="135"/>
+        <v>-4390638</v>
       </c>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
@@ -13098,33 +13211,33 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="20" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B122" s="3">
-        <v>1972716</v>
+        <v>4640508</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E122" s="3">
         <v>0</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="131"/>
-        <v>1972716</v>
+        <f t="shared" si="137"/>
+        <v>4640508</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3">
-        <f t="shared" si="132"/>
-        <v>1972716</v>
+        <f t="shared" si="138"/>
+        <v>4640508</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="133"/>
-        <v>1972556</v>
+        <f t="shared" si="139"/>
+        <v>4640348</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -13138,98 +13251,71 @@
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="5">
-        <f t="shared" si="128"/>
-        <v>-1972716</v>
+        <f t="shared" si="134"/>
+        <v>-4640508</v>
       </c>
       <c r="V122" s="5">
-        <f t="shared" si="129"/>
-        <v>-1972716</v>
+        <f t="shared" si="135"/>
+        <v>-4640508</v>
       </c>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" s="2" customFormat="1" ht="17">
-      <c r="A123" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B123" s="5">
-        <v>652172</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D123" s="5">
-        <f t="shared" si="130"/>
-        <v>1</v>
-      </c>
-      <c r="E123" s="5">
-        <v>0</v>
-      </c>
-      <c r="F123" s="5">
-        <f t="shared" ref="F123" si="134">B123+D123*E123</f>
-        <v>652172</v>
-      </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="21">
-        <v>652058</v>
-      </c>
-      <c r="I123" s="5">
-        <f>H123+D123*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="K123" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="L123" s="5">
-        <v>652172</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N123" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O123" s="5">
-        <v>652193</v>
-      </c>
-      <c r="P123" s="5">
-        <v>652199</v>
-      </c>
-      <c r="Q123" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="R123" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S123" s="21">
-        <f>130+H123</f>
-        <v>652188</v>
-      </c>
-      <c r="T123" s="21">
-        <f>S123+30</f>
-        <v>652218</v>
-      </c>
+    <row r="123" spans="1:26">
+      <c r="A123" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1972716</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123" s="3">
+        <f t="shared" si="136"/>
+        <v>-1</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <f t="shared" si="137"/>
+        <v>1972716</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3">
+        <f t="shared" si="138"/>
+        <v>1972716</v>
+      </c>
+      <c r="I123" s="3">
+        <f t="shared" si="139"/>
+        <v>1972556</v>
+      </c>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
       <c r="U123" s="5">
-        <v>130</v>
+        <f t="shared" si="134"/>
+        <v>-1972716</v>
       </c>
       <c r="V123" s="5">
-        <v>160</v>
-      </c>
-      <c r="W123" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="X123" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y123" s="5"/>
-      <c r="Z123" s="5">
-        <v>0</v>
-      </c>
+        <f t="shared" si="135"/>
+        <v>-1972716</v>
+      </c>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A124" s="4" t="s">
@@ -13242,14 +13328,14 @@
         <v>108</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
       <c r="F124" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" ref="F124" si="140">B124+D124*E124</f>
         <v>652172</v>
       </c>
       <c r="G124" s="5"/>
@@ -13276,119 +13362,152 @@
         <v>165</v>
       </c>
       <c r="O124" s="5">
-        <v>652118</v>
+        <v>652193</v>
       </c>
       <c r="P124" s="5">
-        <v>652140</v>
+        <v>652199</v>
       </c>
       <c r="Q124" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R124" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="S124" s="21">
-        <f>60+H124</f>
-        <v>652118</v>
+        <f>130+H124</f>
+        <v>652188</v>
       </c>
       <c r="T124" s="21">
-        <f>S124+25</f>
-        <v>652143</v>
+        <f>S124+30</f>
+        <v>652218</v>
       </c>
       <c r="U124" s="5">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="V124" s="5">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="W124" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X124" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Y124" s="5"/>
       <c r="Z124" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
-      <c r="A125" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B125" s="3">
-        <v>70075</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D125" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
-      </c>
-      <c r="E125" s="3">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3">
-        <f t="shared" si="131"/>
-        <v>70075</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3">
-        <f t="shared" si="132"/>
-        <v>70075</v>
-      </c>
-      <c r="I125" s="3">
-        <f t="shared" si="133"/>
-        <v>69915</v>
-      </c>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
-      <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-      <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
-      <c r="U125" s="3"/>
-      <c r="V125" s="3"/>
-      <c r="W125" s="3"/>
-      <c r="X125" s="3"/>
-      <c r="Y125" s="3"/>
-      <c r="Z125" s="3"/>
+    <row r="125" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A125" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" s="5">
+        <v>652172</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" s="5">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" si="137"/>
+        <v>652172</v>
+      </c>
+      <c r="G125" s="5"/>
+      <c r="H125" s="21">
+        <v>652058</v>
+      </c>
+      <c r="I125" s="5">
+        <f>H125+D125*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L125" s="5">
+        <v>652172</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N125" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O125" s="5">
+        <v>652118</v>
+      </c>
+      <c r="P125" s="5">
+        <v>652140</v>
+      </c>
+      <c r="Q125" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R125" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S125" s="21">
+        <f>60+H125</f>
+        <v>652118</v>
+      </c>
+      <c r="T125" s="21">
+        <f>S125+25</f>
+        <v>652143</v>
+      </c>
+      <c r="U125" s="5">
+        <v>60</v>
+      </c>
+      <c r="V125" s="5">
+        <v>85</v>
+      </c>
+      <c r="W125" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="X125" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="20" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B126" s="3">
-        <v>70241</v>
+        <v>70075</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D126" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
+        <f t="shared" si="136"/>
+        <v>-1</v>
       </c>
       <c r="E126" s="3">
         <v>0</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="131"/>
-        <v>70241</v>
+        <f t="shared" si="137"/>
+        <v>70075</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3">
-        <f t="shared" si="132"/>
-        <v>70241</v>
+        <f t="shared" si="138"/>
+        <v>70075</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="133"/>
-        <v>70401</v>
+        <f t="shared" si="139"/>
+        <v>69915</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -13410,33 +13529,33 @@
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="20" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B127" s="3">
-        <v>3731069</v>
+        <v>70241</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D127" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E127" s="3">
         <v>0</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="131"/>
-        <v>3731069</v>
+        <f t="shared" si="137"/>
+        <v>70241</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3">
-        <f t="shared" si="132"/>
-        <v>3731069</v>
+        <f t="shared" si="138"/>
+        <v>70241</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="133"/>
-        <v>3731229</v>
+        <f t="shared" si="139"/>
+        <v>70401</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -13458,33 +13577,33 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B128" s="3">
-        <v>3730807</v>
+        <v>3731069</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D128" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="E128" s="3">
         <v>0</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="131"/>
-        <v>3730807</v>
+        <f t="shared" si="137"/>
+        <v>3731069</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3">
-        <f t="shared" si="132"/>
-        <v>3730807</v>
+        <f t="shared" si="138"/>
+        <v>3731069</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="133"/>
-        <v>3730647</v>
+        <f t="shared" si="139"/>
+        <v>3731229</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -13506,33 +13625,33 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="20" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B129" s="3">
-        <v>1647934</v>
+        <v>3730807</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D129" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
+        <f t="shared" si="136"/>
+        <v>-1</v>
       </c>
       <c r="E129" s="3">
         <v>0</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="131"/>
-        <v>1647934</v>
+        <f t="shared" si="137"/>
+        <v>3730807</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3">
-        <f t="shared" si="132"/>
-        <v>1647934</v>
+        <f t="shared" si="138"/>
+        <v>3730807</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="133"/>
-        <v>1648094</v>
+        <f t="shared" si="139"/>
+        <v>3730647</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -13554,33 +13673,33 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="20" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="B130" s="3">
-        <v>1647876</v>
+        <v>1647934</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D130" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="E130" s="3">
         <v>0</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="131"/>
-        <v>1647876</v>
+        <f t="shared" si="137"/>
+        <v>1647934</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3">
-        <f t="shared" si="132"/>
-        <v>1647876</v>
+        <f t="shared" si="138"/>
+        <v>1647934</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="133"/>
-        <v>1647716</v>
+        <f t="shared" si="139"/>
+        <v>1648094</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -13602,33 +13721,33 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="20" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="B131" s="3">
-        <v>1649597</v>
+        <v>1647876</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D131" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
+        <f t="shared" si="136"/>
+        <v>-1</v>
       </c>
       <c r="E131" s="3">
         <v>0</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="131"/>
-        <v>1649597</v>
+        <f t="shared" si="137"/>
+        <v>1647876</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3">
-        <f t="shared" si="132"/>
-        <v>1649597</v>
+        <f t="shared" si="138"/>
+        <v>1647876</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="133"/>
-        <v>1649757</v>
+        <f t="shared" si="139"/>
+        <v>1647716</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -13650,33 +13769,33 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="20" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B132" s="3">
-        <v>3536707</v>
+        <v>1649597</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="E132" s="3">
         <v>0</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="131"/>
-        <v>3536707</v>
+        <f t="shared" si="137"/>
+        <v>1649597</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3">
-        <f t="shared" si="132"/>
-        <v>3536707</v>
+        <f t="shared" si="138"/>
+        <v>1649597</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="133"/>
-        <v>3536547</v>
+        <f t="shared" si="139"/>
+        <v>1649757</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -13698,33 +13817,33 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="20" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B133" s="3">
-        <v>2524910</v>
+        <v>3536707</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E133" s="3">
         <v>0</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="131"/>
-        <v>2524910</v>
+        <f t="shared" si="137"/>
+        <v>3536707</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3">
-        <f t="shared" si="132"/>
-        <v>2524910</v>
+        <f t="shared" si="138"/>
+        <v>3536707</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="133"/>
-        <v>2524750</v>
+        <f t="shared" si="139"/>
+        <v>3536547</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -13746,33 +13865,33 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" s="20" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B134" s="3">
-        <v>3957912</v>
+        <v>2524910</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D134" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
+        <f t="shared" si="136"/>
+        <v>-1</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="131"/>
-        <v>3957912</v>
+        <f t="shared" si="137"/>
+        <v>2524910</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3">
-        <f t="shared" si="132"/>
-        <v>3957912</v>
+        <f t="shared" si="138"/>
+        <v>2524910</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="133"/>
-        <v>3958072</v>
+        <f t="shared" si="139"/>
+        <v>2524750</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -13794,33 +13913,33 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B135" s="3">
-        <v>3927129</v>
+        <v>3957912</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D135" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E135" s="3">
         <v>0</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="131"/>
-        <v>3927129</v>
+        <f t="shared" si="137"/>
+        <v>3957912</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3">
-        <f t="shared" si="132"/>
-        <v>3927129</v>
+        <f t="shared" si="138"/>
+        <v>3957912</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="133"/>
-        <v>3927289</v>
+        <f t="shared" si="139"/>
+        <v>3958072</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -13842,33 +13961,33 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" s="20" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B136" s="3">
-        <v>4494597</v>
+        <v>3927129</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D136" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E136" s="3">
         <v>0</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="131"/>
-        <v>4494597</v>
+        <f t="shared" si="137"/>
+        <v>3927129</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3">
-        <f t="shared" si="132"/>
-        <v>4494597</v>
+        <f t="shared" si="138"/>
+        <v>3927129</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="133"/>
-        <v>4494757</v>
+        <f t="shared" si="139"/>
+        <v>3927289</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -13890,33 +14009,33 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B137" s="3">
-        <v>246533</v>
+        <v>4494597</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D137" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="E137" s="3">
         <v>0</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" si="131"/>
-        <v>246533</v>
+        <f t="shared" si="137"/>
+        <v>4494597</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3">
-        <f t="shared" si="132"/>
-        <v>246533</v>
+        <f t="shared" si="138"/>
+        <v>4494597</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="133"/>
-        <v>246373</v>
+        <f t="shared" si="139"/>
+        <v>4494757</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -13938,33 +14057,33 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" s="20" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B138" s="3">
-        <v>4591367</v>
+        <v>246533</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D138" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E138" s="3">
         <v>0</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="131"/>
-        <v>4591367</v>
+        <f t="shared" si="137"/>
+        <v>246533</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3">
-        <f t="shared" si="132"/>
-        <v>4591367</v>
+        <f t="shared" si="138"/>
+        <v>246533</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="133"/>
-        <v>4591207</v>
+        <f t="shared" si="139"/>
+        <v>246373</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -13986,33 +14105,33 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B139" s="3">
-        <v>1977302</v>
+        <v>4591367</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D139" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E139" s="3">
         <v>0</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="131"/>
-        <v>1977302</v>
+        <f t="shared" si="137"/>
+        <v>4591367</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3">
-        <f t="shared" si="132"/>
-        <v>1977302</v>
+        <f t="shared" si="138"/>
+        <v>4591367</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="133"/>
-        <v>1977142</v>
+        <f t="shared" si="139"/>
+        <v>4591207</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -14034,33 +14153,33 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="20" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B140" s="3">
-        <v>933138</v>
+        <v>1977302</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D140" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
+        <f t="shared" si="136"/>
+        <v>-1</v>
       </c>
       <c r="E140" s="3">
         <v>0</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="131"/>
-        <v>933138</v>
+        <f t="shared" si="137"/>
+        <v>1977302</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3">
-        <f t="shared" si="132"/>
-        <v>933138</v>
+        <f t="shared" si="138"/>
+        <v>1977302</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="133"/>
-        <v>933298</v>
+        <f t="shared" si="139"/>
+        <v>1977142</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -14082,33 +14201,33 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="20" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B141" s="3">
-        <v>87969</v>
+        <v>933138</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D141" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E141" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="131"/>
-        <v>87991</v>
+        <f t="shared" si="137"/>
+        <v>933138</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3">
-        <f t="shared" si="132"/>
-        <v>87991</v>
+        <f t="shared" si="138"/>
+        <v>933138</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="133"/>
-        <v>88151</v>
+        <f t="shared" si="139"/>
+        <v>933298</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -14130,33 +14249,33 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="20" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B142" s="3">
-        <v>3997907</v>
+        <v>87969</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D142" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E142" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" si="131"/>
-        <v>3997907</v>
+        <f t="shared" si="137"/>
+        <v>87991</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3">
-        <f t="shared" si="132"/>
-        <v>3997907</v>
+        <f t="shared" si="138"/>
+        <v>87991</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="133"/>
-        <v>3998067</v>
+        <f t="shared" si="139"/>
+        <v>88151</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -14178,33 +14297,33 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="20" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B143" s="3">
-        <v>4338042</v>
+        <v>3997907</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D143" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="E143" s="3">
         <v>0</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" si="131"/>
-        <v>4338042</v>
+        <f t="shared" si="137"/>
+        <v>3997907</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3">
-        <f t="shared" si="132"/>
-        <v>4338042</v>
+        <f t="shared" si="138"/>
+        <v>3997907</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="133"/>
-        <v>4337882</v>
+        <f t="shared" si="139"/>
+        <v>3998067</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -14226,33 +14345,33 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="20" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B144" s="3">
-        <v>1942634</v>
+        <v>4338042</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D144" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
+        <f t="shared" si="136"/>
+        <v>-1</v>
       </c>
       <c r="E144" s="3">
         <v>0</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" si="131"/>
-        <v>1942634</v>
+        <f t="shared" si="137"/>
+        <v>4338042</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3">
-        <f t="shared" si="132"/>
-        <v>1942634</v>
+        <f t="shared" si="138"/>
+        <v>4338042</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="133"/>
-        <v>1942794</v>
+        <f t="shared" si="139"/>
+        <v>4337882</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -14274,33 +14393,33 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B145" s="3">
-        <v>1942661</v>
+        <v>1942634</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D145" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="E145" s="3">
         <v>0</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="131"/>
-        <v>1942661</v>
+        <f t="shared" si="137"/>
+        <v>1942634</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3">
-        <f t="shared" si="132"/>
-        <v>1942661</v>
+        <f t="shared" si="138"/>
+        <v>1942634</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="133"/>
-        <v>1942501</v>
+        <f t="shared" si="139"/>
+        <v>1942794</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -14322,33 +14441,33 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="20" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B146" s="3">
-        <v>3182433</v>
+        <v>1942661</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D146" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
+        <f t="shared" si="136"/>
+        <v>-1</v>
       </c>
       <c r="E146" s="3">
         <v>0</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="131"/>
-        <v>3182433</v>
+        <f t="shared" si="137"/>
+        <v>1942661</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3">
-        <f t="shared" si="132"/>
-        <v>3182433</v>
+        <f t="shared" si="138"/>
+        <v>1942661</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="133"/>
-        <v>3182593</v>
+        <f t="shared" si="139"/>
+        <v>1942501</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -14370,33 +14489,33 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="20" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B147" s="3">
-        <v>3637612</v>
+        <v>3182433</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D147" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E147" s="3">
         <v>0</v>
       </c>
       <c r="F147" s="3">
-        <f t="shared" si="131"/>
-        <v>3637612</v>
+        <f t="shared" si="137"/>
+        <v>3182433</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3">
-        <f t="shared" si="132"/>
-        <v>3637612</v>
+        <f t="shared" si="138"/>
+        <v>3182433</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="133"/>
-        <v>3637772</v>
+        <f t="shared" si="139"/>
+        <v>3182593</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -14418,33 +14537,33 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" s="20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B148" s="3">
-        <v>4376509</v>
+        <v>3637612</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D148" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="E148" s="3">
         <v>0</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="131"/>
-        <v>4376509</v>
+        <f t="shared" si="137"/>
+        <v>3637612</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3">
-        <f t="shared" si="132"/>
-        <v>4376509</v>
+        <f t="shared" si="138"/>
+        <v>3637612</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="133"/>
-        <v>4376669</v>
+        <f t="shared" si="139"/>
+        <v>3637772</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -14466,33 +14585,33 @@
     </row>
     <row r="149" spans="1:26">
       <c r="A149" s="20" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B149" s="3">
-        <v>83735</v>
+        <v>4376509</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D149" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="E149" s="3">
         <v>0</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="131"/>
-        <v>83735</v>
+        <f t="shared" si="137"/>
+        <v>4376509</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3">
-        <f t="shared" si="132"/>
-        <v>83735</v>
+        <f t="shared" si="138"/>
+        <v>4376509</v>
       </c>
       <c r="I149" s="3">
-        <f t="shared" si="133"/>
-        <v>83575</v>
+        <f t="shared" si="139"/>
+        <v>4376669</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -14514,31 +14633,33 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" s="20" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B150" s="3">
-        <v>1645903</v>
+        <v>83735</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D150" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
-      <c r="E150" s="3"/>
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
       <c r="F150" s="3">
-        <f t="shared" si="131"/>
-        <v>1645903</v>
+        <f t="shared" si="137"/>
+        <v>83735</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3">
-        <f t="shared" si="132"/>
-        <v>1645903</v>
+        <f t="shared" si="138"/>
+        <v>83735</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="133"/>
-        <v>1645743</v>
+        <f t="shared" si="139"/>
+        <v>83575</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -14560,33 +14681,31 @@
     </row>
     <row r="151" spans="1:26">
       <c r="A151" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B151" s="3">
-        <v>1619093</v>
+        <v>1645903</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
-      </c>
-      <c r="E151" s="3">
-        <v>-10</v>
-      </c>
+        <f t="shared" si="136"/>
+        <v>-1</v>
+      </c>
+      <c r="E151" s="3"/>
       <c r="F151" s="3">
-        <f t="shared" si="131"/>
-        <v>1619083</v>
+        <f t="shared" si="137"/>
+        <v>1645903</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3">
-        <f t="shared" si="132"/>
-        <v>1619083</v>
+        <f t="shared" si="138"/>
+        <v>1645903</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="133"/>
-        <v>1619243</v>
+        <f t="shared" si="139"/>
+        <v>1645743</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -14608,33 +14727,33 @@
     </row>
     <row r="152" spans="1:26">
       <c r="A152" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B152" s="3">
-        <v>4326836</v>
+        <v>1619093</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D152" s="3">
-        <f t="shared" si="130"/>
-        <v>-1</v>
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="E152" s="3">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F152" s="3">
-        <f t="shared" si="131"/>
-        <v>4326836</v>
+        <f t="shared" si="137"/>
+        <v>1619083</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3">
-        <f t="shared" si="132"/>
-        <v>4326836</v>
+        <f t="shared" si="138"/>
+        <v>1619083</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="133"/>
-        <v>4326676</v>
+        <f t="shared" si="139"/>
+        <v>1619243</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -14656,33 +14775,33 @@
     </row>
     <row r="153" spans="1:26">
       <c r="A153" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B153" s="3">
-        <v>2032352</v>
+        <v>4326836</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D153" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E153" s="3">
         <v>0</v>
       </c>
       <c r="F153" s="3">
-        <f t="shared" si="131"/>
-        <v>2032352</v>
+        <f t="shared" si="137"/>
+        <v>4326836</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3">
-        <f t="shared" si="132"/>
-        <v>2032352</v>
+        <f t="shared" si="138"/>
+        <v>4326836</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="133"/>
-        <v>2032192</v>
+        <f t="shared" si="139"/>
+        <v>4326676</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -14704,33 +14823,33 @@
     </row>
     <row r="154" spans="1:26">
       <c r="A154" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="3">
-        <v>2949066</v>
+        <v>2032352</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D154" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E154" s="3">
         <v>0</v>
       </c>
       <c r="F154" s="3">
-        <f t="shared" si="131"/>
-        <v>2949066</v>
+        <f t="shared" si="137"/>
+        <v>2032352</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3">
-        <f t="shared" si="132"/>
-        <v>2949066</v>
+        <f t="shared" si="138"/>
+        <v>2032352</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="133"/>
-        <v>2948906</v>
+        <f t="shared" si="139"/>
+        <v>2032192</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -14752,33 +14871,33 @@
     </row>
     <row r="155" spans="1:26">
       <c r="A155" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="3">
-        <v>3811175</v>
+        <v>2949066</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D155" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E155" s="3">
         <v>0</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="131"/>
-        <v>3811175</v>
+        <f t="shared" si="137"/>
+        <v>2949066</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3">
-        <f t="shared" si="132"/>
-        <v>3811175</v>
+        <f t="shared" si="138"/>
+        <v>2949066</v>
       </c>
       <c r="I155" s="3">
-        <f t="shared" si="133"/>
-        <v>3811015</v>
+        <f t="shared" si="139"/>
+        <v>2948906</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
@@ -14800,33 +14919,33 @@
     </row>
     <row r="156" spans="1:26">
       <c r="A156" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B156" s="3">
-        <v>919103</v>
+        <v>3811175</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D156" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="131"/>
-        <v>919103</v>
+        <f t="shared" si="137"/>
+        <v>3811175</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3">
-        <f t="shared" si="132"/>
-        <v>919103</v>
+        <f t="shared" si="138"/>
+        <v>3811175</v>
       </c>
       <c r="I156" s="3">
-        <f t="shared" si="133"/>
-        <v>918943</v>
+        <f t="shared" si="139"/>
+        <v>3811015</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -14848,33 +14967,33 @@
     </row>
     <row r="157" spans="1:26">
       <c r="A157" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B157" s="3">
-        <v>830783</v>
+        <v>919103</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D157" s="3">
-        <f t="shared" si="130"/>
-        <v>1</v>
+        <f t="shared" si="136"/>
+        <v>-1</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
       </c>
       <c r="F157" s="3">
-        <f t="shared" si="131"/>
-        <v>830783</v>
+        <f t="shared" si="137"/>
+        <v>919103</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3">
-        <f t="shared" si="132"/>
-        <v>830783</v>
+        <f t="shared" si="138"/>
+        <v>919103</v>
       </c>
       <c r="I157" s="3">
-        <f t="shared" si="133"/>
-        <v>830943</v>
+        <f t="shared" si="139"/>
+        <v>918943</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -14894,21 +15013,69 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163">
-        <f>COUNTA(_xlfn.UNIQUE(A2:A157))</f>
+    <row r="158" spans="1:26">
+      <c r="A158" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B158" s="3">
+        <v>830783</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D158" s="3">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0</v>
+      </c>
+      <c r="F158" s="3">
+        <f t="shared" si="137"/>
+        <v>830783</v>
+      </c>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3">
+        <f t="shared" si="138"/>
+        <v>830783</v>
+      </c>
+      <c r="I158" s="3">
+        <f t="shared" si="139"/>
+        <v>830943</v>
+      </c>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+      <c r="W158" s="3"/>
+      <c r="X158" s="3"/>
+      <c r="Y158" s="3"/>
+      <c r="Z158" s="3"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <f>COUNTA(_xlfn.UNIQUE(A2:A158))</f>
         <v>111</v>
       </c>
-      <c r="B163">
-        <f>COUNTA(_xlfn.UNIQUE(J1:J157))</f>
-        <v>54</v>
+      <c r="B164">
+        <f>COUNTA(_xlfn.UNIQUE(J1:J158))</f>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I105 P29 H49" formula="1"/>
+    <ignoredError sqref="I106 P29 H49" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -14918,7 +15085,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEF9E9-7300-C142-BFDC-D26E4537FF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87CF069-EBEB-D641-80A4-FC7F43C61C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="466">
   <si>
     <t>Operon</t>
   </si>
@@ -1421,6 +1421,21 @@
   </si>
   <si>
     <t>GACGGCCAGGCCAACAG</t>
+  </si>
+  <si>
+    <t>TTTAATTTGTTTGTGGCG</t>
+  </si>
+  <si>
+    <t>3,403,484 -&gt; 3,404,458</t>
+  </si>
+  <si>
+    <t>TCCTTGTGTTAACTCCGATAGTGAGGAAGCGGGCATACTAGCAAATCAGATTTATCTCGCAATTTATTGCGCTTCATCGGCTTTGCTTTTCCATTAGCGAGTATAGTCTTCAGAAATTATTTTCCAATCCATCATGCACATGAGGACCACTTATGCAGGC</t>
+  </si>
+  <si>
+    <t>TTAGCGAGTATAGTCTTCAGAA</t>
+  </si>
+  <si>
+    <t>CCATCATGCACATG</t>
   </si>
 </sst>
 </file>
@@ -3817,11 +3832,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:Z164"/>
+  <dimension ref="A1:Z165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X99" sqref="X99"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z100" sqref="Z100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4190,14 +4205,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D107" si="3">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D108" si="3">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F107" si="4">B5+D5*E5</f>
+        <f t="shared" ref="F5:F108" si="4">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="5">
@@ -7227,7 +7242,7 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5">
-        <f t="shared" ref="H41:H104" si="25">F41-44</f>
+        <f t="shared" ref="H41:H105" si="25">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="5">
@@ -7558,7 +7573,7 @@
         <v>63314</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" ref="I45:I104" si="29">H45+159</f>
+        <f t="shared" ref="I45:I105" si="29">H45+159</f>
         <v>63473</v>
       </c>
       <c r="J45" s="5" t="s">
@@ -8741,11 +8756,11 @@
         <v>4122350</v>
       </c>
       <c r="U59" s="41">
-        <f t="shared" ref="U59:U105" si="49">S59-H59</f>
+        <f t="shared" ref="U59:U106" si="49">S59-H59</f>
         <v>17</v>
       </c>
       <c r="V59" s="41">
-        <f t="shared" ref="V59:V105" si="50">T59-H59</f>
+        <f t="shared" ref="V59:V106" si="50">T59-H59</f>
         <v>40</v>
       </c>
       <c r="W59" s="41" t="s">
@@ -11856,120 +11871,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="20" t="s">
+    <row r="98" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A98" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="5">
+        <v>3096620</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="5">
+        <f t="shared" ref="D98" si="133">IF(C98="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
+      <c r="F98" s="5">
+        <f t="shared" ref="F98" si="134">B98+D98*E98</f>
+        <v>3096620</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5">
+        <v>3096506</v>
+      </c>
+      <c r="I98" s="5">
+        <f t="shared" ref="I98" si="135">H98+159</f>
+        <v>3096665</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="K98" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S98" s="5">
+        <f>T98-17</f>
+        <v>3096605</v>
+      </c>
+      <c r="T98" s="5">
+        <v>3096622</v>
+      </c>
+      <c r="U98" s="5">
+        <f t="shared" ref="U98" si="136">S98-H98</f>
+        <v>99</v>
+      </c>
+      <c r="V98" s="5">
+        <f t="shared" ref="V98" si="137">T98-H98</f>
+        <v>116</v>
+      </c>
+      <c r="W98" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="X98" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" s="55" customFormat="1" ht="17">
+      <c r="A99" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B99" s="36">
         <v>3403446</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C99" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D99" s="36">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
+      <c r="E99" s="36">
+        <v>0</v>
+      </c>
+      <c r="F99" s="36">
         <f t="shared" si="4"/>
         <v>3403446</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3">
-        <f t="shared" si="25"/>
-        <v>3403402</v>
-      </c>
-      <c r="I98" s="3">
+      <c r="G99" s="36"/>
+      <c r="H99" s="36">
+        <v>3403332</v>
+      </c>
+      <c r="I99" s="36">
         <f t="shared" si="29"/>
-        <v>3403561</v>
-      </c>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="5">
+        <v>3403491</v>
+      </c>
+      <c r="J99" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="K99" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="L99" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="M99" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="N99" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="O99" s="36">
+        <v>3403425</v>
+      </c>
+      <c r="P99" s="36">
+        <v>3403446</v>
+      </c>
+      <c r="Q99" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="R99" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="S99" s="36">
+        <v>3403460</v>
+      </c>
+      <c r="T99" s="36">
+        <f>S99+13</f>
+        <v>3403473</v>
+      </c>
+      <c r="U99" s="36">
         <f t="shared" si="49"/>
-        <v>-3403402</v>
-      </c>
-      <c r="V98" s="5">
+        <v>128</v>
+      </c>
+      <c r="V99" s="36">
         <f t="shared" si="50"/>
-        <v>-3403402</v>
-      </c>
-      <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-    </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B99" s="3">
-        <v>2214673</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D99" s="3">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
-        <f t="shared" si="4"/>
-        <v>2214673</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3">
-        <f t="shared" si="25"/>
-        <v>2214629</v>
-      </c>
-      <c r="I99" s="3">
-        <f t="shared" si="29"/>
-        <v>2214788</v>
-      </c>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="5">
-        <f t="shared" si="49"/>
-        <v>-2214629</v>
-      </c>
-      <c r="V99" s="5">
-        <f t="shared" si="50"/>
-        <v>-2214629</v>
-      </c>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="W99" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="X99" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y99" s="36"/>
+      <c r="Z99" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="20" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B100" s="3">
-        <v>2212969</v>
+        <v>2214673</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>118</v>
@@ -11983,16 +12054,16 @@
       </c>
       <c r="F100" s="3">
         <f t="shared" si="4"/>
-        <v>2212969</v>
+        <v>2214673</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3">
         <f t="shared" si="25"/>
-        <v>2212925</v>
+        <v>2214629</v>
       </c>
       <c r="I100" s="3">
         <f t="shared" si="29"/>
-        <v>2213084</v>
+        <v>2214788</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -12007,11 +12078,11 @@
       <c r="T100" s="3"/>
       <c r="U100" s="5">
         <f t="shared" si="49"/>
-        <v>-2212925</v>
+        <v>-2214629</v>
       </c>
       <c r="V100" s="5">
         <f t="shared" si="50"/>
-        <v>-2212925</v>
+        <v>-2214629</v>
       </c>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
@@ -12020,10 +12091,10 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="20" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B101" s="3">
-        <v>845736</v>
+        <v>2212969</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>118</v>
@@ -12037,16 +12108,16 @@
       </c>
       <c r="F101" s="3">
         <f t="shared" si="4"/>
-        <v>845736</v>
+        <v>2212969</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3">
         <f t="shared" si="25"/>
-        <v>845692</v>
+        <v>2212925</v>
       </c>
       <c r="I101" s="3">
         <f t="shared" si="29"/>
-        <v>845851</v>
+        <v>2213084</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -12061,11 +12132,11 @@
       <c r="T101" s="3"/>
       <c r="U101" s="5">
         <f t="shared" si="49"/>
-        <v>-845692</v>
+        <v>-2212925</v>
       </c>
       <c r="V101" s="5">
         <f t="shared" si="50"/>
-        <v>-845692</v>
+        <v>-2212925</v>
       </c>
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
@@ -12074,33 +12145,33 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="20" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B102" s="3">
-        <v>3438001</v>
+        <v>845736</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D102" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="4"/>
-        <v>3438001</v>
+        <v>845736</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3">
         <f t="shared" si="25"/>
-        <v>3437957</v>
+        <v>845692</v>
       </c>
       <c r="I102" s="3">
         <f t="shared" si="29"/>
-        <v>3438116</v>
+        <v>845851</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -12115,11 +12186,11 @@
       <c r="T102" s="3"/>
       <c r="U102" s="5">
         <f t="shared" si="49"/>
-        <v>-3437957</v>
+        <v>-845692</v>
       </c>
       <c r="V102" s="5">
         <f t="shared" si="50"/>
-        <v>-3437957</v>
+        <v>-845692</v>
       </c>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
@@ -12128,10 +12199,10 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="20" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B103" s="3">
-        <v>4118427</v>
+        <v>3438001</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>108</v>
@@ -12145,16 +12216,16 @@
       </c>
       <c r="F103" s="3">
         <f t="shared" si="4"/>
-        <v>4118427</v>
+        <v>3438001</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3">
         <f t="shared" si="25"/>
-        <v>4118383</v>
+        <v>3437957</v>
       </c>
       <c r="I103" s="3">
         <f t="shared" si="29"/>
-        <v>4118542</v>
+        <v>3438116</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
@@ -12169,11 +12240,11 @@
       <c r="T103" s="3"/>
       <c r="U103" s="5">
         <f t="shared" si="49"/>
-        <v>-4118383</v>
+        <v>-3437957</v>
       </c>
       <c r="V103" s="5">
         <f t="shared" si="50"/>
-        <v>-4118383</v>
+        <v>-3437957</v>
       </c>
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
@@ -12182,10 +12253,10 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="20" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B104" s="3">
-        <v>3808516</v>
+        <v>4118427</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>108</v>
@@ -12199,16 +12270,16 @@
       </c>
       <c r="F104" s="3">
         <f t="shared" si="4"/>
-        <v>3808516</v>
+        <v>4118427</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3">
         <f t="shared" si="25"/>
-        <v>3808472</v>
+        <v>4118383</v>
       </c>
       <c r="I104" s="3">
         <f t="shared" si="29"/>
-        <v>3808631</v>
+        <v>4118542</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
@@ -12223,98 +12294,70 @@
       <c r="T104" s="3"/>
       <c r="U104" s="5">
         <f t="shared" si="49"/>
-        <v>-3808472</v>
+        <v>-4118383</v>
       </c>
       <c r="V104" s="5">
         <f t="shared" si="50"/>
-        <v>-3808472</v>
+        <v>-4118383</v>
       </c>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" s="2" customFormat="1">
-      <c r="A105" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D105" s="5">
+    <row r="105" spans="1:26">
+      <c r="A105" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="3">
+        <v>3808516</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E105" s="5">
-        <v>0</v>
-      </c>
-      <c r="F105" s="5">
-        <f t="shared" ref="F105" si="133">B105+D105*E105</f>
-        <v>4175107</v>
-      </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5">
-        <v>4175063</v>
-      </c>
-      <c r="I105" s="5">
-        <f>H105+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L105" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N105" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="O105" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P105" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q105" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R105" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S105" s="5">
-        <v>4175143</v>
-      </c>
-      <c r="T105" s="5">
-        <f>4175175</f>
-        <v>4175175</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="4"/>
+        <v>3808516</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3">
+        <f t="shared" si="25"/>
+        <v>3808472</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" si="29"/>
+        <v>3808631</v>
+      </c>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
       <c r="U105" s="5">
         <f t="shared" si="49"/>
-        <v>80</v>
+        <v>-3808472</v>
       </c>
       <c r="V105" s="5">
         <f t="shared" si="50"/>
-        <v>112</v>
-      </c>
-      <c r="W105" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="X105" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y105" s="5"/>
-      <c r="Z105" s="5">
-        <v>1</v>
-      </c>
+        <v>-3808472</v>
+      </c>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" s="2" customFormat="1">
       <c r="A106" s="4" t="s">
@@ -12334,7 +12377,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F106" si="138">B106+D106*E106</f>
         <v>4175107</v>
       </c>
       <c r="G106" s="5"/>
@@ -12360,128 +12403,156 @@
       <c r="N106" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O106" s="5">
-        <f>P106-20</f>
-        <v>4175087</v>
-      </c>
-      <c r="P106" s="5">
-        <v>4175107</v>
+      <c r="O106" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P106" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="S106" s="5">
-        <v>4175105</v>
+        <v>4175143</v>
       </c>
       <c r="T106" s="5">
-        <f>S106+84</f>
-        <v>4175189</v>
+        <f>4175175</f>
+        <v>4175175</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" ref="U106:U123" si="134">S106-H106</f>
-        <v>42</v>
+        <f t="shared" si="49"/>
+        <v>80</v>
       </c>
       <c r="V106" s="5">
-        <f t="shared" ref="V106:V123" si="135">T106-H106</f>
-        <v>126</v>
+        <f t="shared" si="50"/>
+        <v>112</v>
       </c>
       <c r="W106" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X106" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Y106" s="5"/>
       <c r="Z106" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26">
-      <c r="A107" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" s="2" customFormat="1">
+      <c r="A107" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="5">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5">
+        <f t="shared" si="4"/>
+        <v>4175107</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5">
+        <v>4175063</v>
+      </c>
+      <c r="I107" s="5">
+        <f>H107+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L107" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O107" s="5">
+        <f>P107-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="P107" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="Q107" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R107" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S107" s="5">
+        <v>4175105</v>
+      </c>
+      <c r="T107" s="5">
+        <f>S107+84</f>
+        <v>4175189</v>
+      </c>
+      <c r="U107" s="5">
+        <f t="shared" ref="U107:U124" si="139">S107-H107</f>
+        <v>42</v>
+      </c>
+      <c r="V107" s="5">
+        <f t="shared" ref="V107:V124" si="140">T107-H107</f>
+        <v>126</v>
+      </c>
+      <c r="W107" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="X107" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="A108" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B108" s="3">
         <v>4621716</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D108" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E107" s="3">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3">
+      <c r="E108" s="3">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3">
         <f t="shared" si="4"/>
         <v>4621716</v>
       </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3">
-        <f>F107</f>
-        <v>4621716</v>
-      </c>
-      <c r="I107" s="3">
-        <f>H107+D107*160</f>
-        <v>4621876</v>
-      </c>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
-      <c r="U107" s="5">
-        <f t="shared" si="134"/>
-        <v>-4621716</v>
-      </c>
-      <c r="V107" s="5">
-        <f t="shared" si="135"/>
-        <v>-4621716</v>
-      </c>
-      <c r="W107" s="3"/>
-      <c r="X107" s="3"/>
-      <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
-    </row>
-    <row r="108" spans="1:26">
-      <c r="A108" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108" s="3">
-        <v>4370616</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D108" s="3">
-        <f t="shared" ref="D108:D158" si="136">IF(C108="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E108" s="3">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3">
-        <f t="shared" ref="F108:F158" si="137">B108+D108*E108</f>
-        <v>4370616</v>
-      </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3">
-        <f t="shared" ref="H108:H158" si="138">F108</f>
-        <v>4370616</v>
+        <f>F108</f>
+        <v>4621716</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" ref="I108:I158" si="139">H108+D108*160</f>
-        <v>4370776</v>
+        <f>H108+D108*160</f>
+        <v>4621876</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -12495,12 +12566,12 @@
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
       <c r="U108" s="5">
-        <f t="shared" si="134"/>
-        <v>-4370616</v>
+        <f t="shared" si="139"/>
+        <v>-4621716</v>
       </c>
       <c r="V108" s="5">
-        <f t="shared" si="135"/>
-        <v>-4370616</v>
+        <f t="shared" si="140"/>
+        <v>-4621716</v>
       </c>
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
@@ -12509,33 +12580,33 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="20" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B109" s="3">
-        <v>4472553</v>
+        <v>4370616</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D109" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" ref="D109:D159" si="141">IF(C109="fwd",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="E109" s="3">
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="137"/>
-        <v>4472553</v>
+        <f t="shared" ref="F109:F159" si="142">B109+D109*E109</f>
+        <v>4370616</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3">
-        <f t="shared" si="138"/>
-        <v>4472553</v>
+        <f t="shared" ref="H109:H159" si="143">F109</f>
+        <v>4370616</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="139"/>
-        <v>4472393</v>
+        <f t="shared" ref="I109:I159" si="144">H109+D109*160</f>
+        <v>4370776</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -12549,12 +12620,12 @@
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
       <c r="U109" s="5">
-        <f t="shared" si="134"/>
-        <v>-4472553</v>
+        <f t="shared" si="139"/>
+        <v>-4370616</v>
       </c>
       <c r="V109" s="5">
-        <f t="shared" si="135"/>
-        <v>-4472553</v>
+        <f t="shared" si="140"/>
+        <v>-4370616</v>
       </c>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
@@ -12563,33 +12634,33 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B110" s="3">
-        <v>4178354</v>
+        <v>4472553</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
+        <f t="shared" si="141"/>
+        <v>-1</v>
       </c>
       <c r="E110" s="3">
         <v>0</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="137"/>
-        <v>4178354</v>
+        <f t="shared" si="142"/>
+        <v>4472553</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3">
-        <f t="shared" si="138"/>
-        <v>4178354</v>
+        <f t="shared" si="143"/>
+        <v>4472553</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="139"/>
-        <v>4178514</v>
+        <f t="shared" si="144"/>
+        <v>4472393</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -12603,12 +12674,12 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="5">
-        <f t="shared" si="134"/>
-        <v>-4178354</v>
+        <f t="shared" si="139"/>
+        <v>-4472553</v>
       </c>
       <c r="V110" s="5">
-        <f t="shared" si="135"/>
-        <v>-4178354</v>
+        <f t="shared" si="140"/>
+        <v>-4472553</v>
       </c>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
@@ -12617,33 +12688,33 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" s="3">
-        <v>2042294</v>
+        <v>4178354</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E111" s="3">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="137"/>
-        <v>2042280</v>
+        <f t="shared" si="142"/>
+        <v>4178354</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
-        <f t="shared" si="138"/>
-        <v>2042280</v>
+        <f t="shared" si="143"/>
+        <v>4178354</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="139"/>
-        <v>2042440</v>
+        <f t="shared" si="144"/>
+        <v>4178514</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -12657,12 +12728,12 @@
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
       <c r="U111" s="5">
-        <f t="shared" si="134"/>
-        <v>-2042280</v>
+        <f t="shared" si="139"/>
+        <v>-4178354</v>
       </c>
       <c r="V111" s="5">
-        <f t="shared" si="135"/>
-        <v>-2042280</v>
+        <f t="shared" si="140"/>
+        <v>-4178354</v>
       </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -12671,33 +12742,33 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B112" s="3">
-        <v>3922525</v>
+        <v>2042294</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D112" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>1</v>
       </c>
       <c r="E112" s="3">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="137"/>
-        <v>3922525</v>
+        <f t="shared" si="142"/>
+        <v>2042280</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3">
-        <f t="shared" si="138"/>
-        <v>3922525</v>
+        <f t="shared" si="143"/>
+        <v>2042280</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="139"/>
-        <v>3922365</v>
+        <f t="shared" si="144"/>
+        <v>2042440</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -12711,12 +12782,12 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
       <c r="U112" s="5">
-        <f t="shared" si="134"/>
-        <v>-3922525</v>
+        <f t="shared" si="139"/>
+        <v>-2042280</v>
       </c>
       <c r="V112" s="5">
-        <f t="shared" si="135"/>
-        <v>-3922525</v>
+        <f t="shared" si="140"/>
+        <v>-2042280</v>
       </c>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
@@ -12725,33 +12796,33 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113" s="3">
-        <v>1114213</v>
+        <v>3922525</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D113" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E113" s="3">
         <v>0</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="137"/>
-        <v>1114213</v>
+        <f t="shared" si="142"/>
+        <v>3922525</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3">
-        <f t="shared" si="138"/>
-        <v>1114213</v>
+        <f t="shared" si="143"/>
+        <v>3922525</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="139"/>
-        <v>1114053</v>
+        <f t="shared" si="144"/>
+        <v>3922365</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -12765,12 +12836,12 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
       <c r="U113" s="5">
-        <f t="shared" si="134"/>
-        <v>-1114213</v>
+        <f t="shared" si="139"/>
+        <v>-3922525</v>
       </c>
       <c r="V113" s="5">
-        <f t="shared" si="135"/>
-        <v>-1114213</v>
+        <f t="shared" si="140"/>
+        <v>-3922525</v>
       </c>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
@@ -12779,33 +12850,33 @@
     </row>
     <row r="114" spans="1:26">
       <c r="A114" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114" s="3">
-        <v>2644913</v>
+        <v>1114213</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D114" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E114" s="3">
         <v>0</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="137"/>
-        <v>2644913</v>
+        <f t="shared" si="142"/>
+        <v>1114213</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3">
-        <f t="shared" si="138"/>
-        <v>2644913</v>
+        <f t="shared" si="143"/>
+        <v>1114213</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="139"/>
-        <v>2644753</v>
+        <f t="shared" si="144"/>
+        <v>1114053</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -12819,12 +12890,12 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
       <c r="U114" s="5">
-        <f t="shared" si="134"/>
-        <v>-2644913</v>
+        <f t="shared" si="139"/>
+        <v>-1114213</v>
       </c>
       <c r="V114" s="5">
-        <f t="shared" si="135"/>
-        <v>-2644913</v>
+        <f t="shared" si="140"/>
+        <v>-1114213</v>
       </c>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
@@ -12833,33 +12904,33 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" s="20" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B115" s="3">
-        <v>148</v>
+        <v>2644913</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D115" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
+        <f t="shared" si="141"/>
+        <v>-1</v>
       </c>
       <c r="E115" s="3">
         <v>0</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="137"/>
-        <v>148</v>
+        <f t="shared" si="142"/>
+        <v>2644913</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3">
-        <f t="shared" si="138"/>
-        <v>148</v>
+        <f t="shared" si="143"/>
+        <v>2644913</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="139"/>
-        <v>308</v>
+        <f t="shared" si="144"/>
+        <v>2644753</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -12873,12 +12944,12 @@
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
       <c r="U115" s="5">
-        <f t="shared" si="134"/>
-        <v>-148</v>
+        <f t="shared" si="139"/>
+        <v>-2644913</v>
       </c>
       <c r="V115" s="5">
-        <f t="shared" si="135"/>
-        <v>-148</v>
+        <f t="shared" si="140"/>
+        <v>-2644913</v>
       </c>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
@@ -12887,33 +12958,33 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="20" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B116" s="3">
-        <v>454993</v>
+        <v>148</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D116" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E116" s="3">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="137"/>
-        <v>454864</v>
+        <f t="shared" si="142"/>
+        <v>148</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3">
-        <f t="shared" si="138"/>
-        <v>454864</v>
+        <f t="shared" si="143"/>
+        <v>148</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="139"/>
-        <v>455024</v>
+        <f t="shared" si="144"/>
+        <v>308</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -12927,12 +12998,12 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
       <c r="U116" s="5">
-        <f t="shared" si="134"/>
-        <v>-454864</v>
+        <f t="shared" si="139"/>
+        <v>-148</v>
       </c>
       <c r="V116" s="5">
-        <f t="shared" si="135"/>
-        <v>-454864</v>
+        <f t="shared" si="140"/>
+        <v>-148</v>
       </c>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
@@ -12941,33 +13012,33 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="20" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B117" s="3">
-        <v>189712</v>
+        <v>454993</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D117" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E117" s="3">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="137"/>
-        <v>189712</v>
+        <f t="shared" si="142"/>
+        <v>454864</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3">
-        <f t="shared" si="138"/>
-        <v>189712</v>
+        <f t="shared" si="143"/>
+        <v>454864</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="139"/>
-        <v>189872</v>
+        <f t="shared" si="144"/>
+        <v>455024</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -12981,12 +13052,12 @@
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
       <c r="U117" s="5">
-        <f t="shared" si="134"/>
-        <v>-189712</v>
+        <f t="shared" si="139"/>
+        <v>-454864</v>
       </c>
       <c r="V117" s="5">
-        <f t="shared" si="135"/>
-        <v>-189712</v>
+        <f t="shared" si="140"/>
+        <v>-454864</v>
       </c>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
@@ -12995,33 +13066,33 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="20" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B118" s="3">
-        <v>3948058</v>
+        <v>189712</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D118" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E118" s="3">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="137"/>
-        <v>3948030</v>
+        <f t="shared" si="142"/>
+        <v>189712</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <f t="shared" si="138"/>
-        <v>3948030</v>
+        <f t="shared" si="143"/>
+        <v>189712</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="139"/>
-        <v>3948190</v>
+        <f t="shared" si="144"/>
+        <v>189872</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -13035,12 +13106,12 @@
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="5">
-        <f t="shared" si="134"/>
-        <v>-3948030</v>
+        <f t="shared" si="139"/>
+        <v>-189712</v>
       </c>
       <c r="V118" s="5">
-        <f t="shared" si="135"/>
-        <v>-3948030</v>
+        <f t="shared" si="140"/>
+        <v>-189712</v>
       </c>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
@@ -13049,33 +13120,33 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="20" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B119" s="3">
-        <v>911076</v>
+        <v>3948058</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D119" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>1</v>
       </c>
       <c r="E119" s="3">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="137"/>
-        <v>911076</v>
+        <f t="shared" si="142"/>
+        <v>3948030</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <f t="shared" si="138"/>
-        <v>911076</v>
+        <f t="shared" si="143"/>
+        <v>3948030</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="139"/>
-        <v>910916</v>
+        <f t="shared" si="144"/>
+        <v>3948190</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -13089,12 +13160,12 @@
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="5">
-        <f t="shared" si="134"/>
-        <v>-911076</v>
+        <f t="shared" si="139"/>
+        <v>-3948030</v>
       </c>
       <c r="V119" s="5">
-        <f t="shared" si="135"/>
-        <v>-911076</v>
+        <f t="shared" si="140"/>
+        <v>-3948030</v>
       </c>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
@@ -13103,33 +13174,33 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="20" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B120" s="3">
-        <v>1655186</v>
+        <v>911076</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D120" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E120" s="3">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="137"/>
-        <v>1655231</v>
+        <f t="shared" si="142"/>
+        <v>911076</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3">
-        <f t="shared" si="138"/>
-        <v>1655231</v>
+        <f t="shared" si="143"/>
+        <v>911076</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="139"/>
-        <v>1655071</v>
+        <f t="shared" si="144"/>
+        <v>910916</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -13143,12 +13214,12 @@
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
       <c r="U120" s="5">
-        <f t="shared" si="134"/>
-        <v>-1655231</v>
+        <f t="shared" si="139"/>
+        <v>-911076</v>
       </c>
       <c r="V120" s="5">
-        <f t="shared" si="135"/>
-        <v>-1655231</v>
+        <f t="shared" si="140"/>
+        <v>-911076</v>
       </c>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
@@ -13157,33 +13228,33 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="20" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B121" s="3">
-        <v>4390638</v>
+        <v>1655186</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D121" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E121" s="3">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="137"/>
-        <v>4390638</v>
+        <f t="shared" si="142"/>
+        <v>1655231</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3">
-        <f t="shared" si="138"/>
-        <v>4390638</v>
+        <f t="shared" si="143"/>
+        <v>1655231</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="139"/>
-        <v>4390478</v>
+        <f t="shared" si="144"/>
+        <v>1655071</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -13197,12 +13268,12 @@
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
       <c r="U121" s="5">
-        <f t="shared" si="134"/>
-        <v>-4390638</v>
+        <f t="shared" si="139"/>
+        <v>-1655231</v>
       </c>
       <c r="V121" s="5">
-        <f t="shared" si="135"/>
-        <v>-4390638</v>
+        <f t="shared" si="140"/>
+        <v>-1655231</v>
       </c>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
@@ -13211,33 +13282,33 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="20" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B122" s="3">
-        <v>4640508</v>
+        <v>4390638</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E122" s="3">
         <v>0</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="137"/>
-        <v>4640508</v>
+        <f t="shared" si="142"/>
+        <v>4390638</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3">
-        <f t="shared" si="138"/>
-        <v>4640508</v>
+        <f t="shared" si="143"/>
+        <v>4390638</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="139"/>
-        <v>4640348</v>
+        <f t="shared" si="144"/>
+        <v>4390478</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -13251,12 +13322,12 @@
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="5">
-        <f t="shared" si="134"/>
-        <v>-4640508</v>
+        <f t="shared" si="139"/>
+        <v>-4390638</v>
       </c>
       <c r="V122" s="5">
-        <f t="shared" si="135"/>
-        <v>-4640508</v>
+        <f t="shared" si="140"/>
+        <v>-4390638</v>
       </c>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
@@ -13265,33 +13336,33 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="20" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B123" s="3">
-        <v>1972716</v>
+        <v>4640508</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D123" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E123" s="3">
         <v>0</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="137"/>
-        <v>1972716</v>
+        <f t="shared" si="142"/>
+        <v>4640508</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3">
-        <f t="shared" si="138"/>
-        <v>1972716</v>
+        <f t="shared" si="143"/>
+        <v>4640508</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="139"/>
-        <v>1972556</v>
+        <f t="shared" si="144"/>
+        <v>4640348</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -13305,98 +13376,71 @@
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
       <c r="U123" s="5">
-        <f t="shared" si="134"/>
-        <v>-1972716</v>
+        <f t="shared" si="139"/>
+        <v>-4640508</v>
       </c>
       <c r="V123" s="5">
-        <f t="shared" si="135"/>
-        <v>-1972716</v>
+        <f t="shared" si="140"/>
+        <v>-4640508</v>
       </c>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" s="2" customFormat="1" ht="17">
-      <c r="A124" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B124" s="5">
-        <v>652172</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D124" s="5">
-        <f t="shared" si="136"/>
-        <v>1</v>
-      </c>
-      <c r="E124" s="5">
-        <v>0</v>
-      </c>
-      <c r="F124" s="5">
-        <f t="shared" ref="F124" si="140">B124+D124*E124</f>
-        <v>652172</v>
-      </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="21">
-        <v>652058</v>
-      </c>
-      <c r="I124" s="5">
-        <f>H124+D124*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="K124" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="L124" s="5">
-        <v>652172</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N124" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O124" s="5">
-        <v>652193</v>
-      </c>
-      <c r="P124" s="5">
-        <v>652199</v>
-      </c>
-      <c r="Q124" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="R124" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S124" s="21">
-        <f>130+H124</f>
-        <v>652188</v>
-      </c>
-      <c r="T124" s="21">
-        <f>S124+30</f>
-        <v>652218</v>
-      </c>
+    <row r="124" spans="1:26">
+      <c r="A124" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1972716</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="3">
+        <f t="shared" si="141"/>
+        <v>-1</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" si="142"/>
+        <v>1972716</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3">
+        <f t="shared" si="143"/>
+        <v>1972716</v>
+      </c>
+      <c r="I124" s="3">
+        <f t="shared" si="144"/>
+        <v>1972556</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
       <c r="U124" s="5">
-        <v>130</v>
+        <f t="shared" si="139"/>
+        <v>-1972716</v>
       </c>
       <c r="V124" s="5">
-        <v>160</v>
-      </c>
-      <c r="W124" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="X124" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y124" s="5"/>
-      <c r="Z124" s="5">
-        <v>0</v>
-      </c>
+        <f t="shared" si="140"/>
+        <v>-1972716</v>
+      </c>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A125" s="4" t="s">
@@ -13409,14 +13453,14 @@
         <v>108</v>
       </c>
       <c r="D125" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" ref="F125" si="145">B125+D125*E125</f>
         <v>652172</v>
       </c>
       <c r="G125" s="5"/>
@@ -13443,119 +13487,152 @@
         <v>165</v>
       </c>
       <c r="O125" s="5">
-        <v>652118</v>
+        <v>652193</v>
       </c>
       <c r="P125" s="5">
-        <v>652140</v>
+        <v>652199</v>
       </c>
       <c r="Q125" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R125" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="S125" s="21">
-        <f>60+H125</f>
-        <v>652118</v>
+        <f>130+H125</f>
+        <v>652188</v>
       </c>
       <c r="T125" s="21">
-        <f>S125+25</f>
-        <v>652143</v>
+        <f>S125+30</f>
+        <v>652218</v>
       </c>
       <c r="U125" s="5">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="V125" s="5">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="W125" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X125" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Y125" s="5"/>
       <c r="Z125" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
-      <c r="A126" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B126" s="3">
-        <v>70075</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D126" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
-      </c>
-      <c r="E126" s="3">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3">
-        <f t="shared" si="137"/>
-        <v>70075</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3">
-        <f t="shared" si="138"/>
-        <v>70075</v>
-      </c>
-      <c r="I126" s="3">
-        <f t="shared" si="139"/>
-        <v>69915</v>
-      </c>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-      <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
-      <c r="S126" s="3"/>
-      <c r="T126" s="3"/>
-      <c r="U126" s="3"/>
-      <c r="V126" s="3"/>
-      <c r="W126" s="3"/>
-      <c r="X126" s="3"/>
-      <c r="Y126" s="3"/>
-      <c r="Z126" s="3"/>
+    <row r="126" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A126" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="5">
+        <v>652172</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" s="5">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0</v>
+      </c>
+      <c r="F126" s="5">
+        <f t="shared" si="142"/>
+        <v>652172</v>
+      </c>
+      <c r="G126" s="5"/>
+      <c r="H126" s="21">
+        <v>652058</v>
+      </c>
+      <c r="I126" s="5">
+        <f>H126+D126*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L126" s="5">
+        <v>652172</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O126" s="5">
+        <v>652118</v>
+      </c>
+      <c r="P126" s="5">
+        <v>652140</v>
+      </c>
+      <c r="Q126" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R126" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S126" s="21">
+        <f>60+H126</f>
+        <v>652118</v>
+      </c>
+      <c r="T126" s="21">
+        <f>S126+25</f>
+        <v>652143</v>
+      </c>
+      <c r="U126" s="5">
+        <v>60</v>
+      </c>
+      <c r="V126" s="5">
+        <v>85</v>
+      </c>
+      <c r="W126" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="X126" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="20" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B127" s="3">
-        <v>70241</v>
+        <v>70075</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D127" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
+        <f t="shared" si="141"/>
+        <v>-1</v>
       </c>
       <c r="E127" s="3">
         <v>0</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="137"/>
-        <v>70241</v>
+        <f t="shared" si="142"/>
+        <v>70075</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3">
-        <f t="shared" si="138"/>
-        <v>70241</v>
+        <f t="shared" si="143"/>
+        <v>70075</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="139"/>
-        <v>70401</v>
+        <f t="shared" si="144"/>
+        <v>69915</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -13577,33 +13654,33 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="20" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B128" s="3">
-        <v>3731069</v>
+        <v>70241</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D128" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E128" s="3">
         <v>0</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="137"/>
-        <v>3731069</v>
+        <f t="shared" si="142"/>
+        <v>70241</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3">
-        <f t="shared" si="138"/>
-        <v>3731069</v>
+        <f t="shared" si="143"/>
+        <v>70241</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="139"/>
-        <v>3731229</v>
+        <f t="shared" si="144"/>
+        <v>70401</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -13625,33 +13702,33 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B129" s="3">
-        <v>3730807</v>
+        <v>3731069</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D129" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>1</v>
       </c>
       <c r="E129" s="3">
         <v>0</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="137"/>
-        <v>3730807</v>
+        <f t="shared" si="142"/>
+        <v>3731069</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3">
-        <f t="shared" si="138"/>
-        <v>3730807</v>
+        <f t="shared" si="143"/>
+        <v>3731069</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="139"/>
-        <v>3730647</v>
+        <f t="shared" si="144"/>
+        <v>3731229</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -13673,33 +13750,33 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="20" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B130" s="3">
-        <v>1647934</v>
+        <v>3730807</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D130" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
+        <f t="shared" si="141"/>
+        <v>-1</v>
       </c>
       <c r="E130" s="3">
         <v>0</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="137"/>
-        <v>1647934</v>
+        <f t="shared" si="142"/>
+        <v>3730807</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3">
-        <f t="shared" si="138"/>
-        <v>1647934</v>
+        <f t="shared" si="143"/>
+        <v>3730807</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="139"/>
-        <v>1648094</v>
+        <f t="shared" si="144"/>
+        <v>3730647</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -13721,33 +13798,33 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="20" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="B131" s="3">
-        <v>1647876</v>
+        <v>1647934</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D131" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>1</v>
       </c>
       <c r="E131" s="3">
         <v>0</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="137"/>
-        <v>1647876</v>
+        <f t="shared" si="142"/>
+        <v>1647934</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3">
-        <f t="shared" si="138"/>
-        <v>1647876</v>
+        <f t="shared" si="143"/>
+        <v>1647934</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="139"/>
-        <v>1647716</v>
+        <f t="shared" si="144"/>
+        <v>1648094</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -13769,33 +13846,33 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="20" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="B132" s="3">
-        <v>1649597</v>
+        <v>1647876</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
+        <f t="shared" si="141"/>
+        <v>-1</v>
       </c>
       <c r="E132" s="3">
         <v>0</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="137"/>
-        <v>1649597</v>
+        <f t="shared" si="142"/>
+        <v>1647876</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3">
-        <f t="shared" si="138"/>
-        <v>1649597</v>
+        <f t="shared" si="143"/>
+        <v>1647876</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="139"/>
-        <v>1649757</v>
+        <f t="shared" si="144"/>
+        <v>1647716</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -13817,33 +13894,33 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="20" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B133" s="3">
-        <v>3536707</v>
+        <v>1649597</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>1</v>
       </c>
       <c r="E133" s="3">
         <v>0</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="137"/>
-        <v>3536707</v>
+        <f t="shared" si="142"/>
+        <v>1649597</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3">
-        <f t="shared" si="138"/>
-        <v>3536707</v>
+        <f t="shared" si="143"/>
+        <v>1649597</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="139"/>
-        <v>3536547</v>
+        <f t="shared" si="144"/>
+        <v>1649757</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -13865,33 +13942,33 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" s="20" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B134" s="3">
-        <v>2524910</v>
+        <v>3536707</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D134" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="137"/>
-        <v>2524910</v>
+        <f t="shared" si="142"/>
+        <v>3536707</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3">
-        <f t="shared" si="138"/>
-        <v>2524910</v>
+        <f t="shared" si="143"/>
+        <v>3536707</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="139"/>
-        <v>2524750</v>
+        <f t="shared" si="144"/>
+        <v>3536547</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -13913,33 +13990,33 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" s="20" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B135" s="3">
-        <v>3957912</v>
+        <v>2524910</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D135" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
+        <f t="shared" si="141"/>
+        <v>-1</v>
       </c>
       <c r="E135" s="3">
         <v>0</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="137"/>
-        <v>3957912</v>
+        <f t="shared" si="142"/>
+        <v>2524910</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3">
-        <f t="shared" si="138"/>
-        <v>3957912</v>
+        <f t="shared" si="143"/>
+        <v>2524910</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="139"/>
-        <v>3958072</v>
+        <f t="shared" si="144"/>
+        <v>2524750</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -13961,33 +14038,33 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B136" s="3">
-        <v>3927129</v>
+        <v>3957912</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D136" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E136" s="3">
         <v>0</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="137"/>
-        <v>3927129</v>
+        <f t="shared" si="142"/>
+        <v>3957912</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3">
-        <f t="shared" si="138"/>
-        <v>3927129</v>
+        <f t="shared" si="143"/>
+        <v>3957912</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="139"/>
-        <v>3927289</v>
+        <f t="shared" si="144"/>
+        <v>3958072</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -14009,33 +14086,33 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" s="20" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B137" s="3">
-        <v>4494597</v>
+        <v>3927129</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D137" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E137" s="3">
         <v>0</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" si="137"/>
-        <v>4494597</v>
+        <f t="shared" si="142"/>
+        <v>3927129</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3">
-        <f t="shared" si="138"/>
-        <v>4494597</v>
+        <f t="shared" si="143"/>
+        <v>3927129</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="139"/>
-        <v>4494757</v>
+        <f t="shared" si="144"/>
+        <v>3927289</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -14057,33 +14134,33 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B138" s="3">
-        <v>246533</v>
+        <v>4494597</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D138" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>1</v>
       </c>
       <c r="E138" s="3">
         <v>0</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="137"/>
-        <v>246533</v>
+        <f t="shared" si="142"/>
+        <v>4494597</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3">
-        <f t="shared" si="138"/>
-        <v>246533</v>
+        <f t="shared" si="143"/>
+        <v>4494597</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="139"/>
-        <v>246373</v>
+        <f t="shared" si="144"/>
+        <v>4494757</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -14105,33 +14182,33 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="20" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B139" s="3">
-        <v>4591367</v>
+        <v>246533</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D139" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E139" s="3">
         <v>0</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="137"/>
-        <v>4591367</v>
+        <f t="shared" si="142"/>
+        <v>246533</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3">
-        <f t="shared" si="138"/>
-        <v>4591367</v>
+        <f t="shared" si="143"/>
+        <v>246533</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="139"/>
-        <v>4591207</v>
+        <f t="shared" si="144"/>
+        <v>246373</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -14153,33 +14230,33 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B140" s="3">
-        <v>1977302</v>
+        <v>4591367</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D140" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E140" s="3">
         <v>0</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="137"/>
-        <v>1977302</v>
+        <f t="shared" si="142"/>
+        <v>4591367</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3">
-        <f t="shared" si="138"/>
-        <v>1977302</v>
+        <f t="shared" si="143"/>
+        <v>4591367</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="139"/>
-        <v>1977142</v>
+        <f t="shared" si="144"/>
+        <v>4591207</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -14201,33 +14278,33 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="20" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B141" s="3">
-        <v>933138</v>
+        <v>1977302</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D141" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
+        <f t="shared" si="141"/>
+        <v>-1</v>
       </c>
       <c r="E141" s="3">
         <v>0</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="137"/>
-        <v>933138</v>
+        <f t="shared" si="142"/>
+        <v>1977302</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3">
-        <f t="shared" si="138"/>
-        <v>933138</v>
+        <f t="shared" si="143"/>
+        <v>1977302</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="139"/>
-        <v>933298</v>
+        <f t="shared" si="144"/>
+        <v>1977142</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -14249,33 +14326,33 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="20" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B142" s="3">
-        <v>87969</v>
+        <v>933138</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D142" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E142" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" si="137"/>
-        <v>87991</v>
+        <f t="shared" si="142"/>
+        <v>933138</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3">
-        <f t="shared" si="138"/>
-        <v>87991</v>
+        <f t="shared" si="143"/>
+        <v>933138</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="139"/>
-        <v>88151</v>
+        <f t="shared" si="144"/>
+        <v>933298</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -14297,33 +14374,33 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="20" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B143" s="3">
-        <v>3997907</v>
+        <v>87969</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D143" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E143" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" si="137"/>
-        <v>3997907</v>
+        <f t="shared" si="142"/>
+        <v>87991</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3">
-        <f t="shared" si="138"/>
-        <v>3997907</v>
+        <f t="shared" si="143"/>
+        <v>87991</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="139"/>
-        <v>3998067</v>
+        <f t="shared" si="144"/>
+        <v>88151</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -14345,33 +14422,33 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="20" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B144" s="3">
-        <v>4338042</v>
+        <v>3997907</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D144" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>1</v>
       </c>
       <c r="E144" s="3">
         <v>0</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" si="137"/>
-        <v>4338042</v>
+        <f t="shared" si="142"/>
+        <v>3997907</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3">
-        <f t="shared" si="138"/>
-        <v>4338042</v>
+        <f t="shared" si="143"/>
+        <v>3997907</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="139"/>
-        <v>4337882</v>
+        <f t="shared" si="144"/>
+        <v>3998067</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -14393,33 +14470,33 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="20" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B145" s="3">
-        <v>1942634</v>
+        <v>4338042</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D145" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
+        <f t="shared" si="141"/>
+        <v>-1</v>
       </c>
       <c r="E145" s="3">
         <v>0</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="137"/>
-        <v>1942634</v>
+        <f t="shared" si="142"/>
+        <v>4338042</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3">
-        <f t="shared" si="138"/>
-        <v>1942634</v>
+        <f t="shared" si="143"/>
+        <v>4338042</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="139"/>
-        <v>1942794</v>
+        <f t="shared" si="144"/>
+        <v>4337882</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -14441,33 +14518,33 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B146" s="3">
-        <v>1942661</v>
+        <v>1942634</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D146" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>1</v>
       </c>
       <c r="E146" s="3">
         <v>0</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="137"/>
-        <v>1942661</v>
+        <f t="shared" si="142"/>
+        <v>1942634</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3">
-        <f t="shared" si="138"/>
-        <v>1942661</v>
+        <f t="shared" si="143"/>
+        <v>1942634</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="139"/>
-        <v>1942501</v>
+        <f t="shared" si="144"/>
+        <v>1942794</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -14489,33 +14566,33 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="20" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B147" s="3">
-        <v>3182433</v>
+        <v>1942661</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D147" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
+        <f t="shared" si="141"/>
+        <v>-1</v>
       </c>
       <c r="E147" s="3">
         <v>0</v>
       </c>
       <c r="F147" s="3">
-        <f t="shared" si="137"/>
-        <v>3182433</v>
+        <f t="shared" si="142"/>
+        <v>1942661</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3">
-        <f t="shared" si="138"/>
-        <v>3182433</v>
+        <f t="shared" si="143"/>
+        <v>1942661</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="139"/>
-        <v>3182593</v>
+        <f t="shared" si="144"/>
+        <v>1942501</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -14537,33 +14614,33 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" s="20" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B148" s="3">
-        <v>3637612</v>
+        <v>3182433</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D148" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E148" s="3">
         <v>0</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="137"/>
-        <v>3637612</v>
+        <f t="shared" si="142"/>
+        <v>3182433</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3">
-        <f t="shared" si="138"/>
-        <v>3637612</v>
+        <f t="shared" si="143"/>
+        <v>3182433</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="139"/>
-        <v>3637772</v>
+        <f t="shared" si="144"/>
+        <v>3182593</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -14585,33 +14662,33 @@
     </row>
     <row r="149" spans="1:26">
       <c r="A149" s="20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B149" s="3">
-        <v>4376509</v>
+        <v>3637612</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D149" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="E149" s="3">
         <v>0</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="137"/>
-        <v>4376509</v>
+        <f t="shared" si="142"/>
+        <v>3637612</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3">
-        <f t="shared" si="138"/>
-        <v>4376509</v>
+        <f t="shared" si="143"/>
+        <v>3637612</v>
       </c>
       <c r="I149" s="3">
-        <f t="shared" si="139"/>
-        <v>4376669</v>
+        <f t="shared" si="144"/>
+        <v>3637772</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -14633,33 +14710,33 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" s="20" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B150" s="3">
-        <v>83735</v>
+        <v>4376509</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D150" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>1</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
       </c>
       <c r="F150" s="3">
-        <f t="shared" si="137"/>
-        <v>83735</v>
+        <f t="shared" si="142"/>
+        <v>4376509</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3">
-        <f t="shared" si="138"/>
-        <v>83735</v>
+        <f t="shared" si="143"/>
+        <v>4376509</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="139"/>
-        <v>83575</v>
+        <f t="shared" si="144"/>
+        <v>4376669</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -14681,31 +14758,33 @@
     </row>
     <row r="151" spans="1:26">
       <c r="A151" s="20" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B151" s="3">
-        <v>1645903</v>
+        <v>83735</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
-      <c r="E151" s="3"/>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
       <c r="F151" s="3">
-        <f t="shared" si="137"/>
-        <v>1645903</v>
+        <f t="shared" si="142"/>
+        <v>83735</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3">
-        <f t="shared" si="138"/>
-        <v>1645903</v>
+        <f t="shared" si="143"/>
+        <v>83735</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="139"/>
-        <v>1645743</v>
+        <f t="shared" si="144"/>
+        <v>83575</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -14727,33 +14806,31 @@
     </row>
     <row r="152" spans="1:26">
       <c r="A152" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B152" s="3">
-        <v>1619093</v>
+        <v>1645903</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D152" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
-      </c>
-      <c r="E152" s="3">
-        <v>-10</v>
-      </c>
+        <f t="shared" si="141"/>
+        <v>-1</v>
+      </c>
+      <c r="E152" s="3"/>
       <c r="F152" s="3">
-        <f t="shared" si="137"/>
-        <v>1619083</v>
+        <f t="shared" si="142"/>
+        <v>1645903</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3">
-        <f t="shared" si="138"/>
-        <v>1619083</v>
+        <f t="shared" si="143"/>
+        <v>1645903</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="139"/>
-        <v>1619243</v>
+        <f t="shared" si="144"/>
+        <v>1645743</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -14775,33 +14852,33 @@
     </row>
     <row r="153" spans="1:26">
       <c r="A153" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B153" s="3">
-        <v>4326836</v>
+        <v>1619093</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D153" s="3">
-        <f t="shared" si="136"/>
-        <v>-1</v>
+        <f t="shared" si="141"/>
+        <v>1</v>
       </c>
       <c r="E153" s="3">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F153" s="3">
-        <f t="shared" si="137"/>
-        <v>4326836</v>
+        <f t="shared" si="142"/>
+        <v>1619083</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3">
-        <f t="shared" si="138"/>
-        <v>4326836</v>
+        <f t="shared" si="143"/>
+        <v>1619083</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="139"/>
-        <v>4326676</v>
+        <f t="shared" si="144"/>
+        <v>1619243</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -14823,33 +14900,33 @@
     </row>
     <row r="154" spans="1:26">
       <c r="A154" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B154" s="3">
-        <v>2032352</v>
+        <v>4326836</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D154" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E154" s="3">
         <v>0</v>
       </c>
       <c r="F154" s="3">
-        <f t="shared" si="137"/>
-        <v>2032352</v>
+        <f t="shared" si="142"/>
+        <v>4326836</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3">
-        <f t="shared" si="138"/>
-        <v>2032352</v>
+        <f t="shared" si="143"/>
+        <v>4326836</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="139"/>
-        <v>2032192</v>
+        <f t="shared" si="144"/>
+        <v>4326676</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -14871,33 +14948,33 @@
     </row>
     <row r="155" spans="1:26">
       <c r="A155" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B155" s="3">
-        <v>2949066</v>
+        <v>2032352</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D155" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E155" s="3">
         <v>0</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="137"/>
-        <v>2949066</v>
+        <f t="shared" si="142"/>
+        <v>2032352</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3">
-        <f t="shared" si="138"/>
-        <v>2949066</v>
+        <f t="shared" si="143"/>
+        <v>2032352</v>
       </c>
       <c r="I155" s="3">
-        <f t="shared" si="139"/>
-        <v>2948906</v>
+        <f t="shared" si="144"/>
+        <v>2032192</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
@@ -14919,33 +14996,33 @@
     </row>
     <row r="156" spans="1:26">
       <c r="A156" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B156" s="3">
-        <v>3811175</v>
+        <v>2949066</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D156" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="137"/>
-        <v>3811175</v>
+        <f t="shared" si="142"/>
+        <v>2949066</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3">
-        <f t="shared" si="138"/>
-        <v>3811175</v>
+        <f t="shared" si="143"/>
+        <v>2949066</v>
       </c>
       <c r="I156" s="3">
-        <f t="shared" si="139"/>
-        <v>3811015</v>
+        <f t="shared" si="144"/>
+        <v>2948906</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -14967,33 +15044,33 @@
     </row>
     <row r="157" spans="1:26">
       <c r="A157" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B157" s="3">
-        <v>919103</v>
+        <v>3811175</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D157" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
       </c>
       <c r="F157" s="3">
-        <f t="shared" si="137"/>
-        <v>919103</v>
+        <f t="shared" si="142"/>
+        <v>3811175</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3">
-        <f t="shared" si="138"/>
-        <v>919103</v>
+        <f t="shared" si="143"/>
+        <v>3811175</v>
       </c>
       <c r="I157" s="3">
-        <f t="shared" si="139"/>
-        <v>918943</v>
+        <f t="shared" si="144"/>
+        <v>3811015</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -15015,33 +15092,33 @@
     </row>
     <row r="158" spans="1:26">
       <c r="A158" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B158" s="3">
-        <v>830783</v>
+        <v>919103</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D158" s="3">
-        <f t="shared" si="136"/>
-        <v>1</v>
+        <f t="shared" si="141"/>
+        <v>-1</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
       </c>
       <c r="F158" s="3">
-        <f t="shared" si="137"/>
-        <v>830783</v>
+        <f t="shared" si="142"/>
+        <v>919103</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3">
-        <f t="shared" si="138"/>
-        <v>830783</v>
+        <f t="shared" si="143"/>
+        <v>919103</v>
       </c>
       <c r="I158" s="3">
-        <f t="shared" si="139"/>
-        <v>830943</v>
+        <f t="shared" si="144"/>
+        <v>918943</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -15061,21 +15138,69 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164">
-        <f>COUNTA(_xlfn.UNIQUE(A2:A158))</f>
+    <row r="159" spans="1:26">
+      <c r="A159" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" s="3">
+        <v>830783</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D159" s="3">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0</v>
+      </c>
+      <c r="F159" s="3">
+        <f t="shared" si="142"/>
+        <v>830783</v>
+      </c>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3">
+        <f t="shared" si="143"/>
+        <v>830783</v>
+      </c>
+      <c r="I159" s="3">
+        <f t="shared" si="144"/>
+        <v>830943</v>
+      </c>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+      <c r="U159" s="3"/>
+      <c r="V159" s="3"/>
+      <c r="W159" s="3"/>
+      <c r="X159" s="3"/>
+      <c r="Y159" s="3"/>
+      <c r="Z159" s="3"/>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <f>COUNTA(_xlfn.UNIQUE(A2:A159))</f>
         <v>111</v>
       </c>
-      <c r="B164">
-        <f>COUNTA(_xlfn.UNIQUE(J1:J158))</f>
-        <v>56</v>
+      <c r="B165">
+        <f>COUNTA(_xlfn.UNIQUE(J1:J159))</f>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I106 P29 H49" formula="1"/>
+    <ignoredError sqref="I107 P29 H49" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87CF069-EBEB-D641-80A4-FC7F43C61C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D80D91-6790-6040-8BEE-25D138AD6127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="478">
   <si>
     <t>Operon</t>
   </si>
@@ -1436,6 +1436,42 @@
   </si>
   <si>
     <t>CCATCATGCACATG</t>
+  </si>
+  <si>
+    <t>GTGAGGAAGCGGGCATACT</t>
+  </si>
+  <si>
+    <t>2,212,959 &lt;- 2,214,644</t>
+  </si>
+  <si>
+    <t>GTGCATCTATAGGGTGATTTTATTTTTGCCAGGCGATTTTGAGTGATCGTACTCACGAATTCTCATTTTTCTGCAAGAGTTCAAAGAAAGTTAAACGCAGGCAATGTATGTTACGCGTTTTAAAGGGAAGTGTGGTTTGCGGGTATGTACGATTTTAATC</t>
+  </si>
+  <si>
+    <t>CAGGCGATTTT</t>
+  </si>
+  <si>
+    <t>2,212,243 &lt;- 2,212,962</t>
+  </si>
+  <si>
+    <t>GGGATGAATCTGGTGGATAAGCGTTTACGTGAACGGTTTGGCGATGACTATGGAATAAGCGTCGCCTGTGAGCCTGATAGTTACACCCGAATAACGTTACGACTACCATG</t>
+  </si>
+  <si>
+    <t>845664/845509</t>
+  </si>
+  <si>
+    <t>sigma54 / sigma70</t>
+  </si>
+  <si>
+    <t>atgcgctacgcttatcaggcctacaggatatctggcaacttattaaaattgcatgaacttGtaggacggataaggcgttca / aacgggccatttcatgtaacagaacgtttccatacaccgctatccatctaaatttaaatcActttttcagagaactgcgta</t>
+  </si>
+  <si>
+    <t>CGGCTGATCTTTATCGACAAAGGCCGGATTGCGGAAGATGGCAATCCGCAGGTGTTGATCAAGAACCCGCCGAGCCAGCGCTTGCAGGAATTTTTGCAGCACGTCTCTTAATAAGACACATTGCCTGATGCGCTACGCTTATCAGGCCTACAGGATATCT</t>
+  </si>
+  <si>
+    <t>843,255 &lt;- 845,480</t>
+  </si>
+  <si>
+    <t>GCCTACAGGAT</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1751,10 +1787,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3832,11 +3873,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:Z165"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z100" sqref="Z100"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="165" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z104" sqref="Z104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4205,14 +4246,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D108" si="3">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D109" si="3">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F108" si="4">B5+D5*E5</f>
+        <f t="shared" ref="F5:F109" si="4">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="5">
@@ -7242,7 +7283,7 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5">
-        <f t="shared" ref="H41:H105" si="25">F41-44</f>
+        <f t="shared" ref="H41:H106" si="25">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="5">
@@ -7573,7 +7614,7 @@
         <v>63314</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" ref="I45:I105" si="29">H45+159</f>
+        <f t="shared" ref="I45:I106" si="29">H45+159</f>
         <v>63473</v>
       </c>
       <c r="J45" s="5" t="s">
@@ -8756,11 +8797,11 @@
         <v>4122350</v>
       </c>
       <c r="U59" s="41">
-        <f t="shared" ref="U59:U106" si="49">S59-H59</f>
+        <f t="shared" ref="U59:U107" si="49">S59-H59</f>
         <v>17</v>
       </c>
       <c r="V59" s="41">
-        <f t="shared" ref="V59:V106" si="50">T59-H59</f>
+        <f t="shared" ref="V59:V107" si="50">T59-H59</f>
         <v>40</v>
       </c>
       <c r="W59" s="41" t="s">
@@ -10932,7 +10973,7 @@
       <c r="J86" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="K86" s="66" t="s">
+      <c r="K86" s="67" t="s">
         <v>426</v>
       </c>
       <c r="L86" s="46">
@@ -11012,7 +11053,7 @@
       <c r="J87" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="K87" s="66" t="s">
+      <c r="K87" s="67" t="s">
         <v>426</v>
       </c>
       <c r="L87" s="46">
@@ -11171,7 +11212,7 @@
       <c r="J89" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="K89" s="67" t="s">
+      <c r="K89" s="68" t="s">
         <v>433</v>
       </c>
       <c r="L89" s="39" t="s">
@@ -11253,7 +11294,7 @@
       <c r="J90" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="K90" s="67" t="s">
+      <c r="K90" s="68" t="s">
         <v>433</v>
       </c>
       <c r="L90" s="39" t="s">
@@ -11416,7 +11457,7 @@
       <c r="J92" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="K92" s="68" t="s">
+      <c r="K92" s="69" t="s">
         <v>444</v>
       </c>
       <c r="L92" s="27" t="s">
@@ -11662,7 +11703,7 @@
       <c r="J95" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="K95" s="69" t="s">
+      <c r="K95" s="70" t="s">
         <v>453</v>
       </c>
       <c r="L95" s="58">
@@ -11742,7 +11783,7 @@
       <c r="J96" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="K96" s="69" t="s">
+      <c r="K96" s="70" t="s">
         <v>453</v>
       </c>
       <c r="L96" s="58">
@@ -12035,251 +12076,363 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
-      <c r="A100" s="20" t="s">
+    <row r="100" spans="1:26" s="55" customFormat="1" ht="17">
+      <c r="A100" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="36">
+        <v>3403446</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" s="36">
+        <f t="shared" ref="D100" si="138">IF(C100="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E100" s="36">
+        <v>0</v>
+      </c>
+      <c r="F100" s="36">
+        <f t="shared" ref="F100" si="139">B100+D100*E100</f>
+        <v>3403446</v>
+      </c>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36">
+        <v>3403332</v>
+      </c>
+      <c r="I100" s="36">
+        <f t="shared" ref="I100" si="140">H100+159</f>
+        <v>3403491</v>
+      </c>
+      <c r="J100" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="K100" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="L100" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="M100" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="N100" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="O100" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="P100" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q100" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="R100" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="S100" s="36">
+        <f>T100-18</f>
+        <v>3403352</v>
+      </c>
+      <c r="T100" s="36">
+        <v>3403370</v>
+      </c>
+      <c r="U100" s="36">
+        <f t="shared" ref="U100" si="141">S100-H100</f>
+        <v>20</v>
+      </c>
+      <c r="V100" s="36">
+        <f t="shared" ref="V100" si="142">T100-H100</f>
+        <v>38</v>
+      </c>
+      <c r="W100" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="X100" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y100" s="36"/>
+      <c r="Z100" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A101" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B101" s="5">
         <v>2214673</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D101" s="5">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="E101" s="5">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
         <f t="shared" si="4"/>
         <v>2214673</v>
       </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3">
+      <c r="G101" s="5"/>
+      <c r="H101" s="5">
         <f t="shared" si="25"/>
         <v>2214629</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I101" s="5">
         <f t="shared" si="29"/>
         <v>2214788</v>
       </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="5">
+      <c r="J101" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="K101" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S101" s="5">
+        <v>2214749</v>
+      </c>
+      <c r="T101" s="5">
+        <f>S101+10</f>
+        <v>2214759</v>
+      </c>
+      <c r="U101" s="5">
         <f t="shared" si="49"/>
-        <v>-2214629</v>
-      </c>
-      <c r="V100" s="5">
+        <v>120</v>
+      </c>
+      <c r="V101" s="5">
         <f t="shared" si="50"/>
-        <v>-2214629</v>
-      </c>
-      <c r="W100" s="3"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-    </row>
-    <row r="101" spans="1:26">
-      <c r="A101" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="W101" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="X101" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" s="52" customFormat="1" ht="17">
+      <c r="A102" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B102" s="29">
         <v>2212969</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D102" s="29">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="E102" s="29">
+        <v>0</v>
+      </c>
+      <c r="F102" s="29">
         <f t="shared" si="4"/>
         <v>2212969</v>
       </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3">
+      <c r="G102" s="29"/>
+      <c r="H102" s="29">
         <f t="shared" si="25"/>
         <v>2212925</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I102" s="29">
         <f t="shared" si="29"/>
         <v>2213084</v>
       </c>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="5">
-        <f t="shared" si="49"/>
-        <v>-2212925</v>
-      </c>
-      <c r="V101" s="5">
-        <f t="shared" si="50"/>
-        <v>-2212925</v>
-      </c>
-      <c r="W101" s="3"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-    </row>
-    <row r="102" spans="1:26">
-      <c r="A102" s="20" t="s">
+      <c r="J102" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="K102" s="71" t="s">
+        <v>470</v>
+      </c>
+      <c r="L102" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="M102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="N102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="O102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="P102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="R102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="S102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="T102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="U102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="V102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="W102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="X102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y102" s="29"/>
+      <c r="Z102" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A103" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B103" s="5">
         <v>845736</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C103" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D103" s="5">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="E103" s="5">
+        <v>0</v>
+      </c>
+      <c r="F103" s="5">
         <f t="shared" si="4"/>
         <v>845736</v>
       </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3">
+      <c r="G103" s="5"/>
+      <c r="H103" s="5">
         <f t="shared" si="25"/>
         <v>845692</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I103" s="5">
         <f t="shared" si="29"/>
         <v>845851</v>
       </c>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="5">
+      <c r="J103" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="K103" s="66" t="s">
+        <v>476</v>
+      </c>
+      <c r="L103" s="72" t="s">
+        <v>472</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q103" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R103" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S103" s="5">
+        <v>845696</v>
+      </c>
+      <c r="T103" s="5">
+        <f>S103+10</f>
+        <v>845706</v>
+      </c>
+      <c r="U103" s="5">
         <f t="shared" si="49"/>
-        <v>-845692</v>
-      </c>
-      <c r="V102" s="5">
+        <v>4</v>
+      </c>
+      <c r="V103" s="5">
         <f t="shared" si="50"/>
-        <v>-845692</v>
-      </c>
-      <c r="W102" s="3"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-    </row>
-    <row r="103" spans="1:26">
-      <c r="A103" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="W103" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="X103" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="A104" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B104" s="3">
         <v>3438001</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D104" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3">
         <f t="shared" si="4"/>
         <v>3438001</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3">
-        <f t="shared" si="25"/>
-        <v>3437957</v>
-      </c>
-      <c r="I103" s="3">
-        <f t="shared" si="29"/>
-        <v>3438116</v>
-      </c>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
-      <c r="U103" s="5">
-        <f t="shared" si="49"/>
-        <v>-3437957</v>
-      </c>
-      <c r="V103" s="5">
-        <f t="shared" si="50"/>
-        <v>-3437957</v>
-      </c>
-      <c r="W103" s="3"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-    </row>
-    <row r="104" spans="1:26">
-      <c r="A104" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B104" s="3">
-        <v>4118427</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D104" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3">
-        <f t="shared" si="4"/>
-        <v>4118427</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3">
         <f t="shared" si="25"/>
-        <v>4118383</v>
+        <v>3437957</v>
       </c>
       <c r="I104" s="3">
         <f t="shared" si="29"/>
-        <v>4118542</v>
+        <v>3438116</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
@@ -12294,11 +12447,11 @@
       <c r="T104" s="3"/>
       <c r="U104" s="5">
         <f t="shared" si="49"/>
-        <v>-4118383</v>
+        <v>-3437957</v>
       </c>
       <c r="V104" s="5">
         <f t="shared" si="50"/>
-        <v>-4118383</v>
+        <v>-3437957</v>
       </c>
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
@@ -12307,10 +12460,10 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="20" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B105" s="3">
-        <v>3808516</v>
+        <v>4118427</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>108</v>
@@ -12324,16 +12477,16 @@
       </c>
       <c r="F105" s="3">
         <f t="shared" si="4"/>
-        <v>3808516</v>
+        <v>4118427</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3">
         <f t="shared" si="25"/>
-        <v>3808472</v>
+        <v>4118383</v>
       </c>
       <c r="I105" s="3">
         <f t="shared" si="29"/>
-        <v>3808631</v>
+        <v>4118542</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
@@ -12348,98 +12501,70 @@
       <c r="T105" s="3"/>
       <c r="U105" s="5">
         <f t="shared" si="49"/>
-        <v>-3808472</v>
+        <v>-4118383</v>
       </c>
       <c r="V105" s="5">
         <f t="shared" si="50"/>
-        <v>-3808472</v>
+        <v>-4118383</v>
       </c>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" s="2" customFormat="1">
-      <c r="A106" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D106" s="5">
+    <row r="106" spans="1:26">
+      <c r="A106" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="3">
+        <v>3808516</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E106" s="5">
-        <v>0</v>
-      </c>
-      <c r="F106" s="5">
-        <f t="shared" ref="F106" si="138">B106+D106*E106</f>
-        <v>4175107</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5">
-        <v>4175063</v>
-      </c>
-      <c r="I106" s="5">
-        <f>H106+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J106" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K106" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L106" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="M106" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N106" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="O106" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P106" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q106" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R106" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S106" s="5">
-        <v>4175143</v>
-      </c>
-      <c r="T106" s="5">
-        <f>4175175</f>
-        <v>4175175</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" si="4"/>
+        <v>3808516</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3">
+        <f t="shared" si="25"/>
+        <v>3808472</v>
+      </c>
+      <c r="I106" s="3">
+        <f t="shared" si="29"/>
+        <v>3808631</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
       <c r="U106" s="5">
         <f t="shared" si="49"/>
-        <v>80</v>
+        <v>-3808472</v>
       </c>
       <c r="V106" s="5">
         <f t="shared" si="50"/>
-        <v>112</v>
-      </c>
-      <c r="W106" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="X106" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y106" s="5"/>
-      <c r="Z106" s="5">
-        <v>1</v>
-      </c>
+        <v>-3808472</v>
+      </c>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" s="2" customFormat="1">
       <c r="A107" s="4" t="s">
@@ -12459,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F107" si="143">B107+D107*E107</f>
         <v>4175107</v>
       </c>
       <c r="G107" s="5"/>
@@ -12485,128 +12610,156 @@
       <c r="N107" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O107" s="5">
-        <f>P107-20</f>
-        <v>4175087</v>
-      </c>
-      <c r="P107" s="5">
-        <v>4175107</v>
+      <c r="O107" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P107" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="S107" s="5">
-        <v>4175105</v>
+        <v>4175143</v>
       </c>
       <c r="T107" s="5">
-        <f>S107+84</f>
-        <v>4175189</v>
+        <f>4175175</f>
+        <v>4175175</v>
       </c>
       <c r="U107" s="5">
-        <f t="shared" ref="U107:U124" si="139">S107-H107</f>
-        <v>42</v>
+        <f t="shared" si="49"/>
+        <v>80</v>
       </c>
       <c r="V107" s="5">
-        <f t="shared" ref="V107:V124" si="140">T107-H107</f>
-        <v>126</v>
+        <f t="shared" si="50"/>
+        <v>112</v>
       </c>
       <c r="W107" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X107" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Y107" s="5"/>
       <c r="Z107" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26">
-      <c r="A108" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" s="2" customFormat="1">
+      <c r="A108" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="5">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5">
+        <f t="shared" si="4"/>
+        <v>4175107</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5">
+        <v>4175063</v>
+      </c>
+      <c r="I108" s="5">
+        <f>H108+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L108" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O108" s="5">
+        <f>P108-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="P108" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="Q108" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R108" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S108" s="5">
+        <v>4175105</v>
+      </c>
+      <c r="T108" s="5">
+        <f>S108+84</f>
+        <v>4175189</v>
+      </c>
+      <c r="U108" s="5">
+        <f t="shared" ref="U108:U125" si="144">S108-H108</f>
+        <v>42</v>
+      </c>
+      <c r="V108" s="5">
+        <f t="shared" ref="V108:V125" si="145">T108-H108</f>
+        <v>126</v>
+      </c>
+      <c r="W108" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="X108" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y108" s="5"/>
+      <c r="Z108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B109" s="3">
         <v>4621716</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D109" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E108" s="3">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3">
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3">
         <f t="shared" si="4"/>
         <v>4621716</v>
       </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3">
-        <f>F108</f>
-        <v>4621716</v>
-      </c>
-      <c r="I108" s="3">
-        <f>H108+D108*160</f>
-        <v>4621876</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
-      <c r="U108" s="5">
-        <f t="shared" si="139"/>
-        <v>-4621716</v>
-      </c>
-      <c r="V108" s="5">
-        <f t="shared" si="140"/>
-        <v>-4621716</v>
-      </c>
-      <c r="W108" s="3"/>
-      <c r="X108" s="3"/>
-      <c r="Y108" s="3"/>
-      <c r="Z108" s="3"/>
-    </row>
-    <row r="109" spans="1:26">
-      <c r="A109" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="3">
-        <v>4370616</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" s="3">
-        <f t="shared" ref="D109:D159" si="141">IF(C109="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E109" s="3">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3">
-        <f t="shared" ref="F109:F159" si="142">B109+D109*E109</f>
-        <v>4370616</v>
-      </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3">
-        <f t="shared" ref="H109:H159" si="143">F109</f>
-        <v>4370616</v>
+        <f>F109</f>
+        <v>4621716</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" ref="I109:I159" si="144">H109+D109*160</f>
-        <v>4370776</v>
+        <f>H109+D109*160</f>
+        <v>4621876</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -12620,12 +12773,12 @@
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
       <c r="U109" s="5">
-        <f t="shared" si="139"/>
-        <v>-4370616</v>
+        <f t="shared" si="144"/>
+        <v>-4621716</v>
       </c>
       <c r="V109" s="5">
-        <f t="shared" si="140"/>
-        <v>-4370616</v>
+        <f t="shared" si="145"/>
+        <v>-4621716</v>
       </c>
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
@@ -12634,33 +12787,33 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="20" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B110" s="3">
-        <v>4472553</v>
+        <v>4370616</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" ref="D110:D160" si="146">IF(C110="fwd",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="E110" s="3">
         <v>0</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="142"/>
-        <v>4472553</v>
+        <f t="shared" ref="F110:F160" si="147">B110+D110*E110</f>
+        <v>4370616</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3">
-        <f t="shared" si="143"/>
-        <v>4472553</v>
+        <f t="shared" ref="H110:H160" si="148">F110</f>
+        <v>4370616</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="144"/>
-        <v>4472393</v>
+        <f t="shared" ref="I110:I160" si="149">H110+D110*160</f>
+        <v>4370776</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -12674,12 +12827,12 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="5">
-        <f t="shared" si="139"/>
-        <v>-4472553</v>
+        <f t="shared" si="144"/>
+        <v>-4370616</v>
       </c>
       <c r="V110" s="5">
-        <f t="shared" si="140"/>
-        <v>-4472553</v>
+        <f t="shared" si="145"/>
+        <v>-4370616</v>
       </c>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
@@ -12688,33 +12841,33 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B111" s="3">
-        <v>4178354</v>
+        <v>4472553</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
+        <f t="shared" si="146"/>
+        <v>-1</v>
       </c>
       <c r="E111" s="3">
         <v>0</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="142"/>
-        <v>4178354</v>
+        <f t="shared" si="147"/>
+        <v>4472553</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
-        <f t="shared" si="143"/>
-        <v>4178354</v>
+        <f t="shared" si="148"/>
+        <v>4472553</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="144"/>
-        <v>4178514</v>
+        <f t="shared" si="149"/>
+        <v>4472393</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -12728,12 +12881,12 @@
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
       <c r="U111" s="5">
-        <f t="shared" si="139"/>
-        <v>-4178354</v>
+        <f t="shared" si="144"/>
+        <v>-4472553</v>
       </c>
       <c r="V111" s="5">
-        <f t="shared" si="140"/>
-        <v>-4178354</v>
+        <f t="shared" si="145"/>
+        <v>-4472553</v>
       </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -12742,33 +12895,33 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B112" s="3">
-        <v>2042294</v>
+        <v>4178354</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D112" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E112" s="3">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="142"/>
-        <v>2042280</v>
+        <f t="shared" si="147"/>
+        <v>4178354</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3">
-        <f t="shared" si="143"/>
-        <v>2042280</v>
+        <f t="shared" si="148"/>
+        <v>4178354</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="144"/>
-        <v>2042440</v>
+        <f t="shared" si="149"/>
+        <v>4178514</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -12782,12 +12935,12 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
       <c r="U112" s="5">
-        <f t="shared" si="139"/>
-        <v>-2042280</v>
+        <f t="shared" si="144"/>
+        <v>-4178354</v>
       </c>
       <c r="V112" s="5">
-        <f t="shared" si="140"/>
-        <v>-2042280</v>
+        <f t="shared" si="145"/>
+        <v>-4178354</v>
       </c>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
@@ -12796,33 +12949,33 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B113" s="3">
-        <v>3922525</v>
+        <v>2042294</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D113" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" si="146"/>
+        <v>1</v>
       </c>
       <c r="E113" s="3">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="142"/>
-        <v>3922525</v>
+        <f t="shared" si="147"/>
+        <v>2042280</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3">
-        <f t="shared" si="143"/>
-        <v>3922525</v>
+        <f t="shared" si="148"/>
+        <v>2042280</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="144"/>
-        <v>3922365</v>
+        <f t="shared" si="149"/>
+        <v>2042440</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -12836,12 +12989,12 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
       <c r="U113" s="5">
-        <f t="shared" si="139"/>
-        <v>-3922525</v>
+        <f t="shared" si="144"/>
+        <v>-2042280</v>
       </c>
       <c r="V113" s="5">
-        <f t="shared" si="140"/>
-        <v>-3922525</v>
+        <f t="shared" si="145"/>
+        <v>-2042280</v>
       </c>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
@@ -12850,33 +13003,33 @@
     </row>
     <row r="114" spans="1:26">
       <c r="A114" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114" s="3">
-        <v>1114213</v>
+        <v>3922525</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D114" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E114" s="3">
         <v>0</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="142"/>
-        <v>1114213</v>
+        <f t="shared" si="147"/>
+        <v>3922525</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3">
-        <f t="shared" si="143"/>
-        <v>1114213</v>
+        <f t="shared" si="148"/>
+        <v>3922525</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="144"/>
-        <v>1114053</v>
+        <f t="shared" si="149"/>
+        <v>3922365</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -12890,12 +13043,12 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
       <c r="U114" s="5">
-        <f t="shared" si="139"/>
-        <v>-1114213</v>
+        <f t="shared" si="144"/>
+        <v>-3922525</v>
       </c>
       <c r="V114" s="5">
-        <f t="shared" si="140"/>
-        <v>-1114213</v>
+        <f t="shared" si="145"/>
+        <v>-3922525</v>
       </c>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
@@ -12904,33 +13057,33 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115" s="3">
-        <v>2644913</v>
+        <v>1114213</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D115" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E115" s="3">
         <v>0</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="142"/>
-        <v>2644913</v>
+        <f t="shared" si="147"/>
+        <v>1114213</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3">
-        <f t="shared" si="143"/>
-        <v>2644913</v>
+        <f t="shared" si="148"/>
+        <v>1114213</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="144"/>
-        <v>2644753</v>
+        <f t="shared" si="149"/>
+        <v>1114053</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -12944,12 +13097,12 @@
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
       <c r="U115" s="5">
-        <f t="shared" si="139"/>
-        <v>-2644913</v>
+        <f t="shared" si="144"/>
+        <v>-1114213</v>
       </c>
       <c r="V115" s="5">
-        <f t="shared" si="140"/>
-        <v>-2644913</v>
+        <f t="shared" si="145"/>
+        <v>-1114213</v>
       </c>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
@@ -12958,33 +13111,33 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="20" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B116" s="3">
-        <v>148</v>
+        <v>2644913</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D116" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
+        <f t="shared" si="146"/>
+        <v>-1</v>
       </c>
       <c r="E116" s="3">
         <v>0</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="142"/>
-        <v>148</v>
+        <f t="shared" si="147"/>
+        <v>2644913</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3">
-        <f t="shared" si="143"/>
-        <v>148</v>
+        <f t="shared" si="148"/>
+        <v>2644913</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="144"/>
-        <v>308</v>
+        <f t="shared" si="149"/>
+        <v>2644753</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -12998,12 +13151,12 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
       <c r="U116" s="5">
-        <f t="shared" si="139"/>
-        <v>-148</v>
+        <f t="shared" si="144"/>
+        <v>-2644913</v>
       </c>
       <c r="V116" s="5">
-        <f t="shared" si="140"/>
-        <v>-148</v>
+        <f t="shared" si="145"/>
+        <v>-2644913</v>
       </c>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
@@ -13012,33 +13165,33 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="20" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B117" s="3">
-        <v>454993</v>
+        <v>148</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D117" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E117" s="3">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="142"/>
-        <v>454864</v>
+        <f t="shared" si="147"/>
+        <v>148</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3">
-        <f t="shared" si="143"/>
-        <v>454864</v>
+        <f t="shared" si="148"/>
+        <v>148</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="144"/>
-        <v>455024</v>
+        <f t="shared" si="149"/>
+        <v>308</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -13052,12 +13205,12 @@
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
       <c r="U117" s="5">
-        <f t="shared" si="139"/>
-        <v>-454864</v>
+        <f t="shared" si="144"/>
+        <v>-148</v>
       </c>
       <c r="V117" s="5">
-        <f t="shared" si="140"/>
-        <v>-454864</v>
+        <f t="shared" si="145"/>
+        <v>-148</v>
       </c>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
@@ -13066,33 +13219,33 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="20" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B118" s="3">
-        <v>189712</v>
+        <v>454993</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D118" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E118" s="3">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="142"/>
-        <v>189712</v>
+        <f t="shared" si="147"/>
+        <v>454864</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <f t="shared" si="143"/>
-        <v>189712</v>
+        <f t="shared" si="148"/>
+        <v>454864</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="144"/>
-        <v>189872</v>
+        <f t="shared" si="149"/>
+        <v>455024</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -13106,12 +13259,12 @@
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="5">
-        <f t="shared" si="139"/>
-        <v>-189712</v>
+        <f t="shared" si="144"/>
+        <v>-454864</v>
       </c>
       <c r="V118" s="5">
-        <f t="shared" si="140"/>
-        <v>-189712</v>
+        <f t="shared" si="145"/>
+        <v>-454864</v>
       </c>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
@@ -13120,33 +13273,33 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="20" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B119" s="3">
-        <v>3948058</v>
+        <v>189712</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D119" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E119" s="3">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="142"/>
-        <v>3948030</v>
+        <f t="shared" si="147"/>
+        <v>189712</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <f t="shared" si="143"/>
-        <v>3948030</v>
+        <f t="shared" si="148"/>
+        <v>189712</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="144"/>
-        <v>3948190</v>
+        <f t="shared" si="149"/>
+        <v>189872</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -13160,12 +13313,12 @@
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="5">
-        <f t="shared" si="139"/>
-        <v>-3948030</v>
+        <f t="shared" si="144"/>
+        <v>-189712</v>
       </c>
       <c r="V119" s="5">
-        <f t="shared" si="140"/>
-        <v>-3948030</v>
+        <f t="shared" si="145"/>
+        <v>-189712</v>
       </c>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
@@ -13174,33 +13327,33 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="20" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B120" s="3">
-        <v>911076</v>
+        <v>3948058</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D120" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" si="146"/>
+        <v>1</v>
       </c>
       <c r="E120" s="3">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="142"/>
-        <v>911076</v>
+        <f t="shared" si="147"/>
+        <v>3948030</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3">
-        <f t="shared" si="143"/>
-        <v>911076</v>
+        <f t="shared" si="148"/>
+        <v>3948030</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="144"/>
-        <v>910916</v>
+        <f t="shared" si="149"/>
+        <v>3948190</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -13214,12 +13367,12 @@
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
       <c r="U120" s="5">
-        <f t="shared" si="139"/>
-        <v>-911076</v>
+        <f t="shared" si="144"/>
+        <v>-3948030</v>
       </c>
       <c r="V120" s="5">
-        <f t="shared" si="140"/>
-        <v>-911076</v>
+        <f t="shared" si="145"/>
+        <v>-3948030</v>
       </c>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
@@ -13228,33 +13381,33 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="20" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B121" s="3">
-        <v>1655186</v>
+        <v>911076</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D121" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E121" s="3">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="142"/>
-        <v>1655231</v>
+        <f t="shared" si="147"/>
+        <v>911076</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3">
-        <f t="shared" si="143"/>
-        <v>1655231</v>
+        <f t="shared" si="148"/>
+        <v>911076</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="144"/>
-        <v>1655071</v>
+        <f t="shared" si="149"/>
+        <v>910916</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -13268,12 +13421,12 @@
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
       <c r="U121" s="5">
-        <f t="shared" si="139"/>
-        <v>-1655231</v>
+        <f t="shared" si="144"/>
+        <v>-911076</v>
       </c>
       <c r="V121" s="5">
-        <f t="shared" si="140"/>
-        <v>-1655231</v>
+        <f t="shared" si="145"/>
+        <v>-911076</v>
       </c>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
@@ -13282,33 +13435,33 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="20" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B122" s="3">
-        <v>4390638</v>
+        <v>1655186</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E122" s="3">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="142"/>
-        <v>4390638</v>
+        <f t="shared" si="147"/>
+        <v>1655231</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3">
-        <f t="shared" si="143"/>
-        <v>4390638</v>
+        <f t="shared" si="148"/>
+        <v>1655231</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="144"/>
-        <v>4390478</v>
+        <f t="shared" si="149"/>
+        <v>1655071</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -13322,12 +13475,12 @@
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="5">
-        <f t="shared" si="139"/>
-        <v>-4390638</v>
+        <f t="shared" si="144"/>
+        <v>-1655231</v>
       </c>
       <c r="V122" s="5">
-        <f t="shared" si="140"/>
-        <v>-4390638</v>
+        <f t="shared" si="145"/>
+        <v>-1655231</v>
       </c>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
@@ -13336,33 +13489,33 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="20" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B123" s="3">
-        <v>4640508</v>
+        <v>4390638</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D123" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E123" s="3">
         <v>0</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="142"/>
-        <v>4640508</v>
+        <f t="shared" si="147"/>
+        <v>4390638</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3">
-        <f t="shared" si="143"/>
-        <v>4640508</v>
+        <f t="shared" si="148"/>
+        <v>4390638</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="144"/>
-        <v>4640348</v>
+        <f t="shared" si="149"/>
+        <v>4390478</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -13376,12 +13529,12 @@
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
       <c r="U123" s="5">
-        <f t="shared" si="139"/>
-        <v>-4640508</v>
+        <f t="shared" si="144"/>
+        <v>-4390638</v>
       </c>
       <c r="V123" s="5">
-        <f t="shared" si="140"/>
-        <v>-4640508</v>
+        <f t="shared" si="145"/>
+        <v>-4390638</v>
       </c>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
@@ -13390,33 +13543,33 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="20" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B124" s="3">
-        <v>1972716</v>
+        <v>4640508</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D124" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E124" s="3">
         <v>0</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="142"/>
-        <v>1972716</v>
+        <f t="shared" si="147"/>
+        <v>4640508</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3">
-        <f t="shared" si="143"/>
-        <v>1972716</v>
+        <f t="shared" si="148"/>
+        <v>4640508</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="144"/>
-        <v>1972556</v>
+        <f t="shared" si="149"/>
+        <v>4640348</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -13430,98 +13583,71 @@
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
       <c r="U124" s="5">
-        <f t="shared" si="139"/>
-        <v>-1972716</v>
+        <f t="shared" si="144"/>
+        <v>-4640508</v>
       </c>
       <c r="V124" s="5">
-        <f t="shared" si="140"/>
-        <v>-1972716</v>
+        <f t="shared" si="145"/>
+        <v>-4640508</v>
       </c>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" s="2" customFormat="1" ht="17">
-      <c r="A125" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B125" s="5">
-        <v>652172</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D125" s="5">
-        <f t="shared" si="141"/>
-        <v>1</v>
-      </c>
-      <c r="E125" s="5">
-        <v>0</v>
-      </c>
-      <c r="F125" s="5">
-        <f t="shared" ref="F125" si="145">B125+D125*E125</f>
-        <v>652172</v>
-      </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="21">
-        <v>652058</v>
-      </c>
-      <c r="I125" s="5">
-        <f>H125+D125*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="K125" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="L125" s="5">
-        <v>652172</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N125" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O125" s="5">
-        <v>652193</v>
-      </c>
-      <c r="P125" s="5">
-        <v>652199</v>
-      </c>
-      <c r="Q125" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="R125" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S125" s="21">
-        <f>130+H125</f>
-        <v>652188</v>
-      </c>
-      <c r="T125" s="21">
-        <f>S125+30</f>
-        <v>652218</v>
-      </c>
+    <row r="125" spans="1:26">
+      <c r="A125" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1972716</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" s="3">
+        <f t="shared" si="146"/>
+        <v>-1</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" si="147"/>
+        <v>1972716</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3">
+        <f t="shared" si="148"/>
+        <v>1972716</v>
+      </c>
+      <c r="I125" s="3">
+        <f t="shared" si="149"/>
+        <v>1972556</v>
+      </c>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
       <c r="U125" s="5">
-        <v>130</v>
+        <f t="shared" si="144"/>
+        <v>-1972716</v>
       </c>
       <c r="V125" s="5">
-        <v>160</v>
-      </c>
-      <c r="W125" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="X125" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y125" s="5"/>
-      <c r="Z125" s="5">
-        <v>0</v>
-      </c>
+        <f t="shared" si="145"/>
+        <v>-1972716</v>
+      </c>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A126" s="4" t="s">
@@ -13534,14 +13660,14 @@
         <v>108</v>
       </c>
       <c r="D126" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" ref="F126" si="150">B126+D126*E126</f>
         <v>652172</v>
       </c>
       <c r="G126" s="5"/>
@@ -13568,119 +13694,152 @@
         <v>165</v>
       </c>
       <c r="O126" s="5">
-        <v>652118</v>
+        <v>652193</v>
       </c>
       <c r="P126" s="5">
-        <v>652140</v>
+        <v>652199</v>
       </c>
       <c r="Q126" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="S126" s="21">
-        <f>60+H126</f>
-        <v>652118</v>
+        <f>130+H126</f>
+        <v>652188</v>
       </c>
       <c r="T126" s="21">
-        <f>S126+25</f>
-        <v>652143</v>
+        <f>S126+30</f>
+        <v>652218</v>
       </c>
       <c r="U126" s="5">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="V126" s="5">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="W126" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X126" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Y126" s="5"/>
       <c r="Z126" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
-      <c r="A127" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B127" s="3">
-        <v>70075</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D127" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
-      </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3">
-        <f t="shared" si="142"/>
-        <v>70075</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3">
-        <f t="shared" si="143"/>
-        <v>70075</v>
-      </c>
-      <c r="I127" s="3">
-        <f t="shared" si="144"/>
-        <v>69915</v>
-      </c>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="3"/>
-      <c r="T127" s="3"/>
-      <c r="U127" s="3"/>
-      <c r="V127" s="3"/>
-      <c r="W127" s="3"/>
-      <c r="X127" s="3"/>
-      <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
+    <row r="127" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A127" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B127" s="5">
+        <v>652172</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" s="5">
+        <f t="shared" si="146"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0</v>
+      </c>
+      <c r="F127" s="5">
+        <f t="shared" si="147"/>
+        <v>652172</v>
+      </c>
+      <c r="G127" s="5"/>
+      <c r="H127" s="21">
+        <v>652058</v>
+      </c>
+      <c r="I127" s="5">
+        <f>H127+D127*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L127" s="5">
+        <v>652172</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N127" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O127" s="5">
+        <v>652118</v>
+      </c>
+      <c r="P127" s="5">
+        <v>652140</v>
+      </c>
+      <c r="Q127" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R127" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S127" s="21">
+        <f>60+H127</f>
+        <v>652118</v>
+      </c>
+      <c r="T127" s="21">
+        <f>S127+25</f>
+        <v>652143</v>
+      </c>
+      <c r="U127" s="5">
+        <v>60</v>
+      </c>
+      <c r="V127" s="5">
+        <v>85</v>
+      </c>
+      <c r="W127" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="X127" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="20" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B128" s="3">
-        <v>70241</v>
+        <v>70075</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D128" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
+        <f t="shared" si="146"/>
+        <v>-1</v>
       </c>
       <c r="E128" s="3">
         <v>0</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="142"/>
-        <v>70241</v>
+        <f t="shared" si="147"/>
+        <v>70075</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3">
-        <f t="shared" si="143"/>
-        <v>70241</v>
+        <f t="shared" si="148"/>
+        <v>70075</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="144"/>
-        <v>70401</v>
+        <f t="shared" si="149"/>
+        <v>69915</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -13702,33 +13861,33 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="20" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B129" s="3">
-        <v>3731069</v>
+        <v>70241</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D129" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E129" s="3">
         <v>0</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="142"/>
-        <v>3731069</v>
+        <f t="shared" si="147"/>
+        <v>70241</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3">
-        <f t="shared" si="143"/>
-        <v>3731069</v>
+        <f t="shared" si="148"/>
+        <v>70241</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="144"/>
-        <v>3731229</v>
+        <f t="shared" si="149"/>
+        <v>70401</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -13750,33 +13909,33 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B130" s="3">
-        <v>3730807</v>
+        <v>3731069</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D130" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" si="146"/>
+        <v>1</v>
       </c>
       <c r="E130" s="3">
         <v>0</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="142"/>
-        <v>3730807</v>
+        <f t="shared" si="147"/>
+        <v>3731069</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3">
-        <f t="shared" si="143"/>
-        <v>3730807</v>
+        <f t="shared" si="148"/>
+        <v>3731069</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="144"/>
-        <v>3730647</v>
+        <f t="shared" si="149"/>
+        <v>3731229</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -13798,33 +13957,33 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="20" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B131" s="3">
-        <v>1647934</v>
+        <v>3730807</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D131" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
+        <f t="shared" si="146"/>
+        <v>-1</v>
       </c>
       <c r="E131" s="3">
         <v>0</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="142"/>
-        <v>1647934</v>
+        <f t="shared" si="147"/>
+        <v>3730807</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3">
-        <f t="shared" si="143"/>
-        <v>1647934</v>
+        <f t="shared" si="148"/>
+        <v>3730807</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="144"/>
-        <v>1648094</v>
+        <f t="shared" si="149"/>
+        <v>3730647</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -13846,33 +14005,33 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="20" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="B132" s="3">
-        <v>1647876</v>
+        <v>1647934</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" si="146"/>
+        <v>1</v>
       </c>
       <c r="E132" s="3">
         <v>0</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="142"/>
-        <v>1647876</v>
+        <f t="shared" si="147"/>
+        <v>1647934</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3">
-        <f t="shared" si="143"/>
-        <v>1647876</v>
+        <f t="shared" si="148"/>
+        <v>1647934</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="144"/>
-        <v>1647716</v>
+        <f t="shared" si="149"/>
+        <v>1648094</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -13894,33 +14053,33 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="20" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="B133" s="3">
-        <v>1649597</v>
+        <v>1647876</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
+        <f t="shared" si="146"/>
+        <v>-1</v>
       </c>
       <c r="E133" s="3">
         <v>0</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="142"/>
-        <v>1649597</v>
+        <f t="shared" si="147"/>
+        <v>1647876</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3">
-        <f t="shared" si="143"/>
-        <v>1649597</v>
+        <f t="shared" si="148"/>
+        <v>1647876</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="144"/>
-        <v>1649757</v>
+        <f t="shared" si="149"/>
+        <v>1647716</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -13942,33 +14101,33 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" s="20" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B134" s="3">
-        <v>3536707</v>
+        <v>1649597</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D134" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" si="146"/>
+        <v>1</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="142"/>
-        <v>3536707</v>
+        <f t="shared" si="147"/>
+        <v>1649597</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3">
-        <f t="shared" si="143"/>
-        <v>3536707</v>
+        <f t="shared" si="148"/>
+        <v>1649597</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="144"/>
-        <v>3536547</v>
+        <f t="shared" si="149"/>
+        <v>1649757</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -13990,33 +14149,33 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" s="20" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B135" s="3">
-        <v>2524910</v>
+        <v>3536707</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D135" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E135" s="3">
         <v>0</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="142"/>
-        <v>2524910</v>
+        <f t="shared" si="147"/>
+        <v>3536707</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3">
-        <f t="shared" si="143"/>
-        <v>2524910</v>
+        <f t="shared" si="148"/>
+        <v>3536707</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="144"/>
-        <v>2524750</v>
+        <f t="shared" si="149"/>
+        <v>3536547</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -14038,33 +14197,33 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" s="20" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B136" s="3">
-        <v>3957912</v>
+        <v>2524910</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D136" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
+        <f t="shared" si="146"/>
+        <v>-1</v>
       </c>
       <c r="E136" s="3">
         <v>0</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="142"/>
-        <v>3957912</v>
+        <f t="shared" si="147"/>
+        <v>2524910</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3">
-        <f t="shared" si="143"/>
-        <v>3957912</v>
+        <f t="shared" si="148"/>
+        <v>2524910</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="144"/>
-        <v>3958072</v>
+        <f t="shared" si="149"/>
+        <v>2524750</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -14086,33 +14245,33 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B137" s="3">
-        <v>3927129</v>
+        <v>3957912</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D137" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E137" s="3">
         <v>0</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" si="142"/>
-        <v>3927129</v>
+        <f t="shared" si="147"/>
+        <v>3957912</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3">
-        <f t="shared" si="143"/>
-        <v>3927129</v>
+        <f t="shared" si="148"/>
+        <v>3957912</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="144"/>
-        <v>3927289</v>
+        <f t="shared" si="149"/>
+        <v>3958072</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -14134,33 +14293,33 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" s="20" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B138" s="3">
-        <v>4494597</v>
+        <v>3927129</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D138" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E138" s="3">
         <v>0</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="142"/>
-        <v>4494597</v>
+        <f t="shared" si="147"/>
+        <v>3927129</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3">
-        <f t="shared" si="143"/>
-        <v>4494597</v>
+        <f t="shared" si="148"/>
+        <v>3927129</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="144"/>
-        <v>4494757</v>
+        <f t="shared" si="149"/>
+        <v>3927289</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -14182,33 +14341,33 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B139" s="3">
-        <v>246533</v>
+        <v>4494597</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D139" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" si="146"/>
+        <v>1</v>
       </c>
       <c r="E139" s="3">
         <v>0</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="142"/>
-        <v>246533</v>
+        <f t="shared" si="147"/>
+        <v>4494597</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3">
-        <f t="shared" si="143"/>
-        <v>246533</v>
+        <f t="shared" si="148"/>
+        <v>4494597</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="144"/>
-        <v>246373</v>
+        <f t="shared" si="149"/>
+        <v>4494757</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -14230,33 +14389,33 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="20" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B140" s="3">
-        <v>4591367</v>
+        <v>246533</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D140" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E140" s="3">
         <v>0</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="142"/>
-        <v>4591367</v>
+        <f t="shared" si="147"/>
+        <v>246533</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3">
-        <f t="shared" si="143"/>
-        <v>4591367</v>
+        <f t="shared" si="148"/>
+        <v>246533</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="144"/>
-        <v>4591207</v>
+        <f t="shared" si="149"/>
+        <v>246373</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -14278,33 +14437,33 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B141" s="3">
-        <v>1977302</v>
+        <v>4591367</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D141" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E141" s="3">
         <v>0</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="142"/>
-        <v>1977302</v>
+        <f t="shared" si="147"/>
+        <v>4591367</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3">
-        <f t="shared" si="143"/>
-        <v>1977302</v>
+        <f t="shared" si="148"/>
+        <v>4591367</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="144"/>
-        <v>1977142</v>
+        <f t="shared" si="149"/>
+        <v>4591207</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -14326,33 +14485,33 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="20" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B142" s="3">
-        <v>933138</v>
+        <v>1977302</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D142" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
+        <f t="shared" si="146"/>
+        <v>-1</v>
       </c>
       <c r="E142" s="3">
         <v>0</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" si="142"/>
-        <v>933138</v>
+        <f t="shared" si="147"/>
+        <v>1977302</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3">
-        <f t="shared" si="143"/>
-        <v>933138</v>
+        <f t="shared" si="148"/>
+        <v>1977302</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="144"/>
-        <v>933298</v>
+        <f t="shared" si="149"/>
+        <v>1977142</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -14374,33 +14533,33 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="20" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B143" s="3">
-        <v>87969</v>
+        <v>933138</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D143" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E143" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" si="142"/>
-        <v>87991</v>
+        <f t="shared" si="147"/>
+        <v>933138</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3">
-        <f t="shared" si="143"/>
-        <v>87991</v>
+        <f t="shared" si="148"/>
+        <v>933138</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="144"/>
-        <v>88151</v>
+        <f t="shared" si="149"/>
+        <v>933298</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -14422,33 +14581,33 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="20" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B144" s="3">
-        <v>3997907</v>
+        <v>87969</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D144" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E144" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" si="142"/>
-        <v>3997907</v>
+        <f t="shared" si="147"/>
+        <v>87991</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3">
-        <f t="shared" si="143"/>
-        <v>3997907</v>
+        <f t="shared" si="148"/>
+        <v>87991</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="144"/>
-        <v>3998067</v>
+        <f t="shared" si="149"/>
+        <v>88151</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -14470,33 +14629,33 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="20" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B145" s="3">
-        <v>4338042</v>
+        <v>3997907</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D145" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" si="146"/>
+        <v>1</v>
       </c>
       <c r="E145" s="3">
         <v>0</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="142"/>
-        <v>4338042</v>
+        <f t="shared" si="147"/>
+        <v>3997907</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3">
-        <f t="shared" si="143"/>
-        <v>4338042</v>
+        <f t="shared" si="148"/>
+        <v>3997907</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="144"/>
-        <v>4337882</v>
+        <f t="shared" si="149"/>
+        <v>3998067</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -14518,33 +14677,33 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="20" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B146" s="3">
-        <v>1942634</v>
+        <v>4338042</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D146" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
+        <f t="shared" si="146"/>
+        <v>-1</v>
       </c>
       <c r="E146" s="3">
         <v>0</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="142"/>
-        <v>1942634</v>
+        <f t="shared" si="147"/>
+        <v>4338042</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3">
-        <f t="shared" si="143"/>
-        <v>1942634</v>
+        <f t="shared" si="148"/>
+        <v>4338042</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="144"/>
-        <v>1942794</v>
+        <f t="shared" si="149"/>
+        <v>4337882</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -14566,33 +14725,33 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B147" s="3">
-        <v>1942661</v>
+        <v>1942634</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D147" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" si="146"/>
+        <v>1</v>
       </c>
       <c r="E147" s="3">
         <v>0</v>
       </c>
       <c r="F147" s="3">
-        <f t="shared" si="142"/>
-        <v>1942661</v>
+        <f t="shared" si="147"/>
+        <v>1942634</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3">
-        <f t="shared" si="143"/>
-        <v>1942661</v>
+        <f t="shared" si="148"/>
+        <v>1942634</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="144"/>
-        <v>1942501</v>
+        <f t="shared" si="149"/>
+        <v>1942794</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -14614,33 +14773,33 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" s="20" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B148" s="3">
-        <v>3182433</v>
+        <v>1942661</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D148" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
+        <f t="shared" si="146"/>
+        <v>-1</v>
       </c>
       <c r="E148" s="3">
         <v>0</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="142"/>
-        <v>3182433</v>
+        <f t="shared" si="147"/>
+        <v>1942661</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3">
-        <f t="shared" si="143"/>
-        <v>3182433</v>
+        <f t="shared" si="148"/>
+        <v>1942661</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="144"/>
-        <v>3182593</v>
+        <f t="shared" si="149"/>
+        <v>1942501</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -14662,33 +14821,33 @@
     </row>
     <row r="149" spans="1:26">
       <c r="A149" s="20" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B149" s="3">
-        <v>3637612</v>
+        <v>3182433</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D149" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E149" s="3">
         <v>0</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="142"/>
-        <v>3637612</v>
+        <f t="shared" si="147"/>
+        <v>3182433</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3">
-        <f t="shared" si="143"/>
-        <v>3637612</v>
+        <f t="shared" si="148"/>
+        <v>3182433</v>
       </c>
       <c r="I149" s="3">
-        <f t="shared" si="144"/>
-        <v>3637772</v>
+        <f t="shared" si="149"/>
+        <v>3182593</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -14710,33 +14869,33 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" s="20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B150" s="3">
-        <v>4376509</v>
+        <v>3637612</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D150" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
       </c>
       <c r="F150" s="3">
-        <f t="shared" si="142"/>
-        <v>4376509</v>
+        <f t="shared" si="147"/>
+        <v>3637612</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3">
-        <f t="shared" si="143"/>
-        <v>4376509</v>
+        <f t="shared" si="148"/>
+        <v>3637612</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="144"/>
-        <v>4376669</v>
+        <f t="shared" si="149"/>
+        <v>3637772</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -14758,33 +14917,33 @@
     </row>
     <row r="151" spans="1:26">
       <c r="A151" s="20" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B151" s="3">
-        <v>83735</v>
+        <v>4376509</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" si="146"/>
+        <v>1</v>
       </c>
       <c r="E151" s="3">
         <v>0</v>
       </c>
       <c r="F151" s="3">
-        <f t="shared" si="142"/>
-        <v>83735</v>
+        <f t="shared" si="147"/>
+        <v>4376509</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3">
-        <f t="shared" si="143"/>
-        <v>83735</v>
+        <f t="shared" si="148"/>
+        <v>4376509</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="144"/>
-        <v>83575</v>
+        <f t="shared" si="149"/>
+        <v>4376669</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -14806,31 +14965,33 @@
     </row>
     <row r="152" spans="1:26">
       <c r="A152" s="20" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B152" s="3">
-        <v>1645903</v>
+        <v>83735</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D152" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
-      <c r="E152" s="3"/>
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
       <c r="F152" s="3">
-        <f t="shared" si="142"/>
-        <v>1645903</v>
+        <f t="shared" si="147"/>
+        <v>83735</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3">
-        <f t="shared" si="143"/>
-        <v>1645903</v>
+        <f t="shared" si="148"/>
+        <v>83735</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="144"/>
-        <v>1645743</v>
+        <f t="shared" si="149"/>
+        <v>83575</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -14852,33 +15013,31 @@
     </row>
     <row r="153" spans="1:26">
       <c r="A153" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B153" s="3">
-        <v>1619093</v>
+        <v>1645903</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D153" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
-      </c>
-      <c r="E153" s="3">
-        <v>-10</v>
-      </c>
+        <f t="shared" si="146"/>
+        <v>-1</v>
+      </c>
+      <c r="E153" s="3"/>
       <c r="F153" s="3">
-        <f t="shared" si="142"/>
-        <v>1619083</v>
+        <f t="shared" si="147"/>
+        <v>1645903</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3">
-        <f t="shared" si="143"/>
-        <v>1619083</v>
+        <f t="shared" si="148"/>
+        <v>1645903</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="144"/>
-        <v>1619243</v>
+        <f t="shared" si="149"/>
+        <v>1645743</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -14900,33 +15059,33 @@
     </row>
     <row r="154" spans="1:26">
       <c r="A154" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B154" s="3">
-        <v>4326836</v>
+        <v>1619093</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D154" s="3">
-        <f t="shared" si="141"/>
-        <v>-1</v>
+        <f t="shared" si="146"/>
+        <v>1</v>
       </c>
       <c r="E154" s="3">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F154" s="3">
-        <f t="shared" si="142"/>
-        <v>4326836</v>
+        <f t="shared" si="147"/>
+        <v>1619083</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3">
-        <f t="shared" si="143"/>
-        <v>4326836</v>
+        <f t="shared" si="148"/>
+        <v>1619083</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="144"/>
-        <v>4326676</v>
+        <f t="shared" si="149"/>
+        <v>1619243</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -14948,33 +15107,33 @@
     </row>
     <row r="155" spans="1:26">
       <c r="A155" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B155" s="3">
-        <v>2032352</v>
+        <v>4326836</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D155" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E155" s="3">
         <v>0</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="142"/>
-        <v>2032352</v>
+        <f t="shared" si="147"/>
+        <v>4326836</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3">
-        <f t="shared" si="143"/>
-        <v>2032352</v>
+        <f t="shared" si="148"/>
+        <v>4326836</v>
       </c>
       <c r="I155" s="3">
-        <f t="shared" si="144"/>
-        <v>2032192</v>
+        <f t="shared" si="149"/>
+        <v>4326676</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
@@ -14996,33 +15155,33 @@
     </row>
     <row r="156" spans="1:26">
       <c r="A156" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156" s="3">
-        <v>2949066</v>
+        <v>2032352</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D156" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="142"/>
-        <v>2949066</v>
+        <f t="shared" si="147"/>
+        <v>2032352</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3">
-        <f t="shared" si="143"/>
-        <v>2949066</v>
+        <f t="shared" si="148"/>
+        <v>2032352</v>
       </c>
       <c r="I156" s="3">
-        <f t="shared" si="144"/>
-        <v>2948906</v>
+        <f t="shared" si="149"/>
+        <v>2032192</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -15044,33 +15203,33 @@
     </row>
     <row r="157" spans="1:26">
       <c r="A157" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B157" s="3">
-        <v>3811175</v>
+        <v>2949066</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D157" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
       </c>
       <c r="F157" s="3">
-        <f t="shared" si="142"/>
-        <v>3811175</v>
+        <f t="shared" si="147"/>
+        <v>2949066</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3">
-        <f t="shared" si="143"/>
-        <v>3811175</v>
+        <f t="shared" si="148"/>
+        <v>2949066</v>
       </c>
       <c r="I157" s="3">
-        <f t="shared" si="144"/>
-        <v>3811015</v>
+        <f t="shared" si="149"/>
+        <v>2948906</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -15092,33 +15251,33 @@
     </row>
     <row r="158" spans="1:26">
       <c r="A158" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B158" s="3">
-        <v>919103</v>
+        <v>3811175</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D158" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>-1</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
       </c>
       <c r="F158" s="3">
-        <f t="shared" si="142"/>
-        <v>919103</v>
+        <f t="shared" si="147"/>
+        <v>3811175</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3">
-        <f t="shared" si="143"/>
-        <v>919103</v>
+        <f t="shared" si="148"/>
+        <v>3811175</v>
       </c>
       <c r="I158" s="3">
-        <f t="shared" si="144"/>
-        <v>918943</v>
+        <f t="shared" si="149"/>
+        <v>3811015</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -15140,33 +15299,33 @@
     </row>
     <row r="159" spans="1:26">
       <c r="A159" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B159" s="3">
-        <v>830783</v>
+        <v>919103</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D159" s="3">
-        <f t="shared" si="141"/>
-        <v>1</v>
+        <f t="shared" si="146"/>
+        <v>-1</v>
       </c>
       <c r="E159" s="3">
         <v>0</v>
       </c>
       <c r="F159" s="3">
-        <f t="shared" si="142"/>
-        <v>830783</v>
+        <f t="shared" si="147"/>
+        <v>919103</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3">
-        <f t="shared" si="143"/>
-        <v>830783</v>
+        <f t="shared" si="148"/>
+        <v>919103</v>
       </c>
       <c r="I159" s="3">
-        <f t="shared" si="144"/>
-        <v>830943</v>
+        <f t="shared" si="149"/>
+        <v>918943</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -15186,21 +15345,69 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165">
-        <f>COUNTA(_xlfn.UNIQUE(A2:A159))</f>
+    <row r="160" spans="1:26">
+      <c r="A160" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B160" s="3">
+        <v>830783</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D160" s="3">
+        <f t="shared" si="146"/>
+        <v>1</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
+        <f t="shared" si="147"/>
+        <v>830783</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3">
+        <f t="shared" si="148"/>
+        <v>830783</v>
+      </c>
+      <c r="I160" s="3">
+        <f t="shared" si="149"/>
+        <v>830943</v>
+      </c>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3"/>
+      <c r="Z160" s="3"/>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <f>COUNTA(_xlfn.UNIQUE(A2:A160))</f>
         <v>111</v>
       </c>
-      <c r="B165">
-        <f>COUNTA(_xlfn.UNIQUE(J1:J159))</f>
-        <v>57</v>
+      <c r="B166">
+        <f>COUNTA(_xlfn.UNIQUE(J1:J160))</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I107 P29 H49" formula="1"/>
+    <ignoredError sqref="I108 P29 H49" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D80D91-6790-6040-8BEE-25D138AD6127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92D94CC-AD3A-154C-8A61-AD399C1D41C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12860" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="485">
   <si>
     <t>Operon</t>
   </si>
@@ -1472,6 +1472,27 @@
   </si>
   <si>
     <t>GCCTACAGGAT</t>
+  </si>
+  <si>
+    <t>aggattaattaaattcattcctggcaggaaaatggcttaacatttgttagacttatggttGtcggcttcatagggagaata</t>
+  </si>
+  <si>
+    <t>3,438,024 -&gt; 3,438,434</t>
+  </si>
+  <si>
+    <t>TCTTGTAATTAATAAGGCGTCTAATGACGCCTTATTATTTCCCTTTGATTATCAAGGATTAATTAAATTCATTCCTGGCAGGAAAATGGCTTAACATTTGTTAGACTTATGGTTGTCGGCTTCATAGGGAGAATAACATGAGCATTATTAAAGAATTTCG</t>
+  </si>
+  <si>
+    <t>AACATTTGTTAGACTTATGGTTGTCGGCTTCAT</t>
+  </si>
+  <si>
+    <t>CCTGGCAGGAAAATGGCTTAACATTTGTTAGACTTATGGTTGTCGGCTTCATAGGGAGAAT</t>
+  </si>
+  <si>
+    <t>ACATTTGTTAGACTTAT</t>
+  </si>
+  <si>
+    <t>ACATTTGTTAGACTTATGGTT</t>
   </si>
 </sst>
 </file>
@@ -3873,11 +3894,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:Z166"/>
+  <dimension ref="A1:Z167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="165" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z104" sqref="Z104"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="165" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y105" sqref="Y105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4246,14 +4267,14 @@
         <v>108</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D109" si="3">IF(C5="fwd",1,-1)</f>
+        <f t="shared" ref="D5:D110" si="3">IF(C5="fwd",1,-1)</f>
         <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F109" si="4">B5+D5*E5</f>
+        <f t="shared" ref="F5:F110" si="4">B5+D5*E5</f>
         <v>2928035</v>
       </c>
       <c r="G5" s="5">
@@ -7283,7 +7304,7 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5">
-        <f t="shared" ref="H41:H106" si="25">F41-44</f>
+        <f t="shared" ref="H41:H107" si="25">F41-44</f>
         <v>4484229</v>
       </c>
       <c r="I41" s="5">
@@ -7614,7 +7635,7 @@
         <v>63314</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" ref="I45:I106" si="29">H45+159</f>
+        <f t="shared" ref="I45:I107" si="29">H45+159</f>
         <v>63473</v>
       </c>
       <c r="J45" s="5" t="s">
@@ -8797,11 +8818,11 @@
         <v>4122350</v>
       </c>
       <c r="U59" s="41">
-        <f t="shared" ref="U59:U107" si="49">S59-H59</f>
+        <f t="shared" ref="U59:U108" si="49">S59-H59</f>
         <v>17</v>
       </c>
       <c r="V59" s="41">
-        <f t="shared" ref="V59:V107" si="50">T59-H59</f>
+        <f t="shared" ref="V59:V108" si="50">T59-H59</f>
         <v>40</v>
       </c>
       <c r="W59" s="41" t="s">
@@ -12404,143 +12425,193 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
-      <c r="A104" s="20" t="s">
+    <row r="104" spans="1:26" s="58" customFormat="1" ht="17">
+      <c r="A104" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="43">
         <v>3438001</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="43">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E104" s="3">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3">
+      <c r="E104" s="43">
+        <v>0</v>
+      </c>
+      <c r="F104" s="43">
         <f t="shared" si="4"/>
         <v>3438001</v>
       </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3">
-        <f t="shared" si="25"/>
-        <v>3437957</v>
-      </c>
-      <c r="I104" s="3">
+      <c r="G104" s="43"/>
+      <c r="H104" s="43">
+        <v>3437887</v>
+      </c>
+      <c r="I104" s="43">
         <f t="shared" si="29"/>
-        <v>3438116</v>
-      </c>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
-      <c r="U104" s="5">
+        <v>3438046</v>
+      </c>
+      <c r="J104" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="K104" s="70" t="s">
+        <v>479</v>
+      </c>
+      <c r="L104" s="58">
+        <v>3438001</v>
+      </c>
+      <c r="N104" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="O104" s="43">
+        <v>3437979</v>
+      </c>
+      <c r="P104" s="43">
+        <v>3438011</v>
+      </c>
+      <c r="Q104" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="R104" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="S104" s="43">
+        <v>3437960</v>
+      </c>
+      <c r="T104" s="43">
+        <f>S104+60</f>
+        <v>3438020</v>
+      </c>
+      <c r="U104" s="43">
         <f t="shared" si="49"/>
-        <v>-3437957</v>
-      </c>
-      <c r="V104" s="5">
+        <v>73</v>
+      </c>
+      <c r="V104" s="43">
         <f t="shared" si="50"/>
-        <v>-3437957</v>
-      </c>
-      <c r="W104" s="3"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-    </row>
-    <row r="105" spans="1:26">
-      <c r="A105" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="W104" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="X104" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y104" s="43"/>
+      <c r="Z104" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" s="58" customFormat="1" ht="17">
+      <c r="A105" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="43">
+        <v>3438001</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="43">
+        <f t="shared" ref="D105" si="143">IF(C105="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E105" s="43">
+        <v>0</v>
+      </c>
+      <c r="F105" s="43">
+        <f t="shared" ref="F105" si="144">B105+D105*E105</f>
+        <v>3438001</v>
+      </c>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43">
+        <v>3437887</v>
+      </c>
+      <c r="I105" s="43">
+        <f t="shared" ref="I105" si="145">H105+159</f>
+        <v>3438046</v>
+      </c>
+      <c r="J105" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="K105" s="70" t="s">
+        <v>479</v>
+      </c>
+      <c r="L105" s="58">
+        <v>3438001</v>
+      </c>
+      <c r="N105" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="O105" s="43">
+        <v>3437980</v>
+      </c>
+      <c r="P105" s="43">
+        <v>3437996</v>
+      </c>
+      <c r="Q105" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="R105" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="S105" s="43">
+        <v>3437980</v>
+      </c>
+      <c r="T105" s="43">
+        <f>S105+20</f>
+        <v>3438000</v>
+      </c>
+      <c r="U105" s="43">
+        <f t="shared" ref="U105" si="146">S105-H105</f>
+        <v>93</v>
+      </c>
+      <c r="V105" s="43">
+        <f t="shared" ref="V105" si="147">T105-H105</f>
+        <v>113</v>
+      </c>
+      <c r="W105" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="X105" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y105" s="43"/>
+      <c r="Z105" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B106" s="3">
         <v>4118427</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D106" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3">
         <f t="shared" si="4"/>
         <v>4118427</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3">
-        <f t="shared" si="25"/>
-        <v>4118383</v>
-      </c>
-      <c r="I105" s="3">
-        <f t="shared" si="29"/>
-        <v>4118542</v>
-      </c>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
-      <c r="U105" s="5">
-        <f t="shared" si="49"/>
-        <v>-4118383</v>
-      </c>
-      <c r="V105" s="5">
-        <f t="shared" si="50"/>
-        <v>-4118383</v>
-      </c>
-      <c r="W105" s="3"/>
-      <c r="X105" s="3"/>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
-    </row>
-    <row r="106" spans="1:26">
-      <c r="A106" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B106" s="3">
-        <v>3808516</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E106" s="3">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3">
-        <f t="shared" si="4"/>
-        <v>3808516</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3">
         <f t="shared" si="25"/>
-        <v>3808472</v>
+        <v>4118383</v>
       </c>
       <c r="I106" s="3">
         <f t="shared" si="29"/>
-        <v>3808631</v>
+        <v>4118542</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
@@ -12555,98 +12626,70 @@
       <c r="T106" s="3"/>
       <c r="U106" s="5">
         <f t="shared" si="49"/>
-        <v>-3808472</v>
+        <v>-4118383</v>
       </c>
       <c r="V106" s="5">
         <f t="shared" si="50"/>
-        <v>-3808472</v>
+        <v>-4118383</v>
       </c>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" s="2" customFormat="1">
-      <c r="A107" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D107" s="5">
+    <row r="107" spans="1:26">
+      <c r="A107" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="3">
+        <v>3808516</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" s="3">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="E107" s="5">
-        <v>0</v>
-      </c>
-      <c r="F107" s="5">
-        <f t="shared" ref="F107" si="143">B107+D107*E107</f>
-        <v>4175107</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5">
-        <v>4175063</v>
-      </c>
-      <c r="I107" s="5">
-        <f>H107+160-1</f>
-        <v>4175222</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L107" s="5">
-        <v>4175107</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N107" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="O107" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P107" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q107" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R107" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S107" s="5">
-        <v>4175143</v>
-      </c>
-      <c r="T107" s="5">
-        <f>4175175</f>
-        <v>4175175</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" si="4"/>
+        <v>3808516</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3">
+        <f t="shared" si="25"/>
+        <v>3808472</v>
+      </c>
+      <c r="I107" s="3">
+        <f t="shared" si="29"/>
+        <v>3808631</v>
+      </c>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
       <c r="U107" s="5">
         <f t="shared" si="49"/>
-        <v>80</v>
+        <v>-3808472</v>
       </c>
       <c r="V107" s="5">
         <f t="shared" si="50"/>
-        <v>112</v>
-      </c>
-      <c r="W107" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="X107" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y107" s="5"/>
-      <c r="Z107" s="5">
-        <v>1</v>
-      </c>
+        <v>-3808472</v>
+      </c>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" s="2" customFormat="1">
       <c r="A108" s="4" t="s">
@@ -12666,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F108" si="148">B108+D108*E108</f>
         <v>4175107</v>
       </c>
       <c r="G108" s="5"/>
@@ -12692,128 +12735,156 @@
       <c r="N108" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O108" s="5">
-        <f>P108-20</f>
-        <v>4175087</v>
-      </c>
-      <c r="P108" s="5">
-        <v>4175107</v>
+      <c r="O108" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P108" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="Q108" s="5" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="S108" s="5">
-        <v>4175105</v>
+        <v>4175143</v>
       </c>
       <c r="T108" s="5">
-        <f>S108+84</f>
-        <v>4175189</v>
+        <f>4175175</f>
+        <v>4175175</v>
       </c>
       <c r="U108" s="5">
-        <f t="shared" ref="U108:U125" si="144">S108-H108</f>
-        <v>42</v>
+        <f t="shared" si="49"/>
+        <v>80</v>
       </c>
       <c r="V108" s="5">
-        <f t="shared" ref="V108:V125" si="145">T108-H108</f>
-        <v>126</v>
+        <f t="shared" si="50"/>
+        <v>112</v>
       </c>
       <c r="W108" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X108" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26">
-      <c r="A109" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" s="2" customFormat="1">
+      <c r="A109" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="5">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" si="4"/>
+        <v>4175107</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5">
+        <v>4175063</v>
+      </c>
+      <c r="I109" s="5">
+        <f>H109+160-1</f>
+        <v>4175222</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L109" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O109" s="5">
+        <f>P109-20</f>
+        <v>4175087</v>
+      </c>
+      <c r="P109" s="5">
+        <v>4175107</v>
+      </c>
+      <c r="Q109" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R109" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S109" s="5">
+        <v>4175105</v>
+      </c>
+      <c r="T109" s="5">
+        <f>S109+84</f>
+        <v>4175189</v>
+      </c>
+      <c r="U109" s="5">
+        <f t="shared" ref="U109:U126" si="149">S109-H109</f>
+        <v>42</v>
+      </c>
+      <c r="V109" s="5">
+        <f t="shared" ref="V109:V126" si="150">T109-H109</f>
+        <v>126</v>
+      </c>
+      <c r="W109" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="X109" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B110" s="3">
         <v>4621716</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D110" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E109" s="3">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3">
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
         <f t="shared" si="4"/>
         <v>4621716</v>
       </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3">
-        <f>F109</f>
-        <v>4621716</v>
-      </c>
-      <c r="I109" s="3">
-        <f>H109+D109*160</f>
-        <v>4621876</v>
-      </c>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-      <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
-      <c r="U109" s="5">
-        <f t="shared" si="144"/>
-        <v>-4621716</v>
-      </c>
-      <c r="V109" s="5">
-        <f t="shared" si="145"/>
-        <v>-4621716</v>
-      </c>
-      <c r="W109" s="3"/>
-      <c r="X109" s="3"/>
-      <c r="Y109" s="3"/>
-      <c r="Z109" s="3"/>
-    </row>
-    <row r="110" spans="1:26">
-      <c r="A110" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="3">
-        <v>4370616</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" s="3">
-        <f t="shared" ref="D110:D160" si="146">IF(C110="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E110" s="3">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3">
-        <f t="shared" ref="F110:F160" si="147">B110+D110*E110</f>
-        <v>4370616</v>
-      </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3">
-        <f t="shared" ref="H110:H160" si="148">F110</f>
-        <v>4370616</v>
+        <f>F110</f>
+        <v>4621716</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" ref="I110:I160" si="149">H110+D110*160</f>
-        <v>4370776</v>
+        <f>H110+D110*160</f>
+        <v>4621876</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -12827,12 +12898,12 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="5">
-        <f t="shared" si="144"/>
-        <v>-4370616</v>
+        <f t="shared" si="149"/>
+        <v>-4621716</v>
       </c>
       <c r="V110" s="5">
-        <f t="shared" si="145"/>
-        <v>-4370616</v>
+        <f t="shared" si="150"/>
+        <v>-4621716</v>
       </c>
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
@@ -12841,33 +12912,33 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="20" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B111" s="3">
-        <v>4472553</v>
+        <v>4370616</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" ref="D111:D161" si="151">IF(C111="fwd",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="E111" s="3">
         <v>0</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="147"/>
-        <v>4472553</v>
+        <f t="shared" ref="F111:F161" si="152">B111+D111*E111</f>
+        <v>4370616</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
-        <f t="shared" si="148"/>
-        <v>4472553</v>
+        <f t="shared" ref="H111:H161" si="153">F111</f>
+        <v>4370616</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="149"/>
-        <v>4472393</v>
+        <f t="shared" ref="I111:I161" si="154">H111+D111*160</f>
+        <v>4370776</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
@@ -12881,12 +12952,12 @@
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
       <c r="U111" s="5">
-        <f t="shared" si="144"/>
-        <v>-4472553</v>
+        <f t="shared" si="149"/>
+        <v>-4370616</v>
       </c>
       <c r="V111" s="5">
-        <f t="shared" si="145"/>
-        <v>-4472553</v>
+        <f t="shared" si="150"/>
+        <v>-4370616</v>
       </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -12895,33 +12966,33 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B112" s="3">
-        <v>4178354</v>
+        <v>4472553</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D112" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
+        <f t="shared" si="151"/>
+        <v>-1</v>
       </c>
       <c r="E112" s="3">
         <v>0</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="147"/>
-        <v>4178354</v>
+        <f t="shared" si="152"/>
+        <v>4472553</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3">
-        <f t="shared" si="148"/>
-        <v>4178354</v>
+        <f t="shared" si="153"/>
+        <v>4472553</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="149"/>
-        <v>4178514</v>
+        <f t="shared" si="154"/>
+        <v>4472393</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
@@ -12935,12 +13006,12 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
       <c r="U112" s="5">
-        <f t="shared" si="144"/>
-        <v>-4178354</v>
+        <f t="shared" si="149"/>
+        <v>-4472553</v>
       </c>
       <c r="V112" s="5">
-        <f t="shared" si="145"/>
-        <v>-4178354</v>
+        <f t="shared" si="150"/>
+        <v>-4472553</v>
       </c>
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
@@ -12949,33 +13020,33 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B113" s="3">
-        <v>2042294</v>
+        <v>4178354</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D113" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E113" s="3">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="147"/>
-        <v>2042280</v>
+        <f t="shared" si="152"/>
+        <v>4178354</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3">
-        <f t="shared" si="148"/>
-        <v>2042280</v>
+        <f t="shared" si="153"/>
+        <v>4178354</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="149"/>
-        <v>2042440</v>
+        <f t="shared" si="154"/>
+        <v>4178514</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -12989,12 +13060,12 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
       <c r="U113" s="5">
-        <f t="shared" si="144"/>
-        <v>-2042280</v>
+        <f t="shared" si="149"/>
+        <v>-4178354</v>
       </c>
       <c r="V113" s="5">
-        <f t="shared" si="145"/>
-        <v>-2042280</v>
+        <f t="shared" si="150"/>
+        <v>-4178354</v>
       </c>
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
@@ -13003,33 +13074,33 @@
     </row>
     <row r="114" spans="1:26">
       <c r="A114" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114" s="3">
-        <v>3922525</v>
+        <v>2042294</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D114" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" si="151"/>
+        <v>1</v>
       </c>
       <c r="E114" s="3">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="147"/>
-        <v>3922525</v>
+        <f t="shared" si="152"/>
+        <v>2042280</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3">
-        <f t="shared" si="148"/>
-        <v>3922525</v>
+        <f t="shared" si="153"/>
+        <v>2042280</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="149"/>
-        <v>3922365</v>
+        <f t="shared" si="154"/>
+        <v>2042440</v>
       </c>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -13043,12 +13114,12 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
       <c r="U114" s="5">
-        <f t="shared" si="144"/>
-        <v>-3922525</v>
+        <f t="shared" si="149"/>
+        <v>-2042280</v>
       </c>
       <c r="V114" s="5">
-        <f t="shared" si="145"/>
-        <v>-3922525</v>
+        <f t="shared" si="150"/>
+        <v>-2042280</v>
       </c>
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
@@ -13057,33 +13128,33 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115" s="3">
-        <v>1114213</v>
+        <v>3922525</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D115" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E115" s="3">
         <v>0</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="147"/>
-        <v>1114213</v>
+        <f t="shared" si="152"/>
+        <v>3922525</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3">
-        <f t="shared" si="148"/>
-        <v>1114213</v>
+        <f t="shared" si="153"/>
+        <v>3922525</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="149"/>
-        <v>1114053</v>
+        <f t="shared" si="154"/>
+        <v>3922365</v>
       </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -13097,12 +13168,12 @@
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
       <c r="U115" s="5">
-        <f t="shared" si="144"/>
-        <v>-1114213</v>
+        <f t="shared" si="149"/>
+        <v>-3922525</v>
       </c>
       <c r="V115" s="5">
-        <f t="shared" si="145"/>
-        <v>-1114213</v>
+        <f t="shared" si="150"/>
+        <v>-3922525</v>
       </c>
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
@@ -13111,33 +13182,33 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B116" s="3">
-        <v>2644913</v>
+        <v>1114213</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D116" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E116" s="3">
         <v>0</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="147"/>
-        <v>2644913</v>
+        <f t="shared" si="152"/>
+        <v>1114213</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3">
-        <f t="shared" si="148"/>
-        <v>2644913</v>
+        <f t="shared" si="153"/>
+        <v>1114213</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="149"/>
-        <v>2644753</v>
+        <f t="shared" si="154"/>
+        <v>1114053</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -13151,12 +13222,12 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
       <c r="U116" s="5">
-        <f t="shared" si="144"/>
-        <v>-2644913</v>
+        <f t="shared" si="149"/>
+        <v>-1114213</v>
       </c>
       <c r="V116" s="5">
-        <f t="shared" si="145"/>
-        <v>-2644913</v>
+        <f t="shared" si="150"/>
+        <v>-1114213</v>
       </c>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
@@ -13165,33 +13236,33 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="20" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B117" s="3">
-        <v>148</v>
+        <v>2644913</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D117" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
+        <f t="shared" si="151"/>
+        <v>-1</v>
       </c>
       <c r="E117" s="3">
         <v>0</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="147"/>
-        <v>148</v>
+        <f t="shared" si="152"/>
+        <v>2644913</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3">
-        <f t="shared" si="148"/>
-        <v>148</v>
+        <f t="shared" si="153"/>
+        <v>2644913</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="149"/>
-        <v>308</v>
+        <f t="shared" si="154"/>
+        <v>2644753</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -13205,12 +13276,12 @@
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
       <c r="U117" s="5">
-        <f t="shared" si="144"/>
-        <v>-148</v>
+        <f t="shared" si="149"/>
+        <v>-2644913</v>
       </c>
       <c r="V117" s="5">
-        <f t="shared" si="145"/>
-        <v>-148</v>
+        <f t="shared" si="150"/>
+        <v>-2644913</v>
       </c>
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
@@ -13219,33 +13290,33 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="20" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B118" s="3">
-        <v>454993</v>
+        <v>148</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D118" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E118" s="3">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="147"/>
-        <v>454864</v>
+        <f t="shared" si="152"/>
+        <v>148</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <f t="shared" si="148"/>
-        <v>454864</v>
+        <f t="shared" si="153"/>
+        <v>148</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="149"/>
-        <v>455024</v>
+        <f t="shared" si="154"/>
+        <v>308</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -13259,12 +13330,12 @@
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="5">
-        <f t="shared" si="144"/>
-        <v>-454864</v>
+        <f t="shared" si="149"/>
+        <v>-148</v>
       </c>
       <c r="V118" s="5">
-        <f t="shared" si="145"/>
-        <v>-454864</v>
+        <f t="shared" si="150"/>
+        <v>-148</v>
       </c>
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
@@ -13273,33 +13344,33 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="20" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B119" s="3">
-        <v>189712</v>
+        <v>454993</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D119" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E119" s="3">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="147"/>
-        <v>189712</v>
+        <f t="shared" si="152"/>
+        <v>454864</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <f t="shared" si="148"/>
-        <v>189712</v>
+        <f t="shared" si="153"/>
+        <v>454864</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="149"/>
-        <v>189872</v>
+        <f t="shared" si="154"/>
+        <v>455024</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -13313,12 +13384,12 @@
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="5">
-        <f t="shared" si="144"/>
-        <v>-189712</v>
+        <f t="shared" si="149"/>
+        <v>-454864</v>
       </c>
       <c r="V119" s="5">
-        <f t="shared" si="145"/>
-        <v>-189712</v>
+        <f t="shared" si="150"/>
+        <v>-454864</v>
       </c>
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
@@ -13327,33 +13398,33 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="20" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B120" s="3">
-        <v>3948058</v>
+        <v>189712</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D120" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E120" s="3">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="147"/>
-        <v>3948030</v>
+        <f t="shared" si="152"/>
+        <v>189712</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3">
-        <f t="shared" si="148"/>
-        <v>3948030</v>
+        <f t="shared" si="153"/>
+        <v>189712</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="149"/>
-        <v>3948190</v>
+        <f t="shared" si="154"/>
+        <v>189872</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -13367,12 +13438,12 @@
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
       <c r="U120" s="5">
-        <f t="shared" si="144"/>
-        <v>-3948030</v>
+        <f t="shared" si="149"/>
+        <v>-189712</v>
       </c>
       <c r="V120" s="5">
-        <f t="shared" si="145"/>
-        <v>-3948030</v>
+        <f t="shared" si="150"/>
+        <v>-189712</v>
       </c>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
@@ -13381,33 +13452,33 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="20" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B121" s="3">
-        <v>911076</v>
+        <v>3948058</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D121" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" si="151"/>
+        <v>1</v>
       </c>
       <c r="E121" s="3">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="147"/>
-        <v>911076</v>
+        <f t="shared" si="152"/>
+        <v>3948030</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3">
-        <f t="shared" si="148"/>
-        <v>911076</v>
+        <f t="shared" si="153"/>
+        <v>3948030</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="149"/>
-        <v>910916</v>
+        <f t="shared" si="154"/>
+        <v>3948190</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -13421,12 +13492,12 @@
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
       <c r="U121" s="5">
-        <f t="shared" si="144"/>
-        <v>-911076</v>
+        <f t="shared" si="149"/>
+        <v>-3948030</v>
       </c>
       <c r="V121" s="5">
-        <f t="shared" si="145"/>
-        <v>-911076</v>
+        <f t="shared" si="150"/>
+        <v>-3948030</v>
       </c>
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
@@ -13435,33 +13506,33 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="20" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B122" s="3">
-        <v>1655186</v>
+        <v>911076</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E122" s="3">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="147"/>
-        <v>1655231</v>
+        <f t="shared" si="152"/>
+        <v>911076</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3">
-        <f t="shared" si="148"/>
-        <v>1655231</v>
+        <f t="shared" si="153"/>
+        <v>911076</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="149"/>
-        <v>1655071</v>
+        <f t="shared" si="154"/>
+        <v>910916</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -13475,12 +13546,12 @@
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="5">
-        <f t="shared" si="144"/>
-        <v>-1655231</v>
+        <f t="shared" si="149"/>
+        <v>-911076</v>
       </c>
       <c r="V122" s="5">
-        <f t="shared" si="145"/>
-        <v>-1655231</v>
+        <f t="shared" si="150"/>
+        <v>-911076</v>
       </c>
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
@@ -13489,33 +13560,33 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="20" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B123" s="3">
-        <v>4390638</v>
+        <v>1655186</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D123" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E123" s="3">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="147"/>
-        <v>4390638</v>
+        <f t="shared" si="152"/>
+        <v>1655231</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3">
-        <f t="shared" si="148"/>
-        <v>4390638</v>
+        <f t="shared" si="153"/>
+        <v>1655231</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="149"/>
-        <v>4390478</v>
+        <f t="shared" si="154"/>
+        <v>1655071</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -13529,12 +13600,12 @@
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
       <c r="U123" s="5">
-        <f t="shared" si="144"/>
-        <v>-4390638</v>
+        <f t="shared" si="149"/>
+        <v>-1655231</v>
       </c>
       <c r="V123" s="5">
-        <f t="shared" si="145"/>
-        <v>-4390638</v>
+        <f t="shared" si="150"/>
+        <v>-1655231</v>
       </c>
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
@@ -13543,33 +13614,33 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="20" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B124" s="3">
-        <v>4640508</v>
+        <v>4390638</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D124" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E124" s="3">
         <v>0</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="147"/>
-        <v>4640508</v>
+        <f t="shared" si="152"/>
+        <v>4390638</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3">
-        <f t="shared" si="148"/>
-        <v>4640508</v>
+        <f t="shared" si="153"/>
+        <v>4390638</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="149"/>
-        <v>4640348</v>
+        <f t="shared" si="154"/>
+        <v>4390478</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -13583,12 +13654,12 @@
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
       <c r="U124" s="5">
-        <f t="shared" si="144"/>
-        <v>-4640508</v>
+        <f t="shared" si="149"/>
+        <v>-4390638</v>
       </c>
       <c r="V124" s="5">
-        <f t="shared" si="145"/>
-        <v>-4640508</v>
+        <f t="shared" si="150"/>
+        <v>-4390638</v>
       </c>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
@@ -13597,33 +13668,33 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="20" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B125" s="3">
-        <v>1972716</v>
+        <v>4640508</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D125" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E125" s="3">
         <v>0</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="147"/>
-        <v>1972716</v>
+        <f t="shared" si="152"/>
+        <v>4640508</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3">
-        <f t="shared" si="148"/>
-        <v>1972716</v>
+        <f t="shared" si="153"/>
+        <v>4640508</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="149"/>
-        <v>1972556</v>
+        <f t="shared" si="154"/>
+        <v>4640348</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -13637,98 +13708,71 @@
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
       <c r="U125" s="5">
-        <f t="shared" si="144"/>
-        <v>-1972716</v>
+        <f t="shared" si="149"/>
+        <v>-4640508</v>
       </c>
       <c r="V125" s="5">
-        <f t="shared" si="145"/>
-        <v>-1972716</v>
+        <f t="shared" si="150"/>
+        <v>-4640508</v>
       </c>
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" s="2" customFormat="1" ht="17">
-      <c r="A126" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B126" s="5">
-        <v>652172</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D126" s="5">
-        <f t="shared" si="146"/>
-        <v>1</v>
-      </c>
-      <c r="E126" s="5">
-        <v>0</v>
-      </c>
-      <c r="F126" s="5">
-        <f t="shared" ref="F126" si="150">B126+D126*E126</f>
-        <v>652172</v>
-      </c>
-      <c r="G126" s="5"/>
-      <c r="H126" s="21">
-        <v>652058</v>
-      </c>
-      <c r="I126" s="5">
-        <f>H126+D126*160-1</f>
-        <v>652217</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="K126" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="L126" s="5">
-        <v>652172</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N126" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O126" s="5">
-        <v>652193</v>
-      </c>
-      <c r="P126" s="5">
-        <v>652199</v>
-      </c>
-      <c r="Q126" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="R126" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S126" s="21">
-        <f>130+H126</f>
-        <v>652188</v>
-      </c>
-      <c r="T126" s="21">
-        <f>S126+30</f>
-        <v>652218</v>
-      </c>
+    <row r="126" spans="1:26">
+      <c r="A126" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1972716</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" s="3">
+        <f t="shared" si="151"/>
+        <v>-1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="152"/>
+        <v>1972716</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3">
+        <f t="shared" si="153"/>
+        <v>1972716</v>
+      </c>
+      <c r="I126" s="3">
+        <f t="shared" si="154"/>
+        <v>1972556</v>
+      </c>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
       <c r="U126" s="5">
-        <v>130</v>
+        <f t="shared" si="149"/>
+        <v>-1972716</v>
       </c>
       <c r="V126" s="5">
-        <v>160</v>
-      </c>
-      <c r="W126" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="X126" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y126" s="5"/>
-      <c r="Z126" s="5">
-        <v>0</v>
-      </c>
+        <f t="shared" si="150"/>
+        <v>-1972716</v>
+      </c>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" s="2" customFormat="1" ht="17">
       <c r="A127" s="4" t="s">
@@ -13741,14 +13785,14 @@
         <v>108</v>
       </c>
       <c r="D127" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" ref="F127" si="155">B127+D127*E127</f>
         <v>652172</v>
       </c>
       <c r="G127" s="5"/>
@@ -13775,119 +13819,152 @@
         <v>165</v>
       </c>
       <c r="O127" s="5">
-        <v>652118</v>
+        <v>652193</v>
       </c>
       <c r="P127" s="5">
-        <v>652140</v>
+        <v>652199</v>
       </c>
       <c r="Q127" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R127" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="S127" s="21">
-        <f>60+H127</f>
-        <v>652118</v>
+        <f>130+H127</f>
+        <v>652188</v>
       </c>
       <c r="T127" s="21">
-        <f>S127+25</f>
-        <v>652143</v>
+        <f>S127+30</f>
+        <v>652218</v>
       </c>
       <c r="U127" s="5">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="V127" s="5">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="W127" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X127" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Y127" s="5"/>
       <c r="Z127" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
-      <c r="A128" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B128" s="3">
-        <v>70075</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D128" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
-      </c>
-      <c r="E128" s="3">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3">
-        <f t="shared" si="147"/>
-        <v>70075</v>
-      </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3">
-        <f t="shared" si="148"/>
-        <v>70075</v>
-      </c>
-      <c r="I128" s="3">
-        <f t="shared" si="149"/>
-        <v>69915</v>
-      </c>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
-      <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
-      <c r="S128" s="3"/>
-      <c r="T128" s="3"/>
-      <c r="U128" s="3"/>
-      <c r="V128" s="3"/>
-      <c r="W128" s="3"/>
-      <c r="X128" s="3"/>
-      <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
+    <row r="128" spans="1:26" s="2" customFormat="1" ht="17">
+      <c r="A128" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" s="5">
+        <v>652172</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128" s="5">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0</v>
+      </c>
+      <c r="F128" s="5">
+        <f t="shared" si="152"/>
+        <v>652172</v>
+      </c>
+      <c r="G128" s="5"/>
+      <c r="H128" s="21">
+        <v>652058</v>
+      </c>
+      <c r="I128" s="5">
+        <f>H128+D128*160-1</f>
+        <v>652217</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L128" s="5">
+        <v>652172</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O128" s="5">
+        <v>652118</v>
+      </c>
+      <c r="P128" s="5">
+        <v>652140</v>
+      </c>
+      <c r="Q128" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R128" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S128" s="21">
+        <f>60+H128</f>
+        <v>652118</v>
+      </c>
+      <c r="T128" s="21">
+        <f>S128+25</f>
+        <v>652143</v>
+      </c>
+      <c r="U128" s="5">
+        <v>60</v>
+      </c>
+      <c r="V128" s="5">
+        <v>85</v>
+      </c>
+      <c r="W128" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="X128" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="20" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B129" s="3">
-        <v>70241</v>
+        <v>70075</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D129" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
+        <f t="shared" si="151"/>
+        <v>-1</v>
       </c>
       <c r="E129" s="3">
         <v>0</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="147"/>
-        <v>70241</v>
+        <f t="shared" si="152"/>
+        <v>70075</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3">
-        <f t="shared" si="148"/>
-        <v>70241</v>
+        <f t="shared" si="153"/>
+        <v>70075</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="149"/>
-        <v>70401</v>
+        <f t="shared" si="154"/>
+        <v>69915</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -13909,33 +13986,33 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="20" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B130" s="3">
-        <v>3731069</v>
+        <v>70241</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D130" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E130" s="3">
         <v>0</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="147"/>
-        <v>3731069</v>
+        <f t="shared" si="152"/>
+        <v>70241</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3">
-        <f t="shared" si="148"/>
-        <v>3731069</v>
+        <f t="shared" si="153"/>
+        <v>70241</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="149"/>
-        <v>3731229</v>
+        <f t="shared" si="154"/>
+        <v>70401</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -13957,33 +14034,33 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B131" s="3">
-        <v>3730807</v>
+        <v>3731069</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D131" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" si="151"/>
+        <v>1</v>
       </c>
       <c r="E131" s="3">
         <v>0</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="147"/>
-        <v>3730807</v>
+        <f t="shared" si="152"/>
+        <v>3731069</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3">
-        <f t="shared" si="148"/>
-        <v>3730807</v>
+        <f t="shared" si="153"/>
+        <v>3731069</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="149"/>
-        <v>3730647</v>
+        <f t="shared" si="154"/>
+        <v>3731229</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -14005,33 +14082,33 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="20" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B132" s="3">
-        <v>1647934</v>
+        <v>3730807</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
+        <f t="shared" si="151"/>
+        <v>-1</v>
       </c>
       <c r="E132" s="3">
         <v>0</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="147"/>
-        <v>1647934</v>
+        <f t="shared" si="152"/>
+        <v>3730807</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3">
-        <f t="shared" si="148"/>
-        <v>1647934</v>
+        <f t="shared" si="153"/>
+        <v>3730807</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="149"/>
-        <v>1648094</v>
+        <f t="shared" si="154"/>
+        <v>3730647</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -14053,33 +14130,33 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="20" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="B133" s="3">
-        <v>1647876</v>
+        <v>1647934</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" si="151"/>
+        <v>1</v>
       </c>
       <c r="E133" s="3">
         <v>0</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="147"/>
-        <v>1647876</v>
+        <f t="shared" si="152"/>
+        <v>1647934</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3">
-        <f t="shared" si="148"/>
-        <v>1647876</v>
+        <f t="shared" si="153"/>
+        <v>1647934</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="149"/>
-        <v>1647716</v>
+        <f t="shared" si="154"/>
+        <v>1648094</v>
       </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -14101,33 +14178,33 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" s="20" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="B134" s="3">
-        <v>1649597</v>
+        <v>1647876</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D134" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
+        <f t="shared" si="151"/>
+        <v>-1</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="147"/>
-        <v>1649597</v>
+        <f t="shared" si="152"/>
+        <v>1647876</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3">
-        <f t="shared" si="148"/>
-        <v>1649597</v>
+        <f t="shared" si="153"/>
+        <v>1647876</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="149"/>
-        <v>1649757</v>
+        <f t="shared" si="154"/>
+        <v>1647716</v>
       </c>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -14149,33 +14226,33 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" s="20" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B135" s="3">
-        <v>3536707</v>
+        <v>1649597</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D135" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" si="151"/>
+        <v>1</v>
       </c>
       <c r="E135" s="3">
         <v>0</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="147"/>
-        <v>3536707</v>
+        <f t="shared" si="152"/>
+        <v>1649597</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3">
-        <f t="shared" si="148"/>
-        <v>3536707</v>
+        <f t="shared" si="153"/>
+        <v>1649597</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="149"/>
-        <v>3536547</v>
+        <f t="shared" si="154"/>
+        <v>1649757</v>
       </c>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -14197,33 +14274,33 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" s="20" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B136" s="3">
-        <v>2524910</v>
+        <v>3536707</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D136" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E136" s="3">
         <v>0</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="147"/>
-        <v>2524910</v>
+        <f t="shared" si="152"/>
+        <v>3536707</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3">
-        <f t="shared" si="148"/>
-        <v>2524910</v>
+        <f t="shared" si="153"/>
+        <v>3536707</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="149"/>
-        <v>2524750</v>
+        <f t="shared" si="154"/>
+        <v>3536547</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -14245,33 +14322,33 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" s="20" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B137" s="3">
-        <v>3957912</v>
+        <v>2524910</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D137" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
+        <f t="shared" si="151"/>
+        <v>-1</v>
       </c>
       <c r="E137" s="3">
         <v>0</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" si="147"/>
-        <v>3957912</v>
+        <f t="shared" si="152"/>
+        <v>2524910</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3">
-        <f t="shared" si="148"/>
-        <v>3957912</v>
+        <f t="shared" si="153"/>
+        <v>2524910</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="149"/>
-        <v>3958072</v>
+        <f t="shared" si="154"/>
+        <v>2524750</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -14293,33 +14370,33 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B138" s="3">
-        <v>3927129</v>
+        <v>3957912</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D138" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E138" s="3">
         <v>0</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="147"/>
-        <v>3927129</v>
+        <f t="shared" si="152"/>
+        <v>3957912</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3">
-        <f t="shared" si="148"/>
-        <v>3927129</v>
+        <f t="shared" si="153"/>
+        <v>3957912</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="149"/>
-        <v>3927289</v>
+        <f t="shared" si="154"/>
+        <v>3958072</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
@@ -14341,33 +14418,33 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="20" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B139" s="3">
-        <v>4494597</v>
+        <v>3927129</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D139" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E139" s="3">
         <v>0</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="147"/>
-        <v>4494597</v>
+        <f t="shared" si="152"/>
+        <v>3927129</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3">
-        <f t="shared" si="148"/>
-        <v>4494597</v>
+        <f t="shared" si="153"/>
+        <v>3927129</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="149"/>
-        <v>4494757</v>
+        <f t="shared" si="154"/>
+        <v>3927289</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -14389,33 +14466,33 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B140" s="3">
-        <v>246533</v>
+        <v>4494597</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D140" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" si="151"/>
+        <v>1</v>
       </c>
       <c r="E140" s="3">
         <v>0</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="147"/>
-        <v>246533</v>
+        <f t="shared" si="152"/>
+        <v>4494597</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3">
-        <f t="shared" si="148"/>
-        <v>246533</v>
+        <f t="shared" si="153"/>
+        <v>4494597</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="149"/>
-        <v>246373</v>
+        <f t="shared" si="154"/>
+        <v>4494757</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -14437,33 +14514,33 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="20" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B141" s="3">
-        <v>4591367</v>
+        <v>246533</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D141" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E141" s="3">
         <v>0</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="147"/>
-        <v>4591367</v>
+        <f t="shared" si="152"/>
+        <v>246533</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3">
-        <f t="shared" si="148"/>
-        <v>4591367</v>
+        <f t="shared" si="153"/>
+        <v>246533</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="149"/>
-        <v>4591207</v>
+        <f t="shared" si="154"/>
+        <v>246373</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
@@ -14485,33 +14562,33 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B142" s="3">
-        <v>1977302</v>
+        <v>4591367</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D142" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E142" s="3">
         <v>0</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" si="147"/>
-        <v>1977302</v>
+        <f t="shared" si="152"/>
+        <v>4591367</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3">
-        <f t="shared" si="148"/>
-        <v>1977302</v>
+        <f t="shared" si="153"/>
+        <v>4591367</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="149"/>
-        <v>1977142</v>
+        <f t="shared" si="154"/>
+        <v>4591207</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -14533,33 +14610,33 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="20" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B143" s="3">
-        <v>933138</v>
+        <v>1977302</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D143" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
+        <f t="shared" si="151"/>
+        <v>-1</v>
       </c>
       <c r="E143" s="3">
         <v>0</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" si="147"/>
-        <v>933138</v>
+        <f t="shared" si="152"/>
+        <v>1977302</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3">
-        <f t="shared" si="148"/>
-        <v>933138</v>
+        <f t="shared" si="153"/>
+        <v>1977302</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="149"/>
-        <v>933298</v>
+        <f t="shared" si="154"/>
+        <v>1977142</v>
       </c>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
@@ -14581,33 +14658,33 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="20" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B144" s="3">
-        <v>87969</v>
+        <v>933138</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D144" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E144" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" si="147"/>
-        <v>87991</v>
+        <f t="shared" si="152"/>
+        <v>933138</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3">
-        <f t="shared" si="148"/>
-        <v>87991</v>
+        <f t="shared" si="153"/>
+        <v>933138</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="149"/>
-        <v>88151</v>
+        <f t="shared" si="154"/>
+        <v>933298</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -14629,33 +14706,33 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="20" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B145" s="3">
-        <v>3997907</v>
+        <v>87969</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D145" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E145" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="147"/>
-        <v>3997907</v>
+        <f t="shared" si="152"/>
+        <v>87991</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3">
-        <f t="shared" si="148"/>
-        <v>3997907</v>
+        <f t="shared" si="153"/>
+        <v>87991</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="149"/>
-        <v>3998067</v>
+        <f t="shared" si="154"/>
+        <v>88151</v>
       </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -14677,33 +14754,33 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="20" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B146" s="3">
-        <v>4338042</v>
+        <v>3997907</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D146" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" si="151"/>
+        <v>1</v>
       </c>
       <c r="E146" s="3">
         <v>0</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="147"/>
-        <v>4338042</v>
+        <f t="shared" si="152"/>
+        <v>3997907</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3">
-        <f t="shared" si="148"/>
-        <v>4338042</v>
+        <f t="shared" si="153"/>
+        <v>3997907</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="149"/>
-        <v>4337882</v>
+        <f t="shared" si="154"/>
+        <v>3998067</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -14725,33 +14802,33 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="20" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B147" s="3">
-        <v>1942634</v>
+        <v>4338042</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D147" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
+        <f t="shared" si="151"/>
+        <v>-1</v>
       </c>
       <c r="E147" s="3">
         <v>0</v>
       </c>
       <c r="F147" s="3">
-        <f t="shared" si="147"/>
-        <v>1942634</v>
+        <f t="shared" si="152"/>
+        <v>4338042</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3">
-        <f t="shared" si="148"/>
-        <v>1942634</v>
+        <f t="shared" si="153"/>
+        <v>4338042</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="149"/>
-        <v>1942794</v>
+        <f t="shared" si="154"/>
+        <v>4337882</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -14773,33 +14850,33 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B148" s="3">
-        <v>1942661</v>
+        <v>1942634</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D148" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" si="151"/>
+        <v>1</v>
       </c>
       <c r="E148" s="3">
         <v>0</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="147"/>
-        <v>1942661</v>
+        <f t="shared" si="152"/>
+        <v>1942634</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3">
-        <f t="shared" si="148"/>
-        <v>1942661</v>
+        <f t="shared" si="153"/>
+        <v>1942634</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="149"/>
-        <v>1942501</v>
+        <f t="shared" si="154"/>
+        <v>1942794</v>
       </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -14821,33 +14898,33 @@
     </row>
     <row r="149" spans="1:26">
       <c r="A149" s="20" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B149" s="3">
-        <v>3182433</v>
+        <v>1942661</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D149" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
+        <f t="shared" si="151"/>
+        <v>-1</v>
       </c>
       <c r="E149" s="3">
         <v>0</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="147"/>
-        <v>3182433</v>
+        <f t="shared" si="152"/>
+        <v>1942661</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3">
-        <f t="shared" si="148"/>
-        <v>3182433</v>
+        <f t="shared" si="153"/>
+        <v>1942661</v>
       </c>
       <c r="I149" s="3">
-        <f t="shared" si="149"/>
-        <v>3182593</v>
+        <f t="shared" si="154"/>
+        <v>1942501</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
@@ -14869,33 +14946,33 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" s="20" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B150" s="3">
-        <v>3637612</v>
+        <v>3182433</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D150" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
       </c>
       <c r="F150" s="3">
-        <f t="shared" si="147"/>
-        <v>3637612</v>
+        <f t="shared" si="152"/>
+        <v>3182433</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3">
-        <f t="shared" si="148"/>
-        <v>3637612</v>
+        <f t="shared" si="153"/>
+        <v>3182433</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="149"/>
-        <v>3637772</v>
+        <f t="shared" si="154"/>
+        <v>3182593</v>
       </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -14917,33 +14994,33 @@
     </row>
     <row r="151" spans="1:26">
       <c r="A151" s="20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B151" s="3">
-        <v>4376509</v>
+        <v>3637612</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D151" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="E151" s="3">
         <v>0</v>
       </c>
       <c r="F151" s="3">
-        <f t="shared" si="147"/>
-        <v>4376509</v>
+        <f t="shared" si="152"/>
+        <v>3637612</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3">
-        <f t="shared" si="148"/>
-        <v>4376509</v>
+        <f t="shared" si="153"/>
+        <v>3637612</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="149"/>
-        <v>4376669</v>
+        <f t="shared" si="154"/>
+        <v>3637772</v>
       </c>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
@@ -14965,33 +15042,33 @@
     </row>
     <row r="152" spans="1:26">
       <c r="A152" s="20" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B152" s="3">
-        <v>83735</v>
+        <v>4376509</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D152" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" si="151"/>
+        <v>1</v>
       </c>
       <c r="E152" s="3">
         <v>0</v>
       </c>
       <c r="F152" s="3">
-        <f t="shared" si="147"/>
-        <v>83735</v>
+        <f t="shared" si="152"/>
+        <v>4376509</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3">
-        <f t="shared" si="148"/>
-        <v>83735</v>
+        <f t="shared" si="153"/>
+        <v>4376509</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="149"/>
-        <v>83575</v>
+        <f t="shared" si="154"/>
+        <v>4376669</v>
       </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
@@ -15013,31 +15090,33 @@
     </row>
     <row r="153" spans="1:26">
       <c r="A153" s="20" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B153" s="3">
-        <v>1645903</v>
+        <v>83735</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D153" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
-      <c r="E153" s="3"/>
+      <c r="E153" s="3">
+        <v>0</v>
+      </c>
       <c r="F153" s="3">
-        <f t="shared" si="147"/>
-        <v>1645903</v>
+        <f t="shared" si="152"/>
+        <v>83735</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3">
-        <f t="shared" si="148"/>
-        <v>1645903</v>
+        <f t="shared" si="153"/>
+        <v>83735</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="149"/>
-        <v>1645743</v>
+        <f t="shared" si="154"/>
+        <v>83575</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
@@ -15059,33 +15138,31 @@
     </row>
     <row r="154" spans="1:26">
       <c r="A154" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B154" s="3">
-        <v>1619093</v>
+        <v>1645903</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D154" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
-      </c>
-      <c r="E154" s="3">
-        <v>-10</v>
-      </c>
+        <f t="shared" si="151"/>
+        <v>-1</v>
+      </c>
+      <c r="E154" s="3"/>
       <c r="F154" s="3">
-        <f t="shared" si="147"/>
-        <v>1619083</v>
+        <f t="shared" si="152"/>
+        <v>1645903</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3">
-        <f t="shared" si="148"/>
-        <v>1619083</v>
+        <f t="shared" si="153"/>
+        <v>1645903</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="149"/>
-        <v>1619243</v>
+        <f t="shared" si="154"/>
+        <v>1645743</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -15107,33 +15184,33 @@
     </row>
     <row r="155" spans="1:26">
       <c r="A155" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B155" s="3">
-        <v>4326836</v>
+        <v>1619093</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D155" s="3">
-        <f t="shared" si="146"/>
-        <v>-1</v>
+        <f t="shared" si="151"/>
+        <v>1</v>
       </c>
       <c r="E155" s="3">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="147"/>
-        <v>4326836</v>
+        <f t="shared" si="152"/>
+        <v>1619083</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3">
-        <f t="shared" si="148"/>
-        <v>4326836</v>
+        <f t="shared" si="153"/>
+        <v>1619083</v>
       </c>
       <c r="I155" s="3">
-        <f t="shared" si="149"/>
-        <v>4326676</v>
+        <f t="shared" si="154"/>
+        <v>1619243</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
@@ -15155,33 +15232,33 @@
     </row>
     <row r="156" spans="1:26">
       <c r="A156" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B156" s="3">
-        <v>2032352</v>
+        <v>4326836</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D156" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="147"/>
-        <v>2032352</v>
+        <f t="shared" si="152"/>
+        <v>4326836</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3">
-        <f t="shared" si="148"/>
-        <v>2032352</v>
+        <f t="shared" si="153"/>
+        <v>4326836</v>
       </c>
       <c r="I156" s="3">
-        <f t="shared" si="149"/>
-        <v>2032192</v>
+        <f t="shared" si="154"/>
+        <v>4326676</v>
       </c>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -15203,33 +15280,33 @@
     </row>
     <row r="157" spans="1:26">
       <c r="A157" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157" s="3">
-        <v>2949066</v>
+        <v>2032352</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D157" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
       </c>
       <c r="F157" s="3">
-        <f t="shared" si="147"/>
-        <v>2949066</v>
+        <f t="shared" si="152"/>
+        <v>2032352</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3">
-        <f t="shared" si="148"/>
-        <v>2949066</v>
+        <f t="shared" si="153"/>
+        <v>2032352</v>
       </c>
       <c r="I157" s="3">
-        <f t="shared" si="149"/>
-        <v>2948906</v>
+        <f t="shared" si="154"/>
+        <v>2032192</v>
       </c>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -15251,33 +15328,33 @@
     </row>
     <row r="158" spans="1:26">
       <c r="A158" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B158" s="3">
-        <v>3811175</v>
+        <v>2949066</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D158" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
       </c>
       <c r="F158" s="3">
-        <f t="shared" si="147"/>
-        <v>3811175</v>
+        <f t="shared" si="152"/>
+        <v>2949066</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3">
-        <f t="shared" si="148"/>
-        <v>3811175</v>
+        <f t="shared" si="153"/>
+        <v>2949066</v>
       </c>
       <c r="I158" s="3">
-        <f t="shared" si="149"/>
-        <v>3811015</v>
+        <f t="shared" si="154"/>
+        <v>2948906</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -15299,33 +15376,33 @@
     </row>
     <row r="159" spans="1:26">
       <c r="A159" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B159" s="3">
-        <v>919103</v>
+        <v>3811175</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D159" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>-1</v>
       </c>
       <c r="E159" s="3">
         <v>0</v>
       </c>
       <c r="F159" s="3">
-        <f t="shared" si="147"/>
-        <v>919103</v>
+        <f t="shared" si="152"/>
+        <v>3811175</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3">
-        <f t="shared" si="148"/>
-        <v>919103</v>
+        <f t="shared" si="153"/>
+        <v>3811175</v>
       </c>
       <c r="I159" s="3">
-        <f t="shared" si="149"/>
-        <v>918943</v>
+        <f t="shared" si="154"/>
+        <v>3811015</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -15347,33 +15424,33 @@
     </row>
     <row r="160" spans="1:26">
       <c r="A160" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B160" s="3">
-        <v>830783</v>
+        <v>919103</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D160" s="3">
-        <f t="shared" si="146"/>
-        <v>1</v>
+        <f t="shared" si="151"/>
+        <v>-1</v>
       </c>
       <c r="E160" s="3">
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <f t="shared" si="147"/>
-        <v>830783</v>
+        <f t="shared" si="152"/>
+        <v>919103</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3">
-        <f t="shared" si="148"/>
-        <v>830783</v>
+        <f t="shared" si="153"/>
+        <v>919103</v>
       </c>
       <c r="I160" s="3">
-        <f t="shared" si="149"/>
-        <v>830943</v>
+        <f t="shared" si="154"/>
+        <v>918943</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
@@ -15393,21 +15470,69 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166">
-        <f>COUNTA(_xlfn.UNIQUE(A2:A160))</f>
+    <row r="161" spans="1:26">
+      <c r="A161" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B161" s="3">
+        <v>830783</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D161" s="3">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0</v>
+      </c>
+      <c r="F161" s="3">
+        <f t="shared" si="152"/>
+        <v>830783</v>
+      </c>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3">
+        <f t="shared" si="153"/>
+        <v>830783</v>
+      </c>
+      <c r="I161" s="3">
+        <f t="shared" si="154"/>
+        <v>830943</v>
+      </c>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+      <c r="Z161" s="3"/>
+    </row>
+    <row r="167" spans="1:26">
+      <c r="A167">
+        <f>COUNTA(_xlfn.UNIQUE(A2:A161))</f>
         <v>111</v>
       </c>
-      <c r="B166">
-        <f>COUNTA(_xlfn.UNIQUE(J1:J160))</f>
-        <v>60</v>
+      <c r="B167">
+        <f>COUNTA(_xlfn.UNIQUE(J1:J161))</f>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I108 P29 H49" formula="1"/>
+    <ignoredError sqref="I109 P29 H49" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/binding_sites.xlsx
+++ b/data/binding_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180FA212-198C-4F43-A198-12330843EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9B48A-2801-124D-9525-E0CDB994CAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12360" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="536">
   <si>
     <t>Operon</t>
   </si>
@@ -1622,13 +1622,37 @@
   </si>
   <si>
     <t>GGTGTCCACGACGTATTTGTGGTATAAAGCGCGCC</t>
+  </si>
+  <si>
+    <t>3,948,086 -&gt; 3,948,424</t>
+  </si>
+  <si>
+    <t>AGTTTTTAACAATTCCGTATCCACAGTGCTCTCCGCAAAATTATTTGTCGTTATGATTTAAATGTTTTGTTTTACACTCTGTCAAGCGTAACTAATACTCCGCGCCATAACTAGCTCGGTCAAAGAATTAGGAGCGTGCAGGATGGCGGAAAGCTTTACG</t>
+  </si>
+  <si>
+    <t>AAAATTATTTGTCGTTATGATTTAAATGTTTTGTTTTACACTCTGTCAAGCGTA</t>
+  </si>
+  <si>
+    <t>TCTCGCATAATCGCCTTATGCCCGATGATATTCCTTTCATCGGGCTATTTAACCGTTAGTGCCTCCTTTCTCTCCCATCCCTTCCCCCTCCGTCAGATGAACTAAACTTGTTACCGTTATCACATTCAGGAGATGGAGAACCATGAAACAAACGGTTGCA</t>
+  </si>
+  <si>
+    <t>ttagtgcctcctttctctcccatcccttccccctccgtcagatgaactaaacttgttaccGttatcacattcaggagatgg</t>
+  </si>
+  <si>
+    <t>909,331 &lt;- 911,049</t>
+  </si>
+  <si>
+    <t>ATCCCTTCCCCCTCCGTCAGATGAACTAAACTTGTTACCG</t>
+  </si>
+  <si>
+    <t>TATTTAACCGTTAGTGCCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1655,6 +1679,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1710,14 +1740,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1733,13 +1765,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1760,6 +1788,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3838,11 +3887,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
-  <dimension ref="A1:X170"/>
+  <dimension ref="A1:X171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="132" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P121" sqref="P121"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="132" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P130" sqref="P130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3946,7 +3995,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -4024,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -4102,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -4180,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -4259,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -4338,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
@@ -4417,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>55</v>
       </c>
@@ -4495,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>55</v>
       </c>
@@ -4573,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -4652,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
@@ -4732,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
@@ -4809,7 +4858,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>74</v>
       </c>
@@ -4889,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
@@ -4967,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
@@ -5045,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>146</v>
       </c>
@@ -5124,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>146</v>
       </c>
@@ -5203,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
@@ -5282,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>221</v>
       </c>
@@ -5361,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>221</v>
       </c>
@@ -5438,7 +5487,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -5516,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
@@ -5594,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>98</v>
       </c>
@@ -5673,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>98</v>
       </c>
@@ -5752,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>78</v>
       </c>
@@ -5832,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>78</v>
       </c>
@@ -5912,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -5992,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>39</v>
       </c>
@@ -6073,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
@@ -6154,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>39</v>
       </c>
@@ -6234,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>102</v>
       </c>
@@ -6313,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>22</v>
       </c>
@@ -6393,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
@@ -6472,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
@@ -6552,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>79</v>
       </c>
@@ -6633,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>79</v>
       </c>
@@ -6713,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>67</v>
       </c>
@@ -6793,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>67</v>
       </c>
@@ -6873,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>47</v>
       </c>
@@ -6952,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>47</v>
       </c>
@@ -7031,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>12</v>
       </c>
@@ -7112,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
@@ -7192,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>6</v>
       </c>
@@ -7271,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>6</v>
       </c>
@@ -7350,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>48</v>
       </c>
@@ -7428,7 +7477,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
@@ -7509,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>57</v>
       </c>
@@ -7590,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>57</v>
       </c>
@@ -7671,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>76</v>
       </c>
@@ -7752,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>76</v>
       </c>
@@ -7833,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>76</v>
       </c>
@@ -7914,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>89</v>
       </c>
@@ -7994,7 +8043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>89</v>
       </c>
@@ -8074,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>90</v>
       </c>
@@ -8151,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>17</v>
       </c>
@@ -8232,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>68</v>
       </c>
@@ -8311,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>65</v>
       </c>
@@ -8390,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>65</v>
       </c>
@@ -8467,7 +8516,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>13</v>
       </c>
@@ -8548,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>21</v>
       </c>
@@ -8629,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>21</v>
       </c>
@@ -8710,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>16</v>
       </c>
@@ -8791,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>66</v>
       </c>
@@ -8872,7 +8921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>100</v>
       </c>
@@ -8953,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>71</v>
       </c>
@@ -9033,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>71</v>
       </c>
@@ -9113,7 +9162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>71</v>
       </c>
@@ -9193,7 +9242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>27</v>
       </c>
@@ -9274,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>87</v>
       </c>
@@ -9354,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>87</v>
       </c>
@@ -9434,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>87</v>
       </c>
@@ -9514,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>31</v>
       </c>
@@ -9595,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>31</v>
       </c>
@@ -9675,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>70</v>
       </c>
@@ -9753,7 +9802,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>88</v>
       </c>
@@ -9834,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>23</v>
       </c>
@@ -9912,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>23</v>
       </c>
@@ -9990,7 +10039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>32</v>
       </c>
@@ -10070,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>32</v>
       </c>
@@ -10151,7 +10200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>32</v>
       </c>
@@ -10232,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>97</v>
       </c>
@@ -10263,7 +10312,7 @@
       <c r="I81" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="J81" s="12" t="s">
+      <c r="J81" s="20" t="s">
         <v>406</v>
       </c>
       <c r="K81" s="9">
@@ -10309,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>97</v>
       </c>
@@ -10340,7 +10389,7 @@
       <c r="I82" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="20" t="s">
         <v>406</v>
       </c>
       <c r="K82" s="9">
@@ -10387,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>63</v>
       </c>
@@ -10419,14 +10468,14 @@
       <c r="I83" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="J83" s="12" t="s">
+      <c r="J83" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K83" s="12">
         <v>3069871</v>
       </c>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13" t="s">
+      <c r="L83" s="12"/>
+      <c r="M83" s="12" t="s">
         <v>410</v>
       </c>
       <c r="N83" s="9">
@@ -10466,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>63</v>
       </c>
@@ -10498,14 +10547,14 @@
       <c r="I84" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="J84" s="12" t="s">
+      <c r="J84" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K84" s="12">
         <v>3069871</v>
       </c>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13" t="s">
+      <c r="L84" s="12"/>
+      <c r="M84" s="12" t="s">
         <v>410</v>
       </c>
       <c r="N84" s="9" t="s">
@@ -10545,7 +10594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>63</v>
       </c>
@@ -10577,14 +10626,14 @@
       <c r="I85" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="J85" s="12" t="s">
+      <c r="J85" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K85" s="12">
         <v>3069871</v>
       </c>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13" t="s">
+      <c r="L85" s="12"/>
+      <c r="M85" s="12" t="s">
         <v>410</v>
       </c>
       <c r="N85" s="9" t="s">
@@ -10624,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>34</v>
       </c>
@@ -10656,14 +10705,14 @@
       <c r="I86" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="J86" s="12" t="s">
+      <c r="J86" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K86" s="12">
         <v>1395973</v>
       </c>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13" t="s">
+      <c r="L86" s="12"/>
+      <c r="M86" s="12" t="s">
         <v>418</v>
       </c>
       <c r="N86" s="9">
@@ -10703,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>34</v>
       </c>
@@ -10735,14 +10784,14 @@
       <c r="I87" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K87" s="12">
         <v>1395973</v>
       </c>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13" t="s">
+      <c r="L87" s="12"/>
+      <c r="M87" s="12" t="s">
         <v>418</v>
       </c>
       <c r="N87" s="9" t="s">
@@ -10782,7 +10831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>26</v>
       </c>
@@ -10814,7 +10863,7 @@
       <c r="I88" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="J88" s="12" t="s">
+      <c r="J88" s="20" t="s">
         <v>424</v>
       </c>
       <c r="K88" s="9" t="s">
@@ -10860,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>92</v>
       </c>
@@ -10891,7 +10940,7 @@
       <c r="I89" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="J89" s="12" t="s">
+      <c r="J89" s="20" t="s">
         <v>426</v>
       </c>
       <c r="K89" s="9" t="s">
@@ -10940,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>92</v>
       </c>
@@ -10971,7 +11020,7 @@
       <c r="I90" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="J90" s="12" t="s">
+      <c r="J90" s="20" t="s">
         <v>426</v>
       </c>
       <c r="K90" s="9" t="s">
@@ -11020,7 +11069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>7</v>
       </c>
@@ -11052,14 +11101,14 @@
       <c r="I91" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="J91" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K91" s="12">
         <v>3353049</v>
       </c>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13" t="s">
+      <c r="L91" s="12"/>
+      <c r="M91" s="12" t="s">
         <v>432</v>
       </c>
       <c r="N91" s="9">
@@ -11099,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>15</v>
       </c>
@@ -11131,7 +11180,7 @@
       <c r="I92" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="J92" s="12" t="s">
+      <c r="J92" s="20" t="s">
         <v>437</v>
       </c>
       <c r="K92" s="9" t="s">
@@ -11180,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>43</v>
       </c>
@@ -11212,16 +11261,16 @@
       <c r="I93" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="J93" s="12" t="s">
+      <c r="J93" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="K93" s="13">
+      <c r="K93" s="12">
         <v>693469</v>
       </c>
-      <c r="L93" s="13" t="s">
+      <c r="L93" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="M93" s="13" t="s">
+      <c r="M93" s="12" t="s">
         <v>440</v>
       </c>
       <c r="N93" s="9">
@@ -11258,7 +11307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>43</v>
       </c>
@@ -11290,16 +11339,16 @@
       <c r="I94" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="J94" s="12" t="s">
+      <c r="J94" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="K94" s="13">
+      <c r="K94" s="12">
         <v>693469</v>
       </c>
-      <c r="L94" s="13" t="s">
+      <c r="L94" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="M94" s="13" t="s">
+      <c r="M94" s="12" t="s">
         <v>440</v>
       </c>
       <c r="N94" s="9" t="s">
@@ -11339,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>54</v>
       </c>
@@ -11371,14 +11420,14 @@
       <c r="I95" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="J95" s="12" t="s">
+      <c r="J95" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="K95" s="13">
+      <c r="K95" s="12">
         <v>1848700</v>
       </c>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13" t="s">
+      <c r="L95" s="12"/>
+      <c r="M95" s="12" t="s">
         <v>445</v>
       </c>
       <c r="N95" s="9">
@@ -11418,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>54</v>
       </c>
@@ -11450,14 +11499,14 @@
       <c r="I96" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="K96" s="13">
+      <c r="K96" s="12">
         <v>1848700</v>
       </c>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13" t="s">
+      <c r="L96" s="12"/>
+      <c r="M96" s="12" t="s">
         <v>445</v>
       </c>
       <c r="N96" s="9" t="s">
@@ -11497,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>33</v>
       </c>
@@ -11528,7 +11577,7 @@
       <c r="I97" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="J97" s="12" t="s">
+      <c r="J97" s="20" t="s">
         <v>451</v>
       </c>
       <c r="K97" s="9" t="s">
@@ -11577,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>33</v>
       </c>
@@ -11608,7 +11657,7 @@
       <c r="I98" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="J98" s="12" t="s">
+      <c r="J98" s="20" t="s">
         <v>451</v>
       </c>
       <c r="K98" s="9" t="s">
@@ -11657,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>5</v>
       </c>
@@ -11688,7 +11737,7 @@
       <c r="I99" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="J99" s="12" t="s">
+      <c r="J99" s="20" t="s">
         <v>455</v>
       </c>
       <c r="K99" s="9" t="s">
@@ -11737,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>5</v>
       </c>
@@ -11768,7 +11817,7 @@
       <c r="I100" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="J100" s="12" t="s">
+      <c r="J100" s="20" t="s">
         <v>455</v>
       </c>
       <c r="K100" s="9" t="s">
@@ -11817,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>69</v>
       </c>
@@ -11849,7 +11898,7 @@
       <c r="I101" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="J101" s="12" t="s">
+      <c r="J101" s="20" t="s">
         <v>460</v>
       </c>
       <c r="K101" s="9" t="s">
@@ -11898,7 +11947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>29</v>
       </c>
@@ -11930,7 +11979,7 @@
       <c r="I102" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="J102" s="12" t="s">
+      <c r="J102" s="20" t="s">
         <v>463</v>
       </c>
       <c r="K102" s="9" t="s">
@@ -11976,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>53</v>
       </c>
@@ -12008,16 +12057,16 @@
       <c r="I103" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="J103" s="12" t="s">
+      <c r="J103" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="K103" s="14" t="s">
+      <c r="K103" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="L103" s="13" t="s">
+      <c r="L103" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="M103" s="13" t="s">
+      <c r="M103" s="12" t="s">
         <v>467</v>
       </c>
       <c r="N103" s="9" t="s">
@@ -12057,7 +12106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>18</v>
       </c>
@@ -12088,14 +12137,14 @@
       <c r="I104" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="J104" s="12" t="s">
+      <c r="J104" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="K104" s="13">
+      <c r="K104" s="12">
         <v>3438001</v>
       </c>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13" t="s">
+      <c r="L104" s="12"/>
+      <c r="M104" s="12" t="s">
         <v>471</v>
       </c>
       <c r="N104" s="9">
@@ -12135,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>18</v>
       </c>
@@ -12166,14 +12215,14 @@
       <c r="I105" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="J105" s="12" t="s">
+      <c r="J105" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="K105" s="13">
+      <c r="K105" s="12">
         <v>3438001</v>
       </c>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13" t="s">
+      <c r="L105" s="12"/>
+      <c r="M105" s="12" t="s">
         <v>471</v>
       </c>
       <c r="N105" s="9">
@@ -12213,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>36</v>
       </c>
@@ -12244,16 +12293,16 @@
       <c r="I106" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="J106" s="12" t="s">
+      <c r="J106" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="K106" s="15">
+      <c r="K106" s="21">
         <v>4118386</v>
       </c>
-      <c r="L106" s="15" t="s">
+      <c r="L106" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="M106" s="15" t="s">
+      <c r="M106" s="21" t="s">
         <v>479</v>
       </c>
       <c r="N106" s="9">
@@ -12293,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>119</v>
       </c>
@@ -12324,16 +12373,16 @@
       <c r="I107" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="J107" s="16" t="s">
+      <c r="J107" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="K107" s="13">
+      <c r="K107" s="12">
         <v>3808516</v>
       </c>
-      <c r="L107" s="13" t="s">
+      <c r="L107" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M107" s="13" t="s">
+      <c r="M107" s="12" t="s">
         <v>485</v>
       </c>
       <c r="N107" s="9">
@@ -12374,7 +12423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>119</v>
       </c>
@@ -12405,16 +12454,16 @@
       <c r="I108" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="J108" s="16" t="s">
+      <c r="J108" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="K108" s="13">
+      <c r="K108" s="12">
         <v>3808516</v>
       </c>
-      <c r="L108" s="13" t="s">
+      <c r="L108" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M108" s="13" t="s">
+      <c r="M108" s="12" t="s">
         <v>485</v>
       </c>
       <c r="N108" s="9">
@@ -12454,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>119</v>
       </c>
@@ -12485,16 +12534,16 @@
       <c r="I109" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="J109" s="16" t="s">
+      <c r="J109" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="K109" s="13">
+      <c r="K109" s="12">
         <v>3808516</v>
       </c>
-      <c r="L109" s="13" t="s">
+      <c r="L109" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M109" s="13" t="s">
+      <c r="M109" s="12" t="s">
         <v>485</v>
       </c>
       <c r="N109" s="9" t="s">
@@ -12534,7 +12583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>40</v>
       </c>
@@ -12614,7 +12663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>40</v>
       </c>
@@ -12678,11 +12727,11 @@
         <v>4175189</v>
       </c>
       <c r="T111" s="9">
-        <f t="shared" ref="T111:T129" si="145">R111-G111</f>
+        <f t="shared" ref="T111:T130" si="145">R111-G111</f>
         <v>42</v>
       </c>
       <c r="U111" s="9">
-        <f t="shared" ref="U111:U129" si="146">S111-G111</f>
+        <f t="shared" ref="U111:U130" si="146">S111-G111</f>
         <v>126</v>
       </c>
       <c r="V111" s="9" t="s">
@@ -12695,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>72</v>
       </c>
@@ -12726,16 +12775,16 @@
       <c r="I112" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="J112" s="12" t="s">
+      <c r="J112" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="K112" s="13">
+      <c r="K112" s="12">
         <v>4621657</v>
       </c>
-      <c r="L112" s="13" t="s">
+      <c r="L112" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M112" s="13" t="s">
+      <c r="M112" s="12" t="s">
         <v>496</v>
       </c>
       <c r="N112" s="9">
@@ -12775,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>72</v>
       </c>
@@ -12806,16 +12855,16 @@
       <c r="I113" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="J113" s="12" t="s">
+      <c r="J113" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="K113" s="13">
+      <c r="K113" s="12">
         <v>4621716</v>
       </c>
-      <c r="L113" s="13" t="s">
+      <c r="L113" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M113" s="13" t="s">
+      <c r="M113" s="12" t="s">
         <v>493</v>
       </c>
       <c r="N113" s="9">
@@ -12852,7 +12901,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>72</v>
       </c>
@@ -12883,16 +12932,16 @@
       <c r="I114" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="J114" s="12" t="s">
+      <c r="J114" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="K114" s="13">
+      <c r="K114" s="12">
         <v>4621716</v>
       </c>
-      <c r="L114" s="13" t="s">
+      <c r="L114" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M114" s="13" t="s">
+      <c r="M114" s="12" t="s">
         <v>493</v>
       </c>
       <c r="N114" s="9" t="s">
@@ -12933,881 +12982,961 @@
       </c>
     </row>
     <row r="115" spans="1:24" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B115" s="18">
+      <c r="B115" s="14">
         <v>4370616</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D115" s="18">
-        <f t="shared" ref="D115:D164" si="151">IF(C115="fwd",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E115" s="18">
-        <v>0</v>
-      </c>
-      <c r="F115" s="18">
-        <f t="shared" ref="F115:F164" si="152">B115+D115*E115</f>
+      <c r="D115" s="14">
+        <f t="shared" ref="D115:D165" si="151">IF(C115="fwd",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E115" s="14">
+        <v>0</v>
+      </c>
+      <c r="F115" s="14">
+        <f t="shared" ref="F115:F165" si="152">B115+D115*E115</f>
         <v>4370616</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="14">
         <v>4370502</v>
       </c>
-      <c r="H115" s="18">
-        <f t="shared" ref="H115:H129" si="153">G115+159</f>
+      <c r="H115" s="14">
+        <f t="shared" ref="H115:H130" si="153">G115+159</f>
         <v>4370661</v>
       </c>
-      <c r="I115" s="18" t="s">
+      <c r="I115" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="J115" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="6">
         <v>4370616</v>
       </c>
-      <c r="L115" s="2" t="s">
+      <c r="L115" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="N115" s="18">
+      <c r="N115" s="14">
         <v>4370588</v>
       </c>
-      <c r="O115" s="18">
+      <c r="O115" s="14">
         <v>4370616</v>
       </c>
-      <c r="P115" s="18" t="s">
+      <c r="P115" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="Q115" s="18" t="s">
+      <c r="Q115" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="R115" s="18">
+      <c r="R115" s="14">
         <v>4370550</v>
       </c>
-      <c r="S115" s="18">
+      <c r="S115" s="14">
         <f>R115+13</f>
         <v>4370563</v>
       </c>
-      <c r="T115" s="18">
+      <c r="T115" s="14">
         <f t="shared" si="145"/>
         <v>48</v>
       </c>
-      <c r="U115" s="18">
+      <c r="U115" s="14">
         <f t="shared" si="146"/>
         <v>61</v>
       </c>
-      <c r="V115" s="18" t="s">
+      <c r="V115" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="W115" s="18" t="s">
+      <c r="W115" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="X115" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="22" t="s">
+      <c r="X115" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B116" s="23">
+      <c r="B116" s="19">
         <v>148</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="23">
+      <c r="D116" s="19">
         <f t="shared" si="151"/>
         <v>1</v>
       </c>
-      <c r="E116" s="23">
-        <v>0</v>
-      </c>
-      <c r="F116" s="23">
+      <c r="E116" s="19">
+        <v>0</v>
+      </c>
+      <c r="F116" s="19">
         <f t="shared" si="152"/>
         <v>148</v>
       </c>
-      <c r="G116" s="23">
+      <c r="G116" s="19">
         <v>34</v>
       </c>
-      <c r="H116" s="23">
+      <c r="H116" s="19">
         <f t="shared" si="153"/>
         <v>193</v>
       </c>
-      <c r="I116" s="23" t="s">
+      <c r="I116" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="J116" s="6" t="s">
+      <c r="J116" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="K116" s="5">
+      <c r="K116" s="25">
         <v>148</v>
       </c>
-      <c r="L116" s="5" t="s">
+      <c r="L116" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="M116" s="5" t="s">
+      <c r="M116" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="N116" s="23">
+      <c r="N116" s="19">
         <v>113</v>
       </c>
-      <c r="O116" s="23">
+      <c r="O116" s="19">
         <v>148</v>
       </c>
-      <c r="P116" s="23" t="s">
+      <c r="P116" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="Q116" s="23" t="s">
+      <c r="Q116" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="R116" s="23">
+      <c r="R116" s="19">
         <v>112</v>
       </c>
-      <c r="S116" s="23">
+      <c r="S116" s="19">
         <v>142</v>
       </c>
-      <c r="T116" s="23">
+      <c r="T116" s="19">
         <f t="shared" si="145"/>
         <v>78</v>
       </c>
-      <c r="U116" s="23">
+      <c r="U116" s="19">
         <f t="shared" si="146"/>
         <v>108</v>
       </c>
-      <c r="V116" s="23" t="s">
+      <c r="V116" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="W116" s="23" t="s">
+      <c r="W116" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="X116" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="22" t="s">
+      <c r="X116" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B117" s="19">
         <v>148</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C117" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D117" s="23">
+      <c r="D117" s="19">
         <f t="shared" ref="D117" si="154">IF(C117="fwd",1,-1)</f>
         <v>1</v>
       </c>
-      <c r="E117" s="23">
-        <v>0</v>
-      </c>
-      <c r="F117" s="23">
+      <c r="E117" s="19">
+        <v>0</v>
+      </c>
+      <c r="F117" s="19">
         <f t="shared" ref="F117" si="155">B117+D117*E117</f>
         <v>148</v>
       </c>
-      <c r="G117" s="23">
+      <c r="G117" s="19">
         <v>34</v>
       </c>
-      <c r="H117" s="23">
+      <c r="H117" s="19">
         <f t="shared" si="153"/>
         <v>193</v>
       </c>
-      <c r="I117" s="23" t="s">
+      <c r="I117" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="J117" s="6" t="s">
+      <c r="J117" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="K117" s="5">
+      <c r="K117" s="25">
         <v>148</v>
       </c>
-      <c r="L117" s="5" t="s">
+      <c r="L117" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="M117" s="5" t="s">
+      <c r="M117" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="N117" s="23">
+      <c r="N117" s="19">
         <v>98</v>
       </c>
-      <c r="O117" s="23">
+      <c r="O117" s="19">
         <v>112</v>
       </c>
-      <c r="P117" s="23" t="s">
+      <c r="P117" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="Q117" s="23" t="s">
+      <c r="Q117" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="R117" s="23">
+      <c r="R117" s="19">
         <v>60</v>
       </c>
-      <c r="S117" s="23">
+      <c r="S117" s="19">
         <v>100</v>
       </c>
-      <c r="T117" s="23">
+      <c r="T117" s="19">
         <f t="shared" ref="T117" si="156">R117-G117</f>
         <v>26</v>
       </c>
-      <c r="U117" s="23">
+      <c r="U117" s="19">
         <f t="shared" ref="U117" si="157">S117-G117</f>
         <v>66</v>
       </c>
-      <c r="V117" s="23" t="s">
+      <c r="V117" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="W117" s="23" t="s">
+      <c r="W117" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="X117" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="22" t="s">
+      <c r="X117" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B118" s="23">
+      <c r="B118" s="19">
         <v>148</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D118" s="23">
+      <c r="D118" s="19">
         <f t="shared" ref="D118" si="158">IF(C118="fwd",1,-1)</f>
         <v>1</v>
       </c>
-      <c r="E118" s="23">
-        <v>0</v>
-      </c>
-      <c r="F118" s="23">
+      <c r="E118" s="19">
+        <v>0</v>
+      </c>
+      <c r="F118" s="19">
         <f t="shared" ref="F118" si="159">B118+D118*E118</f>
         <v>148</v>
       </c>
-      <c r="G118" s="23">
+      <c r="G118" s="19">
         <v>34</v>
       </c>
-      <c r="H118" s="23">
+      <c r="H118" s="19">
         <f t="shared" si="153"/>
         <v>193</v>
       </c>
-      <c r="I118" s="23" t="s">
+      <c r="I118" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="J118" s="6" t="s">
+      <c r="J118" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="K118" s="5">
+      <c r="K118" s="25">
         <v>148</v>
       </c>
-      <c r="L118" s="5" t="s">
+      <c r="L118" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="N118" s="23">
+      <c r="N118" s="19">
         <v>159</v>
       </c>
-      <c r="O118" s="23">
+      <c r="O118" s="19">
         <v>173</v>
       </c>
-      <c r="P118" s="23" t="s">
+      <c r="P118" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="Q118" s="23" t="s">
+      <c r="Q118" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="R118" s="23">
+      <c r="R118" s="19">
         <v>150</v>
       </c>
-      <c r="S118" s="23">
+      <c r="S118" s="19">
         <v>190</v>
       </c>
-      <c r="T118" s="23">
+      <c r="T118" s="19">
         <f t="shared" ref="T118" si="160">R118-G118</f>
         <v>116</v>
       </c>
-      <c r="U118" s="23">
+      <c r="U118" s="19">
         <f t="shared" ref="U118" si="161">S118-G118</f>
         <v>156</v>
       </c>
-      <c r="V118" s="23" t="s">
+      <c r="V118" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="W118" s="23" t="s">
+      <c r="W118" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="X118" s="23">
+      <c r="X118" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:24" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119" s="14">
         <v>454993</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="14">
         <f t="shared" si="151"/>
         <v>1</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="14">
         <v>-129</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="14">
         <f t="shared" si="152"/>
         <v>454864</v>
       </c>
-      <c r="G119" s="18">
+      <c r="G119" s="14">
         <v>454879</v>
       </c>
-      <c r="H119" s="18">
+      <c r="H119" s="14">
         <f t="shared" si="153"/>
         <v>455038</v>
       </c>
-      <c r="I119" s="18" t="s">
+      <c r="I119" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="J119" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="6">
         <v>454994</v>
       </c>
-      <c r="L119" s="2" t="s">
+      <c r="L119" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="N119"